--- a/Bases_de_Dados_(2022-2024)/China Chinese Super League_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/China Chinese Super League_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="831" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="861" uniqueCount="246">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -517,13 +517,19 @@
     <t>['62', '65', '78']</t>
   </si>
   <si>
-    <t>['19', '31', '45+3']</t>
+    <t>['19', '31', '45+2']</t>
   </si>
   <si>
     <t>['24', '82']</t>
   </si>
   <si>
     <t>['51']</t>
+  </si>
+  <si>
+    <t>['70', '74']</t>
+  </si>
+  <si>
+    <t>['15']</t>
   </si>
   <si>
     <t>['64', '79']</t>
@@ -740,6 +746,12 @@
   </si>
   <si>
     <t>['79']</t>
+  </si>
+  <si>
+    <t>['6', '48', '61', '72']</t>
+  </si>
+  <si>
+    <t>['35']</t>
   </si>
 </sst>
 </file>
@@ -1101,7 +1113,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK129"/>
+  <dimension ref="A1:BK134"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1536,7 +1548,7 @@
         <v>82</v>
       </c>
       <c r="P3" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Q3">
         <v>5</v>
@@ -1626,7 +1638,7 @@
         <v>1.14</v>
       </c>
       <c r="AT3">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AU3">
         <v>0</v>
@@ -1727,7 +1739,7 @@
         <v>82</v>
       </c>
       <c r="P4" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Q4">
         <v>9</v>
@@ -1814,10 +1826,10 @@
         <v>0</v>
       </c>
       <c r="AS4">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AT4">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AU4">
         <v>0</v>
@@ -1918,7 +1930,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q5">
         <v>8</v>
@@ -2005,7 +2017,7 @@
         <v>0</v>
       </c>
       <c r="AS5">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AT5">
         <v>0.75</v>
@@ -2109,7 +2121,7 @@
         <v>84</v>
       </c>
       <c r="P6" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q6">
         <v>2</v>
@@ -2300,7 +2312,7 @@
         <v>85</v>
       </c>
       <c r="P7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q7">
         <v>7</v>
@@ -2581,7 +2593,7 @@
         <v>1.88</v>
       </c>
       <c r="AT8">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AU8">
         <v>0</v>
@@ -2682,7 +2694,7 @@
         <v>87</v>
       </c>
       <c r="P9" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q9">
         <v>4</v>
@@ -2769,7 +2781,7 @@
         <v>0</v>
       </c>
       <c r="AS9">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AT9">
         <v>0.25</v>
@@ -2873,7 +2885,7 @@
         <v>88</v>
       </c>
       <c r="P10" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q10">
         <v>4</v>
@@ -3255,7 +3267,7 @@
         <v>82</v>
       </c>
       <c r="P12" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q12">
         <v>7</v>
@@ -4019,7 +4031,7 @@
         <v>92</v>
       </c>
       <c r="P16" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q16">
         <v>7</v>
@@ -4210,7 +4222,7 @@
         <v>93</v>
       </c>
       <c r="P17" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q17">
         <v>3</v>
@@ -4592,7 +4604,7 @@
         <v>95</v>
       </c>
       <c r="P19" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q19">
         <v>2</v>
@@ -4682,7 +4694,7 @@
         <v>1.25</v>
       </c>
       <c r="AT19">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AU19">
         <v>1.1</v>
@@ -4783,7 +4795,7 @@
         <v>96</v>
       </c>
       <c r="P20" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q20">
         <v>2</v>
@@ -4974,7 +4986,7 @@
         <v>82</v>
       </c>
       <c r="P21" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q21">
         <v>10</v>
@@ -5064,7 +5076,7 @@
         <v>1</v>
       </c>
       <c r="AT21">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AU21">
         <v>0</v>
@@ -5255,7 +5267,7 @@
         <v>1.88</v>
       </c>
       <c r="AT22">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AU22">
         <v>0.9</v>
@@ -5547,7 +5559,7 @@
         <v>82</v>
       </c>
       <c r="P24" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q24">
         <v>9</v>
@@ -5634,10 +5646,10 @@
         <v>0</v>
       </c>
       <c r="AS24">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AT24">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AU24">
         <v>0.62</v>
@@ -5825,7 +5837,7 @@
         <v>0</v>
       </c>
       <c r="AS25">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AT25">
         <v>0.63</v>
@@ -6016,10 +6028,10 @@
         <v>0</v>
       </c>
       <c r="AS26">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AT26">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AU26">
         <v>1.83</v>
@@ -6120,7 +6132,7 @@
         <v>82</v>
       </c>
       <c r="P27" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q27">
         <v>2</v>
@@ -6210,7 +6222,7 @@
         <v>1.38</v>
       </c>
       <c r="AT27">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AU27">
         <v>0.92</v>
@@ -6311,7 +6323,7 @@
         <v>82</v>
       </c>
       <c r="P28" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q28">
         <v>3</v>
@@ -6398,7 +6410,7 @@
         <v>1</v>
       </c>
       <c r="AS28">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AT28">
         <v>1.71</v>
@@ -6502,7 +6514,7 @@
         <v>83</v>
       </c>
       <c r="P29" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q29">
         <v>5</v>
@@ -6592,7 +6604,7 @@
         <v>1.75</v>
       </c>
       <c r="AT29">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AU29">
         <v>1.36</v>
@@ -6693,7 +6705,7 @@
         <v>99</v>
       </c>
       <c r="P30" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q30">
         <v>11</v>
@@ -6780,7 +6792,7 @@
         <v>0</v>
       </c>
       <c r="AS30">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AT30">
         <v>0.63</v>
@@ -7075,7 +7087,7 @@
         <v>101</v>
       </c>
       <c r="P32" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q32">
         <v>8</v>
@@ -7266,7 +7278,7 @@
         <v>102</v>
       </c>
       <c r="P33" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q33">
         <v>7</v>
@@ -7926,7 +7938,7 @@
         <v>0.5</v>
       </c>
       <c r="AS36">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AT36">
         <v>1.29</v>
@@ -8221,7 +8233,7 @@
         <v>104</v>
       </c>
       <c r="P38" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q38">
         <v>3</v>
@@ -8311,7 +8323,7 @@
         <v>1.25</v>
       </c>
       <c r="AT38">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AU38">
         <v>1.32</v>
@@ -8412,7 +8424,7 @@
         <v>105</v>
       </c>
       <c r="P39" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q39">
         <v>6</v>
@@ -8693,7 +8705,7 @@
         <v>1.75</v>
       </c>
       <c r="AT40">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AU40">
         <v>1.52</v>
@@ -8881,10 +8893,10 @@
         <v>1.5</v>
       </c>
       <c r="AS41">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AT41">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AU41">
         <v>1.68</v>
@@ -9075,7 +9087,7 @@
         <v>1.25</v>
       </c>
       <c r="AT42">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AU42">
         <v>0.98</v>
@@ -9176,7 +9188,7 @@
         <v>107</v>
       </c>
       <c r="P43" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q43">
         <v>5</v>
@@ -9367,7 +9379,7 @@
         <v>99</v>
       </c>
       <c r="P44" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q44">
         <v>5</v>
@@ -9454,7 +9466,7 @@
         <v>2</v>
       </c>
       <c r="AS44">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AT44">
         <v>2</v>
@@ -9645,10 +9657,10 @@
         <v>2</v>
       </c>
       <c r="AS45">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AT45">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AU45">
         <v>1.29</v>
@@ -9749,7 +9761,7 @@
         <v>109</v>
       </c>
       <c r="P46" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q46">
         <v>3</v>
@@ -9836,7 +9848,7 @@
         <v>0.33</v>
       </c>
       <c r="AS46">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AT46">
         <v>1.11</v>
@@ -10131,7 +10143,7 @@
         <v>110</v>
       </c>
       <c r="P48" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q48">
         <v>9</v>
@@ -10221,7 +10233,7 @@
         <v>2</v>
       </c>
       <c r="AT48">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AU48">
         <v>1.82</v>
@@ -10322,7 +10334,7 @@
         <v>111</v>
       </c>
       <c r="P49" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q49">
         <v>3</v>
@@ -10513,7 +10525,7 @@
         <v>112</v>
       </c>
       <c r="P50" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q50">
         <v>4</v>
@@ -10603,7 +10615,7 @@
         <v>1.88</v>
       </c>
       <c r="AT50">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AU50">
         <v>1.37</v>
@@ -10704,7 +10716,7 @@
         <v>113</v>
       </c>
       <c r="P51" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q51">
         <v>2</v>
@@ -10791,7 +10803,7 @@
         <v>0</v>
       </c>
       <c r="AS51">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AT51">
         <v>0.38</v>
@@ -11086,7 +11098,7 @@
         <v>115</v>
       </c>
       <c r="P53" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q53">
         <v>8</v>
@@ -11176,7 +11188,7 @@
         <v>2</v>
       </c>
       <c r="AT53">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AU53">
         <v>1.79</v>
@@ -11277,7 +11289,7 @@
         <v>116</v>
       </c>
       <c r="P54" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q54">
         <v>3</v>
@@ -11364,10 +11376,10 @@
         <v>2.33</v>
       </c>
       <c r="AS54">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AT54">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AU54">
         <v>1.05</v>
@@ -11749,7 +11761,7 @@
         <v>1</v>
       </c>
       <c r="AT56">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AU56">
         <v>1.11</v>
@@ -11937,7 +11949,7 @@
         <v>0.67</v>
       </c>
       <c r="AS57">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AT57">
         <v>0.38</v>
@@ -12041,7 +12053,7 @@
         <v>120</v>
       </c>
       <c r="P58" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q58">
         <v>3</v>
@@ -12319,7 +12331,7 @@
         <v>0</v>
       </c>
       <c r="AS59">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AT59">
         <v>0.14</v>
@@ -12423,7 +12435,7 @@
         <v>121</v>
       </c>
       <c r="P60" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q60">
         <v>3</v>
@@ -12614,7 +12626,7 @@
         <v>122</v>
       </c>
       <c r="P61" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q61">
         <v>6</v>
@@ -12704,7 +12716,7 @@
         <v>1</v>
       </c>
       <c r="AT61">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AU61">
         <v>1.29</v>
@@ -12805,7 +12817,7 @@
         <v>123</v>
       </c>
       <c r="P62" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q62">
         <v>2</v>
@@ -13187,7 +13199,7 @@
         <v>125</v>
       </c>
       <c r="P64" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q64">
         <v>1</v>
@@ -13277,7 +13289,7 @@
         <v>1.75</v>
       </c>
       <c r="AT64">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AU64">
         <v>1.39</v>
@@ -13378,7 +13390,7 @@
         <v>82</v>
       </c>
       <c r="P65" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q65">
         <v>1</v>
@@ -13468,7 +13480,7 @@
         <v>1.25</v>
       </c>
       <c r="AT65">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AU65">
         <v>1.25</v>
@@ -13569,7 +13581,7 @@
         <v>126</v>
       </c>
       <c r="P66" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q66">
         <v>4</v>
@@ -13760,7 +13772,7 @@
         <v>127</v>
       </c>
       <c r="P67" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q67">
         <v>7</v>
@@ -13847,7 +13859,7 @@
         <v>1.25</v>
       </c>
       <c r="AS67">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AT67">
         <v>1.29</v>
@@ -14142,7 +14154,7 @@
         <v>82</v>
       </c>
       <c r="P69" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q69">
         <v>6</v>
@@ -14229,10 +14241,10 @@
         <v>2</v>
       </c>
       <c r="AS69">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AT69">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AU69">
         <v>2.04</v>
@@ -14524,7 +14536,7 @@
         <v>129</v>
       </c>
       <c r="P71" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q71">
         <v>7</v>
@@ -14805,7 +14817,7 @@
         <v>1.25</v>
       </c>
       <c r="AT72">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AU72">
         <v>1.13</v>
@@ -14906,7 +14918,7 @@
         <v>131</v>
       </c>
       <c r="P73" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q73">
         <v>7</v>
@@ -15288,7 +15300,7 @@
         <v>133</v>
       </c>
       <c r="P75" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q75">
         <v>10</v>
@@ -15378,7 +15390,7 @@
         <v>1</v>
       </c>
       <c r="AT75">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AU75">
         <v>1.54</v>
@@ -15479,7 +15491,7 @@
         <v>134</v>
       </c>
       <c r="P76" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q76">
         <v>3</v>
@@ -15566,7 +15578,7 @@
         <v>1.25</v>
       </c>
       <c r="AS76">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AT76">
         <v>1.13</v>
@@ -15670,7 +15682,7 @@
         <v>82</v>
       </c>
       <c r="P77" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q77">
         <v>4</v>
@@ -15760,7 +15772,7 @@
         <v>1.38</v>
       </c>
       <c r="AT77">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AU77">
         <v>1.45</v>
@@ -15861,7 +15873,7 @@
         <v>103</v>
       </c>
       <c r="P78" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q78">
         <v>7</v>
@@ -16142,7 +16154,7 @@
         <v>1</v>
       </c>
       <c r="AT79">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AU79">
         <v>1.38</v>
@@ -16243,7 +16255,7 @@
         <v>135</v>
       </c>
       <c r="P80" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q80">
         <v>3</v>
@@ -16330,7 +16342,7 @@
         <v>1.25</v>
       </c>
       <c r="AS80">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AT80">
         <v>0.75</v>
@@ -16434,7 +16446,7 @@
         <v>82</v>
       </c>
       <c r="P81" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q81">
         <v>4</v>
@@ -16524,7 +16536,7 @@
         <v>1.75</v>
       </c>
       <c r="AT81">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AU81">
         <v>1.53</v>
@@ -16712,7 +16724,7 @@
         <v>0.33</v>
       </c>
       <c r="AS82">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AT82">
         <v>0.14</v>
@@ -16816,7 +16828,7 @@
         <v>137</v>
       </c>
       <c r="P83" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q83">
         <v>12</v>
@@ -16903,10 +16915,10 @@
         <v>2</v>
       </c>
       <c r="AS83">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AT83">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AU83">
         <v>1.68</v>
@@ -17389,7 +17401,7 @@
         <v>139</v>
       </c>
       <c r="P86" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q86">
         <v>2</v>
@@ -17580,7 +17592,7 @@
         <v>82</v>
       </c>
       <c r="P87" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q87">
         <v>1</v>
@@ -17858,7 +17870,7 @@
         <v>0.2</v>
       </c>
       <c r="AS88">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AT88">
         <v>0.25</v>
@@ -17962,7 +17974,7 @@
         <v>140</v>
       </c>
       <c r="P89" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q89">
         <v>6</v>
@@ -18052,7 +18064,7 @@
         <v>1.75</v>
       </c>
       <c r="AT89">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AU89">
         <v>1.26</v>
@@ -18153,7 +18165,7 @@
         <v>82</v>
       </c>
       <c r="P90" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q90">
         <v>3</v>
@@ -18344,7 +18356,7 @@
         <v>141</v>
       </c>
       <c r="P91" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q91">
         <v>5</v>
@@ -18625,7 +18637,7 @@
         <v>2</v>
       </c>
       <c r="AT92">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AU92">
         <v>1.73</v>
@@ -18726,7 +18738,7 @@
         <v>142</v>
       </c>
       <c r="P93" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q93">
         <v>3</v>
@@ -18917,7 +18929,7 @@
         <v>143</v>
       </c>
       <c r="P94" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q94">
         <v>7</v>
@@ -19198,7 +19210,7 @@
         <v>1.14</v>
       </c>
       <c r="AT95">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AU95">
         <v>1.76</v>
@@ -19299,7 +19311,7 @@
         <v>144</v>
       </c>
       <c r="P96" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q96">
         <v>7</v>
@@ -19490,7 +19502,7 @@
         <v>145</v>
       </c>
       <c r="P97" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q97">
         <v>1</v>
@@ -19959,7 +19971,7 @@
         <v>0.83</v>
       </c>
       <c r="AS99">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AT99">
         <v>0.75</v>
@@ -20063,7 +20075,7 @@
         <v>147</v>
       </c>
       <c r="P100" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q100">
         <v>5</v>
@@ -20445,7 +20457,7 @@
         <v>82</v>
       </c>
       <c r="P102" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q102">
         <v>12</v>
@@ -20636,7 +20648,7 @@
         <v>82</v>
       </c>
       <c r="P103" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q103">
         <v>1</v>
@@ -20723,7 +20735,7 @@
         <v>1.8</v>
       </c>
       <c r="AS103">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AT103">
         <v>1.71</v>
@@ -20827,7 +20839,7 @@
         <v>149</v>
       </c>
       <c r="P104" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q104">
         <v>4</v>
@@ -20917,7 +20929,7 @@
         <v>2.43</v>
       </c>
       <c r="AT104">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AU104">
         <v>2.05</v>
@@ -21018,7 +21030,7 @@
         <v>108</v>
       </c>
       <c r="P105" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q105">
         <v>2</v>
@@ -21105,10 +21117,10 @@
         <v>2.67</v>
       </c>
       <c r="AS105">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AT105">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AU105">
         <v>1.81</v>
@@ -21209,7 +21221,7 @@
         <v>123</v>
       </c>
       <c r="P106" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q106">
         <v>2</v>
@@ -21299,7 +21311,7 @@
         <v>1.88</v>
       </c>
       <c r="AT106">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AU106">
         <v>1.52</v>
@@ -21400,7 +21412,7 @@
         <v>150</v>
       </c>
       <c r="P107" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q107">
         <v>6</v>
@@ -21782,7 +21794,7 @@
         <v>152</v>
       </c>
       <c r="P109" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q109">
         <v>17</v>
@@ -21869,7 +21881,7 @@
         <v>0.71</v>
       </c>
       <c r="AS109">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AT109">
         <v>0.75</v>
@@ -21973,7 +21985,7 @@
         <v>153</v>
       </c>
       <c r="P110" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q110">
         <v>1</v>
@@ -22060,10 +22072,10 @@
         <v>1.71</v>
       </c>
       <c r="AS110">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AT110">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AU110">
         <v>1.18</v>
@@ -22164,7 +22176,7 @@
         <v>154</v>
       </c>
       <c r="P111" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q111">
         <v>3</v>
@@ -22254,7 +22266,7 @@
         <v>2.43</v>
       </c>
       <c r="AT111">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AU111">
         <v>1.93</v>
@@ -22546,7 +22558,7 @@
         <v>155</v>
       </c>
       <c r="P113" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q113">
         <v>5</v>
@@ -22737,7 +22749,7 @@
         <v>156</v>
       </c>
       <c r="P114" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q114">
         <v>14</v>
@@ -23018,7 +23030,7 @@
         <v>1.25</v>
       </c>
       <c r="AT115">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AU115">
         <v>1.14</v>
@@ -23501,7 +23513,7 @@
         <v>82</v>
       </c>
       <c r="P118" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q118">
         <v>3</v>
@@ -23588,7 +23600,7 @@
         <v>2.17</v>
       </c>
       <c r="AS118">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AT118">
         <v>2</v>
@@ -23782,7 +23794,7 @@
         <v>1.14</v>
       </c>
       <c r="AT119">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AU119">
         <v>1.67</v>
@@ -23883,7 +23895,7 @@
         <v>160</v>
       </c>
       <c r="P120" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q120">
         <v>7</v>
@@ -24161,7 +24173,7 @@
         <v>0.2</v>
       </c>
       <c r="AS121">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AT121">
         <v>0.14</v>
@@ -24647,7 +24659,7 @@
         <v>164</v>
       </c>
       <c r="P124" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q124">
         <v>9</v>
@@ -24737,7 +24749,7 @@
         <v>1</v>
       </c>
       <c r="AT124">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AU124">
         <v>1.44</v>
@@ -24970,13 +24982,13 @@
         <v>3</v>
       </c>
       <c r="BH125">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BI125">
         <v>3</v>
       </c>
       <c r="BJ125">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BK125">
         <v>6</v>
@@ -25119,7 +25131,7 @@
         <v>2.13</v>
       </c>
       <c r="AT126">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AU126">
         <v>1.75</v>
@@ -25220,7 +25232,7 @@
         <v>167</v>
       </c>
       <c r="P127" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q127">
         <v>1</v>
@@ -25411,16 +25423,16 @@
         <v>168</v>
       </c>
       <c r="P128" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q128">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R128">
         <v>3</v>
       </c>
       <c r="S128">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T128">
         <v>2.95</v>
@@ -25602,7 +25614,7 @@
         <v>169</v>
       </c>
       <c r="P129" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q129">
         <v>6</v>
@@ -25689,7 +25701,7 @@
         <v>0.29</v>
       </c>
       <c r="AS129">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AT129">
         <v>0.38</v>
@@ -25744,6 +25756,961 @@
       </c>
       <c r="BK129">
         <v>5</v>
+      </c>
+    </row>
+    <row r="130" spans="1:63">
+      <c r="A130" s="1">
+        <v>129</v>
+      </c>
+      <c r="B130">
+        <v>5845572</v>
+      </c>
+      <c r="C130" t="s">
+        <v>63</v>
+      </c>
+      <c r="D130" t="s">
+        <v>64</v>
+      </c>
+      <c r="E130" s="2">
+        <v>45123.35763888889</v>
+      </c>
+      <c r="F130">
+        <v>17</v>
+      </c>
+      <c r="G130" t="s">
+        <v>72</v>
+      </c>
+      <c r="H130" t="s">
+        <v>76</v>
+      </c>
+      <c r="I130">
+        <v>1</v>
+      </c>
+      <c r="J130">
+        <v>1</v>
+      </c>
+      <c r="K130">
+        <v>2</v>
+      </c>
+      <c r="L130">
+        <v>1</v>
+      </c>
+      <c r="M130">
+        <v>4</v>
+      </c>
+      <c r="N130">
+        <v>5</v>
+      </c>
+      <c r="O130" t="s">
+        <v>95</v>
+      </c>
+      <c r="P130" t="s">
+        <v>244</v>
+      </c>
+      <c r="Q130">
+        <v>2</v>
+      </c>
+      <c r="R130">
+        <v>8</v>
+      </c>
+      <c r="S130">
+        <v>10</v>
+      </c>
+      <c r="T130">
+        <v>11.76</v>
+      </c>
+      <c r="U130">
+        <v>3.46</v>
+      </c>
+      <c r="V130">
+        <v>1.43</v>
+      </c>
+      <c r="W130">
+        <v>1.19</v>
+      </c>
+      <c r="X130">
+        <v>4.1</v>
+      </c>
+      <c r="Y130">
+        <v>1.94</v>
+      </c>
+      <c r="Z130">
+        <v>1.84</v>
+      </c>
+      <c r="AA130">
+        <v>3.9</v>
+      </c>
+      <c r="AB130">
+        <v>1.21</v>
+      </c>
+      <c r="AC130">
+        <v>19.5</v>
+      </c>
+      <c r="AD130">
+        <v>9.5</v>
+      </c>
+      <c r="AE130">
+        <v>1.12</v>
+      </c>
+      <c r="AF130">
+        <v>1.01</v>
+      </c>
+      <c r="AG130">
+        <v>27</v>
+      </c>
+      <c r="AH130">
+        <v>1.06</v>
+      </c>
+      <c r="AI130">
+        <v>6.6</v>
+      </c>
+      <c r="AJ130">
+        <v>1.3</v>
+      </c>
+      <c r="AK130">
+        <v>3.3</v>
+      </c>
+      <c r="AL130">
+        <v>2.25</v>
+      </c>
+      <c r="AM130">
+        <v>1.58</v>
+      </c>
+      <c r="AN130">
+        <v>6.25</v>
+      </c>
+      <c r="AO130">
+        <v>1.06</v>
+      </c>
+      <c r="AP130">
+        <v>1.03</v>
+      </c>
+      <c r="AQ130">
+        <v>1.11</v>
+      </c>
+      <c r="AR130">
+        <v>2.5</v>
+      </c>
+      <c r="AS130">
+        <v>1</v>
+      </c>
+      <c r="AT130">
+        <v>2.56</v>
+      </c>
+      <c r="AU130">
+        <v>1.18</v>
+      </c>
+      <c r="AV130">
+        <v>1.44</v>
+      </c>
+      <c r="AW130">
+        <v>2.62</v>
+      </c>
+      <c r="AX130">
+        <v>7.8</v>
+      </c>
+      <c r="AY130">
+        <v>12.5</v>
+      </c>
+      <c r="AZ130">
+        <v>1.13</v>
+      </c>
+      <c r="BA130">
+        <v>1.27</v>
+      </c>
+      <c r="BB130">
+        <v>1.56</v>
+      </c>
+      <c r="BC130">
+        <v>1.93</v>
+      </c>
+      <c r="BD130">
+        <v>2.38</v>
+      </c>
+      <c r="BE130">
+        <v>3.2</v>
+      </c>
+      <c r="BF130">
+        <v>5</v>
+      </c>
+      <c r="BG130">
+        <v>10</v>
+      </c>
+      <c r="BH130">
+        <v>2</v>
+      </c>
+      <c r="BI130">
+        <v>12</v>
+      </c>
+      <c r="BJ130">
+        <v>7</v>
+      </c>
+      <c r="BK130">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="131" spans="1:63">
+      <c r="A131" s="1">
+        <v>130</v>
+      </c>
+      <c r="B131">
+        <v>5845571</v>
+      </c>
+      <c r="C131" t="s">
+        <v>63</v>
+      </c>
+      <c r="D131" t="s">
+        <v>64</v>
+      </c>
+      <c r="E131" s="2">
+        <v>45123.35763888889</v>
+      </c>
+      <c r="F131">
+        <v>17</v>
+      </c>
+      <c r="G131" t="s">
+        <v>65</v>
+      </c>
+      <c r="H131" t="s">
+        <v>77</v>
+      </c>
+      <c r="I131">
+        <v>0</v>
+      </c>
+      <c r="J131">
+        <v>0</v>
+      </c>
+      <c r="K131">
+        <v>0</v>
+      </c>
+      <c r="L131">
+        <v>0</v>
+      </c>
+      <c r="M131">
+        <v>0</v>
+      </c>
+      <c r="N131">
+        <v>0</v>
+      </c>
+      <c r="O131" t="s">
+        <v>82</v>
+      </c>
+      <c r="P131" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q131">
+        <v>3</v>
+      </c>
+      <c r="R131">
+        <v>5</v>
+      </c>
+      <c r="S131">
+        <v>8</v>
+      </c>
+      <c r="T131">
+        <v>3.5</v>
+      </c>
+      <c r="U131">
+        <v>2.31</v>
+      </c>
+      <c r="V131">
+        <v>2.92</v>
+      </c>
+      <c r="W131">
+        <v>1.32</v>
+      </c>
+      <c r="X131">
+        <v>3</v>
+      </c>
+      <c r="Y131">
+        <v>2.45</v>
+      </c>
+      <c r="Z131">
+        <v>1.45</v>
+      </c>
+      <c r="AA131">
+        <v>6</v>
+      </c>
+      <c r="AB131">
+        <v>1.1</v>
+      </c>
+      <c r="AC131">
+        <v>2.59</v>
+      </c>
+      <c r="AD131">
+        <v>3.58</v>
+      </c>
+      <c r="AE131">
+        <v>2.63</v>
+      </c>
+      <c r="AF131">
+        <v>1</v>
+      </c>
+      <c r="AG131">
+        <v>10.2</v>
+      </c>
+      <c r="AH131">
+        <v>1.23</v>
+      </c>
+      <c r="AI131">
+        <v>4.02</v>
+      </c>
+      <c r="AJ131">
+        <v>1.78</v>
+      </c>
+      <c r="AK131">
+        <v>1.98</v>
+      </c>
+      <c r="AL131">
+        <v>1.6</v>
+      </c>
+      <c r="AM131">
+        <v>2.25</v>
+      </c>
+      <c r="AN131">
+        <v>1.5</v>
+      </c>
+      <c r="AO131">
+        <v>1.25</v>
+      </c>
+      <c r="AP131">
+        <v>1.45</v>
+      </c>
+      <c r="AQ131">
+        <v>1</v>
+      </c>
+      <c r="AR131">
+        <v>1.25</v>
+      </c>
+      <c r="AS131">
+        <v>1</v>
+      </c>
+      <c r="AT131">
+        <v>1.22</v>
+      </c>
+      <c r="AU131">
+        <v>1.24</v>
+      </c>
+      <c r="AV131">
+        <v>1.33</v>
+      </c>
+      <c r="AW131">
+        <v>2.57</v>
+      </c>
+      <c r="AX131">
+        <v>1.94</v>
+      </c>
+      <c r="AY131">
+        <v>7.4</v>
+      </c>
+      <c r="AZ131">
+        <v>2.26</v>
+      </c>
+      <c r="BA131">
+        <v>1.26</v>
+      </c>
+      <c r="BB131">
+        <v>1.6</v>
+      </c>
+      <c r="BC131">
+        <v>1.94</v>
+      </c>
+      <c r="BD131">
+        <v>2.43</v>
+      </c>
+      <c r="BE131">
+        <v>3.34</v>
+      </c>
+      <c r="BF131">
+        <v>2</v>
+      </c>
+      <c r="BG131">
+        <v>5</v>
+      </c>
+      <c r="BH131">
+        <v>3</v>
+      </c>
+      <c r="BI131">
+        <v>6</v>
+      </c>
+      <c r="BJ131">
+        <v>5</v>
+      </c>
+      <c r="BK131">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="132" spans="1:63">
+      <c r="A132" s="1">
+        <v>131</v>
+      </c>
+      <c r="B132">
+        <v>5845573</v>
+      </c>
+      <c r="C132" t="s">
+        <v>63</v>
+      </c>
+      <c r="D132" t="s">
+        <v>64</v>
+      </c>
+      <c r="E132" s="2">
+        <v>45123.35763888889</v>
+      </c>
+      <c r="F132">
+        <v>17</v>
+      </c>
+      <c r="G132" t="s">
+        <v>80</v>
+      </c>
+      <c r="H132" t="s">
+        <v>74</v>
+      </c>
+      <c r="I132">
+        <v>0</v>
+      </c>
+      <c r="J132">
+        <v>0</v>
+      </c>
+      <c r="K132">
+        <v>0</v>
+      </c>
+      <c r="L132">
+        <v>1</v>
+      </c>
+      <c r="M132">
+        <v>1</v>
+      </c>
+      <c r="N132">
+        <v>2</v>
+      </c>
+      <c r="O132" t="s">
+        <v>156</v>
+      </c>
+      <c r="P132" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q132">
+        <v>5</v>
+      </c>
+      <c r="R132">
+        <v>8</v>
+      </c>
+      <c r="S132">
+        <v>13</v>
+      </c>
+      <c r="T132">
+        <v>7.49</v>
+      </c>
+      <c r="U132">
+        <v>2.56</v>
+      </c>
+      <c r="V132">
+        <v>1.85</v>
+      </c>
+      <c r="W132">
+        <v>1.35</v>
+      </c>
+      <c r="X132">
+        <v>3.19</v>
+      </c>
+      <c r="Y132">
+        <v>2.61</v>
+      </c>
+      <c r="Z132">
+        <v>1.48</v>
+      </c>
+      <c r="AA132">
+        <v>5.95</v>
+      </c>
+      <c r="AB132">
+        <v>1.1</v>
+      </c>
+      <c r="AC132">
+        <v>9.15</v>
+      </c>
+      <c r="AD132">
+        <v>5.15</v>
+      </c>
+      <c r="AE132">
+        <v>1.34</v>
+      </c>
+      <c r="AF132">
+        <v>1.01</v>
+      </c>
+      <c r="AG132">
+        <v>12.4</v>
+      </c>
+      <c r="AH132">
+        <v>1.22</v>
+      </c>
+      <c r="AI132">
+        <v>4.09</v>
+      </c>
+      <c r="AJ132">
+        <v>1.82</v>
+      </c>
+      <c r="AK132">
+        <v>1.92</v>
+      </c>
+      <c r="AL132">
+        <v>2.05</v>
+      </c>
+      <c r="AM132">
+        <v>1.7</v>
+      </c>
+      <c r="AN132">
+        <v>3.1</v>
+      </c>
+      <c r="AO132">
+        <v>1.11</v>
+      </c>
+      <c r="AP132">
+        <v>1.05</v>
+      </c>
+      <c r="AQ132">
+        <v>1.13</v>
+      </c>
+      <c r="AR132">
+        <v>1.22</v>
+      </c>
+      <c r="AS132">
+        <v>1.11</v>
+      </c>
+      <c r="AT132">
+        <v>1.2</v>
+      </c>
+      <c r="AU132">
+        <v>1.89</v>
+      </c>
+      <c r="AV132">
+        <v>1.8</v>
+      </c>
+      <c r="AW132">
+        <v>3.69</v>
+      </c>
+      <c r="AX132">
+        <v>3.94</v>
+      </c>
+      <c r="AY132">
+        <v>9.4</v>
+      </c>
+      <c r="AZ132">
+        <v>1.36</v>
+      </c>
+      <c r="BA132">
+        <v>1.28</v>
+      </c>
+      <c r="BB132">
+        <v>1.6</v>
+      </c>
+      <c r="BC132">
+        <v>1.96</v>
+      </c>
+      <c r="BD132">
+        <v>2.45</v>
+      </c>
+      <c r="BE132">
+        <v>3.34</v>
+      </c>
+      <c r="BF132">
+        <v>4</v>
+      </c>
+      <c r="BG132">
+        <v>5</v>
+      </c>
+      <c r="BH132">
+        <v>3</v>
+      </c>
+      <c r="BI132">
+        <v>6</v>
+      </c>
+      <c r="BJ132">
+        <v>7</v>
+      </c>
+      <c r="BK132">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="133" spans="1:63">
+      <c r="A133" s="1">
+        <v>132</v>
+      </c>
+      <c r="B133">
+        <v>5845569</v>
+      </c>
+      <c r="C133" t="s">
+        <v>63</v>
+      </c>
+      <c r="D133" t="s">
+        <v>64</v>
+      </c>
+      <c r="E133" s="2">
+        <v>45123.35763888889</v>
+      </c>
+      <c r="F133">
+        <v>17</v>
+      </c>
+      <c r="G133" t="s">
+        <v>67</v>
+      </c>
+      <c r="H133" t="s">
+        <v>70</v>
+      </c>
+      <c r="I133">
+        <v>0</v>
+      </c>
+      <c r="J133">
+        <v>1</v>
+      </c>
+      <c r="K133">
+        <v>1</v>
+      </c>
+      <c r="L133">
+        <v>2</v>
+      </c>
+      <c r="M133">
+        <v>1</v>
+      </c>
+      <c r="N133">
+        <v>3</v>
+      </c>
+      <c r="O133" t="s">
+        <v>170</v>
+      </c>
+      <c r="P133" t="s">
+        <v>245</v>
+      </c>
+      <c r="Q133">
+        <v>6</v>
+      </c>
+      <c r="R133">
+        <v>5</v>
+      </c>
+      <c r="S133">
+        <v>11</v>
+      </c>
+      <c r="T133">
+        <v>2.68</v>
+      </c>
+      <c r="U133">
+        <v>2.23</v>
+      </c>
+      <c r="V133">
+        <v>4.17</v>
+      </c>
+      <c r="W133">
+        <v>1.39</v>
+      </c>
+      <c r="X133">
+        <v>2.98</v>
+      </c>
+      <c r="Y133">
+        <v>2.94</v>
+      </c>
+      <c r="Z133">
+        <v>1.4</v>
+      </c>
+      <c r="AA133">
+        <v>7.2</v>
+      </c>
+      <c r="AB133">
+        <v>1.08</v>
+      </c>
+      <c r="AC133">
+        <v>2.24</v>
+      </c>
+      <c r="AD133">
+        <v>3.3</v>
+      </c>
+      <c r="AE133">
+        <v>3.36</v>
+      </c>
+      <c r="AF133">
+        <v>1.02</v>
+      </c>
+      <c r="AG133">
+        <v>9</v>
+      </c>
+      <c r="AH133">
+        <v>1.29</v>
+      </c>
+      <c r="AI133">
+        <v>3.5</v>
+      </c>
+      <c r="AJ133">
+        <v>1.85</v>
+      </c>
+      <c r="AK133">
+        <v>1.9</v>
+      </c>
+      <c r="AL133">
+        <v>1.77</v>
+      </c>
+      <c r="AM133">
+        <v>2</v>
+      </c>
+      <c r="AN133">
+        <v>1.3</v>
+      </c>
+      <c r="AO133">
+        <v>1.3</v>
+      </c>
+      <c r="AP133">
+        <v>1.76</v>
+      </c>
+      <c r="AQ133">
+        <v>1.29</v>
+      </c>
+      <c r="AR133">
+        <v>1.75</v>
+      </c>
+      <c r="AS133">
+        <v>1.5</v>
+      </c>
+      <c r="AT133">
+        <v>1.56</v>
+      </c>
+      <c r="AU133">
+        <v>1.37</v>
+      </c>
+      <c r="AV133">
+        <v>1.13</v>
+      </c>
+      <c r="AW133">
+        <v>2.5</v>
+      </c>
+      <c r="AX133">
+        <v>1.7</v>
+      </c>
+      <c r="AY133">
+        <v>7.6</v>
+      </c>
+      <c r="AZ133">
+        <v>2.68</v>
+      </c>
+      <c r="BA133">
+        <v>1.25</v>
+      </c>
+      <c r="BB133">
+        <v>1.55</v>
+      </c>
+      <c r="BC133">
+        <v>1.9</v>
+      </c>
+      <c r="BD133">
+        <v>2.33</v>
+      </c>
+      <c r="BE133">
+        <v>3.2</v>
+      </c>
+      <c r="BF133">
+        <v>6</v>
+      </c>
+      <c r="BG133">
+        <v>3</v>
+      </c>
+      <c r="BH133">
+        <v>5</v>
+      </c>
+      <c r="BI133">
+        <v>5</v>
+      </c>
+      <c r="BJ133">
+        <v>11</v>
+      </c>
+      <c r="BK133">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="134" spans="1:63">
+      <c r="A134" s="1">
+        <v>133</v>
+      </c>
+      <c r="B134">
+        <v>5845570</v>
+      </c>
+      <c r="C134" t="s">
+        <v>63</v>
+      </c>
+      <c r="D134" t="s">
+        <v>64</v>
+      </c>
+      <c r="E134" s="2">
+        <v>45123.35763888889</v>
+      </c>
+      <c r="F134">
+        <v>17</v>
+      </c>
+      <c r="G134" t="s">
+        <v>68</v>
+      </c>
+      <c r="H134" t="s">
+        <v>66</v>
+      </c>
+      <c r="I134">
+        <v>1</v>
+      </c>
+      <c r="J134">
+        <v>0</v>
+      </c>
+      <c r="K134">
+        <v>1</v>
+      </c>
+      <c r="L134">
+        <v>1</v>
+      </c>
+      <c r="M134">
+        <v>1</v>
+      </c>
+      <c r="N134">
+        <v>2</v>
+      </c>
+      <c r="O134" t="s">
+        <v>171</v>
+      </c>
+      <c r="P134" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q134">
+        <v>3</v>
+      </c>
+      <c r="R134">
+        <v>3</v>
+      </c>
+      <c r="S134">
+        <v>6</v>
+      </c>
+      <c r="T134">
+        <v>3.05</v>
+      </c>
+      <c r="U134">
+        <v>2.35</v>
+      </c>
+      <c r="V134">
+        <v>3.25</v>
+      </c>
+      <c r="W134">
+        <v>1.33</v>
+      </c>
+      <c r="X134">
+        <v>3.05</v>
+      </c>
+      <c r="Y134">
+        <v>2.56</v>
+      </c>
+      <c r="Z134">
+        <v>1.5</v>
+      </c>
+      <c r="AA134">
+        <v>5.95</v>
+      </c>
+      <c r="AB134">
+        <v>1.1</v>
+      </c>
+      <c r="AC134">
+        <v>2.67</v>
+      </c>
+      <c r="AD134">
+        <v>3.62</v>
+      </c>
+      <c r="AE134">
+        <v>2.53</v>
+      </c>
+      <c r="AF134">
+        <v>1.04</v>
+      </c>
+      <c r="AG134">
+        <v>8.5</v>
+      </c>
+      <c r="AH134">
+        <v>1.22</v>
+      </c>
+      <c r="AI134">
+        <v>3.8</v>
+      </c>
+      <c r="AJ134">
+        <v>1.72</v>
+      </c>
+      <c r="AK134">
+        <v>2.06</v>
+      </c>
+      <c r="AL134">
+        <v>1.55</v>
+      </c>
+      <c r="AM134">
+        <v>2.41</v>
+      </c>
+      <c r="AN134">
+        <v>1.44</v>
+      </c>
+      <c r="AO134">
+        <v>1.33</v>
+      </c>
+      <c r="AP134">
+        <v>1.53</v>
+      </c>
+      <c r="AQ134">
+        <v>1.88</v>
+      </c>
+      <c r="AR134">
+        <v>1.67</v>
+      </c>
+      <c r="AS134">
+        <v>1.78</v>
+      </c>
+      <c r="AT134">
+        <v>1.6</v>
+      </c>
+      <c r="AU134">
+        <v>1.76</v>
+      </c>
+      <c r="AV134">
+        <v>1.76</v>
+      </c>
+      <c r="AW134">
+        <v>3.52</v>
+      </c>
+      <c r="AX134">
+        <v>1.62</v>
+      </c>
+      <c r="AY134">
+        <v>5.75</v>
+      </c>
+      <c r="AZ134">
+        <v>2.6</v>
+      </c>
+      <c r="BA134">
+        <v>1.25</v>
+      </c>
+      <c r="BB134">
+        <v>1.53</v>
+      </c>
+      <c r="BC134">
+        <v>1.84</v>
+      </c>
+      <c r="BD134">
+        <v>2.27</v>
+      </c>
+      <c r="BE134">
+        <v>3.18</v>
+      </c>
+      <c r="BF134">
+        <v>4</v>
+      </c>
+      <c r="BG134">
+        <v>4</v>
+      </c>
+      <c r="BH134">
+        <v>4</v>
+      </c>
+      <c r="BI134">
+        <v>4</v>
+      </c>
+      <c r="BJ134">
+        <v>8</v>
+      </c>
+      <c r="BK134">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/China Chinese Super League_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/China Chinese Super League_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="861" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="879" uniqueCount="250">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -532,6 +532,15 @@
     <t>['15']</t>
   </si>
   <si>
+    <t>['5', '48']</t>
+  </si>
+  <si>
+    <t>['42', '63']</t>
+  </si>
+  <si>
+    <t>['20', '85']</t>
+  </si>
+  <si>
     <t>['64', '79']</t>
   </si>
   <si>
@@ -752,6 +761,9 @@
   </si>
   <si>
     <t>['35']</t>
+  </si>
+  <si>
+    <t>['37']</t>
   </si>
 </sst>
 </file>
@@ -1113,7 +1125,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK134"/>
+  <dimension ref="A1:BK137"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1548,7 +1560,7 @@
         <v>82</v>
       </c>
       <c r="P3" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="Q3">
         <v>5</v>
@@ -1739,7 +1751,7 @@
         <v>82</v>
       </c>
       <c r="P4" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="Q4">
         <v>9</v>
@@ -1930,7 +1942,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="Q5">
         <v>8</v>
@@ -2020,7 +2032,7 @@
         <v>1.78</v>
       </c>
       <c r="AT5">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU5">
         <v>0</v>
@@ -2121,7 +2133,7 @@
         <v>84</v>
       </c>
       <c r="P6" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="Q6">
         <v>2</v>
@@ -2211,7 +2223,7 @@
         <v>1.25</v>
       </c>
       <c r="AT6">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AU6">
         <v>0</v>
@@ -2312,7 +2324,7 @@
         <v>85</v>
       </c>
       <c r="P7" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q7">
         <v>7</v>
@@ -2590,7 +2602,7 @@
         <v>0</v>
       </c>
       <c r="AS8">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AT8">
         <v>1.2</v>
@@ -2694,7 +2706,7 @@
         <v>87</v>
       </c>
       <c r="P9" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="Q9">
         <v>4</v>
@@ -2885,7 +2897,7 @@
         <v>88</v>
       </c>
       <c r="P10" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="Q10">
         <v>4</v>
@@ -3267,7 +3279,7 @@
         <v>82</v>
       </c>
       <c r="P12" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="Q12">
         <v>7</v>
@@ -4031,7 +4043,7 @@
         <v>92</v>
       </c>
       <c r="P16" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="Q16">
         <v>7</v>
@@ -4222,7 +4234,7 @@
         <v>93</v>
       </c>
       <c r="P17" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="Q17">
         <v>3</v>
@@ -4604,7 +4616,7 @@
         <v>95</v>
       </c>
       <c r="P19" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="Q19">
         <v>2</v>
@@ -4795,7 +4807,7 @@
         <v>96</v>
       </c>
       <c r="P20" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="Q20">
         <v>2</v>
@@ -4882,7 +4894,7 @@
         <v>1</v>
       </c>
       <c r="AS20">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AT20">
         <v>1.13</v>
@@ -4986,7 +4998,7 @@
         <v>82</v>
       </c>
       <c r="P21" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="Q21">
         <v>10</v>
@@ -5073,7 +5085,7 @@
         <v>3</v>
       </c>
       <c r="AS21">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AT21">
         <v>2.56</v>
@@ -5264,7 +5276,7 @@
         <v>3</v>
       </c>
       <c r="AS22">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AT22">
         <v>1.22</v>
@@ -5458,7 +5470,7 @@
         <v>1</v>
       </c>
       <c r="AT23">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AU23">
         <v>1.2</v>
@@ -5559,7 +5571,7 @@
         <v>82</v>
       </c>
       <c r="P24" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="Q24">
         <v>9</v>
@@ -5840,7 +5852,7 @@
         <v>1.11</v>
       </c>
       <c r="AT25">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU25">
         <v>0</v>
@@ -6132,7 +6144,7 @@
         <v>82</v>
       </c>
       <c r="P27" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="Q27">
         <v>2</v>
@@ -6219,7 +6231,7 @@
         <v>3</v>
       </c>
       <c r="AS27">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AT27">
         <v>1.6</v>
@@ -6323,7 +6335,7 @@
         <v>82</v>
       </c>
       <c r="P28" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="Q28">
         <v>3</v>
@@ -6413,7 +6425,7 @@
         <v>1.5</v>
       </c>
       <c r="AT28">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AU28">
         <v>1.28</v>
@@ -6514,7 +6526,7 @@
         <v>83</v>
       </c>
       <c r="P29" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="Q29">
         <v>5</v>
@@ -6705,7 +6717,7 @@
         <v>99</v>
       </c>
       <c r="P30" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="Q30">
         <v>11</v>
@@ -6795,7 +6807,7 @@
         <v>1</v>
       </c>
       <c r="AT30">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU30">
         <v>0.9399999999999999</v>
@@ -6983,7 +6995,7 @@
         <v>0.5</v>
       </c>
       <c r="AS31">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AT31">
         <v>0.38</v>
@@ -7087,7 +7099,7 @@
         <v>101</v>
       </c>
       <c r="P32" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="Q32">
         <v>8</v>
@@ -7278,7 +7290,7 @@
         <v>102</v>
       </c>
       <c r="P33" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="Q33">
         <v>7</v>
@@ -7368,7 +7380,7 @@
         <v>1</v>
       </c>
       <c r="AT33">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU33">
         <v>1.13</v>
@@ -7747,7 +7759,7 @@
         <v>0</v>
       </c>
       <c r="AS35">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AT35">
         <v>0.38</v>
@@ -8233,7 +8245,7 @@
         <v>104</v>
       </c>
       <c r="P38" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q38">
         <v>3</v>
@@ -8424,7 +8436,7 @@
         <v>105</v>
       </c>
       <c r="P39" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="Q39">
         <v>6</v>
@@ -9188,7 +9200,7 @@
         <v>107</v>
       </c>
       <c r="P43" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="Q43">
         <v>5</v>
@@ -9379,7 +9391,7 @@
         <v>99</v>
       </c>
       <c r="P44" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="Q44">
         <v>5</v>
@@ -9761,7 +9773,7 @@
         <v>109</v>
       </c>
       <c r="P46" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="Q46">
         <v>3</v>
@@ -10143,7 +10155,7 @@
         <v>110</v>
       </c>
       <c r="P48" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="Q48">
         <v>9</v>
@@ -10334,7 +10346,7 @@
         <v>111</v>
       </c>
       <c r="P49" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="Q49">
         <v>3</v>
@@ -10424,7 +10436,7 @@
         <v>1.75</v>
       </c>
       <c r="AT49">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU49">
         <v>1.37</v>
@@ -10525,7 +10537,7 @@
         <v>112</v>
       </c>
       <c r="P50" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="Q50">
         <v>4</v>
@@ -10612,7 +10624,7 @@
         <v>2.33</v>
       </c>
       <c r="AS50">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AT50">
         <v>1.6</v>
@@ -10716,7 +10728,7 @@
         <v>113</v>
       </c>
       <c r="P51" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="Q51">
         <v>2</v>
@@ -10994,10 +11006,10 @@
         <v>1.67</v>
       </c>
       <c r="AS52">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AT52">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU52">
         <v>0.87</v>
@@ -11098,7 +11110,7 @@
         <v>115</v>
       </c>
       <c r="P53" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="Q53">
         <v>8</v>
@@ -11289,7 +11301,7 @@
         <v>116</v>
       </c>
       <c r="P54" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="Q54">
         <v>3</v>
@@ -11570,7 +11582,7 @@
         <v>1.75</v>
       </c>
       <c r="AT55">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU55">
         <v>1.45</v>
@@ -11758,7 +11770,7 @@
         <v>0.5</v>
       </c>
       <c r="AS56">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AT56">
         <v>1.2</v>
@@ -12053,7 +12065,7 @@
         <v>120</v>
       </c>
       <c r="P58" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="Q58">
         <v>3</v>
@@ -12143,7 +12155,7 @@
         <v>1.14</v>
       </c>
       <c r="AT58">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AU58">
         <v>1.74</v>
@@ -12435,7 +12447,7 @@
         <v>121</v>
       </c>
       <c r="P60" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="Q60">
         <v>3</v>
@@ -12522,7 +12534,7 @@
         <v>1</v>
       </c>
       <c r="AS60">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AT60">
         <v>1.11</v>
@@ -12626,7 +12638,7 @@
         <v>122</v>
       </c>
       <c r="P61" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="Q61">
         <v>6</v>
@@ -12713,7 +12725,7 @@
         <v>1.75</v>
       </c>
       <c r="AS61">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AT61">
         <v>1.22</v>
@@ -12817,7 +12829,7 @@
         <v>123</v>
       </c>
       <c r="P62" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="Q62">
         <v>2</v>
@@ -12904,7 +12916,7 @@
         <v>1.33</v>
       </c>
       <c r="AS62">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AT62">
         <v>1.13</v>
@@ -13199,7 +13211,7 @@
         <v>125</v>
       </c>
       <c r="P64" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="Q64">
         <v>1</v>
@@ -13390,7 +13402,7 @@
         <v>82</v>
       </c>
       <c r="P65" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="Q65">
         <v>1</v>
@@ -13581,7 +13593,7 @@
         <v>126</v>
       </c>
       <c r="P66" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="Q66">
         <v>4</v>
@@ -13772,7 +13784,7 @@
         <v>127</v>
       </c>
       <c r="P67" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="Q67">
         <v>7</v>
@@ -14154,7 +14166,7 @@
         <v>82</v>
       </c>
       <c r="P69" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="Q69">
         <v>6</v>
@@ -14536,7 +14548,7 @@
         <v>129</v>
       </c>
       <c r="P71" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="Q71">
         <v>7</v>
@@ -14626,7 +14638,7 @@
         <v>2.13</v>
       </c>
       <c r="AT71">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU71">
         <v>1.88</v>
@@ -14918,7 +14930,7 @@
         <v>131</v>
       </c>
       <c r="P73" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="Q73">
         <v>7</v>
@@ -15300,7 +15312,7 @@
         <v>133</v>
       </c>
       <c r="P75" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="Q75">
         <v>10</v>
@@ -15387,7 +15399,7 @@
         <v>2.2</v>
       </c>
       <c r="AS75">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AT75">
         <v>1.6</v>
@@ -15491,7 +15503,7 @@
         <v>134</v>
       </c>
       <c r="P76" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="Q76">
         <v>3</v>
@@ -15682,7 +15694,7 @@
         <v>82</v>
       </c>
       <c r="P77" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="Q77">
         <v>4</v>
@@ -15769,7 +15781,7 @@
         <v>0.67</v>
       </c>
       <c r="AS77">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AT77">
         <v>1.2</v>
@@ -15873,7 +15885,7 @@
         <v>103</v>
       </c>
       <c r="P78" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="Q78">
         <v>7</v>
@@ -15960,10 +15972,10 @@
         <v>0.25</v>
       </c>
       <c r="AS78">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AT78">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU78">
         <v>1.38</v>
@@ -16255,7 +16267,7 @@
         <v>135</v>
       </c>
       <c r="P80" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="Q80">
         <v>3</v>
@@ -16345,7 +16357,7 @@
         <v>1</v>
       </c>
       <c r="AT80">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU80">
         <v>1.17</v>
@@ -16446,7 +16458,7 @@
         <v>82</v>
       </c>
       <c r="P81" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="Q81">
         <v>4</v>
@@ -16828,7 +16840,7 @@
         <v>137</v>
       </c>
       <c r="P83" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Q83">
         <v>12</v>
@@ -17109,7 +17121,7 @@
         <v>2.13</v>
       </c>
       <c r="AT84">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AU84">
         <v>1.93</v>
@@ -17401,7 +17413,7 @@
         <v>139</v>
       </c>
       <c r="P86" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="Q86">
         <v>2</v>
@@ -17491,7 +17503,7 @@
         <v>1.25</v>
       </c>
       <c r="AT86">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU86">
         <v>1.08</v>
@@ -17592,7 +17604,7 @@
         <v>82</v>
       </c>
       <c r="P87" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="Q87">
         <v>1</v>
@@ -17679,7 +17691,7 @@
         <v>1.75</v>
       </c>
       <c r="AS87">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AT87">
         <v>2</v>
@@ -17974,7 +17986,7 @@
         <v>140</v>
       </c>
       <c r="P89" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="Q89">
         <v>6</v>
@@ -18165,7 +18177,7 @@
         <v>82</v>
       </c>
       <c r="P90" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="Q90">
         <v>3</v>
@@ -18252,7 +18264,7 @@
         <v>2</v>
       </c>
       <c r="AS90">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AT90">
         <v>2</v>
@@ -18356,7 +18368,7 @@
         <v>141</v>
       </c>
       <c r="P91" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="Q91">
         <v>5</v>
@@ -18738,7 +18750,7 @@
         <v>142</v>
       </c>
       <c r="P93" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="Q93">
         <v>3</v>
@@ -18929,7 +18941,7 @@
         <v>143</v>
       </c>
       <c r="P94" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="Q94">
         <v>7</v>
@@ -19311,7 +19323,7 @@
         <v>144</v>
       </c>
       <c r="P96" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="Q96">
         <v>7</v>
@@ -19502,7 +19514,7 @@
         <v>145</v>
       </c>
       <c r="P97" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="Q97">
         <v>1</v>
@@ -19974,7 +19986,7 @@
         <v>1.5</v>
       </c>
       <c r="AT99">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU99">
         <v>1.45</v>
@@ -20075,7 +20087,7 @@
         <v>147</v>
       </c>
       <c r="P100" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="Q100">
         <v>5</v>
@@ -20353,7 +20365,7 @@
         <v>0.33</v>
       </c>
       <c r="AS101">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AT101">
         <v>0.38</v>
@@ -20457,7 +20469,7 @@
         <v>82</v>
       </c>
       <c r="P102" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="Q102">
         <v>12</v>
@@ -20544,10 +20556,10 @@
         <v>0.4</v>
       </c>
       <c r="AS102">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AT102">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU102">
         <v>1.35</v>
@@ -20648,7 +20660,7 @@
         <v>82</v>
       </c>
       <c r="P103" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="Q103">
         <v>1</v>
@@ -20738,7 +20750,7 @@
         <v>1</v>
       </c>
       <c r="AT103">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AU103">
         <v>1.27</v>
@@ -20839,7 +20851,7 @@
         <v>149</v>
       </c>
       <c r="P104" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="Q104">
         <v>4</v>
@@ -21030,7 +21042,7 @@
         <v>108</v>
       </c>
       <c r="P105" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="Q105">
         <v>2</v>
@@ -21221,7 +21233,7 @@
         <v>123</v>
       </c>
       <c r="P106" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="Q106">
         <v>2</v>
@@ -21308,7 +21320,7 @@
         <v>1.67</v>
       </c>
       <c r="AS106">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AT106">
         <v>1.56</v>
@@ -21412,7 +21424,7 @@
         <v>150</v>
       </c>
       <c r="P107" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="Q107">
         <v>6</v>
@@ -21690,7 +21702,7 @@
         <v>1.29</v>
       </c>
       <c r="AS108">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AT108">
         <v>1.11</v>
@@ -21794,7 +21806,7 @@
         <v>152</v>
       </c>
       <c r="P109" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="Q109">
         <v>17</v>
@@ -21884,7 +21896,7 @@
         <v>1.11</v>
       </c>
       <c r="AT109">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU109">
         <v>1.91</v>
@@ -21985,7 +21997,7 @@
         <v>153</v>
       </c>
       <c r="P110" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="Q110">
         <v>1</v>
@@ -22176,7 +22188,7 @@
         <v>154</v>
       </c>
       <c r="P111" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="Q111">
         <v>3</v>
@@ -22558,7 +22570,7 @@
         <v>155</v>
       </c>
       <c r="P113" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="Q113">
         <v>5</v>
@@ -22648,7 +22660,7 @@
         <v>1.75</v>
       </c>
       <c r="AT113">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU113">
         <v>1.68</v>
@@ -22749,7 +22761,7 @@
         <v>156</v>
       </c>
       <c r="P114" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="Q114">
         <v>14</v>
@@ -23221,7 +23233,7 @@
         <v>1.25</v>
       </c>
       <c r="AT116">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AU116">
         <v>1.22</v>
@@ -23409,7 +23421,7 @@
         <v>1.33</v>
       </c>
       <c r="AS117">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AT117">
         <v>1.29</v>
@@ -23513,7 +23525,7 @@
         <v>82</v>
       </c>
       <c r="P118" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="Q118">
         <v>3</v>
@@ -23895,7 +23907,7 @@
         <v>160</v>
       </c>
       <c r="P120" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="Q120">
         <v>7</v>
@@ -24558,7 +24570,7 @@
         <v>2</v>
       </c>
       <c r="AT123">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU123">
         <v>1.85</v>
@@ -24659,7 +24671,7 @@
         <v>164</v>
       </c>
       <c r="P124" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="Q124">
         <v>9</v>
@@ -24746,7 +24758,7 @@
         <v>1.86</v>
       </c>
       <c r="AS124">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AT124">
         <v>1.56</v>
@@ -24937,7 +24949,7 @@
         <v>0.17</v>
       </c>
       <c r="AS125">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AT125">
         <v>0.14</v>
@@ -25232,7 +25244,7 @@
         <v>167</v>
       </c>
       <c r="P127" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="Q127">
         <v>1</v>
@@ -25423,7 +25435,7 @@
         <v>168</v>
       </c>
       <c r="P128" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="Q128">
         <v>1</v>
@@ -25614,7 +25626,7 @@
         <v>169</v>
       </c>
       <c r="P129" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="Q129">
         <v>6</v>
@@ -25805,7 +25817,7 @@
         <v>95</v>
       </c>
       <c r="P130" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="Q130">
         <v>2</v>
@@ -26187,16 +26199,16 @@
         <v>156</v>
       </c>
       <c r="P132" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="Q132">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R132">
         <v>8</v>
       </c>
       <c r="S132">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="T132">
         <v>7.49</v>
@@ -26378,7 +26390,7 @@
         <v>170</v>
       </c>
       <c r="P133" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="Q133">
         <v>6</v>
@@ -26711,6 +26723,579 @@
       </c>
       <c r="BK134">
         <v>8</v>
+      </c>
+    </row>
+    <row r="135" spans="1:63">
+      <c r="A135" s="1">
+        <v>134</v>
+      </c>
+      <c r="B135">
+        <v>5845574</v>
+      </c>
+      <c r="C135" t="s">
+        <v>63</v>
+      </c>
+      <c r="D135" t="s">
+        <v>64</v>
+      </c>
+      <c r="E135" s="2">
+        <v>45124.35763888889</v>
+      </c>
+      <c r="F135">
+        <v>17</v>
+      </c>
+      <c r="G135" t="s">
+        <v>79</v>
+      </c>
+      <c r="H135" t="s">
+        <v>75</v>
+      </c>
+      <c r="I135">
+        <v>1</v>
+      </c>
+      <c r="J135">
+        <v>1</v>
+      </c>
+      <c r="K135">
+        <v>2</v>
+      </c>
+      <c r="L135">
+        <v>2</v>
+      </c>
+      <c r="M135">
+        <v>1</v>
+      </c>
+      <c r="N135">
+        <v>3</v>
+      </c>
+      <c r="O135" t="s">
+        <v>172</v>
+      </c>
+      <c r="P135" t="s">
+        <v>249</v>
+      </c>
+      <c r="Q135">
+        <v>4</v>
+      </c>
+      <c r="R135">
+        <v>8</v>
+      </c>
+      <c r="S135">
+        <v>12</v>
+      </c>
+      <c r="T135">
+        <v>5.15</v>
+      </c>
+      <c r="U135">
+        <v>2.18</v>
+      </c>
+      <c r="V135">
+        <v>2.28</v>
+      </c>
+      <c r="W135">
+        <v>1.39</v>
+      </c>
+      <c r="X135">
+        <v>2.88</v>
+      </c>
+      <c r="Y135">
+        <v>2.82</v>
+      </c>
+      <c r="Z135">
+        <v>1.4</v>
+      </c>
+      <c r="AA135">
+        <v>7.2</v>
+      </c>
+      <c r="AB135">
+        <v>1.08</v>
+      </c>
+      <c r="AC135">
+        <v>4.65</v>
+      </c>
+      <c r="AD135">
+        <v>3.73</v>
+      </c>
+      <c r="AE135">
+        <v>1.7</v>
+      </c>
+      <c r="AF135">
+        <v>1.02</v>
+      </c>
+      <c r="AG135">
+        <v>9</v>
+      </c>
+      <c r="AH135">
+        <v>1.29</v>
+      </c>
+      <c r="AI135">
+        <v>3.3</v>
+      </c>
+      <c r="AJ135">
+        <v>1.93</v>
+      </c>
+      <c r="AK135">
+        <v>1.83</v>
+      </c>
+      <c r="AL135">
+        <v>1.85</v>
+      </c>
+      <c r="AM135">
+        <v>1.85</v>
+      </c>
+      <c r="AN135">
+        <v>2.1</v>
+      </c>
+      <c r="AO135">
+        <v>1.27</v>
+      </c>
+      <c r="AP135">
+        <v>1.19</v>
+      </c>
+      <c r="AQ135">
+        <v>1</v>
+      </c>
+      <c r="AR135">
+        <v>1.71</v>
+      </c>
+      <c r="AS135">
+        <v>1.2</v>
+      </c>
+      <c r="AT135">
+        <v>1.5</v>
+      </c>
+      <c r="AU135">
+        <v>1.43</v>
+      </c>
+      <c r="AV135">
+        <v>1.29</v>
+      </c>
+      <c r="AW135">
+        <v>2.72</v>
+      </c>
+      <c r="AX135">
+        <v>3.45</v>
+      </c>
+      <c r="AY135">
+        <v>5.75</v>
+      </c>
+      <c r="AZ135">
+        <v>1.39</v>
+      </c>
+      <c r="BA135">
+        <v>1.26</v>
+      </c>
+      <c r="BB135">
+        <v>1.55</v>
+      </c>
+      <c r="BC135">
+        <v>1.89</v>
+      </c>
+      <c r="BD135">
+        <v>2.32</v>
+      </c>
+      <c r="BE135">
+        <v>3.18</v>
+      </c>
+      <c r="BF135">
+        <v>3</v>
+      </c>
+      <c r="BG135">
+        <v>5</v>
+      </c>
+      <c r="BH135">
+        <v>3</v>
+      </c>
+      <c r="BI135">
+        <v>6</v>
+      </c>
+      <c r="BJ135">
+        <v>6</v>
+      </c>
+      <c r="BK135">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="136" spans="1:63">
+      <c r="A136" s="1">
+        <v>135</v>
+      </c>
+      <c r="B136">
+        <v>5845575</v>
+      </c>
+      <c r="C136" t="s">
+        <v>63</v>
+      </c>
+      <c r="D136" t="s">
+        <v>64</v>
+      </c>
+      <c r="E136" s="2">
+        <v>45124.35763888889</v>
+      </c>
+      <c r="F136">
+        <v>17</v>
+      </c>
+      <c r="G136" t="s">
+        <v>71</v>
+      </c>
+      <c r="H136" t="s">
+        <v>73</v>
+      </c>
+      <c r="I136">
+        <v>1</v>
+      </c>
+      <c r="J136">
+        <v>1</v>
+      </c>
+      <c r="K136">
+        <v>2</v>
+      </c>
+      <c r="L136">
+        <v>2</v>
+      </c>
+      <c r="M136">
+        <v>1</v>
+      </c>
+      <c r="N136">
+        <v>3</v>
+      </c>
+      <c r="O136" t="s">
+        <v>173</v>
+      </c>
+      <c r="P136" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q136">
+        <v>7</v>
+      </c>
+      <c r="R136">
+        <v>2</v>
+      </c>
+      <c r="S136">
+        <v>9</v>
+      </c>
+      <c r="T136">
+        <v>2.25</v>
+      </c>
+      <c r="U136">
+        <v>2.15</v>
+      </c>
+      <c r="V136">
+        <v>5</v>
+      </c>
+      <c r="W136">
+        <v>1.41</v>
+      </c>
+      <c r="X136">
+        <v>2.7</v>
+      </c>
+      <c r="Y136">
+        <v>2.85</v>
+      </c>
+      <c r="Z136">
+        <v>1.37</v>
+      </c>
+      <c r="AA136">
+        <v>7.4</v>
+      </c>
+      <c r="AB136">
+        <v>1.06</v>
+      </c>
+      <c r="AC136">
+        <v>1.65</v>
+      </c>
+      <c r="AD136">
+        <v>3.55</v>
+      </c>
+      <c r="AE136">
+        <v>4.9</v>
+      </c>
+      <c r="AF136">
+        <v>1.04</v>
+      </c>
+      <c r="AG136">
+        <v>11</v>
+      </c>
+      <c r="AH136">
+        <v>1.3</v>
+      </c>
+      <c r="AI136">
+        <v>3.3</v>
+      </c>
+      <c r="AJ136">
+        <v>1.86</v>
+      </c>
+      <c r="AK136">
+        <v>1.78</v>
+      </c>
+      <c r="AL136">
+        <v>1.95</v>
+      </c>
+      <c r="AM136">
+        <v>1.8</v>
+      </c>
+      <c r="AN136">
+        <v>1.11</v>
+      </c>
+      <c r="AO136">
+        <v>1.2</v>
+      </c>
+      <c r="AP136">
+        <v>2.2</v>
+      </c>
+      <c r="AQ136">
+        <v>1.88</v>
+      </c>
+      <c r="AR136">
+        <v>0.75</v>
+      </c>
+      <c r="AS136">
+        <v>2</v>
+      </c>
+      <c r="AT136">
+        <v>0.67</v>
+      </c>
+      <c r="AU136">
+        <v>1.51</v>
+      </c>
+      <c r="AV136">
+        <v>1.12</v>
+      </c>
+      <c r="AW136">
+        <v>2.63</v>
+      </c>
+      <c r="AX136">
+        <v>1.34</v>
+      </c>
+      <c r="AY136">
+        <v>6</v>
+      </c>
+      <c r="AZ136">
+        <v>3.65</v>
+      </c>
+      <c r="BA136">
+        <v>1.3</v>
+      </c>
+      <c r="BB136">
+        <v>1.62</v>
+      </c>
+      <c r="BC136">
+        <v>2.01</v>
+      </c>
+      <c r="BD136">
+        <v>2.49</v>
+      </c>
+      <c r="BE136">
+        <v>3.42</v>
+      </c>
+      <c r="BF136">
+        <v>7</v>
+      </c>
+      <c r="BG136">
+        <v>4</v>
+      </c>
+      <c r="BH136">
+        <v>4</v>
+      </c>
+      <c r="BI136">
+        <v>3</v>
+      </c>
+      <c r="BJ136">
+        <v>11</v>
+      </c>
+      <c r="BK136">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="137" spans="1:63">
+      <c r="A137" s="1">
+        <v>136</v>
+      </c>
+      <c r="B137">
+        <v>5845576</v>
+      </c>
+      <c r="C137" t="s">
+        <v>63</v>
+      </c>
+      <c r="D137" t="s">
+        <v>64</v>
+      </c>
+      <c r="E137" s="2">
+        <v>45124.35763888889</v>
+      </c>
+      <c r="F137">
+        <v>17</v>
+      </c>
+      <c r="G137" t="s">
+        <v>78</v>
+      </c>
+      <c r="H137" t="s">
+        <v>69</v>
+      </c>
+      <c r="I137">
+        <v>1</v>
+      </c>
+      <c r="J137">
+        <v>0</v>
+      </c>
+      <c r="K137">
+        <v>1</v>
+      </c>
+      <c r="L137">
+        <v>2</v>
+      </c>
+      <c r="M137">
+        <v>0</v>
+      </c>
+      <c r="N137">
+        <v>2</v>
+      </c>
+      <c r="O137" t="s">
+        <v>174</v>
+      </c>
+      <c r="P137" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q137">
+        <v>5</v>
+      </c>
+      <c r="R137">
+        <v>3</v>
+      </c>
+      <c r="S137">
+        <v>8</v>
+      </c>
+      <c r="T137">
+        <v>3.19</v>
+      </c>
+      <c r="U137">
+        <v>2.16</v>
+      </c>
+      <c r="V137">
+        <v>3.51</v>
+      </c>
+      <c r="W137">
+        <v>1.41</v>
+      </c>
+      <c r="X137">
+        <v>2.86</v>
+      </c>
+      <c r="Y137">
+        <v>3.08</v>
+      </c>
+      <c r="Z137">
+        <v>1.36</v>
+      </c>
+      <c r="AA137">
+        <v>7.4</v>
+      </c>
+      <c r="AB137">
+        <v>1.06</v>
+      </c>
+      <c r="AC137">
+        <v>2.55</v>
+      </c>
+      <c r="AD137">
+        <v>3.19</v>
+      </c>
+      <c r="AE137">
+        <v>2.87</v>
+      </c>
+      <c r="AF137">
+        <v>1.06</v>
+      </c>
+      <c r="AG137">
+        <v>10.5</v>
+      </c>
+      <c r="AH137">
+        <v>1.33</v>
+      </c>
+      <c r="AI137">
+        <v>3.2</v>
+      </c>
+      <c r="AJ137">
+        <v>2.03</v>
+      </c>
+      <c r="AK137">
+        <v>1.79</v>
+      </c>
+      <c r="AL137">
+        <v>1.75</v>
+      </c>
+      <c r="AM137">
+        <v>2</v>
+      </c>
+      <c r="AN137">
+        <v>1.42</v>
+      </c>
+      <c r="AO137">
+        <v>1.28</v>
+      </c>
+      <c r="AP137">
+        <v>1.52</v>
+      </c>
+      <c r="AQ137">
+        <v>1.38</v>
+      </c>
+      <c r="AR137">
+        <v>0.63</v>
+      </c>
+      <c r="AS137">
+        <v>1.56</v>
+      </c>
+      <c r="AT137">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AU137">
+        <v>1.53</v>
+      </c>
+      <c r="AV137">
+        <v>1.14</v>
+      </c>
+      <c r="AW137">
+        <v>2.67</v>
+      </c>
+      <c r="AX137">
+        <v>1.71</v>
+      </c>
+      <c r="AY137">
+        <v>5.5</v>
+      </c>
+      <c r="AZ137">
+        <v>2.4</v>
+      </c>
+      <c r="BA137">
+        <v>1.31</v>
+      </c>
+      <c r="BB137">
+        <v>1.68</v>
+      </c>
+      <c r="BC137">
+        <v>2.06</v>
+      </c>
+      <c r="BD137">
+        <v>2.65</v>
+      </c>
+      <c r="BE137">
+        <v>3.65</v>
+      </c>
+      <c r="BF137">
+        <v>6</v>
+      </c>
+      <c r="BG137">
+        <v>3</v>
+      </c>
+      <c r="BH137">
+        <v>10</v>
+      </c>
+      <c r="BI137">
+        <v>2</v>
+      </c>
+      <c r="BJ137">
+        <v>16</v>
+      </c>
+      <c r="BK137">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/China Chinese Super League_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/China Chinese Super League_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="879" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="253">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -541,6 +541,15 @@
     <t>['20', '85']</t>
   </si>
   <si>
+    <t>['1', '48', '81']</t>
+  </si>
+  <si>
+    <t>['13']</t>
+  </si>
+  <si>
+    <t>['56', '84', '86']</t>
+  </si>
+  <si>
     <t>['64', '79']</t>
   </si>
   <si>
@@ -742,9 +751,6 @@
     <t>['45+2']</t>
   </si>
   <si>
-    <t>['13']</t>
-  </si>
-  <si>
     <t>['7']</t>
   </si>
   <si>
@@ -764,6 +770,9 @@
   </si>
   <si>
     <t>['37']</t>
+  </si>
+  <si>
+    <t>['31', '62', '69']</t>
   </si>
 </sst>
 </file>
@@ -1125,7 +1134,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK137"/>
+  <dimension ref="A1:BK140"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1459,7 +1468,7 @@
         <v>1</v>
       </c>
       <c r="AT2">
-        <v>0.38</v>
+        <v>0.44</v>
       </c>
       <c r="AU2">
         <v>0</v>
@@ -1560,7 +1569,7 @@
         <v>82</v>
       </c>
       <c r="P3" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="Q3">
         <v>5</v>
@@ -1751,7 +1760,7 @@
         <v>82</v>
       </c>
       <c r="P4" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q4">
         <v>9</v>
@@ -1942,7 +1951,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="Q5">
         <v>8</v>
@@ -2133,7 +2142,7 @@
         <v>84</v>
       </c>
       <c r="P6" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="Q6">
         <v>2</v>
@@ -2220,7 +2229,7 @@
         <v>0</v>
       </c>
       <c r="AS6">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AT6">
         <v>1.5</v>
@@ -2324,7 +2333,7 @@
         <v>85</v>
       </c>
       <c r="P7" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="Q7">
         <v>7</v>
@@ -2411,10 +2420,10 @@
         <v>0</v>
       </c>
       <c r="AS7">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AT7">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AU7">
         <v>0</v>
@@ -2706,7 +2715,7 @@
         <v>87</v>
       </c>
       <c r="P9" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="Q9">
         <v>4</v>
@@ -2897,7 +2906,7 @@
         <v>88</v>
       </c>
       <c r="P10" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="Q10">
         <v>4</v>
@@ -3175,7 +3184,7 @@
         <v>0</v>
       </c>
       <c r="AS11">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AT11">
         <v>1.11</v>
@@ -3279,7 +3288,7 @@
         <v>82</v>
       </c>
       <c r="P12" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="Q12">
         <v>7</v>
@@ -3560,7 +3569,7 @@
         <v>2.43</v>
       </c>
       <c r="AT13">
-        <v>0.38</v>
+        <v>0.44</v>
       </c>
       <c r="AU13">
         <v>0</v>
@@ -3748,7 +3757,7 @@
         <v>0</v>
       </c>
       <c r="AS14">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AT14">
         <v>0.25</v>
@@ -3942,7 +3951,7 @@
         <v>2</v>
       </c>
       <c r="AT15">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AU15">
         <v>0</v>
@@ -4043,7 +4052,7 @@
         <v>92</v>
       </c>
       <c r="P16" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="Q16">
         <v>7</v>
@@ -4130,10 +4139,10 @@
         <v>0</v>
       </c>
       <c r="AS16">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AT16">
-        <v>0.14</v>
+        <v>0.25</v>
       </c>
       <c r="AU16">
         <v>0</v>
@@ -4234,7 +4243,7 @@
         <v>93</v>
       </c>
       <c r="P17" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="Q17">
         <v>3</v>
@@ -4616,7 +4625,7 @@
         <v>95</v>
       </c>
       <c r="P19" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="Q19">
         <v>2</v>
@@ -4807,7 +4816,7 @@
         <v>96</v>
       </c>
       <c r="P20" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="Q20">
         <v>2</v>
@@ -4998,7 +5007,7 @@
         <v>82</v>
       </c>
       <c r="P21" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="Q21">
         <v>10</v>
@@ -5571,7 +5580,7 @@
         <v>82</v>
       </c>
       <c r="P24" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="Q24">
         <v>9</v>
@@ -6144,7 +6153,7 @@
         <v>82</v>
       </c>
       <c r="P27" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="Q27">
         <v>2</v>
@@ -6335,7 +6344,7 @@
         <v>82</v>
       </c>
       <c r="P28" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="Q28">
         <v>3</v>
@@ -6526,7 +6535,7 @@
         <v>83</v>
       </c>
       <c r="P29" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="Q29">
         <v>5</v>
@@ -6717,7 +6726,7 @@
         <v>99</v>
       </c>
       <c r="P30" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q30">
         <v>11</v>
@@ -6998,7 +7007,7 @@
         <v>1.2</v>
       </c>
       <c r="AT31">
-        <v>0.38</v>
+        <v>0.44</v>
       </c>
       <c r="AU31">
         <v>1.23</v>
@@ -7099,7 +7108,7 @@
         <v>101</v>
       </c>
       <c r="P32" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="Q32">
         <v>8</v>
@@ -7186,7 +7195,7 @@
         <v>3</v>
       </c>
       <c r="AS32">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AT32">
         <v>2</v>
@@ -7290,7 +7299,7 @@
         <v>102</v>
       </c>
       <c r="P33" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="Q33">
         <v>7</v>
@@ -7568,7 +7577,7 @@
         <v>0.5</v>
       </c>
       <c r="AS34">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AT34">
         <v>1.13</v>
@@ -7953,7 +7962,7 @@
         <v>1</v>
       </c>
       <c r="AT36">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AU36">
         <v>1.06</v>
@@ -8245,7 +8254,7 @@
         <v>104</v>
       </c>
       <c r="P38" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="Q38">
         <v>3</v>
@@ -8436,7 +8445,7 @@
         <v>105</v>
       </c>
       <c r="P39" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="Q39">
         <v>6</v>
@@ -8714,7 +8723,7 @@
         <v>3</v>
       </c>
       <c r="AS40">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AT40">
         <v>2.56</v>
@@ -9096,7 +9105,7 @@
         <v>3</v>
       </c>
       <c r="AS42">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AT42">
         <v>1.6</v>
@@ -9200,7 +9209,7 @@
         <v>107</v>
       </c>
       <c r="P43" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="Q43">
         <v>5</v>
@@ -9290,7 +9299,7 @@
         <v>1</v>
       </c>
       <c r="AT43">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AU43">
         <v>1.14</v>
@@ -9391,7 +9400,7 @@
         <v>99</v>
       </c>
       <c r="P44" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="Q44">
         <v>5</v>
@@ -9773,7 +9782,7 @@
         <v>109</v>
       </c>
       <c r="P46" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="Q46">
         <v>3</v>
@@ -10051,7 +10060,7 @@
         <v>0.33</v>
       </c>
       <c r="AS47">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AT47">
         <v>0.25</v>
@@ -10155,7 +10164,7 @@
         <v>110</v>
       </c>
       <c r="P48" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="Q48">
         <v>9</v>
@@ -10346,7 +10355,7 @@
         <v>111</v>
       </c>
       <c r="P49" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="Q49">
         <v>3</v>
@@ -10537,7 +10546,7 @@
         <v>112</v>
       </c>
       <c r="P50" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="Q50">
         <v>4</v>
@@ -10728,7 +10737,7 @@
         <v>113</v>
       </c>
       <c r="P51" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="Q51">
         <v>2</v>
@@ -11110,7 +11119,7 @@
         <v>115</v>
       </c>
       <c r="P53" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="Q53">
         <v>8</v>
@@ -11301,7 +11310,7 @@
         <v>116</v>
       </c>
       <c r="P54" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="Q54">
         <v>3</v>
@@ -11579,7 +11588,7 @@
         <v>0.5</v>
       </c>
       <c r="AS55">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AT55">
         <v>0.5600000000000001</v>
@@ -11964,7 +11973,7 @@
         <v>1.78</v>
       </c>
       <c r="AT57">
-        <v>0.38</v>
+        <v>0.44</v>
       </c>
       <c r="AU57">
         <v>1.43</v>
@@ -12065,7 +12074,7 @@
         <v>120</v>
       </c>
       <c r="P58" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="Q58">
         <v>3</v>
@@ -12346,7 +12355,7 @@
         <v>1.11</v>
       </c>
       <c r="AT59">
-        <v>0.14</v>
+        <v>0.25</v>
       </c>
       <c r="AU59">
         <v>1.91</v>
@@ -12447,7 +12456,7 @@
         <v>121</v>
       </c>
       <c r="P60" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="Q60">
         <v>3</v>
@@ -12638,7 +12647,7 @@
         <v>122</v>
       </c>
       <c r="P61" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="Q61">
         <v>6</v>
@@ -12829,7 +12838,7 @@
         <v>123</v>
       </c>
       <c r="P62" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="Q62">
         <v>2</v>
@@ -13107,7 +13116,7 @@
         <v>0</v>
       </c>
       <c r="AS63">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AT63">
         <v>0.38</v>
@@ -13211,7 +13220,7 @@
         <v>125</v>
       </c>
       <c r="P64" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="Q64">
         <v>1</v>
@@ -13298,7 +13307,7 @@
         <v>0.6</v>
       </c>
       <c r="AS64">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AT64">
         <v>1.2</v>
@@ -13402,7 +13411,7 @@
         <v>82</v>
       </c>
       <c r="P65" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="Q65">
         <v>1</v>
@@ -13593,7 +13602,7 @@
         <v>126</v>
       </c>
       <c r="P66" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="Q66">
         <v>4</v>
@@ -13784,7 +13793,7 @@
         <v>127</v>
       </c>
       <c r="P67" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="Q67">
         <v>7</v>
@@ -13874,7 +13883,7 @@
         <v>1.78</v>
       </c>
       <c r="AT67">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AU67">
         <v>1.56</v>
@@ -14166,7 +14175,7 @@
         <v>82</v>
       </c>
       <c r="P69" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="Q69">
         <v>6</v>
@@ -14447,7 +14456,7 @@
         <v>2.43</v>
       </c>
       <c r="AT70">
-        <v>0.14</v>
+        <v>0.25</v>
       </c>
       <c r="AU70">
         <v>2.23</v>
@@ -14548,7 +14557,7 @@
         <v>129</v>
       </c>
       <c r="P71" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="Q71">
         <v>7</v>
@@ -14635,7 +14644,7 @@
         <v>0.33</v>
       </c>
       <c r="AS71">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AT71">
         <v>0.5600000000000001</v>
@@ -14930,7 +14939,7 @@
         <v>131</v>
       </c>
       <c r="P73" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="Q73">
         <v>7</v>
@@ -15211,7 +15220,7 @@
         <v>2</v>
       </c>
       <c r="AT74">
-        <v>0.38</v>
+        <v>0.44</v>
       </c>
       <c r="AU74">
         <v>1.75</v>
@@ -15312,7 +15321,7 @@
         <v>133</v>
       </c>
       <c r="P75" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="Q75">
         <v>10</v>
@@ -15503,7 +15512,7 @@
         <v>134</v>
       </c>
       <c r="P76" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="Q76">
         <v>3</v>
@@ -15694,7 +15703,7 @@
         <v>82</v>
       </c>
       <c r="P77" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="Q77">
         <v>4</v>
@@ -15885,7 +15894,7 @@
         <v>103</v>
       </c>
       <c r="P78" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Q78">
         <v>7</v>
@@ -16267,7 +16276,7 @@
         <v>135</v>
       </c>
       <c r="P80" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="Q80">
         <v>3</v>
@@ -16458,7 +16467,7 @@
         <v>82</v>
       </c>
       <c r="P81" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="Q81">
         <v>4</v>
@@ -16739,7 +16748,7 @@
         <v>1.5</v>
       </c>
       <c r="AT82">
-        <v>0.14</v>
+        <v>0.25</v>
       </c>
       <c r="AU82">
         <v>1.28</v>
@@ -16840,7 +16849,7 @@
         <v>137</v>
       </c>
       <c r="P83" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="Q83">
         <v>12</v>
@@ -17118,7 +17127,7 @@
         <v>1.5</v>
       </c>
       <c r="AS84">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AT84">
         <v>1.5</v>
@@ -17413,7 +17422,7 @@
         <v>139</v>
       </c>
       <c r="P86" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="Q86">
         <v>2</v>
@@ -17500,7 +17509,7 @@
         <v>1</v>
       </c>
       <c r="AS86">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AT86">
         <v>0.67</v>
@@ -17604,7 +17613,7 @@
         <v>82</v>
       </c>
       <c r="P87" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="Q87">
         <v>1</v>
@@ -17986,7 +17995,7 @@
         <v>140</v>
       </c>
       <c r="P89" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="Q89">
         <v>6</v>
@@ -18073,7 +18082,7 @@
         <v>1.83</v>
       </c>
       <c r="AS89">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AT89">
         <v>1.6</v>
@@ -18177,7 +18186,7 @@
         <v>82</v>
       </c>
       <c r="P90" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="Q90">
         <v>3</v>
@@ -18368,7 +18377,7 @@
         <v>141</v>
       </c>
       <c r="P91" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="Q91">
         <v>5</v>
@@ -18458,7 +18467,7 @@
         <v>1.75</v>
       </c>
       <c r="AT91">
-        <v>0.14</v>
+        <v>0.25</v>
       </c>
       <c r="AU91">
         <v>1.5</v>
@@ -18750,7 +18759,7 @@
         <v>142</v>
       </c>
       <c r="P93" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="Q93">
         <v>3</v>
@@ -18837,7 +18846,7 @@
         <v>1.33</v>
       </c>
       <c r="AS93">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AT93">
         <v>1.11</v>
@@ -18941,7 +18950,7 @@
         <v>143</v>
       </c>
       <c r="P94" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="Q94">
         <v>7</v>
@@ -19028,10 +19037,10 @@
         <v>0.4</v>
       </c>
       <c r="AS94">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AT94">
-        <v>0.38</v>
+        <v>0.44</v>
       </c>
       <c r="AU94">
         <v>1.8</v>
@@ -19323,7 +19332,7 @@
         <v>144</v>
       </c>
       <c r="P96" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="Q96">
         <v>7</v>
@@ -19413,7 +19422,7 @@
         <v>1.25</v>
       </c>
       <c r="AT96">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AU96">
         <v>1.2</v>
@@ -19514,7 +19523,7 @@
         <v>145</v>
       </c>
       <c r="P97" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="Q97">
         <v>1</v>
@@ -20087,7 +20096,7 @@
         <v>147</v>
       </c>
       <c r="P100" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="Q100">
         <v>5</v>
@@ -20174,7 +20183,7 @@
         <v>0.17</v>
       </c>
       <c r="AS100">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AT100">
         <v>0.25</v>
@@ -20368,7 +20377,7 @@
         <v>2</v>
       </c>
       <c r="AT101">
-        <v>0.38</v>
+        <v>0.44</v>
       </c>
       <c r="AU101">
         <v>1.53</v>
@@ -20469,7 +20478,7 @@
         <v>82</v>
       </c>
       <c r="P102" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="Q102">
         <v>12</v>
@@ -20660,7 +20669,7 @@
         <v>82</v>
       </c>
       <c r="P103" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="Q103">
         <v>1</v>
@@ -20851,7 +20860,7 @@
         <v>149</v>
       </c>
       <c r="P104" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="Q104">
         <v>4</v>
@@ -21042,7 +21051,7 @@
         <v>108</v>
       </c>
       <c r="P105" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="Q105">
         <v>2</v>
@@ -21233,7 +21242,7 @@
         <v>123</v>
       </c>
       <c r="P106" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="Q106">
         <v>2</v>
@@ -21424,7 +21433,7 @@
         <v>150</v>
       </c>
       <c r="P107" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="Q107">
         <v>6</v>
@@ -21806,7 +21815,7 @@
         <v>152</v>
       </c>
       <c r="P109" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="Q109">
         <v>17</v>
@@ -21997,7 +22006,7 @@
         <v>153</v>
       </c>
       <c r="P110" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="Q110">
         <v>1</v>
@@ -22188,7 +22197,7 @@
         <v>154</v>
       </c>
       <c r="P111" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="Q111">
         <v>3</v>
@@ -22570,7 +22579,7 @@
         <v>155</v>
       </c>
       <c r="P113" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="Q113">
         <v>5</v>
@@ -22761,7 +22770,7 @@
         <v>156</v>
       </c>
       <c r="P114" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="Q114">
         <v>14</v>
@@ -22848,10 +22857,10 @@
         <v>0.29</v>
       </c>
       <c r="AS114">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AT114">
-        <v>0.38</v>
+        <v>0.44</v>
       </c>
       <c r="AU114">
         <v>1.25</v>
@@ -23039,7 +23048,7 @@
         <v>1</v>
       </c>
       <c r="AS115">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AT115">
         <v>1.2</v>
@@ -23424,7 +23433,7 @@
         <v>1.56</v>
       </c>
       <c r="AT117">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AU117">
         <v>1.51</v>
@@ -23525,7 +23534,7 @@
         <v>82</v>
       </c>
       <c r="P118" t="s">
-        <v>242</v>
+        <v>176</v>
       </c>
       <c r="Q118">
         <v>3</v>
@@ -23907,7 +23916,7 @@
         <v>160</v>
       </c>
       <c r="P120" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="Q120">
         <v>7</v>
@@ -23994,7 +24003,7 @@
         <v>0.17</v>
       </c>
       <c r="AS120">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AT120">
         <v>0.38</v>
@@ -24188,7 +24197,7 @@
         <v>1.78</v>
       </c>
       <c r="AT121">
-        <v>0.14</v>
+        <v>0.25</v>
       </c>
       <c r="AU121">
         <v>1.65</v>
@@ -24671,7 +24680,7 @@
         <v>164</v>
       </c>
       <c r="P124" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q124">
         <v>9</v>
@@ -24952,7 +24961,7 @@
         <v>1.56</v>
       </c>
       <c r="AT125">
-        <v>0.14</v>
+        <v>0.25</v>
       </c>
       <c r="AU125">
         <v>1.47</v>
@@ -25140,7 +25149,7 @@
         <v>1.88</v>
       </c>
       <c r="AS126">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AT126">
         <v>1.6</v>
@@ -25244,7 +25253,7 @@
         <v>167</v>
       </c>
       <c r="P127" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q127">
         <v>1</v>
@@ -25435,7 +25444,7 @@
         <v>168</v>
       </c>
       <c r="P128" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q128">
         <v>1</v>
@@ -25626,7 +25635,7 @@
         <v>169</v>
       </c>
       <c r="P129" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q129">
         <v>6</v>
@@ -25817,7 +25826,7 @@
         <v>95</v>
       </c>
       <c r="P130" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q130">
         <v>2</v>
@@ -26199,7 +26208,7 @@
         <v>156</v>
       </c>
       <c r="P132" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="Q132">
         <v>4</v>
@@ -26390,7 +26399,7 @@
         <v>170</v>
       </c>
       <c r="P133" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q133">
         <v>6</v>
@@ -26772,7 +26781,7 @@
         <v>172</v>
       </c>
       <c r="P135" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q135">
         <v>4</v>
@@ -26963,7 +26972,7 @@
         <v>173</v>
       </c>
       <c r="P136" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="Q136">
         <v>7</v>
@@ -27296,6 +27305,579 @@
       </c>
       <c r="BK137">
         <v>5</v>
+      </c>
+    </row>
+    <row r="138" spans="1:63">
+      <c r="A138" s="1">
+        <v>137</v>
+      </c>
+      <c r="B138">
+        <v>5845577</v>
+      </c>
+      <c r="C138" t="s">
+        <v>63</v>
+      </c>
+      <c r="D138" t="s">
+        <v>64</v>
+      </c>
+      <c r="E138" s="2">
+        <v>45128.35763888889</v>
+      </c>
+      <c r="F138">
+        <v>18</v>
+      </c>
+      <c r="G138" t="s">
+        <v>76</v>
+      </c>
+      <c r="H138" t="s">
+        <v>79</v>
+      </c>
+      <c r="I138">
+        <v>1</v>
+      </c>
+      <c r="J138">
+        <v>0</v>
+      </c>
+      <c r="K138">
+        <v>1</v>
+      </c>
+      <c r="L138">
+        <v>3</v>
+      </c>
+      <c r="M138">
+        <v>0</v>
+      </c>
+      <c r="N138">
+        <v>3</v>
+      </c>
+      <c r="O138" t="s">
+        <v>175</v>
+      </c>
+      <c r="P138" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q138">
+        <v>5</v>
+      </c>
+      <c r="R138">
+        <v>6</v>
+      </c>
+      <c r="S138">
+        <v>11</v>
+      </c>
+      <c r="T138">
+        <v>1.75</v>
+      </c>
+      <c r="U138">
+        <v>2.71</v>
+      </c>
+      <c r="V138">
+        <v>7.71</v>
+      </c>
+      <c r="W138">
+        <v>1.28</v>
+      </c>
+      <c r="X138">
+        <v>3.4</v>
+      </c>
+      <c r="Y138">
+        <v>2.42</v>
+      </c>
+      <c r="Z138">
+        <v>1.49</v>
+      </c>
+      <c r="AA138">
+        <v>5</v>
+      </c>
+      <c r="AB138">
+        <v>1.14</v>
+      </c>
+      <c r="AC138">
+        <v>1.26</v>
+      </c>
+      <c r="AD138">
+        <v>5.78</v>
+      </c>
+      <c r="AE138">
+        <v>11.41</v>
+      </c>
+      <c r="AF138">
+        <v>1.03</v>
+      </c>
+      <c r="AG138">
+        <v>19.25</v>
+      </c>
+      <c r="AH138">
+        <v>1.19</v>
+      </c>
+      <c r="AI138">
+        <v>4.82</v>
+      </c>
+      <c r="AJ138">
+        <v>1.59</v>
+      </c>
+      <c r="AK138">
+        <v>2.38</v>
+      </c>
+      <c r="AL138">
+        <v>1.95</v>
+      </c>
+      <c r="AM138">
+        <v>1.81</v>
+      </c>
+      <c r="AN138">
+        <v>1.06</v>
+      </c>
+      <c r="AO138">
+        <v>1.15</v>
+      </c>
+      <c r="AP138">
+        <v>3.52</v>
+      </c>
+      <c r="AQ138">
+        <v>2.13</v>
+      </c>
+      <c r="AR138">
+        <v>1.29</v>
+      </c>
+      <c r="AS138">
+        <v>2.22</v>
+      </c>
+      <c r="AT138">
+        <v>1.13</v>
+      </c>
+      <c r="AU138">
+        <v>1.7</v>
+      </c>
+      <c r="AV138">
+        <v>1.19</v>
+      </c>
+      <c r="AW138">
+        <v>2.89</v>
+      </c>
+      <c r="AX138">
+        <v>1.17</v>
+      </c>
+      <c r="AY138">
+        <v>11</v>
+      </c>
+      <c r="AZ138">
+        <v>6</v>
+      </c>
+      <c r="BA138">
+        <v>1.34</v>
+      </c>
+      <c r="BB138">
+        <v>1.57</v>
+      </c>
+      <c r="BC138">
+        <v>2.1</v>
+      </c>
+      <c r="BD138">
+        <v>2.75</v>
+      </c>
+      <c r="BE138">
+        <v>3.35</v>
+      </c>
+      <c r="BF138">
+        <v>9</v>
+      </c>
+      <c r="BG138">
+        <v>4</v>
+      </c>
+      <c r="BH138">
+        <v>8</v>
+      </c>
+      <c r="BI138">
+        <v>5</v>
+      </c>
+      <c r="BJ138">
+        <v>17</v>
+      </c>
+      <c r="BK138">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="139" spans="1:63">
+      <c r="A139" s="1">
+        <v>138</v>
+      </c>
+      <c r="B139">
+        <v>5845578</v>
+      </c>
+      <c r="C139" t="s">
+        <v>63</v>
+      </c>
+      <c r="D139" t="s">
+        <v>64</v>
+      </c>
+      <c r="E139" s="2">
+        <v>45128.35763888889</v>
+      </c>
+      <c r="F139">
+        <v>18</v>
+      </c>
+      <c r="G139" t="s">
+        <v>69</v>
+      </c>
+      <c r="H139" t="s">
+        <v>80</v>
+      </c>
+      <c r="I139">
+        <v>1</v>
+      </c>
+      <c r="J139">
+        <v>0</v>
+      </c>
+      <c r="K139">
+        <v>1</v>
+      </c>
+      <c r="L139">
+        <v>1</v>
+      </c>
+      <c r="M139">
+        <v>1</v>
+      </c>
+      <c r="N139">
+        <v>2</v>
+      </c>
+      <c r="O139" t="s">
+        <v>176</v>
+      </c>
+      <c r="P139" t="s">
+        <v>240</v>
+      </c>
+      <c r="Q139">
+        <v>10</v>
+      </c>
+      <c r="R139">
+        <v>2</v>
+      </c>
+      <c r="S139">
+        <v>12</v>
+      </c>
+      <c r="T139">
+        <v>2.75</v>
+      </c>
+      <c r="U139">
+        <v>2</v>
+      </c>
+      <c r="V139">
+        <v>4.25</v>
+      </c>
+      <c r="W139">
+        <v>1.45</v>
+      </c>
+      <c r="X139">
+        <v>2.55</v>
+      </c>
+      <c r="Y139">
+        <v>3</v>
+      </c>
+      <c r="Z139">
+        <v>1.36</v>
+      </c>
+      <c r="AA139">
+        <v>7.9</v>
+      </c>
+      <c r="AB139">
+        <v>1.05</v>
+      </c>
+      <c r="AC139">
+        <v>2.23</v>
+      </c>
+      <c r="AD139">
+        <v>3.15</v>
+      </c>
+      <c r="AE139">
+        <v>2.68</v>
+      </c>
+      <c r="AF139">
+        <v>1.03</v>
+      </c>
+      <c r="AG139">
+        <v>9.75</v>
+      </c>
+      <c r="AH139">
+        <v>1.36</v>
+      </c>
+      <c r="AI139">
+        <v>3</v>
+      </c>
+      <c r="AJ139">
+        <v>2.07</v>
+      </c>
+      <c r="AK139">
+        <v>1.67</v>
+      </c>
+      <c r="AL139">
+        <v>1.85</v>
+      </c>
+      <c r="AM139">
+        <v>1.87</v>
+      </c>
+      <c r="AN139">
+        <v>1.27</v>
+      </c>
+      <c r="AO139">
+        <v>1.25</v>
+      </c>
+      <c r="AP139">
+        <v>1.72</v>
+      </c>
+      <c r="AQ139">
+        <v>1.25</v>
+      </c>
+      <c r="AR139">
+        <v>0.38</v>
+      </c>
+      <c r="AS139">
+        <v>1.22</v>
+      </c>
+      <c r="AT139">
+        <v>0.44</v>
+      </c>
+      <c r="AU139">
+        <v>1.07</v>
+      </c>
+      <c r="AV139">
+        <v>1.05</v>
+      </c>
+      <c r="AW139">
+        <v>2.12</v>
+      </c>
+      <c r="AX139">
+        <v>1.91</v>
+      </c>
+      <c r="AY139">
+        <v>7.5</v>
+      </c>
+      <c r="AZ139">
+        <v>2.2</v>
+      </c>
+      <c r="BA139">
+        <v>1.48</v>
+      </c>
+      <c r="BB139">
+        <v>1.85</v>
+      </c>
+      <c r="BC139">
+        <v>2.45</v>
+      </c>
+      <c r="BD139">
+        <v>3</v>
+      </c>
+      <c r="BE139">
+        <v>4.15</v>
+      </c>
+      <c r="BF139">
+        <v>7</v>
+      </c>
+      <c r="BG139">
+        <v>5</v>
+      </c>
+      <c r="BH139">
+        <v>5</v>
+      </c>
+      <c r="BI139">
+        <v>4</v>
+      </c>
+      <c r="BJ139">
+        <v>12</v>
+      </c>
+      <c r="BK139">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="140" spans="1:63">
+      <c r="A140" s="1">
+        <v>139</v>
+      </c>
+      <c r="B140">
+        <v>5845579</v>
+      </c>
+      <c r="C140" t="s">
+        <v>63</v>
+      </c>
+      <c r="D140" t="s">
+        <v>64</v>
+      </c>
+      <c r="E140" s="2">
+        <v>45128.35763888889</v>
+      </c>
+      <c r="F140">
+        <v>18</v>
+      </c>
+      <c r="G140" t="s">
+        <v>70</v>
+      </c>
+      <c r="H140" t="s">
+        <v>72</v>
+      </c>
+      <c r="I140">
+        <v>0</v>
+      </c>
+      <c r="J140">
+        <v>1</v>
+      </c>
+      <c r="K140">
+        <v>1</v>
+      </c>
+      <c r="L140">
+        <v>3</v>
+      </c>
+      <c r="M140">
+        <v>3</v>
+      </c>
+      <c r="N140">
+        <v>6</v>
+      </c>
+      <c r="O140" t="s">
+        <v>177</v>
+      </c>
+      <c r="P140" t="s">
+        <v>252</v>
+      </c>
+      <c r="Q140">
+        <v>11</v>
+      </c>
+      <c r="R140">
+        <v>2</v>
+      </c>
+      <c r="S140">
+        <v>13</v>
+      </c>
+      <c r="T140">
+        <v>1.54</v>
+      </c>
+      <c r="U140">
+        <v>2.99</v>
+      </c>
+      <c r="V140">
+        <v>11.09</v>
+      </c>
+      <c r="W140">
+        <v>1.22</v>
+      </c>
+      <c r="X140">
+        <v>3.6</v>
+      </c>
+      <c r="Y140">
+        <v>2.15</v>
+      </c>
+      <c r="Z140">
+        <v>1.54</v>
+      </c>
+      <c r="AA140">
+        <v>4.55</v>
+      </c>
+      <c r="AB140">
+        <v>1.11</v>
+      </c>
+      <c r="AC140">
+        <v>1.11</v>
+      </c>
+      <c r="AD140">
+        <v>7.6</v>
+      </c>
+      <c r="AE140">
+        <v>9.25</v>
+      </c>
+      <c r="AF140">
+        <v>1.01</v>
+      </c>
+      <c r="AG140">
+        <v>18</v>
+      </c>
+      <c r="AH140">
+        <v>1.12</v>
+      </c>
+      <c r="AI140">
+        <v>4.7</v>
+      </c>
+      <c r="AJ140">
+        <v>1.5</v>
+      </c>
+      <c r="AK140">
+        <v>2.41</v>
+      </c>
+      <c r="AL140">
+        <v>2.3</v>
+      </c>
+      <c r="AM140">
+        <v>1.51</v>
+      </c>
+      <c r="AN140">
+        <v>1.01</v>
+      </c>
+      <c r="AO140">
+        <v>1.06</v>
+      </c>
+      <c r="AP140">
+        <v>5.75</v>
+      </c>
+      <c r="AQ140">
+        <v>1.75</v>
+      </c>
+      <c r="AR140">
+        <v>0.14</v>
+      </c>
+      <c r="AS140">
+        <v>1.67</v>
+      </c>
+      <c r="AT140">
+        <v>0.25</v>
+      </c>
+      <c r="AU140">
+        <v>1.29</v>
+      </c>
+      <c r="AV140">
+        <v>0.77</v>
+      </c>
+      <c r="AW140">
+        <v>2.06</v>
+      </c>
+      <c r="AX140">
+        <v>1.2</v>
+      </c>
+      <c r="AY140">
+        <v>10</v>
+      </c>
+      <c r="AZ140">
+        <v>5.5</v>
+      </c>
+      <c r="BA140">
+        <v>1.37</v>
+      </c>
+      <c r="BB140">
+        <v>1.72</v>
+      </c>
+      <c r="BC140">
+        <v>2.2</v>
+      </c>
+      <c r="BD140">
+        <v>2.95</v>
+      </c>
+      <c r="BE140">
+        <v>3.64</v>
+      </c>
+      <c r="BF140">
+        <v>10</v>
+      </c>
+      <c r="BG140">
+        <v>8</v>
+      </c>
+      <c r="BH140">
+        <v>12</v>
+      </c>
+      <c r="BI140">
+        <v>3</v>
+      </c>
+      <c r="BJ140">
+        <v>22</v>
+      </c>
+      <c r="BK140">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/China Chinese Super League_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/China Chinese Super League_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="927" uniqueCount="258">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -550,6 +550,21 @@
     <t>['56', '84', '86']</t>
   </si>
   <si>
+    <t>['13', '19', '49', '66']</t>
+  </si>
+  <si>
+    <t>['8']</t>
+  </si>
+  <si>
+    <t>['69', '90+8']</t>
+  </si>
+  <si>
+    <t>['51', '79']</t>
+  </si>
+  <si>
+    <t>['5', '71']</t>
+  </si>
+  <si>
     <t>['64', '79']</t>
   </si>
   <si>
@@ -709,9 +724,6 @@
     <t>['41', '51']</t>
   </si>
   <si>
-    <t>['8']</t>
-  </si>
-  <si>
     <t>['41', '51', '87']</t>
   </si>
   <si>
@@ -773,6 +785,9 @@
   </si>
   <si>
     <t>['31', '62', '69']</t>
+  </si>
+  <si>
+    <t>['17']</t>
   </si>
 </sst>
 </file>
@@ -1134,7 +1149,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK140"/>
+  <dimension ref="A1:BK145"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1569,7 +1584,7 @@
         <v>82</v>
       </c>
       <c r="P3" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="Q3">
         <v>5</v>
@@ -1656,7 +1671,7 @@
         <v>0</v>
       </c>
       <c r="AS3">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AT3">
         <v>2.56</v>
@@ -1760,7 +1775,7 @@
         <v>82</v>
       </c>
       <c r="P4" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="Q4">
         <v>9</v>
@@ -1847,7 +1862,7 @@
         <v>0</v>
       </c>
       <c r="AS4">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AT4">
         <v>1.22</v>
@@ -1951,7 +1966,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="Q5">
         <v>8</v>
@@ -2038,10 +2053,10 @@
         <v>0</v>
       </c>
       <c r="AS5">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AT5">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AU5">
         <v>0</v>
@@ -2142,7 +2157,7 @@
         <v>84</v>
       </c>
       <c r="P6" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="Q6">
         <v>2</v>
@@ -2333,7 +2348,7 @@
         <v>85</v>
       </c>
       <c r="P7" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="Q7">
         <v>7</v>
@@ -2614,7 +2629,7 @@
         <v>2</v>
       </c>
       <c r="AT8">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AU8">
         <v>0</v>
@@ -2715,7 +2730,7 @@
         <v>87</v>
       </c>
       <c r="P9" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="Q9">
         <v>4</v>
@@ -2805,7 +2820,7 @@
         <v>1</v>
       </c>
       <c r="AT9">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="AU9">
         <v>0</v>
@@ -2906,7 +2921,7 @@
         <v>88</v>
       </c>
       <c r="P10" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="Q10">
         <v>4</v>
@@ -2993,7 +3008,7 @@
         <v>0</v>
       </c>
       <c r="AS10">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AT10">
         <v>1.13</v>
@@ -3288,7 +3303,7 @@
         <v>82</v>
       </c>
       <c r="P12" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="Q12">
         <v>7</v>
@@ -3378,7 +3393,7 @@
         <v>1.25</v>
       </c>
       <c r="AT12">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AU12">
         <v>0</v>
@@ -3760,7 +3775,7 @@
         <v>1.22</v>
       </c>
       <c r="AT14">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="AU14">
         <v>0.63</v>
@@ -3948,7 +3963,7 @@
         <v>1</v>
       </c>
       <c r="AS15">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AT15">
         <v>1.13</v>
@@ -4052,7 +4067,7 @@
         <v>92</v>
       </c>
       <c r="P16" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="Q16">
         <v>7</v>
@@ -4243,7 +4258,7 @@
         <v>93</v>
       </c>
       <c r="P17" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="Q17">
         <v>3</v>
@@ -4330,10 +4345,10 @@
         <v>0</v>
       </c>
       <c r="AS17">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AT17">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AU17">
         <v>0</v>
@@ -4625,7 +4640,7 @@
         <v>95</v>
       </c>
       <c r="P19" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="Q19">
         <v>2</v>
@@ -4816,7 +4831,7 @@
         <v>96</v>
       </c>
       <c r="P20" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="Q20">
         <v>2</v>
@@ -5007,7 +5022,7 @@
         <v>82</v>
       </c>
       <c r="P21" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="Q21">
         <v>10</v>
@@ -5580,7 +5595,7 @@
         <v>82</v>
       </c>
       <c r="P24" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="Q24">
         <v>9</v>
@@ -6049,10 +6064,10 @@
         <v>0</v>
       </c>
       <c r="AS26">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AT26">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AU26">
         <v>1.83</v>
@@ -6153,7 +6168,7 @@
         <v>82</v>
       </c>
       <c r="P27" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="Q27">
         <v>2</v>
@@ -6344,7 +6359,7 @@
         <v>82</v>
       </c>
       <c r="P28" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="Q28">
         <v>3</v>
@@ -6431,7 +6446,7 @@
         <v>1</v>
       </c>
       <c r="AS28">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AT28">
         <v>1.5</v>
@@ -6535,7 +6550,7 @@
         <v>83</v>
       </c>
       <c r="P29" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="Q29">
         <v>5</v>
@@ -6622,7 +6637,7 @@
         <v>3</v>
       </c>
       <c r="AS29">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AT29">
         <v>1.56</v>
@@ -6726,7 +6741,7 @@
         <v>99</v>
       </c>
       <c r="P30" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="Q30">
         <v>11</v>
@@ -7108,7 +7123,7 @@
         <v>101</v>
       </c>
       <c r="P32" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="Q32">
         <v>8</v>
@@ -7198,7 +7213,7 @@
         <v>2.22</v>
       </c>
       <c r="AT32">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AU32">
         <v>1.62</v>
@@ -7299,7 +7314,7 @@
         <v>102</v>
       </c>
       <c r="P33" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="Q33">
         <v>7</v>
@@ -7389,7 +7404,7 @@
         <v>1</v>
       </c>
       <c r="AT33">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AU33">
         <v>1.13</v>
@@ -7771,7 +7786,7 @@
         <v>2</v>
       </c>
       <c r="AT35">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AU35">
         <v>0.96</v>
@@ -8150,7 +8165,7 @@
         <v>0</v>
       </c>
       <c r="AS37">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AT37">
         <v>1.11</v>
@@ -8254,7 +8269,7 @@
         <v>104</v>
       </c>
       <c r="P38" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="Q38">
         <v>3</v>
@@ -8344,7 +8359,7 @@
         <v>1.25</v>
       </c>
       <c r="AT38">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AU38">
         <v>1.32</v>
@@ -8445,7 +8460,7 @@
         <v>105</v>
       </c>
       <c r="P39" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="Q39">
         <v>6</v>
@@ -8532,10 +8547,10 @@
         <v>0.5</v>
       </c>
       <c r="AS39">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AT39">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="AU39">
         <v>1.33</v>
@@ -9209,7 +9224,7 @@
         <v>107</v>
       </c>
       <c r="P43" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="Q43">
         <v>5</v>
@@ -9400,7 +9415,7 @@
         <v>99</v>
       </c>
       <c r="P44" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="Q44">
         <v>5</v>
@@ -9490,7 +9505,7 @@
         <v>1</v>
       </c>
       <c r="AT44">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AU44">
         <v>1.06</v>
@@ -9678,7 +9693,7 @@
         <v>2</v>
       </c>
       <c r="AS45">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AT45">
         <v>1.56</v>
@@ -9782,7 +9797,7 @@
         <v>109</v>
       </c>
       <c r="P46" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="Q46">
         <v>3</v>
@@ -10063,7 +10078,7 @@
         <v>2.22</v>
       </c>
       <c r="AT47">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="AU47">
         <v>1.61</v>
@@ -10164,7 +10179,7 @@
         <v>110</v>
       </c>
       <c r="P48" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="Q48">
         <v>9</v>
@@ -10251,10 +10266,10 @@
         <v>0.33</v>
       </c>
       <c r="AS48">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AT48">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AU48">
         <v>1.82</v>
@@ -10355,7 +10370,7 @@
         <v>111</v>
       </c>
       <c r="P49" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="Q49">
         <v>3</v>
@@ -10442,10 +10457,10 @@
         <v>1</v>
       </c>
       <c r="AS49">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AT49">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AU49">
         <v>1.37</v>
@@ -10546,7 +10561,7 @@
         <v>112</v>
       </c>
       <c r="P50" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="Q50">
         <v>4</v>
@@ -10737,7 +10752,7 @@
         <v>113</v>
       </c>
       <c r="P51" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="Q51">
         <v>2</v>
@@ -10827,7 +10842,7 @@
         <v>1</v>
       </c>
       <c r="AT51">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AU51">
         <v>1.09</v>
@@ -11018,7 +11033,7 @@
         <v>1.56</v>
       </c>
       <c r="AT52">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AU52">
         <v>0.87</v>
@@ -11119,7 +11134,7 @@
         <v>115</v>
       </c>
       <c r="P53" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="Q53">
         <v>8</v>
@@ -11206,7 +11221,7 @@
         <v>2</v>
       </c>
       <c r="AS53">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AT53">
         <v>1.22</v>
@@ -11310,7 +11325,7 @@
         <v>116</v>
       </c>
       <c r="P54" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="Q54">
         <v>3</v>
@@ -11397,7 +11412,7 @@
         <v>2.33</v>
       </c>
       <c r="AS54">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AT54">
         <v>2.56</v>
@@ -11782,7 +11797,7 @@
         <v>1.2</v>
       </c>
       <c r="AT56">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AU56">
         <v>1.11</v>
@@ -11970,7 +11985,7 @@
         <v>0.67</v>
       </c>
       <c r="AS57">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AT57">
         <v>0.44</v>
@@ -12074,7 +12089,7 @@
         <v>120</v>
       </c>
       <c r="P58" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="Q58">
         <v>3</v>
@@ -12161,7 +12176,7 @@
         <v>1.67</v>
       </c>
       <c r="AS58">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AT58">
         <v>1.5</v>
@@ -12456,7 +12471,7 @@
         <v>121</v>
       </c>
       <c r="P60" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="Q60">
         <v>3</v>
@@ -12647,7 +12662,7 @@
         <v>122</v>
       </c>
       <c r="P61" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="Q61">
         <v>6</v>
@@ -12838,7 +12853,7 @@
         <v>123</v>
       </c>
       <c r="P62" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="Q62">
         <v>2</v>
@@ -13119,7 +13134,7 @@
         <v>1.22</v>
       </c>
       <c r="AT63">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AU63">
         <v>1.07</v>
@@ -13220,7 +13235,7 @@
         <v>125</v>
       </c>
       <c r="P64" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="Q64">
         <v>1</v>
@@ -13310,7 +13325,7 @@
         <v>1.67</v>
       </c>
       <c r="AT64">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AU64">
         <v>1.39</v>
@@ -13411,7 +13426,7 @@
         <v>82</v>
       </c>
       <c r="P65" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="Q65">
         <v>1</v>
@@ -13602,7 +13617,7 @@
         <v>126</v>
       </c>
       <c r="P66" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="Q66">
         <v>4</v>
@@ -13689,10 +13704,10 @@
         <v>2.33</v>
       </c>
       <c r="AS66">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AT66">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AU66">
         <v>1.88</v>
@@ -13793,7 +13808,7 @@
         <v>127</v>
       </c>
       <c r="P67" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="Q67">
         <v>7</v>
@@ -13880,7 +13895,7 @@
         <v>1.25</v>
       </c>
       <c r="AS67">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AT67">
         <v>1.13</v>
@@ -14071,10 +14086,10 @@
         <v>0.25</v>
       </c>
       <c r="AS68">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AT68">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="AU68">
         <v>1.59</v>
@@ -14175,7 +14190,7 @@
         <v>82</v>
       </c>
       <c r="P69" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="Q69">
         <v>6</v>
@@ -14557,7 +14572,7 @@
         <v>129</v>
       </c>
       <c r="P71" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="Q71">
         <v>7</v>
@@ -14939,7 +14954,7 @@
         <v>131</v>
       </c>
       <c r="P73" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="Q73">
         <v>7</v>
@@ -15217,7 +15232,7 @@
         <v>0.5</v>
       </c>
       <c r="AS74">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AT74">
         <v>0.44</v>
@@ -15321,7 +15336,7 @@
         <v>133</v>
       </c>
       <c r="P75" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="Q75">
         <v>10</v>
@@ -15512,7 +15527,7 @@
         <v>134</v>
       </c>
       <c r="P76" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="Q76">
         <v>3</v>
@@ -15599,7 +15614,7 @@
         <v>1.25</v>
       </c>
       <c r="AS76">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AT76">
         <v>1.13</v>
@@ -15703,7 +15718,7 @@
         <v>82</v>
       </c>
       <c r="P77" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="Q77">
         <v>4</v>
@@ -15793,7 +15808,7 @@
         <v>1.56</v>
       </c>
       <c r="AT77">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AU77">
         <v>1.45</v>
@@ -15894,7 +15909,7 @@
         <v>103</v>
       </c>
       <c r="P78" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="Q78">
         <v>7</v>
@@ -16276,7 +16291,7 @@
         <v>135</v>
       </c>
       <c r="P80" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="Q80">
         <v>3</v>
@@ -16366,7 +16381,7 @@
         <v>1</v>
       </c>
       <c r="AT80">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AU80">
         <v>1.17</v>
@@ -16467,7 +16482,7 @@
         <v>82</v>
       </c>
       <c r="P81" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="Q81">
         <v>4</v>
@@ -16554,7 +16569,7 @@
         <v>2.6</v>
       </c>
       <c r="AS81">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AT81">
         <v>2.56</v>
@@ -16745,7 +16760,7 @@
         <v>0.33</v>
       </c>
       <c r="AS82">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AT82">
         <v>0.25</v>
@@ -16849,7 +16864,7 @@
         <v>137</v>
       </c>
       <c r="P83" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="Q83">
         <v>12</v>
@@ -16936,7 +16951,7 @@
         <v>2</v>
       </c>
       <c r="AS83">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AT83">
         <v>1.22</v>
@@ -17321,7 +17336,7 @@
         <v>2.43</v>
       </c>
       <c r="AT85">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AU85">
         <v>2.24</v>
@@ -17422,7 +17437,7 @@
         <v>139</v>
       </c>
       <c r="P86" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="Q86">
         <v>2</v>
@@ -17512,7 +17527,7 @@
         <v>1.22</v>
       </c>
       <c r="AT86">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AU86">
         <v>1.08</v>
@@ -17613,7 +17628,7 @@
         <v>82</v>
       </c>
       <c r="P87" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="Q87">
         <v>1</v>
@@ -17703,7 +17718,7 @@
         <v>1.2</v>
       </c>
       <c r="AT87">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AU87">
         <v>1.53</v>
@@ -17894,7 +17909,7 @@
         <v>1.11</v>
       </c>
       <c r="AT88">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="AU88">
         <v>1.9</v>
@@ -17995,7 +18010,7 @@
         <v>140</v>
       </c>
       <c r="P89" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="Q89">
         <v>6</v>
@@ -18186,7 +18201,7 @@
         <v>82</v>
       </c>
       <c r="P90" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="Q90">
         <v>3</v>
@@ -18276,7 +18291,7 @@
         <v>1.56</v>
       </c>
       <c r="AT90">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AU90">
         <v>1.41</v>
@@ -18377,7 +18392,7 @@
         <v>141</v>
       </c>
       <c r="P91" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="Q91">
         <v>5</v>
@@ -18464,7 +18479,7 @@
         <v>0.25</v>
       </c>
       <c r="AS91">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AT91">
         <v>0.25</v>
@@ -18655,7 +18670,7 @@
         <v>1.8</v>
       </c>
       <c r="AS92">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AT92">
         <v>1.56</v>
@@ -18759,7 +18774,7 @@
         <v>142</v>
       </c>
       <c r="P93" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="Q93">
         <v>3</v>
@@ -18950,7 +18965,7 @@
         <v>143</v>
       </c>
       <c r="P94" t="s">
-        <v>231</v>
+        <v>179</v>
       </c>
       <c r="Q94">
         <v>7</v>
@@ -19228,10 +19243,10 @@
         <v>1</v>
       </c>
       <c r="AS95">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AT95">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AU95">
         <v>1.76</v>
@@ -19332,7 +19347,7 @@
         <v>144</v>
       </c>
       <c r="P96" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="Q96">
         <v>7</v>
@@ -19523,7 +19538,7 @@
         <v>145</v>
       </c>
       <c r="P97" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="Q97">
         <v>1</v>
@@ -19801,10 +19816,10 @@
         <v>0</v>
       </c>
       <c r="AS98">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AT98">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AU98">
         <v>1.68</v>
@@ -19992,10 +20007,10 @@
         <v>0.83</v>
       </c>
       <c r="AS99">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AT99">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AU99">
         <v>1.45</v>
@@ -20096,7 +20111,7 @@
         <v>147</v>
       </c>
       <c r="P100" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="Q100">
         <v>5</v>
@@ -20186,7 +20201,7 @@
         <v>1.67</v>
       </c>
       <c r="AT100">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="AU100">
         <v>1.25</v>
@@ -20478,7 +20493,7 @@
         <v>82</v>
       </c>
       <c r="P102" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="Q102">
         <v>12</v>
@@ -20669,7 +20684,7 @@
         <v>82</v>
       </c>
       <c r="P103" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="Q103">
         <v>1</v>
@@ -20860,7 +20875,7 @@
         <v>149</v>
       </c>
       <c r="P104" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="Q104">
         <v>4</v>
@@ -21051,7 +21066,7 @@
         <v>108</v>
       </c>
       <c r="P105" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="Q105">
         <v>2</v>
@@ -21138,7 +21153,7 @@
         <v>2.67</v>
       </c>
       <c r="AS105">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AT105">
         <v>2.56</v>
@@ -21242,7 +21257,7 @@
         <v>123</v>
       </c>
       <c r="P106" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="Q106">
         <v>2</v>
@@ -21433,7 +21448,7 @@
         <v>150</v>
       </c>
       <c r="P107" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="Q107">
         <v>6</v>
@@ -21523,7 +21538,7 @@
         <v>1</v>
       </c>
       <c r="AT107">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="AU107">
         <v>1.28</v>
@@ -21815,7 +21830,7 @@
         <v>152</v>
       </c>
       <c r="P109" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="Q109">
         <v>17</v>
@@ -21905,7 +21920,7 @@
         <v>1.11</v>
       </c>
       <c r="AT109">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AU109">
         <v>1.91</v>
@@ -22006,7 +22021,7 @@
         <v>153</v>
       </c>
       <c r="P110" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="Q110">
         <v>1</v>
@@ -22197,7 +22212,7 @@
         <v>154</v>
       </c>
       <c r="P111" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="Q111">
         <v>3</v>
@@ -22475,7 +22490,7 @@
         <v>1</v>
       </c>
       <c r="AS112">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AT112">
         <v>1.13</v>
@@ -22579,7 +22594,7 @@
         <v>155</v>
       </c>
       <c r="P113" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="Q113">
         <v>5</v>
@@ -22666,7 +22681,7 @@
         <v>0.83</v>
       </c>
       <c r="AS113">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AT113">
         <v>0.5600000000000001</v>
@@ -22770,7 +22785,7 @@
         <v>156</v>
       </c>
       <c r="P114" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="Q114">
         <v>14</v>
@@ -23051,7 +23066,7 @@
         <v>1.22</v>
       </c>
       <c r="AT115">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AU115">
         <v>1.14</v>
@@ -23621,10 +23636,10 @@
         <v>2.17</v>
       </c>
       <c r="AS118">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AT118">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AU118">
         <v>1.4</v>
@@ -23812,7 +23827,7 @@
         <v>1.43</v>
       </c>
       <c r="AS119">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AT119">
         <v>1.22</v>
@@ -23916,7 +23931,7 @@
         <v>160</v>
       </c>
       <c r="P120" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="Q120">
         <v>7</v>
@@ -24006,7 +24021,7 @@
         <v>2.22</v>
       </c>
       <c r="AT120">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AU120">
         <v>1.78</v>
@@ -24194,7 +24209,7 @@
         <v>0.2</v>
       </c>
       <c r="AS121">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AT121">
         <v>0.25</v>
@@ -24388,7 +24403,7 @@
         <v>2.43</v>
       </c>
       <c r="AT122">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AU122">
         <v>1.8</v>
@@ -24576,7 +24591,7 @@
         <v>0.71</v>
       </c>
       <c r="AS123">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AT123">
         <v>0.5600000000000001</v>
@@ -24680,7 +24695,7 @@
         <v>164</v>
       </c>
       <c r="P124" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="Q124">
         <v>9</v>
@@ -25253,7 +25268,7 @@
         <v>167</v>
       </c>
       <c r="P127" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="Q127">
         <v>1</v>
@@ -25444,7 +25459,7 @@
         <v>168</v>
       </c>
       <c r="P128" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="Q128">
         <v>1</v>
@@ -25531,7 +25546,7 @@
         <v>1.13</v>
       </c>
       <c r="AS128">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AT128">
         <v>1.11</v>
@@ -25635,7 +25650,7 @@
         <v>169</v>
       </c>
       <c r="P129" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="Q129">
         <v>6</v>
@@ -25725,7 +25740,7 @@
         <v>1.11</v>
       </c>
       <c r="AT129">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AU129">
         <v>2</v>
@@ -25826,7 +25841,7 @@
         <v>95</v>
       </c>
       <c r="P130" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="Q130">
         <v>2</v>
@@ -26208,7 +26223,7 @@
         <v>156</v>
       </c>
       <c r="P132" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="Q132">
         <v>4</v>
@@ -26298,7 +26313,7 @@
         <v>1.11</v>
       </c>
       <c r="AT132">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AU132">
         <v>1.89</v>
@@ -26399,7 +26414,7 @@
         <v>170</v>
       </c>
       <c r="P133" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="Q133">
         <v>6</v>
@@ -26486,7 +26501,7 @@
         <v>1.75</v>
       </c>
       <c r="AS133">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AT133">
         <v>1.56</v>
@@ -26677,7 +26692,7 @@
         <v>1.67</v>
       </c>
       <c r="AS134">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AT134">
         <v>1.6</v>
@@ -26781,7 +26796,7 @@
         <v>172</v>
       </c>
       <c r="P135" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="Q135">
         <v>4</v>
@@ -26972,7 +26987,7 @@
         <v>173</v>
       </c>
       <c r="P136" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="Q136">
         <v>7</v>
@@ -27062,7 +27077,7 @@
         <v>2</v>
       </c>
       <c r="AT136">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AU136">
         <v>1.51</v>
@@ -27545,16 +27560,16 @@
         <v>176</v>
       </c>
       <c r="P139" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="Q139">
         <v>10</v>
       </c>
       <c r="R139">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S139">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="T139">
         <v>2.75</v>
@@ -27736,7 +27751,7 @@
         <v>177</v>
       </c>
       <c r="P140" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="Q140">
         <v>11</v>
@@ -27878,6 +27893,961 @@
       </c>
       <c r="BK140">
         <v>11</v>
+      </c>
+    </row>
+    <row r="141" spans="1:63">
+      <c r="A141" s="1">
+        <v>140</v>
+      </c>
+      <c r="B141">
+        <v>5845580</v>
+      </c>
+      <c r="C141" t="s">
+        <v>63</v>
+      </c>
+      <c r="D141" t="s">
+        <v>64</v>
+      </c>
+      <c r="E141" s="2">
+        <v>45129.35763888889</v>
+      </c>
+      <c r="F141">
+        <v>18</v>
+      </c>
+      <c r="G141" t="s">
+        <v>75</v>
+      </c>
+      <c r="H141" t="s">
+        <v>65</v>
+      </c>
+      <c r="I141">
+        <v>2</v>
+      </c>
+      <c r="J141">
+        <v>1</v>
+      </c>
+      <c r="K141">
+        <v>3</v>
+      </c>
+      <c r="L141">
+        <v>4</v>
+      </c>
+      <c r="M141">
+        <v>1</v>
+      </c>
+      <c r="N141">
+        <v>5</v>
+      </c>
+      <c r="O141" t="s">
+        <v>178</v>
+      </c>
+      <c r="P141" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q141">
+        <v>1</v>
+      </c>
+      <c r="R141">
+        <v>4</v>
+      </c>
+      <c r="S141">
+        <v>5</v>
+      </c>
+      <c r="T141">
+        <v>1.9</v>
+      </c>
+      <c r="U141">
+        <v>2.3</v>
+      </c>
+      <c r="V141">
+        <v>6.5</v>
+      </c>
+      <c r="W141">
+        <v>1.36</v>
+      </c>
+      <c r="X141">
+        <v>2.9</v>
+      </c>
+      <c r="Y141">
+        <v>2.7</v>
+      </c>
+      <c r="Z141">
+        <v>1.41</v>
+      </c>
+      <c r="AA141">
+        <v>6.45</v>
+      </c>
+      <c r="AB141">
+        <v>1.09</v>
+      </c>
+      <c r="AC141">
+        <v>1.45</v>
+      </c>
+      <c r="AD141">
+        <v>3.9</v>
+      </c>
+      <c r="AE141">
+        <v>7</v>
+      </c>
+      <c r="AF141">
+        <v>1.03</v>
+      </c>
+      <c r="AG141">
+        <v>13</v>
+      </c>
+      <c r="AH141">
+        <v>1.25</v>
+      </c>
+      <c r="AI141">
+        <v>3.6</v>
+      </c>
+      <c r="AJ141">
+        <v>1.83</v>
+      </c>
+      <c r="AK141">
+        <v>1.9</v>
+      </c>
+      <c r="AL141">
+        <v>2.05</v>
+      </c>
+      <c r="AM141">
+        <v>1.72</v>
+      </c>
+      <c r="AN141">
+        <v>1.04</v>
+      </c>
+      <c r="AO141">
+        <v>1.16</v>
+      </c>
+      <c r="AP141">
+        <v>2.8</v>
+      </c>
+      <c r="AQ141">
+        <v>2</v>
+      </c>
+      <c r="AR141">
+        <v>0.38</v>
+      </c>
+      <c r="AS141">
+        <v>2.1</v>
+      </c>
+      <c r="AT141">
+        <v>0.33</v>
+      </c>
+      <c r="AU141">
+        <v>1.81</v>
+      </c>
+      <c r="AV141">
+        <v>1.17</v>
+      </c>
+      <c r="AW141">
+        <v>2.98</v>
+      </c>
+      <c r="AX141">
+        <v>1.44</v>
+      </c>
+      <c r="AY141">
+        <v>8.5</v>
+      </c>
+      <c r="AZ141">
+        <v>3.25</v>
+      </c>
+      <c r="BA141">
+        <v>1.31</v>
+      </c>
+      <c r="BB141">
+        <v>1.58</v>
+      </c>
+      <c r="BC141">
+        <v>2.03</v>
+      </c>
+      <c r="BD141">
+        <v>2.7</v>
+      </c>
+      <c r="BE141">
+        <v>3.2</v>
+      </c>
+      <c r="BF141">
+        <v>6</v>
+      </c>
+      <c r="BG141">
+        <v>5</v>
+      </c>
+      <c r="BH141">
+        <v>5</v>
+      </c>
+      <c r="BI141">
+        <v>2</v>
+      </c>
+      <c r="BJ141">
+        <v>11</v>
+      </c>
+      <c r="BK141">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="142" spans="1:63">
+      <c r="A142" s="1">
+        <v>141</v>
+      </c>
+      <c r="B142">
+        <v>5845581</v>
+      </c>
+      <c r="C142" t="s">
+        <v>63</v>
+      </c>
+      <c r="D142" t="s">
+        <v>64</v>
+      </c>
+      <c r="E142" s="2">
+        <v>45129.35763888889</v>
+      </c>
+      <c r="F142">
+        <v>18</v>
+      </c>
+      <c r="G142" t="s">
+        <v>77</v>
+      </c>
+      <c r="H142" t="s">
+        <v>71</v>
+      </c>
+      <c r="I142">
+        <v>1</v>
+      </c>
+      <c r="J142">
+        <v>0</v>
+      </c>
+      <c r="K142">
+        <v>1</v>
+      </c>
+      <c r="L142">
+        <v>1</v>
+      </c>
+      <c r="M142">
+        <v>1</v>
+      </c>
+      <c r="N142">
+        <v>2</v>
+      </c>
+      <c r="O142" t="s">
+        <v>179</v>
+      </c>
+      <c r="P142" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q142">
+        <v>0</v>
+      </c>
+      <c r="R142">
+        <v>4</v>
+      </c>
+      <c r="S142">
+        <v>4</v>
+      </c>
+      <c r="T142">
+        <v>3.65</v>
+      </c>
+      <c r="U142">
+        <v>2.19</v>
+      </c>
+      <c r="V142">
+        <v>3.03</v>
+      </c>
+      <c r="W142">
+        <v>1.4</v>
+      </c>
+      <c r="X142">
+        <v>2.91</v>
+      </c>
+      <c r="Y142">
+        <v>3.02</v>
+      </c>
+      <c r="Z142">
+        <v>1.38</v>
+      </c>
+      <c r="AA142">
+        <v>8</v>
+      </c>
+      <c r="AB142">
+        <v>1.08</v>
+      </c>
+      <c r="AC142">
+        <v>2.83</v>
+      </c>
+      <c r="AD142">
+        <v>3.11</v>
+      </c>
+      <c r="AE142">
+        <v>2.69</v>
+      </c>
+      <c r="AF142">
+        <v>1.03</v>
+      </c>
+      <c r="AG142">
+        <v>8.5</v>
+      </c>
+      <c r="AH142">
+        <v>1.27</v>
+      </c>
+      <c r="AI142">
+        <v>3.4</v>
+      </c>
+      <c r="AJ142">
+        <v>1.99</v>
+      </c>
+      <c r="AK142">
+        <v>1.78</v>
+      </c>
+      <c r="AL142">
+        <v>1.78</v>
+      </c>
+      <c r="AM142">
+        <v>1.99</v>
+      </c>
+      <c r="AN142">
+        <v>1.62</v>
+      </c>
+      <c r="AO142">
+        <v>1.31</v>
+      </c>
+      <c r="AP142">
+        <v>1.36</v>
+      </c>
+      <c r="AQ142">
+        <v>1.75</v>
+      </c>
+      <c r="AR142">
+        <v>2</v>
+      </c>
+      <c r="AS142">
+        <v>1.67</v>
+      </c>
+      <c r="AT142">
+        <v>1.89</v>
+      </c>
+      <c r="AU142">
+        <v>1.59</v>
+      </c>
+      <c r="AV142">
+        <v>1.3</v>
+      </c>
+      <c r="AW142">
+        <v>2.89</v>
+      </c>
+      <c r="AX142">
+        <v>2.05</v>
+      </c>
+      <c r="AY142">
+        <v>7.5</v>
+      </c>
+      <c r="AZ142">
+        <v>2.05</v>
+      </c>
+      <c r="BA142">
+        <v>1.35</v>
+      </c>
+      <c r="BB142">
+        <v>1.72</v>
+      </c>
+      <c r="BC142">
+        <v>2.2</v>
+      </c>
+      <c r="BD142">
+        <v>3</v>
+      </c>
+      <c r="BE142">
+        <v>3.9</v>
+      </c>
+      <c r="BF142">
+        <v>3</v>
+      </c>
+      <c r="BG142">
+        <v>7</v>
+      </c>
+      <c r="BH142">
+        <v>8</v>
+      </c>
+      <c r="BI142">
+        <v>4</v>
+      </c>
+      <c r="BJ142">
+        <v>11</v>
+      </c>
+      <c r="BK142">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="143" spans="1:63">
+      <c r="A143" s="1">
+        <v>142</v>
+      </c>
+      <c r="B143">
+        <v>5845583</v>
+      </c>
+      <c r="C143" t="s">
+        <v>63</v>
+      </c>
+      <c r="D143" t="s">
+        <v>64</v>
+      </c>
+      <c r="E143" s="2">
+        <v>45129.35763888889</v>
+      </c>
+      <c r="F143">
+        <v>18</v>
+      </c>
+      <c r="G143" t="s">
+        <v>67</v>
+      </c>
+      <c r="H143" t="s">
+        <v>74</v>
+      </c>
+      <c r="I143">
+        <v>0</v>
+      </c>
+      <c r="J143">
+        <v>0</v>
+      </c>
+      <c r="K143">
+        <v>0</v>
+      </c>
+      <c r="L143">
+        <v>2</v>
+      </c>
+      <c r="M143">
+        <v>1</v>
+      </c>
+      <c r="N143">
+        <v>3</v>
+      </c>
+      <c r="O143" t="s">
+        <v>180</v>
+      </c>
+      <c r="P143" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q143">
+        <v>4</v>
+      </c>
+      <c r="R143">
+        <v>6</v>
+      </c>
+      <c r="S143">
+        <v>10</v>
+      </c>
+      <c r="T143">
+        <v>4.25</v>
+      </c>
+      <c r="U143">
+        <v>2.03</v>
+      </c>
+      <c r="V143">
+        <v>2.49</v>
+      </c>
+      <c r="W143">
+        <v>1.44</v>
+      </c>
+      <c r="X143">
+        <v>2.66</v>
+      </c>
+      <c r="Y143">
+        <v>2.8</v>
+      </c>
+      <c r="Z143">
+        <v>1.36</v>
+      </c>
+      <c r="AA143">
+        <v>7.6</v>
+      </c>
+      <c r="AB143">
+        <v>1.07</v>
+      </c>
+      <c r="AC143">
+        <v>3.6</v>
+      </c>
+      <c r="AD143">
+        <v>3.4</v>
+      </c>
+      <c r="AE143">
+        <v>1.95</v>
+      </c>
+      <c r="AF143">
+        <v>1.06</v>
+      </c>
+      <c r="AG143">
+        <v>10.5</v>
+      </c>
+      <c r="AH143">
+        <v>1.3</v>
+      </c>
+      <c r="AI143">
+        <v>3.28</v>
+      </c>
+      <c r="AJ143">
+        <v>2.04</v>
+      </c>
+      <c r="AK143">
+        <v>1.78</v>
+      </c>
+      <c r="AL143">
+        <v>1.85</v>
+      </c>
+      <c r="AM143">
+        <v>1.85</v>
+      </c>
+      <c r="AN143">
+        <v>1.78</v>
+      </c>
+      <c r="AO143">
+        <v>1.3</v>
+      </c>
+      <c r="AP143">
+        <v>1.22</v>
+      </c>
+      <c r="AQ143">
+        <v>1.5</v>
+      </c>
+      <c r="AR143">
+        <v>1.2</v>
+      </c>
+      <c r="AS143">
+        <v>1.67</v>
+      </c>
+      <c r="AT143">
+        <v>1.09</v>
+      </c>
+      <c r="AU143">
+        <v>1.38</v>
+      </c>
+      <c r="AV143">
+        <v>1.75</v>
+      </c>
+      <c r="AW143">
+        <v>3.13</v>
+      </c>
+      <c r="AX143">
+        <v>2.88</v>
+      </c>
+      <c r="AY143">
+        <v>8</v>
+      </c>
+      <c r="AZ143">
+        <v>1.53</v>
+      </c>
+      <c r="BA143">
+        <v>1.29</v>
+      </c>
+      <c r="BB143">
+        <v>1.57</v>
+      </c>
+      <c r="BC143">
+        <v>2</v>
+      </c>
+      <c r="BD143">
+        <v>2.65</v>
+      </c>
+      <c r="BE143">
+        <v>3.64</v>
+      </c>
+      <c r="BF143">
+        <v>6</v>
+      </c>
+      <c r="BG143">
+        <v>5</v>
+      </c>
+      <c r="BH143">
+        <v>2</v>
+      </c>
+      <c r="BI143">
+        <v>2</v>
+      </c>
+      <c r="BJ143">
+        <v>8</v>
+      </c>
+      <c r="BK143">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="144" spans="1:63">
+      <c r="A144" s="1">
+        <v>143</v>
+      </c>
+      <c r="B144">
+        <v>5845584</v>
+      </c>
+      <c r="C144" t="s">
+        <v>63</v>
+      </c>
+      <c r="D144" t="s">
+        <v>64</v>
+      </c>
+      <c r="E144" s="2">
+        <v>45129.35763888889</v>
+      </c>
+      <c r="F144">
+        <v>18</v>
+      </c>
+      <c r="G144" t="s">
+        <v>68</v>
+      </c>
+      <c r="H144" t="s">
+        <v>78</v>
+      </c>
+      <c r="I144">
+        <v>0</v>
+      </c>
+      <c r="J144">
+        <v>0</v>
+      </c>
+      <c r="K144">
+        <v>0</v>
+      </c>
+      <c r="L144">
+        <v>2</v>
+      </c>
+      <c r="M144">
+        <v>0</v>
+      </c>
+      <c r="N144">
+        <v>2</v>
+      </c>
+      <c r="O144" t="s">
+        <v>181</v>
+      </c>
+      <c r="P144" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q144">
+        <v>6</v>
+      </c>
+      <c r="R144">
+        <v>2</v>
+      </c>
+      <c r="S144">
+        <v>8</v>
+      </c>
+      <c r="T144">
+        <v>2.1</v>
+      </c>
+      <c r="U144">
+        <v>2.36</v>
+      </c>
+      <c r="V144">
+        <v>5.2</v>
+      </c>
+      <c r="W144">
+        <v>1.32</v>
+      </c>
+      <c r="X144">
+        <v>3.22</v>
+      </c>
+      <c r="Y144">
+        <v>2.49</v>
+      </c>
+      <c r="Z144">
+        <v>1.5</v>
+      </c>
+      <c r="AA144">
+        <v>5.9</v>
+      </c>
+      <c r="AB144">
+        <v>1.11</v>
+      </c>
+      <c r="AC144">
+        <v>1.54</v>
+      </c>
+      <c r="AD144">
+        <v>4.2</v>
+      </c>
+      <c r="AE144">
+        <v>6.05</v>
+      </c>
+      <c r="AF144">
+        <v>1.03</v>
+      </c>
+      <c r="AG144">
+        <v>16</v>
+      </c>
+      <c r="AH144">
+        <v>1.19</v>
+      </c>
+      <c r="AI144">
+        <v>4</v>
+      </c>
+      <c r="AJ144">
+        <v>1.7</v>
+      </c>
+      <c r="AK144">
+        <v>2.08</v>
+      </c>
+      <c r="AL144">
+        <v>1.75</v>
+      </c>
+      <c r="AM144">
+        <v>2.01</v>
+      </c>
+      <c r="AN144">
+        <v>1.1</v>
+      </c>
+      <c r="AO144">
+        <v>1.2</v>
+      </c>
+      <c r="AP144">
+        <v>2.35</v>
+      </c>
+      <c r="AQ144">
+        <v>1.78</v>
+      </c>
+      <c r="AR144">
+        <v>0.25</v>
+      </c>
+      <c r="AS144">
+        <v>1.9</v>
+      </c>
+      <c r="AT144">
+        <v>0.22</v>
+      </c>
+      <c r="AU144">
+        <v>1.68</v>
+      </c>
+      <c r="AV144">
+        <v>1.33</v>
+      </c>
+      <c r="AW144">
+        <v>3.01</v>
+      </c>
+      <c r="AX144">
+        <v>1.33</v>
+      </c>
+      <c r="AY144">
+        <v>9</v>
+      </c>
+      <c r="AZ144">
+        <v>3.75</v>
+      </c>
+      <c r="BA144">
+        <v>1.22</v>
+      </c>
+      <c r="BB144">
+        <v>1.5</v>
+      </c>
+      <c r="BC144">
+        <v>2</v>
+      </c>
+      <c r="BD144">
+        <v>2.47</v>
+      </c>
+      <c r="BE144">
+        <v>2.98</v>
+      </c>
+      <c r="BF144">
+        <v>5</v>
+      </c>
+      <c r="BG144">
+        <v>3</v>
+      </c>
+      <c r="BH144">
+        <v>2</v>
+      </c>
+      <c r="BI144">
+        <v>3</v>
+      </c>
+      <c r="BJ144">
+        <v>7</v>
+      </c>
+      <c r="BK144">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="145" spans="1:63">
+      <c r="A145" s="1">
+        <v>144</v>
+      </c>
+      <c r="B145">
+        <v>5845582</v>
+      </c>
+      <c r="C145" t="s">
+        <v>63</v>
+      </c>
+      <c r="D145" t="s">
+        <v>64</v>
+      </c>
+      <c r="E145" s="2">
+        <v>45130.35763888889</v>
+      </c>
+      <c r="F145">
+        <v>18</v>
+      </c>
+      <c r="G145" t="s">
+        <v>66</v>
+      </c>
+      <c r="H145" t="s">
+        <v>73</v>
+      </c>
+      <c r="I145">
+        <v>1</v>
+      </c>
+      <c r="J145">
+        <v>1</v>
+      </c>
+      <c r="K145">
+        <v>2</v>
+      </c>
+      <c r="L145">
+        <v>2</v>
+      </c>
+      <c r="M145">
+        <v>1</v>
+      </c>
+      <c r="N145">
+        <v>3</v>
+      </c>
+      <c r="O145" t="s">
+        <v>182</v>
+      </c>
+      <c r="P145" t="s">
+        <v>257</v>
+      </c>
+      <c r="Q145">
+        <v>4</v>
+      </c>
+      <c r="R145">
+        <v>5</v>
+      </c>
+      <c r="S145">
+        <v>9</v>
+      </c>
+      <c r="T145">
+        <v>2.01</v>
+      </c>
+      <c r="U145">
+        <v>2.55</v>
+      </c>
+      <c r="V145">
+        <v>5.7</v>
+      </c>
+      <c r="W145">
+        <v>1.27</v>
+      </c>
+      <c r="X145">
+        <v>3.45</v>
+      </c>
+      <c r="Y145">
+        <v>2.44</v>
+      </c>
+      <c r="Z145">
+        <v>1.54</v>
+      </c>
+      <c r="AA145">
+        <v>5.45</v>
+      </c>
+      <c r="AB145">
+        <v>1.12</v>
+      </c>
+      <c r="AC145">
+        <v>1.4</v>
+      </c>
+      <c r="AD145">
+        <v>4.25</v>
+      </c>
+      <c r="AE145">
+        <v>6.5</v>
+      </c>
+      <c r="AF145">
+        <v>1.02</v>
+      </c>
+      <c r="AG145">
+        <v>12</v>
+      </c>
+      <c r="AH145">
+        <v>1.15</v>
+      </c>
+      <c r="AI145">
+        <v>4.7</v>
+      </c>
+      <c r="AJ145">
+        <v>1.57</v>
+      </c>
+      <c r="AK145">
+        <v>2.2</v>
+      </c>
+      <c r="AL145">
+        <v>1.78</v>
+      </c>
+      <c r="AM145">
+        <v>2</v>
+      </c>
+      <c r="AN145">
+        <v>1.08</v>
+      </c>
+      <c r="AO145">
+        <v>1.14</v>
+      </c>
+      <c r="AP145">
+        <v>2.75</v>
+      </c>
+      <c r="AQ145">
+        <v>1.14</v>
+      </c>
+      <c r="AR145">
+        <v>0.67</v>
+      </c>
+      <c r="AS145">
+        <v>1.38</v>
+      </c>
+      <c r="AT145">
+        <v>0.6</v>
+      </c>
+      <c r="AU145">
+        <v>1.72</v>
+      </c>
+      <c r="AV145">
+        <v>1.11</v>
+      </c>
+      <c r="AW145">
+        <v>2.83</v>
+      </c>
+      <c r="AX145">
+        <v>1.4</v>
+      </c>
+      <c r="AY145">
+        <v>9</v>
+      </c>
+      <c r="AZ145">
+        <v>3.5</v>
+      </c>
+      <c r="BA145">
+        <v>1.25</v>
+      </c>
+      <c r="BB145">
+        <v>1.5</v>
+      </c>
+      <c r="BC145">
+        <v>1.87</v>
+      </c>
+      <c r="BD145">
+        <v>2.4</v>
+      </c>
+      <c r="BE145">
+        <v>3.1</v>
+      </c>
+      <c r="BF145">
+        <v>9</v>
+      </c>
+      <c r="BG145">
+        <v>2</v>
+      </c>
+      <c r="BH145">
+        <v>13</v>
+      </c>
+      <c r="BI145">
+        <v>3</v>
+      </c>
+      <c r="BJ145">
+        <v>22</v>
+      </c>
+      <c r="BK145">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/China Chinese Super League_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/China Chinese Super League_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="927" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="265">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -565,6 +565,21 @@
     <t>['5', '71']</t>
   </si>
   <si>
+    <t>['23', '25', '52']</t>
+  </si>
+  <si>
+    <t>['17']</t>
+  </si>
+  <si>
+    <t>['8', '37']</t>
+  </si>
+  <si>
+    <t>['45']</t>
+  </si>
+  <si>
+    <t>['59', '73', '90']</t>
+  </si>
+  <si>
     <t>['64', '79']</t>
   </si>
   <si>
@@ -599,9 +614,6 @@
   </si>
   <si>
     <t>['50']</t>
-  </si>
-  <si>
-    <t>['45']</t>
   </si>
   <si>
     <t>['12', '29']</t>
@@ -787,7 +799,16 @@
     <t>['31', '62', '69']</t>
   </si>
   <si>
-    <t>['17']</t>
+    <t>['31', '46']</t>
+  </si>
+  <si>
+    <t>['42', '44', '63', '66', '84']</t>
+  </si>
+  <si>
+    <t>['11']</t>
+  </si>
+  <si>
+    <t>['22', '45+1']</t>
   </si>
 </sst>
 </file>
@@ -1149,7 +1170,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK145"/>
+  <dimension ref="A1:BK153"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1584,7 +1605,7 @@
         <v>82</v>
       </c>
       <c r="P3" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="Q3">
         <v>5</v>
@@ -1671,10 +1692,10 @@
         <v>0</v>
       </c>
       <c r="AS3">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AT3">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="AU3">
         <v>0</v>
@@ -1775,7 +1796,7 @@
         <v>82</v>
       </c>
       <c r="P4" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="Q4">
         <v>9</v>
@@ -1865,7 +1886,7 @@
         <v>1.67</v>
       </c>
       <c r="AT4">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AU4">
         <v>0</v>
@@ -1966,7 +1987,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="Q5">
         <v>8</v>
@@ -2157,7 +2178,7 @@
         <v>84</v>
       </c>
       <c r="P6" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="Q6">
         <v>2</v>
@@ -2244,7 +2265,7 @@
         <v>0</v>
       </c>
       <c r="AS6">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AT6">
         <v>1.5</v>
@@ -2348,7 +2369,7 @@
         <v>85</v>
       </c>
       <c r="P7" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="Q7">
         <v>7</v>
@@ -2435,10 +2456,10 @@
         <v>0</v>
       </c>
       <c r="AS7">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AT7">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AU7">
         <v>0</v>
@@ -2626,7 +2647,7 @@
         <v>0</v>
       </c>
       <c r="AS8">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AT8">
         <v>1.09</v>
@@ -2730,7 +2751,7 @@
         <v>87</v>
       </c>
       <c r="P9" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="Q9">
         <v>4</v>
@@ -2820,7 +2841,7 @@
         <v>1</v>
       </c>
       <c r="AT9">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="AU9">
         <v>0</v>
@@ -2921,7 +2942,7 @@
         <v>88</v>
       </c>
       <c r="P10" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="Q10">
         <v>4</v>
@@ -3008,10 +3029,10 @@
         <v>0</v>
       </c>
       <c r="AS10">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AT10">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AU10">
         <v>1.22</v>
@@ -3199,10 +3220,10 @@
         <v>0</v>
       </c>
       <c r="AS11">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AT11">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AU11">
         <v>1.76</v>
@@ -3303,7 +3324,7 @@
         <v>82</v>
       </c>
       <c r="P12" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="Q12">
         <v>7</v>
@@ -3390,7 +3411,7 @@
         <v>0</v>
       </c>
       <c r="AS12">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AT12">
         <v>1.89</v>
@@ -3581,7 +3602,7 @@
         <v>0</v>
       </c>
       <c r="AS13">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AT13">
         <v>0.44</v>
@@ -3772,10 +3793,10 @@
         <v>0</v>
       </c>
       <c r="AS14">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AT14">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="AU14">
         <v>0.63</v>
@@ -3963,10 +3984,10 @@
         <v>1</v>
       </c>
       <c r="AS15">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="AT15">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AU15">
         <v>0</v>
@@ -4067,7 +4088,7 @@
         <v>92</v>
       </c>
       <c r="P16" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="Q16">
         <v>7</v>
@@ -4157,7 +4178,7 @@
         <v>2.22</v>
       </c>
       <c r="AT16">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="AU16">
         <v>0</v>
@@ -4258,7 +4279,7 @@
         <v>93</v>
       </c>
       <c r="P17" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="Q17">
         <v>3</v>
@@ -4348,7 +4369,7 @@
         <v>1.67</v>
       </c>
       <c r="AT17">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AU17">
         <v>0</v>
@@ -4536,10 +4557,10 @@
         <v>0</v>
       </c>
       <c r="AS18">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AT18">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AU18">
         <v>2.82</v>
@@ -4640,7 +4661,7 @@
         <v>95</v>
       </c>
       <c r="P19" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="Q19">
         <v>2</v>
@@ -4727,7 +4748,7 @@
         <v>0</v>
       </c>
       <c r="AS19">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AT19">
         <v>1.6</v>
@@ -4831,7 +4852,7 @@
         <v>96</v>
       </c>
       <c r="P20" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="Q20">
         <v>2</v>
@@ -4921,7 +4942,7 @@
         <v>1.56</v>
       </c>
       <c r="AT20">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AU20">
         <v>0</v>
@@ -5022,7 +5043,7 @@
         <v>82</v>
       </c>
       <c r="P21" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="Q21">
         <v>10</v>
@@ -5112,7 +5133,7 @@
         <v>1.2</v>
       </c>
       <c r="AT21">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="AU21">
         <v>0</v>
@@ -5300,10 +5321,10 @@
         <v>3</v>
       </c>
       <c r="AS22">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AT22">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AU22">
         <v>0.9</v>
@@ -5595,7 +5616,7 @@
         <v>82</v>
       </c>
       <c r="P24" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="Q24">
         <v>9</v>
@@ -5873,7 +5894,7 @@
         <v>0</v>
       </c>
       <c r="AS25">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AT25">
         <v>0.5600000000000001</v>
@@ -6168,7 +6189,7 @@
         <v>82</v>
       </c>
       <c r="P27" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="Q27">
         <v>2</v>
@@ -6359,7 +6380,7 @@
         <v>82</v>
       </c>
       <c r="P28" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="Q28">
         <v>3</v>
@@ -6550,7 +6571,7 @@
         <v>83</v>
       </c>
       <c r="P29" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="Q29">
         <v>5</v>
@@ -6741,7 +6762,7 @@
         <v>99</v>
       </c>
       <c r="P30" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="Q30">
         <v>11</v>
@@ -7123,7 +7144,7 @@
         <v>101</v>
       </c>
       <c r="P32" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="Q32">
         <v>8</v>
@@ -7314,7 +7335,7 @@
         <v>102</v>
       </c>
       <c r="P33" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="Q33">
         <v>7</v>
@@ -7592,10 +7613,10 @@
         <v>0.5</v>
       </c>
       <c r="AS34">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AT34">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AU34">
         <v>0.89</v>
@@ -7783,10 +7804,10 @@
         <v>0</v>
       </c>
       <c r="AS35">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AT35">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AU35">
         <v>0.96</v>
@@ -7977,7 +7998,7 @@
         <v>1</v>
       </c>
       <c r="AT36">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AU36">
         <v>1.06</v>
@@ -8165,10 +8186,10 @@
         <v>0</v>
       </c>
       <c r="AS37">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AT37">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AU37">
         <v>1.33</v>
@@ -8269,7 +8290,7 @@
         <v>104</v>
       </c>
       <c r="P38" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="Q38">
         <v>3</v>
@@ -8356,7 +8377,7 @@
         <v>0.5</v>
       </c>
       <c r="AS38">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AT38">
         <v>1.09</v>
@@ -8460,7 +8481,7 @@
         <v>105</v>
       </c>
       <c r="P39" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="Q39">
         <v>6</v>
@@ -8547,10 +8568,10 @@
         <v>0.5</v>
       </c>
       <c r="AS39">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="AT39">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="AU39">
         <v>1.33</v>
@@ -8738,10 +8759,10 @@
         <v>3</v>
       </c>
       <c r="AS40">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AT40">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="AU40">
         <v>1.52</v>
@@ -8929,10 +8950,10 @@
         <v>1.5</v>
       </c>
       <c r="AS41">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AT41">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AU41">
         <v>1.68</v>
@@ -9120,7 +9141,7 @@
         <v>3</v>
       </c>
       <c r="AS42">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AT42">
         <v>1.6</v>
@@ -9224,7 +9245,7 @@
         <v>107</v>
       </c>
       <c r="P43" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="Q43">
         <v>5</v>
@@ -9314,7 +9335,7 @@
         <v>1</v>
       </c>
       <c r="AT43">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AU43">
         <v>1.14</v>
@@ -9415,7 +9436,7 @@
         <v>99</v>
       </c>
       <c r="P44" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="Q44">
         <v>5</v>
@@ -9797,7 +9818,7 @@
         <v>109</v>
       </c>
       <c r="P46" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="Q46">
         <v>3</v>
@@ -9884,10 +9905,10 @@
         <v>0.33</v>
       </c>
       <c r="AS46">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AT46">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AU46">
         <v>2.21</v>
@@ -10078,7 +10099,7 @@
         <v>2.22</v>
       </c>
       <c r="AT47">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="AU47">
         <v>1.61</v>
@@ -10179,7 +10200,7 @@
         <v>110</v>
       </c>
       <c r="P48" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="Q48">
         <v>9</v>
@@ -10266,7 +10287,7 @@
         <v>0.33</v>
       </c>
       <c r="AS48">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="AT48">
         <v>1.09</v>
@@ -10370,7 +10391,7 @@
         <v>111</v>
       </c>
       <c r="P49" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="Q49">
         <v>3</v>
@@ -10561,7 +10582,7 @@
         <v>112</v>
       </c>
       <c r="P50" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="Q50">
         <v>4</v>
@@ -10648,7 +10669,7 @@
         <v>2.33</v>
       </c>
       <c r="AS50">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AT50">
         <v>1.6</v>
@@ -10752,7 +10773,7 @@
         <v>113</v>
       </c>
       <c r="P51" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="Q51">
         <v>2</v>
@@ -10842,7 +10863,7 @@
         <v>1</v>
       </c>
       <c r="AT51">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AU51">
         <v>1.09</v>
@@ -11134,7 +11155,7 @@
         <v>115</v>
       </c>
       <c r="P53" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="Q53">
         <v>8</v>
@@ -11221,10 +11242,10 @@
         <v>2</v>
       </c>
       <c r="AS53">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="AT53">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AU53">
         <v>1.79</v>
@@ -11325,7 +11346,7 @@
         <v>116</v>
       </c>
       <c r="P54" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="Q54">
         <v>3</v>
@@ -11415,7 +11436,7 @@
         <v>1.67</v>
       </c>
       <c r="AT54">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="AU54">
         <v>1.05</v>
@@ -11603,7 +11624,7 @@
         <v>0.5</v>
       </c>
       <c r="AS55">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AT55">
         <v>0.5600000000000001</v>
@@ -12089,7 +12110,7 @@
         <v>120</v>
       </c>
       <c r="P58" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="Q58">
         <v>3</v>
@@ -12176,7 +12197,7 @@
         <v>1.67</v>
       </c>
       <c r="AS58">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AT58">
         <v>1.5</v>
@@ -12367,10 +12388,10 @@
         <v>0</v>
       </c>
       <c r="AS59">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AT59">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="AU59">
         <v>1.91</v>
@@ -12471,7 +12492,7 @@
         <v>121</v>
       </c>
       <c r="P60" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="Q60">
         <v>3</v>
@@ -12561,7 +12582,7 @@
         <v>1.56</v>
       </c>
       <c r="AT60">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AU60">
         <v>1.42</v>
@@ -12662,7 +12683,7 @@
         <v>122</v>
       </c>
       <c r="P61" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="Q61">
         <v>6</v>
@@ -12752,7 +12773,7 @@
         <v>1.2</v>
       </c>
       <c r="AT61">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AU61">
         <v>1.29</v>
@@ -12853,7 +12874,7 @@
         <v>123</v>
       </c>
       <c r="P62" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="Q62">
         <v>2</v>
@@ -12940,10 +12961,10 @@
         <v>1.33</v>
       </c>
       <c r="AS62">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AT62">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AU62">
         <v>1.38</v>
@@ -13131,10 +13152,10 @@
         <v>0</v>
       </c>
       <c r="AS63">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AT63">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AU63">
         <v>1.07</v>
@@ -13235,7 +13256,7 @@
         <v>125</v>
       </c>
       <c r="P64" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="Q64">
         <v>1</v>
@@ -13322,7 +13343,7 @@
         <v>0.6</v>
       </c>
       <c r="AS64">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AT64">
         <v>1.09</v>
@@ -13426,7 +13447,7 @@
         <v>82</v>
       </c>
       <c r="P65" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="Q65">
         <v>1</v>
@@ -13513,10 +13534,10 @@
         <v>2.5</v>
       </c>
       <c r="AS65">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AT65">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="AU65">
         <v>1.25</v>
@@ -13617,7 +13638,7 @@
         <v>126</v>
       </c>
       <c r="P66" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="Q66">
         <v>4</v>
@@ -13704,7 +13725,7 @@
         <v>2.33</v>
       </c>
       <c r="AS66">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="AT66">
         <v>1.89</v>
@@ -13808,7 +13829,7 @@
         <v>127</v>
       </c>
       <c r="P67" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="Q67">
         <v>7</v>
@@ -13898,7 +13919,7 @@
         <v>1.9</v>
       </c>
       <c r="AT67">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AU67">
         <v>1.56</v>
@@ -14089,7 +14110,7 @@
         <v>1.67</v>
       </c>
       <c r="AT68">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="AU68">
         <v>1.59</v>
@@ -14190,7 +14211,7 @@
         <v>82</v>
       </c>
       <c r="P69" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="Q69">
         <v>6</v>
@@ -14277,7 +14298,7 @@
         <v>2</v>
       </c>
       <c r="AS69">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AT69">
         <v>1.6</v>
@@ -14468,10 +14489,10 @@
         <v>0.5</v>
       </c>
       <c r="AS70">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AT70">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="AU70">
         <v>2.23</v>
@@ -14572,7 +14593,7 @@
         <v>129</v>
       </c>
       <c r="P71" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="Q71">
         <v>7</v>
@@ -14850,7 +14871,7 @@
         <v>1.67</v>
       </c>
       <c r="AS72">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AT72">
         <v>1.56</v>
@@ -14954,7 +14975,7 @@
         <v>131</v>
       </c>
       <c r="P73" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="Q73">
         <v>7</v>
@@ -15044,7 +15065,7 @@
         <v>1</v>
       </c>
       <c r="AT73">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AU73">
         <v>1.24</v>
@@ -15232,7 +15253,7 @@
         <v>0.5</v>
       </c>
       <c r="AS74">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="AT74">
         <v>0.44</v>
@@ -15336,7 +15357,7 @@
         <v>133</v>
       </c>
       <c r="P75" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="Q75">
         <v>10</v>
@@ -15527,7 +15548,7 @@
         <v>134</v>
       </c>
       <c r="P76" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="Q76">
         <v>3</v>
@@ -15617,7 +15638,7 @@
         <v>1.67</v>
       </c>
       <c r="AT76">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AU76">
         <v>1.15</v>
@@ -15718,7 +15739,7 @@
         <v>82</v>
       </c>
       <c r="P77" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="Q77">
         <v>4</v>
@@ -15909,7 +15930,7 @@
         <v>103</v>
       </c>
       <c r="P78" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="Q78">
         <v>7</v>
@@ -15996,7 +16017,7 @@
         <v>0.25</v>
       </c>
       <c r="AS78">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AT78">
         <v>0.5600000000000001</v>
@@ -16291,7 +16312,7 @@
         <v>135</v>
       </c>
       <c r="P80" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="Q80">
         <v>3</v>
@@ -16482,7 +16503,7 @@
         <v>82</v>
       </c>
       <c r="P81" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="Q81">
         <v>4</v>
@@ -16572,7 +16593,7 @@
         <v>1.67</v>
       </c>
       <c r="AT81">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="AU81">
         <v>1.53</v>
@@ -16763,7 +16784,7 @@
         <v>1.67</v>
       </c>
       <c r="AT82">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="AU82">
         <v>1.28</v>
@@ -16864,7 +16885,7 @@
         <v>137</v>
       </c>
       <c r="P83" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="Q83">
         <v>12</v>
@@ -16954,7 +16975,7 @@
         <v>1.9</v>
       </c>
       <c r="AT83">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AU83">
         <v>1.68</v>
@@ -17333,10 +17354,10 @@
         <v>0</v>
       </c>
       <c r="AS85">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AT85">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AU85">
         <v>2.24</v>
@@ -17437,7 +17458,7 @@
         <v>139</v>
       </c>
       <c r="P86" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="Q86">
         <v>2</v>
@@ -17524,7 +17545,7 @@
         <v>1</v>
       </c>
       <c r="AS86">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AT86">
         <v>0.6</v>
@@ -17628,7 +17649,7 @@
         <v>82</v>
       </c>
       <c r="P87" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="Q87">
         <v>1</v>
@@ -17906,10 +17927,10 @@
         <v>0.2</v>
       </c>
       <c r="AS88">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AT88">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="AU88">
         <v>1.9</v>
@@ -18010,7 +18031,7 @@
         <v>140</v>
       </c>
       <c r="P89" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="Q89">
         <v>6</v>
@@ -18097,7 +18118,7 @@
         <v>1.83</v>
       </c>
       <c r="AS89">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AT89">
         <v>1.6</v>
@@ -18201,7 +18222,7 @@
         <v>82</v>
       </c>
       <c r="P90" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="Q90">
         <v>3</v>
@@ -18392,7 +18413,7 @@
         <v>141</v>
       </c>
       <c r="P91" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="Q91">
         <v>5</v>
@@ -18482,7 +18503,7 @@
         <v>1.67</v>
       </c>
       <c r="AT91">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="AU91">
         <v>1.5</v>
@@ -18670,7 +18691,7 @@
         <v>1.8</v>
       </c>
       <c r="AS92">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="AT92">
         <v>1.56</v>
@@ -18774,7 +18795,7 @@
         <v>142</v>
       </c>
       <c r="P93" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="Q93">
         <v>3</v>
@@ -18861,10 +18882,10 @@
         <v>1.33</v>
       </c>
       <c r="AS93">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AT93">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AU93">
         <v>1.1</v>
@@ -19243,7 +19264,7 @@
         <v>1</v>
       </c>
       <c r="AS95">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AT95">
         <v>1.09</v>
@@ -19347,7 +19368,7 @@
         <v>144</v>
       </c>
       <c r="P96" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="Q96">
         <v>7</v>
@@ -19434,10 +19455,10 @@
         <v>1</v>
       </c>
       <c r="AS96">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AT96">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AU96">
         <v>1.2</v>
@@ -19538,7 +19559,7 @@
         <v>145</v>
       </c>
       <c r="P97" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="Q97">
         <v>1</v>
@@ -19628,7 +19649,7 @@
         <v>1</v>
       </c>
       <c r="AT97">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AU97">
         <v>1.38</v>
@@ -19816,10 +19837,10 @@
         <v>0</v>
       </c>
       <c r="AS98">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AT98">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AU98">
         <v>1.68</v>
@@ -20111,7 +20132,7 @@
         <v>147</v>
       </c>
       <c r="P100" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="Q100">
         <v>5</v>
@@ -20198,10 +20219,10 @@
         <v>0.17</v>
       </c>
       <c r="AS100">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AT100">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="AU100">
         <v>1.25</v>
@@ -20389,7 +20410,7 @@
         <v>0.33</v>
       </c>
       <c r="AS101">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AT101">
         <v>0.44</v>
@@ -20493,7 +20514,7 @@
         <v>82</v>
       </c>
       <c r="P102" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="Q102">
         <v>12</v>
@@ -20684,7 +20705,7 @@
         <v>82</v>
       </c>
       <c r="P103" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="Q103">
         <v>1</v>
@@ -20875,7 +20896,7 @@
         <v>149</v>
       </c>
       <c r="P104" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="Q104">
         <v>4</v>
@@ -20962,10 +20983,10 @@
         <v>1.67</v>
       </c>
       <c r="AS104">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AT104">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AU104">
         <v>2.05</v>
@@ -21066,7 +21087,7 @@
         <v>108</v>
       </c>
       <c r="P105" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="Q105">
         <v>2</v>
@@ -21156,7 +21177,7 @@
         <v>1.9</v>
       </c>
       <c r="AT105">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="AU105">
         <v>1.81</v>
@@ -21257,7 +21278,7 @@
         <v>123</v>
       </c>
       <c r="P106" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="Q106">
         <v>2</v>
@@ -21344,7 +21365,7 @@
         <v>1.67</v>
       </c>
       <c r="AS106">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AT106">
         <v>1.56</v>
@@ -21448,7 +21469,7 @@
         <v>150</v>
       </c>
       <c r="P107" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="Q107">
         <v>6</v>
@@ -21538,7 +21559,7 @@
         <v>1</v>
       </c>
       <c r="AT107">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="AU107">
         <v>1.28</v>
@@ -21729,7 +21750,7 @@
         <v>1.2</v>
       </c>
       <c r="AT108">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AU108">
         <v>1.41</v>
@@ -21830,7 +21851,7 @@
         <v>152</v>
       </c>
       <c r="P109" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="Q109">
         <v>17</v>
@@ -21917,7 +21938,7 @@
         <v>0.71</v>
       </c>
       <c r="AS109">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AT109">
         <v>0.6</v>
@@ -22021,7 +22042,7 @@
         <v>153</v>
       </c>
       <c r="P110" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="Q110">
         <v>1</v>
@@ -22212,7 +22233,7 @@
         <v>154</v>
       </c>
       <c r="P111" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="Q111">
         <v>3</v>
@@ -22299,10 +22320,10 @@
         <v>2.71</v>
       </c>
       <c r="AS111">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AT111">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="AU111">
         <v>1.93</v>
@@ -22490,10 +22511,10 @@
         <v>1</v>
       </c>
       <c r="AS112">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="AT112">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AU112">
         <v>1.75</v>
@@ -22594,7 +22615,7 @@
         <v>155</v>
       </c>
       <c r="P113" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="Q113">
         <v>5</v>
@@ -22785,7 +22806,7 @@
         <v>156</v>
       </c>
       <c r="P114" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="Q114">
         <v>14</v>
@@ -22872,7 +22893,7 @@
         <v>0.29</v>
       </c>
       <c r="AS114">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AT114">
         <v>0.44</v>
@@ -23063,7 +23084,7 @@
         <v>1</v>
       </c>
       <c r="AS115">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AT115">
         <v>1.09</v>
@@ -23254,7 +23275,7 @@
         <v>2</v>
       </c>
       <c r="AS116">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AT116">
         <v>1.5</v>
@@ -23448,7 +23469,7 @@
         <v>1.56</v>
       </c>
       <c r="AT117">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AU117">
         <v>1.51</v>
@@ -23827,10 +23848,10 @@
         <v>1.43</v>
       </c>
       <c r="AS119">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AT119">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AU119">
         <v>1.67</v>
@@ -23931,7 +23952,7 @@
         <v>160</v>
       </c>
       <c r="P120" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="Q120">
         <v>7</v>
@@ -24021,7 +24042,7 @@
         <v>2.22</v>
       </c>
       <c r="AT120">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AU120">
         <v>1.78</v>
@@ -24212,7 +24233,7 @@
         <v>1.9</v>
       </c>
       <c r="AT121">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="AU121">
         <v>1.65</v>
@@ -24400,7 +24421,7 @@
         <v>2.29</v>
       </c>
       <c r="AS122">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AT122">
         <v>1.89</v>
@@ -24591,7 +24612,7 @@
         <v>0.71</v>
       </c>
       <c r="AS123">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="AT123">
         <v>0.5600000000000001</v>
@@ -24695,7 +24716,7 @@
         <v>164</v>
       </c>
       <c r="P124" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="Q124">
         <v>9</v>
@@ -24976,7 +24997,7 @@
         <v>1.56</v>
       </c>
       <c r="AT125">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="AU125">
         <v>1.47</v>
@@ -25268,7 +25289,7 @@
         <v>167</v>
       </c>
       <c r="P127" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="Q127">
         <v>1</v>
@@ -25355,10 +25376,10 @@
         <v>1.29</v>
       </c>
       <c r="AS127">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AT127">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AU127">
         <v>1.22</v>
@@ -25459,7 +25480,7 @@
         <v>168</v>
       </c>
       <c r="P128" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="Q128">
         <v>1</v>
@@ -25549,7 +25570,7 @@
         <v>1.67</v>
       </c>
       <c r="AT128">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AU128">
         <v>1.64</v>
@@ -25650,7 +25671,7 @@
         <v>169</v>
       </c>
       <c r="P129" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="Q129">
         <v>6</v>
@@ -25737,10 +25758,10 @@
         <v>0.29</v>
       </c>
       <c r="AS129">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AT129">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AU129">
         <v>2</v>
@@ -25841,7 +25862,7 @@
         <v>95</v>
       </c>
       <c r="P130" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="Q130">
         <v>2</v>
@@ -25931,7 +25952,7 @@
         <v>1</v>
       </c>
       <c r="AT130">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="AU130">
         <v>1.18</v>
@@ -26122,7 +26143,7 @@
         <v>1</v>
       </c>
       <c r="AT131">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AU131">
         <v>1.24</v>
@@ -26223,7 +26244,7 @@
         <v>156</v>
       </c>
       <c r="P132" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="Q132">
         <v>4</v>
@@ -26310,7 +26331,7 @@
         <v>1.22</v>
       </c>
       <c r="AS132">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AT132">
         <v>1.09</v>
@@ -26414,7 +26435,7 @@
         <v>170</v>
       </c>
       <c r="P133" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="Q133">
         <v>6</v>
@@ -26796,7 +26817,7 @@
         <v>172</v>
       </c>
       <c r="P135" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="Q135">
         <v>4</v>
@@ -26987,7 +27008,7 @@
         <v>173</v>
       </c>
       <c r="P136" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="Q136">
         <v>7</v>
@@ -27074,7 +27095,7 @@
         <v>0.75</v>
       </c>
       <c r="AS136">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AT136">
         <v>0.6</v>
@@ -27459,7 +27480,7 @@
         <v>2.22</v>
       </c>
       <c r="AT138">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AU138">
         <v>1.7</v>
@@ -27560,7 +27581,7 @@
         <v>176</v>
       </c>
       <c r="P139" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="Q139">
         <v>10</v>
@@ -27647,7 +27668,7 @@
         <v>0.38</v>
       </c>
       <c r="AS139">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AT139">
         <v>0.44</v>
@@ -27751,7 +27772,7 @@
         <v>177</v>
       </c>
       <c r="P140" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="Q140">
         <v>11</v>
@@ -27838,10 +27859,10 @@
         <v>0.14</v>
       </c>
       <c r="AS140">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AT140">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="AU140">
         <v>1.29</v>
@@ -28029,10 +28050,10 @@
         <v>0.38</v>
       </c>
       <c r="AS141">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="AT141">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AU141">
         <v>1.81</v>
@@ -28605,7 +28626,7 @@
         <v>1.9</v>
       </c>
       <c r="AT144">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="AU144">
         <v>1.68</v>
@@ -28706,7 +28727,7 @@
         <v>182</v>
       </c>
       <c r="P145" t="s">
-        <v>257</v>
+        <v>184</v>
       </c>
       <c r="Q145">
         <v>4</v>
@@ -28793,7 +28814,7 @@
         <v>0.67</v>
       </c>
       <c r="AS145">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AT145">
         <v>0.6</v>
@@ -28848,6 +28869,1534 @@
       </c>
       <c r="BK145">
         <v>5</v>
+      </c>
+    </row>
+    <row r="146" spans="1:63">
+      <c r="A146" s="1">
+        <v>145</v>
+      </c>
+      <c r="B146">
+        <v>5845585</v>
+      </c>
+      <c r="C146" t="s">
+        <v>63</v>
+      </c>
+      <c r="D146" t="s">
+        <v>64</v>
+      </c>
+      <c r="E146" s="2">
+        <v>45135.35763888889</v>
+      </c>
+      <c r="F146">
+        <v>19</v>
+      </c>
+      <c r="G146" t="s">
+        <v>69</v>
+      </c>
+      <c r="H146" t="s">
+        <v>72</v>
+      </c>
+      <c r="I146">
+        <v>2</v>
+      </c>
+      <c r="J146">
+        <v>1</v>
+      </c>
+      <c r="K146">
+        <v>3</v>
+      </c>
+      <c r="L146">
+        <v>3</v>
+      </c>
+      <c r="M146">
+        <v>1</v>
+      </c>
+      <c r="N146">
+        <v>4</v>
+      </c>
+      <c r="O146" t="s">
+        <v>183</v>
+      </c>
+      <c r="P146" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q146">
+        <v>4</v>
+      </c>
+      <c r="R146">
+        <v>5</v>
+      </c>
+      <c r="S146">
+        <v>9</v>
+      </c>
+      <c r="T146">
+        <v>1.63</v>
+      </c>
+      <c r="U146">
+        <v>2.6</v>
+      </c>
+      <c r="V146">
+        <v>9</v>
+      </c>
+      <c r="W146">
+        <v>1.3</v>
+      </c>
+      <c r="X146">
+        <v>3.25</v>
+      </c>
+      <c r="Y146">
+        <v>2.4</v>
+      </c>
+      <c r="Z146">
+        <v>1.51</v>
+      </c>
+      <c r="AA146">
+        <v>5.45</v>
+      </c>
+      <c r="AB146">
+        <v>1.12</v>
+      </c>
+      <c r="AC146">
+        <v>1.22</v>
+      </c>
+      <c r="AD146">
+        <v>5.5</v>
+      </c>
+      <c r="AE146">
+        <v>11</v>
+      </c>
+      <c r="AF146">
+        <v>1</v>
+      </c>
+      <c r="AG146">
+        <v>10.5</v>
+      </c>
+      <c r="AH146">
+        <v>1.2</v>
+      </c>
+      <c r="AI146">
+        <v>4.2</v>
+      </c>
+      <c r="AJ146">
+        <v>1.6</v>
+      </c>
+      <c r="AK146">
+        <v>2.25</v>
+      </c>
+      <c r="AL146">
+        <v>2.3</v>
+      </c>
+      <c r="AM146">
+        <v>1.57</v>
+      </c>
+      <c r="AN146">
+        <v>1.03</v>
+      </c>
+      <c r="AO146">
+        <v>1.08</v>
+      </c>
+      <c r="AP146">
+        <v>4</v>
+      </c>
+      <c r="AQ146">
+        <v>1.22</v>
+      </c>
+      <c r="AR146">
+        <v>0.25</v>
+      </c>
+      <c r="AS146">
+        <v>1.4</v>
+      </c>
+      <c r="AT146">
+        <v>0.22</v>
+      </c>
+      <c r="AU146">
+        <v>1.13</v>
+      </c>
+      <c r="AV146">
+        <v>0.85</v>
+      </c>
+      <c r="AW146">
+        <v>1.98</v>
+      </c>
+      <c r="AX146">
+        <v>1.34</v>
+      </c>
+      <c r="AY146">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="AZ146">
+        <v>4.1</v>
+      </c>
+      <c r="BA146">
+        <v>1.33</v>
+      </c>
+      <c r="BB146">
+        <v>1.74</v>
+      </c>
+      <c r="BC146">
+        <v>2.16</v>
+      </c>
+      <c r="BD146">
+        <v>2.77</v>
+      </c>
+      <c r="BE146">
+        <v>4.15</v>
+      </c>
+      <c r="BF146">
+        <v>5</v>
+      </c>
+      <c r="BG146">
+        <v>4</v>
+      </c>
+      <c r="BH146">
+        <v>10</v>
+      </c>
+      <c r="BI146">
+        <v>1</v>
+      </c>
+      <c r="BJ146">
+        <v>15</v>
+      </c>
+      <c r="BK146">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="147" spans="1:63">
+      <c r="A147" s="1">
+        <v>146</v>
+      </c>
+      <c r="B147">
+        <v>5845589</v>
+      </c>
+      <c r="C147" t="s">
+        <v>63</v>
+      </c>
+      <c r="D147" t="s">
+        <v>64</v>
+      </c>
+      <c r="E147" s="2">
+        <v>45136.35763888889</v>
+      </c>
+      <c r="F147">
+        <v>19</v>
+      </c>
+      <c r="G147" t="s">
+        <v>75</v>
+      </c>
+      <c r="H147" t="s">
+        <v>67</v>
+      </c>
+      <c r="I147">
+        <v>1</v>
+      </c>
+      <c r="J147">
+        <v>1</v>
+      </c>
+      <c r="K147">
+        <v>2</v>
+      </c>
+      <c r="L147">
+        <v>1</v>
+      </c>
+      <c r="M147">
+        <v>2</v>
+      </c>
+      <c r="N147">
+        <v>3</v>
+      </c>
+      <c r="O147" t="s">
+        <v>184</v>
+      </c>
+      <c r="P147" t="s">
+        <v>261</v>
+      </c>
+      <c r="Q147">
+        <v>7</v>
+      </c>
+      <c r="R147">
+        <v>2</v>
+      </c>
+      <c r="S147">
+        <v>9</v>
+      </c>
+      <c r="T147">
+        <v>2.3</v>
+      </c>
+      <c r="U147">
+        <v>2.25</v>
+      </c>
+      <c r="V147">
+        <v>4.33</v>
+      </c>
+      <c r="W147">
+        <v>1.35</v>
+      </c>
+      <c r="X147">
+        <v>2.95</v>
+      </c>
+      <c r="Y147">
+        <v>2.6</v>
+      </c>
+      <c r="Z147">
+        <v>1.44</v>
+      </c>
+      <c r="AA147">
+        <v>6</v>
+      </c>
+      <c r="AB147">
+        <v>1.1</v>
+      </c>
+      <c r="AC147">
+        <v>1.78</v>
+      </c>
+      <c r="AD147">
+        <v>4</v>
+      </c>
+      <c r="AE147">
+        <v>4.03</v>
+      </c>
+      <c r="AF147">
+        <v>1.01</v>
+      </c>
+      <c r="AG147">
+        <v>9.9</v>
+      </c>
+      <c r="AH147">
+        <v>1.25</v>
+      </c>
+      <c r="AI147">
+        <v>3.75</v>
+      </c>
+      <c r="AJ147">
+        <v>1.83</v>
+      </c>
+      <c r="AK147">
+        <v>1.98</v>
+      </c>
+      <c r="AL147">
+        <v>1.72</v>
+      </c>
+      <c r="AM147">
+        <v>2.05</v>
+      </c>
+      <c r="AN147">
+        <v>1.17</v>
+      </c>
+      <c r="AO147">
+        <v>1.2</v>
+      </c>
+      <c r="AP147">
+        <v>2.05</v>
+      </c>
+      <c r="AQ147">
+        <v>2.1</v>
+      </c>
+      <c r="AR147">
+        <v>1.11</v>
+      </c>
+      <c r="AS147">
+        <v>1.91</v>
+      </c>
+      <c r="AT147">
+        <v>1.3</v>
+      </c>
+      <c r="AU147">
+        <v>1.76</v>
+      </c>
+      <c r="AV147">
+        <v>1.53</v>
+      </c>
+      <c r="AW147">
+        <v>3.29</v>
+      </c>
+      <c r="AX147">
+        <v>1.44</v>
+      </c>
+      <c r="AY147">
+        <v>8.5</v>
+      </c>
+      <c r="AZ147">
+        <v>3.2</v>
+      </c>
+      <c r="BA147">
+        <v>1.33</v>
+      </c>
+      <c r="BB147">
+        <v>1.61</v>
+      </c>
+      <c r="BC147">
+        <v>2.1</v>
+      </c>
+      <c r="BD147">
+        <v>2.77</v>
+      </c>
+      <c r="BE147">
+        <v>3.5</v>
+      </c>
+      <c r="BF147">
+        <v>7</v>
+      </c>
+      <c r="BG147">
+        <v>5</v>
+      </c>
+      <c r="BH147">
+        <v>7</v>
+      </c>
+      <c r="BI147">
+        <v>0</v>
+      </c>
+      <c r="BJ147">
+        <v>14</v>
+      </c>
+      <c r="BK147">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="148" spans="1:63">
+      <c r="A148" s="1">
+        <v>147</v>
+      </c>
+      <c r="B148">
+        <v>5845588</v>
+      </c>
+      <c r="C148" t="s">
+        <v>63</v>
+      </c>
+      <c r="D148" t="s">
+        <v>64</v>
+      </c>
+      <c r="E148" s="2">
+        <v>45136.35763888889</v>
+      </c>
+      <c r="F148">
+        <v>19</v>
+      </c>
+      <c r="G148" t="s">
+        <v>71</v>
+      </c>
+      <c r="H148" t="s">
+        <v>76</v>
+      </c>
+      <c r="I148">
+        <v>0</v>
+      </c>
+      <c r="J148">
+        <v>2</v>
+      </c>
+      <c r="K148">
+        <v>2</v>
+      </c>
+      <c r="L148">
+        <v>0</v>
+      </c>
+      <c r="M148">
+        <v>5</v>
+      </c>
+      <c r="N148">
+        <v>5</v>
+      </c>
+      <c r="O148" t="s">
+        <v>82</v>
+      </c>
+      <c r="P148" t="s">
+        <v>262</v>
+      </c>
+      <c r="Q148">
+        <v>3</v>
+      </c>
+      <c r="R148">
+        <v>4</v>
+      </c>
+      <c r="S148">
+        <v>7</v>
+      </c>
+      <c r="T148">
+        <v>4</v>
+      </c>
+      <c r="U148">
+        <v>2.05</v>
+      </c>
+      <c r="V148">
+        <v>2.65</v>
+      </c>
+      <c r="W148">
+        <v>1.44</v>
+      </c>
+      <c r="X148">
+        <v>2.6</v>
+      </c>
+      <c r="Y148">
+        <v>2.95</v>
+      </c>
+      <c r="Z148">
+        <v>1.35</v>
+      </c>
+      <c r="AA148">
+        <v>7.4</v>
+      </c>
+      <c r="AB148">
+        <v>1.06</v>
+      </c>
+      <c r="AC148">
+        <v>4.04</v>
+      </c>
+      <c r="AD148">
+        <v>3.59</v>
+      </c>
+      <c r="AE148">
+        <v>1.92</v>
+      </c>
+      <c r="AF148">
+        <v>1.02</v>
+      </c>
+      <c r="AG148">
+        <v>8.6</v>
+      </c>
+      <c r="AH148">
+        <v>1.33</v>
+      </c>
+      <c r="AI148">
+        <v>3.2</v>
+      </c>
+      <c r="AJ148">
+        <v>1.95</v>
+      </c>
+      <c r="AK148">
+        <v>1.75</v>
+      </c>
+      <c r="AL148">
+        <v>1.8</v>
+      </c>
+      <c r="AM148">
+        <v>1.95</v>
+      </c>
+      <c r="AN148">
+        <v>1.75</v>
+      </c>
+      <c r="AO148">
+        <v>1.25</v>
+      </c>
+      <c r="AP148">
+        <v>1.25</v>
+      </c>
+      <c r="AQ148">
+        <v>2</v>
+      </c>
+      <c r="AR148">
+        <v>2.56</v>
+      </c>
+      <c r="AS148">
+        <v>1.8</v>
+      </c>
+      <c r="AT148">
+        <v>2.6</v>
+      </c>
+      <c r="AU148">
+        <v>1.51</v>
+      </c>
+      <c r="AV148">
+        <v>1.56</v>
+      </c>
+      <c r="AW148">
+        <v>3.07</v>
+      </c>
+      <c r="AX148">
+        <v>2.5</v>
+      </c>
+      <c r="AY148">
+        <v>8</v>
+      </c>
+      <c r="AZ148">
+        <v>1.67</v>
+      </c>
+      <c r="BA148">
+        <v>1.32</v>
+      </c>
+      <c r="BB148">
+        <v>1.58</v>
+      </c>
+      <c r="BC148">
+        <v>2</v>
+      </c>
+      <c r="BD148">
+        <v>2.65</v>
+      </c>
+      <c r="BE148">
+        <v>3.7</v>
+      </c>
+      <c r="BF148">
+        <v>3</v>
+      </c>
+      <c r="BG148">
+        <v>8</v>
+      </c>
+      <c r="BH148">
+        <v>5</v>
+      </c>
+      <c r="BI148">
+        <v>2</v>
+      </c>
+      <c r="BJ148">
+        <v>8</v>
+      </c>
+      <c r="BK148">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="149" spans="1:63">
+      <c r="A149" s="1">
+        <v>148</v>
+      </c>
+      <c r="B149">
+        <v>5845590</v>
+      </c>
+      <c r="C149" t="s">
+        <v>63</v>
+      </c>
+      <c r="D149" t="s">
+        <v>64</v>
+      </c>
+      <c r="E149" s="2">
+        <v>45136.35763888889</v>
+      </c>
+      <c r="F149">
+        <v>19</v>
+      </c>
+      <c r="G149" t="s">
+        <v>73</v>
+      </c>
+      <c r="H149" t="s">
+        <v>65</v>
+      </c>
+      <c r="I149">
+        <v>2</v>
+      </c>
+      <c r="J149">
+        <v>1</v>
+      </c>
+      <c r="K149">
+        <v>3</v>
+      </c>
+      <c r="L149">
+        <v>2</v>
+      </c>
+      <c r="M149">
+        <v>1</v>
+      </c>
+      <c r="N149">
+        <v>3</v>
+      </c>
+      <c r="O149" t="s">
+        <v>185</v>
+      </c>
+      <c r="P149" t="s">
+        <v>263</v>
+      </c>
+      <c r="Q149">
+        <v>6</v>
+      </c>
+      <c r="R149">
+        <v>2</v>
+      </c>
+      <c r="S149">
+        <v>8</v>
+      </c>
+      <c r="T149">
+        <v>2.7</v>
+      </c>
+      <c r="U149">
+        <v>2.24</v>
+      </c>
+      <c r="V149">
+        <v>4.06</v>
+      </c>
+      <c r="W149">
+        <v>1.38</v>
+      </c>
+      <c r="X149">
+        <v>3.03</v>
+      </c>
+      <c r="Y149">
+        <v>2.88</v>
+      </c>
+      <c r="Z149">
+        <v>1.41</v>
+      </c>
+      <c r="AA149">
+        <v>6.95</v>
+      </c>
+      <c r="AB149">
+        <v>1.08</v>
+      </c>
+      <c r="AC149">
+        <v>2.03</v>
+      </c>
+      <c r="AD149">
+        <v>3.64</v>
+      </c>
+      <c r="AE149">
+        <v>3.58</v>
+      </c>
+      <c r="AF149">
+        <v>1.05</v>
+      </c>
+      <c r="AG149">
+        <v>11.75</v>
+      </c>
+      <c r="AH149">
+        <v>1.29</v>
+      </c>
+      <c r="AI149">
+        <v>3.6</v>
+      </c>
+      <c r="AJ149">
+        <v>1.75</v>
+      </c>
+      <c r="AK149">
+        <v>1.95</v>
+      </c>
+      <c r="AL149">
+        <v>1.75</v>
+      </c>
+      <c r="AM149">
+        <v>2.03</v>
+      </c>
+      <c r="AN149">
+        <v>1.3</v>
+      </c>
+      <c r="AO149">
+        <v>1.3</v>
+      </c>
+      <c r="AP149">
+        <v>1.76</v>
+      </c>
+      <c r="AQ149">
+        <v>1.25</v>
+      </c>
+      <c r="AR149">
+        <v>0.33</v>
+      </c>
+      <c r="AS149">
+        <v>1.44</v>
+      </c>
+      <c r="AT149">
+        <v>0.3</v>
+      </c>
+      <c r="AU149">
+        <v>1.16</v>
+      </c>
+      <c r="AV149">
+        <v>1.17</v>
+      </c>
+      <c r="AW149">
+        <v>2.33</v>
+      </c>
+      <c r="AX149">
+        <v>1.91</v>
+      </c>
+      <c r="AY149">
+        <v>8</v>
+      </c>
+      <c r="AZ149">
+        <v>2.1</v>
+      </c>
+      <c r="BA149">
+        <v>1.3</v>
+      </c>
+      <c r="BB149">
+        <v>1.55</v>
+      </c>
+      <c r="BC149">
+        <v>1.96</v>
+      </c>
+      <c r="BD149">
+        <v>2.55</v>
+      </c>
+      <c r="BE149">
+        <v>3.2</v>
+      </c>
+      <c r="BF149">
+        <v>6</v>
+      </c>
+      <c r="BG149">
+        <v>2</v>
+      </c>
+      <c r="BH149">
+        <v>6</v>
+      </c>
+      <c r="BI149">
+        <v>1</v>
+      </c>
+      <c r="BJ149">
+        <v>12</v>
+      </c>
+      <c r="BK149">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="150" spans="1:63">
+      <c r="A150" s="1">
+        <v>149</v>
+      </c>
+      <c r="B150">
+        <v>5845586</v>
+      </c>
+      <c r="C150" t="s">
+        <v>63</v>
+      </c>
+      <c r="D150" t="s">
+        <v>64</v>
+      </c>
+      <c r="E150" s="2">
+        <v>45136.35763888889</v>
+      </c>
+      <c r="F150">
+        <v>19</v>
+      </c>
+      <c r="G150" t="s">
+        <v>70</v>
+      </c>
+      <c r="H150" t="s">
+        <v>77</v>
+      </c>
+      <c r="I150">
+        <v>0</v>
+      </c>
+      <c r="J150">
+        <v>0</v>
+      </c>
+      <c r="K150">
+        <v>0</v>
+      </c>
+      <c r="L150">
+        <v>0</v>
+      </c>
+      <c r="M150">
+        <v>0</v>
+      </c>
+      <c r="N150">
+        <v>0</v>
+      </c>
+      <c r="O150" t="s">
+        <v>82</v>
+      </c>
+      <c r="P150" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q150">
+        <v>6</v>
+      </c>
+      <c r="R150">
+        <v>7</v>
+      </c>
+      <c r="S150">
+        <v>13</v>
+      </c>
+      <c r="T150">
+        <v>2.8</v>
+      </c>
+      <c r="U150">
+        <v>2.15</v>
+      </c>
+      <c r="V150">
+        <v>3.3</v>
+      </c>
+      <c r="W150">
+        <v>1.36</v>
+      </c>
+      <c r="X150">
+        <v>3</v>
+      </c>
+      <c r="Y150">
+        <v>2.62</v>
+      </c>
+      <c r="Z150">
+        <v>1.44</v>
+      </c>
+      <c r="AA150">
+        <v>6</v>
+      </c>
+      <c r="AB150">
+        <v>1.11</v>
+      </c>
+      <c r="AC150">
+        <v>2.25</v>
+      </c>
+      <c r="AD150">
+        <v>3.55</v>
+      </c>
+      <c r="AE150">
+        <v>3.11</v>
+      </c>
+      <c r="AF150">
+        <v>1.05</v>
+      </c>
+      <c r="AG150">
+        <v>12.25</v>
+      </c>
+      <c r="AH150">
+        <v>1.27</v>
+      </c>
+      <c r="AI150">
+        <v>3.78</v>
+      </c>
+      <c r="AJ150">
+        <v>1.75</v>
+      </c>
+      <c r="AK150">
+        <v>1.95</v>
+      </c>
+      <c r="AL150">
+        <v>1.7</v>
+      </c>
+      <c r="AM150">
+        <v>2.1</v>
+      </c>
+      <c r="AN150">
+        <v>1.36</v>
+      </c>
+      <c r="AO150">
+        <v>1.29</v>
+      </c>
+      <c r="AP150">
+        <v>1.66</v>
+      </c>
+      <c r="AQ150">
+        <v>1.67</v>
+      </c>
+      <c r="AR150">
+        <v>1.22</v>
+      </c>
+      <c r="AS150">
+        <v>1.6</v>
+      </c>
+      <c r="AT150">
+        <v>1.2</v>
+      </c>
+      <c r="AU150">
+        <v>1.44</v>
+      </c>
+      <c r="AV150">
+        <v>1.32</v>
+      </c>
+      <c r="AW150">
+        <v>2.76</v>
+      </c>
+      <c r="AX150">
+        <v>1.67</v>
+      </c>
+      <c r="AY150">
+        <v>8</v>
+      </c>
+      <c r="AZ150">
+        <v>2.5</v>
+      </c>
+      <c r="BA150">
+        <v>1.34</v>
+      </c>
+      <c r="BB150">
+        <v>1.62</v>
+      </c>
+      <c r="BC150">
+        <v>2.07</v>
+      </c>
+      <c r="BD150">
+        <v>2.75</v>
+      </c>
+      <c r="BE150">
+        <v>3.3</v>
+      </c>
+      <c r="BF150">
+        <v>3</v>
+      </c>
+      <c r="BG150">
+        <v>5</v>
+      </c>
+      <c r="BH150">
+        <v>6</v>
+      </c>
+      <c r="BI150">
+        <v>3</v>
+      </c>
+      <c r="BJ150">
+        <v>9</v>
+      </c>
+      <c r="BK150">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="151" spans="1:63">
+      <c r="A151" s="1">
+        <v>150</v>
+      </c>
+      <c r="B151">
+        <v>5845587</v>
+      </c>
+      <c r="C151" t="s">
+        <v>63</v>
+      </c>
+      <c r="D151" t="s">
+        <v>64</v>
+      </c>
+      <c r="E151" s="2">
+        <v>45136.35763888889</v>
+      </c>
+      <c r="F151">
+        <v>19</v>
+      </c>
+      <c r="G151" t="s">
+        <v>80</v>
+      </c>
+      <c r="H151" t="s">
+        <v>79</v>
+      </c>
+      <c r="I151">
+        <v>1</v>
+      </c>
+      <c r="J151">
+        <v>2</v>
+      </c>
+      <c r="K151">
+        <v>3</v>
+      </c>
+      <c r="L151">
+        <v>1</v>
+      </c>
+      <c r="M151">
+        <v>2</v>
+      </c>
+      <c r="N151">
+        <v>3</v>
+      </c>
+      <c r="O151" t="s">
+        <v>186</v>
+      </c>
+      <c r="P151" t="s">
+        <v>264</v>
+      </c>
+      <c r="Q151">
+        <v>2</v>
+      </c>
+      <c r="R151">
+        <v>5</v>
+      </c>
+      <c r="S151">
+        <v>7</v>
+      </c>
+      <c r="T151">
+        <v>3.1</v>
+      </c>
+      <c r="U151">
+        <v>2</v>
+      </c>
+      <c r="V151">
+        <v>3.3</v>
+      </c>
+      <c r="W151">
+        <v>1.44</v>
+      </c>
+      <c r="X151">
+        <v>2.62</v>
+      </c>
+      <c r="Y151">
+        <v>3</v>
+      </c>
+      <c r="Z151">
+        <v>1.36</v>
+      </c>
+      <c r="AA151">
+        <v>7.5</v>
+      </c>
+      <c r="AB151">
+        <v>1.07</v>
+      </c>
+      <c r="AC151">
+        <v>2.96</v>
+      </c>
+      <c r="AD151">
+        <v>3.35</v>
+      </c>
+      <c r="AE151">
+        <v>2.43</v>
+      </c>
+      <c r="AF151">
+        <v>1.08</v>
+      </c>
+      <c r="AG151">
+        <v>9.050000000000001</v>
+      </c>
+      <c r="AH151">
+        <v>1.38</v>
+      </c>
+      <c r="AI151">
+        <v>3.03</v>
+      </c>
+      <c r="AJ151">
+        <v>2.1</v>
+      </c>
+      <c r="AK151">
+        <v>1.65</v>
+      </c>
+      <c r="AL151">
+        <v>1.85</v>
+      </c>
+      <c r="AM151">
+        <v>1.91</v>
+      </c>
+      <c r="AN151">
+        <v>1.43</v>
+      </c>
+      <c r="AO151">
+        <v>1.34</v>
+      </c>
+      <c r="AP151">
+        <v>1.51</v>
+      </c>
+      <c r="AQ151">
+        <v>1.11</v>
+      </c>
+      <c r="AR151">
+        <v>1.13</v>
+      </c>
+      <c r="AS151">
+        <v>1</v>
+      </c>
+      <c r="AT151">
+        <v>1.33</v>
+      </c>
+      <c r="AU151">
+        <v>1.79</v>
+      </c>
+      <c r="AV151">
+        <v>1.17</v>
+      </c>
+      <c r="AW151">
+        <v>2.96</v>
+      </c>
+      <c r="AX151">
+        <v>1.75</v>
+      </c>
+      <c r="AY151">
+        <v>7.4</v>
+      </c>
+      <c r="AZ151">
+        <v>2.55</v>
+      </c>
+      <c r="BA151">
+        <v>1.36</v>
+      </c>
+      <c r="BB151">
+        <v>1.65</v>
+      </c>
+      <c r="BC151">
+        <v>2.1</v>
+      </c>
+      <c r="BD151">
+        <v>2.8</v>
+      </c>
+      <c r="BE151">
+        <v>3.9</v>
+      </c>
+      <c r="BF151">
+        <v>5</v>
+      </c>
+      <c r="BG151">
+        <v>9</v>
+      </c>
+      <c r="BH151">
+        <v>11</v>
+      </c>
+      <c r="BI151">
+        <v>1</v>
+      </c>
+      <c r="BJ151">
+        <v>16</v>
+      </c>
+      <c r="BK151">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="152" spans="1:63">
+      <c r="A152" s="1">
+        <v>151</v>
+      </c>
+      <c r="B152">
+        <v>5845591</v>
+      </c>
+      <c r="C152" t="s">
+        <v>63</v>
+      </c>
+      <c r="D152" t="s">
+        <v>64</v>
+      </c>
+      <c r="E152" s="2">
+        <v>45137.35763888889</v>
+      </c>
+      <c r="F152">
+        <v>19</v>
+      </c>
+      <c r="G152" t="s">
+        <v>74</v>
+      </c>
+      <c r="H152" t="s">
+        <v>68</v>
+      </c>
+      <c r="I152">
+        <v>0</v>
+      </c>
+      <c r="J152">
+        <v>0</v>
+      </c>
+      <c r="K152">
+        <v>0</v>
+      </c>
+      <c r="L152">
+        <v>3</v>
+      </c>
+      <c r="M152">
+        <v>0</v>
+      </c>
+      <c r="N152">
+        <v>3</v>
+      </c>
+      <c r="O152" t="s">
+        <v>187</v>
+      </c>
+      <c r="P152" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q152">
+        <v>8</v>
+      </c>
+      <c r="R152">
+        <v>3</v>
+      </c>
+      <c r="S152">
+        <v>11</v>
+      </c>
+      <c r="T152">
+        <v>2.28</v>
+      </c>
+      <c r="U152">
+        <v>2.25</v>
+      </c>
+      <c r="V152">
+        <v>4.8</v>
+      </c>
+      <c r="W152">
+        <v>1.35</v>
+      </c>
+      <c r="X152">
+        <v>3.05</v>
+      </c>
+      <c r="Y152">
+        <v>2.64</v>
+      </c>
+      <c r="Z152">
+        <v>1.45</v>
+      </c>
+      <c r="AA152">
+        <v>6.5</v>
+      </c>
+      <c r="AB152">
+        <v>1.09</v>
+      </c>
+      <c r="AC152">
+        <v>1.8</v>
+      </c>
+      <c r="AD152">
+        <v>3.55</v>
+      </c>
+      <c r="AE152">
+        <v>4.1</v>
+      </c>
+      <c r="AF152">
+        <v>1.01</v>
+      </c>
+      <c r="AG152">
+        <v>9.9</v>
+      </c>
+      <c r="AH152">
+        <v>1.23</v>
+      </c>
+      <c r="AI152">
+        <v>3.64</v>
+      </c>
+      <c r="AJ152">
+        <v>1.88</v>
+      </c>
+      <c r="AK152">
+        <v>1.98</v>
+      </c>
+      <c r="AL152">
+        <v>1.76</v>
+      </c>
+      <c r="AM152">
+        <v>2</v>
+      </c>
+      <c r="AN152">
+        <v>1.21</v>
+      </c>
+      <c r="AO152">
+        <v>1.26</v>
+      </c>
+      <c r="AP152">
+        <v>2.06</v>
+      </c>
+      <c r="AQ152">
+        <v>2.43</v>
+      </c>
+      <c r="AR152">
+        <v>1.13</v>
+      </c>
+      <c r="AS152">
+        <v>2.5</v>
+      </c>
+      <c r="AT152">
+        <v>1</v>
+      </c>
+      <c r="AU152">
+        <v>1.71</v>
+      </c>
+      <c r="AV152">
+        <v>1.58</v>
+      </c>
+      <c r="AW152">
+        <v>3.29</v>
+      </c>
+      <c r="AX152">
+        <v>1.73</v>
+      </c>
+      <c r="AY152">
+        <v>8</v>
+      </c>
+      <c r="AZ152">
+        <v>2.4</v>
+      </c>
+      <c r="BA152">
+        <v>1.33</v>
+      </c>
+      <c r="BB152">
+        <v>1.64</v>
+      </c>
+      <c r="BC152">
+        <v>2.02</v>
+      </c>
+      <c r="BD152">
+        <v>2.67</v>
+      </c>
+      <c r="BE152">
+        <v>3.65</v>
+      </c>
+      <c r="BF152">
+        <v>6</v>
+      </c>
+      <c r="BG152">
+        <v>0</v>
+      </c>
+      <c r="BH152">
+        <v>7</v>
+      </c>
+      <c r="BI152">
+        <v>2</v>
+      </c>
+      <c r="BJ152">
+        <v>13</v>
+      </c>
+      <c r="BK152">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="153" spans="1:63">
+      <c r="A153" s="1">
+        <v>152</v>
+      </c>
+      <c r="B153">
+        <v>5845592</v>
+      </c>
+      <c r="C153" t="s">
+        <v>63</v>
+      </c>
+      <c r="D153" t="s">
+        <v>64</v>
+      </c>
+      <c r="E153" s="2">
+        <v>45137.35763888889</v>
+      </c>
+      <c r="F153">
+        <v>19</v>
+      </c>
+      <c r="G153" t="s">
+        <v>66</v>
+      </c>
+      <c r="H153" t="s">
+        <v>78</v>
+      </c>
+      <c r="I153">
+        <v>0</v>
+      </c>
+      <c r="J153">
+        <v>0</v>
+      </c>
+      <c r="K153">
+        <v>0</v>
+      </c>
+      <c r="L153">
+        <v>1</v>
+      </c>
+      <c r="M153">
+        <v>0</v>
+      </c>
+      <c r="N153">
+        <v>1</v>
+      </c>
+      <c r="O153" t="s">
+        <v>102</v>
+      </c>
+      <c r="P153" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q153">
+        <v>4</v>
+      </c>
+      <c r="R153">
+        <v>4</v>
+      </c>
+      <c r="S153">
+        <v>8</v>
+      </c>
+      <c r="T153">
+        <v>1.84</v>
+      </c>
+      <c r="U153">
+        <v>2.53</v>
+      </c>
+      <c r="V153">
+        <v>6.05</v>
+      </c>
+      <c r="W153">
+        <v>1.29</v>
+      </c>
+      <c r="X153">
+        <v>3.45</v>
+      </c>
+      <c r="Y153">
+        <v>2.34</v>
+      </c>
+      <c r="Z153">
+        <v>1.56</v>
+      </c>
+      <c r="AA153">
+        <v>5.35</v>
+      </c>
+      <c r="AB153">
+        <v>1.13</v>
+      </c>
+      <c r="AC153">
+        <v>1.3</v>
+      </c>
+      <c r="AD153">
+        <v>5.25</v>
+      </c>
+      <c r="AE153">
+        <v>8.5</v>
+      </c>
+      <c r="AF153">
+        <v>1.03</v>
+      </c>
+      <c r="AG153">
+        <v>18</v>
+      </c>
+      <c r="AH153">
+        <v>1.16</v>
+      </c>
+      <c r="AI153">
+        <v>4.4</v>
+      </c>
+      <c r="AJ153">
+        <v>1.47</v>
+      </c>
+      <c r="AK153">
+        <v>2.55</v>
+      </c>
+      <c r="AL153">
+        <v>1.83</v>
+      </c>
+      <c r="AM153">
+        <v>1.91</v>
+      </c>
+      <c r="AN153">
+        <v>1.09</v>
+      </c>
+      <c r="AO153">
+        <v>1.17</v>
+      </c>
+      <c r="AP153">
+        <v>2.97</v>
+      </c>
+      <c r="AQ153">
+        <v>1.38</v>
+      </c>
+      <c r="AR153">
+        <v>0.22</v>
+      </c>
+      <c r="AS153">
+        <v>1.56</v>
+      </c>
+      <c r="AT153">
+        <v>0.2</v>
+      </c>
+      <c r="AU153">
+        <v>1.8</v>
+      </c>
+      <c r="AV153">
+        <v>1.28</v>
+      </c>
+      <c r="AW153">
+        <v>3.08</v>
+      </c>
+      <c r="AX153">
+        <v>1.3</v>
+      </c>
+      <c r="AY153">
+        <v>9.5</v>
+      </c>
+      <c r="AZ153">
+        <v>4.33</v>
+      </c>
+      <c r="BA153">
+        <v>1.22</v>
+      </c>
+      <c r="BB153">
+        <v>1.43</v>
+      </c>
+      <c r="BC153">
+        <v>2</v>
+      </c>
+      <c r="BD153">
+        <v>2.21</v>
+      </c>
+      <c r="BE153">
+        <v>2.93</v>
+      </c>
+      <c r="BF153">
+        <v>11</v>
+      </c>
+      <c r="BG153">
+        <v>4</v>
+      </c>
+      <c r="BH153">
+        <v>10</v>
+      </c>
+      <c r="BI153">
+        <v>5</v>
+      </c>
+      <c r="BJ153">
+        <v>21</v>
+      </c>
+      <c r="BK153">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/China Chinese Super League_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/China Chinese Super League_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1023" uniqueCount="273">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -217,7 +217,7 @@
     <t>Wuhan Three Towns</t>
   </si>
   <si>
-    <t>Hangzhou</t>
+    <t>Zhejiang FC</t>
   </si>
   <si>
     <t>Beijing Guoan</t>
@@ -580,6 +580,27 @@
     <t>['59', '73', '90']</t>
   </si>
   <si>
+    <t>['16', '75']</t>
+  </si>
+  <si>
+    <t>['7', '42']</t>
+  </si>
+  <si>
+    <t>['17', '22', '41', '49', '86', '90+1']</t>
+  </si>
+  <si>
+    <t>['8', '42', '84']</t>
+  </si>
+  <si>
+    <t>['7', '33', '45+3']</t>
+  </si>
+  <si>
+    <t>['25', '31']</t>
+  </si>
+  <si>
+    <t>['75']</t>
+  </si>
+  <si>
     <t>['64', '79']</t>
   </si>
   <si>
@@ -745,9 +766,6 @@
     <t>['11', '82']</t>
   </si>
   <si>
-    <t>['75']</t>
-  </si>
-  <si>
     <t>['29', '49', '82']</t>
   </si>
   <si>
@@ -809,6 +827,12 @@
   </si>
   <si>
     <t>['22', '45+1']</t>
+  </si>
+  <si>
+    <t>['52']</t>
+  </si>
+  <si>
+    <t>['49', '83']</t>
   </si>
 </sst>
 </file>
@@ -1170,7 +1194,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK153"/>
+  <dimension ref="A1:BK161"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1501,10 +1525,10 @@
         <v>0</v>
       </c>
       <c r="AS2">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AT2">
-        <v>0.44</v>
+        <v>0.5</v>
       </c>
       <c r="AU2">
         <v>0</v>
@@ -1605,7 +1629,7 @@
         <v>82</v>
       </c>
       <c r="P3" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="Q3">
         <v>5</v>
@@ -1796,7 +1820,7 @@
         <v>82</v>
       </c>
       <c r="P4" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="Q4">
         <v>9</v>
@@ -1883,7 +1907,7 @@
         <v>0</v>
       </c>
       <c r="AS4">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT4">
         <v>1.2</v>
@@ -1987,7 +2011,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="Q5">
         <v>8</v>
@@ -2074,10 +2098,10 @@
         <v>0</v>
       </c>
       <c r="AS5">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AT5">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AU5">
         <v>0</v>
@@ -2178,7 +2202,7 @@
         <v>84</v>
       </c>
       <c r="P6" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="Q6">
         <v>2</v>
@@ -2268,7 +2292,7 @@
         <v>1.4</v>
       </c>
       <c r="AT6">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AU6">
         <v>0</v>
@@ -2369,7 +2393,7 @@
         <v>85</v>
       </c>
       <c r="P7" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="Q7">
         <v>7</v>
@@ -2751,7 +2775,7 @@
         <v>87</v>
       </c>
       <c r="P9" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="Q9">
         <v>4</v>
@@ -2942,7 +2966,7 @@
         <v>88</v>
       </c>
       <c r="P10" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="Q10">
         <v>4</v>
@@ -3324,7 +3348,7 @@
         <v>82</v>
       </c>
       <c r="P12" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="Q12">
         <v>7</v>
@@ -3414,7 +3438,7 @@
         <v>1.44</v>
       </c>
       <c r="AT12">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AU12">
         <v>0</v>
@@ -3602,10 +3626,10 @@
         <v>0</v>
       </c>
       <c r="AS13">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AT13">
-        <v>0.44</v>
+        <v>0.5</v>
       </c>
       <c r="AU13">
         <v>0</v>
@@ -4088,7 +4112,7 @@
         <v>92</v>
       </c>
       <c r="P16" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="Q16">
         <v>7</v>
@@ -4175,10 +4199,10 @@
         <v>0</v>
       </c>
       <c r="AS16">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AT16">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="AU16">
         <v>0</v>
@@ -4279,7 +4303,7 @@
         <v>93</v>
       </c>
       <c r="P17" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="Q17">
         <v>3</v>
@@ -4366,7 +4390,7 @@
         <v>0</v>
       </c>
       <c r="AS17">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AT17">
         <v>0.3</v>
@@ -4557,7 +4581,7 @@
         <v>0</v>
       </c>
       <c r="AS18">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AT18">
         <v>1.3</v>
@@ -4661,7 +4685,7 @@
         <v>95</v>
       </c>
       <c r="P19" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="Q19">
         <v>2</v>
@@ -4751,7 +4775,7 @@
         <v>1.44</v>
       </c>
       <c r="AT19">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AU19">
         <v>1.1</v>
@@ -4852,7 +4876,7 @@
         <v>96</v>
       </c>
       <c r="P20" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="Q20">
         <v>2</v>
@@ -4939,7 +4963,7 @@
         <v>1</v>
       </c>
       <c r="AS20">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT20">
         <v>1</v>
@@ -5130,7 +5154,7 @@
         <v>3</v>
       </c>
       <c r="AS21">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AT21">
         <v>2.6</v>
@@ -5512,10 +5536,10 @@
         <v>1</v>
       </c>
       <c r="AS23">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AT23">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AU23">
         <v>1.2</v>
@@ -5616,7 +5640,7 @@
         <v>82</v>
       </c>
       <c r="P24" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="Q24">
         <v>9</v>
@@ -5706,7 +5730,7 @@
         <v>1</v>
       </c>
       <c r="AT24">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AU24">
         <v>0.62</v>
@@ -5897,7 +5921,7 @@
         <v>1</v>
       </c>
       <c r="AT25">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AU25">
         <v>0</v>
@@ -6085,7 +6109,7 @@
         <v>0</v>
       </c>
       <c r="AS26">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AT26">
         <v>1.09</v>
@@ -6189,7 +6213,7 @@
         <v>82</v>
       </c>
       <c r="P27" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="Q27">
         <v>2</v>
@@ -6276,10 +6300,10 @@
         <v>3</v>
       </c>
       <c r="AS27">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT27">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AU27">
         <v>0.92</v>
@@ -6380,7 +6404,7 @@
         <v>82</v>
       </c>
       <c r="P28" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="Q28">
         <v>3</v>
@@ -6467,10 +6491,10 @@
         <v>1</v>
       </c>
       <c r="AS28">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT28">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AU28">
         <v>1.28</v>
@@ -6571,7 +6595,7 @@
         <v>83</v>
       </c>
       <c r="P29" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="Q29">
         <v>5</v>
@@ -6658,10 +6682,10 @@
         <v>3</v>
       </c>
       <c r="AS29">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AT29">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AU29">
         <v>1.36</v>
@@ -6762,7 +6786,7 @@
         <v>99</v>
       </c>
       <c r="P30" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="Q30">
         <v>11</v>
@@ -6852,7 +6876,7 @@
         <v>1</v>
       </c>
       <c r="AT30">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AU30">
         <v>0.9399999999999999</v>
@@ -7040,10 +7064,10 @@
         <v>0.5</v>
       </c>
       <c r="AS31">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AT31">
-        <v>0.44</v>
+        <v>0.5</v>
       </c>
       <c r="AU31">
         <v>1.23</v>
@@ -7144,7 +7168,7 @@
         <v>101</v>
       </c>
       <c r="P32" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="Q32">
         <v>8</v>
@@ -7231,10 +7255,10 @@
         <v>3</v>
       </c>
       <c r="AS32">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AT32">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AU32">
         <v>1.62</v>
@@ -7335,7 +7359,7 @@
         <v>102</v>
       </c>
       <c r="P33" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="Q33">
         <v>7</v>
@@ -7422,10 +7446,10 @@
         <v>1</v>
       </c>
       <c r="AS33">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AT33">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AU33">
         <v>1.13</v>
@@ -8290,7 +8314,7 @@
         <v>104</v>
       </c>
       <c r="P38" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="Q38">
         <v>3</v>
@@ -8481,7 +8505,7 @@
         <v>105</v>
       </c>
       <c r="P39" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="Q39">
         <v>6</v>
@@ -9144,7 +9168,7 @@
         <v>1.4</v>
       </c>
       <c r="AT42">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AU42">
         <v>0.98</v>
@@ -9245,7 +9269,7 @@
         <v>107</v>
       </c>
       <c r="P43" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="Q43">
         <v>5</v>
@@ -9332,7 +9356,7 @@
         <v>1.33</v>
       </c>
       <c r="AS43">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AT43">
         <v>1.33</v>
@@ -9436,7 +9460,7 @@
         <v>99</v>
       </c>
       <c r="P44" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="Q44">
         <v>5</v>
@@ -9526,7 +9550,7 @@
         <v>1</v>
       </c>
       <c r="AT44">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AU44">
         <v>1.06</v>
@@ -9714,10 +9738,10 @@
         <v>2</v>
       </c>
       <c r="AS45">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AT45">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AU45">
         <v>1.29</v>
@@ -9818,7 +9842,7 @@
         <v>109</v>
       </c>
       <c r="P46" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="Q46">
         <v>3</v>
@@ -10096,7 +10120,7 @@
         <v>0.33</v>
       </c>
       <c r="AS47">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AT47">
         <v>0.2</v>
@@ -10200,7 +10224,7 @@
         <v>110</v>
       </c>
       <c r="P48" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="Q48">
         <v>9</v>
@@ -10391,7 +10415,7 @@
         <v>111</v>
       </c>
       <c r="P49" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="Q49">
         <v>3</v>
@@ -10478,10 +10502,10 @@
         <v>1</v>
       </c>
       <c r="AS49">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AT49">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AU49">
         <v>1.37</v>
@@ -10582,7 +10606,7 @@
         <v>112</v>
       </c>
       <c r="P50" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="Q50">
         <v>4</v>
@@ -10672,7 +10696,7 @@
         <v>1.8</v>
       </c>
       <c r="AT50">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AU50">
         <v>1.37</v>
@@ -10773,7 +10797,7 @@
         <v>113</v>
       </c>
       <c r="P51" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="Q51">
         <v>2</v>
@@ -11051,10 +11075,10 @@
         <v>1.67</v>
       </c>
       <c r="AS52">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT52">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AU52">
         <v>0.87</v>
@@ -11155,7 +11179,7 @@
         <v>115</v>
       </c>
       <c r="P53" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="Q53">
         <v>8</v>
@@ -11346,7 +11370,7 @@
         <v>116</v>
       </c>
       <c r="P54" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="Q54">
         <v>3</v>
@@ -11433,7 +11457,7 @@
         <v>2.33</v>
       </c>
       <c r="AS54">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT54">
         <v>2.6</v>
@@ -11627,7 +11651,7 @@
         <v>1.6</v>
       </c>
       <c r="AT55">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AU55">
         <v>1.45</v>
@@ -11815,7 +11839,7 @@
         <v>0.5</v>
       </c>
       <c r="AS56">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AT56">
         <v>1.09</v>
@@ -12006,10 +12030,10 @@
         <v>0.67</v>
       </c>
       <c r="AS57">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AT57">
-        <v>0.44</v>
+        <v>0.5</v>
       </c>
       <c r="AU57">
         <v>1.43</v>
@@ -12110,7 +12134,7 @@
         <v>120</v>
       </c>
       <c r="P58" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="Q58">
         <v>3</v>
@@ -12200,7 +12224,7 @@
         <v>1.56</v>
       </c>
       <c r="AT58">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AU58">
         <v>1.74</v>
@@ -12391,7 +12415,7 @@
         <v>1</v>
       </c>
       <c r="AT59">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="AU59">
         <v>1.91</v>
@@ -12492,7 +12516,7 @@
         <v>121</v>
       </c>
       <c r="P60" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="Q60">
         <v>3</v>
@@ -12579,7 +12603,7 @@
         <v>1</v>
       </c>
       <c r="AS60">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT60">
         <v>1.3</v>
@@ -12683,7 +12707,7 @@
         <v>122</v>
       </c>
       <c r="P61" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="Q61">
         <v>6</v>
@@ -12770,7 +12794,7 @@
         <v>1.75</v>
       </c>
       <c r="AS61">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AT61">
         <v>1.2</v>
@@ -12874,7 +12898,7 @@
         <v>123</v>
       </c>
       <c r="P62" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="Q62">
         <v>2</v>
@@ -13256,7 +13280,7 @@
         <v>125</v>
       </c>
       <c r="P64" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="Q64">
         <v>1</v>
@@ -13447,7 +13471,7 @@
         <v>82</v>
       </c>
       <c r="P65" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="Q65">
         <v>1</v>
@@ -13638,7 +13662,7 @@
         <v>126</v>
       </c>
       <c r="P66" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="Q66">
         <v>4</v>
@@ -13728,7 +13752,7 @@
         <v>1.91</v>
       </c>
       <c r="AT66">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AU66">
         <v>1.88</v>
@@ -13829,7 +13853,7 @@
         <v>127</v>
       </c>
       <c r="P67" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="Q67">
         <v>7</v>
@@ -13916,7 +13940,7 @@
         <v>1.25</v>
       </c>
       <c r="AS67">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AT67">
         <v>1.33</v>
@@ -14107,7 +14131,7 @@
         <v>0.25</v>
       </c>
       <c r="AS68">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AT68">
         <v>0.2</v>
@@ -14211,7 +14235,7 @@
         <v>82</v>
       </c>
       <c r="P69" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="Q69">
         <v>6</v>
@@ -14301,7 +14325,7 @@
         <v>1</v>
       </c>
       <c r="AT69">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AU69">
         <v>2.04</v>
@@ -14489,10 +14513,10 @@
         <v>0.5</v>
       </c>
       <c r="AS70">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AT70">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="AU70">
         <v>2.23</v>
@@ -14593,7 +14617,7 @@
         <v>129</v>
       </c>
       <c r="P71" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="Q71">
         <v>7</v>
@@ -14680,10 +14704,10 @@
         <v>0.33</v>
       </c>
       <c r="AS71">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AT71">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AU71">
         <v>1.88</v>
@@ -14874,7 +14898,7 @@
         <v>1.44</v>
       </c>
       <c r="AT72">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AU72">
         <v>1.13</v>
@@ -14975,7 +14999,7 @@
         <v>131</v>
       </c>
       <c r="P73" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="Q73">
         <v>7</v>
@@ -15062,7 +15086,7 @@
         <v>1</v>
       </c>
       <c r="AS73">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AT73">
         <v>1.3</v>
@@ -15256,7 +15280,7 @@
         <v>1.91</v>
       </c>
       <c r="AT74">
-        <v>0.44</v>
+        <v>0.5</v>
       </c>
       <c r="AU74">
         <v>1.75</v>
@@ -15357,7 +15381,7 @@
         <v>133</v>
       </c>
       <c r="P75" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="Q75">
         <v>10</v>
@@ -15444,10 +15468,10 @@
         <v>2.2</v>
       </c>
       <c r="AS75">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AT75">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AU75">
         <v>1.54</v>
@@ -15548,7 +15572,7 @@
         <v>134</v>
       </c>
       <c r="P76" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="Q76">
         <v>3</v>
@@ -15635,7 +15659,7 @@
         <v>1.25</v>
       </c>
       <c r="AS76">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT76">
         <v>1</v>
@@ -15826,7 +15850,7 @@
         <v>0.67</v>
       </c>
       <c r="AS77">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT77">
         <v>1.09</v>
@@ -15930,7 +15954,7 @@
         <v>103</v>
       </c>
       <c r="P78" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="Q78">
         <v>7</v>
@@ -16020,7 +16044,7 @@
         <v>1.8</v>
       </c>
       <c r="AT78">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AU78">
         <v>1.38</v>
@@ -16208,10 +16232,10 @@
         <v>1.5</v>
       </c>
       <c r="AS79">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AT79">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AU79">
         <v>1.38</v>
@@ -16312,7 +16336,7 @@
         <v>135</v>
       </c>
       <c r="P80" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="Q80">
         <v>3</v>
@@ -16402,7 +16426,7 @@
         <v>1</v>
       </c>
       <c r="AT80">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AU80">
         <v>1.17</v>
@@ -16503,7 +16527,7 @@
         <v>82</v>
       </c>
       <c r="P81" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="Q81">
         <v>4</v>
@@ -16590,7 +16614,7 @@
         <v>2.6</v>
       </c>
       <c r="AS81">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AT81">
         <v>2.6</v>
@@ -16781,10 +16805,10 @@
         <v>0.33</v>
       </c>
       <c r="AS82">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT82">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="AU82">
         <v>1.28</v>
@@ -16885,7 +16909,7 @@
         <v>137</v>
       </c>
       <c r="P83" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="Q83">
         <v>12</v>
@@ -16972,7 +16996,7 @@
         <v>2</v>
       </c>
       <c r="AS83">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AT83">
         <v>1.2</v>
@@ -17163,10 +17187,10 @@
         <v>1.5</v>
       </c>
       <c r="AS84">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AT84">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AU84">
         <v>1.93</v>
@@ -17354,7 +17378,7 @@
         <v>0</v>
       </c>
       <c r="AS85">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AT85">
         <v>0.3</v>
@@ -17458,7 +17482,7 @@
         <v>139</v>
       </c>
       <c r="P86" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="Q86">
         <v>2</v>
@@ -17548,7 +17572,7 @@
         <v>1.4</v>
       </c>
       <c r="AT86">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AU86">
         <v>1.08</v>
@@ -17649,7 +17673,7 @@
         <v>82</v>
       </c>
       <c r="P87" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="Q87">
         <v>1</v>
@@ -17736,10 +17760,10 @@
         <v>1.75</v>
       </c>
       <c r="AS87">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AT87">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AU87">
         <v>1.53</v>
@@ -18031,7 +18055,7 @@
         <v>140</v>
       </c>
       <c r="P89" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="Q89">
         <v>6</v>
@@ -18121,7 +18145,7 @@
         <v>1.6</v>
       </c>
       <c r="AT89">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AU89">
         <v>1.26</v>
@@ -18222,7 +18246,7 @@
         <v>82</v>
       </c>
       <c r="P90" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="Q90">
         <v>3</v>
@@ -18309,10 +18333,10 @@
         <v>2</v>
       </c>
       <c r="AS90">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT90">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AU90">
         <v>1.41</v>
@@ -18413,7 +18437,7 @@
         <v>141</v>
       </c>
       <c r="P91" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="Q91">
         <v>5</v>
@@ -18500,10 +18524,10 @@
         <v>0.25</v>
       </c>
       <c r="AS91">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AT91">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="AU91">
         <v>1.5</v>
@@ -18694,7 +18718,7 @@
         <v>1.91</v>
       </c>
       <c r="AT92">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AU92">
         <v>1.73</v>
@@ -18795,7 +18819,7 @@
         <v>142</v>
       </c>
       <c r="P93" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="Q93">
         <v>3</v>
@@ -19073,10 +19097,10 @@
         <v>0.4</v>
       </c>
       <c r="AS94">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AT94">
-        <v>0.44</v>
+        <v>0.5</v>
       </c>
       <c r="AU94">
         <v>1.8</v>
@@ -19368,7 +19392,7 @@
         <v>144</v>
       </c>
       <c r="P96" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="Q96">
         <v>7</v>
@@ -19559,7 +19583,7 @@
         <v>145</v>
       </c>
       <c r="P97" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="Q97">
         <v>1</v>
@@ -19646,7 +19670,7 @@
         <v>1</v>
       </c>
       <c r="AS97">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AT97">
         <v>1</v>
@@ -20028,10 +20052,10 @@
         <v>0.83</v>
       </c>
       <c r="AS99">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT99">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AU99">
         <v>1.45</v>
@@ -20132,7 +20156,7 @@
         <v>147</v>
       </c>
       <c r="P100" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="Q100">
         <v>5</v>
@@ -20413,7 +20437,7 @@
         <v>1.8</v>
       </c>
       <c r="AT101">
-        <v>0.44</v>
+        <v>0.5</v>
       </c>
       <c r="AU101">
         <v>1.53</v>
@@ -20514,7 +20538,7 @@
         <v>82</v>
       </c>
       <c r="P102" t="s">
-        <v>243</v>
+        <v>194</v>
       </c>
       <c r="Q102">
         <v>12</v>
@@ -20601,10 +20625,10 @@
         <v>0.4</v>
       </c>
       <c r="AS102">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AT102">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AU102">
         <v>1.35</v>
@@ -20705,7 +20729,7 @@
         <v>82</v>
       </c>
       <c r="P103" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="Q103">
         <v>1</v>
@@ -20795,7 +20819,7 @@
         <v>1</v>
       </c>
       <c r="AT103">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AU103">
         <v>1.27</v>
@@ -20896,7 +20920,7 @@
         <v>149</v>
       </c>
       <c r="P104" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="Q104">
         <v>4</v>
@@ -20983,7 +21007,7 @@
         <v>1.67</v>
       </c>
       <c r="AS104">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AT104">
         <v>1.2</v>
@@ -21087,7 +21111,7 @@
         <v>108</v>
       </c>
       <c r="P105" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="Q105">
         <v>2</v>
@@ -21174,7 +21198,7 @@
         <v>2.67</v>
       </c>
       <c r="AS105">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AT105">
         <v>2.6</v>
@@ -21278,7 +21302,7 @@
         <v>123</v>
       </c>
       <c r="P106" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="Q106">
         <v>2</v>
@@ -21368,7 +21392,7 @@
         <v>1.8</v>
       </c>
       <c r="AT106">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AU106">
         <v>1.52</v>
@@ -21469,7 +21493,7 @@
         <v>150</v>
       </c>
       <c r="P107" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="Q107">
         <v>6</v>
@@ -21556,7 +21580,7 @@
         <v>0.14</v>
       </c>
       <c r="AS107">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AT107">
         <v>0.2</v>
@@ -21747,7 +21771,7 @@
         <v>1.29</v>
       </c>
       <c r="AS108">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AT108">
         <v>1.3</v>
@@ -21851,7 +21875,7 @@
         <v>152</v>
       </c>
       <c r="P109" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="Q109">
         <v>17</v>
@@ -21941,7 +21965,7 @@
         <v>1</v>
       </c>
       <c r="AT109">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AU109">
         <v>1.91</v>
@@ -22042,7 +22066,7 @@
         <v>153</v>
       </c>
       <c r="P110" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="Q110">
         <v>1</v>
@@ -22132,7 +22156,7 @@
         <v>1</v>
       </c>
       <c r="AT110">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AU110">
         <v>1.18</v>
@@ -22233,7 +22257,7 @@
         <v>154</v>
       </c>
       <c r="P111" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="Q111">
         <v>3</v>
@@ -22320,7 +22344,7 @@
         <v>2.71</v>
       </c>
       <c r="AS111">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AT111">
         <v>2.6</v>
@@ -22615,7 +22639,7 @@
         <v>155</v>
       </c>
       <c r="P113" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="Q113">
         <v>5</v>
@@ -22702,10 +22726,10 @@
         <v>0.83</v>
       </c>
       <c r="AS113">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AT113">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AU113">
         <v>1.68</v>
@@ -22806,7 +22830,7 @@
         <v>156</v>
       </c>
       <c r="P114" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="Q114">
         <v>14</v>
@@ -22896,7 +22920,7 @@
         <v>1.6</v>
       </c>
       <c r="AT114">
-        <v>0.44</v>
+        <v>0.5</v>
       </c>
       <c r="AU114">
         <v>1.25</v>
@@ -23278,7 +23302,7 @@
         <v>1.44</v>
       </c>
       <c r="AT116">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AU116">
         <v>1.22</v>
@@ -23466,7 +23490,7 @@
         <v>1.33</v>
       </c>
       <c r="AS117">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT117">
         <v>1.33</v>
@@ -23657,10 +23681,10 @@
         <v>2.17</v>
       </c>
       <c r="AS118">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT118">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AU118">
         <v>1.4</v>
@@ -23952,7 +23976,7 @@
         <v>160</v>
       </c>
       <c r="P120" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="Q120">
         <v>7</v>
@@ -24039,7 +24063,7 @@
         <v>0.17</v>
       </c>
       <c r="AS120">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AT120">
         <v>0.3</v>
@@ -24230,10 +24254,10 @@
         <v>0.2</v>
       </c>
       <c r="AS121">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AT121">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="AU121">
         <v>1.65</v>
@@ -24421,10 +24445,10 @@
         <v>2.29</v>
       </c>
       <c r="AS122">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AT122">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AU122">
         <v>1.8</v>
@@ -24615,7 +24639,7 @@
         <v>1.91</v>
       </c>
       <c r="AT123">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AU123">
         <v>1.85</v>
@@ -24716,7 +24740,7 @@
         <v>164</v>
       </c>
       <c r="P124" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="Q124">
         <v>9</v>
@@ -24803,10 +24827,10 @@
         <v>1.86</v>
       </c>
       <c r="AS124">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AT124">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AU124">
         <v>1.44</v>
@@ -24994,10 +25018,10 @@
         <v>0.17</v>
       </c>
       <c r="AS125">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT125">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="AU125">
         <v>1.47</v>
@@ -25185,10 +25209,10 @@
         <v>1.88</v>
       </c>
       <c r="AS126">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AT126">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AU126">
         <v>1.75</v>
@@ -25289,7 +25313,7 @@
         <v>167</v>
       </c>
       <c r="P127" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="Q127">
         <v>1</v>
@@ -25480,7 +25504,7 @@
         <v>168</v>
       </c>
       <c r="P128" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="Q128">
         <v>1</v>
@@ -25567,7 +25591,7 @@
         <v>1.13</v>
       </c>
       <c r="AS128">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AT128">
         <v>1.3</v>
@@ -25671,7 +25695,7 @@
         <v>169</v>
       </c>
       <c r="P129" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="Q129">
         <v>6</v>
@@ -25862,7 +25886,7 @@
         <v>95</v>
       </c>
       <c r="P130" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="Q130">
         <v>2</v>
@@ -26140,7 +26164,7 @@
         <v>1.25</v>
       </c>
       <c r="AS131">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AT131">
         <v>1.2</v>
@@ -26244,7 +26268,7 @@
         <v>156</v>
       </c>
       <c r="P132" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="Q132">
         <v>4</v>
@@ -26435,7 +26459,7 @@
         <v>170</v>
       </c>
       <c r="P133" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="Q133">
         <v>6</v>
@@ -26522,10 +26546,10 @@
         <v>1.75</v>
       </c>
       <c r="AS133">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT133">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AU133">
         <v>1.37</v>
@@ -26713,10 +26737,10 @@
         <v>1.67</v>
       </c>
       <c r="AS134">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AT134">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AU134">
         <v>1.76</v>
@@ -26817,7 +26841,7 @@
         <v>172</v>
       </c>
       <c r="P135" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="Q135">
         <v>4</v>
@@ -26904,10 +26928,10 @@
         <v>1.71</v>
       </c>
       <c r="AS135">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AT135">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AU135">
         <v>1.43</v>
@@ -27008,7 +27032,7 @@
         <v>173</v>
       </c>
       <c r="P136" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="Q136">
         <v>7</v>
@@ -27098,7 +27122,7 @@
         <v>1.8</v>
       </c>
       <c r="AT136">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AU136">
         <v>1.51</v>
@@ -27286,10 +27310,10 @@
         <v>0.63</v>
       </c>
       <c r="AS137">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT137">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AU137">
         <v>1.53</v>
@@ -27477,7 +27501,7 @@
         <v>1.29</v>
       </c>
       <c r="AS138">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AT138">
         <v>1.33</v>
@@ -27581,7 +27605,7 @@
         <v>176</v>
       </c>
       <c r="P139" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="Q139">
         <v>10</v>
@@ -27671,7 +27695,7 @@
         <v>1.4</v>
       </c>
       <c r="AT139">
-        <v>0.44</v>
+        <v>0.5</v>
       </c>
       <c r="AU139">
         <v>1.07</v>
@@ -27772,7 +27796,7 @@
         <v>177</v>
       </c>
       <c r="P140" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="Q140">
         <v>11</v>
@@ -27862,7 +27886,7 @@
         <v>1.6</v>
       </c>
       <c r="AT140">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="AU140">
         <v>1.29</v>
@@ -28241,10 +28265,10 @@
         <v>2</v>
       </c>
       <c r="AS142">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AT142">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AU142">
         <v>1.59</v>
@@ -28432,7 +28456,7 @@
         <v>1.2</v>
       </c>
       <c r="AS143">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT143">
         <v>1.09</v>
@@ -28623,7 +28647,7 @@
         <v>0.25</v>
       </c>
       <c r="AS144">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AT144">
         <v>0.2</v>
@@ -28817,7 +28841,7 @@
         <v>1.56</v>
       </c>
       <c r="AT145">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AU145">
         <v>1.72</v>
@@ -29008,7 +29032,7 @@
         <v>1.4</v>
       </c>
       <c r="AT146">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="AU146">
         <v>1.13</v>
@@ -29109,7 +29133,7 @@
         <v>184</v>
       </c>
       <c r="P147" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="Q147">
         <v>7</v>
@@ -29300,7 +29324,7 @@
         <v>82</v>
       </c>
       <c r="P148" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="Q148">
         <v>3</v>
@@ -29491,7 +29515,7 @@
         <v>185</v>
       </c>
       <c r="P149" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="Q149">
         <v>6</v>
@@ -29873,7 +29897,7 @@
         <v>186</v>
       </c>
       <c r="P151" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="Q151">
         <v>2</v>
@@ -30151,7 +30175,7 @@
         <v>1.13</v>
       </c>
       <c r="AS152">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AT152">
         <v>1</v>
@@ -30397,6 +30421,1534 @@
       </c>
       <c r="BK153">
         <v>9</v>
+      </c>
+    </row>
+    <row r="154" spans="1:63">
+      <c r="A154" s="1">
+        <v>153</v>
+      </c>
+      <c r="B154">
+        <v>5845593</v>
+      </c>
+      <c r="C154" t="s">
+        <v>63</v>
+      </c>
+      <c r="D154" t="s">
+        <v>64</v>
+      </c>
+      <c r="E154" s="2">
+        <v>45141.35763888889</v>
+      </c>
+      <c r="F154">
+        <v>20</v>
+      </c>
+      <c r="G154" t="s">
+        <v>76</v>
+      </c>
+      <c r="H154" t="s">
+        <v>70</v>
+      </c>
+      <c r="I154">
+        <v>1</v>
+      </c>
+      <c r="J154">
+        <v>1</v>
+      </c>
+      <c r="K154">
+        <v>2</v>
+      </c>
+      <c r="L154">
+        <v>2</v>
+      </c>
+      <c r="M154">
+        <v>1</v>
+      </c>
+      <c r="N154">
+        <v>3</v>
+      </c>
+      <c r="O154" t="s">
+        <v>188</v>
+      </c>
+      <c r="P154" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q154">
+        <v>4</v>
+      </c>
+      <c r="R154">
+        <v>4</v>
+      </c>
+      <c r="S154">
+        <v>8</v>
+      </c>
+      <c r="T154">
+        <v>1.7</v>
+      </c>
+      <c r="U154">
+        <v>2.75</v>
+      </c>
+      <c r="V154">
+        <v>8.289999999999999</v>
+      </c>
+      <c r="W154">
+        <v>1.28</v>
+      </c>
+      <c r="X154">
+        <v>3.48</v>
+      </c>
+      <c r="Y154">
+        <v>2.32</v>
+      </c>
+      <c r="Z154">
+        <v>1.57</v>
+      </c>
+      <c r="AA154">
+        <v>5.3</v>
+      </c>
+      <c r="AB154">
+        <v>1.14</v>
+      </c>
+      <c r="AC154">
+        <v>1.23</v>
+      </c>
+      <c r="AD154">
+        <v>5.1</v>
+      </c>
+      <c r="AE154">
+        <v>9</v>
+      </c>
+      <c r="AF154">
+        <v>1.03</v>
+      </c>
+      <c r="AG154">
+        <v>19.25</v>
+      </c>
+      <c r="AH154">
+        <v>1.19</v>
+      </c>
+      <c r="AI154">
+        <v>4.8</v>
+      </c>
+      <c r="AJ154">
+        <v>1.56</v>
+      </c>
+      <c r="AK154">
+        <v>2.19</v>
+      </c>
+      <c r="AL154">
+        <v>2.06</v>
+      </c>
+      <c r="AM154">
+        <v>1.73</v>
+      </c>
+      <c r="AN154">
+        <v>1.07</v>
+      </c>
+      <c r="AO154">
+        <v>1.14</v>
+      </c>
+      <c r="AP154">
+        <v>3.7</v>
+      </c>
+      <c r="AQ154">
+        <v>2.22</v>
+      </c>
+      <c r="AR154">
+        <v>1.56</v>
+      </c>
+      <c r="AS154">
+        <v>2.3</v>
+      </c>
+      <c r="AT154">
+        <v>1.4</v>
+      </c>
+      <c r="AU154">
+        <v>1.75</v>
+      </c>
+      <c r="AV154">
+        <v>1.11</v>
+      </c>
+      <c r="AW154">
+        <v>2.86</v>
+      </c>
+      <c r="AX154">
+        <v>1.17</v>
+      </c>
+      <c r="AY154">
+        <v>7.75</v>
+      </c>
+      <c r="AZ154">
+        <v>5.75</v>
+      </c>
+      <c r="BA154">
+        <v>1.24</v>
+      </c>
+      <c r="BB154">
+        <v>1.51</v>
+      </c>
+      <c r="BC154">
+        <v>1.77</v>
+      </c>
+      <c r="BD154">
+        <v>2.17</v>
+      </c>
+      <c r="BE154">
+        <v>3.08</v>
+      </c>
+      <c r="BF154">
+        <v>8</v>
+      </c>
+      <c r="BG154">
+        <v>4</v>
+      </c>
+      <c r="BH154">
+        <v>7</v>
+      </c>
+      <c r="BI154">
+        <v>2</v>
+      </c>
+      <c r="BJ154">
+        <v>15</v>
+      </c>
+      <c r="BK154">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="155" spans="1:63">
+      <c r="A155" s="1">
+        <v>154</v>
+      </c>
+      <c r="B155">
+        <v>5845594</v>
+      </c>
+      <c r="C155" t="s">
+        <v>63</v>
+      </c>
+      <c r="D155" t="s">
+        <v>64</v>
+      </c>
+      <c r="E155" s="2">
+        <v>45142.35763888889</v>
+      </c>
+      <c r="F155">
+        <v>20</v>
+      </c>
+      <c r="G155" t="s">
+        <v>67</v>
+      </c>
+      <c r="H155" t="s">
+        <v>66</v>
+      </c>
+      <c r="I155">
+        <v>2</v>
+      </c>
+      <c r="J155">
+        <v>1</v>
+      </c>
+      <c r="K155">
+        <v>3</v>
+      </c>
+      <c r="L155">
+        <v>2</v>
+      </c>
+      <c r="M155">
+        <v>1</v>
+      </c>
+      <c r="N155">
+        <v>3</v>
+      </c>
+      <c r="O155" t="s">
+        <v>189</v>
+      </c>
+      <c r="P155" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q155">
+        <v>3</v>
+      </c>
+      <c r="R155">
+        <v>8</v>
+      </c>
+      <c r="S155">
+        <v>11</v>
+      </c>
+      <c r="T155">
+        <v>3.5</v>
+      </c>
+      <c r="U155">
+        <v>2.33</v>
+      </c>
+      <c r="V155">
+        <v>2.6</v>
+      </c>
+      <c r="W155">
+        <v>1.28</v>
+      </c>
+      <c r="X155">
+        <v>3.2</v>
+      </c>
+      <c r="Y155">
+        <v>2.3</v>
+      </c>
+      <c r="Z155">
+        <v>1.52</v>
+      </c>
+      <c r="AA155">
+        <v>5.25</v>
+      </c>
+      <c r="AB155">
+        <v>1.13</v>
+      </c>
+      <c r="AC155">
+        <v>3.25</v>
+      </c>
+      <c r="AD155">
+        <v>3.5</v>
+      </c>
+      <c r="AE155">
+        <v>2</v>
+      </c>
+      <c r="AF155">
+        <v>1.03</v>
+      </c>
+      <c r="AG155">
+        <v>15</v>
+      </c>
+      <c r="AH155">
+        <v>1.17</v>
+      </c>
+      <c r="AI155">
+        <v>4.55</v>
+      </c>
+      <c r="AJ155">
+        <v>1.66</v>
+      </c>
+      <c r="AK155">
+        <v>2.15</v>
+      </c>
+      <c r="AL155">
+        <v>1.62</v>
+      </c>
+      <c r="AM155">
+        <v>2.23</v>
+      </c>
+      <c r="AN155">
+        <v>1.7</v>
+      </c>
+      <c r="AO155">
+        <v>1.28</v>
+      </c>
+      <c r="AP155">
+        <v>1.35</v>
+      </c>
+      <c r="AQ155">
+        <v>1.67</v>
+      </c>
+      <c r="AR155">
+        <v>1.6</v>
+      </c>
+      <c r="AS155">
+        <v>1.8</v>
+      </c>
+      <c r="AT155">
+        <v>1.45</v>
+      </c>
+      <c r="AU155">
+        <v>1.36</v>
+      </c>
+      <c r="AV155">
+        <v>1.69</v>
+      </c>
+      <c r="AW155">
+        <v>3.05</v>
+      </c>
+      <c r="AX155">
+        <v>2.2</v>
+      </c>
+      <c r="AY155">
+        <v>8</v>
+      </c>
+      <c r="AZ155">
+        <v>1.91</v>
+      </c>
+      <c r="BA155">
+        <v>1.28</v>
+      </c>
+      <c r="BB155">
+        <v>1.48</v>
+      </c>
+      <c r="BC155">
+        <v>1.88</v>
+      </c>
+      <c r="BD155">
+        <v>2.35</v>
+      </c>
+      <c r="BE155">
+        <v>3.2</v>
+      </c>
+      <c r="BF155">
+        <v>5</v>
+      </c>
+      <c r="BG155">
+        <v>7</v>
+      </c>
+      <c r="BH155">
+        <v>3</v>
+      </c>
+      <c r="BI155">
+        <v>9</v>
+      </c>
+      <c r="BJ155">
+        <v>8</v>
+      </c>
+      <c r="BK155">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="156" spans="1:63">
+      <c r="A156" s="1">
+        <v>155</v>
+      </c>
+      <c r="B156">
+        <v>5845595</v>
+      </c>
+      <c r="C156" t="s">
+        <v>63</v>
+      </c>
+      <c r="D156" t="s">
+        <v>64</v>
+      </c>
+      <c r="E156" s="2">
+        <v>45142.35763888889</v>
+      </c>
+      <c r="F156">
+        <v>20</v>
+      </c>
+      <c r="G156" t="s">
+        <v>74</v>
+      </c>
+      <c r="H156" t="s">
+        <v>73</v>
+      </c>
+      <c r="I156">
+        <v>3</v>
+      </c>
+      <c r="J156">
+        <v>0</v>
+      </c>
+      <c r="K156">
+        <v>3</v>
+      </c>
+      <c r="L156">
+        <v>6</v>
+      </c>
+      <c r="M156">
+        <v>1</v>
+      </c>
+      <c r="N156">
+        <v>7</v>
+      </c>
+      <c r="O156" t="s">
+        <v>190</v>
+      </c>
+      <c r="P156" t="s">
+        <v>271</v>
+      </c>
+      <c r="Q156">
+        <v>4</v>
+      </c>
+      <c r="R156">
+        <v>6</v>
+      </c>
+      <c r="S156">
+        <v>10</v>
+      </c>
+      <c r="T156">
+        <v>1.66</v>
+      </c>
+      <c r="U156">
+        <v>2.86</v>
+      </c>
+      <c r="V156">
+        <v>8.220000000000001</v>
+      </c>
+      <c r="W156">
+        <v>1.25</v>
+      </c>
+      <c r="X156">
+        <v>3.72</v>
+      </c>
+      <c r="Y156">
+        <v>2.25</v>
+      </c>
+      <c r="Z156">
+        <v>1.62</v>
+      </c>
+      <c r="AA156">
+        <v>4.8</v>
+      </c>
+      <c r="AB156">
+        <v>1.16</v>
+      </c>
+      <c r="AC156">
+        <v>1.25</v>
+      </c>
+      <c r="AD156">
+        <v>5.75</v>
+      </c>
+      <c r="AE156">
+        <v>9.5</v>
+      </c>
+      <c r="AF156">
+        <v>1.02</v>
+      </c>
+      <c r="AG156">
+        <v>22.5</v>
+      </c>
+      <c r="AH156">
+        <v>1.16</v>
+      </c>
+      <c r="AI156">
+        <v>5.35</v>
+      </c>
+      <c r="AJ156">
+        <v>1.55</v>
+      </c>
+      <c r="AK156">
+        <v>2.35</v>
+      </c>
+      <c r="AL156">
+        <v>1.97</v>
+      </c>
+      <c r="AM156">
+        <v>1.79</v>
+      </c>
+      <c r="AN156">
+        <v>1.07</v>
+      </c>
+      <c r="AO156">
+        <v>1.13</v>
+      </c>
+      <c r="AP156">
+        <v>3.8</v>
+      </c>
+      <c r="AQ156">
+        <v>2.5</v>
+      </c>
+      <c r="AR156">
+        <v>0.6</v>
+      </c>
+      <c r="AS156">
+        <v>2.56</v>
+      </c>
+      <c r="AT156">
+        <v>0.55</v>
+      </c>
+      <c r="AU156">
+        <v>1.71</v>
+      </c>
+      <c r="AV156">
+        <v>1.06</v>
+      </c>
+      <c r="AW156">
+        <v>2.77</v>
+      </c>
+      <c r="AX156">
+        <v>1.18</v>
+      </c>
+      <c r="AY156">
+        <v>11</v>
+      </c>
+      <c r="AZ156">
+        <v>5.5</v>
+      </c>
+      <c r="BA156">
+        <v>1.33</v>
+      </c>
+      <c r="BB156">
+        <v>1.61</v>
+      </c>
+      <c r="BC156">
+        <v>2.1</v>
+      </c>
+      <c r="BD156">
+        <v>2.77</v>
+      </c>
+      <c r="BE156">
+        <v>4</v>
+      </c>
+      <c r="BF156">
+        <v>9</v>
+      </c>
+      <c r="BG156">
+        <v>3</v>
+      </c>
+      <c r="BH156">
+        <v>4</v>
+      </c>
+      <c r="BI156">
+        <v>2</v>
+      </c>
+      <c r="BJ156">
+        <v>13</v>
+      </c>
+      <c r="BK156">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="157" spans="1:63">
+      <c r="A157" s="1">
+        <v>156</v>
+      </c>
+      <c r="B157">
+        <v>5845596</v>
+      </c>
+      <c r="C157" t="s">
+        <v>63</v>
+      </c>
+      <c r="D157" t="s">
+        <v>64</v>
+      </c>
+      <c r="E157" s="2">
+        <v>45142.35763888889</v>
+      </c>
+      <c r="F157">
+        <v>20</v>
+      </c>
+      <c r="G157" t="s">
+        <v>68</v>
+      </c>
+      <c r="H157" t="s">
+        <v>69</v>
+      </c>
+      <c r="I157">
+        <v>2</v>
+      </c>
+      <c r="J157">
+        <v>1</v>
+      </c>
+      <c r="K157">
+        <v>3</v>
+      </c>
+      <c r="L157">
+        <v>3</v>
+      </c>
+      <c r="M157">
+        <v>1</v>
+      </c>
+      <c r="N157">
+        <v>4</v>
+      </c>
+      <c r="O157" t="s">
+        <v>191</v>
+      </c>
+      <c r="P157" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q157">
+        <v>4</v>
+      </c>
+      <c r="R157">
+        <v>4</v>
+      </c>
+      <c r="S157">
+        <v>8</v>
+      </c>
+      <c r="T157">
+        <v>2.01</v>
+      </c>
+      <c r="U157">
+        <v>2.51</v>
+      </c>
+      <c r="V157">
+        <v>5.96</v>
+      </c>
+      <c r="W157">
+        <v>1.32</v>
+      </c>
+      <c r="X157">
+        <v>3.22</v>
+      </c>
+      <c r="Y157">
+        <v>2.54</v>
+      </c>
+      <c r="Z157">
+        <v>1.51</v>
+      </c>
+      <c r="AA157">
+        <v>5.85</v>
+      </c>
+      <c r="AB157">
+        <v>1.11</v>
+      </c>
+      <c r="AC157">
+        <v>1.47</v>
+      </c>
+      <c r="AD157">
+        <v>4.2</v>
+      </c>
+      <c r="AE157">
+        <v>6</v>
+      </c>
+      <c r="AF157">
+        <v>1.04</v>
+      </c>
+      <c r="AG157">
+        <v>15.25</v>
+      </c>
+      <c r="AH157">
+        <v>1.17</v>
+      </c>
+      <c r="AI157">
+        <v>4.3</v>
+      </c>
+      <c r="AJ157">
+        <v>1.78</v>
+      </c>
+      <c r="AK157">
+        <v>2</v>
+      </c>
+      <c r="AL157">
+        <v>1.82</v>
+      </c>
+      <c r="AM157">
+        <v>1.94</v>
+      </c>
+      <c r="AN157">
+        <v>1.12</v>
+      </c>
+      <c r="AO157">
+        <v>1.2</v>
+      </c>
+      <c r="AP157">
+        <v>2.61</v>
+      </c>
+      <c r="AQ157">
+        <v>1.9</v>
+      </c>
+      <c r="AR157">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AS157">
+        <v>2</v>
+      </c>
+      <c r="AT157">
+        <v>0.5</v>
+      </c>
+      <c r="AU157">
+        <v>1.62</v>
+      </c>
+      <c r="AV157">
+        <v>1.1</v>
+      </c>
+      <c r="AW157">
+        <v>2.72</v>
+      </c>
+      <c r="AX157">
+        <v>1.2</v>
+      </c>
+      <c r="AY157">
+        <v>10</v>
+      </c>
+      <c r="AZ157">
+        <v>5.5</v>
+      </c>
+      <c r="BA157">
+        <v>1.37</v>
+      </c>
+      <c r="BB157">
+        <v>1.72</v>
+      </c>
+      <c r="BC157">
+        <v>2.2</v>
+      </c>
+      <c r="BD157">
+        <v>2.95</v>
+      </c>
+      <c r="BE157">
+        <v>4.1</v>
+      </c>
+      <c r="BF157">
+        <v>7</v>
+      </c>
+      <c r="BG157">
+        <v>6</v>
+      </c>
+      <c r="BH157">
+        <v>4</v>
+      </c>
+      <c r="BI157">
+        <v>9</v>
+      </c>
+      <c r="BJ157">
+        <v>11</v>
+      </c>
+      <c r="BK157">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="158" spans="1:63">
+      <c r="A158" s="1">
+        <v>157</v>
+      </c>
+      <c r="B158">
+        <v>5845597</v>
+      </c>
+      <c r="C158" t="s">
+        <v>63</v>
+      </c>
+      <c r="D158" t="s">
+        <v>64</v>
+      </c>
+      <c r="E158" s="2">
+        <v>45142.35763888889</v>
+      </c>
+      <c r="F158">
+        <v>20</v>
+      </c>
+      <c r="G158" t="s">
+        <v>77</v>
+      </c>
+      <c r="H158" t="s">
+        <v>80</v>
+      </c>
+      <c r="I158">
+        <v>1</v>
+      </c>
+      <c r="J158">
+        <v>0</v>
+      </c>
+      <c r="K158">
+        <v>1</v>
+      </c>
+      <c r="L158">
+        <v>1</v>
+      </c>
+      <c r="M158">
+        <v>1</v>
+      </c>
+      <c r="N158">
+        <v>2</v>
+      </c>
+      <c r="O158" t="s">
+        <v>130</v>
+      </c>
+      <c r="P158" t="s">
+        <v>216</v>
+      </c>
+      <c r="Q158">
+        <v>1</v>
+      </c>
+      <c r="R158">
+        <v>6</v>
+      </c>
+      <c r="S158">
+        <v>7</v>
+      </c>
+      <c r="T158">
+        <v>2.48</v>
+      </c>
+      <c r="U158">
+        <v>2.3</v>
+      </c>
+      <c r="V158">
+        <v>4.47</v>
+      </c>
+      <c r="W158">
+        <v>1.36</v>
+      </c>
+      <c r="X158">
+        <v>3.13</v>
+      </c>
+      <c r="Y158">
+        <v>2.79</v>
+      </c>
+      <c r="Z158">
+        <v>1.43</v>
+      </c>
+      <c r="AA158">
+        <v>6.6</v>
+      </c>
+      <c r="AB158">
+        <v>1.09</v>
+      </c>
+      <c r="AC158">
+        <v>1.83</v>
+      </c>
+      <c r="AD158">
+        <v>3.55</v>
+      </c>
+      <c r="AE158">
+        <v>3.95</v>
+      </c>
+      <c r="AF158">
+        <v>1.05</v>
+      </c>
+      <c r="AG158">
+        <v>12</v>
+      </c>
+      <c r="AH158">
+        <v>1.31</v>
+      </c>
+      <c r="AI158">
+        <v>3.47</v>
+      </c>
+      <c r="AJ158">
+        <v>1.83</v>
+      </c>
+      <c r="AK158">
+        <v>1.9</v>
+      </c>
+      <c r="AL158">
+        <v>1.74</v>
+      </c>
+      <c r="AM158">
+        <v>2.04</v>
+      </c>
+      <c r="AN158">
+        <v>1.25</v>
+      </c>
+      <c r="AO158">
+        <v>1.27</v>
+      </c>
+      <c r="AP158">
+        <v>1.95</v>
+      </c>
+      <c r="AQ158">
+        <v>1.67</v>
+      </c>
+      <c r="AR158">
+        <v>0.44</v>
+      </c>
+      <c r="AS158">
+        <v>1.6</v>
+      </c>
+      <c r="AT158">
+        <v>0.5</v>
+      </c>
+      <c r="AU158">
+        <v>1.55</v>
+      </c>
+      <c r="AV158">
+        <v>1.06</v>
+      </c>
+      <c r="AW158">
+        <v>2.61</v>
+      </c>
+      <c r="AX158">
+        <v>1.73</v>
+      </c>
+      <c r="AY158">
+        <v>8</v>
+      </c>
+      <c r="AZ158">
+        <v>2.4</v>
+      </c>
+      <c r="BA158">
+        <v>1.37</v>
+      </c>
+      <c r="BB158">
+        <v>1.65</v>
+      </c>
+      <c r="BC158">
+        <v>2.13</v>
+      </c>
+      <c r="BD158">
+        <v>2.85</v>
+      </c>
+      <c r="BE158">
+        <v>3.8</v>
+      </c>
+      <c r="BF158">
+        <v>3</v>
+      </c>
+      <c r="BG158">
+        <v>6</v>
+      </c>
+      <c r="BH158">
+        <v>3</v>
+      </c>
+      <c r="BI158">
+        <v>6</v>
+      </c>
+      <c r="BJ158">
+        <v>6</v>
+      </c>
+      <c r="BK158">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="159" spans="1:63">
+      <c r="A159" s="1">
+        <v>158</v>
+      </c>
+      <c r="B159">
+        <v>5845598</v>
+      </c>
+      <c r="C159" t="s">
+        <v>63</v>
+      </c>
+      <c r="D159" t="s">
+        <v>64</v>
+      </c>
+      <c r="E159" s="2">
+        <v>45142.35763888889</v>
+      </c>
+      <c r="F159">
+        <v>20</v>
+      </c>
+      <c r="G159" t="s">
+        <v>78</v>
+      </c>
+      <c r="H159" t="s">
+        <v>75</v>
+      </c>
+      <c r="I159">
+        <v>3</v>
+      </c>
+      <c r="J159">
+        <v>0</v>
+      </c>
+      <c r="K159">
+        <v>3</v>
+      </c>
+      <c r="L159">
+        <v>3</v>
+      </c>
+      <c r="M159">
+        <v>2</v>
+      </c>
+      <c r="N159">
+        <v>5</v>
+      </c>
+      <c r="O159" t="s">
+        <v>192</v>
+      </c>
+      <c r="P159" t="s">
+        <v>272</v>
+      </c>
+      <c r="Q159">
+        <v>2</v>
+      </c>
+      <c r="R159">
+        <v>4</v>
+      </c>
+      <c r="S159">
+        <v>6</v>
+      </c>
+      <c r="T159">
+        <v>4.36</v>
+      </c>
+      <c r="U159">
+        <v>2.28</v>
+      </c>
+      <c r="V159">
+        <v>2.54</v>
+      </c>
+      <c r="W159">
+        <v>1.37</v>
+      </c>
+      <c r="X159">
+        <v>3.08</v>
+      </c>
+      <c r="Y159">
+        <v>2.83</v>
+      </c>
+      <c r="Z159">
+        <v>1.42</v>
+      </c>
+      <c r="AA159">
+        <v>6.75</v>
+      </c>
+      <c r="AB159">
+        <v>1.09</v>
+      </c>
+      <c r="AC159">
+        <v>4.02</v>
+      </c>
+      <c r="AD159">
+        <v>3.53</v>
+      </c>
+      <c r="AE159">
+        <v>1.96</v>
+      </c>
+      <c r="AF159">
+        <v>1.05</v>
+      </c>
+      <c r="AG159">
+        <v>7.8</v>
+      </c>
+      <c r="AH159">
+        <v>1.25</v>
+      </c>
+      <c r="AI159">
+        <v>3.5</v>
+      </c>
+      <c r="AJ159">
+        <v>1.87</v>
+      </c>
+      <c r="AK159">
+        <v>1.93</v>
+      </c>
+      <c r="AL159">
+        <v>1.73</v>
+      </c>
+      <c r="AM159">
+        <v>2.05</v>
+      </c>
+      <c r="AN159">
+        <v>1.84</v>
+      </c>
+      <c r="AO159">
+        <v>1.29</v>
+      </c>
+      <c r="AP159">
+        <v>1.26</v>
+      </c>
+      <c r="AQ159">
+        <v>1.56</v>
+      </c>
+      <c r="AR159">
+        <v>1.5</v>
+      </c>
+      <c r="AS159">
+        <v>1.7</v>
+      </c>
+      <c r="AT159">
+        <v>1.33</v>
+      </c>
+      <c r="AU159">
+        <v>1.56</v>
+      </c>
+      <c r="AV159">
+        <v>1.3</v>
+      </c>
+      <c r="AW159">
+        <v>2.86</v>
+      </c>
+      <c r="AX159">
+        <v>2.5</v>
+      </c>
+      <c r="AY159">
+        <v>8</v>
+      </c>
+      <c r="AZ159">
+        <v>1.73</v>
+      </c>
+      <c r="BA159">
+        <v>1.3</v>
+      </c>
+      <c r="BB159">
+        <v>1.49</v>
+      </c>
+      <c r="BC159">
+        <v>1.93</v>
+      </c>
+      <c r="BD159">
+        <v>2.37</v>
+      </c>
+      <c r="BE159">
+        <v>3.3</v>
+      </c>
+      <c r="BF159">
+        <v>6</v>
+      </c>
+      <c r="BG159">
+        <v>10</v>
+      </c>
+      <c r="BH159">
+        <v>6</v>
+      </c>
+      <c r="BI159">
+        <v>4</v>
+      </c>
+      <c r="BJ159">
+        <v>12</v>
+      </c>
+      <c r="BK159">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="160" spans="1:63">
+      <c r="A160" s="1">
+        <v>159</v>
+      </c>
+      <c r="B160">
+        <v>5845599</v>
+      </c>
+      <c r="C160" t="s">
+        <v>63</v>
+      </c>
+      <c r="D160" t="s">
+        <v>64</v>
+      </c>
+      <c r="E160" s="2">
+        <v>45143.35763888889</v>
+      </c>
+      <c r="F160">
+        <v>20</v>
+      </c>
+      <c r="G160" t="s">
+        <v>65</v>
+      </c>
+      <c r="H160" t="s">
+        <v>71</v>
+      </c>
+      <c r="I160">
+        <v>2</v>
+      </c>
+      <c r="J160">
+        <v>0</v>
+      </c>
+      <c r="K160">
+        <v>2</v>
+      </c>
+      <c r="L160">
+        <v>2</v>
+      </c>
+      <c r="M160">
+        <v>1</v>
+      </c>
+      <c r="N160">
+        <v>3</v>
+      </c>
+      <c r="O160" t="s">
+        <v>193</v>
+      </c>
+      <c r="P160" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q160">
+        <v>3</v>
+      </c>
+      <c r="R160">
+        <v>3</v>
+      </c>
+      <c r="S160">
+        <v>6</v>
+      </c>
+      <c r="T160">
+        <v>4.5</v>
+      </c>
+      <c r="U160">
+        <v>2.1</v>
+      </c>
+      <c r="V160">
+        <v>2.4</v>
+      </c>
+      <c r="W160">
+        <v>1.42</v>
+      </c>
+      <c r="X160">
+        <v>2.65</v>
+      </c>
+      <c r="Y160">
+        <v>2.95</v>
+      </c>
+      <c r="Z160">
+        <v>1.35</v>
+      </c>
+      <c r="AA160">
+        <v>7.9</v>
+      </c>
+      <c r="AB160">
+        <v>1.05</v>
+      </c>
+      <c r="AC160">
+        <v>4.5</v>
+      </c>
+      <c r="AD160">
+        <v>3.5</v>
+      </c>
+      <c r="AE160">
+        <v>1.78</v>
+      </c>
+      <c r="AF160">
+        <v>1.07</v>
+      </c>
+      <c r="AG160">
+        <v>10.25</v>
+      </c>
+      <c r="AH160">
+        <v>1.36</v>
+      </c>
+      <c r="AI160">
+        <v>3</v>
+      </c>
+      <c r="AJ160">
+        <v>2.15</v>
+      </c>
+      <c r="AK160">
+        <v>1.66</v>
+      </c>
+      <c r="AL160">
+        <v>1.95</v>
+      </c>
+      <c r="AM160">
+        <v>1.8</v>
+      </c>
+      <c r="AN160">
+        <v>1.95</v>
+      </c>
+      <c r="AO160">
+        <v>1.22</v>
+      </c>
+      <c r="AP160">
+        <v>1.17</v>
+      </c>
+      <c r="AQ160">
+        <v>1</v>
+      </c>
+      <c r="AR160">
+        <v>1.89</v>
+      </c>
+      <c r="AS160">
+        <v>1.2</v>
+      </c>
+      <c r="AT160">
+        <v>1.7</v>
+      </c>
+      <c r="AU160">
+        <v>1.19</v>
+      </c>
+      <c r="AV160">
+        <v>1.31</v>
+      </c>
+      <c r="AW160">
+        <v>2.5</v>
+      </c>
+      <c r="AX160">
+        <v>2.1</v>
+      </c>
+      <c r="AY160">
+        <v>7.5</v>
+      </c>
+      <c r="AZ160">
+        <v>1.95</v>
+      </c>
+      <c r="BA160">
+        <v>1.33</v>
+      </c>
+      <c r="BB160">
+        <v>1.67</v>
+      </c>
+      <c r="BC160">
+        <v>2.12</v>
+      </c>
+      <c r="BD160">
+        <v>2.9</v>
+      </c>
+      <c r="BE160">
+        <v>4.33</v>
+      </c>
+      <c r="BF160">
+        <v>4</v>
+      </c>
+      <c r="BG160">
+        <v>3</v>
+      </c>
+      <c r="BH160">
+        <v>4</v>
+      </c>
+      <c r="BI160">
+        <v>2</v>
+      </c>
+      <c r="BJ160">
+        <v>8</v>
+      </c>
+      <c r="BK160">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="161" spans="1:63">
+      <c r="A161" s="1">
+        <v>160</v>
+      </c>
+      <c r="B161">
+        <v>5845600</v>
+      </c>
+      <c r="C161" t="s">
+        <v>63</v>
+      </c>
+      <c r="D161" t="s">
+        <v>64</v>
+      </c>
+      <c r="E161" s="2">
+        <v>45143.35763888889</v>
+      </c>
+      <c r="F161">
+        <v>20</v>
+      </c>
+      <c r="G161" t="s">
+        <v>79</v>
+      </c>
+      <c r="H161" t="s">
+        <v>72</v>
+      </c>
+      <c r="I161">
+        <v>0</v>
+      </c>
+      <c r="J161">
+        <v>0</v>
+      </c>
+      <c r="K161">
+        <v>0</v>
+      </c>
+      <c r="L161">
+        <v>1</v>
+      </c>
+      <c r="M161">
+        <v>0</v>
+      </c>
+      <c r="N161">
+        <v>1</v>
+      </c>
+      <c r="O161" t="s">
+        <v>194</v>
+      </c>
+      <c r="P161" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q161">
+        <v>5</v>
+      </c>
+      <c r="R161">
+        <v>3</v>
+      </c>
+      <c r="S161">
+        <v>8</v>
+      </c>
+      <c r="T161">
+        <v>1.64</v>
+      </c>
+      <c r="U161">
+        <v>2.84</v>
+      </c>
+      <c r="V161">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="W161">
+        <v>1.26</v>
+      </c>
+      <c r="X161">
+        <v>3.64</v>
+      </c>
+      <c r="Y161">
+        <v>2.32</v>
+      </c>
+      <c r="Z161">
+        <v>1.59</v>
+      </c>
+      <c r="AA161">
+        <v>4.95</v>
+      </c>
+      <c r="AB161">
+        <v>1.16</v>
+      </c>
+      <c r="AC161">
+        <v>1.19</v>
+      </c>
+      <c r="AD161">
+        <v>6.78</v>
+      </c>
+      <c r="AE161">
+        <v>12.35</v>
+      </c>
+      <c r="AF161">
+        <v>1.02</v>
+      </c>
+      <c r="AG161">
+        <v>23</v>
+      </c>
+      <c r="AH161">
+        <v>1.13</v>
+      </c>
+      <c r="AI161">
+        <v>4.85</v>
+      </c>
+      <c r="AJ161">
+        <v>1.48</v>
+      </c>
+      <c r="AK161">
+        <v>2.43</v>
+      </c>
+      <c r="AL161">
+        <v>2.13</v>
+      </c>
+      <c r="AM161">
+        <v>1.68</v>
+      </c>
+      <c r="AN161">
+        <v>1.02</v>
+      </c>
+      <c r="AO161">
+        <v>1.11</v>
+      </c>
+      <c r="AP161">
+        <v>4.26</v>
+      </c>
+      <c r="AQ161">
+        <v>1.2</v>
+      </c>
+      <c r="AR161">
+        <v>0.22</v>
+      </c>
+      <c r="AS161">
+        <v>1.36</v>
+      </c>
+      <c r="AT161">
+        <v>0.2</v>
+      </c>
+      <c r="AU161">
+        <v>1.36</v>
+      </c>
+      <c r="AV161">
+        <v>0.85</v>
+      </c>
+      <c r="AW161">
+        <v>2.21</v>
+      </c>
+      <c r="AX161">
+        <v>1.22</v>
+      </c>
+      <c r="AY161">
+        <v>10</v>
+      </c>
+      <c r="AZ161">
+        <v>5</v>
+      </c>
+      <c r="BA161">
+        <v>1.37</v>
+      </c>
+      <c r="BB161">
+        <v>1.85</v>
+      </c>
+      <c r="BC161">
+        <v>2.2</v>
+      </c>
+      <c r="BD161">
+        <v>2.95</v>
+      </c>
+      <c r="BE161">
+        <v>4.05</v>
+      </c>
+      <c r="BF161">
+        <v>5</v>
+      </c>
+      <c r="BG161">
+        <v>2</v>
+      </c>
+      <c r="BH161">
+        <v>7</v>
+      </c>
+      <c r="BI161">
+        <v>2</v>
+      </c>
+      <c r="BJ161">
+        <v>12</v>
+      </c>
+      <c r="BK161">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/China Chinese Super League_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/China Chinese Super League_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1023" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1047" uniqueCount="276">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -601,6 +601,9 @@
     <t>['75']</t>
   </si>
   <si>
+    <t>['1', '40', '78', '90+3']</t>
+  </si>
+  <si>
     <t>['64', '79']</t>
   </si>
   <si>
@@ -833,6 +836,12 @@
   </si>
   <si>
     <t>['49', '83']</t>
+  </si>
+  <si>
+    <t>['45+4', '90']</t>
+  </si>
+  <si>
+    <t>['23', '66', '71', '87', '90+1']</t>
   </si>
 </sst>
 </file>
@@ -1194,7 +1203,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK161"/>
+  <dimension ref="A1:BK165"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1528,7 +1537,7 @@
         <v>1.2</v>
       </c>
       <c r="AT2">
-        <v>0.5</v>
+        <v>0.55</v>
       </c>
       <c r="AU2">
         <v>0</v>
@@ -1629,7 +1638,7 @@
         <v>82</v>
       </c>
       <c r="P3" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q3">
         <v>5</v>
@@ -1719,7 +1728,7 @@
         <v>1.56</v>
       </c>
       <c r="AT3">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="AU3">
         <v>0</v>
@@ -1820,7 +1829,7 @@
         <v>82</v>
       </c>
       <c r="P4" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q4">
         <v>9</v>
@@ -1907,10 +1916,10 @@
         <v>0</v>
       </c>
       <c r="AS4">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AT4">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AU4">
         <v>0</v>
@@ -2011,7 +2020,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q5">
         <v>8</v>
@@ -2202,7 +2211,7 @@
         <v>84</v>
       </c>
       <c r="P6" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q6">
         <v>2</v>
@@ -2292,7 +2301,7 @@
         <v>1.4</v>
       </c>
       <c r="AT6">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AU6">
         <v>0</v>
@@ -2393,7 +2402,7 @@
         <v>85</v>
       </c>
       <c r="P7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q7">
         <v>7</v>
@@ -2775,7 +2784,7 @@
         <v>87</v>
       </c>
       <c r="P9" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q9">
         <v>4</v>
@@ -2966,7 +2975,7 @@
         <v>88</v>
       </c>
       <c r="P10" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q10">
         <v>4</v>
@@ -3348,7 +3357,7 @@
         <v>82</v>
       </c>
       <c r="P12" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q12">
         <v>7</v>
@@ -3435,7 +3444,7 @@
         <v>0</v>
       </c>
       <c r="AS12">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT12">
         <v>1.7</v>
@@ -3626,10 +3635,10 @@
         <v>0</v>
       </c>
       <c r="AS13">
-        <v>2.56</v>
+        <v>2.3</v>
       </c>
       <c r="AT13">
-        <v>0.5</v>
+        <v>0.55</v>
       </c>
       <c r="AU13">
         <v>0</v>
@@ -4112,7 +4121,7 @@
         <v>92</v>
       </c>
       <c r="P16" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q16">
         <v>7</v>
@@ -4303,7 +4312,7 @@
         <v>93</v>
       </c>
       <c r="P17" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q17">
         <v>3</v>
@@ -4581,7 +4590,7 @@
         <v>0</v>
       </c>
       <c r="AS18">
-        <v>2.56</v>
+        <v>2.3</v>
       </c>
       <c r="AT18">
         <v>1.3</v>
@@ -4685,7 +4694,7 @@
         <v>95</v>
       </c>
       <c r="P19" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q19">
         <v>2</v>
@@ -4772,7 +4781,7 @@
         <v>0</v>
       </c>
       <c r="AS19">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT19">
         <v>1.45</v>
@@ -4876,7 +4885,7 @@
         <v>96</v>
       </c>
       <c r="P20" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q20">
         <v>2</v>
@@ -4963,7 +4972,7 @@
         <v>1</v>
       </c>
       <c r="AS20">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AT20">
         <v>1</v>
@@ -5157,7 +5166,7 @@
         <v>1.36</v>
       </c>
       <c r="AT21">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="AU21">
         <v>0</v>
@@ -5348,7 +5357,7 @@
         <v>1.8</v>
       </c>
       <c r="AT22">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AU22">
         <v>0.9</v>
@@ -5539,7 +5548,7 @@
         <v>1.2</v>
       </c>
       <c r="AT23">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AU23">
         <v>1.2</v>
@@ -5640,7 +5649,7 @@
         <v>82</v>
       </c>
       <c r="P24" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q24">
         <v>9</v>
@@ -6213,7 +6222,7 @@
         <v>82</v>
       </c>
       <c r="P27" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q27">
         <v>2</v>
@@ -6300,7 +6309,7 @@
         <v>3</v>
       </c>
       <c r="AS27">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AT27">
         <v>1.45</v>
@@ -6404,7 +6413,7 @@
         <v>82</v>
       </c>
       <c r="P28" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q28">
         <v>3</v>
@@ -6491,10 +6500,10 @@
         <v>1</v>
       </c>
       <c r="AS28">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AT28">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AU28">
         <v>1.28</v>
@@ -6595,7 +6604,7 @@
         <v>83</v>
       </c>
       <c r="P29" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q29">
         <v>5</v>
@@ -6786,7 +6795,7 @@
         <v>99</v>
       </c>
       <c r="P30" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q30">
         <v>11</v>
@@ -7067,7 +7076,7 @@
         <v>1.36</v>
       </c>
       <c r="AT31">
-        <v>0.5</v>
+        <v>0.55</v>
       </c>
       <c r="AU31">
         <v>1.23</v>
@@ -7168,7 +7177,7 @@
         <v>101</v>
       </c>
       <c r="P32" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q32">
         <v>8</v>
@@ -7359,7 +7368,7 @@
         <v>102</v>
       </c>
       <c r="P33" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q33">
         <v>7</v>
@@ -8314,7 +8323,7 @@
         <v>104</v>
       </c>
       <c r="P38" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q38">
         <v>3</v>
@@ -8401,7 +8410,7 @@
         <v>0.5</v>
       </c>
       <c r="AS38">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT38">
         <v>1.09</v>
@@ -8505,7 +8514,7 @@
         <v>105</v>
       </c>
       <c r="P39" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q39">
         <v>6</v>
@@ -8786,7 +8795,7 @@
         <v>1.6</v>
       </c>
       <c r="AT40">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="AU40">
         <v>1.52</v>
@@ -8977,7 +8986,7 @@
         <v>1</v>
       </c>
       <c r="AT41">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AU41">
         <v>1.68</v>
@@ -9269,7 +9278,7 @@
         <v>107</v>
       </c>
       <c r="P43" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q43">
         <v>5</v>
@@ -9460,7 +9469,7 @@
         <v>99</v>
       </c>
       <c r="P44" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q44">
         <v>5</v>
@@ -9842,7 +9851,7 @@
         <v>109</v>
       </c>
       <c r="P46" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q46">
         <v>3</v>
@@ -10224,7 +10233,7 @@
         <v>110</v>
       </c>
       <c r="P48" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q48">
         <v>9</v>
@@ -10415,7 +10424,7 @@
         <v>111</v>
       </c>
       <c r="P49" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q49">
         <v>3</v>
@@ -10606,7 +10615,7 @@
         <v>112</v>
       </c>
       <c r="P50" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q50">
         <v>4</v>
@@ -10797,7 +10806,7 @@
         <v>113</v>
       </c>
       <c r="P51" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q51">
         <v>2</v>
@@ -11075,7 +11084,7 @@
         <v>1.67</v>
       </c>
       <c r="AS52">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AT52">
         <v>0.55</v>
@@ -11179,7 +11188,7 @@
         <v>115</v>
       </c>
       <c r="P53" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q53">
         <v>8</v>
@@ -11269,7 +11278,7 @@
         <v>1.91</v>
       </c>
       <c r="AT53">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AU53">
         <v>1.79</v>
@@ -11370,7 +11379,7 @@
         <v>116</v>
       </c>
       <c r="P54" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q54">
         <v>3</v>
@@ -11457,10 +11466,10 @@
         <v>2.33</v>
       </c>
       <c r="AS54">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AT54">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="AU54">
         <v>1.05</v>
@@ -12033,7 +12042,7 @@
         <v>2</v>
       </c>
       <c r="AT57">
-        <v>0.5</v>
+        <v>0.55</v>
       </c>
       <c r="AU57">
         <v>1.43</v>
@@ -12134,7 +12143,7 @@
         <v>120</v>
       </c>
       <c r="P58" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q58">
         <v>3</v>
@@ -12224,7 +12233,7 @@
         <v>1.56</v>
       </c>
       <c r="AT58">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AU58">
         <v>1.74</v>
@@ -12516,7 +12525,7 @@
         <v>121</v>
       </c>
       <c r="P60" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q60">
         <v>3</v>
@@ -12603,7 +12612,7 @@
         <v>1</v>
       </c>
       <c r="AS60">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AT60">
         <v>1.3</v>
@@ -12707,7 +12716,7 @@
         <v>122</v>
       </c>
       <c r="P61" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q61">
         <v>6</v>
@@ -12797,7 +12806,7 @@
         <v>1.36</v>
       </c>
       <c r="AT61">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AU61">
         <v>1.29</v>
@@ -12898,7 +12907,7 @@
         <v>123</v>
       </c>
       <c r="P62" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q62">
         <v>2</v>
@@ -13280,7 +13289,7 @@
         <v>125</v>
       </c>
       <c r="P64" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q64">
         <v>1</v>
@@ -13471,7 +13480,7 @@
         <v>82</v>
       </c>
       <c r="P65" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q65">
         <v>1</v>
@@ -13558,10 +13567,10 @@
         <v>2.5</v>
       </c>
       <c r="AS65">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT65">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="AU65">
         <v>1.25</v>
@@ -13662,7 +13671,7 @@
         <v>126</v>
       </c>
       <c r="P66" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q66">
         <v>4</v>
@@ -13853,7 +13862,7 @@
         <v>127</v>
       </c>
       <c r="P67" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q67">
         <v>7</v>
@@ -14235,7 +14244,7 @@
         <v>82</v>
       </c>
       <c r="P69" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q69">
         <v>6</v>
@@ -14513,7 +14522,7 @@
         <v>0.5</v>
       </c>
       <c r="AS70">
-        <v>2.56</v>
+        <v>2.3</v>
       </c>
       <c r="AT70">
         <v>0.2</v>
@@ -14617,7 +14626,7 @@
         <v>129</v>
       </c>
       <c r="P71" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q71">
         <v>7</v>
@@ -14895,7 +14904,7 @@
         <v>1.67</v>
       </c>
       <c r="AS72">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT72">
         <v>1.4</v>
@@ -14999,7 +15008,7 @@
         <v>131</v>
       </c>
       <c r="P73" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q73">
         <v>7</v>
@@ -15280,7 +15289,7 @@
         <v>1.91</v>
       </c>
       <c r="AT74">
-        <v>0.5</v>
+        <v>0.55</v>
       </c>
       <c r="AU74">
         <v>1.75</v>
@@ -15381,7 +15390,7 @@
         <v>133</v>
       </c>
       <c r="P75" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q75">
         <v>10</v>
@@ -15572,7 +15581,7 @@
         <v>134</v>
       </c>
       <c r="P76" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q76">
         <v>3</v>
@@ -15659,7 +15668,7 @@
         <v>1.25</v>
       </c>
       <c r="AS76">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AT76">
         <v>1</v>
@@ -15850,7 +15859,7 @@
         <v>0.67</v>
       </c>
       <c r="AS77">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AT77">
         <v>1.09</v>
@@ -15954,7 +15963,7 @@
         <v>103</v>
       </c>
       <c r="P78" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q78">
         <v>7</v>
@@ -16336,7 +16345,7 @@
         <v>135</v>
       </c>
       <c r="P80" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q80">
         <v>3</v>
@@ -16527,7 +16536,7 @@
         <v>82</v>
       </c>
       <c r="P81" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q81">
         <v>4</v>
@@ -16617,7 +16626,7 @@
         <v>1.6</v>
       </c>
       <c r="AT81">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="AU81">
         <v>1.53</v>
@@ -16805,7 +16814,7 @@
         <v>0.33</v>
       </c>
       <c r="AS82">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AT82">
         <v>0.2</v>
@@ -16909,7 +16918,7 @@
         <v>137</v>
       </c>
       <c r="P83" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q83">
         <v>12</v>
@@ -16999,7 +17008,7 @@
         <v>2</v>
       </c>
       <c r="AT83">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AU83">
         <v>1.68</v>
@@ -17190,7 +17199,7 @@
         <v>2.3</v>
       </c>
       <c r="AT84">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AU84">
         <v>1.93</v>
@@ -17378,7 +17387,7 @@
         <v>0</v>
       </c>
       <c r="AS85">
-        <v>2.56</v>
+        <v>2.3</v>
       </c>
       <c r="AT85">
         <v>0.3</v>
@@ -17482,7 +17491,7 @@
         <v>139</v>
       </c>
       <c r="P86" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q86">
         <v>2</v>
@@ -17673,7 +17682,7 @@
         <v>82</v>
       </c>
       <c r="P87" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q87">
         <v>1</v>
@@ -18055,7 +18064,7 @@
         <v>140</v>
       </c>
       <c r="P89" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q89">
         <v>6</v>
@@ -18246,7 +18255,7 @@
         <v>82</v>
       </c>
       <c r="P90" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q90">
         <v>3</v>
@@ -18333,7 +18342,7 @@
         <v>2</v>
       </c>
       <c r="AS90">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AT90">
         <v>1.7</v>
@@ -18437,7 +18446,7 @@
         <v>141</v>
       </c>
       <c r="P91" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q91">
         <v>5</v>
@@ -18819,7 +18828,7 @@
         <v>142</v>
       </c>
       <c r="P93" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q93">
         <v>3</v>
@@ -19100,7 +19109,7 @@
         <v>2.3</v>
       </c>
       <c r="AT94">
-        <v>0.5</v>
+        <v>0.55</v>
       </c>
       <c r="AU94">
         <v>1.8</v>
@@ -19392,7 +19401,7 @@
         <v>144</v>
       </c>
       <c r="P96" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q96">
         <v>7</v>
@@ -19479,7 +19488,7 @@
         <v>1</v>
       </c>
       <c r="AS96">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT96">
         <v>1.33</v>
@@ -19583,7 +19592,7 @@
         <v>145</v>
       </c>
       <c r="P97" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q97">
         <v>1</v>
@@ -20052,7 +20061,7 @@
         <v>0.83</v>
       </c>
       <c r="AS99">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AT99">
         <v>0.55</v>
@@ -20156,7 +20165,7 @@
         <v>147</v>
       </c>
       <c r="P100" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q100">
         <v>5</v>
@@ -20437,7 +20446,7 @@
         <v>1.8</v>
       </c>
       <c r="AT101">
-        <v>0.5</v>
+        <v>0.55</v>
       </c>
       <c r="AU101">
         <v>1.53</v>
@@ -20729,7 +20738,7 @@
         <v>82</v>
       </c>
       <c r="P103" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q103">
         <v>1</v>
@@ -20819,7 +20828,7 @@
         <v>1</v>
       </c>
       <c r="AT103">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AU103">
         <v>1.27</v>
@@ -20920,7 +20929,7 @@
         <v>149</v>
       </c>
       <c r="P104" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q104">
         <v>4</v>
@@ -21007,10 +21016,10 @@
         <v>1.67</v>
       </c>
       <c r="AS104">
-        <v>2.56</v>
+        <v>2.3</v>
       </c>
       <c r="AT104">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AU104">
         <v>2.05</v>
@@ -21111,7 +21120,7 @@
         <v>108</v>
       </c>
       <c r="P105" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q105">
         <v>2</v>
@@ -21201,7 +21210,7 @@
         <v>2</v>
       </c>
       <c r="AT105">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="AU105">
         <v>1.81</v>
@@ -21302,7 +21311,7 @@
         <v>123</v>
       </c>
       <c r="P106" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q106">
         <v>2</v>
@@ -21493,7 +21502,7 @@
         <v>150</v>
       </c>
       <c r="P107" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q107">
         <v>6</v>
@@ -21875,7 +21884,7 @@
         <v>152</v>
       </c>
       <c r="P109" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q109">
         <v>17</v>
@@ -22066,7 +22075,7 @@
         <v>153</v>
       </c>
       <c r="P110" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q110">
         <v>1</v>
@@ -22257,7 +22266,7 @@
         <v>154</v>
       </c>
       <c r="P111" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q111">
         <v>3</v>
@@ -22344,10 +22353,10 @@
         <v>2.71</v>
       </c>
       <c r="AS111">
-        <v>2.56</v>
+        <v>2.3</v>
       </c>
       <c r="AT111">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="AU111">
         <v>1.93</v>
@@ -22639,7 +22648,7 @@
         <v>155</v>
       </c>
       <c r="P113" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q113">
         <v>5</v>
@@ -22830,7 +22839,7 @@
         <v>156</v>
       </c>
       <c r="P114" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q114">
         <v>14</v>
@@ -22920,7 +22929,7 @@
         <v>1.6</v>
       </c>
       <c r="AT114">
-        <v>0.5</v>
+        <v>0.55</v>
       </c>
       <c r="AU114">
         <v>1.25</v>
@@ -23299,10 +23308,10 @@
         <v>2</v>
       </c>
       <c r="AS116">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT116">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AU116">
         <v>1.22</v>
@@ -23490,7 +23499,7 @@
         <v>1.33</v>
       </c>
       <c r="AS117">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AT117">
         <v>1.33</v>
@@ -23681,7 +23690,7 @@
         <v>2.17</v>
       </c>
       <c r="AS118">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AT118">
         <v>1.7</v>
@@ -23875,7 +23884,7 @@
         <v>1.56</v>
       </c>
       <c r="AT119">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AU119">
         <v>1.67</v>
@@ -23976,7 +23985,7 @@
         <v>160</v>
       </c>
       <c r="P120" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q120">
         <v>7</v>
@@ -24445,7 +24454,7 @@
         <v>2.29</v>
       </c>
       <c r="AS122">
-        <v>2.56</v>
+        <v>2.3</v>
       </c>
       <c r="AT122">
         <v>1.7</v>
@@ -24740,7 +24749,7 @@
         <v>164</v>
       </c>
       <c r="P124" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q124">
         <v>9</v>
@@ -25018,7 +25027,7 @@
         <v>0.17</v>
       </c>
       <c r="AS125">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AT125">
         <v>0.2</v>
@@ -25313,7 +25322,7 @@
         <v>167</v>
       </c>
       <c r="P127" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q127">
         <v>1</v>
@@ -25400,7 +25409,7 @@
         <v>1.29</v>
       </c>
       <c r="AS127">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT127">
         <v>1</v>
@@ -25504,7 +25513,7 @@
         <v>168</v>
       </c>
       <c r="P128" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q128">
         <v>1</v>
@@ -25695,7 +25704,7 @@
         <v>169</v>
       </c>
       <c r="P129" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q129">
         <v>6</v>
@@ -25886,7 +25895,7 @@
         <v>95</v>
       </c>
       <c r="P130" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q130">
         <v>2</v>
@@ -25976,7 +25985,7 @@
         <v>1</v>
       </c>
       <c r="AT130">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="AU130">
         <v>1.18</v>
@@ -26167,7 +26176,7 @@
         <v>1.2</v>
       </c>
       <c r="AT131">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AU131">
         <v>1.24</v>
@@ -26268,7 +26277,7 @@
         <v>156</v>
       </c>
       <c r="P132" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q132">
         <v>4</v>
@@ -26459,7 +26468,7 @@
         <v>170</v>
       </c>
       <c r="P133" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q133">
         <v>6</v>
@@ -26546,7 +26555,7 @@
         <v>1.75</v>
       </c>
       <c r="AS133">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AT133">
         <v>1.4</v>
@@ -26841,7 +26850,7 @@
         <v>172</v>
       </c>
       <c r="P135" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q135">
         <v>4</v>
@@ -26931,7 +26940,7 @@
         <v>1.36</v>
       </c>
       <c r="AT135">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AU135">
         <v>1.43</v>
@@ -27032,7 +27041,7 @@
         <v>173</v>
       </c>
       <c r="P136" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q136">
         <v>7</v>
@@ -27310,7 +27319,7 @@
         <v>0.63</v>
       </c>
       <c r="AS137">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AT137">
         <v>0.5</v>
@@ -27605,7 +27614,7 @@
         <v>176</v>
       </c>
       <c r="P139" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q139">
         <v>10</v>
@@ -27695,7 +27704,7 @@
         <v>1.4</v>
       </c>
       <c r="AT139">
-        <v>0.5</v>
+        <v>0.55</v>
       </c>
       <c r="AU139">
         <v>1.07</v>
@@ -27796,7 +27805,7 @@
         <v>177</v>
       </c>
       <c r="P140" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q140">
         <v>11</v>
@@ -28456,7 +28465,7 @@
         <v>1.2</v>
       </c>
       <c r="AS143">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AT143">
         <v>1.09</v>
@@ -29133,7 +29142,7 @@
         <v>184</v>
       </c>
       <c r="P147" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q147">
         <v>7</v>
@@ -29324,7 +29333,7 @@
         <v>82</v>
       </c>
       <c r="P148" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q148">
         <v>3</v>
@@ -29414,7 +29423,7 @@
         <v>1.8</v>
       </c>
       <c r="AT148">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="AU148">
         <v>1.51</v>
@@ -29515,7 +29524,7 @@
         <v>185</v>
       </c>
       <c r="P149" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q149">
         <v>6</v>
@@ -29602,7 +29611,7 @@
         <v>0.33</v>
       </c>
       <c r="AS149">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT149">
         <v>0.3</v>
@@ -29796,7 +29805,7 @@
         <v>1.6</v>
       </c>
       <c r="AT150">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AU150">
         <v>1.44</v>
@@ -29897,7 +29906,7 @@
         <v>186</v>
       </c>
       <c r="P151" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q151">
         <v>2</v>
@@ -30175,7 +30184,7 @@
         <v>1.13</v>
       </c>
       <c r="AS152">
-        <v>2.56</v>
+        <v>2.3</v>
       </c>
       <c r="AT152">
         <v>1</v>
@@ -30748,7 +30757,7 @@
         <v>1.6</v>
       </c>
       <c r="AS155">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AT155">
         <v>1.45</v>
@@ -30852,7 +30861,7 @@
         <v>190</v>
       </c>
       <c r="P156" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q156">
         <v>4</v>
@@ -30939,7 +30948,7 @@
         <v>0.6</v>
       </c>
       <c r="AS156">
-        <v>2.56</v>
+        <v>2.3</v>
       </c>
       <c r="AT156">
         <v>0.55</v>
@@ -31234,7 +31243,7 @@
         <v>130</v>
       </c>
       <c r="P158" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q158">
         <v>1</v>
@@ -31324,7 +31333,7 @@
         <v>1.6</v>
       </c>
       <c r="AT158">
-        <v>0.5</v>
+        <v>0.55</v>
       </c>
       <c r="AU158">
         <v>1.55</v>
@@ -31425,7 +31434,7 @@
         <v>192</v>
       </c>
       <c r="P159" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q159">
         <v>2</v>
@@ -31512,10 +31521,10 @@
         <v>1.5</v>
       </c>
       <c r="AS159">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AT159">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AU159">
         <v>1.56</v>
@@ -31949,6 +31958,770 @@
       </c>
       <c r="BK161">
         <v>4</v>
+      </c>
+    </row>
+    <row r="162" spans="1:63">
+      <c r="A162" s="1">
+        <v>161</v>
+      </c>
+      <c r="B162">
+        <v>5845603</v>
+      </c>
+      <c r="C162" t="s">
+        <v>63</v>
+      </c>
+      <c r="D162" t="s">
+        <v>64</v>
+      </c>
+      <c r="E162" s="2">
+        <v>45146.35763888889</v>
+      </c>
+      <c r="F162">
+        <v>21</v>
+      </c>
+      <c r="G162" t="s">
+        <v>73</v>
+      </c>
+      <c r="H162" t="s">
+        <v>77</v>
+      </c>
+      <c r="I162">
+        <v>2</v>
+      </c>
+      <c r="J162">
+        <v>1</v>
+      </c>
+      <c r="K162">
+        <v>3</v>
+      </c>
+      <c r="L162">
+        <v>4</v>
+      </c>
+      <c r="M162">
+        <v>2</v>
+      </c>
+      <c r="N162">
+        <v>6</v>
+      </c>
+      <c r="O162" t="s">
+        <v>195</v>
+      </c>
+      <c r="P162" t="s">
+        <v>274</v>
+      </c>
+      <c r="Q162">
+        <v>3</v>
+      </c>
+      <c r="R162">
+        <v>0</v>
+      </c>
+      <c r="S162">
+        <v>3</v>
+      </c>
+      <c r="T162">
+        <v>2.8</v>
+      </c>
+      <c r="U162">
+        <v>2.3</v>
+      </c>
+      <c r="V162">
+        <v>3.2</v>
+      </c>
+      <c r="W162">
+        <v>1.28</v>
+      </c>
+      <c r="X162">
+        <v>3.2</v>
+      </c>
+      <c r="Y162">
+        <v>2.38</v>
+      </c>
+      <c r="Z162">
+        <v>1.53</v>
+      </c>
+      <c r="AA162">
+        <v>5.75</v>
+      </c>
+      <c r="AB162">
+        <v>1.11</v>
+      </c>
+      <c r="AC162">
+        <v>2.23</v>
+      </c>
+      <c r="AD162">
+        <v>3.64</v>
+      </c>
+      <c r="AE162">
+        <v>2.99</v>
+      </c>
+      <c r="AF162">
+        <v>1.03</v>
+      </c>
+      <c r="AG162">
+        <v>16</v>
+      </c>
+      <c r="AH162">
+        <v>1.2</v>
+      </c>
+      <c r="AI162">
+        <v>4</v>
+      </c>
+      <c r="AJ162">
+        <v>1.71</v>
+      </c>
+      <c r="AK162">
+        <v>2.14</v>
+      </c>
+      <c r="AL162">
+        <v>1.53</v>
+      </c>
+      <c r="AM162">
+        <v>2.38</v>
+      </c>
+      <c r="AN162">
+        <v>1.46</v>
+      </c>
+      <c r="AO162">
+        <v>1.28</v>
+      </c>
+      <c r="AP162">
+        <v>1.55</v>
+      </c>
+      <c r="AQ162">
+        <v>1.44</v>
+      </c>
+      <c r="AR162">
+        <v>1.2</v>
+      </c>
+      <c r="AS162">
+        <v>1.6</v>
+      </c>
+      <c r="AT162">
+        <v>1.09</v>
+      </c>
+      <c r="AU162">
+        <v>1.2</v>
+      </c>
+      <c r="AV162">
+        <v>1.3</v>
+      </c>
+      <c r="AW162">
+        <v>2.5</v>
+      </c>
+      <c r="AX162">
+        <v>1.68</v>
+      </c>
+      <c r="AY162">
+        <v>5.5</v>
+      </c>
+      <c r="AZ162">
+        <v>2.45</v>
+      </c>
+      <c r="BA162">
+        <v>1.29</v>
+      </c>
+      <c r="BB162">
+        <v>1.63</v>
+      </c>
+      <c r="BC162">
+        <v>2</v>
+      </c>
+      <c r="BD162">
+        <v>2.5</v>
+      </c>
+      <c r="BE162">
+        <v>3.48</v>
+      </c>
+      <c r="BF162">
+        <v>9</v>
+      </c>
+      <c r="BG162">
+        <v>5</v>
+      </c>
+      <c r="BH162">
+        <v>9</v>
+      </c>
+      <c r="BI162">
+        <v>2</v>
+      </c>
+      <c r="BJ162">
+        <v>18</v>
+      </c>
+      <c r="BK162">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="163" spans="1:63">
+      <c r="A163" s="1">
+        <v>162</v>
+      </c>
+      <c r="B163">
+        <v>5845604</v>
+      </c>
+      <c r="C163" t="s">
+        <v>63</v>
+      </c>
+      <c r="D163" t="s">
+        <v>64</v>
+      </c>
+      <c r="E163" s="2">
+        <v>45146.35763888889</v>
+      </c>
+      <c r="F163">
+        <v>21</v>
+      </c>
+      <c r="G163" t="s">
+        <v>78</v>
+      </c>
+      <c r="H163" t="s">
+        <v>76</v>
+      </c>
+      <c r="I163">
+        <v>0</v>
+      </c>
+      <c r="J163">
+        <v>1</v>
+      </c>
+      <c r="K163">
+        <v>1</v>
+      </c>
+      <c r="L163">
+        <v>0</v>
+      </c>
+      <c r="M163">
+        <v>5</v>
+      </c>
+      <c r="N163">
+        <v>5</v>
+      </c>
+      <c r="O163" t="s">
+        <v>82</v>
+      </c>
+      <c r="P163" t="s">
+        <v>275</v>
+      </c>
+      <c r="Q163">
+        <v>3</v>
+      </c>
+      <c r="R163">
+        <v>1</v>
+      </c>
+      <c r="S163">
+        <v>4</v>
+      </c>
+      <c r="T163">
+        <v>5.75</v>
+      </c>
+      <c r="U163">
+        <v>2.4</v>
+      </c>
+      <c r="V163">
+        <v>1.9</v>
+      </c>
+      <c r="W163">
+        <v>1.3</v>
+      </c>
+      <c r="X163">
+        <v>3.3</v>
+      </c>
+      <c r="Y163">
+        <v>2.35</v>
+      </c>
+      <c r="Z163">
+        <v>1.52</v>
+      </c>
+      <c r="AA163">
+        <v>5.75</v>
+      </c>
+      <c r="AB163">
+        <v>1.13</v>
+      </c>
+      <c r="AC163">
+        <v>6.75</v>
+      </c>
+      <c r="AD163">
+        <v>4.65</v>
+      </c>
+      <c r="AE163">
+        <v>1.44</v>
+      </c>
+      <c r="AF163">
+        <v>1.02</v>
+      </c>
+      <c r="AG163">
+        <v>17.25</v>
+      </c>
+      <c r="AH163">
+        <v>1.2</v>
+      </c>
+      <c r="AI163">
+        <v>4</v>
+      </c>
+      <c r="AJ163">
+        <v>1.61</v>
+      </c>
+      <c r="AK163">
+        <v>2.33</v>
+      </c>
+      <c r="AL163">
+        <v>1.74</v>
+      </c>
+      <c r="AM163">
+        <v>1.9</v>
+      </c>
+      <c r="AN163">
+        <v>2.7</v>
+      </c>
+      <c r="AO163">
+        <v>1.18</v>
+      </c>
+      <c r="AP163">
+        <v>1.11</v>
+      </c>
+      <c r="AQ163">
+        <v>1.7</v>
+      </c>
+      <c r="AR163">
+        <v>2.6</v>
+      </c>
+      <c r="AS163">
+        <v>1.55</v>
+      </c>
+      <c r="AT163">
+        <v>2.64</v>
+      </c>
+      <c r="AU163">
+        <v>1.55</v>
+      </c>
+      <c r="AV163">
+        <v>1.54</v>
+      </c>
+      <c r="AW163">
+        <v>3.09</v>
+      </c>
+      <c r="AX163">
+        <v>7</v>
+      </c>
+      <c r="AY163">
+        <v>9</v>
+      </c>
+      <c r="AZ163">
+        <v>1.12</v>
+      </c>
+      <c r="BA163">
+        <v>1.18</v>
+      </c>
+      <c r="BB163">
+        <v>1.54</v>
+      </c>
+      <c r="BC163">
+        <v>1.7</v>
+      </c>
+      <c r="BD163">
+        <v>2.08</v>
+      </c>
+      <c r="BE163">
+        <v>2.72</v>
+      </c>
+      <c r="BF163">
+        <v>6</v>
+      </c>
+      <c r="BG163">
+        <v>5</v>
+      </c>
+      <c r="BH163">
+        <v>8</v>
+      </c>
+      <c r="BI163">
+        <v>6</v>
+      </c>
+      <c r="BJ163">
+        <v>14</v>
+      </c>
+      <c r="BK163">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="164" spans="1:63">
+      <c r="A164" s="1">
+        <v>163</v>
+      </c>
+      <c r="B164">
+        <v>5845601</v>
+      </c>
+      <c r="C164" t="s">
+        <v>63</v>
+      </c>
+      <c r="D164" t="s">
+        <v>64</v>
+      </c>
+      <c r="E164" s="2">
+        <v>45146.35763888889</v>
+      </c>
+      <c r="F164">
+        <v>21</v>
+      </c>
+      <c r="G164" t="s">
+        <v>67</v>
+      </c>
+      <c r="H164" t="s">
+        <v>80</v>
+      </c>
+      <c r="I164">
+        <v>1</v>
+      </c>
+      <c r="J164">
+        <v>1</v>
+      </c>
+      <c r="K164">
+        <v>2</v>
+      </c>
+      <c r="L164">
+        <v>1</v>
+      </c>
+      <c r="M164">
+        <v>1</v>
+      </c>
+      <c r="N164">
+        <v>2</v>
+      </c>
+      <c r="O164" t="s">
+        <v>124</v>
+      </c>
+      <c r="P164" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q164">
+        <v>7</v>
+      </c>
+      <c r="R164">
+        <v>7</v>
+      </c>
+      <c r="S164">
+        <v>14</v>
+      </c>
+      <c r="T164">
+        <v>2.25</v>
+      </c>
+      <c r="U164">
+        <v>2.38</v>
+      </c>
+      <c r="V164">
+        <v>4.75</v>
+      </c>
+      <c r="W164">
+        <v>1.34</v>
+      </c>
+      <c r="X164">
+        <v>3.2</v>
+      </c>
+      <c r="Y164">
+        <v>2.72</v>
+      </c>
+      <c r="Z164">
+        <v>1.45</v>
+      </c>
+      <c r="AA164">
+        <v>5.75</v>
+      </c>
+      <c r="AB164">
+        <v>1.06</v>
+      </c>
+      <c r="AC164">
+        <v>1.61</v>
+      </c>
+      <c r="AD164">
+        <v>4.1</v>
+      </c>
+      <c r="AE164">
+        <v>5.2</v>
+      </c>
+      <c r="AF164">
+        <v>1.01</v>
+      </c>
+      <c r="AG164">
+        <v>12</v>
+      </c>
+      <c r="AH164">
+        <v>1.2</v>
+      </c>
+      <c r="AI164">
+        <v>3.75</v>
+      </c>
+      <c r="AJ164">
+        <v>1.87</v>
+      </c>
+      <c r="AK164">
+        <v>1.95</v>
+      </c>
+      <c r="AL164">
+        <v>1.8</v>
+      </c>
+      <c r="AM164">
+        <v>1.91</v>
+      </c>
+      <c r="AN164">
+        <v>1.2</v>
+      </c>
+      <c r="AO164">
+        <v>1.22</v>
+      </c>
+      <c r="AP164">
+        <v>2.05</v>
+      </c>
+      <c r="AQ164">
+        <v>1.8</v>
+      </c>
+      <c r="AR164">
+        <v>0.5</v>
+      </c>
+      <c r="AS164">
+        <v>1.73</v>
+      </c>
+      <c r="AT164">
+        <v>0.55</v>
+      </c>
+      <c r="AU164">
+        <v>1.33</v>
+      </c>
+      <c r="AV164">
+        <v>1.1</v>
+      </c>
+      <c r="AW164">
+        <v>2.43</v>
+      </c>
+      <c r="AX164">
+        <v>1.33</v>
+      </c>
+      <c r="AY164">
+        <v>6.5</v>
+      </c>
+      <c r="AZ164">
+        <v>3.75</v>
+      </c>
+      <c r="BA164">
+        <v>1.24</v>
+      </c>
+      <c r="BB164">
+        <v>1.53</v>
+      </c>
+      <c r="BC164">
+        <v>1.85</v>
+      </c>
+      <c r="BD164">
+        <v>2.28</v>
+      </c>
+      <c r="BE164">
+        <v>3.08</v>
+      </c>
+      <c r="BF164">
+        <v>9</v>
+      </c>
+      <c r="BG164">
+        <v>7</v>
+      </c>
+      <c r="BH164">
+        <v>8</v>
+      </c>
+      <c r="BI164">
+        <v>3</v>
+      </c>
+      <c r="BJ164">
+        <v>17</v>
+      </c>
+      <c r="BK164">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="165" spans="1:63">
+      <c r="A165" s="1">
+        <v>164</v>
+      </c>
+      <c r="B165">
+        <v>5845484</v>
+      </c>
+      <c r="C165" t="s">
+        <v>63</v>
+      </c>
+      <c r="D165" t="s">
+        <v>64</v>
+      </c>
+      <c r="E165" s="2">
+        <v>45146.35763888889</v>
+      </c>
+      <c r="F165">
+        <v>21</v>
+      </c>
+      <c r="G165" t="s">
+        <v>74</v>
+      </c>
+      <c r="H165" t="s">
+        <v>75</v>
+      </c>
+      <c r="I165">
+        <v>0</v>
+      </c>
+      <c r="J165">
+        <v>1</v>
+      </c>
+      <c r="K165">
+        <v>1</v>
+      </c>
+      <c r="L165">
+        <v>0</v>
+      </c>
+      <c r="M165">
+        <v>1</v>
+      </c>
+      <c r="N165">
+        <v>1</v>
+      </c>
+      <c r="O165" t="s">
+        <v>82</v>
+      </c>
+      <c r="P165" t="s">
+        <v>266</v>
+      </c>
+      <c r="Q165">
+        <v>5</v>
+      </c>
+      <c r="R165">
+        <v>6</v>
+      </c>
+      <c r="S165">
+        <v>11</v>
+      </c>
+      <c r="T165">
+        <v>3.1</v>
+      </c>
+      <c r="U165">
+        <v>2.05</v>
+      </c>
+      <c r="V165">
+        <v>3.6</v>
+      </c>
+      <c r="W165">
+        <v>1.44</v>
+      </c>
+      <c r="X165">
+        <v>2.63</v>
+      </c>
+      <c r="Y165">
+        <v>3.25</v>
+      </c>
+      <c r="Z165">
+        <v>1.33</v>
+      </c>
+      <c r="AA165">
+        <v>10</v>
+      </c>
+      <c r="AB165">
+        <v>1.06</v>
+      </c>
+      <c r="AC165">
+        <v>2.45</v>
+      </c>
+      <c r="AD165">
+        <v>3.2</v>
+      </c>
+      <c r="AE165">
+        <v>3.1</v>
+      </c>
+      <c r="AF165">
+        <v>0</v>
+      </c>
+      <c r="AG165">
+        <v>0</v>
+      </c>
+      <c r="AH165">
+        <v>0</v>
+      </c>
+      <c r="AI165">
+        <v>0</v>
+      </c>
+      <c r="AJ165">
+        <v>2.15</v>
+      </c>
+      <c r="AK165">
+        <v>1.67</v>
+      </c>
+      <c r="AL165">
+        <v>1.91</v>
+      </c>
+      <c r="AM165">
+        <v>1.91</v>
+      </c>
+      <c r="AN165">
+        <v>0</v>
+      </c>
+      <c r="AO165">
+        <v>0</v>
+      </c>
+      <c r="AP165">
+        <v>0</v>
+      </c>
+      <c r="AQ165">
+        <v>2.56</v>
+      </c>
+      <c r="AR165">
+        <v>1.33</v>
+      </c>
+      <c r="AS165">
+        <v>2.3</v>
+      </c>
+      <c r="AT165">
+        <v>1.5</v>
+      </c>
+      <c r="AU165">
+        <v>1.71</v>
+      </c>
+      <c r="AV165">
+        <v>1.36</v>
+      </c>
+      <c r="AW165">
+        <v>3.07</v>
+      </c>
+      <c r="AX165">
+        <v>0</v>
+      </c>
+      <c r="AY165">
+        <v>0</v>
+      </c>
+      <c r="AZ165">
+        <v>0</v>
+      </c>
+      <c r="BA165">
+        <v>0</v>
+      </c>
+      <c r="BB165">
+        <v>0</v>
+      </c>
+      <c r="BC165">
+        <v>0</v>
+      </c>
+      <c r="BD165">
+        <v>0</v>
+      </c>
+      <c r="BE165">
+        <v>0</v>
+      </c>
+      <c r="BF165">
+        <v>7</v>
+      </c>
+      <c r="BG165">
+        <v>5</v>
+      </c>
+      <c r="BH165">
+        <v>8</v>
+      </c>
+      <c r="BI165">
+        <v>5</v>
+      </c>
+      <c r="BJ165">
+        <v>15</v>
+      </c>
+      <c r="BK165">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/China Chinese Super League_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/China Chinese Super League_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1047" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1119" uniqueCount="289">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -604,6 +604,27 @@
     <t>['1', '40', '78', '90+3']</t>
   </si>
   <si>
+    <t>['12', '56', '78', '85']</t>
+  </si>
+  <si>
+    <t>['28', '45+2', '90+2']</t>
+  </si>
+  <si>
+    <t>['45+1', '77']</t>
+  </si>
+  <si>
+    <t>['2']</t>
+  </si>
+  <si>
+    <t>['4', '45+4', '55']</t>
+  </si>
+  <si>
+    <t>['68', '81', '87', '89']</t>
+  </si>
+  <si>
+    <t>['29', '69']</t>
+  </si>
+  <si>
     <t>['64', '79']</t>
   </si>
   <si>
@@ -842,6 +863,24 @@
   </si>
   <si>
     <t>['23', '66', '71', '87', '90+1']</t>
+  </si>
+  <si>
+    <t>['54', '64']</t>
+  </si>
+  <si>
+    <t>['86']</t>
+  </si>
+  <si>
+    <t>['42', '57', '64', '90+7']</t>
+  </si>
+  <si>
+    <t>['37', '57']</t>
+  </si>
+  <si>
+    <t>['39']</t>
+  </si>
+  <si>
+    <t>['60']</t>
   </si>
 </sst>
 </file>
@@ -1203,7 +1242,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK165"/>
+  <dimension ref="A1:BK177"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1534,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="AS2">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AT2">
         <v>0.55</v>
@@ -1638,7 +1677,7 @@
         <v>82</v>
       </c>
       <c r="P3" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="Q3">
         <v>5</v>
@@ -1725,7 +1764,7 @@
         <v>0</v>
       </c>
       <c r="AS3">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="AT3">
         <v>2.64</v>
@@ -1829,7 +1868,7 @@
         <v>82</v>
       </c>
       <c r="P4" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="Q4">
         <v>9</v>
@@ -2020,7 +2059,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="Q5">
         <v>8</v>
@@ -2211,7 +2250,7 @@
         <v>84</v>
       </c>
       <c r="P6" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="Q6">
         <v>2</v>
@@ -2298,10 +2337,10 @@
         <v>0</v>
       </c>
       <c r="AS6">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AT6">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AU6">
         <v>0</v>
@@ -2402,7 +2441,7 @@
         <v>85</v>
       </c>
       <c r="P7" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="Q7">
         <v>7</v>
@@ -2489,10 +2528,10 @@
         <v>0</v>
       </c>
       <c r="AS7">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AT7">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AU7">
         <v>0</v>
@@ -2680,7 +2719,7 @@
         <v>0</v>
       </c>
       <c r="AS8">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AT8">
         <v>1.09</v>
@@ -2784,7 +2823,7 @@
         <v>87</v>
       </c>
       <c r="P9" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="Q9">
         <v>4</v>
@@ -2874,7 +2913,7 @@
         <v>1</v>
       </c>
       <c r="AT9">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="AU9">
         <v>0</v>
@@ -2975,7 +3014,7 @@
         <v>88</v>
       </c>
       <c r="P10" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="Q10">
         <v>4</v>
@@ -3062,10 +3101,10 @@
         <v>0</v>
       </c>
       <c r="AS10">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="AT10">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AU10">
         <v>1.22</v>
@@ -3253,10 +3292,10 @@
         <v>0</v>
       </c>
       <c r="AS11">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AT11">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AU11">
         <v>1.76</v>
@@ -3357,7 +3396,7 @@
         <v>82</v>
       </c>
       <c r="P12" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="Q12">
         <v>7</v>
@@ -3444,10 +3483,10 @@
         <v>0</v>
       </c>
       <c r="AS12">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AT12">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AU12">
         <v>0</v>
@@ -3635,7 +3674,7 @@
         <v>0</v>
       </c>
       <c r="AS13">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AT13">
         <v>0.55</v>
@@ -3826,10 +3865,10 @@
         <v>0</v>
       </c>
       <c r="AS14">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AT14">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="AU14">
         <v>0.63</v>
@@ -4020,7 +4059,7 @@
         <v>1.91</v>
       </c>
       <c r="AT15">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AU15">
         <v>0</v>
@@ -4121,7 +4160,7 @@
         <v>92</v>
       </c>
       <c r="P16" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="Q16">
         <v>7</v>
@@ -4208,10 +4247,10 @@
         <v>0</v>
       </c>
       <c r="AS16">
-        <v>2.3</v>
+        <v>2.09</v>
       </c>
       <c r="AT16">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AU16">
         <v>0</v>
@@ -4312,7 +4351,7 @@
         <v>93</v>
       </c>
       <c r="P17" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="Q17">
         <v>3</v>
@@ -4399,10 +4438,10 @@
         <v>0</v>
       </c>
       <c r="AS17">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AT17">
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
       <c r="AU17">
         <v>0</v>
@@ -4590,10 +4629,10 @@
         <v>0</v>
       </c>
       <c r="AS18">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AT18">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AU18">
         <v>2.82</v>
@@ -4694,7 +4733,7 @@
         <v>95</v>
       </c>
       <c r="P19" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="Q19">
         <v>2</v>
@@ -4781,7 +4820,7 @@
         <v>0</v>
       </c>
       <c r="AS19">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AT19">
         <v>1.45</v>
@@ -4885,7 +4924,7 @@
         <v>96</v>
       </c>
       <c r="P20" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="Q20">
         <v>2</v>
@@ -4975,7 +5014,7 @@
         <v>1.55</v>
       </c>
       <c r="AT20">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AU20">
         <v>0</v>
@@ -5163,7 +5202,7 @@
         <v>3</v>
       </c>
       <c r="AS21">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AT21">
         <v>2.64</v>
@@ -5354,7 +5393,7 @@
         <v>3</v>
       </c>
       <c r="AS22">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AT22">
         <v>1.09</v>
@@ -5545,10 +5584,10 @@
         <v>1</v>
       </c>
       <c r="AS23">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AT23">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AU23">
         <v>1.2</v>
@@ -5649,7 +5688,7 @@
         <v>82</v>
       </c>
       <c r="P24" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="Q24">
         <v>9</v>
@@ -5739,7 +5778,7 @@
         <v>1</v>
       </c>
       <c r="AT24">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AU24">
         <v>0.62</v>
@@ -5927,10 +5966,10 @@
         <v>0</v>
       </c>
       <c r="AS25">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AT25">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AU25">
         <v>0</v>
@@ -6222,7 +6261,7 @@
         <v>82</v>
       </c>
       <c r="P27" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="Q27">
         <v>2</v>
@@ -6413,7 +6452,7 @@
         <v>82</v>
       </c>
       <c r="P28" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="Q28">
         <v>3</v>
@@ -6503,7 +6542,7 @@
         <v>1.73</v>
       </c>
       <c r="AT28">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AU28">
         <v>1.28</v>
@@ -6604,7 +6643,7 @@
         <v>83</v>
       </c>
       <c r="P29" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="Q29">
         <v>5</v>
@@ -6691,10 +6730,10 @@
         <v>3</v>
       </c>
       <c r="AS29">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AT29">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AU29">
         <v>1.36</v>
@@ -6795,7 +6834,7 @@
         <v>99</v>
       </c>
       <c r="P30" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="Q30">
         <v>11</v>
@@ -6885,7 +6924,7 @@
         <v>1</v>
       </c>
       <c r="AT30">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AU30">
         <v>0.9399999999999999</v>
@@ -7073,7 +7112,7 @@
         <v>0.5</v>
       </c>
       <c r="AS31">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AT31">
         <v>0.55</v>
@@ -7177,7 +7216,7 @@
         <v>101</v>
       </c>
       <c r="P32" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="Q32">
         <v>8</v>
@@ -7264,10 +7303,10 @@
         <v>3</v>
       </c>
       <c r="AS32">
-        <v>2.3</v>
+        <v>2.09</v>
       </c>
       <c r="AT32">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AU32">
         <v>1.62</v>
@@ -7368,7 +7407,7 @@
         <v>102</v>
       </c>
       <c r="P33" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="Q33">
         <v>7</v>
@@ -7455,7 +7494,7 @@
         <v>1</v>
       </c>
       <c r="AS33">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AT33">
         <v>0.55</v>
@@ -7646,10 +7685,10 @@
         <v>0.5</v>
       </c>
       <c r="AS34">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AT34">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AU34">
         <v>0.89</v>
@@ -7837,10 +7876,10 @@
         <v>0</v>
       </c>
       <c r="AS35">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AT35">
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
       <c r="AU35">
         <v>0.96</v>
@@ -8031,7 +8070,7 @@
         <v>1</v>
       </c>
       <c r="AT36">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AU36">
         <v>1.06</v>
@@ -8219,10 +8258,10 @@
         <v>0</v>
       </c>
       <c r="AS37">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="AT37">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AU37">
         <v>1.33</v>
@@ -8323,7 +8362,7 @@
         <v>104</v>
       </c>
       <c r="P38" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="Q38">
         <v>3</v>
@@ -8410,7 +8449,7 @@
         <v>0.5</v>
       </c>
       <c r="AS38">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AT38">
         <v>1.09</v>
@@ -8514,7 +8553,7 @@
         <v>105</v>
       </c>
       <c r="P39" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="Q39">
         <v>6</v>
@@ -8604,7 +8643,7 @@
         <v>1.91</v>
       </c>
       <c r="AT39">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="AU39">
         <v>1.33</v>
@@ -8792,7 +8831,7 @@
         <v>3</v>
       </c>
       <c r="AS40">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AT40">
         <v>2.64</v>
@@ -8983,7 +9022,7 @@
         <v>1.5</v>
       </c>
       <c r="AS41">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AT41">
         <v>1.09</v>
@@ -9174,7 +9213,7 @@
         <v>3</v>
       </c>
       <c r="AS42">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AT42">
         <v>1.45</v>
@@ -9278,7 +9317,7 @@
         <v>107</v>
       </c>
       <c r="P43" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="Q43">
         <v>5</v>
@@ -9365,10 +9404,10 @@
         <v>1.33</v>
       </c>
       <c r="AS43">
+        <v>1.36</v>
+      </c>
+      <c r="AT43">
         <v>1.2</v>
-      </c>
-      <c r="AT43">
-        <v>1.33</v>
       </c>
       <c r="AU43">
         <v>1.14</v>
@@ -9469,7 +9508,7 @@
         <v>99</v>
       </c>
       <c r="P44" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="Q44">
         <v>5</v>
@@ -9559,7 +9598,7 @@
         <v>1</v>
       </c>
       <c r="AT44">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AU44">
         <v>1.06</v>
@@ -9750,7 +9789,7 @@
         <v>2</v>
       </c>
       <c r="AT45">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AU45">
         <v>1.29</v>
@@ -9851,7 +9890,7 @@
         <v>109</v>
       </c>
       <c r="P46" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="Q46">
         <v>3</v>
@@ -9938,10 +9977,10 @@
         <v>0.33</v>
       </c>
       <c r="AS46">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AT46">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AU46">
         <v>2.21</v>
@@ -10129,10 +10168,10 @@
         <v>0.33</v>
       </c>
       <c r="AS47">
-        <v>2.3</v>
+        <v>2.09</v>
       </c>
       <c r="AT47">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="AU47">
         <v>1.61</v>
@@ -10233,7 +10272,7 @@
         <v>110</v>
       </c>
       <c r="P48" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="Q48">
         <v>9</v>
@@ -10424,7 +10463,7 @@
         <v>111</v>
       </c>
       <c r="P49" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="Q49">
         <v>3</v>
@@ -10511,7 +10550,7 @@
         <v>1</v>
       </c>
       <c r="AS49">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AT49">
         <v>0.55</v>
@@ -10615,7 +10654,7 @@
         <v>112</v>
       </c>
       <c r="P50" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="Q50">
         <v>4</v>
@@ -10702,7 +10741,7 @@
         <v>2.33</v>
       </c>
       <c r="AS50">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AT50">
         <v>1.45</v>
@@ -10806,7 +10845,7 @@
         <v>113</v>
       </c>
       <c r="P51" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="Q51">
         <v>2</v>
@@ -10896,7 +10935,7 @@
         <v>1</v>
       </c>
       <c r="AT51">
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
       <c r="AU51">
         <v>1.09</v>
@@ -11188,7 +11227,7 @@
         <v>115</v>
       </c>
       <c r="P53" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="Q53">
         <v>8</v>
@@ -11379,7 +11418,7 @@
         <v>116</v>
       </c>
       <c r="P54" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="Q54">
         <v>3</v>
@@ -11657,10 +11696,10 @@
         <v>0.5</v>
       </c>
       <c r="AS55">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AT55">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AU55">
         <v>1.45</v>
@@ -11848,7 +11887,7 @@
         <v>0.5</v>
       </c>
       <c r="AS56">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AT56">
         <v>1.09</v>
@@ -12143,7 +12182,7 @@
         <v>120</v>
       </c>
       <c r="P58" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="Q58">
         <v>3</v>
@@ -12230,10 +12269,10 @@
         <v>1.67</v>
       </c>
       <c r="AS58">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="AT58">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AU58">
         <v>1.74</v>
@@ -12421,10 +12460,10 @@
         <v>0</v>
       </c>
       <c r="AS59">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AT59">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AU59">
         <v>1.91</v>
@@ -12525,7 +12564,7 @@
         <v>121</v>
       </c>
       <c r="P60" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="Q60">
         <v>3</v>
@@ -12615,7 +12654,7 @@
         <v>1.55</v>
       </c>
       <c r="AT60">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AU60">
         <v>1.42</v>
@@ -12716,7 +12755,7 @@
         <v>122</v>
       </c>
       <c r="P61" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="Q61">
         <v>6</v>
@@ -12803,7 +12842,7 @@
         <v>1.75</v>
       </c>
       <c r="AS61">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AT61">
         <v>1.09</v>
@@ -12907,7 +12946,7 @@
         <v>123</v>
       </c>
       <c r="P62" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="Q62">
         <v>2</v>
@@ -12994,10 +13033,10 @@
         <v>1.33</v>
       </c>
       <c r="AS62">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AT62">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AU62">
         <v>1.38</v>
@@ -13185,10 +13224,10 @@
         <v>0</v>
       </c>
       <c r="AS63">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AT63">
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
       <c r="AU63">
         <v>1.07</v>
@@ -13289,7 +13328,7 @@
         <v>125</v>
       </c>
       <c r="P64" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="Q64">
         <v>1</v>
@@ -13376,7 +13415,7 @@
         <v>0.6</v>
       </c>
       <c r="AS64">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AT64">
         <v>1.09</v>
@@ -13480,7 +13519,7 @@
         <v>82</v>
       </c>
       <c r="P65" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="Q65">
         <v>1</v>
@@ -13567,7 +13606,7 @@
         <v>2.5</v>
       </c>
       <c r="AS65">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AT65">
         <v>2.64</v>
@@ -13671,7 +13710,7 @@
         <v>126</v>
       </c>
       <c r="P66" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="Q66">
         <v>4</v>
@@ -13761,7 +13800,7 @@
         <v>1.91</v>
       </c>
       <c r="AT66">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AU66">
         <v>1.88</v>
@@ -13862,7 +13901,7 @@
         <v>127</v>
       </c>
       <c r="P67" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="Q67">
         <v>7</v>
@@ -13952,7 +13991,7 @@
         <v>2</v>
       </c>
       <c r="AT67">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AU67">
         <v>1.56</v>
@@ -14140,10 +14179,10 @@
         <v>0.25</v>
       </c>
       <c r="AS68">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AT68">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="AU68">
         <v>1.59</v>
@@ -14244,7 +14283,7 @@
         <v>82</v>
       </c>
       <c r="P69" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="Q69">
         <v>6</v>
@@ -14331,7 +14370,7 @@
         <v>2</v>
       </c>
       <c r="AS69">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AT69">
         <v>1.45</v>
@@ -14522,10 +14561,10 @@
         <v>0.5</v>
       </c>
       <c r="AS70">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AT70">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AU70">
         <v>2.23</v>
@@ -14626,7 +14665,7 @@
         <v>129</v>
       </c>
       <c r="P71" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="Q71">
         <v>7</v>
@@ -14713,10 +14752,10 @@
         <v>0.33</v>
       </c>
       <c r="AS71">
-        <v>2.3</v>
+        <v>2.09</v>
       </c>
       <c r="AT71">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AU71">
         <v>1.88</v>
@@ -14904,10 +14943,10 @@
         <v>1.67</v>
       </c>
       <c r="AS72">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AT72">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AU72">
         <v>1.13</v>
@@ -15008,7 +15047,7 @@
         <v>131</v>
       </c>
       <c r="P73" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="Q73">
         <v>7</v>
@@ -15095,10 +15134,10 @@
         <v>1</v>
       </c>
       <c r="AS73">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AT73">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AU73">
         <v>1.24</v>
@@ -15390,7 +15429,7 @@
         <v>133</v>
       </c>
       <c r="P75" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="Q75">
         <v>10</v>
@@ -15477,7 +15516,7 @@
         <v>2.2</v>
       </c>
       <c r="AS75">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AT75">
         <v>1.45</v>
@@ -15581,7 +15620,7 @@
         <v>134</v>
       </c>
       <c r="P76" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="Q76">
         <v>3</v>
@@ -15671,7 +15710,7 @@
         <v>1.73</v>
       </c>
       <c r="AT76">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AU76">
         <v>1.15</v>
@@ -15963,7 +16002,7 @@
         <v>103</v>
       </c>
       <c r="P78" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="Q78">
         <v>7</v>
@@ -16050,10 +16089,10 @@
         <v>0.25</v>
       </c>
       <c r="AS78">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AT78">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AU78">
         <v>1.38</v>
@@ -16241,10 +16280,10 @@
         <v>1.5</v>
       </c>
       <c r="AS79">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AT79">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AU79">
         <v>1.38</v>
@@ -16345,7 +16384,7 @@
         <v>135</v>
       </c>
       <c r="P80" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="Q80">
         <v>3</v>
@@ -16536,7 +16575,7 @@
         <v>82</v>
       </c>
       <c r="P81" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="Q81">
         <v>4</v>
@@ -16623,7 +16662,7 @@
         <v>2.6</v>
       </c>
       <c r="AS81">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AT81">
         <v>2.64</v>
@@ -16817,7 +16856,7 @@
         <v>1.73</v>
       </c>
       <c r="AT82">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AU82">
         <v>1.28</v>
@@ -16918,7 +16957,7 @@
         <v>137</v>
       </c>
       <c r="P83" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="Q83">
         <v>12</v>
@@ -17196,10 +17235,10 @@
         <v>1.5</v>
       </c>
       <c r="AS84">
-        <v>2.3</v>
+        <v>2.09</v>
       </c>
       <c r="AT84">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AU84">
         <v>1.93</v>
@@ -17387,10 +17426,10 @@
         <v>0</v>
       </c>
       <c r="AS85">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AT85">
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
       <c r="AU85">
         <v>2.24</v>
@@ -17491,7 +17530,7 @@
         <v>139</v>
       </c>
       <c r="P86" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="Q86">
         <v>2</v>
@@ -17578,7 +17617,7 @@
         <v>1</v>
       </c>
       <c r="AS86">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AT86">
         <v>0.55</v>
@@ -17682,7 +17721,7 @@
         <v>82</v>
       </c>
       <c r="P87" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="Q87">
         <v>1</v>
@@ -17769,10 +17808,10 @@
         <v>1.75</v>
       </c>
       <c r="AS87">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AT87">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AU87">
         <v>1.53</v>
@@ -17960,10 +17999,10 @@
         <v>0.2</v>
       </c>
       <c r="AS88">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AT88">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="AU88">
         <v>1.9</v>
@@ -18064,7 +18103,7 @@
         <v>140</v>
       </c>
       <c r="P89" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="Q89">
         <v>6</v>
@@ -18151,7 +18190,7 @@
         <v>1.83</v>
       </c>
       <c r="AS89">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AT89">
         <v>1.45</v>
@@ -18255,7 +18294,7 @@
         <v>82</v>
       </c>
       <c r="P90" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="Q90">
         <v>3</v>
@@ -18345,7 +18384,7 @@
         <v>1.55</v>
       </c>
       <c r="AT90">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AU90">
         <v>1.41</v>
@@ -18446,7 +18485,7 @@
         <v>141</v>
       </c>
       <c r="P91" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="Q91">
         <v>5</v>
@@ -18533,10 +18572,10 @@
         <v>0.25</v>
       </c>
       <c r="AS91">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AT91">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AU91">
         <v>1.5</v>
@@ -18727,7 +18766,7 @@
         <v>1.91</v>
       </c>
       <c r="AT92">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AU92">
         <v>1.73</v>
@@ -18828,7 +18867,7 @@
         <v>142</v>
       </c>
       <c r="P93" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="Q93">
         <v>3</v>
@@ -18915,10 +18954,10 @@
         <v>1.33</v>
       </c>
       <c r="AS93">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AT93">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AU93">
         <v>1.1</v>
@@ -19106,7 +19145,7 @@
         <v>0.4</v>
       </c>
       <c r="AS94">
-        <v>2.3</v>
+        <v>2.09</v>
       </c>
       <c r="AT94">
         <v>0.55</v>
@@ -19297,7 +19336,7 @@
         <v>1</v>
       </c>
       <c r="AS95">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="AT95">
         <v>1.09</v>
@@ -19401,7 +19440,7 @@
         <v>144</v>
       </c>
       <c r="P96" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="Q96">
         <v>7</v>
@@ -19488,10 +19527,10 @@
         <v>1</v>
       </c>
       <c r="AS96">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AT96">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AU96">
         <v>1.2</v>
@@ -19592,7 +19631,7 @@
         <v>145</v>
       </c>
       <c r="P97" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="Q97">
         <v>1</v>
@@ -19679,10 +19718,10 @@
         <v>1</v>
       </c>
       <c r="AS97">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AT97">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AU97">
         <v>1.38</v>
@@ -19870,10 +19909,10 @@
         <v>0</v>
       </c>
       <c r="AS98">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="AT98">
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
       <c r="AU98">
         <v>1.68</v>
@@ -20165,7 +20204,7 @@
         <v>147</v>
       </c>
       <c r="P100" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="Q100">
         <v>5</v>
@@ -20252,10 +20291,10 @@
         <v>0.17</v>
       </c>
       <c r="AS100">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AT100">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="AU100">
         <v>1.25</v>
@@ -20443,7 +20482,7 @@
         <v>0.33</v>
       </c>
       <c r="AS101">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AT101">
         <v>0.55</v>
@@ -20634,10 +20673,10 @@
         <v>0.4</v>
       </c>
       <c r="AS102">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AT102">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AU102">
         <v>1.35</v>
@@ -20738,7 +20777,7 @@
         <v>82</v>
       </c>
       <c r="P103" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="Q103">
         <v>1</v>
@@ -20828,7 +20867,7 @@
         <v>1</v>
       </c>
       <c r="AT103">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AU103">
         <v>1.27</v>
@@ -20929,7 +20968,7 @@
         <v>149</v>
       </c>
       <c r="P104" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="Q104">
         <v>4</v>
@@ -21016,7 +21055,7 @@
         <v>1.67</v>
       </c>
       <c r="AS104">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AT104">
         <v>1.09</v>
@@ -21120,7 +21159,7 @@
         <v>108</v>
       </c>
       <c r="P105" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="Q105">
         <v>2</v>
@@ -21311,7 +21350,7 @@
         <v>123</v>
       </c>
       <c r="P106" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="Q106">
         <v>2</v>
@@ -21398,10 +21437,10 @@
         <v>1.67</v>
       </c>
       <c r="AS106">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AT106">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AU106">
         <v>1.52</v>
@@ -21502,7 +21541,7 @@
         <v>150</v>
       </c>
       <c r="P107" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="Q107">
         <v>6</v>
@@ -21589,10 +21628,10 @@
         <v>0.14</v>
       </c>
       <c r="AS107">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AT107">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="AU107">
         <v>1.28</v>
@@ -21780,10 +21819,10 @@
         <v>1.29</v>
       </c>
       <c r="AS108">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AT108">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AU108">
         <v>1.41</v>
@@ -21884,7 +21923,7 @@
         <v>152</v>
       </c>
       <c r="P109" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="Q109">
         <v>17</v>
@@ -21971,7 +22010,7 @@
         <v>0.71</v>
       </c>
       <c r="AS109">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AT109">
         <v>0.55</v>
@@ -22075,7 +22114,7 @@
         <v>153</v>
       </c>
       <c r="P110" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="Q110">
         <v>1</v>
@@ -22266,7 +22305,7 @@
         <v>154</v>
       </c>
       <c r="P111" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="Q111">
         <v>3</v>
@@ -22353,7 +22392,7 @@
         <v>2.71</v>
       </c>
       <c r="AS111">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AT111">
         <v>2.64</v>
@@ -22547,7 +22586,7 @@
         <v>1.91</v>
       </c>
       <c r="AT112">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AU112">
         <v>1.75</v>
@@ -22648,7 +22687,7 @@
         <v>155</v>
       </c>
       <c r="P113" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="Q113">
         <v>5</v>
@@ -22735,10 +22774,10 @@
         <v>0.83</v>
       </c>
       <c r="AS113">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AT113">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AU113">
         <v>1.68</v>
@@ -22839,7 +22878,7 @@
         <v>156</v>
       </c>
       <c r="P114" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="Q114">
         <v>14</v>
@@ -22926,7 +22965,7 @@
         <v>0.29</v>
       </c>
       <c r="AS114">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AT114">
         <v>0.55</v>
@@ -23117,7 +23156,7 @@
         <v>1</v>
       </c>
       <c r="AS115">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AT115">
         <v>1.09</v>
@@ -23308,10 +23347,10 @@
         <v>2</v>
       </c>
       <c r="AS116">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AT116">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AU116">
         <v>1.22</v>
@@ -23502,7 +23541,7 @@
         <v>1.55</v>
       </c>
       <c r="AT117">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AU117">
         <v>1.51</v>
@@ -23693,7 +23732,7 @@
         <v>1.73</v>
       </c>
       <c r="AT118">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AU118">
         <v>1.4</v>
@@ -23881,7 +23920,7 @@
         <v>1.43</v>
       </c>
       <c r="AS119">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="AT119">
         <v>1.09</v>
@@ -23985,7 +24024,7 @@
         <v>160</v>
       </c>
       <c r="P120" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="Q120">
         <v>7</v>
@@ -24072,10 +24111,10 @@
         <v>0.17</v>
       </c>
       <c r="AS120">
-        <v>2.3</v>
+        <v>2.09</v>
       </c>
       <c r="AT120">
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
       <c r="AU120">
         <v>1.78</v>
@@ -24266,7 +24305,7 @@
         <v>2</v>
       </c>
       <c r="AT121">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AU121">
         <v>1.65</v>
@@ -24454,10 +24493,10 @@
         <v>2.29</v>
       </c>
       <c r="AS122">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AT122">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AU122">
         <v>1.8</v>
@@ -24648,7 +24687,7 @@
         <v>1.91</v>
       </c>
       <c r="AT123">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AU123">
         <v>1.85</v>
@@ -24749,7 +24788,7 @@
         <v>164</v>
       </c>
       <c r="P124" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="Q124">
         <v>9</v>
@@ -24836,10 +24875,10 @@
         <v>1.86</v>
       </c>
       <c r="AS124">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AT124">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AU124">
         <v>1.44</v>
@@ -25030,7 +25069,7 @@
         <v>1.55</v>
       </c>
       <c r="AT125">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AU125">
         <v>1.47</v>
@@ -25218,7 +25257,7 @@
         <v>1.88</v>
       </c>
       <c r="AS126">
-        <v>2.3</v>
+        <v>2.09</v>
       </c>
       <c r="AT126">
         <v>1.45</v>
@@ -25322,7 +25361,7 @@
         <v>167</v>
       </c>
       <c r="P127" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="Q127">
         <v>1</v>
@@ -25409,10 +25448,10 @@
         <v>1.29</v>
       </c>
       <c r="AS127">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AT127">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AU127">
         <v>1.22</v>
@@ -25513,7 +25552,7 @@
         <v>168</v>
       </c>
       <c r="P128" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="Q128">
         <v>1</v>
@@ -25600,10 +25639,10 @@
         <v>1.13</v>
       </c>
       <c r="AS128">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AT128">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AU128">
         <v>1.64</v>
@@ -25704,7 +25743,7 @@
         <v>169</v>
       </c>
       <c r="P129" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="Q129">
         <v>6</v>
@@ -25791,10 +25830,10 @@
         <v>0.29</v>
       </c>
       <c r="AS129">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AT129">
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
       <c r="AU129">
         <v>2</v>
@@ -25895,7 +25934,7 @@
         <v>95</v>
       </c>
       <c r="P130" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="Q130">
         <v>2</v>
@@ -26173,7 +26212,7 @@
         <v>1.25</v>
       </c>
       <c r="AS131">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AT131">
         <v>1.09</v>
@@ -26277,7 +26316,7 @@
         <v>156</v>
       </c>
       <c r="P132" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="Q132">
         <v>4</v>
@@ -26364,7 +26403,7 @@
         <v>1.22</v>
       </c>
       <c r="AS132">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AT132">
         <v>1.09</v>
@@ -26468,7 +26507,7 @@
         <v>170</v>
       </c>
       <c r="P133" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="Q133">
         <v>6</v>
@@ -26558,7 +26597,7 @@
         <v>1.73</v>
       </c>
       <c r="AT133">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AU133">
         <v>1.37</v>
@@ -26850,7 +26889,7 @@
         <v>172</v>
       </c>
       <c r="P135" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="Q135">
         <v>4</v>
@@ -26937,10 +26976,10 @@
         <v>1.71</v>
       </c>
       <c r="AS135">
+        <v>1.5</v>
+      </c>
+      <c r="AT135">
         <v>1.36</v>
-      </c>
-      <c r="AT135">
-        <v>1.5</v>
       </c>
       <c r="AU135">
         <v>1.43</v>
@@ -27041,7 +27080,7 @@
         <v>173</v>
       </c>
       <c r="P136" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="Q136">
         <v>7</v>
@@ -27128,7 +27167,7 @@
         <v>0.75</v>
       </c>
       <c r="AS136">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AT136">
         <v>0.55</v>
@@ -27322,7 +27361,7 @@
         <v>1.55</v>
       </c>
       <c r="AT137">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AU137">
         <v>1.53</v>
@@ -27510,10 +27549,10 @@
         <v>1.29</v>
       </c>
       <c r="AS138">
-        <v>2.3</v>
+        <v>2.09</v>
       </c>
       <c r="AT138">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AU138">
         <v>1.7</v>
@@ -27614,7 +27653,7 @@
         <v>176</v>
       </c>
       <c r="P139" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="Q139">
         <v>10</v>
@@ -27701,7 +27740,7 @@
         <v>0.38</v>
       </c>
       <c r="AS139">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AT139">
         <v>0.55</v>
@@ -27805,7 +27844,7 @@
         <v>177</v>
       </c>
       <c r="P140" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="Q140">
         <v>11</v>
@@ -27892,10 +27931,10 @@
         <v>0.14</v>
       </c>
       <c r="AS140">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AT140">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AU140">
         <v>1.29</v>
@@ -28086,7 +28125,7 @@
         <v>1.91</v>
       </c>
       <c r="AT141">
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
       <c r="AU141">
         <v>1.81</v>
@@ -28274,10 +28313,10 @@
         <v>2</v>
       </c>
       <c r="AS142">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AT142">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AU142">
         <v>1.59</v>
@@ -28659,7 +28698,7 @@
         <v>2</v>
       </c>
       <c r="AT144">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="AU144">
         <v>1.68</v>
@@ -28847,7 +28886,7 @@
         <v>0.67</v>
       </c>
       <c r="AS145">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="AT145">
         <v>0.55</v>
@@ -29038,10 +29077,10 @@
         <v>0.25</v>
       </c>
       <c r="AS146">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AT146">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AU146">
         <v>1.13</v>
@@ -29142,7 +29181,7 @@
         <v>184</v>
       </c>
       <c r="P147" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="Q147">
         <v>7</v>
@@ -29232,7 +29271,7 @@
         <v>1.91</v>
       </c>
       <c r="AT147">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AU147">
         <v>1.76</v>
@@ -29333,7 +29372,7 @@
         <v>82</v>
       </c>
       <c r="P148" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="Q148">
         <v>3</v>
@@ -29420,7 +29459,7 @@
         <v>2.56</v>
       </c>
       <c r="AS148">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AT148">
         <v>2.64</v>
@@ -29524,7 +29563,7 @@
         <v>185</v>
       </c>
       <c r="P149" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="Q149">
         <v>6</v>
@@ -29611,10 +29650,10 @@
         <v>0.33</v>
       </c>
       <c r="AS149">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AT149">
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
       <c r="AU149">
         <v>1.16</v>
@@ -29802,7 +29841,7 @@
         <v>1.22</v>
       </c>
       <c r="AS150">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AT150">
         <v>1.09</v>
@@ -29906,7 +29945,7 @@
         <v>186</v>
       </c>
       <c r="P151" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="Q151">
         <v>2</v>
@@ -29993,10 +30032,10 @@
         <v>1.13</v>
       </c>
       <c r="AS151">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AT151">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AU151">
         <v>1.79</v>
@@ -30184,10 +30223,10 @@
         <v>1.13</v>
       </c>
       <c r="AS152">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AT152">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AU152">
         <v>1.71</v>
@@ -30375,10 +30414,10 @@
         <v>0.22</v>
       </c>
       <c r="AS153">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="AT153">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="AU153">
         <v>1.8</v>
@@ -30566,10 +30605,10 @@
         <v>1.56</v>
       </c>
       <c r="AS154">
-        <v>2.3</v>
+        <v>2.09</v>
       </c>
       <c r="AT154">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AU154">
         <v>1.75</v>
@@ -30861,7 +30900,7 @@
         <v>190</v>
       </c>
       <c r="P156" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="Q156">
         <v>4</v>
@@ -30948,7 +30987,7 @@
         <v>0.6</v>
       </c>
       <c r="AS156">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AT156">
         <v>0.55</v>
@@ -31142,7 +31181,7 @@
         <v>2</v>
       </c>
       <c r="AT157">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AU157">
         <v>1.62</v>
@@ -31243,7 +31282,7 @@
         <v>130</v>
       </c>
       <c r="P158" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="Q158">
         <v>1</v>
@@ -31330,7 +31369,7 @@
         <v>0.44</v>
       </c>
       <c r="AS158">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AT158">
         <v>0.55</v>
@@ -31434,7 +31473,7 @@
         <v>192</v>
       </c>
       <c r="P159" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="Q159">
         <v>2</v>
@@ -31524,7 +31563,7 @@
         <v>1.55</v>
       </c>
       <c r="AT159">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AU159">
         <v>1.56</v>
@@ -31712,10 +31751,10 @@
         <v>1.89</v>
       </c>
       <c r="AS160">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AT160">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AU160">
         <v>1.19</v>
@@ -31903,10 +31942,10 @@
         <v>0.22</v>
       </c>
       <c r="AS161">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AT161">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AU161">
         <v>1.36</v>
@@ -32007,7 +32046,7 @@
         <v>195</v>
       </c>
       <c r="P162" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="Q162">
         <v>3</v>
@@ -32094,7 +32133,7 @@
         <v>1.2</v>
       </c>
       <c r="AS162">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AT162">
         <v>1.09</v>
@@ -32133,7 +32172,7 @@
         <v>3.48</v>
       </c>
       <c r="BF162">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BG162">
         <v>5</v>
@@ -32145,7 +32184,7 @@
         <v>2</v>
       </c>
       <c r="BJ162">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BK162">
         <v>7</v>
@@ -32198,7 +32237,7 @@
         <v>82</v>
       </c>
       <c r="P163" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="Q163">
         <v>3</v>
@@ -32580,7 +32619,7 @@
         <v>82</v>
       </c>
       <c r="P165" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="Q165">
         <v>5</v>
@@ -32667,10 +32706,10 @@
         <v>1.33</v>
       </c>
       <c r="AS165">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AT165">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AU165">
         <v>1.71</v>
@@ -32722,6 +32761,2298 @@
       </c>
       <c r="BK165">
         <v>10</v>
+      </c>
+    </row>
+    <row r="166" spans="1:63">
+      <c r="A166" s="1">
+        <v>165</v>
+      </c>
+      <c r="B166">
+        <v>5845605</v>
+      </c>
+      <c r="C166" t="s">
+        <v>63</v>
+      </c>
+      <c r="D166" t="s">
+        <v>64</v>
+      </c>
+      <c r="E166" s="2">
+        <v>45147.35763888889</v>
+      </c>
+      <c r="F166">
+        <v>21</v>
+      </c>
+      <c r="G166" t="s">
+        <v>66</v>
+      </c>
+      <c r="H166" t="s">
+        <v>69</v>
+      </c>
+      <c r="I166">
+        <v>1</v>
+      </c>
+      <c r="J166">
+        <v>0</v>
+      </c>
+      <c r="K166">
+        <v>1</v>
+      </c>
+      <c r="L166">
+        <v>4</v>
+      </c>
+      <c r="M166">
+        <v>2</v>
+      </c>
+      <c r="N166">
+        <v>6</v>
+      </c>
+      <c r="O166" t="s">
+        <v>196</v>
+      </c>
+      <c r="P166" t="s">
+        <v>283</v>
+      </c>
+      <c r="Q166">
+        <v>0</v>
+      </c>
+      <c r="R166">
+        <v>9</v>
+      </c>
+      <c r="S166">
+        <v>9</v>
+      </c>
+      <c r="T166">
+        <v>1.62</v>
+      </c>
+      <c r="U166">
+        <v>2.5</v>
+      </c>
+      <c r="V166">
+        <v>7.87</v>
+      </c>
+      <c r="W166">
+        <v>1.29</v>
+      </c>
+      <c r="X166">
+        <v>3.25</v>
+      </c>
+      <c r="Y166">
+        <v>2.15</v>
+      </c>
+      <c r="Z166">
+        <v>1.52</v>
+      </c>
+      <c r="AA166">
+        <v>4.65</v>
+      </c>
+      <c r="AB166">
+        <v>1.13</v>
+      </c>
+      <c r="AC166">
+        <v>1.3</v>
+      </c>
+      <c r="AD166">
+        <v>5.25</v>
+      </c>
+      <c r="AE166">
+        <v>8.5</v>
+      </c>
+      <c r="AF166">
+        <v>1.02</v>
+      </c>
+      <c r="AG166">
+        <v>16</v>
+      </c>
+      <c r="AH166">
+        <v>1.11</v>
+      </c>
+      <c r="AI166">
+        <v>4.6</v>
+      </c>
+      <c r="AJ166">
+        <v>1.53</v>
+      </c>
+      <c r="AK166">
+        <v>2.25</v>
+      </c>
+      <c r="AL166">
+        <v>1.86</v>
+      </c>
+      <c r="AM166">
+        <v>1.74</v>
+      </c>
+      <c r="AN166">
+        <v>1.06</v>
+      </c>
+      <c r="AO166">
+        <v>1.14</v>
+      </c>
+      <c r="AP166">
+        <v>3.5</v>
+      </c>
+      <c r="AQ166">
+        <v>1.56</v>
+      </c>
+      <c r="AR166">
+        <v>0.5</v>
+      </c>
+      <c r="AS166">
+        <v>1.55</v>
+      </c>
+      <c r="AT166">
+        <v>0.45</v>
+      </c>
+      <c r="AU166">
+        <v>1.87</v>
+      </c>
+      <c r="AV166">
+        <v>1.15</v>
+      </c>
+      <c r="AW166">
+        <v>3.02</v>
+      </c>
+      <c r="AX166">
+        <v>1.29</v>
+      </c>
+      <c r="AY166">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AZ166">
+        <v>4.8</v>
+      </c>
+      <c r="BA166">
+        <v>1.3</v>
+      </c>
+      <c r="BB166">
+        <v>1.58</v>
+      </c>
+      <c r="BC166">
+        <v>1.93</v>
+      </c>
+      <c r="BD166">
+        <v>2.4</v>
+      </c>
+      <c r="BE166">
+        <v>3.3</v>
+      </c>
+      <c r="BF166">
+        <v>8</v>
+      </c>
+      <c r="BG166">
+        <v>6</v>
+      </c>
+      <c r="BH166">
+        <v>5</v>
+      </c>
+      <c r="BI166">
+        <v>5</v>
+      </c>
+      <c r="BJ166">
+        <v>13</v>
+      </c>
+      <c r="BK166">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="167" spans="1:63">
+      <c r="A167" s="1">
+        <v>166</v>
+      </c>
+      <c r="B167">
+        <v>5845606</v>
+      </c>
+      <c r="C167" t="s">
+        <v>63</v>
+      </c>
+      <c r="D167" t="s">
+        <v>64</v>
+      </c>
+      <c r="E167" s="2">
+        <v>45147.35763888889</v>
+      </c>
+      <c r="F167">
+        <v>21</v>
+      </c>
+      <c r="G167" t="s">
+        <v>70</v>
+      </c>
+      <c r="H167" t="s">
+        <v>68</v>
+      </c>
+      <c r="I167">
+        <v>0</v>
+      </c>
+      <c r="J167">
+        <v>0</v>
+      </c>
+      <c r="K167">
+        <v>0</v>
+      </c>
+      <c r="L167">
+        <v>0</v>
+      </c>
+      <c r="M167">
+        <v>0</v>
+      </c>
+      <c r="N167">
+        <v>0</v>
+      </c>
+      <c r="O167" t="s">
+        <v>82</v>
+      </c>
+      <c r="P167" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q167">
+        <v>2</v>
+      </c>
+      <c r="R167">
+        <v>3</v>
+      </c>
+      <c r="S167">
+        <v>5</v>
+      </c>
+      <c r="T167">
+        <v>3.2</v>
+      </c>
+      <c r="U167">
+        <v>2.05</v>
+      </c>
+      <c r="V167">
+        <v>2.55</v>
+      </c>
+      <c r="W167">
+        <v>1.31</v>
+      </c>
+      <c r="X167">
+        <v>2.95</v>
+      </c>
+      <c r="Y167">
+        <v>2.55</v>
+      </c>
+      <c r="Z167">
+        <v>1.4</v>
+      </c>
+      <c r="AA167">
+        <v>6.5</v>
+      </c>
+      <c r="AB167">
+        <v>1.08</v>
+      </c>
+      <c r="AC167">
+        <v>2.8</v>
+      </c>
+      <c r="AD167">
+        <v>3.2</v>
+      </c>
+      <c r="AE167">
+        <v>2.3</v>
+      </c>
+      <c r="AF167">
+        <v>1.01</v>
+      </c>
+      <c r="AG167">
+        <v>12</v>
+      </c>
+      <c r="AH167">
+        <v>1.2</v>
+      </c>
+      <c r="AI167">
+        <v>3.6</v>
+      </c>
+      <c r="AJ167">
+        <v>1.75</v>
+      </c>
+      <c r="AK167">
+        <v>1.91</v>
+      </c>
+      <c r="AL167">
+        <v>1.54</v>
+      </c>
+      <c r="AM167">
+        <v>2.15</v>
+      </c>
+      <c r="AN167">
+        <v>1.6</v>
+      </c>
+      <c r="AO167">
+        <v>1.28</v>
+      </c>
+      <c r="AP167">
+        <v>1.34</v>
+      </c>
+      <c r="AQ167">
+        <v>1.6</v>
+      </c>
+      <c r="AR167">
+        <v>1</v>
+      </c>
+      <c r="AS167">
+        <v>1.55</v>
+      </c>
+      <c r="AT167">
+        <v>1.18</v>
+      </c>
+      <c r="AU167">
+        <v>1.4</v>
+      </c>
+      <c r="AV167">
+        <v>1.44</v>
+      </c>
+      <c r="AW167">
+        <v>2.84</v>
+      </c>
+      <c r="AX167">
+        <v>2.25</v>
+      </c>
+      <c r="AY167">
+        <v>6.9</v>
+      </c>
+      <c r="AZ167">
+        <v>1.83</v>
+      </c>
+      <c r="BA167">
+        <v>1.42</v>
+      </c>
+      <c r="BB167">
+        <v>1.71</v>
+      </c>
+      <c r="BC167">
+        <v>2.18</v>
+      </c>
+      <c r="BD167">
+        <v>2.9</v>
+      </c>
+      <c r="BE167">
+        <v>4.1</v>
+      </c>
+      <c r="BF167">
+        <v>5</v>
+      </c>
+      <c r="BG167">
+        <v>2</v>
+      </c>
+      <c r="BH167">
+        <v>8</v>
+      </c>
+      <c r="BI167">
+        <v>3</v>
+      </c>
+      <c r="BJ167">
+        <v>13</v>
+      </c>
+      <c r="BK167">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="168" spans="1:63">
+      <c r="A168" s="1">
+        <v>167</v>
+      </c>
+      <c r="B168">
+        <v>5845607</v>
+      </c>
+      <c r="C168" t="s">
+        <v>63</v>
+      </c>
+      <c r="D168" t="s">
+        <v>64</v>
+      </c>
+      <c r="E168" s="2">
+        <v>45147.35763888889</v>
+      </c>
+      <c r="F168">
+        <v>21</v>
+      </c>
+      <c r="G168" t="s">
+        <v>71</v>
+      </c>
+      <c r="H168" t="s">
+        <v>72</v>
+      </c>
+      <c r="I168">
+        <v>2</v>
+      </c>
+      <c r="J168">
+        <v>0</v>
+      </c>
+      <c r="K168">
+        <v>2</v>
+      </c>
+      <c r="L168">
+        <v>3</v>
+      </c>
+      <c r="M168">
+        <v>0</v>
+      </c>
+      <c r="N168">
+        <v>3</v>
+      </c>
+      <c r="O168" t="s">
+        <v>197</v>
+      </c>
+      <c r="P168" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q168">
+        <v>1</v>
+      </c>
+      <c r="R168">
+        <v>2</v>
+      </c>
+      <c r="S168">
+        <v>3</v>
+      </c>
+      <c r="T168">
+        <v>1.48</v>
+      </c>
+      <c r="U168">
+        <v>2.99</v>
+      </c>
+      <c r="V168">
+        <v>12</v>
+      </c>
+      <c r="W168">
+        <v>1.25</v>
+      </c>
+      <c r="X168">
+        <v>3.72</v>
+      </c>
+      <c r="Y168">
+        <v>2.15</v>
+      </c>
+      <c r="Z168">
+        <v>1.6</v>
+      </c>
+      <c r="AA168">
+        <v>4.8</v>
+      </c>
+      <c r="AB168">
+        <v>1.16</v>
+      </c>
+      <c r="AC168">
+        <v>1.17</v>
+      </c>
+      <c r="AD168">
+        <v>6.75</v>
+      </c>
+      <c r="AE168">
+        <v>14</v>
+      </c>
+      <c r="AF168">
+        <v>1.02</v>
+      </c>
+      <c r="AG168">
+        <v>18</v>
+      </c>
+      <c r="AH168">
+        <v>1.12</v>
+      </c>
+      <c r="AI168">
+        <v>5</v>
+      </c>
+      <c r="AJ168">
+        <v>1.53</v>
+      </c>
+      <c r="AK168">
+        <v>2.25</v>
+      </c>
+      <c r="AL168">
+        <v>2.45</v>
+      </c>
+      <c r="AM168">
+        <v>1.51</v>
+      </c>
+      <c r="AN168">
+        <v>1.01</v>
+      </c>
+      <c r="AO168">
+        <v>1.07</v>
+      </c>
+      <c r="AP168">
+        <v>5.7</v>
+      </c>
+      <c r="AQ168">
+        <v>1.8</v>
+      </c>
+      <c r="AR168">
+        <v>0.2</v>
+      </c>
+      <c r="AS168">
+        <v>1.91</v>
+      </c>
+      <c r="AT168">
+        <v>0.17</v>
+      </c>
+      <c r="AU168">
+        <v>1.46</v>
+      </c>
+      <c r="AV168">
+        <v>0.83</v>
+      </c>
+      <c r="AW168">
+        <v>2.29</v>
+      </c>
+      <c r="AX168">
+        <v>1.11</v>
+      </c>
+      <c r="AY168">
+        <v>9.5</v>
+      </c>
+      <c r="AZ168">
+        <v>8.25</v>
+      </c>
+      <c r="BA168">
+        <v>1.36</v>
+      </c>
+      <c r="BB168">
+        <v>1.68</v>
+      </c>
+      <c r="BC168">
+        <v>2.06</v>
+      </c>
+      <c r="BD168">
+        <v>2.7</v>
+      </c>
+      <c r="BE168">
+        <v>3.7</v>
+      </c>
+      <c r="BF168">
+        <v>7</v>
+      </c>
+      <c r="BG168">
+        <v>3</v>
+      </c>
+      <c r="BH168">
+        <v>6</v>
+      </c>
+      <c r="BI168">
+        <v>2</v>
+      </c>
+      <c r="BJ168">
+        <v>13</v>
+      </c>
+      <c r="BK168">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="169" spans="1:63">
+      <c r="A169" s="1">
+        <v>168</v>
+      </c>
+      <c r="B169">
+        <v>5845608</v>
+      </c>
+      <c r="C169" t="s">
+        <v>63</v>
+      </c>
+      <c r="D169" t="s">
+        <v>64</v>
+      </c>
+      <c r="E169" s="2">
+        <v>45147.35763888889</v>
+      </c>
+      <c r="F169">
+        <v>21</v>
+      </c>
+      <c r="G169" t="s">
+        <v>79</v>
+      </c>
+      <c r="H169" t="s">
+        <v>65</v>
+      </c>
+      <c r="I169">
+        <v>1</v>
+      </c>
+      <c r="J169">
+        <v>0</v>
+      </c>
+      <c r="K169">
+        <v>1</v>
+      </c>
+      <c r="L169">
+        <v>2</v>
+      </c>
+      <c r="M169">
+        <v>1</v>
+      </c>
+      <c r="N169">
+        <v>3</v>
+      </c>
+      <c r="O169" t="s">
+        <v>198</v>
+      </c>
+      <c r="P169" t="s">
+        <v>284</v>
+      </c>
+      <c r="Q169">
+        <v>4</v>
+      </c>
+      <c r="R169">
+        <v>2</v>
+      </c>
+      <c r="S169">
+        <v>6</v>
+      </c>
+      <c r="T169">
+        <v>2.51</v>
+      </c>
+      <c r="U169">
+        <v>2.19</v>
+      </c>
+      <c r="V169">
+        <v>4.2</v>
+      </c>
+      <c r="W169">
+        <v>1.37</v>
+      </c>
+      <c r="X169">
+        <v>2.96</v>
+      </c>
+      <c r="Y169">
+        <v>2.7</v>
+      </c>
+      <c r="Z169">
+        <v>1.41</v>
+      </c>
+      <c r="AA169">
+        <v>6.7</v>
+      </c>
+      <c r="AB169">
+        <v>1.09</v>
+      </c>
+      <c r="AC169">
+        <v>1.92</v>
+      </c>
+      <c r="AD169">
+        <v>3.44</v>
+      </c>
+      <c r="AE169">
+        <v>3.35</v>
+      </c>
+      <c r="AF169">
+        <v>1.01</v>
+      </c>
+      <c r="AG169">
+        <v>9.6</v>
+      </c>
+      <c r="AH169">
+        <v>1.25</v>
+      </c>
+      <c r="AI169">
+        <v>3.48</v>
+      </c>
+      <c r="AJ169">
+        <v>1.8</v>
+      </c>
+      <c r="AK169">
+        <v>1.88</v>
+      </c>
+      <c r="AL169">
+        <v>1.73</v>
+      </c>
+      <c r="AM169">
+        <v>2.04</v>
+      </c>
+      <c r="AN169">
+        <v>1.28</v>
+      </c>
+      <c r="AO169">
+        <v>1.28</v>
+      </c>
+      <c r="AP169">
+        <v>1.83</v>
+      </c>
+      <c r="AQ169">
+        <v>1.36</v>
+      </c>
+      <c r="AR169">
+        <v>0.3</v>
+      </c>
+      <c r="AS169">
+        <v>1.5</v>
+      </c>
+      <c r="AT169">
+        <v>0.27</v>
+      </c>
+      <c r="AU169">
+        <v>1.38</v>
+      </c>
+      <c r="AV169">
+        <v>1.12</v>
+      </c>
+      <c r="AW169">
+        <v>2.5</v>
+      </c>
+      <c r="AX169">
+        <v>1.57</v>
+      </c>
+      <c r="AY169">
+        <v>5.75</v>
+      </c>
+      <c r="AZ169">
+        <v>2.75</v>
+      </c>
+      <c r="BA169">
+        <v>1.36</v>
+      </c>
+      <c r="BB169">
+        <v>1.73</v>
+      </c>
+      <c r="BC169">
+        <v>2.22</v>
+      </c>
+      <c r="BD169">
+        <v>2.7</v>
+      </c>
+      <c r="BE169">
+        <v>3.7</v>
+      </c>
+      <c r="BF169">
+        <v>4</v>
+      </c>
+      <c r="BG169">
+        <v>7</v>
+      </c>
+      <c r="BH169">
+        <v>10</v>
+      </c>
+      <c r="BI169">
+        <v>8</v>
+      </c>
+      <c r="BJ169">
+        <v>14</v>
+      </c>
+      <c r="BK169">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="170" spans="1:63">
+      <c r="A170" s="1">
+        <v>169</v>
+      </c>
+      <c r="B170">
+        <v>5845610</v>
+      </c>
+      <c r="C170" t="s">
+        <v>63</v>
+      </c>
+      <c r="D170" t="s">
+        <v>64</v>
+      </c>
+      <c r="E170" s="2">
+        <v>45150.35763888889</v>
+      </c>
+      <c r="F170">
+        <v>22</v>
+      </c>
+      <c r="G170" t="s">
+        <v>73</v>
+      </c>
+      <c r="H170" t="s">
+        <v>78</v>
+      </c>
+      <c r="I170">
+        <v>1</v>
+      </c>
+      <c r="J170">
+        <v>0</v>
+      </c>
+      <c r="K170">
+        <v>1</v>
+      </c>
+      <c r="L170">
+        <v>1</v>
+      </c>
+      <c r="M170">
+        <v>0</v>
+      </c>
+      <c r="N170">
+        <v>1</v>
+      </c>
+      <c r="O170" t="s">
+        <v>86</v>
+      </c>
+      <c r="P170" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q170">
+        <v>6</v>
+      </c>
+      <c r="R170">
+        <v>3</v>
+      </c>
+      <c r="S170">
+        <v>9</v>
+      </c>
+      <c r="T170">
+        <v>2.8</v>
+      </c>
+      <c r="U170">
+        <v>2.15</v>
+      </c>
+      <c r="V170">
+        <v>3.72</v>
+      </c>
+      <c r="W170">
+        <v>1.34</v>
+      </c>
+      <c r="X170">
+        <v>3.22</v>
+      </c>
+      <c r="Y170">
+        <v>2.7</v>
+      </c>
+      <c r="Z170">
+        <v>1.46</v>
+      </c>
+      <c r="AA170">
+        <v>6.75</v>
+      </c>
+      <c r="AB170">
+        <v>1.1</v>
+      </c>
+      <c r="AC170">
+        <v>1.9</v>
+      </c>
+      <c r="AD170">
+        <v>3.65</v>
+      </c>
+      <c r="AE170">
+        <v>3.35</v>
+      </c>
+      <c r="AF170">
+        <v>1.05</v>
+      </c>
+      <c r="AG170">
+        <v>8</v>
+      </c>
+      <c r="AH170">
+        <v>1.22</v>
+      </c>
+      <c r="AI170">
+        <v>3.97</v>
+      </c>
+      <c r="AJ170">
+        <v>1.6</v>
+      </c>
+      <c r="AK170">
+        <v>2.2</v>
+      </c>
+      <c r="AL170">
+        <v>1.65</v>
+      </c>
+      <c r="AM170">
+        <v>2.1</v>
+      </c>
+      <c r="AN170">
+        <v>1.28</v>
+      </c>
+      <c r="AO170">
+        <v>1.3</v>
+      </c>
+      <c r="AP170">
+        <v>1.62</v>
+      </c>
+      <c r="AQ170">
+        <v>1.6</v>
+      </c>
+      <c r="AR170">
+        <v>0.2</v>
+      </c>
+      <c r="AS170">
+        <v>1.73</v>
+      </c>
+      <c r="AT170">
+        <v>0.18</v>
+      </c>
+      <c r="AU170">
+        <v>1.32</v>
+      </c>
+      <c r="AV170">
+        <v>1.27</v>
+      </c>
+      <c r="AW170">
+        <v>2.59</v>
+      </c>
+      <c r="AX170">
+        <v>1.44</v>
+      </c>
+      <c r="AY170">
+        <v>6</v>
+      </c>
+      <c r="AZ170">
+        <v>3.3</v>
+      </c>
+      <c r="BA170">
+        <v>1.29</v>
+      </c>
+      <c r="BB170">
+        <v>1.48</v>
+      </c>
+      <c r="BC170">
+        <v>1.83</v>
+      </c>
+      <c r="BD170">
+        <v>2.35</v>
+      </c>
+      <c r="BE170">
+        <v>3.2</v>
+      </c>
+      <c r="BF170">
+        <v>5</v>
+      </c>
+      <c r="BG170">
+        <v>3</v>
+      </c>
+      <c r="BH170">
+        <v>5</v>
+      </c>
+      <c r="BI170">
+        <v>2</v>
+      </c>
+      <c r="BJ170">
+        <v>10</v>
+      </c>
+      <c r="BK170">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="171" spans="1:63">
+      <c r="A171" s="1">
+        <v>170</v>
+      </c>
+      <c r="B171">
+        <v>5845611</v>
+      </c>
+      <c r="C171" t="s">
+        <v>63</v>
+      </c>
+      <c r="D171" t="s">
+        <v>64</v>
+      </c>
+      <c r="E171" s="2">
+        <v>45150.35763888889</v>
+      </c>
+      <c r="F171">
+        <v>22</v>
+      </c>
+      <c r="G171" t="s">
+        <v>77</v>
+      </c>
+      <c r="H171" t="s">
+        <v>75</v>
+      </c>
+      <c r="I171">
+        <v>1</v>
+      </c>
+      <c r="J171">
+        <v>0</v>
+      </c>
+      <c r="K171">
+        <v>1</v>
+      </c>
+      <c r="L171">
+        <v>1</v>
+      </c>
+      <c r="M171">
+        <v>0</v>
+      </c>
+      <c r="N171">
+        <v>1</v>
+      </c>
+      <c r="O171" t="s">
+        <v>199</v>
+      </c>
+      <c r="P171" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q171">
+        <v>1</v>
+      </c>
+      <c r="R171">
+        <v>6</v>
+      </c>
+      <c r="S171">
+        <v>7</v>
+      </c>
+      <c r="T171">
+        <v>3.4</v>
+      </c>
+      <c r="U171">
+        <v>2.3</v>
+      </c>
+      <c r="V171">
+        <v>2.5</v>
+      </c>
+      <c r="W171">
+        <v>1.35</v>
+      </c>
+      <c r="X171">
+        <v>2.9</v>
+      </c>
+      <c r="Y171">
+        <v>2.45</v>
+      </c>
+      <c r="Z171">
+        <v>1.46</v>
+      </c>
+      <c r="AA171">
+        <v>5.3</v>
+      </c>
+      <c r="AB171">
+        <v>1.12</v>
+      </c>
+      <c r="AC171">
+        <v>3.1</v>
+      </c>
+      <c r="AD171">
+        <v>3.6</v>
+      </c>
+      <c r="AE171">
+        <v>2.05</v>
+      </c>
+      <c r="AF171">
+        <v>1.04</v>
+      </c>
+      <c r="AG171">
+        <v>8.5</v>
+      </c>
+      <c r="AH171">
+        <v>1.2</v>
+      </c>
+      <c r="AI171">
+        <v>3.9</v>
+      </c>
+      <c r="AJ171">
+        <v>1.65</v>
+      </c>
+      <c r="AK171">
+        <v>2.1</v>
+      </c>
+      <c r="AL171">
+        <v>1.62</v>
+      </c>
+      <c r="AM171">
+        <v>2.15</v>
+      </c>
+      <c r="AN171">
+        <v>1.65</v>
+      </c>
+      <c r="AO171">
+        <v>1.28</v>
+      </c>
+      <c r="AP171">
+        <v>1.28</v>
+      </c>
+      <c r="AQ171">
+        <v>1.6</v>
+      </c>
+      <c r="AR171">
+        <v>1.5</v>
+      </c>
+      <c r="AS171">
+        <v>1.73</v>
+      </c>
+      <c r="AT171">
+        <v>1.36</v>
+      </c>
+      <c r="AU171">
+        <v>1.48</v>
+      </c>
+      <c r="AV171">
+        <v>1.36</v>
+      </c>
+      <c r="AW171">
+        <v>2.84</v>
+      </c>
+      <c r="AX171">
+        <v>2.9</v>
+      </c>
+      <c r="AY171">
+        <v>6</v>
+      </c>
+      <c r="AZ171">
+        <v>1.52</v>
+      </c>
+      <c r="BA171">
+        <v>1.33</v>
+      </c>
+      <c r="BB171">
+        <v>1.58</v>
+      </c>
+      <c r="BC171">
+        <v>2.03</v>
+      </c>
+      <c r="BD171">
+        <v>2.88</v>
+      </c>
+      <c r="BE171">
+        <v>3.98</v>
+      </c>
+      <c r="BF171">
+        <v>2</v>
+      </c>
+      <c r="BG171">
+        <v>6</v>
+      </c>
+      <c r="BH171">
+        <v>1</v>
+      </c>
+      <c r="BI171">
+        <v>17</v>
+      </c>
+      <c r="BJ171">
+        <v>3</v>
+      </c>
+      <c r="BK171">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="172" spans="1:63">
+      <c r="A172" s="1">
+        <v>171</v>
+      </c>
+      <c r="B172">
+        <v>5845609</v>
+      </c>
+      <c r="C172" t="s">
+        <v>63</v>
+      </c>
+      <c r="D172" t="s">
+        <v>64</v>
+      </c>
+      <c r="E172" s="2">
+        <v>45150.35763888889</v>
+      </c>
+      <c r="F172">
+        <v>22</v>
+      </c>
+      <c r="G172" t="s">
+        <v>76</v>
+      </c>
+      <c r="H172" t="s">
+        <v>67</v>
+      </c>
+      <c r="I172">
+        <v>2</v>
+      </c>
+      <c r="J172">
+        <v>1</v>
+      </c>
+      <c r="K172">
+        <v>3</v>
+      </c>
+      <c r="L172">
+        <v>3</v>
+      </c>
+      <c r="M172">
+        <v>4</v>
+      </c>
+      <c r="N172">
+        <v>7</v>
+      </c>
+      <c r="O172" t="s">
+        <v>200</v>
+      </c>
+      <c r="P172" t="s">
+        <v>285</v>
+      </c>
+      <c r="Q172">
+        <v>4</v>
+      </c>
+      <c r="R172">
+        <v>2</v>
+      </c>
+      <c r="S172">
+        <v>6</v>
+      </c>
+      <c r="T172">
+        <v>1.75</v>
+      </c>
+      <c r="U172">
+        <v>2.79</v>
+      </c>
+      <c r="V172">
+        <v>7.27</v>
+      </c>
+      <c r="W172">
+        <v>1.25</v>
+      </c>
+      <c r="X172">
+        <v>3.6</v>
+      </c>
+      <c r="Y172">
+        <v>2.26</v>
+      </c>
+      <c r="Z172">
+        <v>1.63</v>
+      </c>
+      <c r="AA172">
+        <v>4.4</v>
+      </c>
+      <c r="AB172">
+        <v>1.17</v>
+      </c>
+      <c r="AC172">
+        <v>1.33</v>
+      </c>
+      <c r="AD172">
+        <v>5</v>
+      </c>
+      <c r="AE172">
+        <v>7</v>
+      </c>
+      <c r="AF172">
+        <v>1.03</v>
+      </c>
+      <c r="AG172">
+        <v>23</v>
+      </c>
+      <c r="AH172">
+        <v>1.13</v>
+      </c>
+      <c r="AI172">
+        <v>4.9</v>
+      </c>
+      <c r="AJ172">
+        <v>1.53</v>
+      </c>
+      <c r="AK172">
+        <v>2.35</v>
+      </c>
+      <c r="AL172">
+        <v>1.85</v>
+      </c>
+      <c r="AM172">
+        <v>1.85</v>
+      </c>
+      <c r="AN172">
+        <v>1.09</v>
+      </c>
+      <c r="AO172">
+        <v>1.14</v>
+      </c>
+      <c r="AP172">
+        <v>3.5</v>
+      </c>
+      <c r="AQ172">
+        <v>2.3</v>
+      </c>
+      <c r="AR172">
+        <v>1.3</v>
+      </c>
+      <c r="AS172">
+        <v>2.09</v>
+      </c>
+      <c r="AT172">
+        <v>1.45</v>
+      </c>
+      <c r="AU172">
+        <v>1.75</v>
+      </c>
+      <c r="AV172">
+        <v>1.46</v>
+      </c>
+      <c r="AW172">
+        <v>3.21</v>
+      </c>
+      <c r="AX172">
+        <v>1.14</v>
+      </c>
+      <c r="AY172">
+        <v>9.25</v>
+      </c>
+      <c r="AZ172">
+        <v>6.75</v>
+      </c>
+      <c r="BA172">
+        <v>1.23</v>
+      </c>
+      <c r="BB172">
+        <v>1.4</v>
+      </c>
+      <c r="BC172">
+        <v>1.73</v>
+      </c>
+      <c r="BD172">
+        <v>2.2</v>
+      </c>
+      <c r="BE172">
+        <v>2.9</v>
+      </c>
+      <c r="BF172">
+        <v>5</v>
+      </c>
+      <c r="BG172">
+        <v>10</v>
+      </c>
+      <c r="BH172">
+        <v>3</v>
+      </c>
+      <c r="BI172">
+        <v>10</v>
+      </c>
+      <c r="BJ172">
+        <v>8</v>
+      </c>
+      <c r="BK172">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="173" spans="1:63">
+      <c r="A173" s="1">
+        <v>172</v>
+      </c>
+      <c r="B173">
+        <v>5845612</v>
+      </c>
+      <c r="C173" t="s">
+        <v>63</v>
+      </c>
+      <c r="D173" t="s">
+        <v>64</v>
+      </c>
+      <c r="E173" s="2">
+        <v>45151.35763888889</v>
+      </c>
+      <c r="F173">
+        <v>22</v>
+      </c>
+      <c r="G173" t="s">
+        <v>66</v>
+      </c>
+      <c r="H173" t="s">
+        <v>71</v>
+      </c>
+      <c r="I173">
+        <v>1</v>
+      </c>
+      <c r="J173">
+        <v>1</v>
+      </c>
+      <c r="K173">
+        <v>2</v>
+      </c>
+      <c r="L173">
+        <v>1</v>
+      </c>
+      <c r="M173">
+        <v>2</v>
+      </c>
+      <c r="N173">
+        <v>3</v>
+      </c>
+      <c r="O173" t="s">
+        <v>164</v>
+      </c>
+      <c r="P173" t="s">
+        <v>286</v>
+      </c>
+      <c r="Q173">
+        <v>4</v>
+      </c>
+      <c r="R173">
+        <v>1</v>
+      </c>
+      <c r="S173">
+        <v>5</v>
+      </c>
+      <c r="T173">
+        <v>2.1</v>
+      </c>
+      <c r="U173">
+        <v>2.25</v>
+      </c>
+      <c r="V173">
+        <v>5</v>
+      </c>
+      <c r="W173">
+        <v>1.35</v>
+      </c>
+      <c r="X173">
+        <v>3.05</v>
+      </c>
+      <c r="Y173">
+        <v>2.55</v>
+      </c>
+      <c r="Z173">
+        <v>1.45</v>
+      </c>
+      <c r="AA173">
+        <v>6.5</v>
+      </c>
+      <c r="AB173">
+        <v>1.1</v>
+      </c>
+      <c r="AC173">
+        <v>1.63</v>
+      </c>
+      <c r="AD173">
+        <v>3.55</v>
+      </c>
+      <c r="AE173">
+        <v>4.1</v>
+      </c>
+      <c r="AF173">
+        <v>1.04</v>
+      </c>
+      <c r="AG173">
+        <v>13.75</v>
+      </c>
+      <c r="AH173">
+        <v>1.25</v>
+      </c>
+      <c r="AI173">
+        <v>4</v>
+      </c>
+      <c r="AJ173">
+        <v>1.74</v>
+      </c>
+      <c r="AK173">
+        <v>2</v>
+      </c>
+      <c r="AL173">
+        <v>1.78</v>
+      </c>
+      <c r="AM173">
+        <v>1.95</v>
+      </c>
+      <c r="AN173">
+        <v>1.18</v>
+      </c>
+      <c r="AO173">
+        <v>1.25</v>
+      </c>
+      <c r="AP173">
+        <v>2.2</v>
+      </c>
+      <c r="AQ173">
+        <v>1.7</v>
+      </c>
+      <c r="AR173">
+        <v>1.7</v>
+      </c>
+      <c r="AS173">
+        <v>1.55</v>
+      </c>
+      <c r="AT173">
+        <v>1.82</v>
+      </c>
+      <c r="AU173">
+        <v>1.85</v>
+      </c>
+      <c r="AV173">
+        <v>1.26</v>
+      </c>
+      <c r="AW173">
+        <v>3.11</v>
+      </c>
+      <c r="AX173">
+        <v>1.32</v>
+      </c>
+      <c r="AY173">
+        <v>6.5</v>
+      </c>
+      <c r="AZ173">
+        <v>3.75</v>
+      </c>
+      <c r="BA173">
+        <v>1.36</v>
+      </c>
+      <c r="BB173">
+        <v>1.68</v>
+      </c>
+      <c r="BC173">
+        <v>2.06</v>
+      </c>
+      <c r="BD173">
+        <v>2.79</v>
+      </c>
+      <c r="BE173">
+        <v>3.94</v>
+      </c>
+      <c r="BF173">
+        <v>3</v>
+      </c>
+      <c r="BG173">
+        <v>7</v>
+      </c>
+      <c r="BH173">
+        <v>8</v>
+      </c>
+      <c r="BI173">
+        <v>4</v>
+      </c>
+      <c r="BJ173">
+        <v>11</v>
+      </c>
+      <c r="BK173">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="174" spans="1:63">
+      <c r="A174" s="1">
+        <v>173</v>
+      </c>
+      <c r="B174">
+        <v>5845613</v>
+      </c>
+      <c r="C174" t="s">
+        <v>63</v>
+      </c>
+      <c r="D174" t="s">
+        <v>64</v>
+      </c>
+      <c r="E174" s="2">
+        <v>45151.35763888889</v>
+      </c>
+      <c r="F174">
+        <v>22</v>
+      </c>
+      <c r="G174" t="s">
+        <v>74</v>
+      </c>
+      <c r="H174" t="s">
+        <v>79</v>
+      </c>
+      <c r="I174">
+        <v>0</v>
+      </c>
+      <c r="J174">
+        <v>0</v>
+      </c>
+      <c r="K174">
+        <v>0</v>
+      </c>
+      <c r="L174">
+        <v>4</v>
+      </c>
+      <c r="M174">
+        <v>0</v>
+      </c>
+      <c r="N174">
+        <v>4</v>
+      </c>
+      <c r="O174" t="s">
+        <v>201</v>
+      </c>
+      <c r="P174" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q174">
+        <v>7</v>
+      </c>
+      <c r="R174">
+        <v>3</v>
+      </c>
+      <c r="S174">
+        <v>10</v>
+      </c>
+      <c r="T174">
+        <v>1.72</v>
+      </c>
+      <c r="U174">
+        <v>2.78</v>
+      </c>
+      <c r="V174">
+        <v>8</v>
+      </c>
+      <c r="W174">
+        <v>1.25</v>
+      </c>
+      <c r="X174">
+        <v>3.6</v>
+      </c>
+      <c r="Y174">
+        <v>2.25</v>
+      </c>
+      <c r="Z174">
+        <v>1.55</v>
+      </c>
+      <c r="AA174">
+        <v>4.95</v>
+      </c>
+      <c r="AB174">
+        <v>1.14</v>
+      </c>
+      <c r="AC174">
+        <v>1.33</v>
+      </c>
+      <c r="AD174">
+        <v>4.96</v>
+      </c>
+      <c r="AE174">
+        <v>7.64</v>
+      </c>
+      <c r="AF174">
+        <v>1.02</v>
+      </c>
+      <c r="AG174">
+        <v>20</v>
+      </c>
+      <c r="AH174">
+        <v>1.18</v>
+      </c>
+      <c r="AI174">
+        <v>4.97</v>
+      </c>
+      <c r="AJ174">
+        <v>1.49</v>
+      </c>
+      <c r="AK174">
+        <v>2.33</v>
+      </c>
+      <c r="AL174">
+        <v>1.97</v>
+      </c>
+      <c r="AM174">
+        <v>1.79</v>
+      </c>
+      <c r="AN174">
+        <v>1.04</v>
+      </c>
+      <c r="AO174">
+        <v>1.13</v>
+      </c>
+      <c r="AP174">
+        <v>3.66</v>
+      </c>
+      <c r="AQ174">
+        <v>2.3</v>
+      </c>
+      <c r="AR174">
+        <v>1.33</v>
+      </c>
+      <c r="AS174">
+        <v>2.36</v>
+      </c>
+      <c r="AT174">
+        <v>1.2</v>
+      </c>
+      <c r="AU174">
+        <v>1.72</v>
+      </c>
+      <c r="AV174">
+        <v>1.21</v>
+      </c>
+      <c r="AW174">
+        <v>2.93</v>
+      </c>
+      <c r="AX174">
+        <v>1.11</v>
+      </c>
+      <c r="AY174">
+        <v>9.5</v>
+      </c>
+      <c r="AZ174">
+        <v>7.75</v>
+      </c>
+      <c r="BA174">
+        <v>1.3</v>
+      </c>
+      <c r="BB174">
+        <v>1.57</v>
+      </c>
+      <c r="BC174">
+        <v>1.95</v>
+      </c>
+      <c r="BD174">
+        <v>2.53</v>
+      </c>
+      <c r="BE174">
+        <v>3.48</v>
+      </c>
+      <c r="BF174">
+        <v>6</v>
+      </c>
+      <c r="BG174">
+        <v>3</v>
+      </c>
+      <c r="BH174">
+        <v>11</v>
+      </c>
+      <c r="BI174">
+        <v>5</v>
+      </c>
+      <c r="BJ174">
+        <v>17</v>
+      </c>
+      <c r="BK174">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="175" spans="1:63">
+      <c r="A175" s="1">
+        <v>174</v>
+      </c>
+      <c r="B175">
+        <v>5845614</v>
+      </c>
+      <c r="C175" t="s">
+        <v>63</v>
+      </c>
+      <c r="D175" t="s">
+        <v>64</v>
+      </c>
+      <c r="E175" s="2">
+        <v>45151.35763888889</v>
+      </c>
+      <c r="F175">
+        <v>22</v>
+      </c>
+      <c r="G175" t="s">
+        <v>69</v>
+      </c>
+      <c r="H175" t="s">
+        <v>70</v>
+      </c>
+      <c r="I175">
+        <v>1</v>
+      </c>
+      <c r="J175">
+        <v>0</v>
+      </c>
+      <c r="K175">
+        <v>1</v>
+      </c>
+      <c r="L175">
+        <v>1</v>
+      </c>
+      <c r="M175">
+        <v>0</v>
+      </c>
+      <c r="N175">
+        <v>1</v>
+      </c>
+      <c r="O175" t="s">
+        <v>199</v>
+      </c>
+      <c r="P175" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q175">
+        <v>3</v>
+      </c>
+      <c r="R175">
+        <v>2</v>
+      </c>
+      <c r="S175">
+        <v>5</v>
+      </c>
+      <c r="T175">
+        <v>3.3</v>
+      </c>
+      <c r="U175">
+        <v>2.05</v>
+      </c>
+      <c r="V175">
+        <v>3.2</v>
+      </c>
+      <c r="W175">
+        <v>1.45</v>
+      </c>
+      <c r="X175">
+        <v>2.6</v>
+      </c>
+      <c r="Y175">
+        <v>2.95</v>
+      </c>
+      <c r="Z175">
+        <v>1.35</v>
+      </c>
+      <c r="AA175">
+        <v>8.5</v>
+      </c>
+      <c r="AB175">
+        <v>1.07</v>
+      </c>
+      <c r="AC175">
+        <v>2.65</v>
+      </c>
+      <c r="AD175">
+        <v>2.92</v>
+      </c>
+      <c r="AE175">
+        <v>2.56</v>
+      </c>
+      <c r="AF175">
+        <v>1.08</v>
+      </c>
+      <c r="AG175">
+        <v>9.35</v>
+      </c>
+      <c r="AH175">
+        <v>1.35</v>
+      </c>
+      <c r="AI175">
+        <v>3.23</v>
+      </c>
+      <c r="AJ175">
+        <v>2.11</v>
+      </c>
+      <c r="AK175">
+        <v>1.74</v>
+      </c>
+      <c r="AL175">
+        <v>1.78</v>
+      </c>
+      <c r="AM175">
+        <v>1.95</v>
+      </c>
+      <c r="AN175">
+        <v>1.49</v>
+      </c>
+      <c r="AO175">
+        <v>1.33</v>
+      </c>
+      <c r="AP175">
+        <v>1.46</v>
+      </c>
+      <c r="AQ175">
+        <v>1.4</v>
+      </c>
+      <c r="AR175">
+        <v>1.4</v>
+      </c>
+      <c r="AS175">
+        <v>1.55</v>
+      </c>
+      <c r="AT175">
+        <v>1.27</v>
+      </c>
+      <c r="AU175">
+        <v>1.19</v>
+      </c>
+      <c r="AV175">
+        <v>1.09</v>
+      </c>
+      <c r="AW175">
+        <v>2.28</v>
+      </c>
+      <c r="AX175">
+        <v>2.1</v>
+      </c>
+      <c r="AY175">
+        <v>5.5</v>
+      </c>
+      <c r="AZ175">
+        <v>1.9</v>
+      </c>
+      <c r="BA175">
+        <v>1.51</v>
+      </c>
+      <c r="BB175">
+        <v>1.75</v>
+      </c>
+      <c r="BC175">
+        <v>2.19</v>
+      </c>
+      <c r="BD175">
+        <v>2.41</v>
+      </c>
+      <c r="BE175">
+        <v>4.6</v>
+      </c>
+      <c r="BF175">
+        <v>5</v>
+      </c>
+      <c r="BG175">
+        <v>3</v>
+      </c>
+      <c r="BH175">
+        <v>2</v>
+      </c>
+      <c r="BI175">
+        <v>6</v>
+      </c>
+      <c r="BJ175">
+        <v>7</v>
+      </c>
+      <c r="BK175">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="176" spans="1:63">
+      <c r="A176" s="1">
+        <v>175</v>
+      </c>
+      <c r="B176">
+        <v>5845615</v>
+      </c>
+      <c r="C176" t="s">
+        <v>63</v>
+      </c>
+      <c r="D176" t="s">
+        <v>64</v>
+      </c>
+      <c r="E176" s="2">
+        <v>45151.35763888889</v>
+      </c>
+      <c r="F176">
+        <v>22</v>
+      </c>
+      <c r="G176" t="s">
+        <v>65</v>
+      </c>
+      <c r="H176" t="s">
+        <v>72</v>
+      </c>
+      <c r="I176">
+        <v>1</v>
+      </c>
+      <c r="J176">
+        <v>1</v>
+      </c>
+      <c r="K176">
+        <v>2</v>
+      </c>
+      <c r="L176">
+        <v>2</v>
+      </c>
+      <c r="M176">
+        <v>1</v>
+      </c>
+      <c r="N176">
+        <v>3</v>
+      </c>
+      <c r="O176" t="s">
+        <v>202</v>
+      </c>
+      <c r="P176" t="s">
+        <v>287</v>
+      </c>
+      <c r="Q176">
+        <v>3</v>
+      </c>
+      <c r="R176">
+        <v>2</v>
+      </c>
+      <c r="S176">
+        <v>5</v>
+      </c>
+      <c r="T176">
+        <v>1.65</v>
+      </c>
+      <c r="U176">
+        <v>2.7</v>
+      </c>
+      <c r="V176">
+        <v>6.7</v>
+      </c>
+      <c r="W176">
+        <v>1.28</v>
+      </c>
+      <c r="X176">
+        <v>3.3</v>
+      </c>
+      <c r="Y176">
+        <v>2.3</v>
+      </c>
+      <c r="Z176">
+        <v>1.55</v>
+      </c>
+      <c r="AA176">
+        <v>5.2</v>
+      </c>
+      <c r="AB176">
+        <v>1.13</v>
+      </c>
+      <c r="AC176">
+        <v>1.25</v>
+      </c>
+      <c r="AD176">
+        <v>5.75</v>
+      </c>
+      <c r="AE176">
+        <v>10</v>
+      </c>
+      <c r="AF176">
+        <v>1.02</v>
+      </c>
+      <c r="AG176">
+        <v>10</v>
+      </c>
+      <c r="AH176">
+        <v>1.14</v>
+      </c>
+      <c r="AI176">
+        <v>4.7</v>
+      </c>
+      <c r="AJ176">
+        <v>1.53</v>
+      </c>
+      <c r="AK176">
+        <v>2.24</v>
+      </c>
+      <c r="AL176">
+        <v>2.05</v>
+      </c>
+      <c r="AM176">
+        <v>1.67</v>
+      </c>
+      <c r="AN176">
+        <v>1.02</v>
+      </c>
+      <c r="AO176">
+        <v>1.11</v>
+      </c>
+      <c r="AP176">
+        <v>3.5</v>
+      </c>
+      <c r="AQ176">
+        <v>1.2</v>
+      </c>
+      <c r="AR176">
+        <v>0.18</v>
+      </c>
+      <c r="AS176">
+        <v>1.36</v>
+      </c>
+      <c r="AT176">
+        <v>0.17</v>
+      </c>
+      <c r="AU176">
+        <v>1.17</v>
+      </c>
+      <c r="AV176">
+        <v>0.82</v>
+      </c>
+      <c r="AW176">
+        <v>1.99</v>
+      </c>
+      <c r="AX176">
+        <v>1.18</v>
+      </c>
+      <c r="AY176">
+        <v>8</v>
+      </c>
+      <c r="AZ176">
+        <v>5.75</v>
+      </c>
+      <c r="BA176">
+        <v>1.4</v>
+      </c>
+      <c r="BB176">
+        <v>1.75</v>
+      </c>
+      <c r="BC176">
+        <v>2.17</v>
+      </c>
+      <c r="BD176">
+        <v>2.5</v>
+      </c>
+      <c r="BE176">
+        <v>4.2</v>
+      </c>
+      <c r="BF176">
+        <v>5</v>
+      </c>
+      <c r="BG176">
+        <v>4</v>
+      </c>
+      <c r="BH176">
+        <v>6</v>
+      </c>
+      <c r="BI176">
+        <v>3</v>
+      </c>
+      <c r="BJ176">
+        <v>11</v>
+      </c>
+      <c r="BK176">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="177" spans="1:63">
+      <c r="A177" s="1">
+        <v>176</v>
+      </c>
+      <c r="B177">
+        <v>5845616</v>
+      </c>
+      <c r="C177" t="s">
+        <v>63</v>
+      </c>
+      <c r="D177" t="s">
+        <v>64</v>
+      </c>
+      <c r="E177" s="2">
+        <v>45151.35763888889</v>
+      </c>
+      <c r="F177">
+        <v>22</v>
+      </c>
+      <c r="G177" t="s">
+        <v>80</v>
+      </c>
+      <c r="H177" t="s">
+        <v>68</v>
+      </c>
+      <c r="I177">
+        <v>0</v>
+      </c>
+      <c r="J177">
+        <v>0</v>
+      </c>
+      <c r="K177">
+        <v>0</v>
+      </c>
+      <c r="L177">
+        <v>0</v>
+      </c>
+      <c r="M177">
+        <v>1</v>
+      </c>
+      <c r="N177">
+        <v>1</v>
+      </c>
+      <c r="O177" t="s">
+        <v>82</v>
+      </c>
+      <c r="P177" t="s">
+        <v>288</v>
+      </c>
+      <c r="Q177">
+        <v>3</v>
+      </c>
+      <c r="R177">
+        <v>4</v>
+      </c>
+      <c r="S177">
+        <v>7</v>
+      </c>
+      <c r="T177">
+        <v>3.98</v>
+      </c>
+      <c r="U177">
+        <v>2.27</v>
+      </c>
+      <c r="V177">
+        <v>2.71</v>
+      </c>
+      <c r="W177">
+        <v>1.36</v>
+      </c>
+      <c r="X177">
+        <v>3.09</v>
+      </c>
+      <c r="Y177">
+        <v>2.82</v>
+      </c>
+      <c r="Z177">
+        <v>1.43</v>
+      </c>
+      <c r="AA177">
+        <v>7</v>
+      </c>
+      <c r="AB177">
+        <v>1.09</v>
+      </c>
+      <c r="AC177">
+        <v>3.1</v>
+      </c>
+      <c r="AD177">
+        <v>3.3</v>
+      </c>
+      <c r="AE177">
+        <v>1.93</v>
+      </c>
+      <c r="AF177">
+        <v>1.05</v>
+      </c>
+      <c r="AG177">
+        <v>11.75</v>
+      </c>
+      <c r="AH177">
+        <v>1.26</v>
+      </c>
+      <c r="AI177">
+        <v>3.7</v>
+      </c>
+      <c r="AJ177">
+        <v>1.84</v>
+      </c>
+      <c r="AK177">
+        <v>1.9</v>
+      </c>
+      <c r="AL177">
+        <v>1.68</v>
+      </c>
+      <c r="AM177">
+        <v>2.05</v>
+      </c>
+      <c r="AN177">
+        <v>1.7</v>
+      </c>
+      <c r="AO177">
+        <v>1.32</v>
+      </c>
+      <c r="AP177">
+        <v>1.31</v>
+      </c>
+      <c r="AQ177">
+        <v>1</v>
+      </c>
+      <c r="AR177">
+        <v>1</v>
+      </c>
+      <c r="AS177">
+        <v>0.91</v>
+      </c>
+      <c r="AT177">
+        <v>1.18</v>
+      </c>
+      <c r="AU177">
+        <v>1.79</v>
+      </c>
+      <c r="AV177">
+        <v>1.37</v>
+      </c>
+      <c r="AW177">
+        <v>3.16</v>
+      </c>
+      <c r="AX177">
+        <v>3.1</v>
+      </c>
+      <c r="AY177">
+        <v>5.75</v>
+      </c>
+      <c r="AZ177">
+        <v>1.45</v>
+      </c>
+      <c r="BA177">
+        <v>1.4</v>
+      </c>
+      <c r="BB177">
+        <v>1.73</v>
+      </c>
+      <c r="BC177">
+        <v>2.21</v>
+      </c>
+      <c r="BD177">
+        <v>2.98</v>
+      </c>
+      <c r="BE177">
+        <v>4.25</v>
+      </c>
+      <c r="BF177">
+        <v>3</v>
+      </c>
+      <c r="BG177">
+        <v>5</v>
+      </c>
+      <c r="BH177">
+        <v>5</v>
+      </c>
+      <c r="BI177">
+        <v>8</v>
+      </c>
+      <c r="BJ177">
+        <v>8</v>
+      </c>
+      <c r="BK177">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/China Chinese Super League_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/China Chinese Super League_2023.xlsx
@@ -34852,13 +34852,13 @@
         <v>4</v>
       </c>
       <c r="BH176">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BI176">
         <v>3</v>
       </c>
       <c r="BJ176">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BK176">
         <v>7</v>

--- a/Bases_de_Dados_(2022-2024)/China Chinese Super League_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/China Chinese Super League_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1119" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1137" uniqueCount="289">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1242,7 +1242,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK177"/>
+  <dimension ref="A1:BK180"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1955,7 +1955,7 @@
         <v>0</v>
       </c>
       <c r="AS4">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AT4">
         <v>1.09</v>
@@ -2149,7 +2149,7 @@
         <v>2</v>
       </c>
       <c r="AT5">
-        <v>0.55</v>
+        <v>0.58</v>
       </c>
       <c r="AU5">
         <v>0</v>
@@ -2913,7 +2913,7 @@
         <v>1</v>
       </c>
       <c r="AT9">
-        <v>0.18</v>
+        <v>0.25</v>
       </c>
       <c r="AU9">
         <v>0</v>
@@ -3674,7 +3674,7 @@
         <v>0</v>
       </c>
       <c r="AS13">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AT13">
         <v>0.55</v>
@@ -3868,7 +3868,7 @@
         <v>1.55</v>
       </c>
       <c r="AT14">
-        <v>0.18</v>
+        <v>0.25</v>
       </c>
       <c r="AU14">
         <v>0.63</v>
@@ -4247,7 +4247,7 @@
         <v>0</v>
       </c>
       <c r="AS16">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="AT16">
         <v>0.17</v>
@@ -4629,7 +4629,7 @@
         <v>0</v>
       </c>
       <c r="AS18">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AT18">
         <v>1.45</v>
@@ -5778,7 +5778,7 @@
         <v>1</v>
       </c>
       <c r="AT24">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AU24">
         <v>0.62</v>
@@ -6539,7 +6539,7 @@
         <v>1</v>
       </c>
       <c r="AS28">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AT28">
         <v>1.36</v>
@@ -6733,7 +6733,7 @@
         <v>1.73</v>
       </c>
       <c r="AT29">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AU29">
         <v>1.36</v>
@@ -7303,7 +7303,7 @@
         <v>3</v>
       </c>
       <c r="AS32">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="AT32">
         <v>1.82</v>
@@ -7497,7 +7497,7 @@
         <v>1.36</v>
       </c>
       <c r="AT33">
-        <v>0.55</v>
+        <v>0.58</v>
       </c>
       <c r="AU33">
         <v>1.13</v>
@@ -8643,7 +8643,7 @@
         <v>1.91</v>
       </c>
       <c r="AT39">
-        <v>0.18</v>
+        <v>0.25</v>
       </c>
       <c r="AU39">
         <v>1.33</v>
@@ -9789,7 +9789,7 @@
         <v>2</v>
       </c>
       <c r="AT45">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AU45">
         <v>1.29</v>
@@ -10168,10 +10168,10 @@
         <v>0.33</v>
       </c>
       <c r="AS47">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="AT47">
-        <v>0.18</v>
+        <v>0.25</v>
       </c>
       <c r="AU47">
         <v>1.61</v>
@@ -10553,7 +10553,7 @@
         <v>1.73</v>
       </c>
       <c r="AT49">
-        <v>0.55</v>
+        <v>0.58</v>
       </c>
       <c r="AU49">
         <v>1.37</v>
@@ -11126,7 +11126,7 @@
         <v>1.55</v>
       </c>
       <c r="AT52">
-        <v>0.55</v>
+        <v>0.58</v>
       </c>
       <c r="AU52">
         <v>0.87</v>
@@ -11505,7 +11505,7 @@
         <v>2.33</v>
       </c>
       <c r="AS54">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AT54">
         <v>2.64</v>
@@ -14182,7 +14182,7 @@
         <v>1.73</v>
       </c>
       <c r="AT68">
-        <v>0.18</v>
+        <v>0.25</v>
       </c>
       <c r="AU68">
         <v>1.59</v>
@@ -14561,7 +14561,7 @@
         <v>0.5</v>
       </c>
       <c r="AS70">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AT70">
         <v>0.17</v>
@@ -14752,7 +14752,7 @@
         <v>0.33</v>
       </c>
       <c r="AS71">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="AT71">
         <v>0.45</v>
@@ -14946,7 +14946,7 @@
         <v>1.73</v>
       </c>
       <c r="AT72">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AU72">
         <v>1.13</v>
@@ -15707,7 +15707,7 @@
         <v>1.25</v>
       </c>
       <c r="AS76">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AT76">
         <v>1.18</v>
@@ -16283,7 +16283,7 @@
         <v>1.36</v>
       </c>
       <c r="AT79">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AU79">
         <v>1.38</v>
@@ -16474,7 +16474,7 @@
         <v>1</v>
       </c>
       <c r="AT80">
-        <v>0.55</v>
+        <v>0.58</v>
       </c>
       <c r="AU80">
         <v>1.17</v>
@@ -16853,7 +16853,7 @@
         <v>0.33</v>
       </c>
       <c r="AS82">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AT82">
         <v>0.17</v>
@@ -17235,7 +17235,7 @@
         <v>1.5</v>
       </c>
       <c r="AS84">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="AT84">
         <v>1.36</v>
@@ -17426,7 +17426,7 @@
         <v>0</v>
       </c>
       <c r="AS85">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AT85">
         <v>0.27</v>
@@ -17620,7 +17620,7 @@
         <v>1.55</v>
       </c>
       <c r="AT86">
-        <v>0.55</v>
+        <v>0.58</v>
       </c>
       <c r="AU86">
         <v>1.08</v>
@@ -18002,7 +18002,7 @@
         <v>0.91</v>
       </c>
       <c r="AT88">
-        <v>0.18</v>
+        <v>0.25</v>
       </c>
       <c r="AU88">
         <v>1.9</v>
@@ -18766,7 +18766,7 @@
         <v>1.91</v>
       </c>
       <c r="AT92">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AU92">
         <v>1.73</v>
@@ -19145,7 +19145,7 @@
         <v>0.4</v>
       </c>
       <c r="AS94">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="AT94">
         <v>0.55</v>
@@ -20100,10 +20100,10 @@
         <v>0.83</v>
       </c>
       <c r="AS99">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AT99">
-        <v>0.55</v>
+        <v>0.58</v>
       </c>
       <c r="AU99">
         <v>1.45</v>
@@ -20294,7 +20294,7 @@
         <v>1.55</v>
       </c>
       <c r="AT100">
-        <v>0.18</v>
+        <v>0.25</v>
       </c>
       <c r="AU100">
         <v>1.25</v>
@@ -21055,7 +21055,7 @@
         <v>1.67</v>
       </c>
       <c r="AS104">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AT104">
         <v>1.09</v>
@@ -21440,7 +21440,7 @@
         <v>1.91</v>
       </c>
       <c r="AT106">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AU106">
         <v>1.52</v>
@@ -21631,7 +21631,7 @@
         <v>1.36</v>
       </c>
       <c r="AT107">
-        <v>0.18</v>
+        <v>0.25</v>
       </c>
       <c r="AU107">
         <v>1.28</v>
@@ -22013,7 +22013,7 @@
         <v>0.91</v>
       </c>
       <c r="AT109">
-        <v>0.55</v>
+        <v>0.58</v>
       </c>
       <c r="AU109">
         <v>1.91</v>
@@ -22392,7 +22392,7 @@
         <v>2.71</v>
       </c>
       <c r="AS111">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AT111">
         <v>2.64</v>
@@ -23729,7 +23729,7 @@
         <v>2.17</v>
       </c>
       <c r="AS118">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AT118">
         <v>1.82</v>
@@ -24111,7 +24111,7 @@
         <v>0.17</v>
       </c>
       <c r="AS120">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="AT120">
         <v>0.27</v>
@@ -24493,7 +24493,7 @@
         <v>2.29</v>
       </c>
       <c r="AS122">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AT122">
         <v>1.82</v>
@@ -24878,7 +24878,7 @@
         <v>1.5</v>
       </c>
       <c r="AT124">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AU124">
         <v>1.44</v>
@@ -25257,7 +25257,7 @@
         <v>1.88</v>
       </c>
       <c r="AS126">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="AT126">
         <v>1.45</v>
@@ -26594,10 +26594,10 @@
         <v>1.75</v>
       </c>
       <c r="AS133">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AT133">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AU133">
         <v>1.37</v>
@@ -27170,7 +27170,7 @@
         <v>1.91</v>
       </c>
       <c r="AT136">
-        <v>0.55</v>
+        <v>0.58</v>
       </c>
       <c r="AU136">
         <v>1.51</v>
@@ -27549,7 +27549,7 @@
         <v>1.29</v>
       </c>
       <c r="AS138">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="AT138">
         <v>1.2</v>
@@ -28504,7 +28504,7 @@
         <v>1.2</v>
       </c>
       <c r="AS143">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AT143">
         <v>1.09</v>
@@ -28698,7 +28698,7 @@
         <v>2</v>
       </c>
       <c r="AT144">
-        <v>0.18</v>
+        <v>0.25</v>
       </c>
       <c r="AU144">
         <v>1.68</v>
@@ -28889,7 +28889,7 @@
         <v>1.55</v>
       </c>
       <c r="AT145">
-        <v>0.55</v>
+        <v>0.58</v>
       </c>
       <c r="AU145">
         <v>1.72</v>
@@ -30223,7 +30223,7 @@
         <v>1.13</v>
       </c>
       <c r="AS152">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AT152">
         <v>1.18</v>
@@ -30417,7 +30417,7 @@
         <v>1.55</v>
       </c>
       <c r="AT153">
-        <v>0.18</v>
+        <v>0.25</v>
       </c>
       <c r="AU153">
         <v>1.8</v>
@@ -30605,10 +30605,10 @@
         <v>1.56</v>
       </c>
       <c r="AS154">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="AT154">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AU154">
         <v>1.75</v>
@@ -30796,7 +30796,7 @@
         <v>1.6</v>
       </c>
       <c r="AS155">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AT155">
         <v>1.45</v>
@@ -30987,10 +30987,10 @@
         <v>0.6</v>
       </c>
       <c r="AS156">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AT156">
-        <v>0.55</v>
+        <v>0.58</v>
       </c>
       <c r="AU156">
         <v>1.71</v>
@@ -32515,7 +32515,7 @@
         <v>0.5</v>
       </c>
       <c r="AS164">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AT164">
         <v>0.55</v>
@@ -32706,7 +32706,7 @@
         <v>1.33</v>
       </c>
       <c r="AS165">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AT165">
         <v>1.36</v>
@@ -33664,7 +33664,7 @@
         <v>1.73</v>
       </c>
       <c r="AT170">
-        <v>0.18</v>
+        <v>0.25</v>
       </c>
       <c r="AU170">
         <v>1.32</v>
@@ -34043,7 +34043,7 @@
         <v>1.3</v>
       </c>
       <c r="AS172">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="AT172">
         <v>1.45</v>
@@ -34425,7 +34425,7 @@
         <v>1.33</v>
       </c>
       <c r="AS174">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AT174">
         <v>1.2</v>
@@ -34619,7 +34619,7 @@
         <v>1.55</v>
       </c>
       <c r="AT175">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AU175">
         <v>1.19</v>
@@ -35053,6 +35053,579 @@
       </c>
       <c r="BK177">
         <v>13</v>
+      </c>
+    </row>
+    <row r="178" spans="1:63">
+      <c r="A178" s="1">
+        <v>177</v>
+      </c>
+      <c r="B178">
+        <v>5845624</v>
+      </c>
+      <c r="C178" t="s">
+        <v>63</v>
+      </c>
+      <c r="D178" t="s">
+        <v>64</v>
+      </c>
+      <c r="E178" s="2">
+        <v>45156.35763888889</v>
+      </c>
+      <c r="F178">
+        <v>23</v>
+      </c>
+      <c r="G178" t="s">
+        <v>76</v>
+      </c>
+      <c r="H178" t="s">
+        <v>73</v>
+      </c>
+      <c r="I178">
+        <v>0</v>
+      </c>
+      <c r="J178">
+        <v>0</v>
+      </c>
+      <c r="K178">
+        <v>0</v>
+      </c>
+      <c r="L178">
+        <v>1</v>
+      </c>
+      <c r="M178">
+        <v>1</v>
+      </c>
+      <c r="N178">
+        <v>2</v>
+      </c>
+      <c r="O178" t="s">
+        <v>99</v>
+      </c>
+      <c r="P178" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q178">
+        <v>-1</v>
+      </c>
+      <c r="R178">
+        <v>-1</v>
+      </c>
+      <c r="S178">
+        <v>-1</v>
+      </c>
+      <c r="T178">
+        <v>1.62</v>
+      </c>
+      <c r="U178">
+        <v>2.75</v>
+      </c>
+      <c r="V178">
+        <v>9.5</v>
+      </c>
+      <c r="W178">
+        <v>1.25</v>
+      </c>
+      <c r="X178">
+        <v>3.75</v>
+      </c>
+      <c r="Y178">
+        <v>2.2</v>
+      </c>
+      <c r="Z178">
+        <v>1.62</v>
+      </c>
+      <c r="AA178">
+        <v>5</v>
+      </c>
+      <c r="AB178">
+        <v>1.17</v>
+      </c>
+      <c r="AC178">
+        <v>1.2</v>
+      </c>
+      <c r="AD178">
+        <v>6.5</v>
+      </c>
+      <c r="AE178">
+        <v>11</v>
+      </c>
+      <c r="AF178">
+        <v>1.02</v>
+      </c>
+      <c r="AG178">
+        <v>13</v>
+      </c>
+      <c r="AH178">
+        <v>1.13</v>
+      </c>
+      <c r="AI178">
+        <v>4.9</v>
+      </c>
+      <c r="AJ178">
+        <v>1.4</v>
+      </c>
+      <c r="AK178">
+        <v>2.75</v>
+      </c>
+      <c r="AL178">
+        <v>2.05</v>
+      </c>
+      <c r="AM178">
+        <v>1.7</v>
+      </c>
+      <c r="AN178">
+        <v>1.02</v>
+      </c>
+      <c r="AO178">
+        <v>1.11</v>
+      </c>
+      <c r="AP178">
+        <v>4.35</v>
+      </c>
+      <c r="AQ178">
+        <v>2.09</v>
+      </c>
+      <c r="AR178">
+        <v>0.55</v>
+      </c>
+      <c r="AS178">
+        <v>2</v>
+      </c>
+      <c r="AT178">
+        <v>0.58</v>
+      </c>
+      <c r="AU178">
+        <v>1.7</v>
+      </c>
+      <c r="AV178">
+        <v>1.04</v>
+      </c>
+      <c r="AW178">
+        <v>2.74</v>
+      </c>
+      <c r="AX178">
+        <v>1.17</v>
+      </c>
+      <c r="AY178">
+        <v>11</v>
+      </c>
+      <c r="AZ178">
+        <v>6.5</v>
+      </c>
+      <c r="BA178">
+        <v>1.39</v>
+      </c>
+      <c r="BB178">
+        <v>1.67</v>
+      </c>
+      <c r="BC178">
+        <v>2.12</v>
+      </c>
+      <c r="BD178">
+        <v>2.8</v>
+      </c>
+      <c r="BE178">
+        <v>3.9</v>
+      </c>
+      <c r="BF178">
+        <v>-1</v>
+      </c>
+      <c r="BG178">
+        <v>-1</v>
+      </c>
+      <c r="BH178">
+        <v>-1</v>
+      </c>
+      <c r="BI178">
+        <v>-1</v>
+      </c>
+      <c r="BJ178">
+        <v>-1</v>
+      </c>
+      <c r="BK178">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:63">
+      <c r="A179" s="1">
+        <v>178</v>
+      </c>
+      <c r="B179">
+        <v>5845618</v>
+      </c>
+      <c r="C179" t="s">
+        <v>63</v>
+      </c>
+      <c r="D179" t="s">
+        <v>64</v>
+      </c>
+      <c r="E179" s="2">
+        <v>45156.35763888889</v>
+      </c>
+      <c r="F179">
+        <v>23</v>
+      </c>
+      <c r="G179" t="s">
+        <v>67</v>
+      </c>
+      <c r="H179" t="s">
+        <v>78</v>
+      </c>
+      <c r="I179">
+        <v>0</v>
+      </c>
+      <c r="J179">
+        <v>0</v>
+      </c>
+      <c r="K179">
+        <v>0</v>
+      </c>
+      <c r="L179">
+        <v>0</v>
+      </c>
+      <c r="M179">
+        <v>0</v>
+      </c>
+      <c r="N179">
+        <v>0</v>
+      </c>
+      <c r="O179" t="s">
+        <v>82</v>
+      </c>
+      <c r="P179" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q179">
+        <v>-1</v>
+      </c>
+      <c r="R179">
+        <v>-1</v>
+      </c>
+      <c r="S179">
+        <v>-1</v>
+      </c>
+      <c r="T179">
+        <v>2.03</v>
+      </c>
+      <c r="U179">
+        <v>2.4</v>
+      </c>
+      <c r="V179">
+        <v>5.45</v>
+      </c>
+      <c r="W179">
+        <v>1.32</v>
+      </c>
+      <c r="X179">
+        <v>3.22</v>
+      </c>
+      <c r="Y179">
+        <v>2.49</v>
+      </c>
+      <c r="Z179">
+        <v>1.5</v>
+      </c>
+      <c r="AA179">
+        <v>5.9</v>
+      </c>
+      <c r="AB179">
+        <v>1.12</v>
+      </c>
+      <c r="AC179">
+        <v>1.67</v>
+      </c>
+      <c r="AD179">
+        <v>3.8</v>
+      </c>
+      <c r="AE179">
+        <v>4.5</v>
+      </c>
+      <c r="AF179">
+        <v>1.04</v>
+      </c>
+      <c r="AG179">
+        <v>15.75</v>
+      </c>
+      <c r="AH179">
+        <v>1.18</v>
+      </c>
+      <c r="AI179">
+        <v>4.15</v>
+      </c>
+      <c r="AJ179">
+        <v>1.61</v>
+      </c>
+      <c r="AK179">
+        <v>2.23</v>
+      </c>
+      <c r="AL179">
+        <v>1.75</v>
+      </c>
+      <c r="AM179">
+        <v>2.01</v>
+      </c>
+      <c r="AN179">
+        <v>1.13</v>
+      </c>
+      <c r="AO179">
+        <v>1.23</v>
+      </c>
+      <c r="AP179">
+        <v>2.48</v>
+      </c>
+      <c r="AQ179">
+        <v>1.73</v>
+      </c>
+      <c r="AR179">
+        <v>0.18</v>
+      </c>
+      <c r="AS179">
+        <v>1.67</v>
+      </c>
+      <c r="AT179">
+        <v>0.25</v>
+      </c>
+      <c r="AU179">
+        <v>1.4</v>
+      </c>
+      <c r="AV179">
+        <v>1.23</v>
+      </c>
+      <c r="AW179">
+        <v>2.63</v>
+      </c>
+      <c r="AX179">
+        <v>1.33</v>
+      </c>
+      <c r="AY179">
+        <v>9</v>
+      </c>
+      <c r="AZ179">
+        <v>3.75</v>
+      </c>
+      <c r="BA179">
+        <v>1.32</v>
+      </c>
+      <c r="BB179">
+        <v>1.57</v>
+      </c>
+      <c r="BC179">
+        <v>2</v>
+      </c>
+      <c r="BD179">
+        <v>2.5</v>
+      </c>
+      <c r="BE179">
+        <v>3.4</v>
+      </c>
+      <c r="BF179">
+        <v>-1</v>
+      </c>
+      <c r="BG179">
+        <v>-1</v>
+      </c>
+      <c r="BH179">
+        <v>-1</v>
+      </c>
+      <c r="BI179">
+        <v>-1</v>
+      </c>
+      <c r="BJ179">
+        <v>-1</v>
+      </c>
+      <c r="BK179">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:63">
+      <c r="A180" s="1">
+        <v>179</v>
+      </c>
+      <c r="B180">
+        <v>5845617</v>
+      </c>
+      <c r="C180" t="s">
+        <v>63</v>
+      </c>
+      <c r="D180" t="s">
+        <v>64</v>
+      </c>
+      <c r="E180" s="2">
+        <v>45156.35763888889</v>
+      </c>
+      <c r="F180">
+        <v>23</v>
+      </c>
+      <c r="G180" t="s">
+        <v>74</v>
+      </c>
+      <c r="H180" t="s">
+        <v>70</v>
+      </c>
+      <c r="I180">
+        <v>0</v>
+      </c>
+      <c r="J180">
+        <v>0</v>
+      </c>
+      <c r="K180">
+        <v>0</v>
+      </c>
+      <c r="L180">
+        <v>1</v>
+      </c>
+      <c r="M180">
+        <v>0</v>
+      </c>
+      <c r="N180">
+        <v>1</v>
+      </c>
+      <c r="O180" t="s">
+        <v>131</v>
+      </c>
+      <c r="P180" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q180">
+        <v>-1</v>
+      </c>
+      <c r="R180">
+        <v>-1</v>
+      </c>
+      <c r="S180">
+        <v>-1</v>
+      </c>
+      <c r="T180">
+        <v>1.78</v>
+      </c>
+      <c r="U180">
+        <v>2.6</v>
+      </c>
+      <c r="V180">
+        <v>6.5</v>
+      </c>
+      <c r="W180">
+        <v>1.3</v>
+      </c>
+      <c r="X180">
+        <v>3.2</v>
+      </c>
+      <c r="Y180">
+        <v>2.4</v>
+      </c>
+      <c r="Z180">
+        <v>1.5</v>
+      </c>
+      <c r="AA180">
+        <v>5.45</v>
+      </c>
+      <c r="AB180">
+        <v>1.12</v>
+      </c>
+      <c r="AC180">
+        <v>1.29</v>
+      </c>
+      <c r="AD180">
+        <v>5</v>
+      </c>
+      <c r="AE180">
+        <v>10</v>
+      </c>
+      <c r="AF180">
+        <v>1.03</v>
+      </c>
+      <c r="AG180">
+        <v>17.25</v>
+      </c>
+      <c r="AH180">
+        <v>1.2</v>
+      </c>
+      <c r="AI180">
+        <v>4</v>
+      </c>
+      <c r="AJ180">
+        <v>1.59</v>
+      </c>
+      <c r="AK180">
+        <v>2.23</v>
+      </c>
+      <c r="AL180">
+        <v>1.91</v>
+      </c>
+      <c r="AM180">
+        <v>1.8</v>
+      </c>
+      <c r="AN180">
+        <v>1.07</v>
+      </c>
+      <c r="AO180">
+        <v>1.17</v>
+      </c>
+      <c r="AP180">
+        <v>3.2</v>
+      </c>
+      <c r="AQ180">
+        <v>2.36</v>
+      </c>
+      <c r="AR180">
+        <v>1.27</v>
+      </c>
+      <c r="AS180">
+        <v>2.42</v>
+      </c>
+      <c r="AT180">
+        <v>1.17</v>
+      </c>
+      <c r="AU180">
+        <v>1.74</v>
+      </c>
+      <c r="AV180">
+        <v>1.09</v>
+      </c>
+      <c r="AW180">
+        <v>2.83</v>
+      </c>
+      <c r="AX180">
+        <v>1.16</v>
+      </c>
+      <c r="AY180">
+        <v>10.5</v>
+      </c>
+      <c r="AZ180">
+        <v>7.1</v>
+      </c>
+      <c r="BA180">
+        <v>1.34</v>
+      </c>
+      <c r="BB180">
+        <v>1.62</v>
+      </c>
+      <c r="BC180">
+        <v>2.1</v>
+      </c>
+      <c r="BD180">
+        <v>2.8</v>
+      </c>
+      <c r="BE180">
+        <v>4</v>
+      </c>
+      <c r="BF180">
+        <v>-1</v>
+      </c>
+      <c r="BG180">
+        <v>-1</v>
+      </c>
+      <c r="BH180">
+        <v>-1</v>
+      </c>
+      <c r="BI180">
+        <v>-1</v>
+      </c>
+      <c r="BJ180">
+        <v>-1</v>
+      </c>
+      <c r="BK180">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/China Chinese Super League_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/China Chinese Super League_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1137" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1161" uniqueCount="291">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -625,6 +625,9 @@
     <t>['29', '69']</t>
   </si>
   <si>
+    <t>['28', '37']</t>
+  </si>
+  <si>
     <t>['64', '79']</t>
   </si>
   <si>
@@ -881,6 +884,9 @@
   </si>
   <si>
     <t>['60']</t>
+  </si>
+  <si>
+    <t>['23', '25', '42']</t>
   </si>
 </sst>
 </file>
@@ -1242,7 +1248,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK180"/>
+  <dimension ref="A1:BK184"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1573,10 +1579,10 @@
         <v>0</v>
       </c>
       <c r="AS2">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AT2">
-        <v>0.55</v>
+        <v>0.75</v>
       </c>
       <c r="AU2">
         <v>0</v>
@@ -1677,7 +1683,7 @@
         <v>82</v>
       </c>
       <c r="P3" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q3">
         <v>5</v>
@@ -1868,7 +1874,7 @@
         <v>82</v>
       </c>
       <c r="P4" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q4">
         <v>9</v>
@@ -2059,7 +2065,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q5">
         <v>8</v>
@@ -2146,7 +2152,7 @@
         <v>0</v>
       </c>
       <c r="AS5">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT5">
         <v>0.58</v>
@@ -2250,7 +2256,7 @@
         <v>84</v>
       </c>
       <c r="P6" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q6">
         <v>2</v>
@@ -2441,7 +2447,7 @@
         <v>85</v>
       </c>
       <c r="P7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q7">
         <v>7</v>
@@ -2823,7 +2829,7 @@
         <v>87</v>
       </c>
       <c r="P9" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q9">
         <v>4</v>
@@ -2910,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="AS9">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AT9">
         <v>0.25</v>
@@ -3014,7 +3020,7 @@
         <v>88</v>
       </c>
       <c r="P10" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q10">
         <v>4</v>
@@ -3396,7 +3402,7 @@
         <v>82</v>
       </c>
       <c r="P12" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q12">
         <v>7</v>
@@ -3486,7 +3492,7 @@
         <v>1.73</v>
       </c>
       <c r="AT12">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AU12">
         <v>0</v>
@@ -3677,7 +3683,7 @@
         <v>2.42</v>
       </c>
       <c r="AT13">
-        <v>0.55</v>
+        <v>0.75</v>
       </c>
       <c r="AU13">
         <v>0</v>
@@ -4056,7 +4062,7 @@
         <v>1</v>
       </c>
       <c r="AS15">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AT15">
         <v>1.2</v>
@@ -4160,7 +4166,7 @@
         <v>92</v>
       </c>
       <c r="P16" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q16">
         <v>7</v>
@@ -4351,7 +4357,7 @@
         <v>93</v>
       </c>
       <c r="P17" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q17">
         <v>3</v>
@@ -4733,7 +4739,7 @@
         <v>95</v>
       </c>
       <c r="P19" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q19">
         <v>2</v>
@@ -4823,7 +4829,7 @@
         <v>1.73</v>
       </c>
       <c r="AT19">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AU19">
         <v>1.1</v>
@@ -4924,7 +4930,7 @@
         <v>96</v>
       </c>
       <c r="P20" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q20">
         <v>2</v>
@@ -5584,7 +5590,7 @@
         <v>1</v>
       </c>
       <c r="AS23">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AT23">
         <v>1.36</v>
@@ -5688,7 +5694,7 @@
         <v>82</v>
       </c>
       <c r="P24" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q24">
         <v>9</v>
@@ -5775,7 +5781,7 @@
         <v>0</v>
       </c>
       <c r="AS24">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AT24">
         <v>1.17</v>
@@ -5969,7 +5975,7 @@
         <v>0.91</v>
       </c>
       <c r="AT25">
-        <v>0.45</v>
+        <v>0.67</v>
       </c>
       <c r="AU25">
         <v>0</v>
@@ -6157,7 +6163,7 @@
         <v>0</v>
       </c>
       <c r="AS26">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT26">
         <v>1.09</v>
@@ -6261,7 +6267,7 @@
         <v>82</v>
       </c>
       <c r="P27" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q27">
         <v>2</v>
@@ -6351,7 +6357,7 @@
         <v>1.55</v>
       </c>
       <c r="AT27">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AU27">
         <v>0.92</v>
@@ -6452,7 +6458,7 @@
         <v>82</v>
       </c>
       <c r="P28" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q28">
         <v>3</v>
@@ -6643,7 +6649,7 @@
         <v>83</v>
       </c>
       <c r="P29" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q29">
         <v>5</v>
@@ -6834,7 +6840,7 @@
         <v>99</v>
       </c>
       <c r="P30" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q30">
         <v>11</v>
@@ -6921,10 +6927,10 @@
         <v>0</v>
       </c>
       <c r="AS30">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AT30">
-        <v>0.45</v>
+        <v>0.67</v>
       </c>
       <c r="AU30">
         <v>0.9399999999999999</v>
@@ -7115,7 +7121,7 @@
         <v>1.5</v>
       </c>
       <c r="AT31">
-        <v>0.55</v>
+        <v>0.75</v>
       </c>
       <c r="AU31">
         <v>1.23</v>
@@ -7216,7 +7222,7 @@
         <v>101</v>
       </c>
       <c r="P32" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q32">
         <v>8</v>
@@ -7306,7 +7312,7 @@
         <v>2</v>
       </c>
       <c r="AT32">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AU32">
         <v>1.62</v>
@@ -7407,7 +7413,7 @@
         <v>102</v>
       </c>
       <c r="P33" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q33">
         <v>7</v>
@@ -7494,7 +7500,7 @@
         <v>1</v>
       </c>
       <c r="AS33">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AT33">
         <v>0.58</v>
@@ -8067,7 +8073,7 @@
         <v>0.5</v>
       </c>
       <c r="AS36">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AT36">
         <v>1.2</v>
@@ -8362,7 +8368,7 @@
         <v>104</v>
       </c>
       <c r="P38" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q38">
         <v>3</v>
@@ -8553,7 +8559,7 @@
         <v>105</v>
       </c>
       <c r="P39" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q39">
         <v>6</v>
@@ -8640,7 +8646,7 @@
         <v>0.5</v>
       </c>
       <c r="AS39">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AT39">
         <v>0.25</v>
@@ -9216,7 +9222,7 @@
         <v>1.55</v>
       </c>
       <c r="AT42">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AU42">
         <v>0.98</v>
@@ -9317,7 +9323,7 @@
         <v>107</v>
       </c>
       <c r="P43" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q43">
         <v>5</v>
@@ -9404,7 +9410,7 @@
         <v>1.33</v>
       </c>
       <c r="AS43">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AT43">
         <v>1.2</v>
@@ -9508,7 +9514,7 @@
         <v>99</v>
       </c>
       <c r="P44" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q44">
         <v>5</v>
@@ -9595,10 +9601,10 @@
         <v>2</v>
       </c>
       <c r="AS44">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AT44">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AU44">
         <v>1.06</v>
@@ -9786,7 +9792,7 @@
         <v>2</v>
       </c>
       <c r="AS45">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT45">
         <v>1.17</v>
@@ -9890,7 +9896,7 @@
         <v>109</v>
       </c>
       <c r="P46" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q46">
         <v>3</v>
@@ -10272,7 +10278,7 @@
         <v>110</v>
       </c>
       <c r="P48" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q48">
         <v>9</v>
@@ -10359,7 +10365,7 @@
         <v>0.33</v>
       </c>
       <c r="AS48">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AT48">
         <v>1.09</v>
@@ -10463,7 +10469,7 @@
         <v>111</v>
       </c>
       <c r="P49" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q49">
         <v>3</v>
@@ -10654,7 +10660,7 @@
         <v>112</v>
       </c>
       <c r="P50" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q50">
         <v>4</v>
@@ -10744,7 +10750,7 @@
         <v>1.91</v>
       </c>
       <c r="AT50">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AU50">
         <v>1.37</v>
@@ -10845,7 +10851,7 @@
         <v>113</v>
       </c>
       <c r="P51" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q51">
         <v>2</v>
@@ -10932,7 +10938,7 @@
         <v>0</v>
       </c>
       <c r="AS51">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AT51">
         <v>0.27</v>
@@ -11227,7 +11233,7 @@
         <v>115</v>
       </c>
       <c r="P53" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q53">
         <v>8</v>
@@ -11314,7 +11320,7 @@
         <v>2</v>
       </c>
       <c r="AS53">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AT53">
         <v>1.09</v>
@@ -11418,7 +11424,7 @@
         <v>116</v>
       </c>
       <c r="P54" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q54">
         <v>3</v>
@@ -11699,7 +11705,7 @@
         <v>1.55</v>
       </c>
       <c r="AT55">
-        <v>0.45</v>
+        <v>0.67</v>
       </c>
       <c r="AU55">
         <v>1.45</v>
@@ -12078,10 +12084,10 @@
         <v>0.67</v>
       </c>
       <c r="AS57">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT57">
-        <v>0.55</v>
+        <v>0.75</v>
       </c>
       <c r="AU57">
         <v>1.43</v>
@@ -12182,7 +12188,7 @@
         <v>120</v>
       </c>
       <c r="P58" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q58">
         <v>3</v>
@@ -12564,7 +12570,7 @@
         <v>121</v>
       </c>
       <c r="P60" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q60">
         <v>3</v>
@@ -12755,7 +12761,7 @@
         <v>122</v>
       </c>
       <c r="P61" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q61">
         <v>6</v>
@@ -12946,7 +12952,7 @@
         <v>123</v>
       </c>
       <c r="P62" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q62">
         <v>2</v>
@@ -13328,7 +13334,7 @@
         <v>125</v>
       </c>
       <c r="P64" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q64">
         <v>1</v>
@@ -13519,7 +13525,7 @@
         <v>82</v>
       </c>
       <c r="P65" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q65">
         <v>1</v>
@@ -13710,7 +13716,7 @@
         <v>126</v>
       </c>
       <c r="P66" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q66">
         <v>4</v>
@@ -13797,10 +13803,10 @@
         <v>2.33</v>
       </c>
       <c r="AS66">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AT66">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AU66">
         <v>1.88</v>
@@ -13901,7 +13907,7 @@
         <v>127</v>
       </c>
       <c r="P67" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q67">
         <v>7</v>
@@ -13988,7 +13994,7 @@
         <v>1.25</v>
       </c>
       <c r="AS67">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT67">
         <v>1.2</v>
@@ -14283,7 +14289,7 @@
         <v>82</v>
       </c>
       <c r="P69" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q69">
         <v>6</v>
@@ -14373,7 +14379,7 @@
         <v>0.91</v>
       </c>
       <c r="AT69">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AU69">
         <v>2.04</v>
@@ -14665,7 +14671,7 @@
         <v>129</v>
       </c>
       <c r="P71" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q71">
         <v>7</v>
@@ -14755,7 +14761,7 @@
         <v>2</v>
       </c>
       <c r="AT71">
-        <v>0.45</v>
+        <v>0.67</v>
       </c>
       <c r="AU71">
         <v>1.88</v>
@@ -15047,7 +15053,7 @@
         <v>131</v>
       </c>
       <c r="P73" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q73">
         <v>7</v>
@@ -15134,7 +15140,7 @@
         <v>1</v>
       </c>
       <c r="AS73">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AT73">
         <v>1.45</v>
@@ -15325,10 +15331,10 @@
         <v>0.5</v>
       </c>
       <c r="AS74">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AT74">
-        <v>0.55</v>
+        <v>0.75</v>
       </c>
       <c r="AU74">
         <v>1.75</v>
@@ -15429,7 +15435,7 @@
         <v>133</v>
       </c>
       <c r="P75" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q75">
         <v>10</v>
@@ -15519,7 +15525,7 @@
         <v>1.5</v>
       </c>
       <c r="AT75">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AU75">
         <v>1.54</v>
@@ -15620,7 +15626,7 @@
         <v>134</v>
       </c>
       <c r="P76" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q76">
         <v>3</v>
@@ -16002,7 +16008,7 @@
         <v>103</v>
       </c>
       <c r="P78" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q78">
         <v>7</v>
@@ -16092,7 +16098,7 @@
         <v>1.91</v>
       </c>
       <c r="AT78">
-        <v>0.45</v>
+        <v>0.67</v>
       </c>
       <c r="AU78">
         <v>1.38</v>
@@ -16280,7 +16286,7 @@
         <v>1.5</v>
       </c>
       <c r="AS79">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AT79">
         <v>1.17</v>
@@ -16384,7 +16390,7 @@
         <v>135</v>
       </c>
       <c r="P80" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q80">
         <v>3</v>
@@ -16471,7 +16477,7 @@
         <v>1.25</v>
       </c>
       <c r="AS80">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AT80">
         <v>0.58</v>
@@ -16575,7 +16581,7 @@
         <v>82</v>
       </c>
       <c r="P81" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q81">
         <v>4</v>
@@ -16957,7 +16963,7 @@
         <v>137</v>
       </c>
       <c r="P83" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q83">
         <v>12</v>
@@ -17044,7 +17050,7 @@
         <v>2</v>
       </c>
       <c r="AS83">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT83">
         <v>1.09</v>
@@ -17530,7 +17536,7 @@
         <v>139</v>
       </c>
       <c r="P86" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q86">
         <v>2</v>
@@ -17721,7 +17727,7 @@
         <v>82</v>
       </c>
       <c r="P87" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q87">
         <v>1</v>
@@ -17811,7 +17817,7 @@
         <v>1.5</v>
       </c>
       <c r="AT87">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AU87">
         <v>1.53</v>
@@ -18103,7 +18109,7 @@
         <v>140</v>
       </c>
       <c r="P89" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q89">
         <v>6</v>
@@ -18193,7 +18199,7 @@
         <v>1.55</v>
       </c>
       <c r="AT89">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AU89">
         <v>1.26</v>
@@ -18294,7 +18300,7 @@
         <v>82</v>
       </c>
       <c r="P90" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q90">
         <v>3</v>
@@ -18384,7 +18390,7 @@
         <v>1.55</v>
       </c>
       <c r="AT90">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AU90">
         <v>1.41</v>
@@ -18485,7 +18491,7 @@
         <v>141</v>
       </c>
       <c r="P91" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q91">
         <v>5</v>
@@ -18763,7 +18769,7 @@
         <v>1.8</v>
       </c>
       <c r="AS92">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AT92">
         <v>1.17</v>
@@ -18867,7 +18873,7 @@
         <v>142</v>
       </c>
       <c r="P93" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q93">
         <v>3</v>
@@ -19148,7 +19154,7 @@
         <v>2</v>
       </c>
       <c r="AT94">
-        <v>0.55</v>
+        <v>0.75</v>
       </c>
       <c r="AU94">
         <v>1.8</v>
@@ -19440,7 +19446,7 @@
         <v>144</v>
       </c>
       <c r="P96" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q96">
         <v>7</v>
@@ -19631,7 +19637,7 @@
         <v>145</v>
       </c>
       <c r="P97" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q97">
         <v>1</v>
@@ -19718,7 +19724,7 @@
         <v>1</v>
       </c>
       <c r="AS97">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AT97">
         <v>1.18</v>
@@ -20204,7 +20210,7 @@
         <v>147</v>
       </c>
       <c r="P100" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q100">
         <v>5</v>
@@ -20485,7 +20491,7 @@
         <v>1.91</v>
       </c>
       <c r="AT101">
-        <v>0.55</v>
+        <v>0.75</v>
       </c>
       <c r="AU101">
         <v>1.53</v>
@@ -20676,7 +20682,7 @@
         <v>1.5</v>
       </c>
       <c r="AT102">
-        <v>0.45</v>
+        <v>0.67</v>
       </c>
       <c r="AU102">
         <v>1.35</v>
@@ -20777,7 +20783,7 @@
         <v>82</v>
       </c>
       <c r="P103" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q103">
         <v>1</v>
@@ -20864,7 +20870,7 @@
         <v>1.8</v>
       </c>
       <c r="AS103">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AT103">
         <v>1.36</v>
@@ -20968,7 +20974,7 @@
         <v>149</v>
       </c>
       <c r="P104" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q104">
         <v>4</v>
@@ -21159,7 +21165,7 @@
         <v>108</v>
       </c>
       <c r="P105" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q105">
         <v>2</v>
@@ -21246,7 +21252,7 @@
         <v>2.67</v>
       </c>
       <c r="AS105">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT105">
         <v>2.64</v>
@@ -21350,7 +21356,7 @@
         <v>123</v>
       </c>
       <c r="P106" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q106">
         <v>2</v>
@@ -21541,7 +21547,7 @@
         <v>150</v>
       </c>
       <c r="P107" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q107">
         <v>6</v>
@@ -21628,7 +21634,7 @@
         <v>0.14</v>
       </c>
       <c r="AS107">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AT107">
         <v>0.25</v>
@@ -21923,7 +21929,7 @@
         <v>152</v>
       </c>
       <c r="P109" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q109">
         <v>17</v>
@@ -22114,7 +22120,7 @@
         <v>153</v>
       </c>
       <c r="P110" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q110">
         <v>1</v>
@@ -22201,10 +22207,10 @@
         <v>1.71</v>
       </c>
       <c r="AS110">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AT110">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AU110">
         <v>1.18</v>
@@ -22305,7 +22311,7 @@
         <v>154</v>
       </c>
       <c r="P111" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q111">
         <v>3</v>
@@ -22583,7 +22589,7 @@
         <v>1</v>
       </c>
       <c r="AS112">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AT112">
         <v>1.18</v>
@@ -22687,7 +22693,7 @@
         <v>155</v>
       </c>
       <c r="P113" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q113">
         <v>5</v>
@@ -22777,7 +22783,7 @@
         <v>1.73</v>
       </c>
       <c r="AT113">
-        <v>0.45</v>
+        <v>0.67</v>
       </c>
       <c r="AU113">
         <v>1.68</v>
@@ -22878,7 +22884,7 @@
         <v>156</v>
       </c>
       <c r="P114" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q114">
         <v>14</v>
@@ -22968,7 +22974,7 @@
         <v>1.55</v>
       </c>
       <c r="AT114">
-        <v>0.55</v>
+        <v>0.75</v>
       </c>
       <c r="AU114">
         <v>1.25</v>
@@ -23732,7 +23738,7 @@
         <v>1.67</v>
       </c>
       <c r="AT118">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AU118">
         <v>1.4</v>
@@ -24024,7 +24030,7 @@
         <v>160</v>
       </c>
       <c r="P120" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q120">
         <v>7</v>
@@ -24302,7 +24308,7 @@
         <v>0.2</v>
       </c>
       <c r="AS121">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT121">
         <v>0.17</v>
@@ -24496,7 +24502,7 @@
         <v>2.42</v>
       </c>
       <c r="AT122">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AU122">
         <v>1.8</v>
@@ -24684,10 +24690,10 @@
         <v>0.71</v>
       </c>
       <c r="AS123">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AT123">
-        <v>0.45</v>
+        <v>0.67</v>
       </c>
       <c r="AU123">
         <v>1.85</v>
@@ -24788,7 +24794,7 @@
         <v>164</v>
       </c>
       <c r="P124" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q124">
         <v>9</v>
@@ -25260,7 +25266,7 @@
         <v>2</v>
       </c>
       <c r="AT126">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AU126">
         <v>1.75</v>
@@ -25361,7 +25367,7 @@
         <v>167</v>
       </c>
       <c r="P127" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q127">
         <v>1</v>
@@ -25552,7 +25558,7 @@
         <v>168</v>
       </c>
       <c r="P128" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q128">
         <v>1</v>
@@ -25743,7 +25749,7 @@
         <v>169</v>
       </c>
       <c r="P129" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q129">
         <v>6</v>
@@ -25934,7 +25940,7 @@
         <v>95</v>
       </c>
       <c r="P130" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q130">
         <v>2</v>
@@ -26021,7 +26027,7 @@
         <v>2.5</v>
       </c>
       <c r="AS130">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AT130">
         <v>2.64</v>
@@ -26212,7 +26218,7 @@
         <v>1.25</v>
       </c>
       <c r="AS131">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AT131">
         <v>1.09</v>
@@ -26316,7 +26322,7 @@
         <v>156</v>
       </c>
       <c r="P132" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q132">
         <v>4</v>
@@ -26507,7 +26513,7 @@
         <v>170</v>
       </c>
       <c r="P133" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q133">
         <v>6</v>
@@ -26785,10 +26791,10 @@
         <v>1.67</v>
       </c>
       <c r="AS134">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT134">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AU134">
         <v>1.76</v>
@@ -26889,7 +26895,7 @@
         <v>172</v>
       </c>
       <c r="P135" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q135">
         <v>4</v>
@@ -27080,7 +27086,7 @@
         <v>173</v>
       </c>
       <c r="P136" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q136">
         <v>7</v>
@@ -27361,7 +27367,7 @@
         <v>1.55</v>
       </c>
       <c r="AT137">
-        <v>0.45</v>
+        <v>0.67</v>
       </c>
       <c r="AU137">
         <v>1.53</v>
@@ -27653,7 +27659,7 @@
         <v>176</v>
       </c>
       <c r="P139" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q139">
         <v>10</v>
@@ -27743,7 +27749,7 @@
         <v>1.55</v>
       </c>
       <c r="AT139">
-        <v>0.55</v>
+        <v>0.75</v>
       </c>
       <c r="AU139">
         <v>1.07</v>
@@ -27844,7 +27850,7 @@
         <v>177</v>
       </c>
       <c r="P140" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q140">
         <v>11</v>
@@ -28122,7 +28128,7 @@
         <v>0.38</v>
       </c>
       <c r="AS141">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AT141">
         <v>0.27</v>
@@ -28316,7 +28322,7 @@
         <v>1.73</v>
       </c>
       <c r="AT142">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AU142">
         <v>1.59</v>
@@ -28695,7 +28701,7 @@
         <v>0.25</v>
       </c>
       <c r="AS144">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT144">
         <v>0.25</v>
@@ -29181,7 +29187,7 @@
         <v>184</v>
       </c>
       <c r="P147" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q147">
         <v>7</v>
@@ -29268,7 +29274,7 @@
         <v>1.11</v>
       </c>
       <c r="AS147">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AT147">
         <v>1.45</v>
@@ -29372,7 +29378,7 @@
         <v>82</v>
       </c>
       <c r="P148" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q148">
         <v>3</v>
@@ -29563,7 +29569,7 @@
         <v>185</v>
       </c>
       <c r="P149" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q149">
         <v>6</v>
@@ -29945,7 +29951,7 @@
         <v>186</v>
       </c>
       <c r="P151" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q151">
         <v>2</v>
@@ -30799,7 +30805,7 @@
         <v>1.67</v>
       </c>
       <c r="AT155">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AU155">
         <v>1.36</v>
@@ -30900,7 +30906,7 @@
         <v>190</v>
       </c>
       <c r="P156" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q156">
         <v>4</v>
@@ -31178,10 +31184,10 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS157">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT157">
-        <v>0.45</v>
+        <v>0.67</v>
       </c>
       <c r="AU157">
         <v>1.62</v>
@@ -31282,7 +31288,7 @@
         <v>130</v>
       </c>
       <c r="P158" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q158">
         <v>1</v>
@@ -31372,7 +31378,7 @@
         <v>1.73</v>
       </c>
       <c r="AT158">
-        <v>0.55</v>
+        <v>0.75</v>
       </c>
       <c r="AU158">
         <v>1.55</v>
@@ -31473,7 +31479,7 @@
         <v>192</v>
       </c>
       <c r="P159" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q159">
         <v>2</v>
@@ -31751,10 +31757,10 @@
         <v>1.89</v>
       </c>
       <c r="AS160">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AT160">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AU160">
         <v>1.19</v>
@@ -32046,7 +32052,7 @@
         <v>195</v>
       </c>
       <c r="P162" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q162">
         <v>3</v>
@@ -32237,7 +32243,7 @@
         <v>82</v>
       </c>
       <c r="P163" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q163">
         <v>3</v>
@@ -32518,7 +32524,7 @@
         <v>1.67</v>
       </c>
       <c r="AT164">
-        <v>0.55</v>
+        <v>0.75</v>
       </c>
       <c r="AU164">
         <v>1.33</v>
@@ -32619,7 +32625,7 @@
         <v>82</v>
       </c>
       <c r="P165" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q165">
         <v>5</v>
@@ -32810,7 +32816,7 @@
         <v>196</v>
       </c>
       <c r="P166" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q166">
         <v>0</v>
@@ -32900,7 +32906,7 @@
         <v>1.55</v>
       </c>
       <c r="AT166">
-        <v>0.45</v>
+        <v>0.67</v>
       </c>
       <c r="AU166">
         <v>1.87</v>
@@ -33383,7 +33389,7 @@
         <v>198</v>
       </c>
       <c r="P169" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q169">
         <v>4</v>
@@ -33956,7 +33962,7 @@
         <v>200</v>
       </c>
       <c r="P172" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q172">
         <v>4</v>
@@ -34147,7 +34153,7 @@
         <v>164</v>
       </c>
       <c r="P173" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q173">
         <v>4</v>
@@ -34237,7 +34243,7 @@
         <v>1.55</v>
       </c>
       <c r="AT173">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AU173">
         <v>1.85</v>
@@ -34720,7 +34726,7 @@
         <v>202</v>
       </c>
       <c r="P176" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q176">
         <v>3</v>
@@ -34807,7 +34813,7 @@
         <v>0.18</v>
       </c>
       <c r="AS176">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AT176">
         <v>0.17</v>
@@ -34911,7 +34917,7 @@
         <v>82</v>
       </c>
       <c r="P177" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q177">
         <v>3</v>
@@ -35102,16 +35108,16 @@
         <v>99</v>
       </c>
       <c r="P178" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q178">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="R178">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="S178">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="T178">
         <v>1.62</v>
@@ -35228,22 +35234,22 @@
         <v>3.9</v>
       </c>
       <c r="BF178">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="BG178">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="BH178">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="BI178">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="BJ178">
-        <v>-1</v>
+        <v>17</v>
       </c>
       <c r="BK178">
-        <v>-1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="179" spans="1:63">
@@ -35296,13 +35302,13 @@
         <v>82</v>
       </c>
       <c r="Q179">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="R179">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="S179">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="T179">
         <v>2.03</v>
@@ -35419,22 +35425,22 @@
         <v>3.4</v>
       </c>
       <c r="BF179">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BG179">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="BH179">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="BI179">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="BJ179">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BK179">
-        <v>-1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="180" spans="1:63">
@@ -35487,13 +35493,13 @@
         <v>82</v>
       </c>
       <c r="Q180">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="R180">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="S180">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="T180">
         <v>1.78</v>
@@ -35610,22 +35616,786 @@
         <v>4</v>
       </c>
       <c r="BF180">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="BG180">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="BH180">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="BI180">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="BJ180">
-        <v>-1</v>
+        <v>14</v>
       </c>
       <c r="BK180">
-        <v>-1</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="181" spans="1:63">
+      <c r="A181" s="1">
+        <v>180</v>
+      </c>
+      <c r="B181">
+        <v>5845622</v>
+      </c>
+      <c r="C181" t="s">
+        <v>63</v>
+      </c>
+      <c r="D181" t="s">
+        <v>64</v>
+      </c>
+      <c r="E181" s="2">
+        <v>45157.35763888889</v>
+      </c>
+      <c r="F181">
+        <v>23</v>
+      </c>
+      <c r="G181" t="s">
+        <v>72</v>
+      </c>
+      <c r="H181" t="s">
+        <v>80</v>
+      </c>
+      <c r="I181">
+        <v>0</v>
+      </c>
+      <c r="J181">
+        <v>0</v>
+      </c>
+      <c r="K181">
+        <v>0</v>
+      </c>
+      <c r="L181">
+        <v>0</v>
+      </c>
+      <c r="M181">
+        <v>1</v>
+      </c>
+      <c r="N181">
+        <v>1</v>
+      </c>
+      <c r="O181" t="s">
+        <v>82</v>
+      </c>
+      <c r="P181" t="s">
+        <v>221</v>
+      </c>
+      <c r="Q181">
+        <v>3</v>
+      </c>
+      <c r="R181">
+        <v>7</v>
+      </c>
+      <c r="S181">
+        <v>10</v>
+      </c>
+      <c r="T181">
+        <v>5.6</v>
+      </c>
+      <c r="U181">
+        <v>2.33</v>
+      </c>
+      <c r="V181">
+        <v>2.06</v>
+      </c>
+      <c r="W181">
+        <v>1.33</v>
+      </c>
+      <c r="X181">
+        <v>3.14</v>
+      </c>
+      <c r="Y181">
+        <v>2.52</v>
+      </c>
+      <c r="Z181">
+        <v>1.49</v>
+      </c>
+      <c r="AA181">
+        <v>6.2</v>
+      </c>
+      <c r="AB181">
+        <v>1.1</v>
+      </c>
+      <c r="AC181">
+        <v>4.15</v>
+      </c>
+      <c r="AD181">
+        <v>3.31</v>
+      </c>
+      <c r="AE181">
+        <v>1.65</v>
+      </c>
+      <c r="AF181">
+        <v>1.04</v>
+      </c>
+      <c r="AG181">
+        <v>8.5</v>
+      </c>
+      <c r="AH181">
+        <v>1.22</v>
+      </c>
+      <c r="AI181">
+        <v>3.8</v>
+      </c>
+      <c r="AJ181">
+        <v>1.75</v>
+      </c>
+      <c r="AK181">
+        <v>1.85</v>
+      </c>
+      <c r="AL181">
+        <v>1.8</v>
+      </c>
+      <c r="AM181">
+        <v>1.91</v>
+      </c>
+      <c r="AN181">
+        <v>2.46</v>
+      </c>
+      <c r="AO181">
+        <v>1.21</v>
+      </c>
+      <c r="AP181">
+        <v>1.13</v>
+      </c>
+      <c r="AQ181">
+        <v>1</v>
+      </c>
+      <c r="AR181">
+        <v>0.55</v>
+      </c>
+      <c r="AS181">
+        <v>0.91</v>
+      </c>
+      <c r="AT181">
+        <v>0.75</v>
+      </c>
+      <c r="AU181">
+        <v>1.16</v>
+      </c>
+      <c r="AV181">
+        <v>1.12</v>
+      </c>
+      <c r="AW181">
+        <v>2.28</v>
+      </c>
+      <c r="AX181">
+        <v>3</v>
+      </c>
+      <c r="AY181">
+        <v>8</v>
+      </c>
+      <c r="AZ181">
+        <v>1.5</v>
+      </c>
+      <c r="BA181">
+        <v>1.44</v>
+      </c>
+      <c r="BB181">
+        <v>1.67</v>
+      </c>
+      <c r="BC181">
+        <v>2.15</v>
+      </c>
+      <c r="BD181">
+        <v>3</v>
+      </c>
+      <c r="BE181">
+        <v>5.15</v>
+      </c>
+      <c r="BF181">
+        <v>3</v>
+      </c>
+      <c r="BG181">
+        <v>5</v>
+      </c>
+      <c r="BH181">
+        <v>4</v>
+      </c>
+      <c r="BI181">
+        <v>5</v>
+      </c>
+      <c r="BJ181">
+        <v>7</v>
+      </c>
+      <c r="BK181">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="182" spans="1:63">
+      <c r="A182" s="1">
+        <v>181</v>
+      </c>
+      <c r="B182">
+        <v>5845620</v>
+      </c>
+      <c r="C182" t="s">
+        <v>63</v>
+      </c>
+      <c r="D182" t="s">
+        <v>64</v>
+      </c>
+      <c r="E182" s="2">
+        <v>45157.35763888889</v>
+      </c>
+      <c r="F182">
+        <v>23</v>
+      </c>
+      <c r="G182" t="s">
+        <v>68</v>
+      </c>
+      <c r="H182" t="s">
+        <v>71</v>
+      </c>
+      <c r="I182">
+        <v>2</v>
+      </c>
+      <c r="J182">
+        <v>1</v>
+      </c>
+      <c r="K182">
+        <v>3</v>
+      </c>
+      <c r="L182">
+        <v>2</v>
+      </c>
+      <c r="M182">
+        <v>1</v>
+      </c>
+      <c r="N182">
+        <v>3</v>
+      </c>
+      <c r="O182" t="s">
+        <v>203</v>
+      </c>
+      <c r="P182" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q182">
+        <v>6</v>
+      </c>
+      <c r="R182">
+        <v>7</v>
+      </c>
+      <c r="S182">
+        <v>13</v>
+      </c>
+      <c r="T182">
+        <v>2.95</v>
+      </c>
+      <c r="U182">
+        <v>2.05</v>
+      </c>
+      <c r="V182">
+        <v>3.75</v>
+      </c>
+      <c r="W182">
+        <v>1.45</v>
+      </c>
+      <c r="X182">
+        <v>2.6</v>
+      </c>
+      <c r="Y182">
+        <v>2.95</v>
+      </c>
+      <c r="Z182">
+        <v>1.35</v>
+      </c>
+      <c r="AA182">
+        <v>9</v>
+      </c>
+      <c r="AB182">
+        <v>1.06</v>
+      </c>
+      <c r="AC182">
+        <v>2.13</v>
+      </c>
+      <c r="AD182">
+        <v>3.08</v>
+      </c>
+      <c r="AE182">
+        <v>2.78</v>
+      </c>
+      <c r="AF182">
+        <v>1.06</v>
+      </c>
+      <c r="AG182">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AH182">
+        <v>1.33</v>
+      </c>
+      <c r="AI182">
+        <v>3.1</v>
+      </c>
+      <c r="AJ182">
+        <v>2.03</v>
+      </c>
+      <c r="AK182">
+        <v>1.79</v>
+      </c>
+      <c r="AL182">
+        <v>1.8</v>
+      </c>
+      <c r="AM182">
+        <v>1.9</v>
+      </c>
+      <c r="AN182">
+        <v>1.35</v>
+      </c>
+      <c r="AO182">
+        <v>1.32</v>
+      </c>
+      <c r="AP182">
+        <v>1.62</v>
+      </c>
+      <c r="AQ182">
+        <v>2</v>
+      </c>
+      <c r="AR182">
+        <v>1.82</v>
+      </c>
+      <c r="AS182">
+        <v>2.08</v>
+      </c>
+      <c r="AT182">
+        <v>1.67</v>
+      </c>
+      <c r="AU182">
+        <v>1.59</v>
+      </c>
+      <c r="AV182">
+        <v>1.27</v>
+      </c>
+      <c r="AW182">
+        <v>2.86</v>
+      </c>
+      <c r="AX182">
+        <v>1.62</v>
+      </c>
+      <c r="AY182">
+        <v>8</v>
+      </c>
+      <c r="AZ182">
+        <v>2.75</v>
+      </c>
+      <c r="BA182">
+        <v>1.44</v>
+      </c>
+      <c r="BB182">
+        <v>1.8</v>
+      </c>
+      <c r="BC182">
+        <v>2.34</v>
+      </c>
+      <c r="BD182">
+        <v>3.2</v>
+      </c>
+      <c r="BE182">
+        <v>5.1</v>
+      </c>
+      <c r="BF182">
+        <v>4</v>
+      </c>
+      <c r="BG182">
+        <v>8</v>
+      </c>
+      <c r="BH182">
+        <v>4</v>
+      </c>
+      <c r="BI182">
+        <v>5</v>
+      </c>
+      <c r="BJ182">
+        <v>8</v>
+      </c>
+      <c r="BK182">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="183" spans="1:63">
+      <c r="A183" s="1">
+        <v>182</v>
+      </c>
+      <c r="B183">
+        <v>5845619</v>
+      </c>
+      <c r="C183" t="s">
+        <v>63</v>
+      </c>
+      <c r="D183" t="s">
+        <v>64</v>
+      </c>
+      <c r="E183" s="2">
+        <v>45157.35763888889</v>
+      </c>
+      <c r="F183">
+        <v>23</v>
+      </c>
+      <c r="G183" t="s">
+        <v>75</v>
+      </c>
+      <c r="H183" t="s">
+        <v>66</v>
+      </c>
+      <c r="I183">
+        <v>0</v>
+      </c>
+      <c r="J183">
+        <v>1</v>
+      </c>
+      <c r="K183">
+        <v>1</v>
+      </c>
+      <c r="L183">
+        <v>0</v>
+      </c>
+      <c r="M183">
+        <v>1</v>
+      </c>
+      <c r="N183">
+        <v>1</v>
+      </c>
+      <c r="O183" t="s">
+        <v>82</v>
+      </c>
+      <c r="P183" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q183">
+        <v>6</v>
+      </c>
+      <c r="R183">
+        <v>7</v>
+      </c>
+      <c r="S183">
+        <v>13</v>
+      </c>
+      <c r="T183">
+        <v>3</v>
+      </c>
+      <c r="U183">
+        <v>2.15</v>
+      </c>
+      <c r="V183">
+        <v>3.2</v>
+      </c>
+      <c r="W183">
+        <v>1.35</v>
+      </c>
+      <c r="X183">
+        <v>2.95</v>
+      </c>
+      <c r="Y183">
+        <v>2.55</v>
+      </c>
+      <c r="Z183">
+        <v>1.46</v>
+      </c>
+      <c r="AA183">
+        <v>5.95</v>
+      </c>
+      <c r="AB183">
+        <v>1.1</v>
+      </c>
+      <c r="AC183">
+        <v>2.21</v>
+      </c>
+      <c r="AD183">
+        <v>3.35</v>
+      </c>
+      <c r="AE183">
+        <v>2.5</v>
+      </c>
+      <c r="AF183">
+        <v>1.01</v>
+      </c>
+      <c r="AG183">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AH183">
+        <v>1.22</v>
+      </c>
+      <c r="AI183">
+        <v>3.8</v>
+      </c>
+      <c r="AJ183">
+        <v>1.67</v>
+      </c>
+      <c r="AK183">
+        <v>2.05</v>
+      </c>
+      <c r="AL183">
+        <v>1.57</v>
+      </c>
+      <c r="AM183">
+        <v>2.25</v>
+      </c>
+      <c r="AN183">
+        <v>1.45</v>
+      </c>
+      <c r="AO183">
+        <v>1.25</v>
+      </c>
+      <c r="AP183">
+        <v>1.53</v>
+      </c>
+      <c r="AQ183">
+        <v>1.91</v>
+      </c>
+      <c r="AR183">
+        <v>1.45</v>
+      </c>
+      <c r="AS183">
+        <v>1.75</v>
+      </c>
+      <c r="AT183">
+        <v>1.58</v>
+      </c>
+      <c r="AU183">
+        <v>1.76</v>
+      </c>
+      <c r="AV183">
+        <v>1.7</v>
+      </c>
+      <c r="AW183">
+        <v>3.46</v>
+      </c>
+      <c r="AX183">
+        <v>1.73</v>
+      </c>
+      <c r="AY183">
+        <v>8</v>
+      </c>
+      <c r="AZ183">
+        <v>2.5</v>
+      </c>
+      <c r="BA183">
+        <v>1.42</v>
+      </c>
+      <c r="BB183">
+        <v>1.77</v>
+      </c>
+      <c r="BC183">
+        <v>2.27</v>
+      </c>
+      <c r="BD183">
+        <v>3.04</v>
+      </c>
+      <c r="BE183">
+        <v>4.4</v>
+      </c>
+      <c r="BF183">
+        <v>3</v>
+      </c>
+      <c r="BG183">
+        <v>8</v>
+      </c>
+      <c r="BH183">
+        <v>6</v>
+      </c>
+      <c r="BI183">
+        <v>3</v>
+      </c>
+      <c r="BJ183">
+        <v>9</v>
+      </c>
+      <c r="BK183">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="184" spans="1:63">
+      <c r="A184" s="1">
+        <v>183</v>
+      </c>
+      <c r="B184">
+        <v>5845621</v>
+      </c>
+      <c r="C184" t="s">
+        <v>63</v>
+      </c>
+      <c r="D184" t="s">
+        <v>64</v>
+      </c>
+      <c r="E184" s="2">
+        <v>45157.35763888889</v>
+      </c>
+      <c r="F184">
+        <v>23</v>
+      </c>
+      <c r="G184" t="s">
+        <v>65</v>
+      </c>
+      <c r="H184" t="s">
+        <v>69</v>
+      </c>
+      <c r="I184">
+        <v>0</v>
+      </c>
+      <c r="J184">
+        <v>3</v>
+      </c>
+      <c r="K184">
+        <v>3</v>
+      </c>
+      <c r="L184">
+        <v>0</v>
+      </c>
+      <c r="M184">
+        <v>3</v>
+      </c>
+      <c r="N184">
+        <v>3</v>
+      </c>
+      <c r="O184" t="s">
+        <v>82</v>
+      </c>
+      <c r="P184" t="s">
+        <v>290</v>
+      </c>
+      <c r="Q184">
+        <v>8</v>
+      </c>
+      <c r="R184">
+        <v>4</v>
+      </c>
+      <c r="S184">
+        <v>12</v>
+      </c>
+      <c r="T184">
+        <v>3.2</v>
+      </c>
+      <c r="U184">
+        <v>2.1</v>
+      </c>
+      <c r="V184">
+        <v>3.1</v>
+      </c>
+      <c r="W184">
+        <v>1.41</v>
+      </c>
+      <c r="X184">
+        <v>2.7</v>
+      </c>
+      <c r="Y184">
+        <v>2.9</v>
+      </c>
+      <c r="Z184">
+        <v>1.36</v>
+      </c>
+      <c r="AA184">
+        <v>7.4</v>
+      </c>
+      <c r="AB184">
+        <v>1.06</v>
+      </c>
+      <c r="AC184">
+        <v>2.7</v>
+      </c>
+      <c r="AD184">
+        <v>3.35</v>
+      </c>
+      <c r="AE184">
+        <v>2.59</v>
+      </c>
+      <c r="AF184">
+        <v>1.05</v>
+      </c>
+      <c r="AG184">
+        <v>8</v>
+      </c>
+      <c r="AH184">
+        <v>1.33</v>
+      </c>
+      <c r="AI184">
+        <v>3</v>
+      </c>
+      <c r="AJ184">
+        <v>2.04</v>
+      </c>
+      <c r="AK184">
+        <v>1.78</v>
+      </c>
+      <c r="AL184">
+        <v>1.8</v>
+      </c>
+      <c r="AM184">
+        <v>1.91</v>
+      </c>
+      <c r="AN184">
+        <v>1.5</v>
+      </c>
+      <c r="AO184">
+        <v>1.25</v>
+      </c>
+      <c r="AP184">
+        <v>1.47</v>
+      </c>
+      <c r="AQ184">
+        <v>1.36</v>
+      </c>
+      <c r="AR184">
+        <v>0.45</v>
+      </c>
+      <c r="AS184">
+        <v>1.25</v>
+      </c>
+      <c r="AT184">
+        <v>0.67</v>
+      </c>
+      <c r="AU184">
+        <v>1.21</v>
+      </c>
+      <c r="AV184">
+        <v>1.19</v>
+      </c>
+      <c r="AW184">
+        <v>2.4</v>
+      </c>
+      <c r="AX184">
+        <v>1.73</v>
+      </c>
+      <c r="AY184">
+        <v>8</v>
+      </c>
+      <c r="AZ184">
+        <v>2.5</v>
+      </c>
+      <c r="BA184">
+        <v>1.37</v>
+      </c>
+      <c r="BB184">
+        <v>1.7</v>
+      </c>
+      <c r="BC184">
+        <v>2.21</v>
+      </c>
+      <c r="BD184">
+        <v>2.93</v>
+      </c>
+      <c r="BE184">
+        <v>4.15</v>
+      </c>
+      <c r="BF184">
+        <v>7</v>
+      </c>
+      <c r="BG184">
+        <v>12</v>
+      </c>
+      <c r="BH184">
+        <v>4</v>
+      </c>
+      <c r="BI184">
+        <v>3</v>
+      </c>
+      <c r="BJ184">
+        <v>11</v>
+      </c>
+      <c r="BK184">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/China Chinese Super League_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/China Chinese Super League_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1161" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1167" uniqueCount="292">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -626,6 +626,9 @@
   </si>
   <si>
     <t>['28', '37']</t>
+  </si>
+  <si>
+    <t>['20', '60', '62']</t>
   </si>
   <si>
     <t>['64', '79']</t>
@@ -1248,7 +1251,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK184"/>
+  <dimension ref="A1:BK185"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1683,7 +1686,7 @@
         <v>82</v>
       </c>
       <c r="P3" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q3">
         <v>5</v>
@@ -1874,7 +1877,7 @@
         <v>82</v>
       </c>
       <c r="P4" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q4">
         <v>9</v>
@@ -2065,7 +2068,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q5">
         <v>8</v>
@@ -2256,7 +2259,7 @@
         <v>84</v>
       </c>
       <c r="P6" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q6">
         <v>2</v>
@@ -2447,7 +2450,7 @@
         <v>85</v>
       </c>
       <c r="P7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q7">
         <v>7</v>
@@ -2537,7 +2540,7 @@
         <v>1.55</v>
       </c>
       <c r="AT7">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AU7">
         <v>0</v>
@@ -2829,7 +2832,7 @@
         <v>87</v>
       </c>
       <c r="P9" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q9">
         <v>4</v>
@@ -3020,7 +3023,7 @@
         <v>88</v>
       </c>
       <c r="P10" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q10">
         <v>4</v>
@@ -3402,7 +3405,7 @@
         <v>82</v>
       </c>
       <c r="P12" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q12">
         <v>7</v>
@@ -4065,7 +4068,7 @@
         <v>1.75</v>
       </c>
       <c r="AT15">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AU15">
         <v>0</v>
@@ -4166,7 +4169,7 @@
         <v>92</v>
       </c>
       <c r="P16" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q16">
         <v>7</v>
@@ -4357,7 +4360,7 @@
         <v>93</v>
       </c>
       <c r="P17" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q17">
         <v>3</v>
@@ -4444,7 +4447,7 @@
         <v>0</v>
       </c>
       <c r="AS17">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AT17">
         <v>0.27</v>
@@ -4739,7 +4742,7 @@
         <v>95</v>
       </c>
       <c r="P19" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q19">
         <v>2</v>
@@ -4930,7 +4933,7 @@
         <v>96</v>
       </c>
       <c r="P20" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q20">
         <v>2</v>
@@ -5694,7 +5697,7 @@
         <v>82</v>
       </c>
       <c r="P24" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q24">
         <v>9</v>
@@ -6267,7 +6270,7 @@
         <v>82</v>
       </c>
       <c r="P27" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q27">
         <v>2</v>
@@ -6458,7 +6461,7 @@
         <v>82</v>
       </c>
       <c r="P28" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q28">
         <v>3</v>
@@ -6649,7 +6652,7 @@
         <v>83</v>
       </c>
       <c r="P29" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q29">
         <v>5</v>
@@ -6736,7 +6739,7 @@
         <v>3</v>
       </c>
       <c r="AS29">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AT29">
         <v>1.17</v>
@@ -6840,7 +6843,7 @@
         <v>99</v>
       </c>
       <c r="P30" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q30">
         <v>11</v>
@@ -7222,7 +7225,7 @@
         <v>101</v>
       </c>
       <c r="P32" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q32">
         <v>8</v>
@@ -7413,7 +7416,7 @@
         <v>102</v>
       </c>
       <c r="P33" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q33">
         <v>7</v>
@@ -8076,7 +8079,7 @@
         <v>0.91</v>
       </c>
       <c r="AT36">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AU36">
         <v>1.06</v>
@@ -8368,7 +8371,7 @@
         <v>104</v>
       </c>
       <c r="P38" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q38">
         <v>3</v>
@@ -8559,7 +8562,7 @@
         <v>105</v>
       </c>
       <c r="P39" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q39">
         <v>6</v>
@@ -9323,7 +9326,7 @@
         <v>107</v>
       </c>
       <c r="P43" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q43">
         <v>5</v>
@@ -9413,7 +9416,7 @@
         <v>1.25</v>
       </c>
       <c r="AT43">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AU43">
         <v>1.14</v>
@@ -9514,7 +9517,7 @@
         <v>99</v>
       </c>
       <c r="P44" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q44">
         <v>5</v>
@@ -9896,7 +9899,7 @@
         <v>109</v>
       </c>
       <c r="P46" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q46">
         <v>3</v>
@@ -10278,7 +10281,7 @@
         <v>110</v>
       </c>
       <c r="P48" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q48">
         <v>9</v>
@@ -10469,7 +10472,7 @@
         <v>111</v>
       </c>
       <c r="P49" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q49">
         <v>3</v>
@@ -10556,7 +10559,7 @@
         <v>1</v>
       </c>
       <c r="AS49">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AT49">
         <v>0.58</v>
@@ -10660,7 +10663,7 @@
         <v>112</v>
       </c>
       <c r="P50" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q50">
         <v>4</v>
@@ -10851,7 +10854,7 @@
         <v>113</v>
       </c>
       <c r="P51" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q51">
         <v>2</v>
@@ -11233,7 +11236,7 @@
         <v>115</v>
       </c>
       <c r="P53" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q53">
         <v>8</v>
@@ -11424,7 +11427,7 @@
         <v>116</v>
       </c>
       <c r="P54" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q54">
         <v>3</v>
@@ -12188,7 +12191,7 @@
         <v>120</v>
       </c>
       <c r="P58" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q58">
         <v>3</v>
@@ -12570,7 +12573,7 @@
         <v>121</v>
       </c>
       <c r="P60" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q60">
         <v>3</v>
@@ -12761,7 +12764,7 @@
         <v>122</v>
       </c>
       <c r="P61" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q61">
         <v>6</v>
@@ -12952,7 +12955,7 @@
         <v>123</v>
       </c>
       <c r="P62" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q62">
         <v>2</v>
@@ -13334,7 +13337,7 @@
         <v>125</v>
       </c>
       <c r="P64" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q64">
         <v>1</v>
@@ -13525,7 +13528,7 @@
         <v>82</v>
       </c>
       <c r="P65" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q65">
         <v>1</v>
@@ -13716,7 +13719,7 @@
         <v>126</v>
       </c>
       <c r="P66" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q66">
         <v>4</v>
@@ -13907,7 +13910,7 @@
         <v>127</v>
       </c>
       <c r="P67" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q67">
         <v>7</v>
@@ -13997,7 +14000,7 @@
         <v>2.08</v>
       </c>
       <c r="AT67">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AU67">
         <v>1.56</v>
@@ -14185,7 +14188,7 @@
         <v>0.25</v>
       </c>
       <c r="AS68">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AT68">
         <v>0.25</v>
@@ -14289,7 +14292,7 @@
         <v>82</v>
       </c>
       <c r="P69" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q69">
         <v>6</v>
@@ -14671,7 +14674,7 @@
         <v>129</v>
       </c>
       <c r="P71" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q71">
         <v>7</v>
@@ -15053,7 +15056,7 @@
         <v>131</v>
       </c>
       <c r="P73" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q73">
         <v>7</v>
@@ -15435,7 +15438,7 @@
         <v>133</v>
       </c>
       <c r="P75" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q75">
         <v>10</v>
@@ -15626,7 +15629,7 @@
         <v>134</v>
       </c>
       <c r="P76" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q76">
         <v>3</v>
@@ -16008,7 +16011,7 @@
         <v>103</v>
       </c>
       <c r="P78" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q78">
         <v>7</v>
@@ -16390,7 +16393,7 @@
         <v>135</v>
       </c>
       <c r="P80" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q80">
         <v>3</v>
@@ -16581,7 +16584,7 @@
         <v>82</v>
       </c>
       <c r="P81" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q81">
         <v>4</v>
@@ -16668,7 +16671,7 @@
         <v>2.6</v>
       </c>
       <c r="AS81">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AT81">
         <v>2.64</v>
@@ -16963,7 +16966,7 @@
         <v>137</v>
       </c>
       <c r="P83" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q83">
         <v>12</v>
@@ -17536,7 +17539,7 @@
         <v>139</v>
       </c>
       <c r="P86" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q86">
         <v>2</v>
@@ -17727,7 +17730,7 @@
         <v>82</v>
       </c>
       <c r="P87" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q87">
         <v>1</v>
@@ -18109,7 +18112,7 @@
         <v>140</v>
       </c>
       <c r="P89" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q89">
         <v>6</v>
@@ -18300,7 +18303,7 @@
         <v>82</v>
       </c>
       <c r="P90" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q90">
         <v>3</v>
@@ -18491,7 +18494,7 @@
         <v>141</v>
       </c>
       <c r="P91" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q91">
         <v>5</v>
@@ -18578,7 +18581,7 @@
         <v>0.25</v>
       </c>
       <c r="AS91">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AT91">
         <v>0.17</v>
@@ -18873,7 +18876,7 @@
         <v>142</v>
       </c>
       <c r="P93" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q93">
         <v>3</v>
@@ -19446,7 +19449,7 @@
         <v>144</v>
       </c>
       <c r="P96" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q96">
         <v>7</v>
@@ -19536,7 +19539,7 @@
         <v>1.73</v>
       </c>
       <c r="AT96">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AU96">
         <v>1.2</v>
@@ -19637,7 +19640,7 @@
         <v>145</v>
       </c>
       <c r="P97" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q97">
         <v>1</v>
@@ -20210,7 +20213,7 @@
         <v>147</v>
       </c>
       <c r="P100" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q100">
         <v>5</v>
@@ -20783,7 +20786,7 @@
         <v>82</v>
       </c>
       <c r="P103" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q103">
         <v>1</v>
@@ -20974,7 +20977,7 @@
         <v>149</v>
       </c>
       <c r="P104" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q104">
         <v>4</v>
@@ -21165,7 +21168,7 @@
         <v>108</v>
       </c>
       <c r="P105" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q105">
         <v>2</v>
@@ -21356,7 +21359,7 @@
         <v>123</v>
       </c>
       <c r="P106" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q106">
         <v>2</v>
@@ -21547,7 +21550,7 @@
         <v>150</v>
       </c>
       <c r="P107" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q107">
         <v>6</v>
@@ -21929,7 +21932,7 @@
         <v>152</v>
       </c>
       <c r="P109" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q109">
         <v>17</v>
@@ -22120,7 +22123,7 @@
         <v>153</v>
       </c>
       <c r="P110" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q110">
         <v>1</v>
@@ -22311,7 +22314,7 @@
         <v>154</v>
       </c>
       <c r="P111" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q111">
         <v>3</v>
@@ -22693,7 +22696,7 @@
         <v>155</v>
       </c>
       <c r="P113" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q113">
         <v>5</v>
@@ -22780,7 +22783,7 @@
         <v>0.83</v>
       </c>
       <c r="AS113">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AT113">
         <v>0.67</v>
@@ -22884,7 +22887,7 @@
         <v>156</v>
       </c>
       <c r="P114" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q114">
         <v>14</v>
@@ -23547,7 +23550,7 @@
         <v>1.55</v>
       </c>
       <c r="AT117">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AU117">
         <v>1.51</v>
@@ -24030,7 +24033,7 @@
         <v>160</v>
       </c>
       <c r="P120" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q120">
         <v>7</v>
@@ -24794,7 +24797,7 @@
         <v>164</v>
       </c>
       <c r="P124" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q124">
         <v>9</v>
@@ -25367,7 +25370,7 @@
         <v>167</v>
       </c>
       <c r="P127" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q127">
         <v>1</v>
@@ -25558,7 +25561,7 @@
         <v>168</v>
       </c>
       <c r="P128" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q128">
         <v>1</v>
@@ -25645,7 +25648,7 @@
         <v>1.13</v>
       </c>
       <c r="AS128">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AT128">
         <v>1.45</v>
@@ -25749,7 +25752,7 @@
         <v>169</v>
       </c>
       <c r="P129" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q129">
         <v>6</v>
@@ -25940,7 +25943,7 @@
         <v>95</v>
       </c>
       <c r="P130" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q130">
         <v>2</v>
@@ -26322,7 +26325,7 @@
         <v>156</v>
       </c>
       <c r="P132" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q132">
         <v>4</v>
@@ -26513,7 +26516,7 @@
         <v>170</v>
       </c>
       <c r="P133" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q133">
         <v>6</v>
@@ -26895,7 +26898,7 @@
         <v>172</v>
       </c>
       <c r="P135" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q135">
         <v>4</v>
@@ -27086,7 +27089,7 @@
         <v>173</v>
       </c>
       <c r="P136" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q136">
         <v>7</v>
@@ -27558,7 +27561,7 @@
         <v>2</v>
       </c>
       <c r="AT138">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AU138">
         <v>1.7</v>
@@ -27659,7 +27662,7 @@
         <v>176</v>
       </c>
       <c r="P139" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q139">
         <v>10</v>
@@ -27850,7 +27853,7 @@
         <v>177</v>
       </c>
       <c r="P140" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q140">
         <v>11</v>
@@ -28319,7 +28322,7 @@
         <v>2</v>
       </c>
       <c r="AS142">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AT142">
         <v>1.67</v>
@@ -29187,7 +29190,7 @@
         <v>184</v>
       </c>
       <c r="P147" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q147">
         <v>7</v>
@@ -29378,7 +29381,7 @@
         <v>82</v>
       </c>
       <c r="P148" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q148">
         <v>3</v>
@@ -29569,7 +29572,7 @@
         <v>185</v>
       </c>
       <c r="P149" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q149">
         <v>6</v>
@@ -29951,7 +29954,7 @@
         <v>186</v>
       </c>
       <c r="P151" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q151">
         <v>2</v>
@@ -30041,7 +30044,7 @@
         <v>0.91</v>
       </c>
       <c r="AT151">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AU151">
         <v>1.79</v>
@@ -30906,7 +30909,7 @@
         <v>190</v>
       </c>
       <c r="P156" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q156">
         <v>4</v>
@@ -31288,7 +31291,7 @@
         <v>130</v>
       </c>
       <c r="P158" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q158">
         <v>1</v>
@@ -31375,7 +31378,7 @@
         <v>0.44</v>
       </c>
       <c r="AS158">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AT158">
         <v>0.75</v>
@@ -31479,7 +31482,7 @@
         <v>192</v>
       </c>
       <c r="P159" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q159">
         <v>2</v>
@@ -32052,7 +32055,7 @@
         <v>195</v>
       </c>
       <c r="P162" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q162">
         <v>3</v>
@@ -32243,7 +32246,7 @@
         <v>82</v>
       </c>
       <c r="P163" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q163">
         <v>3</v>
@@ -32625,7 +32628,7 @@
         <v>82</v>
       </c>
       <c r="P165" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q165">
         <v>5</v>
@@ -32816,7 +32819,7 @@
         <v>196</v>
       </c>
       <c r="P166" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q166">
         <v>0</v>
@@ -33389,7 +33392,7 @@
         <v>198</v>
       </c>
       <c r="P169" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q169">
         <v>4</v>
@@ -33858,7 +33861,7 @@
         <v>1.5</v>
       </c>
       <c r="AS171">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AT171">
         <v>1.36</v>
@@ -33962,7 +33965,7 @@
         <v>200</v>
       </c>
       <c r="P172" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q172">
         <v>4</v>
@@ -34153,7 +34156,7 @@
         <v>164</v>
       </c>
       <c r="P173" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q173">
         <v>4</v>
@@ -34434,7 +34437,7 @@
         <v>2.42</v>
       </c>
       <c r="AT174">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AU174">
         <v>1.72</v>
@@ -34726,7 +34729,7 @@
         <v>202</v>
       </c>
       <c r="P176" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q176">
         <v>3</v>
@@ -34917,7 +34920,7 @@
         <v>82</v>
       </c>
       <c r="P177" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q177">
         <v>3</v>
@@ -35108,7 +35111,7 @@
         <v>99</v>
       </c>
       <c r="P178" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q178">
         <v>8</v>
@@ -35681,7 +35684,7 @@
         <v>82</v>
       </c>
       <c r="P181" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q181">
         <v>3</v>
@@ -35816,13 +35819,13 @@
         <v>4</v>
       </c>
       <c r="BI181">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BJ181">
         <v>7</v>
       </c>
       <c r="BK181">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="182" spans="1:63">
@@ -36007,13 +36010,13 @@
         <v>4</v>
       </c>
       <c r="BI182">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BJ182">
         <v>8</v>
       </c>
       <c r="BK182">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="183" spans="1:63">
@@ -36254,7 +36257,7 @@
         <v>82</v>
       </c>
       <c r="P184" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q184">
         <v>8</v>
@@ -36396,6 +36399,197 @@
       </c>
       <c r="BK184">
         <v>15</v>
+      </c>
+    </row>
+    <row r="185" spans="1:63">
+      <c r="A185" s="1">
+        <v>184</v>
+      </c>
+      <c r="B185">
+        <v>5845623</v>
+      </c>
+      <c r="C185" t="s">
+        <v>63</v>
+      </c>
+      <c r="D185" t="s">
+        <v>64</v>
+      </c>
+      <c r="E185" s="2">
+        <v>45158.35763888889</v>
+      </c>
+      <c r="F185">
+        <v>23</v>
+      </c>
+      <c r="G185" t="s">
+        <v>77</v>
+      </c>
+      <c r="H185" t="s">
+        <v>79</v>
+      </c>
+      <c r="I185">
+        <v>1</v>
+      </c>
+      <c r="J185">
+        <v>0</v>
+      </c>
+      <c r="K185">
+        <v>1</v>
+      </c>
+      <c r="L185">
+        <v>3</v>
+      </c>
+      <c r="M185">
+        <v>1</v>
+      </c>
+      <c r="N185">
+        <v>4</v>
+      </c>
+      <c r="O185" t="s">
+        <v>204</v>
+      </c>
+      <c r="P185" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q185">
+        <v>5</v>
+      </c>
+      <c r="R185">
+        <v>4</v>
+      </c>
+      <c r="S185">
+        <v>9</v>
+      </c>
+      <c r="T185">
+        <v>2.55</v>
+      </c>
+      <c r="U185">
+        <v>2.2</v>
+      </c>
+      <c r="V185">
+        <v>3.75</v>
+      </c>
+      <c r="W185">
+        <v>1.33</v>
+      </c>
+      <c r="X185">
+        <v>3.05</v>
+      </c>
+      <c r="Y185">
+        <v>2.45</v>
+      </c>
+      <c r="Z185">
+        <v>1.49</v>
+      </c>
+      <c r="AA185">
+        <v>5.5</v>
+      </c>
+      <c r="AB185">
+        <v>1.12</v>
+      </c>
+      <c r="AC185">
+        <v>1.86</v>
+      </c>
+      <c r="AD185">
+        <v>3.45</v>
+      </c>
+      <c r="AE185">
+        <v>3.1</v>
+      </c>
+      <c r="AF185">
+        <v>1</v>
+      </c>
+      <c r="AG185">
+        <v>10.5</v>
+      </c>
+      <c r="AH185">
+        <v>1.22</v>
+      </c>
+      <c r="AI185">
+        <v>4</v>
+      </c>
+      <c r="AJ185">
+        <v>1.65</v>
+      </c>
+      <c r="AK185">
+        <v>2.11</v>
+      </c>
+      <c r="AL185">
+        <v>1.6</v>
+      </c>
+      <c r="AM185">
+        <v>2.3</v>
+      </c>
+      <c r="AN185">
+        <v>1.3</v>
+      </c>
+      <c r="AO185">
+        <v>1.22</v>
+      </c>
+      <c r="AP185">
+        <v>1.8</v>
+      </c>
+      <c r="AQ185">
+        <v>1.73</v>
+      </c>
+      <c r="AR185">
+        <v>1.2</v>
+      </c>
+      <c r="AS185">
+        <v>1.83</v>
+      </c>
+      <c r="AT185">
+        <v>1.09</v>
+      </c>
+      <c r="AU185">
+        <v>1.38</v>
+      </c>
+      <c r="AV185">
+        <v>1.17</v>
+      </c>
+      <c r="AW185">
+        <v>2.55</v>
+      </c>
+      <c r="AX185">
+        <v>1.8</v>
+      </c>
+      <c r="AY185">
+        <v>7.5</v>
+      </c>
+      <c r="AZ185">
+        <v>2.4</v>
+      </c>
+      <c r="BA185">
+        <v>1.31</v>
+      </c>
+      <c r="BB185">
+        <v>1.67</v>
+      </c>
+      <c r="BC185">
+        <v>2.05</v>
+      </c>
+      <c r="BD185">
+        <v>2.5</v>
+      </c>
+      <c r="BE185">
+        <v>3.56</v>
+      </c>
+      <c r="BF185">
+        <v>10</v>
+      </c>
+      <c r="BG185">
+        <v>7</v>
+      </c>
+      <c r="BH185">
+        <v>8</v>
+      </c>
+      <c r="BI185">
+        <v>9</v>
+      </c>
+      <c r="BJ185">
+        <v>18</v>
+      </c>
+      <c r="BK185">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/China Chinese Super League_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/China Chinese Super League_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1167" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1179" uniqueCount="294">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -631,6 +631,12 @@
     <t>['20', '60', '62']</t>
   </si>
   <si>
+    <t>['44', '63', '89']</t>
+  </si>
+  <si>
+    <t>['6']</t>
+  </si>
+  <si>
     <t>['64', '79']</t>
   </si>
   <si>
@@ -769,9 +775,6 @@
     <t>['22', '49', '65']</t>
   </si>
   <si>
-    <t>['6']</t>
-  </si>
-  <si>
     <t>['76']</t>
   </si>
   <si>
@@ -890,6 +893,9 @@
   </si>
   <si>
     <t>['23', '25', '42']</t>
+  </si>
+  <si>
+    <t>['81', '90+1']</t>
   </si>
 </sst>
 </file>
@@ -1251,7 +1257,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK185"/>
+  <dimension ref="A1:BK187"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1686,7 +1692,7 @@
         <v>82</v>
       </c>
       <c r="P3" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q3">
         <v>5</v>
@@ -1776,7 +1782,7 @@
         <v>1.55</v>
       </c>
       <c r="AT3">
-        <v>2.64</v>
+        <v>2.42</v>
       </c>
       <c r="AU3">
         <v>0</v>
@@ -1877,7 +1883,7 @@
         <v>82</v>
       </c>
       <c r="P4" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q4">
         <v>9</v>
@@ -2068,7 +2074,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q5">
         <v>8</v>
@@ -2259,7 +2265,7 @@
         <v>84</v>
       </c>
       <c r="P6" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q6">
         <v>2</v>
@@ -2346,7 +2352,7 @@
         <v>0</v>
       </c>
       <c r="AS6">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AT6">
         <v>1.36</v>
@@ -2450,7 +2456,7 @@
         <v>85</v>
       </c>
       <c r="P7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q7">
         <v>7</v>
@@ -2731,7 +2737,7 @@
         <v>1.91</v>
       </c>
       <c r="AT8">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AU8">
         <v>0</v>
@@ -2832,7 +2838,7 @@
         <v>87</v>
       </c>
       <c r="P9" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q9">
         <v>4</v>
@@ -2919,7 +2925,7 @@
         <v>0</v>
       </c>
       <c r="AS9">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AT9">
         <v>0.25</v>
@@ -3023,7 +3029,7 @@
         <v>88</v>
       </c>
       <c r="P10" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q10">
         <v>4</v>
@@ -3405,7 +3411,7 @@
         <v>82</v>
       </c>
       <c r="P12" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q12">
         <v>7</v>
@@ -3874,7 +3880,7 @@
         <v>0</v>
       </c>
       <c r="AS14">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AT14">
         <v>0.25</v>
@@ -4169,7 +4175,7 @@
         <v>92</v>
       </c>
       <c r="P16" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q16">
         <v>7</v>
@@ -4360,7 +4366,7 @@
         <v>93</v>
       </c>
       <c r="P17" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q17">
         <v>3</v>
@@ -4742,7 +4748,7 @@
         <v>95</v>
       </c>
       <c r="P19" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q19">
         <v>2</v>
@@ -4933,7 +4939,7 @@
         <v>96</v>
       </c>
       <c r="P20" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q20">
         <v>2</v>
@@ -5214,7 +5220,7 @@
         <v>1.5</v>
       </c>
       <c r="AT21">
-        <v>2.64</v>
+        <v>2.42</v>
       </c>
       <c r="AU21">
         <v>0</v>
@@ -5697,7 +5703,7 @@
         <v>82</v>
       </c>
       <c r="P24" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q24">
         <v>9</v>
@@ -5784,7 +5790,7 @@
         <v>0</v>
       </c>
       <c r="AS24">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AT24">
         <v>1.17</v>
@@ -6169,7 +6175,7 @@
         <v>2.08</v>
       </c>
       <c r="AT26">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AU26">
         <v>1.83</v>
@@ -6270,7 +6276,7 @@
         <v>82</v>
       </c>
       <c r="P27" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q27">
         <v>2</v>
@@ -6461,7 +6467,7 @@
         <v>82</v>
       </c>
       <c r="P28" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q28">
         <v>3</v>
@@ -6652,7 +6658,7 @@
         <v>83</v>
       </c>
       <c r="P29" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q29">
         <v>5</v>
@@ -6843,7 +6849,7 @@
         <v>99</v>
       </c>
       <c r="P30" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q30">
         <v>11</v>
@@ -6930,7 +6936,7 @@
         <v>0</v>
       </c>
       <c r="AS30">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AT30">
         <v>0.67</v>
@@ -7225,7 +7231,7 @@
         <v>101</v>
       </c>
       <c r="P32" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q32">
         <v>8</v>
@@ -7416,7 +7422,7 @@
         <v>102</v>
       </c>
       <c r="P33" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q33">
         <v>7</v>
@@ -7694,7 +7700,7 @@
         <v>0.5</v>
       </c>
       <c r="AS34">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AT34">
         <v>1.18</v>
@@ -8076,7 +8082,7 @@
         <v>0.5</v>
       </c>
       <c r="AS36">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AT36">
         <v>1.09</v>
@@ -8371,7 +8377,7 @@
         <v>104</v>
       </c>
       <c r="P38" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q38">
         <v>3</v>
@@ -8461,7 +8467,7 @@
         <v>1.73</v>
       </c>
       <c r="AT38">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AU38">
         <v>1.32</v>
@@ -8562,7 +8568,7 @@
         <v>105</v>
       </c>
       <c r="P39" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q39">
         <v>6</v>
@@ -8843,7 +8849,7 @@
         <v>1.55</v>
       </c>
       <c r="AT40">
-        <v>2.64</v>
+        <v>2.42</v>
       </c>
       <c r="AU40">
         <v>1.52</v>
@@ -9222,7 +9228,7 @@
         <v>3</v>
       </c>
       <c r="AS42">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AT42">
         <v>1.58</v>
@@ -9326,7 +9332,7 @@
         <v>107</v>
       </c>
       <c r="P43" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q43">
         <v>5</v>
@@ -9517,7 +9523,7 @@
         <v>99</v>
       </c>
       <c r="P44" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q44">
         <v>5</v>
@@ -9604,7 +9610,7 @@
         <v>2</v>
       </c>
       <c r="AS44">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AT44">
         <v>1.67</v>
@@ -9899,7 +9905,7 @@
         <v>109</v>
       </c>
       <c r="P46" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q46">
         <v>3</v>
@@ -10281,7 +10287,7 @@
         <v>110</v>
       </c>
       <c r="P48" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q48">
         <v>9</v>
@@ -10371,7 +10377,7 @@
         <v>1.75</v>
       </c>
       <c r="AT48">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AU48">
         <v>1.82</v>
@@ -10472,7 +10478,7 @@
         <v>111</v>
       </c>
       <c r="P49" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q49">
         <v>3</v>
@@ -10663,7 +10669,7 @@
         <v>112</v>
       </c>
       <c r="P50" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q50">
         <v>4</v>
@@ -10854,7 +10860,7 @@
         <v>113</v>
       </c>
       <c r="P51" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q51">
         <v>2</v>
@@ -10941,7 +10947,7 @@
         <v>0</v>
       </c>
       <c r="AS51">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AT51">
         <v>0.27</v>
@@ -11236,7 +11242,7 @@
         <v>115</v>
       </c>
       <c r="P53" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q53">
         <v>8</v>
@@ -11427,7 +11433,7 @@
         <v>116</v>
       </c>
       <c r="P54" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q54">
         <v>3</v>
@@ -11517,7 +11523,7 @@
         <v>1.67</v>
       </c>
       <c r="AT54">
-        <v>2.64</v>
+        <v>2.42</v>
       </c>
       <c r="AU54">
         <v>1.05</v>
@@ -11899,7 +11905,7 @@
         <v>1.5</v>
       </c>
       <c r="AT56">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AU56">
         <v>1.11</v>
@@ -12191,7 +12197,7 @@
         <v>120</v>
       </c>
       <c r="P58" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q58">
         <v>3</v>
@@ -12573,7 +12579,7 @@
         <v>121</v>
       </c>
       <c r="P60" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q60">
         <v>3</v>
@@ -12764,7 +12770,7 @@
         <v>122</v>
       </c>
       <c r="P61" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q61">
         <v>6</v>
@@ -12955,7 +12961,7 @@
         <v>123</v>
       </c>
       <c r="P62" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q62">
         <v>2</v>
@@ -13233,7 +13239,7 @@
         <v>0</v>
       </c>
       <c r="AS63">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AT63">
         <v>0.27</v>
@@ -13337,7 +13343,7 @@
         <v>125</v>
       </c>
       <c r="P64" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q64">
         <v>1</v>
@@ -13427,7 +13433,7 @@
         <v>1.55</v>
       </c>
       <c r="AT64">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AU64">
         <v>1.39</v>
@@ -13528,7 +13534,7 @@
         <v>82</v>
       </c>
       <c r="P65" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q65">
         <v>1</v>
@@ -13618,7 +13624,7 @@
         <v>1.73</v>
       </c>
       <c r="AT65">
-        <v>2.64</v>
+        <v>2.42</v>
       </c>
       <c r="AU65">
         <v>1.25</v>
@@ -13719,7 +13725,7 @@
         <v>126</v>
       </c>
       <c r="P66" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q66">
         <v>4</v>
@@ -13910,7 +13916,7 @@
         <v>127</v>
       </c>
       <c r="P67" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q67">
         <v>7</v>
@@ -14292,7 +14298,7 @@
         <v>82</v>
       </c>
       <c r="P69" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q69">
         <v>6</v>
@@ -14674,7 +14680,7 @@
         <v>129</v>
       </c>
       <c r="P71" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q71">
         <v>7</v>
@@ -15056,7 +15062,7 @@
         <v>131</v>
       </c>
       <c r="P73" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q73">
         <v>7</v>
@@ -15438,7 +15444,7 @@
         <v>133</v>
       </c>
       <c r="P75" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q75">
         <v>10</v>
@@ -15629,7 +15635,7 @@
         <v>134</v>
       </c>
       <c r="P76" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q76">
         <v>3</v>
@@ -15910,7 +15916,7 @@
         <v>1.55</v>
       </c>
       <c r="AT77">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AU77">
         <v>1.45</v>
@@ -16011,7 +16017,7 @@
         <v>103</v>
       </c>
       <c r="P78" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q78">
         <v>7</v>
@@ -16393,7 +16399,7 @@
         <v>135</v>
       </c>
       <c r="P80" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q80">
         <v>3</v>
@@ -16480,7 +16486,7 @@
         <v>1.25</v>
       </c>
       <c r="AS80">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AT80">
         <v>0.58</v>
@@ -16584,7 +16590,7 @@
         <v>82</v>
       </c>
       <c r="P81" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q81">
         <v>4</v>
@@ -16674,7 +16680,7 @@
         <v>1.83</v>
       </c>
       <c r="AT81">
-        <v>2.64</v>
+        <v>2.42</v>
       </c>
       <c r="AU81">
         <v>1.53</v>
@@ -16966,7 +16972,7 @@
         <v>137</v>
       </c>
       <c r="P83" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q83">
         <v>12</v>
@@ -17539,7 +17545,7 @@
         <v>139</v>
       </c>
       <c r="P86" t="s">
-        <v>251</v>
+        <v>206</v>
       </c>
       <c r="Q86">
         <v>2</v>
@@ -17626,7 +17632,7 @@
         <v>1</v>
       </c>
       <c r="AS86">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AT86">
         <v>0.58</v>
@@ -17730,7 +17736,7 @@
         <v>82</v>
       </c>
       <c r="P87" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q87">
         <v>1</v>
@@ -18112,7 +18118,7 @@
         <v>140</v>
       </c>
       <c r="P89" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q89">
         <v>6</v>
@@ -18303,7 +18309,7 @@
         <v>82</v>
       </c>
       <c r="P90" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q90">
         <v>3</v>
@@ -18494,7 +18500,7 @@
         <v>141</v>
       </c>
       <c r="P91" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q91">
         <v>5</v>
@@ -18876,7 +18882,7 @@
         <v>142</v>
       </c>
       <c r="P93" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q93">
         <v>3</v>
@@ -18963,7 +18969,7 @@
         <v>1.33</v>
       </c>
       <c r="AS93">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AT93">
         <v>1.45</v>
@@ -19348,7 +19354,7 @@
         <v>1.55</v>
       </c>
       <c r="AT95">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AU95">
         <v>1.76</v>
@@ -19449,7 +19455,7 @@
         <v>144</v>
       </c>
       <c r="P96" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q96">
         <v>7</v>
@@ -19640,7 +19646,7 @@
         <v>145</v>
       </c>
       <c r="P97" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q97">
         <v>1</v>
@@ -20213,7 +20219,7 @@
         <v>147</v>
       </c>
       <c r="P100" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q100">
         <v>5</v>
@@ -20786,7 +20792,7 @@
         <v>82</v>
       </c>
       <c r="P103" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q103">
         <v>1</v>
@@ -20873,7 +20879,7 @@
         <v>1.8</v>
       </c>
       <c r="AS103">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AT103">
         <v>1.36</v>
@@ -20977,7 +20983,7 @@
         <v>149</v>
       </c>
       <c r="P104" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q104">
         <v>4</v>
@@ -21168,7 +21174,7 @@
         <v>108</v>
       </c>
       <c r="P105" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q105">
         <v>2</v>
@@ -21258,7 +21264,7 @@
         <v>2.08</v>
       </c>
       <c r="AT105">
-        <v>2.64</v>
+        <v>2.42</v>
       </c>
       <c r="AU105">
         <v>1.81</v>
@@ -21359,7 +21365,7 @@
         <v>123</v>
       </c>
       <c r="P106" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q106">
         <v>2</v>
@@ -21550,7 +21556,7 @@
         <v>150</v>
       </c>
       <c r="P107" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q107">
         <v>6</v>
@@ -21932,7 +21938,7 @@
         <v>152</v>
       </c>
       <c r="P109" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q109">
         <v>17</v>
@@ -22123,7 +22129,7 @@
         <v>153</v>
       </c>
       <c r="P110" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q110">
         <v>1</v>
@@ -22210,7 +22216,7 @@
         <v>1.71</v>
       </c>
       <c r="AS110">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AT110">
         <v>1.58</v>
@@ -22314,7 +22320,7 @@
         <v>154</v>
       </c>
       <c r="P111" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q111">
         <v>3</v>
@@ -22404,7 +22410,7 @@
         <v>2.42</v>
       </c>
       <c r="AT111">
-        <v>2.64</v>
+        <v>2.42</v>
       </c>
       <c r="AU111">
         <v>1.93</v>
@@ -22696,7 +22702,7 @@
         <v>155</v>
       </c>
       <c r="P113" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q113">
         <v>5</v>
@@ -22887,7 +22893,7 @@
         <v>156</v>
       </c>
       <c r="P114" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q114">
         <v>14</v>
@@ -23165,10 +23171,10 @@
         <v>1</v>
       </c>
       <c r="AS115">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AT115">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AU115">
         <v>1.14</v>
@@ -24033,7 +24039,7 @@
         <v>160</v>
       </c>
       <c r="P120" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q120">
         <v>7</v>
@@ -24797,7 +24803,7 @@
         <v>164</v>
       </c>
       <c r="P124" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q124">
         <v>9</v>
@@ -25370,7 +25376,7 @@
         <v>167</v>
       </c>
       <c r="P127" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q127">
         <v>1</v>
@@ -25561,7 +25567,7 @@
         <v>168</v>
       </c>
       <c r="P128" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q128">
         <v>1</v>
@@ -25752,7 +25758,7 @@
         <v>169</v>
       </c>
       <c r="P129" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q129">
         <v>6</v>
@@ -25943,7 +25949,7 @@
         <v>95</v>
       </c>
       <c r="P130" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q130">
         <v>2</v>
@@ -26030,10 +26036,10 @@
         <v>2.5</v>
       </c>
       <c r="AS130">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AT130">
-        <v>2.64</v>
+        <v>2.42</v>
       </c>
       <c r="AU130">
         <v>1.18</v>
@@ -26325,7 +26331,7 @@
         <v>156</v>
       </c>
       <c r="P132" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q132">
         <v>4</v>
@@ -26415,7 +26421,7 @@
         <v>0.91</v>
       </c>
       <c r="AT132">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AU132">
         <v>1.89</v>
@@ -26516,7 +26522,7 @@
         <v>170</v>
       </c>
       <c r="P133" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q133">
         <v>6</v>
@@ -26898,7 +26904,7 @@
         <v>172</v>
       </c>
       <c r="P135" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q135">
         <v>4</v>
@@ -27089,7 +27095,7 @@
         <v>173</v>
       </c>
       <c r="P136" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q136">
         <v>7</v>
@@ -27662,7 +27668,7 @@
         <v>176</v>
       </c>
       <c r="P139" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q139">
         <v>10</v>
@@ -27749,7 +27755,7 @@
         <v>0.38</v>
       </c>
       <c r="AS139">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AT139">
         <v>0.75</v>
@@ -27853,7 +27859,7 @@
         <v>177</v>
       </c>
       <c r="P140" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q140">
         <v>11</v>
@@ -28516,7 +28522,7 @@
         <v>1.67</v>
       </c>
       <c r="AT143">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AU143">
         <v>1.38</v>
@@ -29086,7 +29092,7 @@
         <v>0.25</v>
       </c>
       <c r="AS146">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AT146">
         <v>0.17</v>
@@ -29190,7 +29196,7 @@
         <v>184</v>
       </c>
       <c r="P147" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q147">
         <v>7</v>
@@ -29381,7 +29387,7 @@
         <v>82</v>
       </c>
       <c r="P148" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q148">
         <v>3</v>
@@ -29471,7 +29477,7 @@
         <v>1.91</v>
       </c>
       <c r="AT148">
-        <v>2.64</v>
+        <v>2.42</v>
       </c>
       <c r="AU148">
         <v>1.51</v>
@@ -29572,7 +29578,7 @@
         <v>185</v>
       </c>
       <c r="P149" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q149">
         <v>6</v>
@@ -29954,7 +29960,7 @@
         <v>186</v>
       </c>
       <c r="P151" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q151">
         <v>2</v>
@@ -30909,7 +30915,7 @@
         <v>190</v>
       </c>
       <c r="P156" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q156">
         <v>4</v>
@@ -31291,7 +31297,7 @@
         <v>130</v>
       </c>
       <c r="P158" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q158">
         <v>1</v>
@@ -31482,7 +31488,7 @@
         <v>192</v>
       </c>
       <c r="P159" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q159">
         <v>2</v>
@@ -32055,7 +32061,7 @@
         <v>195</v>
       </c>
       <c r="P162" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q162">
         <v>3</v>
@@ -32246,7 +32252,7 @@
         <v>82</v>
       </c>
       <c r="P163" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q163">
         <v>3</v>
@@ -32336,7 +32342,7 @@
         <v>1.55</v>
       </c>
       <c r="AT163">
-        <v>2.64</v>
+        <v>2.42</v>
       </c>
       <c r="AU163">
         <v>1.55</v>
@@ -32628,7 +32634,7 @@
         <v>82</v>
       </c>
       <c r="P165" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q165">
         <v>5</v>
@@ -32819,7 +32825,7 @@
         <v>196</v>
       </c>
       <c r="P166" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q166">
         <v>0</v>
@@ -33392,7 +33398,7 @@
         <v>198</v>
       </c>
       <c r="P169" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q169">
         <v>4</v>
@@ -33965,7 +33971,7 @@
         <v>200</v>
       </c>
       <c r="P172" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q172">
         <v>4</v>
@@ -34156,7 +34162,7 @@
         <v>164</v>
       </c>
       <c r="P173" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q173">
         <v>4</v>
@@ -34625,7 +34631,7 @@
         <v>1.4</v>
       </c>
       <c r="AS175">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AT175">
         <v>1.17</v>
@@ -34729,7 +34735,7 @@
         <v>202</v>
       </c>
       <c r="P176" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q176">
         <v>3</v>
@@ -34920,7 +34926,7 @@
         <v>82</v>
       </c>
       <c r="P177" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q177">
         <v>3</v>
@@ -35111,7 +35117,7 @@
         <v>99</v>
       </c>
       <c r="P178" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q178">
         <v>8</v>
@@ -35684,7 +35690,7 @@
         <v>82</v>
       </c>
       <c r="P181" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q181">
         <v>3</v>
@@ -35771,7 +35777,7 @@
         <v>0.55</v>
       </c>
       <c r="AS181">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AT181">
         <v>0.75</v>
@@ -36257,7 +36263,7 @@
         <v>82</v>
       </c>
       <c r="P184" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q184">
         <v>8</v>
@@ -36590,6 +36596,388 @@
       </c>
       <c r="BK185">
         <v>16</v>
+      </c>
+    </row>
+    <row r="186" spans="1:63">
+      <c r="A186" s="1">
+        <v>185</v>
+      </c>
+      <c r="B186">
+        <v>5845625</v>
+      </c>
+      <c r="C186" t="s">
+        <v>63</v>
+      </c>
+      <c r="D186" t="s">
+        <v>64</v>
+      </c>
+      <c r="E186" s="2">
+        <v>45163.35763888889</v>
+      </c>
+      <c r="F186">
+        <v>24</v>
+      </c>
+      <c r="G186" t="s">
+        <v>69</v>
+      </c>
+      <c r="H186" t="s">
+        <v>76</v>
+      </c>
+      <c r="I186">
+        <v>1</v>
+      </c>
+      <c r="J186">
+        <v>0</v>
+      </c>
+      <c r="K186">
+        <v>1</v>
+      </c>
+      <c r="L186">
+        <v>3</v>
+      </c>
+      <c r="M186">
+        <v>1</v>
+      </c>
+      <c r="N186">
+        <v>4</v>
+      </c>
+      <c r="O186" t="s">
+        <v>205</v>
+      </c>
+      <c r="P186" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q186">
+        <v>1</v>
+      </c>
+      <c r="R186">
+        <v>3</v>
+      </c>
+      <c r="S186">
+        <v>4</v>
+      </c>
+      <c r="T186">
+        <v>5.45</v>
+      </c>
+      <c r="U186">
+        <v>2.41</v>
+      </c>
+      <c r="V186">
+        <v>2.02</v>
+      </c>
+      <c r="W186">
+        <v>1.3</v>
+      </c>
+      <c r="X186">
+        <v>3.34</v>
+      </c>
+      <c r="Y186">
+        <v>2.41</v>
+      </c>
+      <c r="Z186">
+        <v>1.53</v>
+      </c>
+      <c r="AA186">
+        <v>5.6</v>
+      </c>
+      <c r="AB186">
+        <v>1.12</v>
+      </c>
+      <c r="AC186">
+        <v>5.65</v>
+      </c>
+      <c r="AD186">
+        <v>4.4</v>
+      </c>
+      <c r="AE186">
+        <v>1.53</v>
+      </c>
+      <c r="AF186">
+        <v>1.03</v>
+      </c>
+      <c r="AG186">
+        <v>18.5</v>
+      </c>
+      <c r="AH186">
+        <v>1.17</v>
+      </c>
+      <c r="AI186">
+        <v>4.25</v>
+      </c>
+      <c r="AJ186">
+        <v>1.66</v>
+      </c>
+      <c r="AK186">
+        <v>2.25</v>
+      </c>
+      <c r="AL186">
+        <v>1.74</v>
+      </c>
+      <c r="AM186">
+        <v>2.02</v>
+      </c>
+      <c r="AN186">
+        <v>2.48</v>
+      </c>
+      <c r="AO186">
+        <v>1.21</v>
+      </c>
+      <c r="AP186">
+        <v>1.14</v>
+      </c>
+      <c r="AQ186">
+        <v>1.55</v>
+      </c>
+      <c r="AR186">
+        <v>2.64</v>
+      </c>
+      <c r="AS186">
+        <v>1.67</v>
+      </c>
+      <c r="AT186">
+        <v>2.42</v>
+      </c>
+      <c r="AU186">
+        <v>1.18</v>
+      </c>
+      <c r="AV186">
+        <v>1.51</v>
+      </c>
+      <c r="AW186">
+        <v>2.69</v>
+      </c>
+      <c r="AX186">
+        <v>2.91</v>
+      </c>
+      <c r="AY186">
+        <v>8.9</v>
+      </c>
+      <c r="AZ186">
+        <v>1.57</v>
+      </c>
+      <c r="BA186">
+        <v>1.36</v>
+      </c>
+      <c r="BB186">
+        <v>1.68</v>
+      </c>
+      <c r="BC186">
+        <v>2.12</v>
+      </c>
+      <c r="BD186">
+        <v>2.79</v>
+      </c>
+      <c r="BE186">
+        <v>3.98</v>
+      </c>
+      <c r="BF186">
+        <v>5</v>
+      </c>
+      <c r="BG186">
+        <v>5</v>
+      </c>
+      <c r="BH186">
+        <v>4</v>
+      </c>
+      <c r="BI186">
+        <v>5</v>
+      </c>
+      <c r="BJ186">
+        <v>9</v>
+      </c>
+      <c r="BK186">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="187" spans="1:63">
+      <c r="A187" s="1">
+        <v>186</v>
+      </c>
+      <c r="B187">
+        <v>5845626</v>
+      </c>
+      <c r="C187" t="s">
+        <v>63</v>
+      </c>
+      <c r="D187" t="s">
+        <v>64</v>
+      </c>
+      <c r="E187" s="2">
+        <v>45163.35763888889</v>
+      </c>
+      <c r="F187">
+        <v>24</v>
+      </c>
+      <c r="G187" t="s">
+        <v>72</v>
+      </c>
+      <c r="H187" t="s">
+        <v>74</v>
+      </c>
+      <c r="I187">
+        <v>1</v>
+      </c>
+      <c r="J187">
+        <v>0</v>
+      </c>
+      <c r="K187">
+        <v>1</v>
+      </c>
+      <c r="L187">
+        <v>1</v>
+      </c>
+      <c r="M187">
+        <v>2</v>
+      </c>
+      <c r="N187">
+        <v>3</v>
+      </c>
+      <c r="O187" t="s">
+        <v>206</v>
+      </c>
+      <c r="P187" t="s">
+        <v>293</v>
+      </c>
+      <c r="Q187">
+        <v>2</v>
+      </c>
+      <c r="R187">
+        <v>8</v>
+      </c>
+      <c r="S187">
+        <v>10</v>
+      </c>
+      <c r="T187">
+        <v>11.75</v>
+      </c>
+      <c r="U187">
+        <v>3.52</v>
+      </c>
+      <c r="V187">
+        <v>1.38</v>
+      </c>
+      <c r="W187">
+        <v>1.16</v>
+      </c>
+      <c r="X187">
+        <v>4.8</v>
+      </c>
+      <c r="Y187">
+        <v>1.84</v>
+      </c>
+      <c r="Z187">
+        <v>1.91</v>
+      </c>
+      <c r="AA187">
+        <v>3.56</v>
+      </c>
+      <c r="AB187">
+        <v>1.27</v>
+      </c>
+      <c r="AC187">
+        <v>19</v>
+      </c>
+      <c r="AD187">
+        <v>8</v>
+      </c>
+      <c r="AE187">
+        <v>1.1</v>
+      </c>
+      <c r="AF187">
+        <v>1.01</v>
+      </c>
+      <c r="AG187">
+        <v>45</v>
+      </c>
+      <c r="AH187">
+        <v>1.08</v>
+      </c>
+      <c r="AI187">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AJ187">
+        <v>1.16</v>
+      </c>
+      <c r="AK187">
+        <v>4.21</v>
+      </c>
+      <c r="AL187">
+        <v>2.09</v>
+      </c>
+      <c r="AM187">
+        <v>1.69</v>
+      </c>
+      <c r="AN187">
+        <v>6.85</v>
+      </c>
+      <c r="AO187">
+        <v>1.05</v>
+      </c>
+      <c r="AP187">
+        <v>1.01</v>
+      </c>
+      <c r="AQ187">
+        <v>0.91</v>
+      </c>
+      <c r="AR187">
+        <v>1.09</v>
+      </c>
+      <c r="AS187">
+        <v>0.83</v>
+      </c>
+      <c r="AT187">
+        <v>1.25</v>
+      </c>
+      <c r="AU187">
+        <v>1.13</v>
+      </c>
+      <c r="AV187">
+        <v>1.7</v>
+      </c>
+      <c r="AW187">
+        <v>2.83</v>
+      </c>
+      <c r="AX187">
+        <v>8</v>
+      </c>
+      <c r="AY187">
+        <v>13</v>
+      </c>
+      <c r="AZ187">
+        <v>1.1</v>
+      </c>
+      <c r="BA187">
+        <v>1.39</v>
+      </c>
+      <c r="BB187">
+        <v>1.67</v>
+      </c>
+      <c r="BC187">
+        <v>2.12</v>
+      </c>
+      <c r="BD187">
+        <v>2.8</v>
+      </c>
+      <c r="BE187">
+        <v>3.9</v>
+      </c>
+      <c r="BF187">
+        <v>4</v>
+      </c>
+      <c r="BG187">
+        <v>9</v>
+      </c>
+      <c r="BH187">
+        <v>1</v>
+      </c>
+      <c r="BI187">
+        <v>9</v>
+      </c>
+      <c r="BJ187">
+        <v>5</v>
+      </c>
+      <c r="BK187">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/China Chinese Super League_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/China Chinese Super League_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1179" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1215" uniqueCount="300">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -637,6 +637,21 @@
     <t>['6']</t>
   </si>
   <si>
+    <t>['14', '70', '80']</t>
+  </si>
+  <si>
+    <t>['33', '42', '84']</t>
+  </si>
+  <si>
+    <t>['59']</t>
+  </si>
+  <si>
+    <t>['85']</t>
+  </si>
+  <si>
+    <t>['18', '32', '36', '70']</t>
+  </si>
+  <si>
     <t>['64', '79']</t>
   </si>
   <si>
@@ -829,9 +844,6 @@
     <t>['7']</t>
   </si>
   <si>
-    <t>['85']</t>
-  </si>
-  <si>
     <t>['3', '55']</t>
   </si>
   <si>
@@ -896,6 +908,12 @@
   </si>
   <si>
     <t>['81', '90+1']</t>
+  </si>
+  <si>
+    <t>['10', '17', '43', '47', '53']</t>
+  </si>
+  <si>
+    <t>['14', '57']</t>
   </si>
 </sst>
 </file>
@@ -1257,7 +1275,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK187"/>
+  <dimension ref="A1:BK193"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1591,7 +1609,7 @@
         <v>1.25</v>
       </c>
       <c r="AT2">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU2">
         <v>0</v>
@@ -1692,7 +1710,7 @@
         <v>82</v>
       </c>
       <c r="P3" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="Q3">
         <v>5</v>
@@ -1779,7 +1797,7 @@
         <v>0</v>
       </c>
       <c r="AS3">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AT3">
         <v>2.42</v>
@@ -1883,7 +1901,7 @@
         <v>82</v>
       </c>
       <c r="P4" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="Q4">
         <v>9</v>
@@ -1970,10 +1988,10 @@
         <v>0</v>
       </c>
       <c r="AS4">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AT4">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AU4">
         <v>0</v>
@@ -2074,7 +2092,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="Q5">
         <v>8</v>
@@ -2164,7 +2182,7 @@
         <v>2.08</v>
       </c>
       <c r="AT5">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AU5">
         <v>0</v>
@@ -2265,7 +2283,7 @@
         <v>84</v>
       </c>
       <c r="P6" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="Q6">
         <v>2</v>
@@ -2355,7 +2373,7 @@
         <v>1.67</v>
       </c>
       <c r="AT6">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AU6">
         <v>0</v>
@@ -2456,7 +2474,7 @@
         <v>85</v>
       </c>
       <c r="P7" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="Q7">
         <v>7</v>
@@ -2543,7 +2561,7 @@
         <v>0</v>
       </c>
       <c r="AS7">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AT7">
         <v>1.09</v>
@@ -2734,7 +2752,7 @@
         <v>0</v>
       </c>
       <c r="AS8">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AT8">
         <v>1.25</v>
@@ -2838,7 +2856,7 @@
         <v>87</v>
       </c>
       <c r="P9" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="Q9">
         <v>4</v>
@@ -3029,7 +3047,7 @@
         <v>88</v>
       </c>
       <c r="P10" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="Q10">
         <v>4</v>
@@ -3116,10 +3134,10 @@
         <v>0</v>
       </c>
       <c r="AS10">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AT10">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AU10">
         <v>1.22</v>
@@ -3307,7 +3325,7 @@
         <v>0</v>
       </c>
       <c r="AS11">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AT11">
         <v>1.45</v>
@@ -3411,7 +3429,7 @@
         <v>82</v>
       </c>
       <c r="P12" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="Q12">
         <v>7</v>
@@ -3692,7 +3710,7 @@
         <v>2.42</v>
       </c>
       <c r="AT13">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU13">
         <v>0</v>
@@ -4175,7 +4193,7 @@
         <v>92</v>
       </c>
       <c r="P16" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="Q16">
         <v>7</v>
@@ -4366,7 +4384,7 @@
         <v>93</v>
       </c>
       <c r="P17" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="Q17">
         <v>3</v>
@@ -4456,7 +4474,7 @@
         <v>1.83</v>
       </c>
       <c r="AT17">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
       <c r="AU17">
         <v>0</v>
@@ -4748,7 +4766,7 @@
         <v>95</v>
       </c>
       <c r="P19" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="Q19">
         <v>2</v>
@@ -4939,7 +4957,7 @@
         <v>96</v>
       </c>
       <c r="P20" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="Q20">
         <v>2</v>
@@ -5026,10 +5044,10 @@
         <v>1</v>
       </c>
       <c r="AS20">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AT20">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AU20">
         <v>0</v>
@@ -5217,7 +5235,7 @@
         <v>3</v>
       </c>
       <c r="AS21">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AT21">
         <v>2.42</v>
@@ -5408,10 +5426,10 @@
         <v>3</v>
       </c>
       <c r="AS22">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AT22">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AU22">
         <v>0.9</v>
@@ -5602,7 +5620,7 @@
         <v>1.25</v>
       </c>
       <c r="AT23">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AU23">
         <v>1.2</v>
@@ -5703,7 +5721,7 @@
         <v>82</v>
       </c>
       <c r="P24" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="Q24">
         <v>9</v>
@@ -6276,7 +6294,7 @@
         <v>82</v>
       </c>
       <c r="P27" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="Q27">
         <v>2</v>
@@ -6363,7 +6381,7 @@
         <v>3</v>
       </c>
       <c r="AS27">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AT27">
         <v>1.58</v>
@@ -6467,7 +6485,7 @@
         <v>82</v>
       </c>
       <c r="P28" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="Q28">
         <v>3</v>
@@ -6554,10 +6572,10 @@
         <v>1</v>
       </c>
       <c r="AS28">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AT28">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AU28">
         <v>1.28</v>
@@ -6658,7 +6676,7 @@
         <v>83</v>
       </c>
       <c r="P29" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="Q29">
         <v>5</v>
@@ -6849,7 +6867,7 @@
         <v>99</v>
       </c>
       <c r="P30" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="Q30">
         <v>11</v>
@@ -7127,10 +7145,10 @@
         <v>0.5</v>
       </c>
       <c r="AS31">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AT31">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU31">
         <v>1.23</v>
@@ -7231,7 +7249,7 @@
         <v>101</v>
       </c>
       <c r="P32" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="Q32">
         <v>8</v>
@@ -7422,7 +7440,7 @@
         <v>102</v>
       </c>
       <c r="P33" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="Q33">
         <v>7</v>
@@ -7512,7 +7530,7 @@
         <v>1.25</v>
       </c>
       <c r="AT33">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AU33">
         <v>1.13</v>
@@ -7703,7 +7721,7 @@
         <v>1.67</v>
       </c>
       <c r="AT34">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AU34">
         <v>0.89</v>
@@ -7891,10 +7909,10 @@
         <v>0</v>
       </c>
       <c r="AS35">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AT35">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
       <c r="AU35">
         <v>0.96</v>
@@ -8273,7 +8291,7 @@
         <v>0</v>
       </c>
       <c r="AS37">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AT37">
         <v>1.45</v>
@@ -8377,7 +8395,7 @@
         <v>104</v>
       </c>
       <c r="P38" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="Q38">
         <v>3</v>
@@ -8568,7 +8586,7 @@
         <v>105</v>
       </c>
       <c r="P39" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="Q39">
         <v>6</v>
@@ -8846,7 +8864,7 @@
         <v>3</v>
       </c>
       <c r="AS40">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AT40">
         <v>2.42</v>
@@ -9040,7 +9058,7 @@
         <v>0.91</v>
       </c>
       <c r="AT41">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AU41">
         <v>1.68</v>
@@ -9332,7 +9350,7 @@
         <v>107</v>
       </c>
       <c r="P43" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="Q43">
         <v>5</v>
@@ -9523,7 +9541,7 @@
         <v>99</v>
       </c>
       <c r="P44" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="Q44">
         <v>5</v>
@@ -9905,7 +9923,7 @@
         <v>109</v>
       </c>
       <c r="P46" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="Q46">
         <v>3</v>
@@ -10287,7 +10305,7 @@
         <v>110</v>
       </c>
       <c r="P48" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="Q48">
         <v>9</v>
@@ -10478,7 +10496,7 @@
         <v>111</v>
       </c>
       <c r="P49" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="Q49">
         <v>3</v>
@@ -10568,7 +10586,7 @@
         <v>1.83</v>
       </c>
       <c r="AT49">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AU49">
         <v>1.37</v>
@@ -10669,7 +10687,7 @@
         <v>112</v>
       </c>
       <c r="P50" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="Q50">
         <v>4</v>
@@ -10756,7 +10774,7 @@
         <v>2.33</v>
       </c>
       <c r="AS50">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AT50">
         <v>1.58</v>
@@ -10860,7 +10878,7 @@
         <v>113</v>
       </c>
       <c r="P51" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="Q51">
         <v>2</v>
@@ -10950,7 +10968,7 @@
         <v>0.83</v>
       </c>
       <c r="AT51">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
       <c r="AU51">
         <v>1.09</v>
@@ -11138,10 +11156,10 @@
         <v>1.67</v>
       </c>
       <c r="AS52">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AT52">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AU52">
         <v>0.87</v>
@@ -11242,7 +11260,7 @@
         <v>115</v>
       </c>
       <c r="P53" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="Q53">
         <v>8</v>
@@ -11332,7 +11350,7 @@
         <v>1.75</v>
       </c>
       <c r="AT53">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AU53">
         <v>1.79</v>
@@ -11433,7 +11451,7 @@
         <v>116</v>
       </c>
       <c r="P54" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="Q54">
         <v>3</v>
@@ -11520,7 +11538,7 @@
         <v>2.33</v>
       </c>
       <c r="AS54">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AT54">
         <v>2.42</v>
@@ -11711,7 +11729,7 @@
         <v>0.5</v>
       </c>
       <c r="AS55">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AT55">
         <v>0.67</v>
@@ -11902,7 +11920,7 @@
         <v>0.5</v>
       </c>
       <c r="AS56">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AT56">
         <v>1.25</v>
@@ -12096,7 +12114,7 @@
         <v>2.08</v>
       </c>
       <c r="AT57">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU57">
         <v>1.43</v>
@@ -12197,7 +12215,7 @@
         <v>120</v>
       </c>
       <c r="P58" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="Q58">
         <v>3</v>
@@ -12284,10 +12302,10 @@
         <v>1.67</v>
       </c>
       <c r="AS58">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AT58">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AU58">
         <v>1.74</v>
@@ -12579,7 +12597,7 @@
         <v>121</v>
       </c>
       <c r="P60" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="Q60">
         <v>3</v>
@@ -12666,7 +12684,7 @@
         <v>1</v>
       </c>
       <c r="AS60">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AT60">
         <v>1.45</v>
@@ -12770,7 +12788,7 @@
         <v>122</v>
       </c>
       <c r="P61" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="Q61">
         <v>6</v>
@@ -12857,10 +12875,10 @@
         <v>1.75</v>
       </c>
       <c r="AS61">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AT61">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AU61">
         <v>1.29</v>
@@ -12961,7 +12979,7 @@
         <v>123</v>
       </c>
       <c r="P62" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="Q62">
         <v>2</v>
@@ -13048,10 +13066,10 @@
         <v>1.33</v>
       </c>
       <c r="AS62">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AT62">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AU62">
         <v>1.38</v>
@@ -13242,7 +13260,7 @@
         <v>1.67</v>
       </c>
       <c r="AT63">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
       <c r="AU63">
         <v>1.07</v>
@@ -13343,7 +13361,7 @@
         <v>125</v>
       </c>
       <c r="P64" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="Q64">
         <v>1</v>
@@ -13430,7 +13448,7 @@
         <v>0.6</v>
       </c>
       <c r="AS64">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AT64">
         <v>1.25</v>
@@ -13534,7 +13552,7 @@
         <v>82</v>
       </c>
       <c r="P65" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="Q65">
         <v>1</v>
@@ -13725,7 +13743,7 @@
         <v>126</v>
       </c>
       <c r="P66" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="Q66">
         <v>4</v>
@@ -13916,7 +13934,7 @@
         <v>127</v>
       </c>
       <c r="P67" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="Q67">
         <v>7</v>
@@ -14298,7 +14316,7 @@
         <v>82</v>
       </c>
       <c r="P69" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="Q69">
         <v>6</v>
@@ -14680,7 +14698,7 @@
         <v>129</v>
       </c>
       <c r="P71" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="Q71">
         <v>7</v>
@@ -15062,7 +15080,7 @@
         <v>131</v>
       </c>
       <c r="P73" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="Q73">
         <v>7</v>
@@ -15343,7 +15361,7 @@
         <v>1.75</v>
       </c>
       <c r="AT74">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU74">
         <v>1.75</v>
@@ -15444,7 +15462,7 @@
         <v>133</v>
       </c>
       <c r="P75" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="Q75">
         <v>10</v>
@@ -15531,7 +15549,7 @@
         <v>2.2</v>
       </c>
       <c r="AS75">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AT75">
         <v>1.58</v>
@@ -15635,7 +15653,7 @@
         <v>134</v>
       </c>
       <c r="P76" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="Q76">
         <v>3</v>
@@ -15722,10 +15740,10 @@
         <v>1.25</v>
       </c>
       <c r="AS76">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AT76">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AU76">
         <v>1.15</v>
@@ -15913,7 +15931,7 @@
         <v>0.67</v>
       </c>
       <c r="AS77">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AT77">
         <v>1.25</v>
@@ -16017,7 +16035,7 @@
         <v>103</v>
       </c>
       <c r="P78" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="Q78">
         <v>7</v>
@@ -16104,7 +16122,7 @@
         <v>0.25</v>
       </c>
       <c r="AS78">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AT78">
         <v>0.67</v>
@@ -16399,7 +16417,7 @@
         <v>135</v>
       </c>
       <c r="P80" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="Q80">
         <v>3</v>
@@ -16489,7 +16507,7 @@
         <v>0.83</v>
       </c>
       <c r="AT80">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AU80">
         <v>1.17</v>
@@ -16590,7 +16608,7 @@
         <v>82</v>
       </c>
       <c r="P81" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="Q81">
         <v>4</v>
@@ -16868,7 +16886,7 @@
         <v>0.33</v>
       </c>
       <c r="AS82">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AT82">
         <v>0.17</v>
@@ -16972,7 +16990,7 @@
         <v>137</v>
       </c>
       <c r="P83" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="Q83">
         <v>12</v>
@@ -17062,7 +17080,7 @@
         <v>2.08</v>
       </c>
       <c r="AT83">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AU83">
         <v>1.68</v>
@@ -17253,7 +17271,7 @@
         <v>2</v>
       </c>
       <c r="AT84">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AU84">
         <v>1.93</v>
@@ -17444,7 +17462,7 @@
         <v>2.42</v>
       </c>
       <c r="AT85">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
       <c r="AU85">
         <v>2.24</v>
@@ -17635,7 +17653,7 @@
         <v>1.67</v>
       </c>
       <c r="AT86">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AU86">
         <v>1.08</v>
@@ -17736,7 +17754,7 @@
         <v>82</v>
       </c>
       <c r="P87" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="Q87">
         <v>1</v>
@@ -17823,7 +17841,7 @@
         <v>1.75</v>
       </c>
       <c r="AS87">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AT87">
         <v>1.67</v>
@@ -18118,7 +18136,7 @@
         <v>140</v>
       </c>
       <c r="P89" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="Q89">
         <v>6</v>
@@ -18205,7 +18223,7 @@
         <v>1.83</v>
       </c>
       <c r="AS89">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AT89">
         <v>1.58</v>
@@ -18309,7 +18327,7 @@
         <v>82</v>
       </c>
       <c r="P90" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="Q90">
         <v>3</v>
@@ -18396,7 +18414,7 @@
         <v>2</v>
       </c>
       <c r="AS90">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AT90">
         <v>1.67</v>
@@ -18500,7 +18518,7 @@
         <v>141</v>
       </c>
       <c r="P91" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="Q91">
         <v>5</v>
@@ -18882,7 +18900,7 @@
         <v>142</v>
       </c>
       <c r="P93" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="Q93">
         <v>3</v>
@@ -19163,7 +19181,7 @@
         <v>2</v>
       </c>
       <c r="AT94">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU94">
         <v>1.8</v>
@@ -19351,7 +19369,7 @@
         <v>1</v>
       </c>
       <c r="AS95">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AT95">
         <v>1.25</v>
@@ -19455,7 +19473,7 @@
         <v>144</v>
       </c>
       <c r="P96" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="Q96">
         <v>7</v>
@@ -19646,7 +19664,7 @@
         <v>145</v>
       </c>
       <c r="P97" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="Q97">
         <v>1</v>
@@ -19736,7 +19754,7 @@
         <v>1.25</v>
       </c>
       <c r="AT97">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AU97">
         <v>1.38</v>
@@ -19924,10 +19942,10 @@
         <v>0</v>
       </c>
       <c r="AS98">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AT98">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
       <c r="AU98">
         <v>1.68</v>
@@ -20115,10 +20133,10 @@
         <v>0.83</v>
       </c>
       <c r="AS99">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AT99">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AU99">
         <v>1.45</v>
@@ -20219,7 +20237,7 @@
         <v>147</v>
       </c>
       <c r="P100" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="Q100">
         <v>5</v>
@@ -20306,7 +20324,7 @@
         <v>0.17</v>
       </c>
       <c r="AS100">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AT100">
         <v>0.25</v>
@@ -20497,10 +20515,10 @@
         <v>0.33</v>
       </c>
       <c r="AS101">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AT101">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU101">
         <v>1.53</v>
@@ -20688,7 +20706,7 @@
         <v>0.4</v>
       </c>
       <c r="AS102">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AT102">
         <v>0.67</v>
@@ -20792,7 +20810,7 @@
         <v>82</v>
       </c>
       <c r="P103" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="Q103">
         <v>1</v>
@@ -20882,7 +20900,7 @@
         <v>0.83</v>
       </c>
       <c r="AT103">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AU103">
         <v>1.27</v>
@@ -20983,7 +21001,7 @@
         <v>149</v>
       </c>
       <c r="P104" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="Q104">
         <v>4</v>
@@ -21073,7 +21091,7 @@
         <v>2.42</v>
       </c>
       <c r="AT104">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AU104">
         <v>2.05</v>
@@ -21174,7 +21192,7 @@
         <v>108</v>
       </c>
       <c r="P105" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="Q105">
         <v>2</v>
@@ -21365,7 +21383,7 @@
         <v>123</v>
       </c>
       <c r="P106" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="Q106">
         <v>2</v>
@@ -21452,7 +21470,7 @@
         <v>1.67</v>
       </c>
       <c r="AS106">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AT106">
         <v>1.17</v>
@@ -21556,7 +21574,7 @@
         <v>150</v>
       </c>
       <c r="P107" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="Q107">
         <v>6</v>
@@ -21834,7 +21852,7 @@
         <v>1.29</v>
       </c>
       <c r="AS108">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AT108">
         <v>1.45</v>
@@ -21938,7 +21956,7 @@
         <v>152</v>
       </c>
       <c r="P109" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="Q109">
         <v>17</v>
@@ -22028,7 +22046,7 @@
         <v>0.91</v>
       </c>
       <c r="AT109">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AU109">
         <v>1.91</v>
@@ -22129,7 +22147,7 @@
         <v>153</v>
       </c>
       <c r="P110" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="Q110">
         <v>1</v>
@@ -22320,7 +22338,7 @@
         <v>154</v>
       </c>
       <c r="P111" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="Q111">
         <v>3</v>
@@ -22601,7 +22619,7 @@
         <v>1.75</v>
       </c>
       <c r="AT112">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AU112">
         <v>1.75</v>
@@ -22702,7 +22720,7 @@
         <v>155</v>
       </c>
       <c r="P113" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="Q113">
         <v>5</v>
@@ -22893,7 +22911,7 @@
         <v>156</v>
       </c>
       <c r="P114" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="Q114">
         <v>14</v>
@@ -22980,10 +22998,10 @@
         <v>0.29</v>
       </c>
       <c r="AS114">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AT114">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU114">
         <v>1.25</v>
@@ -23365,7 +23383,7 @@
         <v>1.73</v>
       </c>
       <c r="AT116">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AU116">
         <v>1.22</v>
@@ -23553,7 +23571,7 @@
         <v>1.33</v>
       </c>
       <c r="AS117">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AT117">
         <v>1.09</v>
@@ -23744,7 +23762,7 @@
         <v>2.17</v>
       </c>
       <c r="AS118">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AT118">
         <v>1.67</v>
@@ -23935,10 +23953,10 @@
         <v>1.43</v>
       </c>
       <c r="AS119">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AT119">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AU119">
         <v>1.67</v>
@@ -24039,7 +24057,7 @@
         <v>160</v>
       </c>
       <c r="P120" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="Q120">
         <v>7</v>
@@ -24129,7 +24147,7 @@
         <v>2</v>
       </c>
       <c r="AT120">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
       <c r="AU120">
         <v>1.78</v>
@@ -24803,7 +24821,7 @@
         <v>164</v>
       </c>
       <c r="P124" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="Q124">
         <v>9</v>
@@ -24890,7 +24908,7 @@
         <v>1.86</v>
       </c>
       <c r="AS124">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AT124">
         <v>1.17</v>
@@ -25081,7 +25099,7 @@
         <v>0.17</v>
       </c>
       <c r="AS125">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AT125">
         <v>0.17</v>
@@ -25376,7 +25394,7 @@
         <v>167</v>
       </c>
       <c r="P127" t="s">
-        <v>271</v>
+        <v>210</v>
       </c>
       <c r="Q127">
         <v>1</v>
@@ -25466,7 +25484,7 @@
         <v>1.73</v>
       </c>
       <c r="AT127">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AU127">
         <v>1.22</v>
@@ -25567,7 +25585,7 @@
         <v>168</v>
       </c>
       <c r="P128" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="Q128">
         <v>1</v>
@@ -25758,7 +25776,7 @@
         <v>169</v>
       </c>
       <c r="P129" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="Q129">
         <v>6</v>
@@ -25848,7 +25866,7 @@
         <v>0.91</v>
       </c>
       <c r="AT129">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
       <c r="AU129">
         <v>2</v>
@@ -25949,7 +25967,7 @@
         <v>95</v>
       </c>
       <c r="P130" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="Q130">
         <v>2</v>
@@ -26230,7 +26248,7 @@
         <v>1.25</v>
       </c>
       <c r="AT131">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AU131">
         <v>1.24</v>
@@ -26331,7 +26349,7 @@
         <v>156</v>
       </c>
       <c r="P132" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="Q132">
         <v>4</v>
@@ -26522,7 +26540,7 @@
         <v>170</v>
       </c>
       <c r="P133" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="Q133">
         <v>6</v>
@@ -26609,7 +26627,7 @@
         <v>1.75</v>
       </c>
       <c r="AS133">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AT133">
         <v>1.17</v>
@@ -26904,7 +26922,7 @@
         <v>172</v>
       </c>
       <c r="P135" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="Q135">
         <v>4</v>
@@ -26991,10 +27009,10 @@
         <v>1.71</v>
       </c>
       <c r="AS135">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AT135">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AU135">
         <v>1.43</v>
@@ -27095,7 +27113,7 @@
         <v>173</v>
       </c>
       <c r="P136" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="Q136">
         <v>7</v>
@@ -27182,10 +27200,10 @@
         <v>0.75</v>
       </c>
       <c r="AS136">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AT136">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AU136">
         <v>1.51</v>
@@ -27373,7 +27391,7 @@
         <v>0.63</v>
       </c>
       <c r="AS137">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AT137">
         <v>0.67</v>
@@ -27668,7 +27686,7 @@
         <v>176</v>
       </c>
       <c r="P139" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="Q139">
         <v>10</v>
@@ -27758,7 +27776,7 @@
         <v>1.67</v>
       </c>
       <c r="AT139">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU139">
         <v>1.07</v>
@@ -27859,7 +27877,7 @@
         <v>177</v>
       </c>
       <c r="P140" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="Q140">
         <v>11</v>
@@ -27946,7 +27964,7 @@
         <v>0.14</v>
       </c>
       <c r="AS140">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AT140">
         <v>0.17</v>
@@ -28140,7 +28158,7 @@
         <v>1.75</v>
       </c>
       <c r="AT141">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
       <c r="AU141">
         <v>1.81</v>
@@ -28519,7 +28537,7 @@
         <v>1.2</v>
       </c>
       <c r="AS143">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AT143">
         <v>1.25</v>
@@ -28901,10 +28919,10 @@
         <v>0.67</v>
       </c>
       <c r="AS145">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AT145">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AU145">
         <v>1.72</v>
@@ -29196,7 +29214,7 @@
         <v>184</v>
       </c>
       <c r="P147" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="Q147">
         <v>7</v>
@@ -29387,7 +29405,7 @@
         <v>82</v>
       </c>
       <c r="P148" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="Q148">
         <v>3</v>
@@ -29474,7 +29492,7 @@
         <v>2.56</v>
       </c>
       <c r="AS148">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AT148">
         <v>2.42</v>
@@ -29578,7 +29596,7 @@
         <v>185</v>
       </c>
       <c r="P149" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="Q149">
         <v>6</v>
@@ -29668,7 +29686,7 @@
         <v>1.73</v>
       </c>
       <c r="AT149">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
       <c r="AU149">
         <v>1.16</v>
@@ -29856,10 +29874,10 @@
         <v>1.22</v>
       </c>
       <c r="AS150">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AT150">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AU150">
         <v>1.44</v>
@@ -29960,7 +29978,7 @@
         <v>186</v>
       </c>
       <c r="P151" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="Q151">
         <v>2</v>
@@ -30241,7 +30259,7 @@
         <v>2.42</v>
       </c>
       <c r="AT152">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AU152">
         <v>1.71</v>
@@ -30429,7 +30447,7 @@
         <v>0.22</v>
       </c>
       <c r="AS153">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AT153">
         <v>0.25</v>
@@ -30811,7 +30829,7 @@
         <v>1.6</v>
       </c>
       <c r="AS155">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AT155">
         <v>1.58</v>
@@ -30915,7 +30933,7 @@
         <v>190</v>
       </c>
       <c r="P156" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="Q156">
         <v>4</v>
@@ -31005,7 +31023,7 @@
         <v>2.42</v>
       </c>
       <c r="AT156">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AU156">
         <v>1.71</v>
@@ -31297,7 +31315,7 @@
         <v>130</v>
       </c>
       <c r="P158" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="Q158">
         <v>1</v>
@@ -31387,7 +31405,7 @@
         <v>1.83</v>
       </c>
       <c r="AT158">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU158">
         <v>1.55</v>
@@ -31488,7 +31506,7 @@
         <v>192</v>
       </c>
       <c r="P159" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="Q159">
         <v>2</v>
@@ -31575,10 +31593,10 @@
         <v>1.5</v>
       </c>
       <c r="AS159">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AT159">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AU159">
         <v>1.56</v>
@@ -31957,7 +31975,7 @@
         <v>0.22</v>
       </c>
       <c r="AS161">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AT161">
         <v>0.17</v>
@@ -32061,7 +32079,7 @@
         <v>195</v>
       </c>
       <c r="P162" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="Q162">
         <v>3</v>
@@ -32151,7 +32169,7 @@
         <v>1.73</v>
       </c>
       <c r="AT162">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AU162">
         <v>1.2</v>
@@ -32252,7 +32270,7 @@
         <v>82</v>
       </c>
       <c r="P163" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="Q163">
         <v>3</v>
@@ -32339,7 +32357,7 @@
         <v>2.6</v>
       </c>
       <c r="AS163">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AT163">
         <v>2.42</v>
@@ -32530,10 +32548,10 @@
         <v>0.5</v>
       </c>
       <c r="AS164">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AT164">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU164">
         <v>1.33</v>
@@ -32634,7 +32652,7 @@
         <v>82</v>
       </c>
       <c r="P165" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="Q165">
         <v>5</v>
@@ -32724,7 +32742,7 @@
         <v>2.42</v>
       </c>
       <c r="AT165">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AU165">
         <v>1.71</v>
@@ -32825,7 +32843,7 @@
         <v>196</v>
       </c>
       <c r="P166" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="Q166">
         <v>0</v>
@@ -32912,7 +32930,7 @@
         <v>0.5</v>
       </c>
       <c r="AS166">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AT166">
         <v>0.67</v>
@@ -33103,10 +33121,10 @@
         <v>1</v>
       </c>
       <c r="AS167">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AT167">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AU167">
         <v>1.4</v>
@@ -33294,7 +33312,7 @@
         <v>0.2</v>
       </c>
       <c r="AS168">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AT168">
         <v>0.17</v>
@@ -33398,7 +33416,7 @@
         <v>198</v>
       </c>
       <c r="P169" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="Q169">
         <v>4</v>
@@ -33485,10 +33503,10 @@
         <v>0.3</v>
       </c>
       <c r="AS169">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AT169">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
       <c r="AU169">
         <v>1.38</v>
@@ -33870,7 +33888,7 @@
         <v>1.83</v>
       </c>
       <c r="AT171">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AU171">
         <v>1.48</v>
@@ -33971,7 +33989,7 @@
         <v>200</v>
       </c>
       <c r="P172" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="Q172">
         <v>4</v>
@@ -34162,7 +34180,7 @@
         <v>164</v>
       </c>
       <c r="P173" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="Q173">
         <v>4</v>
@@ -34249,7 +34267,7 @@
         <v>1.7</v>
       </c>
       <c r="AS173">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AT173">
         <v>1.67</v>
@@ -34735,7 +34753,7 @@
         <v>202</v>
       </c>
       <c r="P176" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="Q176">
         <v>3</v>
@@ -34926,7 +34944,7 @@
         <v>82</v>
       </c>
       <c r="P177" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="Q177">
         <v>3</v>
@@ -35016,7 +35034,7 @@
         <v>0.91</v>
       </c>
       <c r="AT177">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AU177">
         <v>1.79</v>
@@ -35117,7 +35135,7 @@
         <v>99</v>
       </c>
       <c r="P178" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="Q178">
         <v>8</v>
@@ -35207,7 +35225,7 @@
         <v>2</v>
       </c>
       <c r="AT178">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AU178">
         <v>1.7</v>
@@ -35395,7 +35413,7 @@
         <v>0.18</v>
       </c>
       <c r="AS179">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AT179">
         <v>0.25</v>
@@ -35690,7 +35708,7 @@
         <v>82</v>
       </c>
       <c r="P181" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="Q181">
         <v>3</v>
@@ -35780,7 +35798,7 @@
         <v>0.83</v>
       </c>
       <c r="AT181">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU181">
         <v>1.16</v>
@@ -36263,7 +36281,7 @@
         <v>82</v>
       </c>
       <c r="P184" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="Q184">
         <v>8</v>
@@ -36771,22 +36789,22 @@
         <v>3.98</v>
       </c>
       <c r="BF186">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="BG186">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="BH186">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="BI186">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="BJ186">
-        <v>9</v>
+        <v>-1</v>
       </c>
       <c r="BK186">
-        <v>10</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="187" spans="1:63">
@@ -36836,7 +36854,7 @@
         <v>206</v>
       </c>
       <c r="P187" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="Q187">
         <v>2</v>
@@ -36962,22 +36980,1168 @@
         <v>3.9</v>
       </c>
       <c r="BF187">
+        <v>-1</v>
+      </c>
+      <c r="BG187">
+        <v>-1</v>
+      </c>
+      <c r="BH187">
+        <v>-1</v>
+      </c>
+      <c r="BI187">
+        <v>-1</v>
+      </c>
+      <c r="BJ187">
+        <v>-1</v>
+      </c>
+      <c r="BK187">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:63">
+      <c r="A188" s="1">
+        <v>187</v>
+      </c>
+      <c r="B188">
+        <v>5845627</v>
+      </c>
+      <c r="C188" t="s">
+        <v>63</v>
+      </c>
+      <c r="D188" t="s">
+        <v>64</v>
+      </c>
+      <c r="E188" s="2">
+        <v>45164.35763888889</v>
+      </c>
+      <c r="F188">
+        <v>24</v>
+      </c>
+      <c r="G188" t="s">
+        <v>67</v>
+      </c>
+      <c r="H188" t="s">
+        <v>65</v>
+      </c>
+      <c r="I188">
+        <v>1</v>
+      </c>
+      <c r="J188">
+        <v>0</v>
+      </c>
+      <c r="K188">
+        <v>1</v>
+      </c>
+      <c r="L188">
+        <v>3</v>
+      </c>
+      <c r="M188">
+        <v>0</v>
+      </c>
+      <c r="N188">
+        <v>3</v>
+      </c>
+      <c r="O188" t="s">
+        <v>207</v>
+      </c>
+      <c r="P188" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q188">
+        <v>10</v>
+      </c>
+      <c r="R188">
+        <v>5</v>
+      </c>
+      <c r="S188">
+        <v>15</v>
+      </c>
+      <c r="T188">
+        <v>2.08</v>
+      </c>
+      <c r="U188">
+        <v>2.34</v>
+      </c>
+      <c r="V188">
+        <v>5.4</v>
+      </c>
+      <c r="W188">
+        <v>1.3</v>
+      </c>
+      <c r="X188">
+        <v>3.25</v>
+      </c>
+      <c r="Y188">
+        <v>2.4</v>
+      </c>
+      <c r="Z188">
+        <v>1.51</v>
+      </c>
+      <c r="AA188">
+        <v>5.45</v>
+      </c>
+      <c r="AB188">
+        <v>1.12</v>
+      </c>
+      <c r="AC188">
+        <v>1.43</v>
+      </c>
+      <c r="AD188">
         <v>4</v>
       </c>
-      <c r="BG187">
+      <c r="AE188">
+        <v>5.2</v>
+      </c>
+      <c r="AF188">
+        <v>1.01</v>
+      </c>
+      <c r="AG188">
+        <v>10.5</v>
+      </c>
+      <c r="AH188">
+        <v>1.2</v>
+      </c>
+      <c r="AI188">
+        <v>3.9</v>
+      </c>
+      <c r="AJ188">
+        <v>1.61</v>
+      </c>
+      <c r="AK188">
+        <v>2.23</v>
+      </c>
+      <c r="AL188">
+        <v>1.8</v>
+      </c>
+      <c r="AM188">
+        <v>1.95</v>
+      </c>
+      <c r="AN188">
+        <v>1.14</v>
+      </c>
+      <c r="AO188">
+        <v>1.22</v>
+      </c>
+      <c r="AP188">
+        <v>2.41</v>
+      </c>
+      <c r="AQ188">
+        <v>1.67</v>
+      </c>
+      <c r="AR188">
+        <v>0.27</v>
+      </c>
+      <c r="AS188">
+        <v>1.77</v>
+      </c>
+      <c r="AT188">
+        <v>0.25</v>
+      </c>
+      <c r="AU188">
+        <v>1.36</v>
+      </c>
+      <c r="AV188">
+        <v>1.19</v>
+      </c>
+      <c r="AW188">
+        <v>2.55</v>
+      </c>
+      <c r="AX188">
+        <v>1.62</v>
+      </c>
+      <c r="AY188">
+        <v>8</v>
+      </c>
+      <c r="AZ188">
+        <v>2.75</v>
+      </c>
+      <c r="BA188">
+        <v>1.31</v>
+      </c>
+      <c r="BB188">
+        <v>1.56</v>
+      </c>
+      <c r="BC188">
+        <v>1.99</v>
+      </c>
+      <c r="BD188">
+        <v>2.62</v>
+      </c>
+      <c r="BE188">
+        <v>3.56</v>
+      </c>
+      <c r="BF188">
+        <v>5</v>
+      </c>
+      <c r="BG188">
+        <v>5</v>
+      </c>
+      <c r="BH188">
         <v>9</v>
       </c>
-      <c r="BH187">
-        <v>1</v>
-      </c>
-      <c r="BI187">
+      <c r="BI188">
+        <v>4</v>
+      </c>
+      <c r="BJ188">
+        <v>14</v>
+      </c>
+      <c r="BK188">
         <v>9</v>
       </c>
-      <c r="BJ187">
+    </row>
+    <row r="189" spans="1:63">
+      <c r="A189" s="1">
+        <v>188</v>
+      </c>
+      <c r="B189">
+        <v>5845628</v>
+      </c>
+      <c r="C189" t="s">
+        <v>63</v>
+      </c>
+      <c r="D189" t="s">
+        <v>64</v>
+      </c>
+      <c r="E189" s="2">
+        <v>45164.35763888889</v>
+      </c>
+      <c r="F189">
+        <v>24</v>
+      </c>
+      <c r="G189" t="s">
+        <v>70</v>
+      </c>
+      <c r="H189" t="s">
+        <v>73</v>
+      </c>
+      <c r="I189">
+        <v>2</v>
+      </c>
+      <c r="J189">
+        <v>0</v>
+      </c>
+      <c r="K189">
+        <v>2</v>
+      </c>
+      <c r="L189">
+        <v>3</v>
+      </c>
+      <c r="M189">
+        <v>1</v>
+      </c>
+      <c r="N189">
+        <v>4</v>
+      </c>
+      <c r="O189" t="s">
+        <v>208</v>
+      </c>
+      <c r="P189" t="s">
+        <v>286</v>
+      </c>
+      <c r="Q189">
+        <v>1</v>
+      </c>
+      <c r="R189">
+        <v>6</v>
+      </c>
+      <c r="S189">
+        <v>7</v>
+      </c>
+      <c r="T189">
+        <v>2.55</v>
+      </c>
+      <c r="U189">
+        <v>2.2</v>
+      </c>
+      <c r="V189">
+        <v>3.75</v>
+      </c>
+      <c r="W189">
+        <v>1.32</v>
+      </c>
+      <c r="X189">
+        <v>3.15</v>
+      </c>
+      <c r="Y189">
+        <v>2.45</v>
+      </c>
+      <c r="Z189">
+        <v>1.48</v>
+      </c>
+      <c r="AA189">
+        <v>6</v>
+      </c>
+      <c r="AB189">
+        <v>1.12</v>
+      </c>
+      <c r="AC189">
+        <v>2.08</v>
+      </c>
+      <c r="AD189">
+        <v>3.2</v>
+      </c>
+      <c r="AE189">
+        <v>2.91</v>
+      </c>
+      <c r="AF189">
+        <v>1.04</v>
+      </c>
+      <c r="AG189">
+        <v>15</v>
+      </c>
+      <c r="AH189">
+        <v>1.22</v>
+      </c>
+      <c r="AI189">
+        <v>4.33</v>
+      </c>
+      <c r="AJ189">
+        <v>1.68</v>
+      </c>
+      <c r="AK189">
+        <v>2.12</v>
+      </c>
+      <c r="AL189">
+        <v>1.63</v>
+      </c>
+      <c r="AM189">
+        <v>2.2</v>
+      </c>
+      <c r="AN189">
+        <v>1.32</v>
+      </c>
+      <c r="AO189">
+        <v>1.3</v>
+      </c>
+      <c r="AP189">
+        <v>1.72</v>
+      </c>
+      <c r="AQ189">
+        <v>1.55</v>
+      </c>
+      <c r="AR189">
+        <v>0.58</v>
+      </c>
+      <c r="AS189">
+        <v>1.67</v>
+      </c>
+      <c r="AT189">
+        <v>0.54</v>
+      </c>
+      <c r="AU189">
+        <v>1.41</v>
+      </c>
+      <c r="AV189">
+        <v>1.09</v>
+      </c>
+      <c r="AW189">
+        <v>2.5</v>
+      </c>
+      <c r="AX189">
+        <v>1.62</v>
+      </c>
+      <c r="AY189">
+        <v>8</v>
+      </c>
+      <c r="AZ189">
+        <v>2.63</v>
+      </c>
+      <c r="BA189">
+        <v>1.3</v>
+      </c>
+      <c r="BB189">
+        <v>1.59</v>
+      </c>
+      <c r="BC189">
+        <v>2.03</v>
+      </c>
+      <c r="BD189">
+        <v>2.7</v>
+      </c>
+      <c r="BE189">
+        <v>3.65</v>
+      </c>
+      <c r="BF189">
+        <v>9</v>
+      </c>
+      <c r="BG189">
         <v>5</v>
       </c>
-      <c r="BK187">
+      <c r="BH189">
+        <v>9</v>
+      </c>
+      <c r="BI189">
+        <v>8</v>
+      </c>
+      <c r="BJ189">
         <v>18</v>
+      </c>
+      <c r="BK189">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="190" spans="1:63">
+      <c r="A190" s="1">
+        <v>189</v>
+      </c>
+      <c r="B190">
+        <v>5845629</v>
+      </c>
+      <c r="C190" t="s">
+        <v>63</v>
+      </c>
+      <c r="D190" t="s">
+        <v>64</v>
+      </c>
+      <c r="E190" s="2">
+        <v>45164.35763888889</v>
+      </c>
+      <c r="F190">
+        <v>24</v>
+      </c>
+      <c r="G190" t="s">
+        <v>71</v>
+      </c>
+      <c r="H190" t="s">
+        <v>75</v>
+      </c>
+      <c r="I190">
+        <v>1</v>
+      </c>
+      <c r="J190">
+        <v>1</v>
+      </c>
+      <c r="K190">
+        <v>2</v>
+      </c>
+      <c r="L190">
+        <v>1</v>
+      </c>
+      <c r="M190">
+        <v>1</v>
+      </c>
+      <c r="N190">
+        <v>2</v>
+      </c>
+      <c r="O190" t="s">
+        <v>106</v>
+      </c>
+      <c r="P190" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q190">
+        <v>4</v>
+      </c>
+      <c r="R190">
+        <v>1</v>
+      </c>
+      <c r="S190">
+        <v>5</v>
+      </c>
+      <c r="T190">
+        <v>3.25</v>
+      </c>
+      <c r="U190">
+        <v>2</v>
+      </c>
+      <c r="V190">
+        <v>3.3</v>
+      </c>
+      <c r="W190">
+        <v>1.44</v>
+      </c>
+      <c r="X190">
+        <v>2.6</v>
+      </c>
+      <c r="Y190">
+        <v>2.95</v>
+      </c>
+      <c r="Z190">
+        <v>1.35</v>
+      </c>
+      <c r="AA190">
+        <v>7.9</v>
+      </c>
+      <c r="AB190">
+        <v>1.05</v>
+      </c>
+      <c r="AC190">
+        <v>2.31</v>
+      </c>
+      <c r="AD190">
+        <v>3</v>
+      </c>
+      <c r="AE190">
+        <v>2.66</v>
+      </c>
+      <c r="AF190">
+        <v>1.07</v>
+      </c>
+      <c r="AG190">
+        <v>9.6</v>
+      </c>
+      <c r="AH190">
+        <v>1.38</v>
+      </c>
+      <c r="AI190">
+        <v>3.08</v>
+      </c>
+      <c r="AJ190">
+        <v>2.2</v>
+      </c>
+      <c r="AK190">
+        <v>1.62</v>
+      </c>
+      <c r="AL190">
+        <v>1.85</v>
+      </c>
+      <c r="AM190">
+        <v>1.85</v>
+      </c>
+      <c r="AN190">
+        <v>1.45</v>
+      </c>
+      <c r="AO190">
+        <v>1.35</v>
+      </c>
+      <c r="AP190">
+        <v>1.5</v>
+      </c>
+      <c r="AQ190">
+        <v>1.91</v>
+      </c>
+      <c r="AR190">
+        <v>1.36</v>
+      </c>
+      <c r="AS190">
+        <v>1.83</v>
+      </c>
+      <c r="AT190">
+        <v>1.33</v>
+      </c>
+      <c r="AU190">
+        <v>1.47</v>
+      </c>
+      <c r="AV190">
+        <v>1.45</v>
+      </c>
+      <c r="AW190">
+        <v>2.92</v>
+      </c>
+      <c r="AX190">
+        <v>2.2</v>
+      </c>
+      <c r="AY190">
+        <v>7.5</v>
+      </c>
+      <c r="AZ190">
+        <v>1.91</v>
+      </c>
+      <c r="BA190">
+        <v>1.39</v>
+      </c>
+      <c r="BB190">
+        <v>1.72</v>
+      </c>
+      <c r="BC190">
+        <v>2.19</v>
+      </c>
+      <c r="BD190">
+        <v>2.93</v>
+      </c>
+      <c r="BE190">
+        <v>4.2</v>
+      </c>
+      <c r="BF190">
+        <v>6</v>
+      </c>
+      <c r="BG190">
+        <v>4</v>
+      </c>
+      <c r="BH190">
+        <v>7</v>
+      </c>
+      <c r="BI190">
+        <v>4</v>
+      </c>
+      <c r="BJ190">
+        <v>13</v>
+      </c>
+      <c r="BK190">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="191" spans="1:63">
+      <c r="A191" s="1">
+        <v>190</v>
+      </c>
+      <c r="B191">
+        <v>5845630</v>
+      </c>
+      <c r="C191" t="s">
+        <v>63</v>
+      </c>
+      <c r="D191" t="s">
+        <v>64</v>
+      </c>
+      <c r="E191" s="2">
+        <v>45164.35763888889</v>
+      </c>
+      <c r="F191">
+        <v>24</v>
+      </c>
+      <c r="G191" t="s">
+        <v>78</v>
+      </c>
+      <c r="H191" t="s">
+        <v>77</v>
+      </c>
+      <c r="I191">
+        <v>0</v>
+      </c>
+      <c r="J191">
+        <v>0</v>
+      </c>
+      <c r="K191">
+        <v>0</v>
+      </c>
+      <c r="L191">
+        <v>1</v>
+      </c>
+      <c r="M191">
+        <v>0</v>
+      </c>
+      <c r="N191">
+        <v>1</v>
+      </c>
+      <c r="O191" t="s">
+        <v>209</v>
+      </c>
+      <c r="P191" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q191">
+        <v>3</v>
+      </c>
+      <c r="R191">
+        <v>3</v>
+      </c>
+      <c r="S191">
+        <v>6</v>
+      </c>
+      <c r="T191">
+        <v>2.5</v>
+      </c>
+      <c r="U191">
+        <v>2.2</v>
+      </c>
+      <c r="V191">
+        <v>3.8</v>
+      </c>
+      <c r="W191">
+        <v>1.32</v>
+      </c>
+      <c r="X191">
+        <v>3.22</v>
+      </c>
+      <c r="Y191">
+        <v>2.49</v>
+      </c>
+      <c r="Z191">
+        <v>1.5</v>
+      </c>
+      <c r="AA191">
+        <v>6</v>
+      </c>
+      <c r="AB191">
+        <v>1.11</v>
+      </c>
+      <c r="AC191">
+        <v>2.14</v>
+      </c>
+      <c r="AD191">
+        <v>3.15</v>
+      </c>
+      <c r="AE191">
+        <v>2.81</v>
+      </c>
+      <c r="AF191">
+        <v>1.04</v>
+      </c>
+      <c r="AG191">
+        <v>14.25</v>
+      </c>
+      <c r="AH191">
+        <v>1.24</v>
+      </c>
+      <c r="AI191">
+        <v>4.1</v>
+      </c>
+      <c r="AJ191">
+        <v>1.74</v>
+      </c>
+      <c r="AK191">
+        <v>2</v>
+      </c>
+      <c r="AL191">
+        <v>1.62</v>
+      </c>
+      <c r="AM191">
+        <v>2.15</v>
+      </c>
+      <c r="AN191">
+        <v>1.32</v>
+      </c>
+      <c r="AO191">
+        <v>1.3</v>
+      </c>
+      <c r="AP191">
+        <v>1.78</v>
+      </c>
+      <c r="AQ191">
+        <v>1.55</v>
+      </c>
+      <c r="AR191">
+        <v>1.09</v>
+      </c>
+      <c r="AS191">
+        <v>1.67</v>
+      </c>
+      <c r="AT191">
+        <v>1</v>
+      </c>
+      <c r="AU191">
+        <v>1.55</v>
+      </c>
+      <c r="AV191">
+        <v>1.27</v>
+      </c>
+      <c r="AW191">
+        <v>2.82</v>
+      </c>
+      <c r="AX191">
+        <v>1.67</v>
+      </c>
+      <c r="AY191">
+        <v>8</v>
+      </c>
+      <c r="AZ191">
+        <v>2.6</v>
+      </c>
+      <c r="BA191">
+        <v>1.35</v>
+      </c>
+      <c r="BB191">
+        <v>1.67</v>
+      </c>
+      <c r="BC191">
+        <v>2.15</v>
+      </c>
+      <c r="BD191">
+        <v>2.9</v>
+      </c>
+      <c r="BE191">
+        <v>4</v>
+      </c>
+      <c r="BF191">
+        <v>4</v>
+      </c>
+      <c r="BG191">
+        <v>4</v>
+      </c>
+      <c r="BH191">
+        <v>8</v>
+      </c>
+      <c r="BI191">
+        <v>4</v>
+      </c>
+      <c r="BJ191">
+        <v>12</v>
+      </c>
+      <c r="BK191">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="192" spans="1:63">
+      <c r="A192" s="1">
+        <v>191</v>
+      </c>
+      <c r="B192">
+        <v>5845632</v>
+      </c>
+      <c r="C192" t="s">
+        <v>63</v>
+      </c>
+      <c r="D192" t="s">
+        <v>64</v>
+      </c>
+      <c r="E192" s="2">
+        <v>45164.35763888889</v>
+      </c>
+      <c r="F192">
+        <v>24</v>
+      </c>
+      <c r="G192" t="s">
+        <v>79</v>
+      </c>
+      <c r="H192" t="s">
+        <v>68</v>
+      </c>
+      <c r="I192">
+        <v>0</v>
+      </c>
+      <c r="J192">
+        <v>3</v>
+      </c>
+      <c r="K192">
+        <v>3</v>
+      </c>
+      <c r="L192">
+        <v>1</v>
+      </c>
+      <c r="M192">
+        <v>5</v>
+      </c>
+      <c r="N192">
+        <v>6</v>
+      </c>
+      <c r="O192" t="s">
+        <v>210</v>
+      </c>
+      <c r="P192" t="s">
+        <v>298</v>
+      </c>
+      <c r="Q192">
+        <v>5</v>
+      </c>
+      <c r="R192">
+        <v>2</v>
+      </c>
+      <c r="S192">
+        <v>7</v>
+      </c>
+      <c r="T192">
+        <v>3.75</v>
+      </c>
+      <c r="U192">
+        <v>2.2</v>
+      </c>
+      <c r="V192">
+        <v>2.6</v>
+      </c>
+      <c r="W192">
+        <v>1.35</v>
+      </c>
+      <c r="X192">
+        <v>2.95</v>
+      </c>
+      <c r="Y192">
+        <v>2.6</v>
+      </c>
+      <c r="Z192">
+        <v>1.42</v>
+      </c>
+      <c r="AA192">
+        <v>6.75</v>
+      </c>
+      <c r="AB192">
+        <v>1.1</v>
+      </c>
+      <c r="AC192">
+        <v>3.05</v>
+      </c>
+      <c r="AD192">
+        <v>3.15</v>
+      </c>
+      <c r="AE192">
+        <v>2.02</v>
+      </c>
+      <c r="AF192">
+        <v>1.05</v>
+      </c>
+      <c r="AG192">
+        <v>12.75</v>
+      </c>
+      <c r="AH192">
+        <v>1.26</v>
+      </c>
+      <c r="AI192">
+        <v>3.88</v>
+      </c>
+      <c r="AJ192">
+        <v>1.84</v>
+      </c>
+      <c r="AK192">
+        <v>1.9</v>
+      </c>
+      <c r="AL192">
+        <v>1.68</v>
+      </c>
+      <c r="AM192">
+        <v>2.1</v>
+      </c>
+      <c r="AN192">
+        <v>1.75</v>
+      </c>
+      <c r="AO192">
+        <v>1.32</v>
+      </c>
+      <c r="AP192">
+        <v>1.32</v>
+      </c>
+      <c r="AQ192">
+        <v>1.5</v>
+      </c>
+      <c r="AR192">
+        <v>1.18</v>
+      </c>
+      <c r="AS192">
+        <v>1.38</v>
+      </c>
+      <c r="AT192">
+        <v>1.33</v>
+      </c>
+      <c r="AU192">
+        <v>1.39</v>
+      </c>
+      <c r="AV192">
+        <v>1.37</v>
+      </c>
+      <c r="AW192">
+        <v>2.76</v>
+      </c>
+      <c r="AX192">
+        <v>2.5</v>
+      </c>
+      <c r="AY192">
+        <v>8</v>
+      </c>
+      <c r="AZ192">
+        <v>1.73</v>
+      </c>
+      <c r="BA192">
+        <v>1.35</v>
+      </c>
+      <c r="BB192">
+        <v>1.7</v>
+      </c>
+      <c r="BC192">
+        <v>2.15</v>
+      </c>
+      <c r="BD192">
+        <v>2.95</v>
+      </c>
+      <c r="BE192">
+        <v>4.05</v>
+      </c>
+      <c r="BF192">
+        <v>7</v>
+      </c>
+      <c r="BG192">
+        <v>5</v>
+      </c>
+      <c r="BH192">
+        <v>5</v>
+      </c>
+      <c r="BI192">
+        <v>7</v>
+      </c>
+      <c r="BJ192">
+        <v>12</v>
+      </c>
+      <c r="BK192">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="193" spans="1:63">
+      <c r="A193" s="1">
+        <v>192</v>
+      </c>
+      <c r="B193">
+        <v>5845631</v>
+      </c>
+      <c r="C193" t="s">
+        <v>63</v>
+      </c>
+      <c r="D193" t="s">
+        <v>64</v>
+      </c>
+      <c r="E193" s="2">
+        <v>45165.35763888889</v>
+      </c>
+      <c r="F193">
+        <v>24</v>
+      </c>
+      <c r="G193" t="s">
+        <v>66</v>
+      </c>
+      <c r="H193" t="s">
+        <v>80</v>
+      </c>
+      <c r="I193">
+        <v>3</v>
+      </c>
+      <c r="J193">
+        <v>1</v>
+      </c>
+      <c r="K193">
+        <v>4</v>
+      </c>
+      <c r="L193">
+        <v>4</v>
+      </c>
+      <c r="M193">
+        <v>2</v>
+      </c>
+      <c r="N193">
+        <v>6</v>
+      </c>
+      <c r="O193" t="s">
+        <v>211</v>
+      </c>
+      <c r="P193" t="s">
+        <v>299</v>
+      </c>
+      <c r="Q193">
+        <v>7</v>
+      </c>
+      <c r="R193">
+        <v>7</v>
+      </c>
+      <c r="S193">
+        <v>14</v>
+      </c>
+      <c r="T193">
+        <v>1.95</v>
+      </c>
+      <c r="U193">
+        <v>2.4</v>
+      </c>
+      <c r="V193">
+        <v>6.5</v>
+      </c>
+      <c r="W193">
+        <v>1.33</v>
+      </c>
+      <c r="X193">
+        <v>3.25</v>
+      </c>
+      <c r="Y193">
+        <v>2.5</v>
+      </c>
+      <c r="Z193">
+        <v>1.5</v>
+      </c>
+      <c r="AA193">
+        <v>6.5</v>
+      </c>
+      <c r="AB193">
+        <v>1.11</v>
+      </c>
+      <c r="AC193">
+        <v>1.29</v>
+      </c>
+      <c r="AD193">
+        <v>5</v>
+      </c>
+      <c r="AE193">
+        <v>9.5</v>
+      </c>
+      <c r="AF193">
+        <v>1.03</v>
+      </c>
+      <c r="AG193">
+        <v>12</v>
+      </c>
+      <c r="AH193">
+        <v>1.22</v>
+      </c>
+      <c r="AI193">
+        <v>4</v>
+      </c>
+      <c r="AJ193">
+        <v>1.62</v>
+      </c>
+      <c r="AK193">
+        <v>2.2</v>
+      </c>
+      <c r="AL193">
+        <v>1.95</v>
+      </c>
+      <c r="AM193">
+        <v>1.8</v>
+      </c>
+      <c r="AN193">
+        <v>1.06</v>
+      </c>
+      <c r="AO193">
+        <v>1.15</v>
+      </c>
+      <c r="AP193">
+        <v>2.75</v>
+      </c>
+      <c r="AQ193">
+        <v>1.55</v>
+      </c>
+      <c r="AR193">
+        <v>0.75</v>
+      </c>
+      <c r="AS193">
+        <v>1.67</v>
+      </c>
+      <c r="AT193">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AU193">
+        <v>1.8</v>
+      </c>
+      <c r="AV193">
+        <v>1.14</v>
+      </c>
+      <c r="AW193">
+        <v>2.94</v>
+      </c>
+      <c r="AX193">
+        <v>1.44</v>
+      </c>
+      <c r="AY193">
+        <v>8.5</v>
+      </c>
+      <c r="AZ193">
+        <v>3.25</v>
+      </c>
+      <c r="BA193">
+        <v>1.29</v>
+      </c>
+      <c r="BB193">
+        <v>1.5</v>
+      </c>
+      <c r="BC193">
+        <v>1.87</v>
+      </c>
+      <c r="BD193">
+        <v>2.4</v>
+      </c>
+      <c r="BE193">
+        <v>3.48</v>
+      </c>
+      <c r="BF193">
+        <v>9</v>
+      </c>
+      <c r="BG193">
+        <v>7</v>
+      </c>
+      <c r="BH193">
+        <v>8</v>
+      </c>
+      <c r="BI193">
+        <v>5</v>
+      </c>
+      <c r="BJ193">
+        <v>17</v>
+      </c>
+      <c r="BK193">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/China Chinese Super League_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/China Chinese Super League_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK199"/>
+  <dimension ref="A1:BK201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1715,7 +1715,7 @@
         <v>1.77</v>
       </c>
       <c r="AT6" t="n">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AU6" t="n">
         <v>0</v>
@@ -1915,7 +1915,7 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AT7" t="n">
         <v>1</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AT11" t="n">
         <v>1.58</v>
@@ -3948,7 +3948,7 @@
         <v>1.83</v>
       </c>
       <c r="AT17" t="n">
-        <v>0.25</v>
+        <v>0.23</v>
       </c>
       <c r="AU17" t="n">
         <v>0</v>
@@ -5166,7 +5166,7 @@
         <v>1.25</v>
       </c>
       <c r="AT23" t="n">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AU23" t="n">
         <v>1.2</v>
@@ -5569,7 +5569,7 @@
         <v>0</v>
       </c>
       <c r="AS25" t="n">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AT25" t="n">
         <v>0.67</v>
@@ -6181,7 +6181,7 @@
         <v>1.77</v>
       </c>
       <c r="AT28" t="n">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AU28" t="n">
         <v>1.28</v>
@@ -7602,7 +7602,7 @@
         <v>1.83</v>
       </c>
       <c r="AT35" t="n">
-        <v>0.25</v>
+        <v>0.23</v>
       </c>
       <c r="AU35" t="n">
         <v>0.96</v>
@@ -8614,7 +8614,7 @@
         <v>3</v>
       </c>
       <c r="AS40" t="n">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AT40" t="n">
         <v>2.42</v>
@@ -8817,7 +8817,7 @@
         <v>1.5</v>
       </c>
       <c r="AS41" t="n">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AT41" t="n">
         <v>0.92</v>
@@ -9832,7 +9832,7 @@
         <v>0.33</v>
       </c>
       <c r="AS46" t="n">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AT46" t="n">
         <v>1.58</v>
@@ -10850,7 +10850,7 @@
         <v>0.83</v>
       </c>
       <c r="AT51" t="n">
-        <v>0.25</v>
+        <v>0.23</v>
       </c>
       <c r="AU51" t="n">
         <v>1.09</v>
@@ -11659,7 +11659,7 @@
         <v>0.5</v>
       </c>
       <c r="AS55" t="n">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AT55" t="n">
         <v>0.67</v>
@@ -12271,7 +12271,7 @@
         <v>1.77</v>
       </c>
       <c r="AT58" t="n">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AU58" t="n">
         <v>1.74</v>
@@ -12471,7 +12471,7 @@
         <v>0</v>
       </c>
       <c r="AS59" t="n">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AT59" t="n">
         <v>0.15</v>
@@ -13286,7 +13286,7 @@
         <v>1.77</v>
       </c>
       <c r="AT63" t="n">
-        <v>0.25</v>
+        <v>0.23</v>
       </c>
       <c r="AU63" t="n">
         <v>1.07</v>
@@ -13486,7 +13486,7 @@
         <v>0.6</v>
       </c>
       <c r="AS64" t="n">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AT64" t="n">
         <v>1.25</v>
@@ -14501,7 +14501,7 @@
         <v>2</v>
       </c>
       <c r="AS69" t="n">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AT69" t="n">
         <v>1.58</v>
@@ -17549,7 +17549,7 @@
         <v>2.08</v>
       </c>
       <c r="AT84" t="n">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AU84" t="n">
         <v>1.93</v>
@@ -17752,7 +17752,7 @@
         <v>2.46</v>
       </c>
       <c r="AT85" t="n">
-        <v>0.25</v>
+        <v>0.23</v>
       </c>
       <c r="AU85" t="n">
         <v>2.24</v>
@@ -18358,7 +18358,7 @@
         <v>0.2</v>
       </c>
       <c r="AS88" t="n">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AT88" t="n">
         <v>0.23</v>
@@ -18561,7 +18561,7 @@
         <v>1.83</v>
       </c>
       <c r="AS89" t="n">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AT89" t="n">
         <v>1.58</v>
@@ -20391,7 +20391,7 @@
         <v>1.77</v>
       </c>
       <c r="AT98" t="n">
-        <v>0.25</v>
+        <v>0.23</v>
       </c>
       <c r="AU98" t="n">
         <v>1.68</v>
@@ -20794,7 +20794,7 @@
         <v>0.17</v>
       </c>
       <c r="AS100" t="n">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AT100" t="n">
         <v>0.23</v>
@@ -21406,7 +21406,7 @@
         <v>0.83</v>
       </c>
       <c r="AT103" t="n">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AU103" t="n">
         <v>1.27</v>
@@ -22621,7 +22621,7 @@
         <v>0.71</v>
       </c>
       <c r="AS109" t="n">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AT109" t="n">
         <v>0.54</v>
@@ -23636,7 +23636,7 @@
         <v>0.29</v>
       </c>
       <c r="AS114" t="n">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AT114" t="n">
         <v>0.6899999999999999</v>
@@ -24045,7 +24045,7 @@
         <v>1.83</v>
       </c>
       <c r="AT116" t="n">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AU116" t="n">
         <v>1.22</v>
@@ -24857,7 +24857,7 @@
         <v>2.08</v>
       </c>
       <c r="AT120" t="n">
-        <v>0.25</v>
+        <v>0.23</v>
       </c>
       <c r="AU120" t="n">
         <v>1.78</v>
@@ -26681,10 +26681,10 @@
         <v>0.29</v>
       </c>
       <c r="AS129" t="n">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AT129" t="n">
-        <v>0.25</v>
+        <v>0.23</v>
       </c>
       <c r="AU129" t="n">
         <v>2</v>
@@ -27290,7 +27290,7 @@
         <v>1.22</v>
       </c>
       <c r="AS132" t="n">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AT132" t="n">
         <v>1.25</v>
@@ -27902,7 +27902,7 @@
         <v>1.38</v>
       </c>
       <c r="AT135" t="n">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AU135" t="n">
         <v>1.43</v>
@@ -28914,7 +28914,7 @@
         <v>0.14</v>
       </c>
       <c r="AS140" t="n">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AT140" t="n">
         <v>0.15</v>
@@ -29120,7 +29120,7 @@
         <v>1.75</v>
       </c>
       <c r="AT141" t="n">
-        <v>0.25</v>
+        <v>0.23</v>
       </c>
       <c r="AU141" t="n">
         <v>1.81</v>
@@ -30744,7 +30744,7 @@
         <v>1.83</v>
       </c>
       <c r="AT149" t="n">
-        <v>0.25</v>
+        <v>0.23</v>
       </c>
       <c r="AU149" t="n">
         <v>1.16</v>
@@ -30944,7 +30944,7 @@
         <v>1.22</v>
       </c>
       <c r="AS150" t="n">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AT150" t="n">
         <v>0.92</v>
@@ -31147,7 +31147,7 @@
         <v>1.13</v>
       </c>
       <c r="AS151" t="n">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AT151" t="n">
         <v>1</v>
@@ -32774,7 +32774,7 @@
         <v>1.67</v>
       </c>
       <c r="AT159" t="n">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AU159" t="n">
         <v>1.56</v>
@@ -33992,7 +33992,7 @@
         <v>2.46</v>
       </c>
       <c r="AT165" t="n">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AU165" t="n">
         <v>1.71</v>
@@ -34395,7 +34395,7 @@
         <v>1</v>
       </c>
       <c r="AS167" t="n">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AT167" t="n">
         <v>1.33</v>
@@ -34804,7 +34804,7 @@
         <v>1.38</v>
       </c>
       <c r="AT169" t="n">
-        <v>0.25</v>
+        <v>0.23</v>
       </c>
       <c r="AU169" t="n">
         <v>1.38</v>
@@ -35210,7 +35210,7 @@
         <v>1.83</v>
       </c>
       <c r="AT171" t="n">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AU171" t="n">
         <v>1.48</v>
@@ -36425,7 +36425,7 @@
         <v>1</v>
       </c>
       <c r="AS177" t="n">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AT177" t="n">
         <v>1.33</v>
@@ -38661,7 +38661,7 @@
         <v>1.77</v>
       </c>
       <c r="AT188" t="n">
-        <v>0.25</v>
+        <v>0.23</v>
       </c>
       <c r="AU188" t="n">
         <v>1.36</v>
@@ -38861,7 +38861,7 @@
         <v>0.58</v>
       </c>
       <c r="AS189" t="n">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AT189" t="n">
         <v>0.54</v>
@@ -39067,7 +39067,7 @@
         <v>1.83</v>
       </c>
       <c r="AT190" t="n">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AU190" t="n">
         <v>1.47</v>
@@ -40798,7 +40798,7 @@
       </c>
       <c r="O199" t="inlineStr">
         <is>
-          <t>['14', '23', '72', '76', '89']</t>
+          <t>['14', '23', '72', '76', '87']</t>
         </is>
       </c>
       <c r="P199" t="inlineStr">
@@ -40946,6 +40946,412 @@
       </c>
       <c r="BK199" t="n">
         <v>2</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B200" t="n">
+        <v>5845640</v>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>China Chinese Super League</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E200" s="2" t="n">
+        <v>45186.1875</v>
+      </c>
+      <c r="F200" t="n">
+        <v>25</v>
+      </c>
+      <c r="G200" t="inlineStr">
+        <is>
+          <t>Nantong Zhiyun</t>
+        </is>
+      </c>
+      <c r="H200" t="inlineStr">
+        <is>
+          <t>Chengdu Better City FC</t>
+        </is>
+      </c>
+      <c r="I200" t="n">
+        <v>0</v>
+      </c>
+      <c r="J200" t="n">
+        <v>1</v>
+      </c>
+      <c r="K200" t="n">
+        <v>1</v>
+      </c>
+      <c r="L200" t="n">
+        <v>0</v>
+      </c>
+      <c r="M200" t="n">
+        <v>2</v>
+      </c>
+      <c r="N200" t="n">
+        <v>2</v>
+      </c>
+      <c r="O200" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P200" t="inlineStr">
+        <is>
+          <t>['39', '90+6']</t>
+        </is>
+      </c>
+      <c r="Q200" t="n">
+        <v>8</v>
+      </c>
+      <c r="R200" t="n">
+        <v>7</v>
+      </c>
+      <c r="S200" t="n">
+        <v>15</v>
+      </c>
+      <c r="T200" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="U200" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V200" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="W200" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X200" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y200" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z200" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA200" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB200" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC200" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AD200" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE200" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AF200" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG200" t="n">
+        <v>9.550000000000001</v>
+      </c>
+      <c r="AH200" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AI200" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AJ200" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AK200" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AL200" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM200" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AN200" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AO200" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AP200" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AQ200" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="AR200" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AS200" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AT200" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AU200" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AV200" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AW200" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="AX200" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AY200" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ200" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BA200" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BB200" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BC200" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BD200" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BE200" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="BF200" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG200" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH200" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI200" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ200" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK200" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B201" t="n">
+        <v>5845639</v>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>China Chinese Super League</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E201" s="2" t="n">
+        <v>45186.27083333334</v>
+      </c>
+      <c r="F201" t="n">
+        <v>25</v>
+      </c>
+      <c r="G201" t="inlineStr">
+        <is>
+          <t>Tianjin Teda</t>
+        </is>
+      </c>
+      <c r="H201" t="inlineStr">
+        <is>
+          <t>Dalian Yifang</t>
+        </is>
+      </c>
+      <c r="I201" t="n">
+        <v>1</v>
+      </c>
+      <c r="J201" t="n">
+        <v>0</v>
+      </c>
+      <c r="K201" t="n">
+        <v>1</v>
+      </c>
+      <c r="L201" t="n">
+        <v>1</v>
+      </c>
+      <c r="M201" t="n">
+        <v>0</v>
+      </c>
+      <c r="N201" t="n">
+        <v>1</v>
+      </c>
+      <c r="O201" t="inlineStr">
+        <is>
+          <t>['5']</t>
+        </is>
+      </c>
+      <c r="P201" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q201" t="n">
+        <v>2</v>
+      </c>
+      <c r="R201" t="n">
+        <v>3</v>
+      </c>
+      <c r="S201" t="n">
+        <v>5</v>
+      </c>
+      <c r="T201" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U201" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V201" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="W201" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="X201" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="Y201" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z201" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA201" t="n">
+        <v>6.95</v>
+      </c>
+      <c r="AB201" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC201" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AD201" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AE201" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AF201" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG201" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AH201" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AI201" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AJ201" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AK201" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AL201" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AM201" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AN201" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AO201" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AP201" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AQ201" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AR201" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AS201" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AT201" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="AU201" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AV201" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AW201" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="AX201" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AY201" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ201" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="BA201" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BB201" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BC201" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD201" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BE201" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="BF201" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG201" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH201" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI201" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ201" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK201" t="n">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/China Chinese Super League_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/China Chinese Super League_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK201"/>
+  <dimension ref="A1:BK207"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AT2" t="n">
         <v>0.6899999999999999</v>
@@ -1103,10 +1103,10 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AT3" t="n">
-        <v>2.42</v>
+        <v>2.23</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -1918,7 +1918,7 @@
         <v>1.77</v>
       </c>
       <c r="AT7" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU7" t="n">
         <v>0</v>
@@ -2118,10 +2118,10 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AT8" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -2524,10 +2524,10 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AT10" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AU10" t="n">
         <v>1.22</v>
@@ -2930,7 +2930,7 @@
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="AT12" t="n">
         <v>1.54</v>
@@ -3539,10 +3539,10 @@
         <v>1</v>
       </c>
       <c r="AS15" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AT15" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU15" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="AS17" t="n">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="AT17" t="n">
         <v>0.23</v>
@@ -4351,7 +4351,7 @@
         <v>0</v>
       </c>
       <c r="AS19" t="n">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="AT19" t="n">
         <v>1.58</v>
@@ -4557,7 +4557,7 @@
         <v>1.67</v>
       </c>
       <c r="AT20" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AU20" t="n">
         <v>0</v>
@@ -4760,7 +4760,7 @@
         <v>1.38</v>
       </c>
       <c r="AT21" t="n">
-        <v>2.42</v>
+        <v>2.23</v>
       </c>
       <c r="AU21" t="n">
         <v>0</v>
@@ -4960,7 +4960,7 @@
         <v>3</v>
       </c>
       <c r="AS22" t="n">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AT22" t="n">
         <v>0.92</v>
@@ -5163,7 +5163,7 @@
         <v>1</v>
       </c>
       <c r="AS23" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AT23" t="n">
         <v>1.46</v>
@@ -5369,7 +5369,7 @@
         <v>0.83</v>
       </c>
       <c r="AT24" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AU24" t="n">
         <v>0.62</v>
@@ -5572,7 +5572,7 @@
         <v>0.83</v>
       </c>
       <c r="AT25" t="n">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU25" t="n">
         <v>0</v>
@@ -5775,7 +5775,7 @@
         <v>1.92</v>
       </c>
       <c r="AT26" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AU26" t="n">
         <v>1.83</v>
@@ -6381,10 +6381,10 @@
         <v>3</v>
       </c>
       <c r="AS29" t="n">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="AT29" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AU29" t="n">
         <v>1.36</v>
@@ -6587,7 +6587,7 @@
         <v>0.83</v>
       </c>
       <c r="AT30" t="n">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU30" t="n">
         <v>0.9399999999999999</v>
@@ -7193,7 +7193,7 @@
         <v>1</v>
       </c>
       <c r="AS33" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AT33" t="n">
         <v>0.54</v>
@@ -7399,7 +7399,7 @@
         <v>1.77</v>
       </c>
       <c r="AT34" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AU34" t="n">
         <v>0.89</v>
@@ -7599,7 +7599,7 @@
         <v>0</v>
       </c>
       <c r="AS35" t="n">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AT35" t="n">
         <v>0.23</v>
@@ -7805,7 +7805,7 @@
         <v>0.83</v>
       </c>
       <c r="AT36" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU36" t="n">
         <v>1.06</v>
@@ -8005,7 +8005,7 @@
         <v>0</v>
       </c>
       <c r="AS37" t="n">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AT37" t="n">
         <v>1.58</v>
@@ -8208,10 +8208,10 @@
         <v>0.5</v>
       </c>
       <c r="AS38" t="n">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="AT38" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AU38" t="n">
         <v>1.32</v>
@@ -8411,7 +8411,7 @@
         <v>0.5</v>
       </c>
       <c r="AS39" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AT39" t="n">
         <v>0.23</v>
@@ -8617,7 +8617,7 @@
         <v>1.77</v>
       </c>
       <c r="AT40" t="n">
-        <v>2.42</v>
+        <v>2.23</v>
       </c>
       <c r="AU40" t="n">
         <v>1.52</v>
@@ -9223,10 +9223,10 @@
         <v>1.33</v>
       </c>
       <c r="AS43" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AT43" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU43" t="n">
         <v>1.14</v>
@@ -9632,7 +9632,7 @@
         <v>1.92</v>
       </c>
       <c r="AT45" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AU45" t="n">
         <v>1.29</v>
@@ -10238,10 +10238,10 @@
         <v>0.33</v>
       </c>
       <c r="AS48" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AT48" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AU48" t="n">
         <v>1.82</v>
@@ -10441,7 +10441,7 @@
         <v>1</v>
       </c>
       <c r="AS49" t="n">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="AT49" t="n">
         <v>0.54</v>
@@ -10644,7 +10644,7 @@
         <v>2.33</v>
       </c>
       <c r="AS50" t="n">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AT50" t="n">
         <v>1.58</v>
@@ -11253,7 +11253,7 @@
         <v>2</v>
       </c>
       <c r="AS53" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AT53" t="n">
         <v>0.92</v>
@@ -11459,7 +11459,7 @@
         <v>1.77</v>
       </c>
       <c r="AT54" t="n">
-        <v>2.42</v>
+        <v>2.23</v>
       </c>
       <c r="AU54" t="n">
         <v>1.05</v>
@@ -11662,7 +11662,7 @@
         <v>1.77</v>
       </c>
       <c r="AT55" t="n">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU55" t="n">
         <v>1.45</v>
@@ -11865,7 +11865,7 @@
         <v>1.38</v>
       </c>
       <c r="AT56" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AU56" t="n">
         <v>1.11</v>
@@ -12268,7 +12268,7 @@
         <v>1.67</v>
       </c>
       <c r="AS58" t="n">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AT58" t="n">
         <v>1.46</v>
@@ -13080,10 +13080,10 @@
         <v>1.33</v>
       </c>
       <c r="AS62" t="n">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AT62" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AU62" t="n">
         <v>1.38</v>
@@ -13489,7 +13489,7 @@
         <v>1.77</v>
       </c>
       <c r="AT64" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AU64" t="n">
         <v>1.39</v>
@@ -13689,10 +13689,10 @@
         <v>2.5</v>
       </c>
       <c r="AS65" t="n">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="AT65" t="n">
-        <v>2.42</v>
+        <v>2.23</v>
       </c>
       <c r="AU65" t="n">
         <v>1.25</v>
@@ -13892,7 +13892,7 @@
         <v>2.33</v>
       </c>
       <c r="AS66" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AT66" t="n">
         <v>1.54</v>
@@ -14098,7 +14098,7 @@
         <v>1.92</v>
       </c>
       <c r="AT67" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU67" t="n">
         <v>1.56</v>
@@ -14298,7 +14298,7 @@
         <v>0.25</v>
       </c>
       <c r="AS68" t="n">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="AT68" t="n">
         <v>0.23</v>
@@ -14910,7 +14910,7 @@
         <v>2.08</v>
       </c>
       <c r="AT71" t="n">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU71" t="n">
         <v>1.88</v>
@@ -15110,10 +15110,10 @@
         <v>1.67</v>
       </c>
       <c r="AS72" t="n">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="AT72" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AU72" t="n">
         <v>1.13</v>
@@ -15313,7 +15313,7 @@
         <v>1</v>
       </c>
       <c r="AS73" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AT73" t="n">
         <v>1.58</v>
@@ -15516,7 +15516,7 @@
         <v>0.5</v>
       </c>
       <c r="AS74" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AT74" t="n">
         <v>0.6899999999999999</v>
@@ -15925,7 +15925,7 @@
         <v>1.77</v>
       </c>
       <c r="AT76" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AU76" t="n">
         <v>1.15</v>
@@ -16128,7 +16128,7 @@
         <v>1.67</v>
       </c>
       <c r="AT77" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AU77" t="n">
         <v>1.45</v>
@@ -16328,10 +16328,10 @@
         <v>0.25</v>
       </c>
       <c r="AS78" t="n">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AT78" t="n">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU78" t="n">
         <v>1.38</v>
@@ -16531,10 +16531,10 @@
         <v>1.5</v>
       </c>
       <c r="AS79" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AT79" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AU79" t="n">
         <v>1.38</v>
@@ -16937,10 +16937,10 @@
         <v>2.6</v>
       </c>
       <c r="AS81" t="n">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="AT81" t="n">
-        <v>2.42</v>
+        <v>2.23</v>
       </c>
       <c r="AU81" t="n">
         <v>1.53</v>
@@ -18967,7 +18967,7 @@
         <v>0.25</v>
       </c>
       <c r="AS91" t="n">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="AT91" t="n">
         <v>0.15</v>
@@ -19170,10 +19170,10 @@
         <v>1.8</v>
       </c>
       <c r="AS92" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AT92" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AU92" t="n">
         <v>1.73</v>
@@ -19779,10 +19779,10 @@
         <v>1</v>
       </c>
       <c r="AS95" t="n">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AT95" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AU95" t="n">
         <v>1.76</v>
@@ -19982,10 +19982,10 @@
         <v>1</v>
       </c>
       <c r="AS96" t="n">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="AT96" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU96" t="n">
         <v>1.2</v>
@@ -20185,10 +20185,10 @@
         <v>1</v>
       </c>
       <c r="AS97" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AT97" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AU97" t="n">
         <v>1.38</v>
@@ -20388,7 +20388,7 @@
         <v>0</v>
       </c>
       <c r="AS98" t="n">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AT98" t="n">
         <v>0.23</v>
@@ -20997,7 +20997,7 @@
         <v>0.33</v>
       </c>
       <c r="AS101" t="n">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AT101" t="n">
         <v>0.6899999999999999</v>
@@ -21203,7 +21203,7 @@
         <v>1.38</v>
       </c>
       <c r="AT102" t="n">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU102" t="n">
         <v>1.35</v>
@@ -21812,7 +21812,7 @@
         <v>1.92</v>
       </c>
       <c r="AT105" t="n">
-        <v>2.42</v>
+        <v>2.23</v>
       </c>
       <c r="AU105" t="n">
         <v>1.81</v>
@@ -22012,10 +22012,10 @@
         <v>1.67</v>
       </c>
       <c r="AS106" t="n">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AT106" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AU106" t="n">
         <v>1.52</v>
@@ -22215,7 +22215,7 @@
         <v>0.14</v>
       </c>
       <c r="AS107" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AT107" t="n">
         <v>0.23</v>
@@ -23030,7 +23030,7 @@
         <v>2.46</v>
       </c>
       <c r="AT111" t="n">
-        <v>2.42</v>
+        <v>2.23</v>
       </c>
       <c r="AU111" t="n">
         <v>1.93</v>
@@ -23230,10 +23230,10 @@
         <v>1</v>
       </c>
       <c r="AS112" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AT112" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AU112" t="n">
         <v>1.75</v>
@@ -23433,10 +23433,10 @@
         <v>0.83</v>
       </c>
       <c r="AS113" t="n">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="AT113" t="n">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU113" t="n">
         <v>1.68</v>
@@ -23842,7 +23842,7 @@
         <v>1.77</v>
       </c>
       <c r="AT115" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AU115" t="n">
         <v>1.14</v>
@@ -24042,7 +24042,7 @@
         <v>2</v>
       </c>
       <c r="AS116" t="n">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="AT116" t="n">
         <v>1.46</v>
@@ -24248,7 +24248,7 @@
         <v>1.67</v>
       </c>
       <c r="AT117" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU117" t="n">
         <v>1.51</v>
@@ -24651,7 +24651,7 @@
         <v>1.43</v>
       </c>
       <c r="AS119" t="n">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AT119" t="n">
         <v>0.92</v>
@@ -25463,10 +25463,10 @@
         <v>0.71</v>
       </c>
       <c r="AS123" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AT123" t="n">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU123" t="n">
         <v>1.85</v>
@@ -25669,7 +25669,7 @@
         <v>1.38</v>
       </c>
       <c r="AT124" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AU124" t="n">
         <v>1.44</v>
@@ -26275,10 +26275,10 @@
         <v>1.29</v>
       </c>
       <c r="AS127" t="n">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="AT127" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AU127" t="n">
         <v>1.22</v>
@@ -26478,7 +26478,7 @@
         <v>1.13</v>
       </c>
       <c r="AS128" t="n">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="AT128" t="n">
         <v>1.58</v>
@@ -26887,7 +26887,7 @@
         <v>0.83</v>
       </c>
       <c r="AT130" t="n">
-        <v>2.42</v>
+        <v>2.23</v>
       </c>
       <c r="AU130" t="n">
         <v>1.18</v>
@@ -27087,7 +27087,7 @@
         <v>1.25</v>
       </c>
       <c r="AS131" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AT131" t="n">
         <v>0.92</v>
@@ -27293,7 +27293,7 @@
         <v>0.83</v>
       </c>
       <c r="AT132" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AU132" t="n">
         <v>1.89</v>
@@ -27496,7 +27496,7 @@
         <v>1.77</v>
       </c>
       <c r="AT133" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AU133" t="n">
         <v>1.37</v>
@@ -28102,7 +28102,7 @@
         <v>0.75</v>
       </c>
       <c r="AS136" t="n">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AT136" t="n">
         <v>0.54</v>
@@ -28308,7 +28308,7 @@
         <v>1.67</v>
       </c>
       <c r="AT137" t="n">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU137" t="n">
         <v>1.53</v>
@@ -28511,7 +28511,7 @@
         <v>2.08</v>
       </c>
       <c r="AT138" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU138" t="n">
         <v>1.7</v>
@@ -29117,7 +29117,7 @@
         <v>0.38</v>
       </c>
       <c r="AS141" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AT141" t="n">
         <v>0.23</v>
@@ -29320,7 +29320,7 @@
         <v>2</v>
       </c>
       <c r="AS142" t="n">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="AT142" t="n">
         <v>1.54</v>
@@ -29526,7 +29526,7 @@
         <v>1.77</v>
       </c>
       <c r="AT143" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AU143" t="n">
         <v>1.38</v>
@@ -29929,7 +29929,7 @@
         <v>0.67</v>
       </c>
       <c r="AS145" t="n">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AT145" t="n">
         <v>0.54</v>
@@ -30335,7 +30335,7 @@
         <v>1.11</v>
       </c>
       <c r="AS147" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AT147" t="n">
         <v>1.58</v>
@@ -30538,10 +30538,10 @@
         <v>2.56</v>
       </c>
       <c r="AS148" t="n">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AT148" t="n">
-        <v>2.42</v>
+        <v>2.23</v>
       </c>
       <c r="AU148" t="n">
         <v>1.51</v>
@@ -30741,7 +30741,7 @@
         <v>0.33</v>
       </c>
       <c r="AS149" t="n">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="AT149" t="n">
         <v>0.23</v>
@@ -31150,7 +31150,7 @@
         <v>0.83</v>
       </c>
       <c r="AT151" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU151" t="n">
         <v>1.79</v>
@@ -31353,7 +31353,7 @@
         <v>2.46</v>
       </c>
       <c r="AT152" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AU152" t="n">
         <v>1.71</v>
@@ -31553,7 +31553,7 @@
         <v>0.22</v>
       </c>
       <c r="AS153" t="n">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AT153" t="n">
         <v>0.23</v>
@@ -31759,7 +31759,7 @@
         <v>2.08</v>
       </c>
       <c r="AT154" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AU154" t="n">
         <v>1.75</v>
@@ -32368,7 +32368,7 @@
         <v>1.92</v>
       </c>
       <c r="AT157" t="n">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU157" t="n">
         <v>1.62</v>
@@ -32568,7 +32568,7 @@
         <v>0.44</v>
       </c>
       <c r="AS158" t="n">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="AT158" t="n">
         <v>0.6899999999999999</v>
@@ -32974,7 +32974,7 @@
         <v>1.89</v>
       </c>
       <c r="AS160" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AT160" t="n">
         <v>1.54</v>
@@ -33380,7 +33380,7 @@
         <v>1.2</v>
       </c>
       <c r="AS162" t="n">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="AT162" t="n">
         <v>0.92</v>
@@ -33586,7 +33586,7 @@
         <v>1.67</v>
       </c>
       <c r="AT163" t="n">
-        <v>2.42</v>
+        <v>2.23</v>
       </c>
       <c r="AU163" t="n">
         <v>1.55</v>
@@ -34192,10 +34192,10 @@
         <v>0.5</v>
       </c>
       <c r="AS166" t="n">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AT166" t="n">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU166" t="n">
         <v>1.87</v>
@@ -34398,7 +34398,7 @@
         <v>1.77</v>
       </c>
       <c r="AT167" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AU167" t="n">
         <v>1.4</v>
@@ -34598,7 +34598,7 @@
         <v>0.2</v>
       </c>
       <c r="AS168" t="n">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AT168" t="n">
         <v>0.15</v>
@@ -35004,7 +35004,7 @@
         <v>0.2</v>
       </c>
       <c r="AS170" t="n">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="AT170" t="n">
         <v>0.23</v>
@@ -35207,7 +35207,7 @@
         <v>1.5</v>
       </c>
       <c r="AS171" t="n">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="AT171" t="n">
         <v>1.46</v>
@@ -35613,7 +35613,7 @@
         <v>1.7</v>
       </c>
       <c r="AS173" t="n">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AT173" t="n">
         <v>1.54</v>
@@ -35819,7 +35819,7 @@
         <v>2.46</v>
       </c>
       <c r="AT174" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU174" t="n">
         <v>1.72</v>
@@ -36022,7 +36022,7 @@
         <v>1.77</v>
       </c>
       <c r="AT175" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AU175" t="n">
         <v>1.19</v>
@@ -36222,7 +36222,7 @@
         <v>0.18</v>
       </c>
       <c r="AS176" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AT176" t="n">
         <v>0.15</v>
@@ -36428,7 +36428,7 @@
         <v>0.83</v>
       </c>
       <c r="AT177" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AU177" t="n">
         <v>1.79</v>
@@ -37037,7 +37037,7 @@
         <v>2.46</v>
       </c>
       <c r="AT180" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AU180" t="n">
         <v>1.74</v>
@@ -37643,7 +37643,7 @@
         <v>1.45</v>
       </c>
       <c r="AS183" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AT183" t="n">
         <v>1.58</v>
@@ -37846,10 +37846,10 @@
         <v>0.45</v>
       </c>
       <c r="AS184" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AT184" t="n">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU184" t="n">
         <v>1.21</v>
@@ -38049,10 +38049,10 @@
         <v>1.2</v>
       </c>
       <c r="AS185" t="n">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="AT185" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU185" t="n">
         <v>1.38</v>
@@ -38255,7 +38255,7 @@
         <v>1.77</v>
       </c>
       <c r="AT186" t="n">
-        <v>2.42</v>
+        <v>2.23</v>
       </c>
       <c r="AU186" t="n">
         <v>1.18</v>
@@ -38458,7 +38458,7 @@
         <v>0.83</v>
       </c>
       <c r="AT187" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AU187" t="n">
         <v>1.13</v>
@@ -39064,7 +39064,7 @@
         <v>1.36</v>
       </c>
       <c r="AS190" t="n">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AT190" t="n">
         <v>1.46</v>
@@ -39473,7 +39473,7 @@
         <v>1.38</v>
       </c>
       <c r="AT192" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AU192" t="n">
         <v>1.39</v>
@@ -39673,7 +39673,7 @@
         <v>0.75</v>
       </c>
       <c r="AS193" t="n">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AT193" t="n">
         <v>0.6899999999999999</v>
@@ -40485,10 +40485,10 @@
         <v>1.09</v>
       </c>
       <c r="AS197" t="n">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AT197" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU197" t="n">
         <v>1.81</v>
@@ -40891,7 +40891,7 @@
         <v>0.17</v>
       </c>
       <c r="AS199" t="n">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="AT199" t="n">
         <v>0.15</v>
@@ -41352,6 +41352,1224 @@
       </c>
       <c r="BK201" t="n">
         <v>12</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B202" t="n">
+        <v>5845641</v>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>China Chinese Super League</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E202" s="2" t="n">
+        <v>45191.35763888889</v>
+      </c>
+      <c r="F202" t="n">
+        <v>26</v>
+      </c>
+      <c r="G202" t="inlineStr">
+        <is>
+          <t>Shanghai Shenhua</t>
+        </is>
+      </c>
+      <c r="H202" t="inlineStr">
+        <is>
+          <t>Shijiazhuang Ever Bright</t>
+        </is>
+      </c>
+      <c r="I202" t="n">
+        <v>1</v>
+      </c>
+      <c r="J202" t="n">
+        <v>0</v>
+      </c>
+      <c r="K202" t="n">
+        <v>1</v>
+      </c>
+      <c r="L202" t="n">
+        <v>2</v>
+      </c>
+      <c r="M202" t="n">
+        <v>0</v>
+      </c>
+      <c r="N202" t="n">
+        <v>2</v>
+      </c>
+      <c r="O202" t="inlineStr">
+        <is>
+          <t>['26', '52']</t>
+        </is>
+      </c>
+      <c r="P202" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q202" t="n">
+        <v>1</v>
+      </c>
+      <c r="R202" t="n">
+        <v>4</v>
+      </c>
+      <c r="S202" t="n">
+        <v>5</v>
+      </c>
+      <c r="T202" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="U202" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="V202" t="n">
+        <v>6.02</v>
+      </c>
+      <c r="W202" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X202" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="Y202" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="Z202" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AA202" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB202" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC202" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AD202" t="n">
+        <v>4</v>
+      </c>
+      <c r="AE202" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AF202" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG202" t="n">
+        <v>13.25</v>
+      </c>
+      <c r="AH202" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AI202" t="n">
+        <v>3.87</v>
+      </c>
+      <c r="AJ202" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AK202" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AL202" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AM202" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AN202" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AO202" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AP202" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AQ202" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AR202" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS202" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AT202" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AU202" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AV202" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AW202" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="AX202" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AY202" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ202" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BA202" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BB202" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="BC202" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="BD202" t="n">
+        <v>3</v>
+      </c>
+      <c r="BE202" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="BF202" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG202" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH202" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI202" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ202" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK202" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B203" t="n">
+        <v>5845642</v>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>China Chinese Super League</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E203" s="2" t="n">
+        <v>45191.35763888889</v>
+      </c>
+      <c r="F203" t="n">
+        <v>26</v>
+      </c>
+      <c r="G203" t="inlineStr">
+        <is>
+          <t>Changchun Yatai</t>
+        </is>
+      </c>
+      <c r="H203" t="inlineStr">
+        <is>
+          <t>Beijing Guoan</t>
+        </is>
+      </c>
+      <c r="I203" t="n">
+        <v>1</v>
+      </c>
+      <c r="J203" t="n">
+        <v>1</v>
+      </c>
+      <c r="K203" t="n">
+        <v>2</v>
+      </c>
+      <c r="L203" t="n">
+        <v>1</v>
+      </c>
+      <c r="M203" t="n">
+        <v>1</v>
+      </c>
+      <c r="N203" t="n">
+        <v>2</v>
+      </c>
+      <c r="O203" t="inlineStr">
+        <is>
+          <t>['34']</t>
+        </is>
+      </c>
+      <c r="P203" t="inlineStr">
+        <is>
+          <t>['13']</t>
+        </is>
+      </c>
+      <c r="Q203" t="n">
+        <v>4</v>
+      </c>
+      <c r="R203" t="n">
+        <v>9</v>
+      </c>
+      <c r="S203" t="n">
+        <v>13</v>
+      </c>
+      <c r="T203" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U203" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V203" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="W203" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X203" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y203" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Z203" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA203" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB203" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC203" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="AD203" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE203" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="AF203" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG203" t="n">
+        <v>15.75</v>
+      </c>
+      <c r="AH203" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AI203" t="n">
+        <v>4.52</v>
+      </c>
+      <c r="AJ203" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AK203" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AL203" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AM203" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AN203" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AO203" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AP203" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AQ203" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AR203" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AS203" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AT203" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AU203" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AV203" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AW203" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="AX203" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AY203" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ203" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BA203" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BB203" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BC203" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="BD203" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="BE203" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="BF203" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG203" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH203" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI203" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ203" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK203" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B204" t="n">
+        <v>5845643</v>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>China Chinese Super League</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E204" s="2" t="n">
+        <v>45192.27083333334</v>
+      </c>
+      <c r="F204" t="n">
+        <v>26</v>
+      </c>
+      <c r="G204" t="inlineStr">
+        <is>
+          <t>Dalian Yifang</t>
+        </is>
+      </c>
+      <c r="H204" t="inlineStr">
+        <is>
+          <t>Shandong Luneng</t>
+        </is>
+      </c>
+      <c r="I204" t="n">
+        <v>0</v>
+      </c>
+      <c r="J204" t="n">
+        <v>0</v>
+      </c>
+      <c r="K204" t="n">
+        <v>0</v>
+      </c>
+      <c r="L204" t="n">
+        <v>0</v>
+      </c>
+      <c r="M204" t="n">
+        <v>0</v>
+      </c>
+      <c r="N204" t="n">
+        <v>0</v>
+      </c>
+      <c r="O204" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P204" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q204" t="n">
+        <v>2</v>
+      </c>
+      <c r="R204" t="n">
+        <v>12</v>
+      </c>
+      <c r="S204" t="n">
+        <v>14</v>
+      </c>
+      <c r="T204" t="n">
+        <v>7</v>
+      </c>
+      <c r="U204" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="V204" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="W204" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X204" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="Y204" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z204" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AA204" t="n">
+        <v>5.95</v>
+      </c>
+      <c r="AB204" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC204" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AD204" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="AE204" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AF204" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG204" t="n">
+        <v>16.25</v>
+      </c>
+      <c r="AH204" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI204" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ204" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AK204" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL204" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AM204" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AN204" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AO204" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AP204" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AQ204" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AR204" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AS204" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AT204" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AU204" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AV204" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AW204" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="AX204" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AY204" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AZ204" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BA204" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BB204" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BC204" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BD204" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="BE204" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BF204" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG204" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH204" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI204" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ204" t="n">
+        <v>5</v>
+      </c>
+      <c r="BK204" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B205" t="n">
+        <v>5845644</v>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>China Chinese Super League</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E205" s="2" t="n">
+        <v>45192.35763888889</v>
+      </c>
+      <c r="F205" t="n">
+        <v>26</v>
+      </c>
+      <c r="G205" t="inlineStr">
+        <is>
+          <t>Chengdu Better City FC</t>
+        </is>
+      </c>
+      <c r="H205" t="inlineStr">
+        <is>
+          <t>Shanghai SIPG</t>
+        </is>
+      </c>
+      <c r="I205" t="n">
+        <v>1</v>
+      </c>
+      <c r="J205" t="n">
+        <v>0</v>
+      </c>
+      <c r="K205" t="n">
+        <v>1</v>
+      </c>
+      <c r="L205" t="n">
+        <v>2</v>
+      </c>
+      <c r="M205" t="n">
+        <v>1</v>
+      </c>
+      <c r="N205" t="n">
+        <v>3</v>
+      </c>
+      <c r="O205" t="inlineStr">
+        <is>
+          <t>['3', '53']</t>
+        </is>
+      </c>
+      <c r="P205" t="inlineStr">
+        <is>
+          <t>['90+3']</t>
+        </is>
+      </c>
+      <c r="Q205" t="n">
+        <v>5</v>
+      </c>
+      <c r="R205" t="n">
+        <v>1</v>
+      </c>
+      <c r="S205" t="n">
+        <v>6</v>
+      </c>
+      <c r="T205" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U205" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="V205" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W205" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X205" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y205" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Z205" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA205" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB205" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC205" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="AD205" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="AE205" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AF205" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG205" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AH205" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI205" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="AJ205" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK205" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AL205" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AM205" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AN205" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AO205" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP205" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AQ205" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AR205" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="AS205" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AT205" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="AU205" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AV205" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AW205" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="AX205" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AY205" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ205" t="n">
+        <v>2</v>
+      </c>
+      <c r="BA205" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BB205" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BC205" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BD205" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="BE205" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="BF205" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG205" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH205" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI205" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ205" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK205" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B206" t="n">
+        <v>5845645</v>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>China Chinese Super League</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E206" s="2" t="n">
+        <v>45192.35763888889</v>
+      </c>
+      <c r="F206" t="n">
+        <v>26</v>
+      </c>
+      <c r="G206" t="inlineStr">
+        <is>
+          <t>Wuhan Three Towns</t>
+        </is>
+      </c>
+      <c r="H206" t="inlineStr">
+        <is>
+          <t>Tianjin Teda</t>
+        </is>
+      </c>
+      <c r="I206" t="n">
+        <v>0</v>
+      </c>
+      <c r="J206" t="n">
+        <v>0</v>
+      </c>
+      <c r="K206" t="n">
+        <v>0</v>
+      </c>
+      <c r="L206" t="n">
+        <v>0</v>
+      </c>
+      <c r="M206" t="n">
+        <v>1</v>
+      </c>
+      <c r="N206" t="n">
+        <v>1</v>
+      </c>
+      <c r="O206" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P206" t="inlineStr">
+        <is>
+          <t>['55']</t>
+        </is>
+      </c>
+      <c r="Q206" t="n">
+        <v>4</v>
+      </c>
+      <c r="R206" t="n">
+        <v>5</v>
+      </c>
+      <c r="S206" t="n">
+        <v>9</v>
+      </c>
+      <c r="T206" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="U206" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="V206" t="n">
+        <v>5</v>
+      </c>
+      <c r="W206" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X206" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y206" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z206" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AA206" t="n">
+        <v>5.95</v>
+      </c>
+      <c r="AB206" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC206" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AD206" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AE206" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="AF206" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG206" t="n">
+        <v>18.25</v>
+      </c>
+      <c r="AH206" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI206" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ206" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AK206" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AL206" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AM206" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN206" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AO206" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AP206" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AQ206" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AR206" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AS206" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AT206" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AU206" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AV206" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AW206" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="AX206" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AY206" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ206" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BA206" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BB206" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BC206" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BD206" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BE206" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BF206" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG206" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH206" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI206" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ206" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK206" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B207" t="n">
+        <v>5845646</v>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>China Chinese Super League</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E207" s="2" t="n">
+        <v>45192.35763888889</v>
+      </c>
+      <c r="F207" t="n">
+        <v>26</v>
+      </c>
+      <c r="G207" t="inlineStr">
+        <is>
+          <t>Meizhou Hakka</t>
+        </is>
+      </c>
+      <c r="H207" t="inlineStr">
+        <is>
+          <t>Henan Jianye</t>
+        </is>
+      </c>
+      <c r="I207" t="n">
+        <v>0</v>
+      </c>
+      <c r="J207" t="n">
+        <v>0</v>
+      </c>
+      <c r="K207" t="n">
+        <v>0</v>
+      </c>
+      <c r="L207" t="n">
+        <v>0</v>
+      </c>
+      <c r="M207" t="n">
+        <v>0</v>
+      </c>
+      <c r="N207" t="n">
+        <v>0</v>
+      </c>
+      <c r="O207" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P207" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q207" t="n">
+        <v>3</v>
+      </c>
+      <c r="R207" t="n">
+        <v>4</v>
+      </c>
+      <c r="S207" t="n">
+        <v>7</v>
+      </c>
+      <c r="T207" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="U207" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V207" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="W207" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="X207" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="Y207" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Z207" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA207" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AB207" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AC207" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AD207" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="AE207" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="AF207" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG207" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AH207" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI207" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AJ207" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AK207" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL207" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AM207" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AN207" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AO207" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP207" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AQ207" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AR207" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AS207" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AT207" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AU207" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AV207" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AW207" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="AX207" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AY207" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ207" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BA207" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BB207" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="BC207" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BD207" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="BE207" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BF207" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG207" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH207" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI207" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ207" t="n">
+        <v>6</v>
+      </c>
+      <c r="BK207" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/China Chinese Super League_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/China Chinese Super League_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK207"/>
+  <dimension ref="A1:BK209"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -903,7 +903,7 @@
         <v>1.23</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -2321,7 +2321,7 @@
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AT9" t="n">
         <v>0.23</v>
@@ -2730,7 +2730,7 @@
         <v>1.77</v>
       </c>
       <c r="AT11" t="n">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AU11" t="n">
         <v>1.76</v>
@@ -3136,7 +3136,7 @@
         <v>2.46</v>
       </c>
       <c r="AT13" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AU13" t="n">
         <v>0</v>
@@ -4151,7 +4151,7 @@
         <v>2.46</v>
       </c>
       <c r="AT18" t="n">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AU18" t="n">
         <v>2.82</v>
@@ -4554,7 +4554,7 @@
         <v>1</v>
       </c>
       <c r="AS20" t="n">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AT20" t="n">
         <v>1.31</v>
@@ -5366,7 +5366,7 @@
         <v>0</v>
       </c>
       <c r="AS24" t="n">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AT24" t="n">
         <v>1.31</v>
@@ -5975,7 +5975,7 @@
         <v>3</v>
       </c>
       <c r="AS27" t="n">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AT27" t="n">
         <v>1.58</v>
@@ -6584,7 +6584,7 @@
         <v>0</v>
       </c>
       <c r="AS30" t="n">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AT30" t="n">
         <v>0.6899999999999999</v>
@@ -6790,7 +6790,7 @@
         <v>1.38</v>
       </c>
       <c r="AT31" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AU31" t="n">
         <v>1.23</v>
@@ -7802,7 +7802,7 @@
         <v>0.5</v>
       </c>
       <c r="AS36" t="n">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AT36" t="n">
         <v>0.92</v>
@@ -8008,7 +8008,7 @@
         <v>1.64</v>
       </c>
       <c r="AT37" t="n">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AU37" t="n">
         <v>1.33</v>
@@ -9426,7 +9426,7 @@
         <v>2</v>
       </c>
       <c r="AS44" t="n">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AT44" t="n">
         <v>1.54</v>
@@ -9835,7 +9835,7 @@
         <v>0.83</v>
       </c>
       <c r="AT46" t="n">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AU46" t="n">
         <v>2.21</v>
@@ -10847,7 +10847,7 @@
         <v>0</v>
       </c>
       <c r="AS51" t="n">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AT51" t="n">
         <v>0.23</v>
@@ -11050,7 +11050,7 @@
         <v>1.67</v>
       </c>
       <c r="AS52" t="n">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AT52" t="n">
         <v>0.54</v>
@@ -12068,7 +12068,7 @@
         <v>1.92</v>
       </c>
       <c r="AT57" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AU57" t="n">
         <v>1.43</v>
@@ -12674,10 +12674,10 @@
         <v>1</v>
       </c>
       <c r="AS60" t="n">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AT60" t="n">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AU60" t="n">
         <v>1.42</v>
@@ -15316,7 +15316,7 @@
         <v>1.23</v>
       </c>
       <c r="AT73" t="n">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AU73" t="n">
         <v>1.24</v>
@@ -15519,7 +15519,7 @@
         <v>1.85</v>
       </c>
       <c r="AT74" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AU74" t="n">
         <v>1.75</v>
@@ -16125,7 +16125,7 @@
         <v>0.67</v>
       </c>
       <c r="AS77" t="n">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AT77" t="n">
         <v>1.23</v>
@@ -16734,7 +16734,7 @@
         <v>1.25</v>
       </c>
       <c r="AS80" t="n">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AT80" t="n">
         <v>0.54</v>
@@ -18764,7 +18764,7 @@
         <v>2</v>
       </c>
       <c r="AS90" t="n">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AT90" t="n">
         <v>1.54</v>
@@ -19376,7 +19376,7 @@
         <v>1.77</v>
       </c>
       <c r="AT93" t="n">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AU93" t="n">
         <v>1.1</v>
@@ -19579,7 +19579,7 @@
         <v>2.08</v>
       </c>
       <c r="AT94" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AU94" t="n">
         <v>1.8</v>
@@ -21000,7 +21000,7 @@
         <v>1.92</v>
       </c>
       <c r="AT101" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AU101" t="n">
         <v>1.53</v>
@@ -21403,7 +21403,7 @@
         <v>1.8</v>
       </c>
       <c r="AS103" t="n">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AT103" t="n">
         <v>1.46</v>
@@ -22421,7 +22421,7 @@
         <v>1.38</v>
       </c>
       <c r="AT108" t="n">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AU108" t="n">
         <v>1.41</v>
@@ -22824,7 +22824,7 @@
         <v>1.71</v>
       </c>
       <c r="AS110" t="n">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AT110" t="n">
         <v>1.58</v>
@@ -23639,7 +23639,7 @@
         <v>1.77</v>
       </c>
       <c r="AT114" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AU114" t="n">
         <v>1.25</v>
@@ -24245,7 +24245,7 @@
         <v>1.33</v>
       </c>
       <c r="AS117" t="n">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AT117" t="n">
         <v>0.92</v>
@@ -25869,7 +25869,7 @@
         <v>0.17</v>
       </c>
       <c r="AS125" t="n">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AT125" t="n">
         <v>0.15</v>
@@ -26481,7 +26481,7 @@
         <v>1.77</v>
       </c>
       <c r="AT128" t="n">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AU128" t="n">
         <v>1.64</v>
@@ -26884,7 +26884,7 @@
         <v>2.5</v>
       </c>
       <c r="AS130" t="n">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AT130" t="n">
         <v>2.23</v>
@@ -28305,7 +28305,7 @@
         <v>0.63</v>
       </c>
       <c r="AS137" t="n">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AT137" t="n">
         <v>0.6899999999999999</v>
@@ -28714,7 +28714,7 @@
         <v>1.77</v>
       </c>
       <c r="AT139" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AU139" t="n">
         <v>1.07</v>
@@ -30338,7 +30338,7 @@
         <v>1.85</v>
       </c>
       <c r="AT147" t="n">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AU147" t="n">
         <v>1.76</v>
@@ -32571,7 +32571,7 @@
         <v>1.77</v>
       </c>
       <c r="AT158" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AU158" t="n">
         <v>1.55</v>
@@ -32771,7 +32771,7 @@
         <v>1.5</v>
       </c>
       <c r="AS159" t="n">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AT159" t="n">
         <v>1.46</v>
@@ -33583,7 +33583,7 @@
         <v>2.6</v>
       </c>
       <c r="AS163" t="n">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AT163" t="n">
         <v>2.23</v>
@@ -33789,7 +33789,7 @@
         <v>1.77</v>
       </c>
       <c r="AT164" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AU164" t="n">
         <v>1.33</v>
@@ -35413,7 +35413,7 @@
         <v>2.08</v>
       </c>
       <c r="AT172" t="n">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AU172" t="n">
         <v>1.75</v>
@@ -37237,10 +37237,10 @@
         <v>0.55</v>
       </c>
       <c r="AS181" t="n">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AT181" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AU181" t="n">
         <v>1.16</v>
@@ -38455,7 +38455,7 @@
         <v>1.09</v>
       </c>
       <c r="AS187" t="n">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AT187" t="n">
         <v>1.23</v>
@@ -39267,7 +39267,7 @@
         <v>1.09</v>
       </c>
       <c r="AS191" t="n">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AT191" t="n">
         <v>0.92</v>
@@ -39676,7 +39676,7 @@
         <v>1.64</v>
       </c>
       <c r="AT193" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AU193" t="n">
         <v>1.8</v>
@@ -40082,7 +40082,7 @@
         <v>1.92</v>
       </c>
       <c r="AT195" t="n">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AU195" t="n">
         <v>1.55</v>
@@ -42021,17 +42021,17 @@
       </c>
       <c r="P205" t="inlineStr">
         <is>
-          <t>['90+3']</t>
+          <t>['90+4']</t>
         </is>
       </c>
       <c r="Q205" t="n">
         <v>5</v>
       </c>
       <c r="R205" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S205" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="T205" t="n">
         <v>3.5</v>
@@ -42157,13 +42157,13 @@
         <v>7</v>
       </c>
       <c r="BI205" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="BJ205" t="n">
         <v>13</v>
       </c>
       <c r="BK205" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="206">
@@ -42569,6 +42569,412 @@
         <v>6</v>
       </c>
       <c r="BK207" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B208" t="n">
+        <v>5845648</v>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>China Chinese Super League</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E208" s="2" t="n">
+        <v>45193.35763888889</v>
+      </c>
+      <c r="F208" t="n">
+        <v>26</v>
+      </c>
+      <c r="G208" t="inlineStr">
+        <is>
+          <t>Shenzhen</t>
+        </is>
+      </c>
+      <c r="H208" t="inlineStr">
+        <is>
+          <t>Zhejiang FC</t>
+        </is>
+      </c>
+      <c r="I208" t="n">
+        <v>0</v>
+      </c>
+      <c r="J208" t="n">
+        <v>3</v>
+      </c>
+      <c r="K208" t="n">
+        <v>3</v>
+      </c>
+      <c r="L208" t="n">
+        <v>0</v>
+      </c>
+      <c r="M208" t="n">
+        <v>5</v>
+      </c>
+      <c r="N208" t="n">
+        <v>5</v>
+      </c>
+      <c r="O208" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P208" t="inlineStr">
+        <is>
+          <t>['4', '20', '31', '73', '88']</t>
+        </is>
+      </c>
+      <c r="Q208" t="n">
+        <v>1</v>
+      </c>
+      <c r="R208" t="n">
+        <v>9</v>
+      </c>
+      <c r="S208" t="n">
+        <v>10</v>
+      </c>
+      <c r="T208" t="n">
+        <v>10</v>
+      </c>
+      <c r="U208" t="n">
+        <v>3</v>
+      </c>
+      <c r="V208" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="W208" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="X208" t="n">
+        <v>4</v>
+      </c>
+      <c r="Y208" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z208" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AA208" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AB208" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AC208" t="n">
+        <v>14</v>
+      </c>
+      <c r="AD208" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AE208" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AF208" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG208" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH208" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AI208" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AJ208" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AK208" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="AL208" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM208" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AN208" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AO208" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AP208" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AQ208" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AR208" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AS208" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="AT208" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AU208" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AV208" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AW208" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="AX208" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AY208" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ208" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BA208" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BB208" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BC208" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BD208" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BE208" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BF208" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG208" t="n">
+        <v>13</v>
+      </c>
+      <c r="BH208" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI208" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ208" t="n">
+        <v>3</v>
+      </c>
+      <c r="BK208" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B209" t="n">
+        <v>5845647</v>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>China Chinese Super League</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E209" s="2" t="n">
+        <v>45193.35763888889</v>
+      </c>
+      <c r="F209" t="n">
+        <v>26</v>
+      </c>
+      <c r="G209" t="inlineStr">
+        <is>
+          <t>Qingdao Jonoon</t>
+        </is>
+      </c>
+      <c r="H209" t="inlineStr">
+        <is>
+          <t>Nantong Zhiyun</t>
+        </is>
+      </c>
+      <c r="I209" t="n">
+        <v>0</v>
+      </c>
+      <c r="J209" t="n">
+        <v>0</v>
+      </c>
+      <c r="K209" t="n">
+        <v>0</v>
+      </c>
+      <c r="L209" t="n">
+        <v>3</v>
+      </c>
+      <c r="M209" t="n">
+        <v>1</v>
+      </c>
+      <c r="N209" t="n">
+        <v>4</v>
+      </c>
+      <c r="O209" t="inlineStr">
+        <is>
+          <t>['57', '66', '87']</t>
+        </is>
+      </c>
+      <c r="P209" t="inlineStr">
+        <is>
+          <t>['90+4']</t>
+        </is>
+      </c>
+      <c r="Q209" t="n">
+        <v>2</v>
+      </c>
+      <c r="R209" t="n">
+        <v>7</v>
+      </c>
+      <c r="S209" t="n">
+        <v>9</v>
+      </c>
+      <c r="T209" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U209" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V209" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="W209" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X209" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y209" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z209" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA209" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB209" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC209" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AD209" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AE209" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AF209" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG209" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AH209" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI209" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AJ209" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK209" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AL209" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM209" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AN209" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AO209" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP209" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AQ209" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AR209" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AS209" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AT209" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="AU209" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AV209" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AW209" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="AX209" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AY209" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ209" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BA209" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BB209" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BC209" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BD209" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BE209" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BF209" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG209" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH209" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI209" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ209" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK209" t="n">
         <v>8</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2024)/China Chinese Super League_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/China Chinese Super League_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AZ209"/>
+  <dimension ref="A1:AZ214"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1009,7 +1009,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ3" t="n">
-        <v>2.23</v>
+        <v>2.29</v>
       </c>
       <c r="AR3" t="n">
         <v>0</v>
@@ -1179,7 +1179,7 @@
         <v>1.77</v>
       </c>
       <c r="AQ4" t="n">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AR4" t="n">
         <v>0</v>
@@ -1349,7 +1349,7 @@
         <v>1.92</v>
       </c>
       <c r="AQ5" t="n">
-        <v>0.54</v>
+        <v>0.71</v>
       </c>
       <c r="AR5" t="n">
         <v>0</v>
@@ -1519,7 +1519,7 @@
         <v>1.77</v>
       </c>
       <c r="AQ6" t="n">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AR6" t="n">
         <v>0</v>
@@ -1686,7 +1686,7 @@
         <v>0</v>
       </c>
       <c r="AP7" t="n">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="AQ7" t="n">
         <v>0.92</v>
@@ -2026,7 +2026,7 @@
         <v>0</v>
       </c>
       <c r="AP9" t="n">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AQ9" t="n">
         <v>0.23</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="AP11" t="n">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="AQ11" t="n">
         <v>1.69</v>
@@ -2706,7 +2706,7 @@
         <v>0</v>
       </c>
       <c r="AP13" t="n">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="AQ13" t="n">
         <v>0.64</v>
@@ -3556,7 +3556,7 @@
         <v>0</v>
       </c>
       <c r="AP18" t="n">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="AQ18" t="n">
         <v>1.69</v>
@@ -3729,7 +3729,7 @@
         <v>1.77</v>
       </c>
       <c r="AQ19" t="n">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AR19" t="n">
         <v>1.1</v>
@@ -4066,10 +4066,10 @@
         <v>3</v>
       </c>
       <c r="AP21" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ21" t="n">
-        <v>2.23</v>
+        <v>2.29</v>
       </c>
       <c r="AR21" t="n">
         <v>0</v>
@@ -4239,7 +4239,7 @@
         <v>1.92</v>
       </c>
       <c r="AQ22" t="n">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AR22" t="n">
         <v>0.9</v>
@@ -4409,7 +4409,7 @@
         <v>1.23</v>
       </c>
       <c r="AQ23" t="n">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AR23" t="n">
         <v>1.2</v>
@@ -4576,7 +4576,7 @@
         <v>0</v>
       </c>
       <c r="AP24" t="n">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AQ24" t="n">
         <v>1.31</v>
@@ -4746,7 +4746,7 @@
         <v>0</v>
       </c>
       <c r="AP25" t="n">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AQ25" t="n">
         <v>0.6899999999999999</v>
@@ -5089,7 +5089,7 @@
         <v>1.77</v>
       </c>
       <c r="AQ27" t="n">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AR27" t="n">
         <v>0.92</v>
@@ -5259,7 +5259,7 @@
         <v>1.77</v>
       </c>
       <c r="AQ28" t="n">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AR28" t="n">
         <v>1.28</v>
@@ -5596,7 +5596,7 @@
         <v>0</v>
       </c>
       <c r="AP30" t="n">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AQ30" t="n">
         <v>0.6899999999999999</v>
@@ -5766,7 +5766,7 @@
         <v>0.5</v>
       </c>
       <c r="AP31" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ31" t="n">
         <v>0.64</v>
@@ -6109,7 +6109,7 @@
         <v>1.23</v>
       </c>
       <c r="AQ33" t="n">
-        <v>0.54</v>
+        <v>0.71</v>
       </c>
       <c r="AR33" t="n">
         <v>1.13</v>
@@ -6616,7 +6616,7 @@
         <v>0.5</v>
       </c>
       <c r="AP36" t="n">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AQ36" t="n">
         <v>0.92</v>
@@ -7296,10 +7296,10 @@
         <v>3</v>
       </c>
       <c r="AP40" t="n">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="AQ40" t="n">
-        <v>2.23</v>
+        <v>2.29</v>
       </c>
       <c r="AR40" t="n">
         <v>1.52</v>
@@ -7466,10 +7466,10 @@
         <v>1.5</v>
       </c>
       <c r="AP41" t="n">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AQ41" t="n">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AR41" t="n">
         <v>1.68</v>
@@ -7639,7 +7639,7 @@
         <v>1.77</v>
       </c>
       <c r="AQ42" t="n">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AR42" t="n">
         <v>0.98</v>
@@ -7976,7 +7976,7 @@
         <v>2</v>
       </c>
       <c r="AP44" t="n">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AQ44" t="n">
         <v>1.54</v>
@@ -8316,7 +8316,7 @@
         <v>0.33</v>
       </c>
       <c r="AP46" t="n">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AQ46" t="n">
         <v>1.69</v>
@@ -8829,7 +8829,7 @@
         <v>1.77</v>
       </c>
       <c r="AQ49" t="n">
-        <v>0.54</v>
+        <v>0.71</v>
       </c>
       <c r="AR49" t="n">
         <v>1.37</v>
@@ -8999,7 +8999,7 @@
         <v>1.92</v>
       </c>
       <c r="AQ50" t="n">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AR50" t="n">
         <v>1.37</v>
@@ -9166,7 +9166,7 @@
         <v>0</v>
       </c>
       <c r="AP51" t="n">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AQ51" t="n">
         <v>0.23</v>
@@ -9339,7 +9339,7 @@
         <v>1.77</v>
       </c>
       <c r="AQ52" t="n">
-        <v>0.54</v>
+        <v>0.71</v>
       </c>
       <c r="AR52" t="n">
         <v>0.87</v>
@@ -9509,7 +9509,7 @@
         <v>1.85</v>
       </c>
       <c r="AQ53" t="n">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AR53" t="n">
         <v>1.79</v>
@@ -9679,7 +9679,7 @@
         <v>1.77</v>
       </c>
       <c r="AQ54" t="n">
-        <v>2.23</v>
+        <v>2.29</v>
       </c>
       <c r="AR54" t="n">
         <v>1.05</v>
@@ -9846,7 +9846,7 @@
         <v>0.5</v>
       </c>
       <c r="AP55" t="n">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="AQ55" t="n">
         <v>0.6899999999999999</v>
@@ -10016,7 +10016,7 @@
         <v>0.5</v>
       </c>
       <c r="AP56" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ56" t="n">
         <v>1.23</v>
@@ -10359,7 +10359,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ58" t="n">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AR58" t="n">
         <v>1.74</v>
@@ -10526,7 +10526,7 @@
         <v>0</v>
       </c>
       <c r="AP59" t="n">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AQ59" t="n">
         <v>0.15</v>
@@ -10866,10 +10866,10 @@
         <v>1.75</v>
       </c>
       <c r="AP61" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ61" t="n">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AR61" t="n">
         <v>1.29</v>
@@ -11376,7 +11376,7 @@
         <v>0.6</v>
       </c>
       <c r="AP64" t="n">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="AQ64" t="n">
         <v>1.23</v>
@@ -11549,7 +11549,7 @@
         <v>1.77</v>
       </c>
       <c r="AQ65" t="n">
-        <v>2.23</v>
+        <v>2.29</v>
       </c>
       <c r="AR65" t="n">
         <v>1.25</v>
@@ -12226,10 +12226,10 @@
         <v>2</v>
       </c>
       <c r="AP69" t="n">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AQ69" t="n">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AR69" t="n">
         <v>2.04</v>
@@ -12396,7 +12396,7 @@
         <v>0.5</v>
       </c>
       <c r="AP70" t="n">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="AQ70" t="n">
         <v>0.15</v>
@@ -13246,10 +13246,10 @@
         <v>2.2</v>
       </c>
       <c r="AP75" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ75" t="n">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AR75" t="n">
         <v>1.54</v>
@@ -14096,10 +14096,10 @@
         <v>1.25</v>
       </c>
       <c r="AP80" t="n">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AQ80" t="n">
-        <v>0.54</v>
+        <v>0.71</v>
       </c>
       <c r="AR80" t="n">
         <v>1.17</v>
@@ -14269,7 +14269,7 @@
         <v>1.77</v>
       </c>
       <c r="AQ81" t="n">
-        <v>2.23</v>
+        <v>2.29</v>
       </c>
       <c r="AR81" t="n">
         <v>1.53</v>
@@ -14609,7 +14609,7 @@
         <v>1.92</v>
       </c>
       <c r="AQ83" t="n">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AR83" t="n">
         <v>1.68</v>
@@ -14779,7 +14779,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ84" t="n">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AR84" t="n">
         <v>1.93</v>
@@ -14946,7 +14946,7 @@
         <v>0</v>
       </c>
       <c r="AP85" t="n">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="AQ85" t="n">
         <v>0.23</v>
@@ -15119,7 +15119,7 @@
         <v>1.77</v>
       </c>
       <c r="AQ86" t="n">
-        <v>0.54</v>
+        <v>0.71</v>
       </c>
       <c r="AR86" t="n">
         <v>1.08</v>
@@ -15286,7 +15286,7 @@
         <v>1.75</v>
       </c>
       <c r="AP87" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ87" t="n">
         <v>1.54</v>
@@ -15456,7 +15456,7 @@
         <v>0.2</v>
       </c>
       <c r="AP88" t="n">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AQ88" t="n">
         <v>0.23</v>
@@ -15626,10 +15626,10 @@
         <v>1.83</v>
       </c>
       <c r="AP89" t="n">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="AQ89" t="n">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AR89" t="n">
         <v>1.26</v>
@@ -17329,7 +17329,7 @@
         <v>1.77</v>
       </c>
       <c r="AQ99" t="n">
-        <v>0.54</v>
+        <v>0.71</v>
       </c>
       <c r="AR99" t="n">
         <v>1.45</v>
@@ -17496,7 +17496,7 @@
         <v>0.17</v>
       </c>
       <c r="AP100" t="n">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="AQ100" t="n">
         <v>0.23</v>
@@ -17836,7 +17836,7 @@
         <v>0.4</v>
       </c>
       <c r="AP102" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ102" t="n">
         <v>0.6899999999999999</v>
@@ -18006,10 +18006,10 @@
         <v>1.8</v>
       </c>
       <c r="AP103" t="n">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AQ103" t="n">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AR103" t="n">
         <v>1.27</v>
@@ -18176,10 +18176,10 @@
         <v>1.67</v>
       </c>
       <c r="AP104" t="n">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="AQ104" t="n">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AR104" t="n">
         <v>2.05</v>
@@ -18349,7 +18349,7 @@
         <v>1.92</v>
       </c>
       <c r="AQ105" t="n">
-        <v>2.23</v>
+        <v>2.29</v>
       </c>
       <c r="AR105" t="n">
         <v>1.81</v>
@@ -18856,7 +18856,7 @@
         <v>1.29</v>
       </c>
       <c r="AP108" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ108" t="n">
         <v>1.69</v>
@@ -19026,10 +19026,10 @@
         <v>0.71</v>
       </c>
       <c r="AP109" t="n">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AQ109" t="n">
-        <v>0.54</v>
+        <v>0.71</v>
       </c>
       <c r="AR109" t="n">
         <v>1.91</v>
@@ -19196,10 +19196,10 @@
         <v>1.71</v>
       </c>
       <c r="AP110" t="n">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AQ110" t="n">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AR110" t="n">
         <v>1.18</v>
@@ -19366,10 +19366,10 @@
         <v>2.71</v>
       </c>
       <c r="AP111" t="n">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="AQ111" t="n">
-        <v>2.23</v>
+        <v>2.29</v>
       </c>
       <c r="AR111" t="n">
         <v>1.93</v>
@@ -19876,7 +19876,7 @@
         <v>0.29</v>
       </c>
       <c r="AP114" t="n">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="AQ114" t="n">
         <v>0.64</v>
@@ -20219,7 +20219,7 @@
         <v>1.77</v>
       </c>
       <c r="AQ116" t="n">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AR116" t="n">
         <v>1.22</v>
@@ -20729,7 +20729,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ119" t="n">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AR119" t="n">
         <v>1.67</v>
@@ -21236,7 +21236,7 @@
         <v>2.29</v>
       </c>
       <c r="AP122" t="n">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="AQ122" t="n">
         <v>1.54</v>
@@ -21576,7 +21576,7 @@
         <v>1.86</v>
       </c>
       <c r="AP124" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ124" t="n">
         <v>1.31</v>
@@ -21919,7 +21919,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ126" t="n">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AR126" t="n">
         <v>1.75</v>
@@ -22426,7 +22426,7 @@
         <v>0.29</v>
       </c>
       <c r="AP129" t="n">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AQ129" t="n">
         <v>0.23</v>
@@ -22596,10 +22596,10 @@
         <v>2.5</v>
       </c>
       <c r="AP130" t="n">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AQ130" t="n">
-        <v>2.23</v>
+        <v>2.29</v>
       </c>
       <c r="AR130" t="n">
         <v>1.18</v>
@@ -22769,7 +22769,7 @@
         <v>1.23</v>
       </c>
       <c r="AQ131" t="n">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AR131" t="n">
         <v>1.24</v>
@@ -22936,7 +22936,7 @@
         <v>1.22</v>
       </c>
       <c r="AP132" t="n">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AQ132" t="n">
         <v>1.23</v>
@@ -23279,7 +23279,7 @@
         <v>1.92</v>
       </c>
       <c r="AQ134" t="n">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AR134" t="n">
         <v>1.76</v>
@@ -23446,10 +23446,10 @@
         <v>1.71</v>
       </c>
       <c r="AP135" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ135" t="n">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AR135" t="n">
         <v>1.43</v>
@@ -23619,7 +23619,7 @@
         <v>1.92</v>
       </c>
       <c r="AQ136" t="n">
-        <v>0.54</v>
+        <v>0.71</v>
       </c>
       <c r="AR136" t="n">
         <v>1.51</v>
@@ -24296,7 +24296,7 @@
         <v>0.14</v>
       </c>
       <c r="AP140" t="n">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="AQ140" t="n">
         <v>0.15</v>
@@ -25149,7 +25149,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ145" t="n">
-        <v>0.54</v>
+        <v>0.71</v>
       </c>
       <c r="AR145" t="n">
         <v>1.72</v>
@@ -25659,7 +25659,7 @@
         <v>1.92</v>
       </c>
       <c r="AQ148" t="n">
-        <v>2.23</v>
+        <v>2.29</v>
       </c>
       <c r="AR148" t="n">
         <v>1.51</v>
@@ -25996,10 +25996,10 @@
         <v>1.22</v>
       </c>
       <c r="AP150" t="n">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="AQ150" t="n">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AR150" t="n">
         <v>1.44</v>
@@ -26166,7 +26166,7 @@
         <v>1.13</v>
       </c>
       <c r="AP151" t="n">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AQ151" t="n">
         <v>0.92</v>
@@ -26336,7 +26336,7 @@
         <v>1.13</v>
       </c>
       <c r="AP152" t="n">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="AQ152" t="n">
         <v>1.31</v>
@@ -26849,7 +26849,7 @@
         <v>1.77</v>
       </c>
       <c r="AQ155" t="n">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AR155" t="n">
         <v>1.36</v>
@@ -27016,10 +27016,10 @@
         <v>0.6</v>
       </c>
       <c r="AP156" t="n">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="AQ156" t="n">
-        <v>0.54</v>
+        <v>0.71</v>
       </c>
       <c r="AR156" t="n">
         <v>1.71</v>
@@ -27529,7 +27529,7 @@
         <v>1.77</v>
       </c>
       <c r="AQ159" t="n">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AR159" t="n">
         <v>1.56</v>
@@ -27866,7 +27866,7 @@
         <v>0.22</v>
       </c>
       <c r="AP161" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ161" t="n">
         <v>0.15</v>
@@ -28039,7 +28039,7 @@
         <v>1.77</v>
       </c>
       <c r="AQ162" t="n">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AR162" t="n">
         <v>1.2</v>
@@ -28209,7 +28209,7 @@
         <v>1.77</v>
       </c>
       <c r="AQ163" t="n">
-        <v>2.23</v>
+        <v>2.29</v>
       </c>
       <c r="AR163" t="n">
         <v>1.55</v>
@@ -28546,10 +28546,10 @@
         <v>1.33</v>
       </c>
       <c r="AP165" t="n">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="AQ165" t="n">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AR165" t="n">
         <v>1.71</v>
@@ -28886,7 +28886,7 @@
         <v>1</v>
       </c>
       <c r="AP167" t="n">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="AQ167" t="n">
         <v>1.31</v>
@@ -29226,7 +29226,7 @@
         <v>0.3</v>
       </c>
       <c r="AP169" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ169" t="n">
         <v>0.23</v>
@@ -29569,7 +29569,7 @@
         <v>1.77</v>
       </c>
       <c r="AQ171" t="n">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AR171" t="n">
         <v>1.48</v>
@@ -30076,7 +30076,7 @@
         <v>1.33</v>
       </c>
       <c r="AP174" t="n">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="AQ174" t="n">
         <v>0.92</v>
@@ -30586,7 +30586,7 @@
         <v>1</v>
       </c>
       <c r="AP177" t="n">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AQ177" t="n">
         <v>1.31</v>
@@ -30759,7 +30759,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ178" t="n">
-        <v>0.54</v>
+        <v>0.71</v>
       </c>
       <c r="AR178" t="n">
         <v>1.7</v>
@@ -31096,7 +31096,7 @@
         <v>1.27</v>
       </c>
       <c r="AP180" t="n">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="AQ180" t="n">
         <v>1.31</v>
@@ -31266,7 +31266,7 @@
         <v>0.55</v>
       </c>
       <c r="AP181" t="n">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AQ181" t="n">
         <v>0.64</v>
@@ -31609,7 +31609,7 @@
         <v>1.85</v>
       </c>
       <c r="AQ183" t="n">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AR183" t="n">
         <v>1.76</v>
@@ -32119,7 +32119,7 @@
         <v>1.77</v>
       </c>
       <c r="AQ186" t="n">
-        <v>2.23</v>
+        <v>2.29</v>
       </c>
       <c r="AR186" t="n">
         <v>1.18</v>
@@ -32286,7 +32286,7 @@
         <v>1.09</v>
       </c>
       <c r="AP187" t="n">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AQ187" t="n">
         <v>1.23</v>
@@ -32626,10 +32626,10 @@
         <v>0.58</v>
       </c>
       <c r="AP189" t="n">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="AQ189" t="n">
-        <v>0.54</v>
+        <v>0.71</v>
       </c>
       <c r="AR189" t="n">
         <v>1.41</v>
@@ -32799,7 +32799,7 @@
         <v>1.92</v>
       </c>
       <c r="AQ190" t="n">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AR190" t="n">
         <v>1.47</v>
@@ -32969,7 +32969,7 @@
         <v>1.77</v>
       </c>
       <c r="AQ191" t="n">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AR191" t="n">
         <v>1.55</v>
@@ -33136,7 +33136,7 @@
         <v>1.18</v>
       </c>
       <c r="AP192" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ192" t="n">
         <v>1.31</v>
@@ -33479,7 +33479,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ194" t="n">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AR194" t="n">
         <v>1.72</v>
@@ -33816,7 +33816,7 @@
         <v>0.25</v>
       </c>
       <c r="AP196" t="n">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="AQ196" t="n">
         <v>0.23</v>
@@ -34496,10 +34496,10 @@
         <v>1.33</v>
       </c>
       <c r="AP200" t="n">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AQ200" t="n">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AR200" t="n">
         <v>1.71</v>
@@ -34666,7 +34666,7 @@
         <v>0.25</v>
       </c>
       <c r="AP201" t="n">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="AQ201" t="n">
         <v>0.23</v>
@@ -35349,7 +35349,7 @@
         <v>1.85</v>
       </c>
       <c r="AQ205" t="n">
-        <v>2.23</v>
+        <v>2.29</v>
       </c>
       <c r="AR205" t="n">
         <v>1.71</v>
@@ -35856,7 +35856,7 @@
         <v>1.58</v>
       </c>
       <c r="AP208" t="n">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AQ208" t="n">
         <v>1.69</v>
@@ -36057,6 +36057,856 @@
       </c>
       <c r="AZ209" t="n">
         <v>8</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B210" t="n">
+        <v>5845649</v>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>China Chinese Super League</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E210" s="2" t="n">
+        <v>45198.27083333334</v>
+      </c>
+      <c r="F210" t="n">
+        <v>27</v>
+      </c>
+      <c r="G210" t="inlineStr">
+        <is>
+          <t>Shijiazhuang Ever Bright</t>
+        </is>
+      </c>
+      <c r="H210" t="inlineStr">
+        <is>
+          <t>Meizhou Hakka</t>
+        </is>
+      </c>
+      <c r="I210" t="n">
+        <v>0</v>
+      </c>
+      <c r="J210" t="n">
+        <v>0</v>
+      </c>
+      <c r="K210" t="n">
+        <v>0</v>
+      </c>
+      <c r="L210" t="n">
+        <v>0</v>
+      </c>
+      <c r="M210" t="n">
+        <v>1</v>
+      </c>
+      <c r="N210" t="n">
+        <v>1</v>
+      </c>
+      <c r="O210" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P210" t="inlineStr">
+        <is>
+          <t>['73']</t>
+        </is>
+      </c>
+      <c r="Q210" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="R210" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="S210" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="T210" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="U210" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="V210" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="W210" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="X210" t="n">
+        <v>5.45</v>
+      </c>
+      <c r="Y210" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="Z210" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AA210" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AB210" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AC210" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AD210" t="n">
+        <v>17</v>
+      </c>
+      <c r="AE210" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AF210" t="n">
+        <v>4.57</v>
+      </c>
+      <c r="AG210" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AH210" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AI210" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AJ210" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="AK210" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AL210" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AM210" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AN210" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AO210" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="AP210" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AQ210" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AR210" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AS210" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AT210" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="AU210" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV210" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW210" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX210" t="n">
+        <v>11</v>
+      </c>
+      <c r="AY210" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ210" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B211" t="n">
+        <v>5845650</v>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>China Chinese Super League</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E211" s="2" t="n">
+        <v>45198.35763888889</v>
+      </c>
+      <c r="F211" t="n">
+        <v>27</v>
+      </c>
+      <c r="G211" t="inlineStr">
+        <is>
+          <t>Shandong Luneng</t>
+        </is>
+      </c>
+      <c r="H211" t="inlineStr">
+        <is>
+          <t>Wuhan Three Towns</t>
+        </is>
+      </c>
+      <c r="I211" t="n">
+        <v>0</v>
+      </c>
+      <c r="J211" t="n">
+        <v>0</v>
+      </c>
+      <c r="K211" t="n">
+        <v>0</v>
+      </c>
+      <c r="L211" t="n">
+        <v>2</v>
+      </c>
+      <c r="M211" t="n">
+        <v>1</v>
+      </c>
+      <c r="N211" t="n">
+        <v>3</v>
+      </c>
+      <c r="O211" t="inlineStr">
+        <is>
+          <t>['49', '84']</t>
+        </is>
+      </c>
+      <c r="P211" t="inlineStr">
+        <is>
+          <t>['90+4']</t>
+        </is>
+      </c>
+      <c r="Q211" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="R211" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="S211" t="n">
+        <v>5.08</v>
+      </c>
+      <c r="T211" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="U211" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="V211" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="W211" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="X211" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="Y211" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="Z211" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AA211" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AB211" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="AC211" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AD211" t="n">
+        <v>17</v>
+      </c>
+      <c r="AE211" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AF211" t="n">
+        <v>4.53</v>
+      </c>
+      <c r="AG211" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AH211" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AI211" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AJ211" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AK211" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AL211" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AM211" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="AN211" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="AO211" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AP211" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AQ211" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AR211" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AS211" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AT211" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="AU211" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV211" t="n">
+        <v>10</v>
+      </c>
+      <c r="AW211" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX211" t="n">
+        <v>8</v>
+      </c>
+      <c r="AY211" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ211" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B212" t="n">
+        <v>5845651</v>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>China Chinese Super League</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E212" s="2" t="n">
+        <v>45198.35763888889</v>
+      </c>
+      <c r="F212" t="n">
+        <v>27</v>
+      </c>
+      <c r="G212" t="inlineStr">
+        <is>
+          <t>Tianjin Teda</t>
+        </is>
+      </c>
+      <c r="H212" t="inlineStr">
+        <is>
+          <t>Chengdu Better City FC</t>
+        </is>
+      </c>
+      <c r="I212" t="n">
+        <v>1</v>
+      </c>
+      <c r="J212" t="n">
+        <v>1</v>
+      </c>
+      <c r="K212" t="n">
+        <v>2</v>
+      </c>
+      <c r="L212" t="n">
+        <v>2</v>
+      </c>
+      <c r="M212" t="n">
+        <v>2</v>
+      </c>
+      <c r="N212" t="n">
+        <v>4</v>
+      </c>
+      <c r="O212" t="inlineStr">
+        <is>
+          <t>['28', '82']</t>
+        </is>
+      </c>
+      <c r="P212" t="inlineStr">
+        <is>
+          <t>['39', '90+1']</t>
+        </is>
+      </c>
+      <c r="Q212" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="R212" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S212" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="T212" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="U212" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="V212" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="W212" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X212" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="Y212" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="Z212" t="n">
+        <v>3.77</v>
+      </c>
+      <c r="AA212" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AB212" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AC212" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD212" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AE212" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AF212" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="AG212" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AH212" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AI212" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AJ212" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK212" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AL212" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AM212" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AN212" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AO212" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AP212" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AQ212" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AR212" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AS212" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AT212" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="AU212" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV212" t="n">
+        <v>8</v>
+      </c>
+      <c r="AW212" t="n">
+        <v>10</v>
+      </c>
+      <c r="AX212" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY212" t="n">
+        <v>17</v>
+      </c>
+      <c r="AZ212" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B213" t="n">
+        <v>5845652</v>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>China Chinese Super League</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E213" s="2" t="n">
+        <v>45198.35763888889</v>
+      </c>
+      <c r="F213" t="n">
+        <v>27</v>
+      </c>
+      <c r="G213" t="inlineStr">
+        <is>
+          <t>Shenzhen</t>
+        </is>
+      </c>
+      <c r="H213" t="inlineStr">
+        <is>
+          <t>Changchun Yatai</t>
+        </is>
+      </c>
+      <c r="I213" t="n">
+        <v>0</v>
+      </c>
+      <c r="J213" t="n">
+        <v>0</v>
+      </c>
+      <c r="K213" t="n">
+        <v>0</v>
+      </c>
+      <c r="L213" t="n">
+        <v>0</v>
+      </c>
+      <c r="M213" t="n">
+        <v>1</v>
+      </c>
+      <c r="N213" t="n">
+        <v>1</v>
+      </c>
+      <c r="O213" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P213" t="inlineStr">
+        <is>
+          <t>['62']</t>
+        </is>
+      </c>
+      <c r="Q213" t="n">
+        <v>7</v>
+      </c>
+      <c r="R213" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="S213" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="T213" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="U213" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="V213" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="W213" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="X213" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="Y213" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="Z213" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA213" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB213" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AC213" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD213" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="AE213" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AF213" t="n">
+        <v>6</v>
+      </c>
+      <c r="AG213" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AH213" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AI213" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AJ213" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK213" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AL213" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AM213" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AN213" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="AO213" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AP213" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AQ213" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AR213" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AS213" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AT213" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="AU213" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV213" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW213" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX213" t="n">
+        <v>8</v>
+      </c>
+      <c r="AY213" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ213" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B214" t="n">
+        <v>5845653</v>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>China Chinese Super League</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E214" s="2" t="n">
+        <v>45198.35763888889</v>
+      </c>
+      <c r="F214" t="n">
+        <v>27</v>
+      </c>
+      <c r="G214" t="inlineStr">
+        <is>
+          <t>Nantong Zhiyun</t>
+        </is>
+      </c>
+      <c r="H214" t="inlineStr">
+        <is>
+          <t>Shanghai SIPG</t>
+        </is>
+      </c>
+      <c r="I214" t="n">
+        <v>0</v>
+      </c>
+      <c r="J214" t="n">
+        <v>1</v>
+      </c>
+      <c r="K214" t="n">
+        <v>1</v>
+      </c>
+      <c r="L214" t="n">
+        <v>0</v>
+      </c>
+      <c r="M214" t="n">
+        <v>1</v>
+      </c>
+      <c r="N214" t="n">
+        <v>1</v>
+      </c>
+      <c r="O214" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P214" t="inlineStr">
+        <is>
+          <t>['29']</t>
+        </is>
+      </c>
+      <c r="Q214" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="R214" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="S214" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="T214" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="U214" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="V214" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="W214" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X214" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="Y214" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="Z214" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AA214" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AB214" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AC214" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AD214" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE214" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AF214" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="AG214" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AH214" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AI214" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AJ214" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK214" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AL214" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AM214" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AN214" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AO214" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="AP214" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="AQ214" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AR214" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AS214" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AT214" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="AU214" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV214" t="n">
+        <v>7</v>
+      </c>
+      <c r="AW214" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX214" t="n">
+        <v>19</v>
+      </c>
+      <c r="AY214" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ214" t="n">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/China Chinese Super League_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/China Chinese Super League_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AZ214"/>
+  <dimension ref="A1:AZ217"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1176,7 +1176,7 @@
         <v>0</v>
       </c>
       <c r="AP4" t="n">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AQ4" t="n">
         <v>1.07</v>
@@ -1346,7 +1346,7 @@
         <v>0</v>
       </c>
       <c r="AP5" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AQ5" t="n">
         <v>0.71</v>
@@ -1856,7 +1856,7 @@
         <v>0</v>
       </c>
       <c r="AP8" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AQ8" t="n">
         <v>1.23</v>
@@ -2029,7 +2029,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ9" t="n">
-        <v>0.23</v>
+        <v>0.21</v>
       </c>
       <c r="AR9" t="n">
         <v>0</v>
@@ -2879,7 +2879,7 @@
         <v>1.77</v>
       </c>
       <c r="AQ14" t="n">
-        <v>0.23</v>
+        <v>0.21</v>
       </c>
       <c r="AR14" t="n">
         <v>0.63</v>
@@ -3389,7 +3389,7 @@
         <v>1.77</v>
       </c>
       <c r="AQ17" t="n">
-        <v>0.23</v>
+        <v>0.21</v>
       </c>
       <c r="AR17" t="n">
         <v>0</v>
@@ -4236,7 +4236,7 @@
         <v>3</v>
       </c>
       <c r="AP22" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AQ22" t="n">
         <v>1.07</v>
@@ -4749,7 +4749,7 @@
         <v>0.77</v>
       </c>
       <c r="AQ25" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AR25" t="n">
         <v>0</v>
@@ -4916,7 +4916,7 @@
         <v>0</v>
       </c>
       <c r="AP26" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AQ26" t="n">
         <v>1.23</v>
@@ -5256,7 +5256,7 @@
         <v>1</v>
       </c>
       <c r="AP28" t="n">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AQ28" t="n">
         <v>1.43</v>
@@ -5599,7 +5599,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ30" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AR30" t="n">
         <v>0.9399999999999999</v>
@@ -6446,10 +6446,10 @@
         <v>0</v>
       </c>
       <c r="AP35" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AQ35" t="n">
-        <v>0.23</v>
+        <v>0.21</v>
       </c>
       <c r="AR35" t="n">
         <v>0.96</v>
@@ -7129,7 +7129,7 @@
         <v>1.85</v>
       </c>
       <c r="AQ39" t="n">
-        <v>0.23</v>
+        <v>0.21</v>
       </c>
       <c r="AR39" t="n">
         <v>1.33</v>
@@ -8146,7 +8146,7 @@
         <v>2</v>
       </c>
       <c r="AP45" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AQ45" t="n">
         <v>1.31</v>
@@ -8489,7 +8489,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ47" t="n">
-        <v>0.23</v>
+        <v>0.21</v>
       </c>
       <c r="AR47" t="n">
         <v>1.61</v>
@@ -8996,7 +8996,7 @@
         <v>2.33</v>
       </c>
       <c r="AP50" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AQ50" t="n">
         <v>1.46</v>
@@ -9169,7 +9169,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ51" t="n">
-        <v>0.23</v>
+        <v>0.21</v>
       </c>
       <c r="AR51" t="n">
         <v>1.09</v>
@@ -9676,7 +9676,7 @@
         <v>2.33</v>
       </c>
       <c r="AP54" t="n">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AQ54" t="n">
         <v>2.29</v>
@@ -9849,7 +9849,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ55" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AR55" t="n">
         <v>1.45</v>
@@ -10186,7 +10186,7 @@
         <v>0.67</v>
       </c>
       <c r="AP57" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AQ57" t="n">
         <v>0.64</v>
@@ -11036,7 +11036,7 @@
         <v>1.33</v>
       </c>
       <c r="AP62" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AQ62" t="n">
         <v>1.31</v>
@@ -11209,7 +11209,7 @@
         <v>1.77</v>
       </c>
       <c r="AQ63" t="n">
-        <v>0.23</v>
+        <v>0.21</v>
       </c>
       <c r="AR63" t="n">
         <v>1.07</v>
@@ -11886,7 +11886,7 @@
         <v>1.25</v>
       </c>
       <c r="AP67" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AQ67" t="n">
         <v>0.92</v>
@@ -12059,7 +12059,7 @@
         <v>1.77</v>
       </c>
       <c r="AQ68" t="n">
-        <v>0.23</v>
+        <v>0.21</v>
       </c>
       <c r="AR68" t="n">
         <v>1.59</v>
@@ -12569,7 +12569,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ71" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AR71" t="n">
         <v>1.88</v>
@@ -13416,7 +13416,7 @@
         <v>1.25</v>
       </c>
       <c r="AP76" t="n">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AQ76" t="n">
         <v>1.31</v>
@@ -13756,10 +13756,10 @@
         <v>0.25</v>
       </c>
       <c r="AP78" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AQ78" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AR78" t="n">
         <v>1.38</v>
@@ -14436,7 +14436,7 @@
         <v>0.33</v>
       </c>
       <c r="AP82" t="n">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AQ82" t="n">
         <v>0.15</v>
@@ -14606,7 +14606,7 @@
         <v>2</v>
       </c>
       <c r="AP83" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AQ83" t="n">
         <v>1.07</v>
@@ -14949,7 +14949,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ85" t="n">
-        <v>0.23</v>
+        <v>0.21</v>
       </c>
       <c r="AR85" t="n">
         <v>2.24</v>
@@ -15459,7 +15459,7 @@
         <v>0.77</v>
       </c>
       <c r="AQ88" t="n">
-        <v>0.23</v>
+        <v>0.21</v>
       </c>
       <c r="AR88" t="n">
         <v>1.9</v>
@@ -17159,7 +17159,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ98" t="n">
-        <v>0.23</v>
+        <v>0.21</v>
       </c>
       <c r="AR98" t="n">
         <v>1.68</v>
@@ -17326,7 +17326,7 @@
         <v>0.83</v>
       </c>
       <c r="AP99" t="n">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AQ99" t="n">
         <v>0.71</v>
@@ -17499,7 +17499,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ100" t="n">
-        <v>0.23</v>
+        <v>0.21</v>
       </c>
       <c r="AR100" t="n">
         <v>1.25</v>
@@ -17666,7 +17666,7 @@
         <v>0.33</v>
       </c>
       <c r="AP101" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AQ101" t="n">
         <v>0.64</v>
@@ -17839,7 +17839,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ102" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AR102" t="n">
         <v>1.35</v>
@@ -18346,7 +18346,7 @@
         <v>2.67</v>
       </c>
       <c r="AP105" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AQ105" t="n">
         <v>2.29</v>
@@ -18516,7 +18516,7 @@
         <v>1.67</v>
       </c>
       <c r="AP106" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AQ106" t="n">
         <v>1.31</v>
@@ -18689,7 +18689,7 @@
         <v>1.23</v>
       </c>
       <c r="AQ107" t="n">
-        <v>0.23</v>
+        <v>0.21</v>
       </c>
       <c r="AR107" t="n">
         <v>1.28</v>
@@ -19709,7 +19709,7 @@
         <v>1.77</v>
       </c>
       <c r="AQ113" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AR113" t="n">
         <v>1.68</v>
@@ -20556,7 +20556,7 @@
         <v>2.17</v>
       </c>
       <c r="AP118" t="n">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AQ118" t="n">
         <v>1.54</v>
@@ -20899,7 +20899,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ120" t="n">
-        <v>0.23</v>
+        <v>0.21</v>
       </c>
       <c r="AR120" t="n">
         <v>1.78</v>
@@ -21066,7 +21066,7 @@
         <v>0.2</v>
       </c>
       <c r="AP121" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AQ121" t="n">
         <v>0.15</v>
@@ -21409,7 +21409,7 @@
         <v>1.85</v>
       </c>
       <c r="AQ123" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AR123" t="n">
         <v>1.85</v>
@@ -22429,7 +22429,7 @@
         <v>0.77</v>
       </c>
       <c r="AQ129" t="n">
-        <v>0.23</v>
+        <v>0.21</v>
       </c>
       <c r="AR129" t="n">
         <v>2</v>
@@ -23106,7 +23106,7 @@
         <v>1.75</v>
       </c>
       <c r="AP133" t="n">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AQ133" t="n">
         <v>1.31</v>
@@ -23276,7 +23276,7 @@
         <v>1.67</v>
       </c>
       <c r="AP134" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AQ134" t="n">
         <v>1.46</v>
@@ -23616,7 +23616,7 @@
         <v>0.75</v>
       </c>
       <c r="AP136" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AQ136" t="n">
         <v>0.71</v>
@@ -23789,7 +23789,7 @@
         <v>1.77</v>
       </c>
       <c r="AQ137" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AR137" t="n">
         <v>1.53</v>
@@ -24469,7 +24469,7 @@
         <v>1.85</v>
       </c>
       <c r="AQ141" t="n">
-        <v>0.23</v>
+        <v>0.21</v>
       </c>
       <c r="AR141" t="n">
         <v>1.81</v>
@@ -24806,7 +24806,7 @@
         <v>1.2</v>
       </c>
       <c r="AP143" t="n">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AQ143" t="n">
         <v>1.23</v>
@@ -24976,10 +24976,10 @@
         <v>0.25</v>
       </c>
       <c r="AP144" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AQ144" t="n">
-        <v>0.23</v>
+        <v>0.21</v>
       </c>
       <c r="AR144" t="n">
         <v>1.68</v>
@@ -25656,7 +25656,7 @@
         <v>2.56</v>
       </c>
       <c r="AP148" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AQ148" t="n">
         <v>2.29</v>
@@ -25829,7 +25829,7 @@
         <v>1.77</v>
       </c>
       <c r="AQ149" t="n">
-        <v>0.23</v>
+        <v>0.21</v>
       </c>
       <c r="AR149" t="n">
         <v>1.16</v>
@@ -26509,7 +26509,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ153" t="n">
-        <v>0.23</v>
+        <v>0.21</v>
       </c>
       <c r="AR153" t="n">
         <v>1.8</v>
@@ -26846,7 +26846,7 @@
         <v>1.6</v>
       </c>
       <c r="AP155" t="n">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AQ155" t="n">
         <v>1.46</v>
@@ -27186,10 +27186,10 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AP157" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AQ157" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AR157" t="n">
         <v>1.62</v>
@@ -28376,7 +28376,7 @@
         <v>0.5</v>
       </c>
       <c r="AP164" t="n">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AQ164" t="n">
         <v>0.64</v>
@@ -28719,7 +28719,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ166" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AR166" t="n">
         <v>1.87</v>
@@ -29056,7 +29056,7 @@
         <v>0.2</v>
       </c>
       <c r="AP168" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AQ168" t="n">
         <v>0.15</v>
@@ -29229,7 +29229,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ169" t="n">
-        <v>0.23</v>
+        <v>0.21</v>
       </c>
       <c r="AR169" t="n">
         <v>1.38</v>
@@ -29399,7 +29399,7 @@
         <v>1.77</v>
       </c>
       <c r="AQ170" t="n">
-        <v>0.23</v>
+        <v>0.21</v>
       </c>
       <c r="AR170" t="n">
         <v>1.32</v>
@@ -30926,10 +30926,10 @@
         <v>0.18</v>
       </c>
       <c r="AP179" t="n">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AQ179" t="n">
-        <v>0.23</v>
+        <v>0.21</v>
       </c>
       <c r="AR179" t="n">
         <v>1.4</v>
@@ -31436,7 +31436,7 @@
         <v>1.82</v>
       </c>
       <c r="AP182" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AQ182" t="n">
         <v>1.54</v>
@@ -31779,7 +31779,7 @@
         <v>1.23</v>
       </c>
       <c r="AQ184" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AR184" t="n">
         <v>1.21</v>
@@ -32456,10 +32456,10 @@
         <v>0.27</v>
       </c>
       <c r="AP188" t="n">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AQ188" t="n">
-        <v>0.23</v>
+        <v>0.21</v>
       </c>
       <c r="AR188" t="n">
         <v>1.36</v>
@@ -32796,7 +32796,7 @@
         <v>1.36</v>
       </c>
       <c r="AP190" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AQ190" t="n">
         <v>1.43</v>
@@ -33646,7 +33646,7 @@
         <v>1.45</v>
       </c>
       <c r="AP195" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AQ195" t="n">
         <v>1.69</v>
@@ -33819,7 +33819,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ196" t="n">
-        <v>0.23</v>
+        <v>0.21</v>
       </c>
       <c r="AR196" t="n">
         <v>1.75</v>
@@ -34669,7 +34669,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ201" t="n">
-        <v>0.23</v>
+        <v>0.21</v>
       </c>
       <c r="AR201" t="n">
         <v>1.46</v>
@@ -34836,7 +34836,7 @@
         <v>1</v>
       </c>
       <c r="AP202" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AQ202" t="n">
         <v>0.92</v>
@@ -35689,7 +35689,7 @@
         <v>1.77</v>
       </c>
       <c r="AQ207" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AR207" t="n">
         <v>1.45</v>
@@ -36214,7 +36214,7 @@
         <v>6</v>
       </c>
       <c r="AV210" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AW210" t="n">
         <v>5</v>
@@ -36226,7 +36226,7 @@
         <v>11</v>
       </c>
       <c r="AZ210" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="211">
@@ -36381,22 +36381,22 @@
         <v>3.46</v>
       </c>
       <c r="AU211" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV211" t="n">
+        <v>11</v>
+      </c>
+      <c r="AW211" t="n">
         <v>4</v>
-      </c>
-      <c r="AV211" t="n">
-        <v>10</v>
-      </c>
-      <c r="AW211" t="n">
-        <v>7</v>
       </c>
       <c r="AX211" t="n">
         <v>8</v>
       </c>
       <c r="AY211" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AZ211" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="212">
@@ -36551,22 +36551,22 @@
         <v>2.89</v>
       </c>
       <c r="AU212" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV212" t="n">
         <v>7</v>
       </c>
-      <c r="AV212" t="n">
-        <v>8</v>
-      </c>
       <c r="AW212" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AX212" t="n">
         <v>4</v>
       </c>
       <c r="AY212" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AZ212" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="213">
@@ -36727,16 +36727,16 @@
         <v>5</v>
       </c>
       <c r="AW213" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AX213" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AY213" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AZ213" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="214">
@@ -36894,19 +36894,529 @@
         <v>2</v>
       </c>
       <c r="AV214" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW214" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX214" t="n">
+        <v>10</v>
+      </c>
+      <c r="AY214" t="n">
         <v>7</v>
       </c>
-      <c r="AW214" t="n">
+      <c r="AZ214" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="B215" t="n">
+        <v>5845654</v>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>China Chinese Super League</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E215" s="2" t="n">
+        <v>45199.27083333334</v>
+      </c>
+      <c r="F215" t="n">
+        <v>27</v>
+      </c>
+      <c r="G215" t="inlineStr">
+        <is>
+          <t>Beijing Guoan</t>
+        </is>
+      </c>
+      <c r="H215" t="inlineStr">
+        <is>
+          <t>Dalian Yifang</t>
+        </is>
+      </c>
+      <c r="I215" t="n">
+        <v>0</v>
+      </c>
+      <c r="J215" t="n">
+        <v>0</v>
+      </c>
+      <c r="K215" t="n">
+        <v>0</v>
+      </c>
+      <c r="L215" t="n">
+        <v>2</v>
+      </c>
+      <c r="M215" t="n">
+        <v>0</v>
+      </c>
+      <c r="N215" t="n">
+        <v>2</v>
+      </c>
+      <c r="O215" t="inlineStr">
+        <is>
+          <t>['69', '73']</t>
+        </is>
+      </c>
+      <c r="P215" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q215" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="R215" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="S215" t="n">
+        <v>5</v>
+      </c>
+      <c r="T215" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="U215" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="V215" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="W215" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="X215" t="n">
+        <v>5.65</v>
+      </c>
+      <c r="Y215" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="Z215" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AA215" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AB215" t="n">
+        <v>5</v>
+      </c>
+      <c r="AC215" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AD215" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE215" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AF215" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AG215" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AH215" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AI215" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AJ215" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AK215" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AL215" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AM215" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AN215" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AO215" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="AP215" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ215" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="AR215" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AS215" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AT215" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="AU215" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV215" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW215" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX215" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY215" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ215" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="B216" t="n">
+        <v>5845655</v>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>China Chinese Super League</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E216" s="2" t="n">
+        <v>45199.35763888889</v>
+      </c>
+      <c r="F216" t="n">
+        <v>27</v>
+      </c>
+      <c r="G216" t="inlineStr">
+        <is>
+          <t>Zhejiang FC</t>
+        </is>
+      </c>
+      <c r="H216" t="inlineStr">
+        <is>
+          <t>Henan Jianye</t>
+        </is>
+      </c>
+      <c r="I216" t="n">
+        <v>1</v>
+      </c>
+      <c r="J216" t="n">
+        <v>0</v>
+      </c>
+      <c r="K216" t="n">
+        <v>1</v>
+      </c>
+      <c r="L216" t="n">
+        <v>3</v>
+      </c>
+      <c r="M216" t="n">
+        <v>0</v>
+      </c>
+      <c r="N216" t="n">
+        <v>3</v>
+      </c>
+      <c r="O216" t="inlineStr">
+        <is>
+          <t>['44', '71', '87']</t>
+        </is>
+      </c>
+      <c r="P216" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q216" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="R216" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="S216" t="n">
+        <v>4.34</v>
+      </c>
+      <c r="T216" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="U216" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="V216" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="W216" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="X216" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="Y216" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="Z216" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AA216" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AB216" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AC216" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AD216" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE216" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AF216" t="n">
+        <v>4.61</v>
+      </c>
+      <c r="AG216" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AH216" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AI216" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AJ216" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AK216" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AL216" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AM216" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="AN216" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AO216" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AP216" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AQ216" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="AR216" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AS216" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AT216" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="AU216" t="n">
         <v>7</v>
       </c>
-      <c r="AX214" t="n">
-        <v>19</v>
-      </c>
-      <c r="AY214" t="n">
-        <v>9</v>
-      </c>
-      <c r="AZ214" t="n">
-        <v>26</v>
+      <c r="AV216" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW216" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX216" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY216" t="n">
+        <v>14</v>
+      </c>
+      <c r="AZ216" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="B217" t="n">
+        <v>5845656</v>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>China Chinese Super League</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E217" s="2" t="n">
+        <v>45199.35763888889</v>
+      </c>
+      <c r="F217" t="n">
+        <v>27</v>
+      </c>
+      <c r="G217" t="inlineStr">
+        <is>
+          <t>Shanghai Shenhua</t>
+        </is>
+      </c>
+      <c r="H217" t="inlineStr">
+        <is>
+          <t>Qingdao Jonoon</t>
+        </is>
+      </c>
+      <c r="I217" t="n">
+        <v>1</v>
+      </c>
+      <c r="J217" t="n">
+        <v>0</v>
+      </c>
+      <c r="K217" t="n">
+        <v>1</v>
+      </c>
+      <c r="L217" t="n">
+        <v>1</v>
+      </c>
+      <c r="M217" t="n">
+        <v>0</v>
+      </c>
+      <c r="N217" t="n">
+        <v>1</v>
+      </c>
+      <c r="O217" t="inlineStr">
+        <is>
+          <t>['29']</t>
+        </is>
+      </c>
+      <c r="P217" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q217" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="R217" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S217" t="n">
+        <v>5.22</v>
+      </c>
+      <c r="T217" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U217" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="V217" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="W217" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="X217" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="Y217" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Z217" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AA217" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AB217" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AC217" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD217" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AE217" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AF217" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="AG217" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AH217" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AI217" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AJ217" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AK217" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AL217" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AM217" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AN217" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AO217" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="AP217" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ217" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="AR217" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AS217" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AT217" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="AU217" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV217" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW217" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX217" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY217" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ217" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/China Chinese Super League_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/China Chinese Super League_2023.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/Bases_de_Dados_(2022-2024)/China Chinese Super League_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/China Chinese Super League_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP217"/>
+  <dimension ref="A1:BP221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="AP2" t="n">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AQ2" t="n">
         <v>0.64</v>
@@ -2227,7 +2227,7 @@
         <v>2</v>
       </c>
       <c r="AQ8" t="n">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AR8" t="n">
         <v>0</v>
@@ -2663,7 +2663,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ10" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AR10" t="n">
         <v>1.22</v>
@@ -2881,7 +2881,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ11" t="n">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AR11" t="n">
         <v>1.76</v>
@@ -3096,7 +3096,7 @@
         <v>0</v>
       </c>
       <c r="AP12" t="n">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="AQ12" t="n">
         <v>1.54</v>
@@ -3968,7 +3968,7 @@
         <v>0</v>
       </c>
       <c r="AP16" t="n">
-        <v>2.08</v>
+        <v>1.93</v>
       </c>
       <c r="AQ16" t="n">
         <v>0.15</v>
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="AP17" t="n">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AQ17" t="n">
         <v>0.21</v>
@@ -4407,7 +4407,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ18" t="n">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AR18" t="n">
         <v>2.82</v>
@@ -4622,10 +4622,10 @@
         <v>0</v>
       </c>
       <c r="AP19" t="n">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="AQ19" t="n">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AR19" t="n">
         <v>1.1</v>
@@ -4843,7 +4843,7 @@
         <v>1.77</v>
       </c>
       <c r="AQ20" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AR20" t="n">
         <v>0</v>
@@ -5494,7 +5494,7 @@
         <v>1</v>
       </c>
       <c r="AP23" t="n">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AQ23" t="n">
         <v>1.43</v>
@@ -6151,7 +6151,7 @@
         <v>2</v>
       </c>
       <c r="AQ26" t="n">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AR26" t="n">
         <v>1.83</v>
@@ -6369,7 +6369,7 @@
         <v>1.77</v>
       </c>
       <c r="AQ27" t="n">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AR27" t="n">
         <v>0.92</v>
@@ -6802,7 +6802,7 @@
         <v>3</v>
       </c>
       <c r="AP29" t="n">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AQ29" t="n">
         <v>1.31</v>
@@ -7456,7 +7456,7 @@
         <v>3</v>
       </c>
       <c r="AP32" t="n">
-        <v>2.08</v>
+        <v>1.93</v>
       </c>
       <c r="AQ32" t="n">
         <v>1.54</v>
@@ -7674,7 +7674,7 @@
         <v>1</v>
       </c>
       <c r="AP33" t="n">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AQ33" t="n">
         <v>0.71</v>
@@ -7895,7 +7895,7 @@
         <v>1.77</v>
       </c>
       <c r="AQ34" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AR34" t="n">
         <v>0.89</v>
@@ -8549,7 +8549,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ37" t="n">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AR37" t="n">
         <v>1.33</v>
@@ -8764,10 +8764,10 @@
         <v>0.5</v>
       </c>
       <c r="AP38" t="n">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="AQ38" t="n">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AR38" t="n">
         <v>1.32</v>
@@ -9639,7 +9639,7 @@
         <v>1.77</v>
       </c>
       <c r="AQ42" t="n">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AR42" t="n">
         <v>0.98</v>
@@ -9854,7 +9854,7 @@
         <v>1.33</v>
       </c>
       <c r="AP43" t="n">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AQ43" t="n">
         <v>0.92</v>
@@ -10511,7 +10511,7 @@
         <v>0.77</v>
       </c>
       <c r="AQ46" t="n">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AR46" t="n">
         <v>2.21</v>
@@ -10726,7 +10726,7 @@
         <v>0.33</v>
       </c>
       <c r="AP47" t="n">
-        <v>2.08</v>
+        <v>1.93</v>
       </c>
       <c r="AQ47" t="n">
         <v>0.21</v>
@@ -10947,7 +10947,7 @@
         <v>1.85</v>
       </c>
       <c r="AQ48" t="n">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AR48" t="n">
         <v>1.82</v>
@@ -11162,7 +11162,7 @@
         <v>1</v>
       </c>
       <c r="AP49" t="n">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AQ49" t="n">
         <v>0.71</v>
@@ -11383,7 +11383,7 @@
         <v>2</v>
       </c>
       <c r="AQ50" t="n">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AR50" t="n">
         <v>1.37</v>
@@ -12691,7 +12691,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ56" t="n">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AR56" t="n">
         <v>1.11</v>
@@ -13563,7 +13563,7 @@
         <v>1.77</v>
       </c>
       <c r="AQ60" t="n">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AR60" t="n">
         <v>1.42</v>
@@ -13999,7 +13999,7 @@
         <v>2</v>
       </c>
       <c r="AQ62" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AR62" t="n">
         <v>1.38</v>
@@ -14435,7 +14435,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ64" t="n">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AR64" t="n">
         <v>1.39</v>
@@ -14650,7 +14650,7 @@
         <v>2.5</v>
       </c>
       <c r="AP65" t="n">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="AQ65" t="n">
         <v>2.29</v>
@@ -15304,7 +15304,7 @@
         <v>0.25</v>
       </c>
       <c r="AP68" t="n">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AQ68" t="n">
         <v>0.21</v>
@@ -15525,7 +15525,7 @@
         <v>0.77</v>
       </c>
       <c r="AQ69" t="n">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AR69" t="n">
         <v>2.04</v>
@@ -15958,7 +15958,7 @@
         <v>0.33</v>
       </c>
       <c r="AP71" t="n">
-        <v>2.08</v>
+        <v>1.93</v>
       </c>
       <c r="AQ71" t="n">
         <v>0.64</v>
@@ -16176,7 +16176,7 @@
         <v>1.67</v>
       </c>
       <c r="AP72" t="n">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="AQ72" t="n">
         <v>1.31</v>
@@ -16394,10 +16394,10 @@
         <v>1</v>
       </c>
       <c r="AP73" t="n">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AQ73" t="n">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AR73" t="n">
         <v>1.24</v>
@@ -16833,7 +16833,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ75" t="n">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AR75" t="n">
         <v>1.54</v>
@@ -17051,7 +17051,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ76" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AR76" t="n">
         <v>1.15</v>
@@ -17269,7 +17269,7 @@
         <v>1.77</v>
       </c>
       <c r="AQ77" t="n">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AR77" t="n">
         <v>1.45</v>
@@ -17702,7 +17702,7 @@
         <v>1.5</v>
       </c>
       <c r="AP79" t="n">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AQ79" t="n">
         <v>1.31</v>
@@ -18138,7 +18138,7 @@
         <v>2.6</v>
       </c>
       <c r="AP81" t="n">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AQ81" t="n">
         <v>2.29</v>
@@ -18792,7 +18792,7 @@
         <v>1.5</v>
       </c>
       <c r="AP84" t="n">
-        <v>2.08</v>
+        <v>1.93</v>
       </c>
       <c r="AQ84" t="n">
         <v>1.43</v>
@@ -19885,7 +19885,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ89" t="n">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AR89" t="n">
         <v>1.26</v>
@@ -20318,7 +20318,7 @@
         <v>0.25</v>
       </c>
       <c r="AP91" t="n">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AQ91" t="n">
         <v>0.15</v>
@@ -20757,7 +20757,7 @@
         <v>1.77</v>
       </c>
       <c r="AQ93" t="n">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AR93" t="n">
         <v>1.1</v>
@@ -20972,7 +20972,7 @@
         <v>0.4</v>
       </c>
       <c r="AP94" t="n">
-        <v>2.08</v>
+        <v>1.93</v>
       </c>
       <c r="AQ94" t="n">
         <v>0.64</v>
@@ -21193,7 +21193,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ95" t="n">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AR95" t="n">
         <v>1.76</v>
@@ -21408,7 +21408,7 @@
         <v>1</v>
       </c>
       <c r="AP96" t="n">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="AQ96" t="n">
         <v>0.92</v>
@@ -21626,10 +21626,10 @@
         <v>1</v>
       </c>
       <c r="AP97" t="n">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AQ97" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AR97" t="n">
         <v>1.38</v>
@@ -23806,7 +23806,7 @@
         <v>0.14</v>
       </c>
       <c r="AP107" t="n">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AQ107" t="n">
         <v>0.21</v>
@@ -24027,7 +24027,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ108" t="n">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AR108" t="n">
         <v>1.41</v>
@@ -24463,7 +24463,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ110" t="n">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AR110" t="n">
         <v>1.18</v>
@@ -24899,7 +24899,7 @@
         <v>1.85</v>
       </c>
       <c r="AQ112" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AR112" t="n">
         <v>1.75</v>
@@ -25114,7 +25114,7 @@
         <v>0.83</v>
       </c>
       <c r="AP113" t="n">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AQ113" t="n">
         <v>0.64</v>
@@ -25553,7 +25553,7 @@
         <v>1.77</v>
       </c>
       <c r="AQ115" t="n">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AR115" t="n">
         <v>1.14</v>
@@ -25768,7 +25768,7 @@
         <v>2</v>
       </c>
       <c r="AP116" t="n">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="AQ116" t="n">
         <v>1.43</v>
@@ -26640,7 +26640,7 @@
         <v>0.17</v>
       </c>
       <c r="AP120" t="n">
-        <v>2.08</v>
+        <v>1.93</v>
       </c>
       <c r="AQ120" t="n">
         <v>0.21</v>
@@ -27948,10 +27948,10 @@
         <v>1.88</v>
       </c>
       <c r="AP126" t="n">
-        <v>2.08</v>
+        <v>1.93</v>
       </c>
       <c r="AQ126" t="n">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AR126" t="n">
         <v>1.75</v>
@@ -28166,10 +28166,10 @@
         <v>1.29</v>
       </c>
       <c r="AP127" t="n">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="AQ127" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AR127" t="n">
         <v>1.22</v>
@@ -28384,10 +28384,10 @@
         <v>1.13</v>
       </c>
       <c r="AP128" t="n">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AQ128" t="n">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AR128" t="n">
         <v>1.64</v>
@@ -29038,7 +29038,7 @@
         <v>1.25</v>
       </c>
       <c r="AP131" t="n">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AQ131" t="n">
         <v>1.07</v>
@@ -29259,7 +29259,7 @@
         <v>0.77</v>
       </c>
       <c r="AQ132" t="n">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AR132" t="n">
         <v>1.89</v>
@@ -29695,7 +29695,7 @@
         <v>2</v>
       </c>
       <c r="AQ134" t="n">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AR134" t="n">
         <v>1.76</v>
@@ -30564,7 +30564,7 @@
         <v>1.29</v>
       </c>
       <c r="AP138" t="n">
-        <v>2.08</v>
+        <v>1.93</v>
       </c>
       <c r="AQ138" t="n">
         <v>0.92</v>
@@ -31436,7 +31436,7 @@
         <v>2</v>
       </c>
       <c r="AP142" t="n">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AQ142" t="n">
         <v>1.54</v>
@@ -31657,7 +31657,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ143" t="n">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AR143" t="n">
         <v>1.38</v>
@@ -32529,7 +32529,7 @@
         <v>1.85</v>
       </c>
       <c r="AQ147" t="n">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AR147" t="n">
         <v>1.76</v>
@@ -32962,7 +32962,7 @@
         <v>0.33</v>
       </c>
       <c r="AP149" t="n">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="AQ149" t="n">
         <v>0.21</v>
@@ -33619,7 +33619,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ152" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AR152" t="n">
         <v>1.71</v>
@@ -34052,7 +34052,7 @@
         <v>1.56</v>
       </c>
       <c r="AP154" t="n">
-        <v>2.08</v>
+        <v>1.93</v>
       </c>
       <c r="AQ154" t="n">
         <v>1.31</v>
@@ -34273,7 +34273,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ155" t="n">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AR155" t="n">
         <v>1.36</v>
@@ -34924,7 +34924,7 @@
         <v>0.44</v>
       </c>
       <c r="AP158" t="n">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AQ158" t="n">
         <v>0.64</v>
@@ -35360,7 +35360,7 @@
         <v>1.89</v>
       </c>
       <c r="AP160" t="n">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AQ160" t="n">
         <v>1.54</v>
@@ -35796,7 +35796,7 @@
         <v>1.2</v>
       </c>
       <c r="AP162" t="n">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="AQ162" t="n">
         <v>1.07</v>
@@ -36889,7 +36889,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ167" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AR167" t="n">
         <v>1.4</v>
@@ -37540,7 +37540,7 @@
         <v>0.2</v>
       </c>
       <c r="AP170" t="n">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="AQ170" t="n">
         <v>0.21</v>
@@ -37758,7 +37758,7 @@
         <v>1.5</v>
       </c>
       <c r="AP171" t="n">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AQ171" t="n">
         <v>1.43</v>
@@ -37976,10 +37976,10 @@
         <v>1.3</v>
       </c>
       <c r="AP172" t="n">
-        <v>2.08</v>
+        <v>1.93</v>
       </c>
       <c r="AQ172" t="n">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AR172" t="n">
         <v>1.75</v>
@@ -38848,7 +38848,7 @@
         <v>0.18</v>
       </c>
       <c r="AP176" t="n">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AQ176" t="n">
         <v>0.15</v>
@@ -39069,7 +39069,7 @@
         <v>0.77</v>
       </c>
       <c r="AQ177" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AR177" t="n">
         <v>1.79</v>
@@ -39284,7 +39284,7 @@
         <v>0.55</v>
       </c>
       <c r="AP178" t="n">
-        <v>2.08</v>
+        <v>1.93</v>
       </c>
       <c r="AQ178" t="n">
         <v>0.71</v>
@@ -40377,7 +40377,7 @@
         <v>1.85</v>
       </c>
       <c r="AQ183" t="n">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AR183" t="n">
         <v>1.76</v>
@@ -40592,7 +40592,7 @@
         <v>0.45</v>
       </c>
       <c r="AP184" t="n">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AQ184" t="n">
         <v>0.64</v>
@@ -40810,7 +40810,7 @@
         <v>1.2</v>
       </c>
       <c r="AP185" t="n">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AQ185" t="n">
         <v>0.92</v>
@@ -41249,7 +41249,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ187" t="n">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AR187" t="n">
         <v>1.13</v>
@@ -42339,7 +42339,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ192" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AR192" t="n">
         <v>1.39</v>
@@ -42772,7 +42772,7 @@
         <v>1</v>
       </c>
       <c r="AP194" t="n">
-        <v>2.08</v>
+        <v>1.93</v>
       </c>
       <c r="AQ194" t="n">
         <v>1.07</v>
@@ -42993,7 +42993,7 @@
         <v>2</v>
       </c>
       <c r="AQ195" t="n">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AR195" t="n">
         <v>1.55</v>
@@ -43862,7 +43862,7 @@
         <v>0.17</v>
       </c>
       <c r="AP199" t="n">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="AQ199" t="n">
         <v>0.15</v>
@@ -44734,10 +44734,10 @@
         <v>1.33</v>
       </c>
       <c r="AP203" t="n">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AQ203" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AR203" t="n">
         <v>1.44</v>
@@ -44952,10 +44952,10 @@
         <v>1.25</v>
       </c>
       <c r="AP204" t="n">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AQ204" t="n">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AR204" t="n">
         <v>1.23</v>
@@ -45606,7 +45606,7 @@
         <v>0.67</v>
       </c>
       <c r="AP207" t="n">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="AQ207" t="n">
         <v>0.64</v>
@@ -45827,7 +45827,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ208" t="n">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AR208" t="n">
         <v>1.13</v>
@@ -46481,7 +46481,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ211" t="n">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AR211" t="n">
         <v>1.77</v>
@@ -47865,6 +47865,878 @@
       </c>
       <c r="BP217" t="n">
         <v>1.09</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B218" t="n">
+        <v>5845659</v>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>China Chinese Super League</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E218" s="2" t="n">
+        <v>45218.35763888889</v>
+      </c>
+      <c r="F218" t="n">
+        <v>28</v>
+      </c>
+      <c r="G218" t="inlineStr">
+        <is>
+          <t>Meizhou Hakka</t>
+        </is>
+      </c>
+      <c r="H218" t="inlineStr">
+        <is>
+          <t>Zhejiang FC</t>
+        </is>
+      </c>
+      <c r="I218" t="n">
+        <v>1</v>
+      </c>
+      <c r="J218" t="n">
+        <v>0</v>
+      </c>
+      <c r="K218" t="n">
+        <v>1</v>
+      </c>
+      <c r="L218" t="n">
+        <v>1</v>
+      </c>
+      <c r="M218" t="n">
+        <v>1</v>
+      </c>
+      <c r="N218" t="n">
+        <v>2</v>
+      </c>
+      <c r="O218" t="inlineStr">
+        <is>
+          <t>['45+2']</t>
+        </is>
+      </c>
+      <c r="P218" t="inlineStr">
+        <is>
+          <t>['90+8']</t>
+        </is>
+      </c>
+      <c r="Q218" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="R218" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="S218" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="T218" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="U218" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="V218" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W218" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X218" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y218" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="Z218" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AA218" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AB218" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AC218" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD218" t="n">
+        <v>15.25</v>
+      </c>
+      <c r="AE218" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AF218" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="AG218" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AH218" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AI218" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AJ218" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AK218" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AL218" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AM218" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AN218" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AO218" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AP218" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AQ218" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AR218" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AS218" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AT218" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="AU218" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV218" t="n">
+        <v>11</v>
+      </c>
+      <c r="AW218" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX218" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY218" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ218" t="n">
+        <v>17</v>
+      </c>
+      <c r="BA218" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB218" t="n">
+        <v>8</v>
+      </c>
+      <c r="BC218" t="n">
+        <v>14</v>
+      </c>
+      <c r="BD218" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BE218" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF218" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BG218" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BH218" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BI218" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BJ218" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BK218" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BL218" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BM218" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="BN218" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BO218" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BP218" t="n">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="B219" t="n">
+        <v>5845657</v>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>China Chinese Super League</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E219" s="2" t="n">
+        <v>45219.1875</v>
+      </c>
+      <c r="F219" t="n">
+        <v>28</v>
+      </c>
+      <c r="G219" t="inlineStr">
+        <is>
+          <t>Changchun Yatai</t>
+        </is>
+      </c>
+      <c r="H219" t="inlineStr">
+        <is>
+          <t>Shandong Luneng</t>
+        </is>
+      </c>
+      <c r="I219" t="n">
+        <v>0</v>
+      </c>
+      <c r="J219" t="n">
+        <v>3</v>
+      </c>
+      <c r="K219" t="n">
+        <v>3</v>
+      </c>
+      <c r="L219" t="n">
+        <v>0</v>
+      </c>
+      <c r="M219" t="n">
+        <v>3</v>
+      </c>
+      <c r="N219" t="n">
+        <v>3</v>
+      </c>
+      <c r="O219" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P219" t="inlineStr">
+        <is>
+          <t>['27', '37', '45+4']</t>
+        </is>
+      </c>
+      <c r="Q219" t="n">
+        <v>5</v>
+      </c>
+      <c r="R219" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S219" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="T219" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="U219" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="V219" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="W219" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="X219" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y219" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="Z219" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="AA219" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AB219" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AC219" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD219" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE219" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AF219" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="AG219" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AH219" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AI219" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AJ219" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AK219" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AL219" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AM219" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AN219" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AO219" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AP219" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AQ219" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AR219" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AS219" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AT219" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="AU219" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV219" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW219" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX219" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY219" t="n">
+        <v>5</v>
+      </c>
+      <c r="AZ219" t="n">
+        <v>6</v>
+      </c>
+      <c r="BA219" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB219" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC219" t="n">
+        <v>3</v>
+      </c>
+      <c r="BD219" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="BE219" t="n">
+        <v>9</v>
+      </c>
+      <c r="BF219" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BG219" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BH219" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BI219" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BJ219" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="BK219" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="BL219" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BM219" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="BN219" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BO219" t="n">
+        <v>4</v>
+      </c>
+      <c r="BP219" t="n">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="B220" t="n">
+        <v>5845658</v>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>China Chinese Super League</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E220" s="2" t="n">
+        <v>45219.1875</v>
+      </c>
+      <c r="F220" t="n">
+        <v>28</v>
+      </c>
+      <c r="G220" t="inlineStr">
+        <is>
+          <t>Dalian Yifang</t>
+        </is>
+      </c>
+      <c r="H220" t="inlineStr">
+        <is>
+          <t>Wuhan Three Towns</t>
+        </is>
+      </c>
+      <c r="I220" t="n">
+        <v>1</v>
+      </c>
+      <c r="J220" t="n">
+        <v>2</v>
+      </c>
+      <c r="K220" t="n">
+        <v>3</v>
+      </c>
+      <c r="L220" t="n">
+        <v>1</v>
+      </c>
+      <c r="M220" t="n">
+        <v>3</v>
+      </c>
+      <c r="N220" t="n">
+        <v>4</v>
+      </c>
+      <c r="O220" t="inlineStr">
+        <is>
+          <t>['42']</t>
+        </is>
+      </c>
+      <c r="P220" t="inlineStr">
+        <is>
+          <t>['23', '31', '71']</t>
+        </is>
+      </c>
+      <c r="Q220" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="R220" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="S220" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="T220" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="U220" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="V220" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="W220" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X220" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Y220" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="Z220" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA220" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AB220" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="AC220" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD220" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE220" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AF220" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="AG220" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AH220" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AI220" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AJ220" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AK220" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AL220" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AM220" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AN220" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AO220" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AP220" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AQ220" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AR220" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AS220" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AT220" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="AU220" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV220" t="n">
+        <v>7</v>
+      </c>
+      <c r="AW220" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX220" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY220" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ220" t="n">
+        <v>13</v>
+      </c>
+      <c r="BA220" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB220" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC220" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD220" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BE220" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BF220" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG220" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BH220" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BI220" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="BJ220" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BK220" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="BL220" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BM220" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="BN220" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BO220" t="n">
+        <v>4</v>
+      </c>
+      <c r="BP220" t="n">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="B221" t="n">
+        <v>5845660</v>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>China Chinese Super League</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E221" s="2" t="n">
+        <v>45219.35763888889</v>
+      </c>
+      <c r="F221" t="n">
+        <v>28</v>
+      </c>
+      <c r="G221" t="inlineStr">
+        <is>
+          <t>Shanghai SIPG</t>
+        </is>
+      </c>
+      <c r="H221" t="inlineStr">
+        <is>
+          <t>Beijing Guoan</t>
+        </is>
+      </c>
+      <c r="I221" t="n">
+        <v>0</v>
+      </c>
+      <c r="J221" t="n">
+        <v>1</v>
+      </c>
+      <c r="K221" t="n">
+        <v>1</v>
+      </c>
+      <c r="L221" t="n">
+        <v>1</v>
+      </c>
+      <c r="M221" t="n">
+        <v>2</v>
+      </c>
+      <c r="N221" t="n">
+        <v>3</v>
+      </c>
+      <c r="O221" t="inlineStr">
+        <is>
+          <t>['89']</t>
+        </is>
+      </c>
+      <c r="P221" t="inlineStr">
+        <is>
+          <t>['24', '54']</t>
+        </is>
+      </c>
+      <c r="Q221" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="R221" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="S221" t="n">
+        <v>6</v>
+      </c>
+      <c r="T221" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="U221" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="V221" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="W221" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="X221" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y221" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="Z221" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AA221" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="AB221" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AC221" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AD221" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE221" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AF221" t="n">
+        <v>4.95</v>
+      </c>
+      <c r="AG221" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AH221" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AI221" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AJ221" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AK221" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AL221" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AM221" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AN221" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AO221" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AP221" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AQ221" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AR221" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AS221" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AT221" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="AU221" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV221" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW221" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX221" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY221" t="n">
+        <v>14</v>
+      </c>
+      <c r="AZ221" t="n">
+        <v>8</v>
+      </c>
+      <c r="BA221" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB221" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC221" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD221" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BE221" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF221" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG221" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BH221" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI221" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BJ221" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BK221" t="n">
+        <v>2</v>
+      </c>
+      <c r="BL221" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="BM221" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BN221" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BO221" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BP221" t="n">
+        <v>1.25</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/China Chinese Super League_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/China Chinese Super League_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP221"/>
+  <dimension ref="A1:BP224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1788,7 +1788,7 @@
         <v>0</v>
       </c>
       <c r="AP6" t="n">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AQ6" t="n">
         <v>1.43</v>
@@ -2009,7 +2009,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ7" t="n">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AR7" t="n">
         <v>0</v>
@@ -3099,7 +3099,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ12" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AR12" t="n">
         <v>0</v>
@@ -3532,7 +3532,7 @@
         <v>0</v>
       </c>
       <c r="AP14" t="n">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AQ14" t="n">
         <v>0.21</v>
@@ -3753,7 +3753,7 @@
         <v>1.85</v>
       </c>
       <c r="AQ15" t="n">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AR15" t="n">
         <v>0</v>
@@ -4840,7 +4840,7 @@
         <v>1</v>
       </c>
       <c r="AP20" t="n">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AQ20" t="n">
         <v>1.43</v>
@@ -5715,7 +5715,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ24" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AR24" t="n">
         <v>0.62</v>
@@ -5930,7 +5930,7 @@
         <v>0</v>
       </c>
       <c r="AP25" t="n">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AQ25" t="n">
         <v>0.64</v>
@@ -6366,7 +6366,7 @@
         <v>3</v>
       </c>
       <c r="AP27" t="n">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AQ27" t="n">
         <v>1.57</v>
@@ -6805,7 +6805,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ29" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AR29" t="n">
         <v>1.36</v>
@@ -7459,7 +7459,7 @@
         <v>1.93</v>
       </c>
       <c r="AQ32" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AR32" t="n">
         <v>1.62</v>
@@ -7892,7 +7892,7 @@
         <v>0.5</v>
       </c>
       <c r="AP34" t="n">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AQ34" t="n">
         <v>1.43</v>
@@ -8331,7 +8331,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ36" t="n">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AR36" t="n">
         <v>1.06</v>
@@ -9418,7 +9418,7 @@
         <v>1.5</v>
       </c>
       <c r="AP41" t="n">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AQ41" t="n">
         <v>1.07</v>
@@ -9636,7 +9636,7 @@
         <v>3</v>
       </c>
       <c r="AP42" t="n">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AQ42" t="n">
         <v>1.57</v>
@@ -9857,7 +9857,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ43" t="n">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AR43" t="n">
         <v>1.14</v>
@@ -10075,7 +10075,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ44" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AR44" t="n">
         <v>1.06</v>
@@ -10293,7 +10293,7 @@
         <v>2</v>
       </c>
       <c r="AQ45" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AR45" t="n">
         <v>1.29</v>
@@ -10508,7 +10508,7 @@
         <v>0.33</v>
       </c>
       <c r="AP46" t="n">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AQ46" t="n">
         <v>1.64</v>
@@ -11816,7 +11816,7 @@
         <v>1.67</v>
       </c>
       <c r="AP52" t="n">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AQ52" t="n">
         <v>0.71</v>
@@ -13342,7 +13342,7 @@
         <v>0</v>
       </c>
       <c r="AP59" t="n">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AQ59" t="n">
         <v>0.15</v>
@@ -13560,7 +13560,7 @@
         <v>1</v>
       </c>
       <c r="AP60" t="n">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AQ60" t="n">
         <v>1.64</v>
@@ -14214,7 +14214,7 @@
         <v>0</v>
       </c>
       <c r="AP63" t="n">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AQ63" t="n">
         <v>0.21</v>
@@ -14871,7 +14871,7 @@
         <v>1.85</v>
       </c>
       <c r="AQ66" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AR66" t="n">
         <v>1.88</v>
@@ -15089,7 +15089,7 @@
         <v>2</v>
       </c>
       <c r="AQ67" t="n">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AR67" t="n">
         <v>1.56</v>
@@ -15522,7 +15522,7 @@
         <v>2</v>
       </c>
       <c r="AP69" t="n">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AQ69" t="n">
         <v>1.57</v>
@@ -16179,7 +16179,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ72" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AR72" t="n">
         <v>1.13</v>
@@ -17266,7 +17266,7 @@
         <v>0.67</v>
       </c>
       <c r="AP77" t="n">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AQ77" t="n">
         <v>1.36</v>
@@ -17705,7 +17705,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ79" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AR79" t="n">
         <v>1.38</v>
@@ -19228,7 +19228,7 @@
         <v>1</v>
       </c>
       <c r="AP86" t="n">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AQ86" t="n">
         <v>0.71</v>
@@ -19449,7 +19449,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ87" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AR87" t="n">
         <v>1.53</v>
@@ -19664,7 +19664,7 @@
         <v>0.2</v>
       </c>
       <c r="AP88" t="n">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AQ88" t="n">
         <v>0.21</v>
@@ -20100,10 +20100,10 @@
         <v>2</v>
       </c>
       <c r="AP90" t="n">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AQ90" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AR90" t="n">
         <v>1.41</v>
@@ -20539,7 +20539,7 @@
         <v>1.85</v>
       </c>
       <c r="AQ92" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AR92" t="n">
         <v>1.73</v>
@@ -20754,7 +20754,7 @@
         <v>1.33</v>
       </c>
       <c r="AP93" t="n">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AQ93" t="n">
         <v>1.64</v>
@@ -21411,7 +21411,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ96" t="n">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AR96" t="n">
         <v>1.2</v>
@@ -23591,7 +23591,7 @@
         <v>2</v>
       </c>
       <c r="AQ106" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AR106" t="n">
         <v>1.52</v>
@@ -24242,7 +24242,7 @@
         <v>0.71</v>
       </c>
       <c r="AP109" t="n">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AQ109" t="n">
         <v>0.71</v>
@@ -25550,7 +25550,7 @@
         <v>1</v>
       </c>
       <c r="AP115" t="n">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AQ115" t="n">
         <v>1.36</v>
@@ -25986,10 +25986,10 @@
         <v>1.33</v>
       </c>
       <c r="AP117" t="n">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AQ117" t="n">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AR117" t="n">
         <v>1.51</v>
@@ -26207,7 +26207,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ118" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AR118" t="n">
         <v>1.4</v>
@@ -27079,7 +27079,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ122" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AR122" t="n">
         <v>1.8</v>
@@ -27515,7 +27515,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ124" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AR124" t="n">
         <v>1.44</v>
@@ -27730,7 +27730,7 @@
         <v>0.17</v>
       </c>
       <c r="AP125" t="n">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AQ125" t="n">
         <v>0.15</v>
@@ -28602,7 +28602,7 @@
         <v>0.29</v>
       </c>
       <c r="AP129" t="n">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AQ129" t="n">
         <v>0.21</v>
@@ -29256,7 +29256,7 @@
         <v>1.22</v>
       </c>
       <c r="AP132" t="n">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AQ132" t="n">
         <v>1.36</v>
@@ -29477,7 +29477,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ133" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AR133" t="n">
         <v>1.37</v>
@@ -30346,7 +30346,7 @@
         <v>0.63</v>
       </c>
       <c r="AP137" t="n">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AQ137" t="n">
         <v>0.64</v>
@@ -30567,7 +30567,7 @@
         <v>1.93</v>
       </c>
       <c r="AQ138" t="n">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AR138" t="n">
         <v>1.7</v>
@@ -30782,7 +30782,7 @@
         <v>0.38</v>
       </c>
       <c r="AP139" t="n">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AQ139" t="n">
         <v>0.64</v>
@@ -31439,7 +31439,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ142" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AR142" t="n">
         <v>1.59</v>
@@ -32308,7 +32308,7 @@
         <v>0.25</v>
       </c>
       <c r="AP146" t="n">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AQ146" t="n">
         <v>0.15</v>
@@ -33398,10 +33398,10 @@
         <v>1.13</v>
       </c>
       <c r="AP151" t="n">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AQ151" t="n">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AR151" t="n">
         <v>1.79</v>
@@ -34055,7 +34055,7 @@
         <v>1.93</v>
       </c>
       <c r="AQ154" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AR154" t="n">
         <v>1.75</v>
@@ -35142,7 +35142,7 @@
         <v>1.5</v>
       </c>
       <c r="AP159" t="n">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AQ159" t="n">
         <v>1.43</v>
@@ -35363,7 +35363,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ160" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AR160" t="n">
         <v>1.19</v>
@@ -36014,7 +36014,7 @@
         <v>2.6</v>
       </c>
       <c r="AP163" t="n">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AQ163" t="n">
         <v>2.29</v>
@@ -38197,7 +38197,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ173" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AR173" t="n">
         <v>1.85</v>
@@ -38415,7 +38415,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ174" t="n">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AR174" t="n">
         <v>1.72</v>
@@ -38630,10 +38630,10 @@
         <v>1.4</v>
       </c>
       <c r="AP175" t="n">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AQ175" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AR175" t="n">
         <v>1.19</v>
@@ -39066,7 +39066,7 @@
         <v>1</v>
       </c>
       <c r="AP177" t="n">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AQ177" t="n">
         <v>1.43</v>
@@ -39723,7 +39723,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ180" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AR180" t="n">
         <v>1.74</v>
@@ -40159,7 +40159,7 @@
         <v>2</v>
       </c>
       <c r="AQ182" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AR182" t="n">
         <v>1.59</v>
@@ -40813,7 +40813,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ185" t="n">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AR185" t="n">
         <v>1.38</v>
@@ -41028,7 +41028,7 @@
         <v>2.64</v>
       </c>
       <c r="AP186" t="n">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AQ186" t="n">
         <v>2.29</v>
@@ -42118,7 +42118,7 @@
         <v>1.09</v>
       </c>
       <c r="AP191" t="n">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AQ191" t="n">
         <v>1.07</v>
@@ -43429,7 +43429,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ197" t="n">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AR197" t="n">
         <v>1.81</v>
@@ -43644,10 +43644,10 @@
         <v>1.67</v>
       </c>
       <c r="AP198" t="n">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AQ198" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AR198" t="n">
         <v>1.18</v>
@@ -44080,7 +44080,7 @@
         <v>1.33</v>
       </c>
       <c r="AP200" t="n">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AQ200" t="n">
         <v>1.43</v>
@@ -44519,7 +44519,7 @@
         <v>2</v>
       </c>
       <c r="AQ202" t="n">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AR202" t="n">
         <v>1.47</v>
@@ -45391,7 +45391,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ206" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AR206" t="n">
         <v>1.78</v>
@@ -46042,7 +46042,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AP209" t="n">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AQ209" t="n">
         <v>0.64</v>
@@ -47132,7 +47132,7 @@
         <v>2.23</v>
       </c>
       <c r="AP214" t="n">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AQ214" t="n">
         <v>2.29</v>
@@ -48736,6 +48736,660 @@
         <v>3.5</v>
       </c>
       <c r="BP221" t="n">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="B222" t="n">
+        <v>5845661</v>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>China Chinese Super League</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E222" s="2" t="n">
+        <v>45220.1875</v>
+      </c>
+      <c r="F222" t="n">
+        <v>28</v>
+      </c>
+      <c r="G222" t="inlineStr">
+        <is>
+          <t>Henan Jianye</t>
+        </is>
+      </c>
+      <c r="H222" t="inlineStr">
+        <is>
+          <t>Shijiazhuang Ever Bright</t>
+        </is>
+      </c>
+      <c r="I222" t="n">
+        <v>3</v>
+      </c>
+      <c r="J222" t="n">
+        <v>0</v>
+      </c>
+      <c r="K222" t="n">
+        <v>3</v>
+      </c>
+      <c r="L222" t="n">
+        <v>6</v>
+      </c>
+      <c r="M222" t="n">
+        <v>0</v>
+      </c>
+      <c r="N222" t="n">
+        <v>6</v>
+      </c>
+      <c r="O222" t="inlineStr">
+        <is>
+          <t>['6', '14', '44', '67', '76', '85']</t>
+        </is>
+      </c>
+      <c r="P222" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q222" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="R222" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="S222" t="n">
+        <v>5.09</v>
+      </c>
+      <c r="T222" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="U222" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="V222" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="W222" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="X222" t="n">
+        <v>5.95</v>
+      </c>
+      <c r="Y222" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Z222" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AA222" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AB222" t="n">
+        <v>4.94</v>
+      </c>
+      <c r="AC222" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD222" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE222" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AF222" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AG222" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AH222" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="AI222" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AJ222" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK222" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AL222" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AM222" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AN222" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AO222" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AP222" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AQ222" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AR222" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AS222" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AT222" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="AU222" t="n">
+        <v>10</v>
+      </c>
+      <c r="AV222" t="n">
+        <v>9</v>
+      </c>
+      <c r="AW222" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX222" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY222" t="n">
+        <v>14</v>
+      </c>
+      <c r="AZ222" t="n">
+        <v>15</v>
+      </c>
+      <c r="BA222" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB222" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC222" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD222" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BE222" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF222" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="BG222" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BH222" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="BI222" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="BJ222" t="n">
+        <v>2</v>
+      </c>
+      <c r="BK222" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="BL222" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="BM222" t="n">
+        <v>3</v>
+      </c>
+      <c r="BN222" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BO222" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BP222" t="n">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="n">
+        <v>222</v>
+      </c>
+      <c r="B223" t="n">
+        <v>5845662</v>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>China Chinese Super League</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E223" s="2" t="n">
+        <v>45220.35763888889</v>
+      </c>
+      <c r="F223" t="n">
+        <v>28</v>
+      </c>
+      <c r="G223" t="inlineStr">
+        <is>
+          <t>Nantong Zhiyun</t>
+        </is>
+      </c>
+      <c r="H223" t="inlineStr">
+        <is>
+          <t>Shanghai Shenhua</t>
+        </is>
+      </c>
+      <c r="I223" t="n">
+        <v>0</v>
+      </c>
+      <c r="J223" t="n">
+        <v>1</v>
+      </c>
+      <c r="K223" t="n">
+        <v>1</v>
+      </c>
+      <c r="L223" t="n">
+        <v>0</v>
+      </c>
+      <c r="M223" t="n">
+        <v>1</v>
+      </c>
+      <c r="N223" t="n">
+        <v>1</v>
+      </c>
+      <c r="O223" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P223" t="inlineStr">
+        <is>
+          <t>['37']</t>
+        </is>
+      </c>
+      <c r="Q223" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="R223" t="n">
+        <v>2</v>
+      </c>
+      <c r="S223" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="T223" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="U223" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V223" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W223" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X223" t="n">
+        <v>8.449999999999999</v>
+      </c>
+      <c r="Y223" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="Z223" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AA223" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB223" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AC223" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AD223" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AE223" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AF223" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AG223" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="AH223" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AI223" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AJ223" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK223" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AL223" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM223" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AN223" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="AO223" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AP223" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AQ223" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AR223" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AS223" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AT223" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AU223" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV223" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW223" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX223" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY223" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ223" t="n">
+        <v>7</v>
+      </c>
+      <c r="BA223" t="n">
+        <v>10</v>
+      </c>
+      <c r="BB223" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC223" t="n">
+        <v>13</v>
+      </c>
+      <c r="BD223" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BE223" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BF223" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BG223" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BH223" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="BI223" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BJ223" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="BK223" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="BL223" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="BM223" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="BN223" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BO223" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="BP223" t="n">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="1" t="n">
+        <v>223</v>
+      </c>
+      <c r="B224" t="n">
+        <v>5845663</v>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>China Chinese Super League</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E224" s="2" t="n">
+        <v>45221.1875</v>
+      </c>
+      <c r="F224" t="n">
+        <v>28</v>
+      </c>
+      <c r="G224" t="inlineStr">
+        <is>
+          <t>Qingdao Jonoon</t>
+        </is>
+      </c>
+      <c r="H224" t="inlineStr">
+        <is>
+          <t>Tianjin Teda</t>
+        </is>
+      </c>
+      <c r="I224" t="n">
+        <v>0</v>
+      </c>
+      <c r="J224" t="n">
+        <v>2</v>
+      </c>
+      <c r="K224" t="n">
+        <v>2</v>
+      </c>
+      <c r="L224" t="n">
+        <v>1</v>
+      </c>
+      <c r="M224" t="n">
+        <v>4</v>
+      </c>
+      <c r="N224" t="n">
+        <v>5</v>
+      </c>
+      <c r="O224" t="inlineStr">
+        <is>
+          <t>['51']</t>
+        </is>
+      </c>
+      <c r="P224" t="inlineStr">
+        <is>
+          <t>['14', '36', '53', '84']</t>
+        </is>
+      </c>
+      <c r="Q224" t="n">
+        <v>3</v>
+      </c>
+      <c r="R224" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S224" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="T224" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U224" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V224" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W224" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X224" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y224" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Z224" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="AA224" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="AB224" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="AC224" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AD224" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AE224" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AF224" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AG224" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AH224" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AI224" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AJ224" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AK224" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AL224" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM224" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AN224" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AO224" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AP224" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AQ224" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AR224" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AS224" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AT224" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AU224" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV224" t="n">
+        <v>10</v>
+      </c>
+      <c r="AW224" t="n">
+        <v>9</v>
+      </c>
+      <c r="AX224" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY224" t="n">
+        <v>16</v>
+      </c>
+      <c r="AZ224" t="n">
+        <v>14</v>
+      </c>
+      <c r="BA224" t="n">
+        <v>8</v>
+      </c>
+      <c r="BB224" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC224" t="n">
+        <v>15</v>
+      </c>
+      <c r="BD224" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BE224" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BF224" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BG224" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BH224" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BI224" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BJ224" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="BK224" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BL224" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BM224" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BN224" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BO224" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="BP224" t="n">
         <v>1.25</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2024)/China Chinese Super League_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/China Chinese Super League_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP224"/>
+  <dimension ref="A1:BP225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3750,7 +3750,7 @@
         <v>1</v>
       </c>
       <c r="AP15" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AQ15" t="n">
         <v>0.86</v>
@@ -3971,7 +3971,7 @@
         <v>1.93</v>
       </c>
       <c r="AQ16" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="AR16" t="n">
         <v>0</v>
@@ -8982,7 +8982,7 @@
         <v>0.5</v>
       </c>
       <c r="AP39" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AQ39" t="n">
         <v>0.21</v>
@@ -10944,7 +10944,7 @@
         <v>0.33</v>
       </c>
       <c r="AP48" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AQ48" t="n">
         <v>1.36</v>
@@ -12034,7 +12034,7 @@
         <v>2</v>
       </c>
       <c r="AP53" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AQ53" t="n">
         <v>1.07</v>
@@ -13345,7 +13345,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ59" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="AR59" t="n">
         <v>1.91</v>
@@ -14868,7 +14868,7 @@
         <v>2.33</v>
       </c>
       <c r="AP66" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AQ66" t="n">
         <v>1.64</v>
@@ -15743,7 +15743,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ70" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="AR70" t="n">
         <v>2.23</v>
@@ -16612,7 +16612,7 @@
         <v>0.5</v>
       </c>
       <c r="AP74" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AQ74" t="n">
         <v>0.64</v>
@@ -18359,7 +18359,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ82" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="AR82" t="n">
         <v>1.28</v>
@@ -20321,7 +20321,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ91" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="AR91" t="n">
         <v>1.5</v>
@@ -20536,7 +20536,7 @@
         <v>1.8</v>
       </c>
       <c r="AP92" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AQ92" t="n">
         <v>1.43</v>
@@ -24896,7 +24896,7 @@
         <v>1</v>
       </c>
       <c r="AP112" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AQ112" t="n">
         <v>1.43</v>
@@ -26861,7 +26861,7 @@
         <v>2</v>
       </c>
       <c r="AQ121" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="AR121" t="n">
         <v>1.65</v>
@@ -27294,7 +27294,7 @@
         <v>0.71</v>
       </c>
       <c r="AP123" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AQ123" t="n">
         <v>0.64</v>
@@ -27733,7 +27733,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ125" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="AR125" t="n">
         <v>1.47</v>
@@ -31003,7 +31003,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ140" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="AR140" t="n">
         <v>1.29</v>
@@ -31218,7 +31218,7 @@
         <v>0.38</v>
       </c>
       <c r="AP141" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AQ141" t="n">
         <v>0.21</v>
@@ -32311,7 +32311,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ146" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="AR146" t="n">
         <v>1.13</v>
@@ -32526,7 +32526,7 @@
         <v>1.11</v>
       </c>
       <c r="AP147" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AQ147" t="n">
         <v>1.64</v>
@@ -35581,7 +35581,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ161" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="AR161" t="n">
         <v>1.36</v>
@@ -37107,7 +37107,7 @@
         <v>2</v>
       </c>
       <c r="AQ168" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="AR168" t="n">
         <v>1.46</v>
@@ -38851,7 +38851,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ176" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="AR176" t="n">
         <v>1.17</v>
@@ -40374,7 +40374,7 @@
         <v>1.45</v>
       </c>
       <c r="AP183" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AQ183" t="n">
         <v>1.57</v>
@@ -43865,7 +43865,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ199" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="AR199" t="n">
         <v>1.32</v>
@@ -45170,7 +45170,7 @@
         <v>2.42</v>
       </c>
       <c r="AP205" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AQ205" t="n">
         <v>2.29</v>
@@ -49391,6 +49391,224 @@
       </c>
       <c r="BP224" t="n">
         <v>1.25</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="1" t="n">
+        <v>224</v>
+      </c>
+      <c r="B225" t="n">
+        <v>5845664</v>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>China Chinese Super League</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E225" s="2" t="n">
+        <v>45222.35763888889</v>
+      </c>
+      <c r="F225" t="n">
+        <v>28</v>
+      </c>
+      <c r="G225" t="inlineStr">
+        <is>
+          <t>Chengdu Better City FC</t>
+        </is>
+      </c>
+      <c r="H225" t="inlineStr">
+        <is>
+          <t>Shenzhen</t>
+        </is>
+      </c>
+      <c r="I225" t="n">
+        <v>2</v>
+      </c>
+      <c r="J225" t="n">
+        <v>0</v>
+      </c>
+      <c r="K225" t="n">
+        <v>2</v>
+      </c>
+      <c r="L225" t="n">
+        <v>4</v>
+      </c>
+      <c r="M225" t="n">
+        <v>0</v>
+      </c>
+      <c r="N225" t="n">
+        <v>4</v>
+      </c>
+      <c r="O225" t="inlineStr">
+        <is>
+          <t>['2', '19', '74', '88']</t>
+        </is>
+      </c>
+      <c r="P225" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q225" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="R225" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="S225" t="n">
+        <v>16.64</v>
+      </c>
+      <c r="T225" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="U225" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="V225" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="W225" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="X225" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="Y225" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="Z225" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AA225" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB225" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC225" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD225" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE225" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AF225" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AG225" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AH225" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AI225" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ225" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AK225" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AL225" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AM225" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="AN225" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AO225" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="AP225" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AQ225" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="AR225" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AS225" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="AT225" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="AU225" t="n">
+        <v>15</v>
+      </c>
+      <c r="AV225" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW225" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX225" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY225" t="n">
+        <v>22</v>
+      </c>
+      <c r="AZ225" t="n">
+        <v>9</v>
+      </c>
+      <c r="BA225" t="n">
+        <v>8</v>
+      </c>
+      <c r="BB225" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC225" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD225" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="BE225" t="n">
+        <v>13</v>
+      </c>
+      <c r="BF225" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BG225" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BH225" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="BI225" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BJ225" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="BK225" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="BL225" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="BM225" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="BN225" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BO225" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BP225" t="n">
+        <v>1.28</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/China Chinese Super League_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/China Chinese Super League_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP225"/>
+  <dimension ref="A1:BP233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -919,7 +919,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ2" t="n">
-        <v>0.64</v>
+        <v>0.8</v>
       </c>
       <c r="AR2" t="n">
         <v>0</v>
@@ -1134,7 +1134,7 @@
         <v>0</v>
       </c>
       <c r="AP3" t="n">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AQ3" t="n">
         <v>2.29</v>
@@ -1352,7 +1352,7 @@
         <v>0</v>
       </c>
       <c r="AP4" t="n">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="AQ4" t="n">
         <v>1.07</v>
@@ -1570,7 +1570,7 @@
         <v>0</v>
       </c>
       <c r="AP5" t="n">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="AQ5" t="n">
         <v>0.71</v>
@@ -1788,10 +1788,10 @@
         <v>0</v>
       </c>
       <c r="AP6" t="n">
-        <v>1.86</v>
+        <v>1.8</v>
       </c>
       <c r="AQ6" t="n">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AR6" t="n">
         <v>0</v>
@@ -2006,10 +2006,10 @@
         <v>0</v>
       </c>
       <c r="AP7" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AQ7" t="n">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AR7" t="n">
         <v>0</v>
@@ -2227,7 +2227,7 @@
         <v>2</v>
       </c>
       <c r="AQ8" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AR8" t="n">
         <v>0</v>
@@ -2660,7 +2660,7 @@
         <v>0</v>
       </c>
       <c r="AP10" t="n">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AQ10" t="n">
         <v>1.43</v>
@@ -2878,7 +2878,7 @@
         <v>0</v>
       </c>
       <c r="AP11" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AQ11" t="n">
         <v>1.64</v>
@@ -3096,10 +3096,10 @@
         <v>0</v>
       </c>
       <c r="AP12" t="n">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AQ12" t="n">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="AR12" t="n">
         <v>0</v>
@@ -3317,7 +3317,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ13" t="n">
-        <v>0.64</v>
+        <v>0.8</v>
       </c>
       <c r="AR13" t="n">
         <v>0</v>
@@ -3532,7 +3532,7 @@
         <v>0</v>
       </c>
       <c r="AP14" t="n">
-        <v>1.86</v>
+        <v>1.8</v>
       </c>
       <c r="AQ14" t="n">
         <v>0.21</v>
@@ -3753,7 +3753,7 @@
         <v>1.93</v>
       </c>
       <c r="AQ15" t="n">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AR15" t="n">
         <v>0</v>
@@ -3968,10 +3968,10 @@
         <v>0</v>
       </c>
       <c r="AP16" t="n">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="AQ16" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AR16" t="n">
         <v>0</v>
@@ -4189,7 +4189,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ17" t="n">
-        <v>0.21</v>
+        <v>0.27</v>
       </c>
       <c r="AR17" t="n">
         <v>0</v>
@@ -4622,7 +4622,7 @@
         <v>0</v>
       </c>
       <c r="AP19" t="n">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AQ19" t="n">
         <v>1.57</v>
@@ -4840,7 +4840,7 @@
         <v>1</v>
       </c>
       <c r="AP20" t="n">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="AQ20" t="n">
         <v>1.43</v>
@@ -5497,7 +5497,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ23" t="n">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AR23" t="n">
         <v>1.2</v>
@@ -6148,10 +6148,10 @@
         <v>0</v>
       </c>
       <c r="AP26" t="n">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="AQ26" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AR26" t="n">
         <v>1.83</v>
@@ -6366,7 +6366,7 @@
         <v>3</v>
       </c>
       <c r="AP27" t="n">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="AQ27" t="n">
         <v>1.57</v>
@@ -6584,10 +6584,10 @@
         <v>1</v>
       </c>
       <c r="AP28" t="n">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="AQ28" t="n">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AR28" t="n">
         <v>1.28</v>
@@ -7241,7 +7241,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ31" t="n">
-        <v>0.64</v>
+        <v>0.8</v>
       </c>
       <c r="AR31" t="n">
         <v>1.23</v>
@@ -7456,10 +7456,10 @@
         <v>3</v>
       </c>
       <c r="AP32" t="n">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="AQ32" t="n">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="AR32" t="n">
         <v>1.62</v>
@@ -7892,7 +7892,7 @@
         <v>0.5</v>
       </c>
       <c r="AP34" t="n">
-        <v>1.86</v>
+        <v>1.8</v>
       </c>
       <c r="AQ34" t="n">
         <v>1.43</v>
@@ -8113,7 +8113,7 @@
         <v>2</v>
       </c>
       <c r="AQ35" t="n">
-        <v>0.21</v>
+        <v>0.27</v>
       </c>
       <c r="AR35" t="n">
         <v>0.96</v>
@@ -8331,7 +8331,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ36" t="n">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AR36" t="n">
         <v>1.06</v>
@@ -8546,7 +8546,7 @@
         <v>0</v>
       </c>
       <c r="AP37" t="n">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AQ37" t="n">
         <v>1.64</v>
@@ -8764,10 +8764,10 @@
         <v>0.5</v>
       </c>
       <c r="AP38" t="n">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AQ38" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AR38" t="n">
         <v>1.32</v>
@@ -9200,7 +9200,7 @@
         <v>3</v>
       </c>
       <c r="AP40" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AQ40" t="n">
         <v>2.29</v>
@@ -9636,7 +9636,7 @@
         <v>3</v>
       </c>
       <c r="AP42" t="n">
-        <v>1.86</v>
+        <v>1.8</v>
       </c>
       <c r="AQ42" t="n">
         <v>1.57</v>
@@ -9857,7 +9857,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ43" t="n">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AR43" t="n">
         <v>1.14</v>
@@ -10075,7 +10075,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ44" t="n">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="AR44" t="n">
         <v>1.06</v>
@@ -10290,7 +10290,7 @@
         <v>2</v>
       </c>
       <c r="AP45" t="n">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="AQ45" t="n">
         <v>1.43</v>
@@ -10726,7 +10726,7 @@
         <v>0.33</v>
       </c>
       <c r="AP47" t="n">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="AQ47" t="n">
         <v>0.21</v>
@@ -10947,7 +10947,7 @@
         <v>1.93</v>
       </c>
       <c r="AQ48" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AR48" t="n">
         <v>1.82</v>
@@ -11601,7 +11601,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ51" t="n">
-        <v>0.21</v>
+        <v>0.27</v>
       </c>
       <c r="AR51" t="n">
         <v>1.09</v>
@@ -11816,7 +11816,7 @@
         <v>1.67</v>
       </c>
       <c r="AP52" t="n">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="AQ52" t="n">
         <v>0.71</v>
@@ -12252,7 +12252,7 @@
         <v>2.33</v>
       </c>
       <c r="AP54" t="n">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="AQ54" t="n">
         <v>2.29</v>
@@ -12470,7 +12470,7 @@
         <v>0.5</v>
       </c>
       <c r="AP55" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AQ55" t="n">
         <v>0.64</v>
@@ -12691,7 +12691,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ56" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AR56" t="n">
         <v>1.11</v>
@@ -12906,10 +12906,10 @@
         <v>0.67</v>
       </c>
       <c r="AP57" t="n">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="AQ57" t="n">
-        <v>0.64</v>
+        <v>0.8</v>
       </c>
       <c r="AR57" t="n">
         <v>1.43</v>
@@ -13124,10 +13124,10 @@
         <v>1.67</v>
       </c>
       <c r="AP58" t="n">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AQ58" t="n">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AR58" t="n">
         <v>1.74</v>
@@ -13345,7 +13345,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ59" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AR59" t="n">
         <v>1.91</v>
@@ -13560,7 +13560,7 @@
         <v>1</v>
       </c>
       <c r="AP60" t="n">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="AQ60" t="n">
         <v>1.64</v>
@@ -14214,10 +14214,10 @@
         <v>0</v>
       </c>
       <c r="AP63" t="n">
-        <v>1.86</v>
+        <v>1.8</v>
       </c>
       <c r="AQ63" t="n">
-        <v>0.21</v>
+        <v>0.27</v>
       </c>
       <c r="AR63" t="n">
         <v>1.07</v>
@@ -14432,10 +14432,10 @@
         <v>0.6</v>
       </c>
       <c r="AP64" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AQ64" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AR64" t="n">
         <v>1.39</v>
@@ -14650,7 +14650,7 @@
         <v>2.5</v>
       </c>
       <c r="AP65" t="n">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AQ65" t="n">
         <v>2.29</v>
@@ -14871,7 +14871,7 @@
         <v>1.93</v>
       </c>
       <c r="AQ66" t="n">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="AR66" t="n">
         <v>1.88</v>
@@ -15086,10 +15086,10 @@
         <v>1.25</v>
       </c>
       <c r="AP67" t="n">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="AQ67" t="n">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AR67" t="n">
         <v>1.56</v>
@@ -15743,7 +15743,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ70" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AR70" t="n">
         <v>2.23</v>
@@ -15958,7 +15958,7 @@
         <v>0.33</v>
       </c>
       <c r="AP71" t="n">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="AQ71" t="n">
         <v>0.64</v>
@@ -16176,7 +16176,7 @@
         <v>1.67</v>
       </c>
       <c r="AP72" t="n">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AQ72" t="n">
         <v>1.43</v>
@@ -16615,7 +16615,7 @@
         <v>1.93</v>
       </c>
       <c r="AQ74" t="n">
-        <v>0.64</v>
+        <v>0.8</v>
       </c>
       <c r="AR74" t="n">
         <v>1.75</v>
@@ -17048,7 +17048,7 @@
         <v>1.25</v>
       </c>
       <c r="AP76" t="n">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="AQ76" t="n">
         <v>1.43</v>
@@ -17266,10 +17266,10 @@
         <v>0.67</v>
       </c>
       <c r="AP77" t="n">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="AQ77" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AR77" t="n">
         <v>1.45</v>
@@ -18356,10 +18356,10 @@
         <v>0.33</v>
       </c>
       <c r="AP82" t="n">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="AQ82" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AR82" t="n">
         <v>1.28</v>
@@ -18574,7 +18574,7 @@
         <v>2</v>
       </c>
       <c r="AP83" t="n">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="AQ83" t="n">
         <v>1.07</v>
@@ -18792,10 +18792,10 @@
         <v>1.5</v>
       </c>
       <c r="AP84" t="n">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="AQ84" t="n">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AR84" t="n">
         <v>1.93</v>
@@ -19013,7 +19013,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ85" t="n">
-        <v>0.21</v>
+        <v>0.27</v>
       </c>
       <c r="AR85" t="n">
         <v>2.24</v>
@@ -19228,7 +19228,7 @@
         <v>1</v>
       </c>
       <c r="AP86" t="n">
-        <v>1.86</v>
+        <v>1.8</v>
       </c>
       <c r="AQ86" t="n">
         <v>0.71</v>
@@ -19449,7 +19449,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ87" t="n">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="AR87" t="n">
         <v>1.53</v>
@@ -19882,7 +19882,7 @@
         <v>1.83</v>
       </c>
       <c r="AP89" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AQ89" t="n">
         <v>1.57</v>
@@ -20100,10 +20100,10 @@
         <v>2</v>
       </c>
       <c r="AP90" t="n">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="AQ90" t="n">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="AR90" t="n">
         <v>1.41</v>
@@ -20321,7 +20321,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ91" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AR91" t="n">
         <v>1.5</v>
@@ -20754,7 +20754,7 @@
         <v>1.33</v>
       </c>
       <c r="AP93" t="n">
-        <v>1.86</v>
+        <v>1.8</v>
       </c>
       <c r="AQ93" t="n">
         <v>1.64</v>
@@ -20972,10 +20972,10 @@
         <v>0.4</v>
       </c>
       <c r="AP94" t="n">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="AQ94" t="n">
-        <v>0.64</v>
+        <v>0.8</v>
       </c>
       <c r="AR94" t="n">
         <v>1.8</v>
@@ -21190,10 +21190,10 @@
         <v>1</v>
       </c>
       <c r="AP95" t="n">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AQ95" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AR95" t="n">
         <v>1.76</v>
@@ -21408,10 +21408,10 @@
         <v>1</v>
       </c>
       <c r="AP96" t="n">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AQ96" t="n">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AR96" t="n">
         <v>1.2</v>
@@ -21844,10 +21844,10 @@
         <v>0</v>
       </c>
       <c r="AP98" t="n">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AQ98" t="n">
-        <v>0.21</v>
+        <v>0.27</v>
       </c>
       <c r="AR98" t="n">
         <v>1.68</v>
@@ -22062,7 +22062,7 @@
         <v>0.83</v>
       </c>
       <c r="AP99" t="n">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="AQ99" t="n">
         <v>0.71</v>
@@ -22280,7 +22280,7 @@
         <v>0.17</v>
       </c>
       <c r="AP100" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AQ100" t="n">
         <v>0.21</v>
@@ -22501,7 +22501,7 @@
         <v>2</v>
       </c>
       <c r="AQ101" t="n">
-        <v>0.64</v>
+        <v>0.8</v>
       </c>
       <c r="AR101" t="n">
         <v>1.53</v>
@@ -22937,7 +22937,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ103" t="n">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AR103" t="n">
         <v>1.27</v>
@@ -23370,7 +23370,7 @@
         <v>2.67</v>
       </c>
       <c r="AP105" t="n">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="AQ105" t="n">
         <v>2.29</v>
@@ -25332,10 +25332,10 @@
         <v>0.29</v>
       </c>
       <c r="AP114" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AQ114" t="n">
-        <v>0.64</v>
+        <v>0.8</v>
       </c>
       <c r="AR114" t="n">
         <v>1.25</v>
@@ -25550,10 +25550,10 @@
         <v>1</v>
       </c>
       <c r="AP115" t="n">
-        <v>1.86</v>
+        <v>1.8</v>
       </c>
       <c r="AQ115" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AR115" t="n">
         <v>1.14</v>
@@ -25768,10 +25768,10 @@
         <v>2</v>
       </c>
       <c r="AP116" t="n">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AQ116" t="n">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AR116" t="n">
         <v>1.22</v>
@@ -25986,10 +25986,10 @@
         <v>1.33</v>
       </c>
       <c r="AP117" t="n">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="AQ117" t="n">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AR117" t="n">
         <v>1.51</v>
@@ -26204,10 +26204,10 @@
         <v>2.17</v>
       </c>
       <c r="AP118" t="n">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="AQ118" t="n">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="AR118" t="n">
         <v>1.4</v>
@@ -26422,7 +26422,7 @@
         <v>1.43</v>
       </c>
       <c r="AP119" t="n">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AQ119" t="n">
         <v>1.07</v>
@@ -26640,10 +26640,10 @@
         <v>0.17</v>
       </c>
       <c r="AP120" t="n">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="AQ120" t="n">
-        <v>0.21</v>
+        <v>0.27</v>
       </c>
       <c r="AR120" t="n">
         <v>1.78</v>
@@ -26858,10 +26858,10 @@
         <v>0.2</v>
       </c>
       <c r="AP121" t="n">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="AQ121" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AR121" t="n">
         <v>1.65</v>
@@ -27079,7 +27079,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ122" t="n">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="AR122" t="n">
         <v>1.8</v>
@@ -27730,10 +27730,10 @@
         <v>0.17</v>
       </c>
       <c r="AP125" t="n">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="AQ125" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AR125" t="n">
         <v>1.47</v>
@@ -27948,7 +27948,7 @@
         <v>1.88</v>
       </c>
       <c r="AP126" t="n">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="AQ126" t="n">
         <v>1.57</v>
@@ -28166,7 +28166,7 @@
         <v>1.29</v>
       </c>
       <c r="AP127" t="n">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AQ127" t="n">
         <v>1.43</v>
@@ -28605,7 +28605,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ129" t="n">
-        <v>0.21</v>
+        <v>0.27</v>
       </c>
       <c r="AR129" t="n">
         <v>2</v>
@@ -29259,7 +29259,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ132" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AR132" t="n">
         <v>1.89</v>
@@ -29474,7 +29474,7 @@
         <v>1.75</v>
       </c>
       <c r="AP133" t="n">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="AQ133" t="n">
         <v>1.43</v>
@@ -29692,7 +29692,7 @@
         <v>1.67</v>
       </c>
       <c r="AP134" t="n">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="AQ134" t="n">
         <v>1.57</v>
@@ -29913,7 +29913,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ135" t="n">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AR135" t="n">
         <v>1.43</v>
@@ -30346,7 +30346,7 @@
         <v>0.63</v>
       </c>
       <c r="AP137" t="n">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="AQ137" t="n">
         <v>0.64</v>
@@ -30564,10 +30564,10 @@
         <v>1.29</v>
       </c>
       <c r="AP138" t="n">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="AQ138" t="n">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AR138" t="n">
         <v>1.7</v>
@@ -30782,10 +30782,10 @@
         <v>0.38</v>
       </c>
       <c r="AP139" t="n">
-        <v>1.86</v>
+        <v>1.8</v>
       </c>
       <c r="AQ139" t="n">
-        <v>0.64</v>
+        <v>0.8</v>
       </c>
       <c r="AR139" t="n">
         <v>1.07</v>
@@ -31000,10 +31000,10 @@
         <v>0.14</v>
       </c>
       <c r="AP140" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AQ140" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AR140" t="n">
         <v>1.29</v>
@@ -31221,7 +31221,7 @@
         <v>1.93</v>
       </c>
       <c r="AQ141" t="n">
-        <v>0.21</v>
+        <v>0.27</v>
       </c>
       <c r="AR141" t="n">
         <v>1.81</v>
@@ -31439,7 +31439,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ142" t="n">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="AR142" t="n">
         <v>1.59</v>
@@ -31654,10 +31654,10 @@
         <v>1.2</v>
       </c>
       <c r="AP143" t="n">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="AQ143" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AR143" t="n">
         <v>1.38</v>
@@ -31872,7 +31872,7 @@
         <v>0.25</v>
       </c>
       <c r="AP144" t="n">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="AQ144" t="n">
         <v>0.21</v>
@@ -32090,7 +32090,7 @@
         <v>0.67</v>
       </c>
       <c r="AP145" t="n">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AQ145" t="n">
         <v>0.71</v>
@@ -32308,10 +32308,10 @@
         <v>0.25</v>
       </c>
       <c r="AP146" t="n">
-        <v>1.86</v>
+        <v>1.8</v>
       </c>
       <c r="AQ146" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AR146" t="n">
         <v>1.13</v>
@@ -32962,10 +32962,10 @@
         <v>0.33</v>
       </c>
       <c r="AP149" t="n">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AQ149" t="n">
-        <v>0.21</v>
+        <v>0.27</v>
       </c>
       <c r="AR149" t="n">
         <v>1.16</v>
@@ -33180,7 +33180,7 @@
         <v>1.22</v>
       </c>
       <c r="AP150" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AQ150" t="n">
         <v>1.07</v>
@@ -33401,7 +33401,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ151" t="n">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AR151" t="n">
         <v>1.79</v>
@@ -33834,7 +33834,7 @@
         <v>0.22</v>
       </c>
       <c r="AP153" t="n">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AQ153" t="n">
         <v>0.21</v>
@@ -34052,7 +34052,7 @@
         <v>1.56</v>
       </c>
       <c r="AP154" t="n">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="AQ154" t="n">
         <v>1.43</v>
@@ -34270,7 +34270,7 @@
         <v>1.6</v>
       </c>
       <c r="AP155" t="n">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="AQ155" t="n">
         <v>1.57</v>
@@ -34706,7 +34706,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AP157" t="n">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="AQ157" t="n">
         <v>0.64</v>
@@ -34927,7 +34927,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ158" t="n">
-        <v>0.64</v>
+        <v>0.8</v>
       </c>
       <c r="AR158" t="n">
         <v>1.55</v>
@@ -35142,10 +35142,10 @@
         <v>1.5</v>
       </c>
       <c r="AP159" t="n">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="AQ159" t="n">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AR159" t="n">
         <v>1.56</v>
@@ -35363,7 +35363,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ160" t="n">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="AR160" t="n">
         <v>1.19</v>
@@ -35581,7 +35581,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ161" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AR161" t="n">
         <v>1.36</v>
@@ -35796,7 +35796,7 @@
         <v>1.2</v>
       </c>
       <c r="AP162" t="n">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AQ162" t="n">
         <v>1.07</v>
@@ -36014,7 +36014,7 @@
         <v>2.6</v>
       </c>
       <c r="AP163" t="n">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="AQ163" t="n">
         <v>2.29</v>
@@ -36232,10 +36232,10 @@
         <v>0.5</v>
       </c>
       <c r="AP164" t="n">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="AQ164" t="n">
-        <v>0.64</v>
+        <v>0.8</v>
       </c>
       <c r="AR164" t="n">
         <v>1.33</v>
@@ -36453,7 +36453,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ165" t="n">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AR165" t="n">
         <v>1.71</v>
@@ -36668,7 +36668,7 @@
         <v>0.5</v>
       </c>
       <c r="AP166" t="n">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AQ166" t="n">
         <v>0.64</v>
@@ -36886,7 +36886,7 @@
         <v>1</v>
       </c>
       <c r="AP167" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AQ167" t="n">
         <v>1.43</v>
@@ -37107,7 +37107,7 @@
         <v>2</v>
       </c>
       <c r="AQ168" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AR168" t="n">
         <v>1.46</v>
@@ -37325,7 +37325,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ169" t="n">
-        <v>0.21</v>
+        <v>0.27</v>
       </c>
       <c r="AR169" t="n">
         <v>1.38</v>
@@ -37540,7 +37540,7 @@
         <v>0.2</v>
       </c>
       <c r="AP170" t="n">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AQ170" t="n">
         <v>0.21</v>
@@ -37761,7 +37761,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ171" t="n">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AR171" t="n">
         <v>1.48</v>
@@ -37976,7 +37976,7 @@
         <v>1.3</v>
       </c>
       <c r="AP172" t="n">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="AQ172" t="n">
         <v>1.64</v>
@@ -38194,10 +38194,10 @@
         <v>1.7</v>
       </c>
       <c r="AP173" t="n">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AQ173" t="n">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="AR173" t="n">
         <v>1.85</v>
@@ -38415,7 +38415,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ174" t="n">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AR174" t="n">
         <v>1.72</v>
@@ -38630,7 +38630,7 @@
         <v>1.4</v>
       </c>
       <c r="AP175" t="n">
-        <v>1.86</v>
+        <v>1.8</v>
       </c>
       <c r="AQ175" t="n">
         <v>1.43</v>
@@ -38851,7 +38851,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ176" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AR176" t="n">
         <v>1.17</v>
@@ -39284,7 +39284,7 @@
         <v>0.55</v>
       </c>
       <c r="AP178" t="n">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="AQ178" t="n">
         <v>0.71</v>
@@ -39502,7 +39502,7 @@
         <v>0.18</v>
       </c>
       <c r="AP179" t="n">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="AQ179" t="n">
         <v>0.21</v>
@@ -39941,7 +39941,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ181" t="n">
-        <v>0.64</v>
+        <v>0.8</v>
       </c>
       <c r="AR181" t="n">
         <v>1.16</v>
@@ -40156,10 +40156,10 @@
         <v>1.82</v>
       </c>
       <c r="AP182" t="n">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="AQ182" t="n">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="AR182" t="n">
         <v>1.59</v>
@@ -40813,7 +40813,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ185" t="n">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AR185" t="n">
         <v>1.38</v>
@@ -41028,7 +41028,7 @@
         <v>2.64</v>
       </c>
       <c r="AP186" t="n">
-        <v>1.86</v>
+        <v>1.8</v>
       </c>
       <c r="AQ186" t="n">
         <v>2.29</v>
@@ -41249,7 +41249,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ187" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AR187" t="n">
         <v>1.13</v>
@@ -41464,10 +41464,10 @@
         <v>0.27</v>
       </c>
       <c r="AP188" t="n">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="AQ188" t="n">
-        <v>0.21</v>
+        <v>0.27</v>
       </c>
       <c r="AR188" t="n">
         <v>1.36</v>
@@ -41682,7 +41682,7 @@
         <v>0.58</v>
       </c>
       <c r="AP189" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AQ189" t="n">
         <v>0.71</v>
@@ -41903,7 +41903,7 @@
         <v>2</v>
       </c>
       <c r="AQ190" t="n">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AR190" t="n">
         <v>1.47</v>
@@ -42118,7 +42118,7 @@
         <v>1.09</v>
       </c>
       <c r="AP191" t="n">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="AQ191" t="n">
         <v>1.07</v>
@@ -42554,10 +42554,10 @@
         <v>0.75</v>
       </c>
       <c r="AP193" t="n">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AQ193" t="n">
-        <v>0.64</v>
+        <v>0.8</v>
       </c>
       <c r="AR193" t="n">
         <v>1.8</v>
@@ -42772,7 +42772,7 @@
         <v>1</v>
       </c>
       <c r="AP194" t="n">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="AQ194" t="n">
         <v>1.07</v>
@@ -42990,7 +42990,7 @@
         <v>1.45</v>
       </c>
       <c r="AP195" t="n">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="AQ195" t="n">
         <v>1.64</v>
@@ -43426,10 +43426,10 @@
         <v>1.09</v>
       </c>
       <c r="AP197" t="n">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AQ197" t="n">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AR197" t="n">
         <v>1.81</v>
@@ -43644,10 +43644,10 @@
         <v>1.67</v>
       </c>
       <c r="AP198" t="n">
-        <v>1.86</v>
+        <v>1.8</v>
       </c>
       <c r="AQ198" t="n">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="AR198" t="n">
         <v>1.18</v>
@@ -43862,10 +43862,10 @@
         <v>0.17</v>
       </c>
       <c r="AP199" t="n">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AQ199" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AR199" t="n">
         <v>1.32</v>
@@ -44083,7 +44083,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ200" t="n">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AR200" t="n">
         <v>1.71</v>
@@ -44298,10 +44298,10 @@
         <v>0.25</v>
       </c>
       <c r="AP201" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AQ201" t="n">
-        <v>0.21</v>
+        <v>0.27</v>
       </c>
       <c r="AR201" t="n">
         <v>1.46</v>
@@ -44519,7 +44519,7 @@
         <v>2</v>
       </c>
       <c r="AQ202" t="n">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AR202" t="n">
         <v>1.47</v>
@@ -44955,7 +44955,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ204" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AR204" t="n">
         <v>1.23</v>
@@ -45388,7 +45388,7 @@
         <v>1.17</v>
       </c>
       <c r="AP206" t="n">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AQ206" t="n">
         <v>1.43</v>
@@ -45606,7 +45606,7 @@
         <v>0.67</v>
       </c>
       <c r="AP207" t="n">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AQ207" t="n">
         <v>0.64</v>
@@ -46042,10 +46042,10 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AP209" t="n">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="AQ209" t="n">
-        <v>0.64</v>
+        <v>0.8</v>
       </c>
       <c r="AR209" t="n">
         <v>1.52</v>
@@ -46696,10 +46696,10 @@
         <v>1.46</v>
       </c>
       <c r="AP212" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AQ212" t="n">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AR212" t="n">
         <v>1.42</v>
@@ -47350,10 +47350,10 @@
         <v>0.23</v>
       </c>
       <c r="AP215" t="n">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="AQ215" t="n">
-        <v>0.21</v>
+        <v>0.27</v>
       </c>
       <c r="AR215" t="n">
         <v>1.55</v>
@@ -47568,7 +47568,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AP216" t="n">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="AQ216" t="n">
         <v>0.64</v>
@@ -48004,7 +48004,7 @@
         <v>1.69</v>
       </c>
       <c r="AP218" t="n">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AQ218" t="n">
         <v>1.64</v>
@@ -48225,7 +48225,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ219" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AR219" t="n">
         <v>1.45</v>
@@ -48658,7 +48658,7 @@
         <v>1.31</v>
       </c>
       <c r="AP221" t="n">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="AQ221" t="n">
         <v>1.43</v>
@@ -48876,10 +48876,10 @@
         <v>0.92</v>
       </c>
       <c r="AP222" t="n">
-        <v>1.86</v>
+        <v>1.8</v>
       </c>
       <c r="AQ222" t="n">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AR222" t="n">
         <v>1.21</v>
@@ -49097,7 +49097,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ223" t="n">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="AR223" t="n">
         <v>1.58</v>
@@ -49312,7 +49312,7 @@
         <v>1.31</v>
       </c>
       <c r="AP224" t="n">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="AQ224" t="n">
         <v>1.43</v>
@@ -49533,7 +49533,7 @@
         <v>1.93</v>
       </c>
       <c r="AQ225" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AR225" t="n">
         <v>1.69</v>
@@ -49609,6 +49609,1750 @@
       </c>
       <c r="BP225" t="n">
         <v>1.28</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="1" t="n">
+        <v>225</v>
+      </c>
+      <c r="B226" t="n">
+        <v>5845665</v>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>China Chinese Super League</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E226" s="2" t="n">
+        <v>45228.1875</v>
+      </c>
+      <c r="F226" t="n">
+        <v>29</v>
+      </c>
+      <c r="G226" t="inlineStr">
+        <is>
+          <t>Wuhan Three Towns</t>
+        </is>
+      </c>
+      <c r="H226" t="inlineStr">
+        <is>
+          <t>Shenzhen</t>
+        </is>
+      </c>
+      <c r="I226" t="n">
+        <v>0</v>
+      </c>
+      <c r="J226" t="n">
+        <v>0</v>
+      </c>
+      <c r="K226" t="n">
+        <v>0</v>
+      </c>
+      <c r="L226" t="n">
+        <v>1</v>
+      </c>
+      <c r="M226" t="n">
+        <v>0</v>
+      </c>
+      <c r="N226" t="n">
+        <v>1</v>
+      </c>
+      <c r="O226" t="inlineStr">
+        <is>
+          <t>['83']</t>
+        </is>
+      </c>
+      <c r="P226" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q226" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="R226" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="S226" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="T226" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="U226" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="V226" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="W226" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="X226" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="Y226" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="Z226" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AA226" t="n">
+        <v>9.130000000000001</v>
+      </c>
+      <c r="AB226" t="n">
+        <v>8.449999999999999</v>
+      </c>
+      <c r="AC226" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AD226" t="n">
+        <v>73</v>
+      </c>
+      <c r="AE226" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AF226" t="n">
+        <v>12</v>
+      </c>
+      <c r="AG226" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AH226" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="AI226" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ226" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AK226" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AL226" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AM226" t="n">
+        <v>14</v>
+      </c>
+      <c r="AN226" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AO226" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="AP226" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AQ226" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="AR226" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AS226" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AT226" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="AU226" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV226" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW226" t="n">
+        <v>10</v>
+      </c>
+      <c r="AX226" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY226" t="n">
+        <v>17</v>
+      </c>
+      <c r="AZ226" t="n">
+        <v>6</v>
+      </c>
+      <c r="BA226" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB226" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC226" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD226" t="n">
+        <v>1</v>
+      </c>
+      <c r="BE226" t="n">
+        <v>24</v>
+      </c>
+      <c r="BF226" t="n">
+        <v>18.25</v>
+      </c>
+      <c r="BG226" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH226" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI226" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BJ226" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="BK226" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="BL226" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="BM226" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BN226" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="BO226" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BP226" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="1" t="n">
+        <v>226</v>
+      </c>
+      <c r="B227" t="n">
+        <v>5845666</v>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>China Chinese Super League</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E227" s="2" t="n">
+        <v>45228.1875</v>
+      </c>
+      <c r="F227" t="n">
+        <v>29</v>
+      </c>
+      <c r="G227" t="inlineStr">
+        <is>
+          <t>Zhejiang FC</t>
+        </is>
+      </c>
+      <c r="H227" t="inlineStr">
+        <is>
+          <t>Shijiazhuang Ever Bright</t>
+        </is>
+      </c>
+      <c r="I227" t="n">
+        <v>3</v>
+      </c>
+      <c r="J227" t="n">
+        <v>0</v>
+      </c>
+      <c r="K227" t="n">
+        <v>3</v>
+      </c>
+      <c r="L227" t="n">
+        <v>6</v>
+      </c>
+      <c r="M227" t="n">
+        <v>1</v>
+      </c>
+      <c r="N227" t="n">
+        <v>7</v>
+      </c>
+      <c r="O227" t="inlineStr">
+        <is>
+          <t>['4', '6', '42', '83', '87', '90+2']</t>
+        </is>
+      </c>
+      <c r="P227" t="inlineStr">
+        <is>
+          <t>['64']</t>
+        </is>
+      </c>
+      <c r="Q227" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="R227" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="S227" t="n">
+        <v>8</v>
+      </c>
+      <c r="T227" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="U227" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="V227" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="W227" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="X227" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="Y227" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="Z227" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AA227" t="n">
+        <v>6.72</v>
+      </c>
+      <c r="AB227" t="n">
+        <v>10.66</v>
+      </c>
+      <c r="AC227" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD227" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE227" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AF227" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AG227" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AH227" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="AI227" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AJ227" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AK227" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AL227" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AM227" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AN227" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AO227" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AP227" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AQ227" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AR227" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AS227" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AT227" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="AU227" t="n">
+        <v>12</v>
+      </c>
+      <c r="AV227" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW227" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX227" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY227" t="n">
+        <v>18</v>
+      </c>
+      <c r="AZ227" t="n">
+        <v>8</v>
+      </c>
+      <c r="BA227" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB227" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC227" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD227" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BE227" t="n">
+        <v>11</v>
+      </c>
+      <c r="BF227" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="BG227" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BH227" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="BI227" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BJ227" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="BK227" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="BL227" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="BM227" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="BN227" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BO227" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="BP227" t="n">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="1" t="n">
+        <v>227</v>
+      </c>
+      <c r="B228" t="n">
+        <v>5845667</v>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>China Chinese Super League</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E228" s="2" t="n">
+        <v>45228.1875</v>
+      </c>
+      <c r="F228" t="n">
+        <v>29</v>
+      </c>
+      <c r="G228" t="inlineStr">
+        <is>
+          <t>Shanghai SIPG</t>
+        </is>
+      </c>
+      <c r="H228" t="inlineStr">
+        <is>
+          <t>Shandong Luneng</t>
+        </is>
+      </c>
+      <c r="I228" t="n">
+        <v>1</v>
+      </c>
+      <c r="J228" t="n">
+        <v>0</v>
+      </c>
+      <c r="K228" t="n">
+        <v>1</v>
+      </c>
+      <c r="L228" t="n">
+        <v>1</v>
+      </c>
+      <c r="M228" t="n">
+        <v>1</v>
+      </c>
+      <c r="N228" t="n">
+        <v>2</v>
+      </c>
+      <c r="O228" t="inlineStr">
+        <is>
+          <t>['16']</t>
+        </is>
+      </c>
+      <c r="P228" t="inlineStr">
+        <is>
+          <t>['89']</t>
+        </is>
+      </c>
+      <c r="Q228" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="R228" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S228" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="T228" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="U228" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="V228" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W228" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="X228" t="n">
+        <v>5.95</v>
+      </c>
+      <c r="Y228" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Z228" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AA228" t="n">
+        <v>6.72</v>
+      </c>
+      <c r="AB228" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="AC228" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD228" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE228" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AF228" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG228" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AH228" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AI228" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AJ228" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AK228" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AL228" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AM228" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AN228" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AO228" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AP228" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AQ228" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AR228" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AS228" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AT228" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="AU228" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV228" t="n">
+        <v>9</v>
+      </c>
+      <c r="AW228" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX228" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY228" t="n">
+        <v>5</v>
+      </c>
+      <c r="AZ228" t="n">
+        <v>15</v>
+      </c>
+      <c r="BA228" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB228" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC228" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD228" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BE228" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF228" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BG228" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BH228" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI228" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BJ228" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BK228" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BL228" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BM228" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BN228" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BO228" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BP228" t="n">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="1" t="n">
+        <v>228</v>
+      </c>
+      <c r="B229" t="n">
+        <v>5845668</v>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>China Chinese Super League</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E229" s="2" t="n">
+        <v>45228.1875</v>
+      </c>
+      <c r="F229" t="n">
+        <v>29</v>
+      </c>
+      <c r="G229" t="inlineStr">
+        <is>
+          <t>Henan Jianye</t>
+        </is>
+      </c>
+      <c r="H229" t="inlineStr">
+        <is>
+          <t>Changchun Yatai</t>
+        </is>
+      </c>
+      <c r="I229" t="n">
+        <v>0</v>
+      </c>
+      <c r="J229" t="n">
+        <v>0</v>
+      </c>
+      <c r="K229" t="n">
+        <v>0</v>
+      </c>
+      <c r="L229" t="n">
+        <v>1</v>
+      </c>
+      <c r="M229" t="n">
+        <v>1</v>
+      </c>
+      <c r="N229" t="n">
+        <v>2</v>
+      </c>
+      <c r="O229" t="inlineStr">
+        <is>
+          <t>['69']</t>
+        </is>
+      </c>
+      <c r="P229" t="inlineStr">
+        <is>
+          <t>['75']</t>
+        </is>
+      </c>
+      <c r="Q229" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="R229" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="S229" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="T229" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="U229" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="V229" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="W229" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="X229" t="n">
+        <v>5.95</v>
+      </c>
+      <c r="Y229" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Z229" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AA229" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AB229" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AC229" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AD229" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE229" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AF229" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG229" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AH229" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AI229" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AJ229" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AK229" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AL229" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AM229" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN229" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AO229" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AP229" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AQ229" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AR229" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AS229" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AT229" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="AU229" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV229" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW229" t="n">
+        <v>11</v>
+      </c>
+      <c r="AX229" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY229" t="n">
+        <v>20</v>
+      </c>
+      <c r="AZ229" t="n">
+        <v>13</v>
+      </c>
+      <c r="BA229" t="n">
+        <v>12</v>
+      </c>
+      <c r="BB229" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC229" t="n">
+        <v>14</v>
+      </c>
+      <c r="BD229" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BE229" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF229" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="BG229" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BH229" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="BI229" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BJ229" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="BK229" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="BL229" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="BM229" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BN229" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BO229" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="BP229" t="n">
+        <v>1.15</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="1" t="n">
+        <v>229</v>
+      </c>
+      <c r="B230" t="n">
+        <v>5845669</v>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>China Chinese Super League</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E230" s="2" t="n">
+        <v>45228.1875</v>
+      </c>
+      <c r="F230" t="n">
+        <v>29</v>
+      </c>
+      <c r="G230" t="inlineStr">
+        <is>
+          <t>Beijing Guoan</t>
+        </is>
+      </c>
+      <c r="H230" t="inlineStr">
+        <is>
+          <t>Chengdu Better City FC</t>
+        </is>
+      </c>
+      <c r="I230" t="n">
+        <v>1</v>
+      </c>
+      <c r="J230" t="n">
+        <v>1</v>
+      </c>
+      <c r="K230" t="n">
+        <v>2</v>
+      </c>
+      <c r="L230" t="n">
+        <v>2</v>
+      </c>
+      <c r="M230" t="n">
+        <v>3</v>
+      </c>
+      <c r="N230" t="n">
+        <v>5</v>
+      </c>
+      <c r="O230" t="inlineStr">
+        <is>
+          <t>['7', '90+4']</t>
+        </is>
+      </c>
+      <c r="P230" t="inlineStr">
+        <is>
+          <t>['3', '73', '90+6']</t>
+        </is>
+      </c>
+      <c r="Q230" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="R230" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S230" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="T230" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="U230" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="V230" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="W230" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="X230" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="Y230" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="Z230" t="n">
+        <v>5.26</v>
+      </c>
+      <c r="AA230" t="n">
+        <v>4.66</v>
+      </c>
+      <c r="AB230" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AC230" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD230" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE230" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AF230" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AG230" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AH230" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AI230" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AJ230" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AK230" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AL230" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM230" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AN230" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO230" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AP230" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AQ230" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AR230" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AS230" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AT230" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU230" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV230" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW230" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX230" t="n">
+        <v>8</v>
+      </c>
+      <c r="AY230" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ230" t="n">
+        <v>13</v>
+      </c>
+      <c r="BA230" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB230" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC230" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD230" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BE230" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF230" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BG230" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BH230" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="BI230" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BJ230" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="BK230" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="BL230" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="BM230" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="BN230" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BO230" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="BP230" t="n">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="1" t="n">
+        <v>230</v>
+      </c>
+      <c r="B231" t="n">
+        <v>5845670</v>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>China Chinese Super League</t>
+        </is>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E231" s="2" t="n">
+        <v>45228.1875</v>
+      </c>
+      <c r="F231" t="n">
+        <v>29</v>
+      </c>
+      <c r="G231" t="inlineStr">
+        <is>
+          <t>Tianjin Teda</t>
+        </is>
+      </c>
+      <c r="H231" t="inlineStr">
+        <is>
+          <t>Shanghai Shenhua</t>
+        </is>
+      </c>
+      <c r="I231" t="n">
+        <v>1</v>
+      </c>
+      <c r="J231" t="n">
+        <v>0</v>
+      </c>
+      <c r="K231" t="n">
+        <v>1</v>
+      </c>
+      <c r="L231" t="n">
+        <v>1</v>
+      </c>
+      <c r="M231" t="n">
+        <v>1</v>
+      </c>
+      <c r="N231" t="n">
+        <v>2</v>
+      </c>
+      <c r="O231" t="inlineStr">
+        <is>
+          <t>['22']</t>
+        </is>
+      </c>
+      <c r="P231" t="inlineStr">
+        <is>
+          <t>['84']</t>
+        </is>
+      </c>
+      <c r="Q231" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="R231" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S231" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="T231" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="U231" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="V231" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="W231" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="X231" t="n">
+        <v>8.35</v>
+      </c>
+      <c r="Y231" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="Z231" t="n">
+        <v>5.47</v>
+      </c>
+      <c r="AA231" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="AB231" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AC231" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AD231" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE231" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AF231" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AG231" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="AH231" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AI231" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AJ231" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AK231" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AL231" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM231" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AN231" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AO231" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AP231" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AQ231" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AR231" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AS231" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AT231" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="AU231" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV231" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW231" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX231" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY231" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ231" t="n">
+        <v>10</v>
+      </c>
+      <c r="BA231" t="n">
+        <v>8</v>
+      </c>
+      <c r="BB231" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC231" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD231" t="n">
+        <v>2</v>
+      </c>
+      <c r="BE231" t="n">
+        <v>7</v>
+      </c>
+      <c r="BF231" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BG231" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BH231" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BI231" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BJ231" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BK231" t="n">
+        <v>2</v>
+      </c>
+      <c r="BL231" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BM231" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BN231" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BO231" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BP231" t="n">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="1" t="n">
+        <v>231</v>
+      </c>
+      <c r="B232" t="n">
+        <v>5845671</v>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>China Chinese Super League</t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E232" s="2" t="n">
+        <v>45228.1875</v>
+      </c>
+      <c r="F232" t="n">
+        <v>29</v>
+      </c>
+      <c r="G232" t="inlineStr">
+        <is>
+          <t>Meizhou Hakka</t>
+        </is>
+      </c>
+      <c r="H232" t="inlineStr">
+        <is>
+          <t>Nantong Zhiyun</t>
+        </is>
+      </c>
+      <c r="I232" t="n">
+        <v>0</v>
+      </c>
+      <c r="J232" t="n">
+        <v>1</v>
+      </c>
+      <c r="K232" t="n">
+        <v>1</v>
+      </c>
+      <c r="L232" t="n">
+        <v>0</v>
+      </c>
+      <c r="M232" t="n">
+        <v>4</v>
+      </c>
+      <c r="N232" t="n">
+        <v>4</v>
+      </c>
+      <c r="O232" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P232" t="inlineStr">
+        <is>
+          <t>['12', '63', '89', '90+2']</t>
+        </is>
+      </c>
+      <c r="Q232" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="R232" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S232" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="T232" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="U232" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="V232" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="W232" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X232" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y232" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Z232" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AA232" t="n">
+        <v>7.22</v>
+      </c>
+      <c r="AB232" t="n">
+        <v>4.58</v>
+      </c>
+      <c r="AC232" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD232" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE232" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AF232" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AG232" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AH232" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AI232" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AJ232" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AK232" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AL232" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AM232" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AN232" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AO232" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="AP232" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AQ232" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AR232" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AS232" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AT232" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AU232" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV232" t="n">
+        <v>7</v>
+      </c>
+      <c r="AW232" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX232" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY232" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ232" t="n">
+        <v>11</v>
+      </c>
+      <c r="BA232" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB232" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC232" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD232" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BE232" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="BF232" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BG232" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BH232" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="BI232" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BJ232" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BK232" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="BL232" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="BM232" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="BN232" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BO232" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BP232" t="n">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="1" t="n">
+        <v>232</v>
+      </c>
+      <c r="B233" t="n">
+        <v>5845672</v>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>China Chinese Super League</t>
+        </is>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E233" s="2" t="n">
+        <v>45228.1875</v>
+      </c>
+      <c r="F233" t="n">
+        <v>29</v>
+      </c>
+      <c r="G233" t="inlineStr">
+        <is>
+          <t>Qingdao Jonoon</t>
+        </is>
+      </c>
+      <c r="H233" t="inlineStr">
+        <is>
+          <t>Dalian Yifang</t>
+        </is>
+      </c>
+      <c r="I233" t="n">
+        <v>2</v>
+      </c>
+      <c r="J233" t="n">
+        <v>0</v>
+      </c>
+      <c r="K233" t="n">
+        <v>2</v>
+      </c>
+      <c r="L233" t="n">
+        <v>2</v>
+      </c>
+      <c r="M233" t="n">
+        <v>2</v>
+      </c>
+      <c r="N233" t="n">
+        <v>4</v>
+      </c>
+      <c r="O233" t="inlineStr">
+        <is>
+          <t>['22', '44']</t>
+        </is>
+      </c>
+      <c r="P233" t="inlineStr">
+        <is>
+          <t>['49', '79']</t>
+        </is>
+      </c>
+      <c r="Q233" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="R233" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S233" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="T233" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="U233" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="V233" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W233" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="X233" t="n">
+        <v>5.95</v>
+      </c>
+      <c r="Y233" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Z233" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="AA233" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="AB233" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="AC233" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD233" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE233" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AF233" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG233" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AH233" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AI233" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AJ233" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AK233" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AL233" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AM233" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AN233" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AO233" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="AP233" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AQ233" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="AR233" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AS233" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AT233" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="AU233" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV233" t="n">
+        <v>11</v>
+      </c>
+      <c r="AW233" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX233" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY233" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ233" t="n">
+        <v>18</v>
+      </c>
+      <c r="BA233" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB233" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC233" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD233" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="BE233" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="BF233" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="BG233" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BH233" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="BI233" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="BJ233" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="BK233" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="BL233" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BM233" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="BN233" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BO233" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="BP233" t="n">
+        <v>1.22</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/China Chinese Super League_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/China Chinese Super League_2023.xlsx
@@ -49763,19 +49763,19 @@
         <v>2.56</v>
       </c>
       <c r="AU226" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AV226" t="n">
         <v>4</v>
       </c>
       <c r="AW226" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AX226" t="n">
         <v>2</v>
       </c>
       <c r="AY226" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AZ226" t="n">
         <v>6</v>
@@ -49987,13 +49987,13 @@
         <v>4</v>
       </c>
       <c r="AW227" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AX227" t="n">
         <v>4</v>
       </c>
       <c r="AY227" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AZ227" t="n">
         <v>8</v>
@@ -50208,13 +50208,13 @@
         <v>2</v>
       </c>
       <c r="AX228" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AY228" t="n">
         <v>5</v>
       </c>
       <c r="AZ228" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BA228" t="n">
         <v>0</v>
@@ -50426,13 +50426,13 @@
         <v>11</v>
       </c>
       <c r="AX229" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AY229" t="n">
         <v>20</v>
       </c>
       <c r="AZ229" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BA229" t="n">
         <v>12</v>
@@ -50862,13 +50862,13 @@
         <v>4</v>
       </c>
       <c r="AX231" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AY231" t="n">
         <v>8</v>
       </c>
       <c r="AZ231" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BA231" t="n">
         <v>8</v>
@@ -50977,7 +50977,7 @@
       </c>
       <c r="P232" t="inlineStr">
         <is>
-          <t>['12', '63', '89', '90+2']</t>
+          <t>['12', '63', '89', '90+3']</t>
         </is>
       </c>
       <c r="Q232" t="n">

--- a/Bases_de_Dados_(2022-2024)/China Chinese Super League_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/China Chinese Super League_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP233"/>
+  <dimension ref="A1:BP241"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="AP2" t="n">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AQ2" t="n">
         <v>0.8</v>
@@ -1137,7 +1137,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ3" t="n">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AR3" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>1.87</v>
       </c>
       <c r="AQ5" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR5" t="n">
         <v>0</v>
@@ -2224,7 +2224,7 @@
         <v>0</v>
       </c>
       <c r="AP8" t="n">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="AQ8" t="n">
         <v>1.33</v>
@@ -2442,10 +2442,10 @@
         <v>0</v>
       </c>
       <c r="AP9" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AQ9" t="n">
-        <v>0.21</v>
+        <v>0.27</v>
       </c>
       <c r="AR9" t="n">
         <v>0</v>
@@ -2663,7 +2663,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ10" t="n">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AR10" t="n">
         <v>1.22</v>
@@ -2881,7 +2881,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ11" t="n">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AR11" t="n">
         <v>1.76</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="AP13" t="n">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AQ13" t="n">
         <v>0.8</v>
@@ -3535,7 +3535,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ14" t="n">
-        <v>0.21</v>
+        <v>0.27</v>
       </c>
       <c r="AR14" t="n">
         <v>0.63</v>
@@ -3750,7 +3750,7 @@
         <v>1</v>
       </c>
       <c r="AP15" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ15" t="n">
         <v>0.8</v>
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="AP17" t="n">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AQ17" t="n">
         <v>0.27</v>
@@ -4404,10 +4404,10 @@
         <v>0</v>
       </c>
       <c r="AP18" t="n">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AQ18" t="n">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AR18" t="n">
         <v>2.82</v>
@@ -4625,7 +4625,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ19" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AR19" t="n">
         <v>1.1</v>
@@ -4843,7 +4843,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ20" t="n">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AR20" t="n">
         <v>0</v>
@@ -5058,10 +5058,10 @@
         <v>3</v>
       </c>
       <c r="AP21" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="AQ21" t="n">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AR21" t="n">
         <v>0</v>
@@ -5276,7 +5276,7 @@
         <v>3</v>
       </c>
       <c r="AP22" t="n">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="AQ22" t="n">
         <v>1.07</v>
@@ -5494,7 +5494,7 @@
         <v>1</v>
       </c>
       <c r="AP23" t="n">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AQ23" t="n">
         <v>1.53</v>
@@ -5712,10 +5712,10 @@
         <v>0</v>
       </c>
       <c r="AP24" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AQ24" t="n">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AR24" t="n">
         <v>0.62</v>
@@ -5930,10 +5930,10 @@
         <v>0</v>
       </c>
       <c r="AP25" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AQ25" t="n">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="AR25" t="n">
         <v>0</v>
@@ -6369,7 +6369,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ27" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AR27" t="n">
         <v>0.92</v>
@@ -6802,10 +6802,10 @@
         <v>3</v>
       </c>
       <c r="AP29" t="n">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AQ29" t="n">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AR29" t="n">
         <v>1.36</v>
@@ -7020,10 +7020,10 @@
         <v>0</v>
       </c>
       <c r="AP30" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AQ30" t="n">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="AR30" t="n">
         <v>0.9399999999999999</v>
@@ -7238,7 +7238,7 @@
         <v>0.5</v>
       </c>
       <c r="AP31" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="AQ31" t="n">
         <v>0.8</v>
@@ -7674,10 +7674,10 @@
         <v>1</v>
       </c>
       <c r="AP33" t="n">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AQ33" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR33" t="n">
         <v>1.13</v>
@@ -7895,7 +7895,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ34" t="n">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AR34" t="n">
         <v>0.89</v>
@@ -8110,7 +8110,7 @@
         <v>0</v>
       </c>
       <c r="AP35" t="n">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="AQ35" t="n">
         <v>0.27</v>
@@ -8328,7 +8328,7 @@
         <v>0.5</v>
       </c>
       <c r="AP36" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AQ36" t="n">
         <v>0.8</v>
@@ -8549,7 +8549,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ37" t="n">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AR37" t="n">
         <v>1.33</v>
@@ -8982,10 +8982,10 @@
         <v>0.5</v>
       </c>
       <c r="AP39" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ39" t="n">
-        <v>0.21</v>
+        <v>0.27</v>
       </c>
       <c r="AR39" t="n">
         <v>1.33</v>
@@ -9203,7 +9203,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ40" t="n">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AR40" t="n">
         <v>1.52</v>
@@ -9418,7 +9418,7 @@
         <v>1.5</v>
       </c>
       <c r="AP41" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AQ41" t="n">
         <v>1.07</v>
@@ -9639,7 +9639,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ42" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AR42" t="n">
         <v>0.98</v>
@@ -9854,7 +9854,7 @@
         <v>1.33</v>
       </c>
       <c r="AP43" t="n">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AQ43" t="n">
         <v>0.8</v>
@@ -10072,7 +10072,7 @@
         <v>2</v>
       </c>
       <c r="AP44" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AQ44" t="n">
         <v>1.6</v>
@@ -10293,7 +10293,7 @@
         <v>1.87</v>
       </c>
       <c r="AQ45" t="n">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AR45" t="n">
         <v>1.29</v>
@@ -10508,10 +10508,10 @@
         <v>0.33</v>
       </c>
       <c r="AP46" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AQ46" t="n">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AR46" t="n">
         <v>2.21</v>
@@ -10729,7 +10729,7 @@
         <v>1.87</v>
       </c>
       <c r="AQ47" t="n">
-        <v>0.21</v>
+        <v>0.27</v>
       </c>
       <c r="AR47" t="n">
         <v>1.61</v>
@@ -10944,7 +10944,7 @@
         <v>0.33</v>
       </c>
       <c r="AP48" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ48" t="n">
         <v>1.33</v>
@@ -11162,10 +11162,10 @@
         <v>1</v>
       </c>
       <c r="AP49" t="n">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AQ49" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR49" t="n">
         <v>1.37</v>
@@ -11380,10 +11380,10 @@
         <v>2.33</v>
       </c>
       <c r="AP50" t="n">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="AQ50" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AR50" t="n">
         <v>1.37</v>
@@ -11598,7 +11598,7 @@
         <v>0</v>
       </c>
       <c r="AP51" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AQ51" t="n">
         <v>0.27</v>
@@ -11819,7 +11819,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ52" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR52" t="n">
         <v>0.87</v>
@@ -12034,7 +12034,7 @@
         <v>2</v>
       </c>
       <c r="AP53" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ53" t="n">
         <v>1.07</v>
@@ -12255,7 +12255,7 @@
         <v>1.93</v>
       </c>
       <c r="AQ54" t="n">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AR54" t="n">
         <v>1.05</v>
@@ -12473,7 +12473,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ55" t="n">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="AR55" t="n">
         <v>1.45</v>
@@ -12688,7 +12688,7 @@
         <v>0.5</v>
       </c>
       <c r="AP56" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="AQ56" t="n">
         <v>1.33</v>
@@ -13342,7 +13342,7 @@
         <v>0</v>
       </c>
       <c r="AP59" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AQ59" t="n">
         <v>0.13</v>
@@ -13563,7 +13563,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ60" t="n">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AR60" t="n">
         <v>1.42</v>
@@ -13778,7 +13778,7 @@
         <v>1.75</v>
       </c>
       <c r="AP61" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="AQ61" t="n">
         <v>1.07</v>
@@ -13996,10 +13996,10 @@
         <v>1.33</v>
       </c>
       <c r="AP62" t="n">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="AQ62" t="n">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AR62" t="n">
         <v>1.38</v>
@@ -14653,7 +14653,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ65" t="n">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AR65" t="n">
         <v>1.25</v>
@@ -14868,7 +14868,7 @@
         <v>2.33</v>
       </c>
       <c r="AP66" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ66" t="n">
         <v>1.6</v>
@@ -15304,10 +15304,10 @@
         <v>0.25</v>
       </c>
       <c r="AP68" t="n">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AQ68" t="n">
-        <v>0.21</v>
+        <v>0.27</v>
       </c>
       <c r="AR68" t="n">
         <v>1.59</v>
@@ -15522,10 +15522,10 @@
         <v>2</v>
       </c>
       <c r="AP69" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AQ69" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AR69" t="n">
         <v>2.04</v>
@@ -15740,7 +15740,7 @@
         <v>0.5</v>
       </c>
       <c r="AP70" t="n">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AQ70" t="n">
         <v>0.13</v>
@@ -15961,7 +15961,7 @@
         <v>1.87</v>
       </c>
       <c r="AQ71" t="n">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="AR71" t="n">
         <v>1.88</v>
@@ -16179,7 +16179,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ72" t="n">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AR72" t="n">
         <v>1.13</v>
@@ -16394,10 +16394,10 @@
         <v>1</v>
       </c>
       <c r="AP73" t="n">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AQ73" t="n">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AR73" t="n">
         <v>1.24</v>
@@ -16612,7 +16612,7 @@
         <v>0.5</v>
       </c>
       <c r="AP74" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ74" t="n">
         <v>0.8</v>
@@ -16830,10 +16830,10 @@
         <v>2.2</v>
       </c>
       <c r="AP75" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="AQ75" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AR75" t="n">
         <v>1.54</v>
@@ -17051,7 +17051,7 @@
         <v>1.93</v>
       </c>
       <c r="AQ76" t="n">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AR76" t="n">
         <v>1.15</v>
@@ -17484,10 +17484,10 @@
         <v>0.25</v>
       </c>
       <c r="AP78" t="n">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="AQ78" t="n">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="AR78" t="n">
         <v>1.38</v>
@@ -17702,10 +17702,10 @@
         <v>1.5</v>
       </c>
       <c r="AP79" t="n">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AQ79" t="n">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AR79" t="n">
         <v>1.38</v>
@@ -17920,10 +17920,10 @@
         <v>1.25</v>
       </c>
       <c r="AP80" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AQ80" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR80" t="n">
         <v>1.17</v>
@@ -18138,10 +18138,10 @@
         <v>2.6</v>
       </c>
       <c r="AP81" t="n">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AQ81" t="n">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AR81" t="n">
         <v>1.53</v>
@@ -19010,7 +19010,7 @@
         <v>0</v>
       </c>
       <c r="AP85" t="n">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AQ85" t="n">
         <v>0.27</v>
@@ -19231,7 +19231,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ86" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR86" t="n">
         <v>1.08</v>
@@ -19446,7 +19446,7 @@
         <v>1.75</v>
       </c>
       <c r="AP87" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="AQ87" t="n">
         <v>1.6</v>
@@ -19664,10 +19664,10 @@
         <v>0.2</v>
       </c>
       <c r="AP88" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AQ88" t="n">
-        <v>0.21</v>
+        <v>0.27</v>
       </c>
       <c r="AR88" t="n">
         <v>1.9</v>
@@ -19885,7 +19885,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ89" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AR89" t="n">
         <v>1.26</v>
@@ -20318,7 +20318,7 @@
         <v>0.25</v>
       </c>
       <c r="AP91" t="n">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AQ91" t="n">
         <v>0.13</v>
@@ -20536,10 +20536,10 @@
         <v>1.8</v>
       </c>
       <c r="AP92" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ92" t="n">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AR92" t="n">
         <v>1.73</v>
@@ -20757,7 +20757,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ93" t="n">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AR93" t="n">
         <v>1.1</v>
@@ -21626,10 +21626,10 @@
         <v>1</v>
       </c>
       <c r="AP97" t="n">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AQ97" t="n">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AR97" t="n">
         <v>1.38</v>
@@ -22065,7 +22065,7 @@
         <v>1.93</v>
       </c>
       <c r="AQ99" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR99" t="n">
         <v>1.45</v>
@@ -22283,7 +22283,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ100" t="n">
-        <v>0.21</v>
+        <v>0.27</v>
       </c>
       <c r="AR100" t="n">
         <v>1.25</v>
@@ -22498,7 +22498,7 @@
         <v>0.33</v>
       </c>
       <c r="AP101" t="n">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="AQ101" t="n">
         <v>0.8</v>
@@ -22716,10 +22716,10 @@
         <v>0.4</v>
       </c>
       <c r="AP102" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="AQ102" t="n">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="AR102" t="n">
         <v>1.35</v>
@@ -22934,7 +22934,7 @@
         <v>1.8</v>
       </c>
       <c r="AP103" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AQ103" t="n">
         <v>1.53</v>
@@ -23152,7 +23152,7 @@
         <v>1.67</v>
       </c>
       <c r="AP104" t="n">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AQ104" t="n">
         <v>1.07</v>
@@ -23373,7 +23373,7 @@
         <v>1.87</v>
       </c>
       <c r="AQ105" t="n">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AR105" t="n">
         <v>1.81</v>
@@ -23588,10 +23588,10 @@
         <v>1.67</v>
       </c>
       <c r="AP106" t="n">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="AQ106" t="n">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AR106" t="n">
         <v>1.52</v>
@@ -23806,10 +23806,10 @@
         <v>0.14</v>
       </c>
       <c r="AP107" t="n">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AQ107" t="n">
-        <v>0.21</v>
+        <v>0.27</v>
       </c>
       <c r="AR107" t="n">
         <v>1.28</v>
@@ -24024,10 +24024,10 @@
         <v>1.29</v>
       </c>
       <c r="AP108" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="AQ108" t="n">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AR108" t="n">
         <v>1.41</v>
@@ -24242,10 +24242,10 @@
         <v>0.71</v>
       </c>
       <c r="AP109" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AQ109" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR109" t="n">
         <v>1.91</v>
@@ -24460,10 +24460,10 @@
         <v>1.71</v>
       </c>
       <c r="AP110" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AQ110" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AR110" t="n">
         <v>1.18</v>
@@ -24678,10 +24678,10 @@
         <v>2.71</v>
       </c>
       <c r="AP111" t="n">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AQ111" t="n">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AR111" t="n">
         <v>1.93</v>
@@ -24896,10 +24896,10 @@
         <v>1</v>
       </c>
       <c r="AP112" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ112" t="n">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AR112" t="n">
         <v>1.75</v>
@@ -25114,10 +25114,10 @@
         <v>0.83</v>
       </c>
       <c r="AP113" t="n">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AQ113" t="n">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="AR113" t="n">
         <v>1.68</v>
@@ -27076,7 +27076,7 @@
         <v>2.29</v>
       </c>
       <c r="AP122" t="n">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AQ122" t="n">
         <v>1.6</v>
@@ -27294,10 +27294,10 @@
         <v>0.71</v>
       </c>
       <c r="AP123" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ123" t="n">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="AR123" t="n">
         <v>1.85</v>
@@ -27512,10 +27512,10 @@
         <v>1.86</v>
       </c>
       <c r="AP124" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="AQ124" t="n">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AR124" t="n">
         <v>1.44</v>
@@ -27951,7 +27951,7 @@
         <v>1.87</v>
       </c>
       <c r="AQ126" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AR126" t="n">
         <v>1.75</v>
@@ -28169,7 +28169,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ127" t="n">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AR127" t="n">
         <v>1.22</v>
@@ -28384,10 +28384,10 @@
         <v>1.13</v>
       </c>
       <c r="AP128" t="n">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AQ128" t="n">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AR128" t="n">
         <v>1.64</v>
@@ -28602,7 +28602,7 @@
         <v>0.29</v>
       </c>
       <c r="AP129" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AQ129" t="n">
         <v>0.27</v>
@@ -28820,10 +28820,10 @@
         <v>2.5</v>
       </c>
       <c r="AP130" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AQ130" t="n">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AR130" t="n">
         <v>1.18</v>
@@ -29038,7 +29038,7 @@
         <v>1.25</v>
       </c>
       <c r="AP131" t="n">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AQ131" t="n">
         <v>1.07</v>
@@ -29256,7 +29256,7 @@
         <v>1.22</v>
       </c>
       <c r="AP132" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AQ132" t="n">
         <v>1.33</v>
@@ -29477,7 +29477,7 @@
         <v>1.93</v>
       </c>
       <c r="AQ133" t="n">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AR133" t="n">
         <v>1.37</v>
@@ -29695,7 +29695,7 @@
         <v>1.87</v>
       </c>
       <c r="AQ134" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AR134" t="n">
         <v>1.76</v>
@@ -29910,7 +29910,7 @@
         <v>1.71</v>
       </c>
       <c r="AP135" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="AQ135" t="n">
         <v>1.53</v>
@@ -30128,10 +30128,10 @@
         <v>0.75</v>
       </c>
       <c r="AP136" t="n">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="AQ136" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR136" t="n">
         <v>1.51</v>
@@ -30349,7 +30349,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ137" t="n">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="AR137" t="n">
         <v>1.53</v>
@@ -31218,7 +31218,7 @@
         <v>0.38</v>
       </c>
       <c r="AP141" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ141" t="n">
         <v>0.27</v>
@@ -31436,7 +31436,7 @@
         <v>2</v>
       </c>
       <c r="AP142" t="n">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AQ142" t="n">
         <v>1.6</v>
@@ -31875,7 +31875,7 @@
         <v>1.87</v>
       </c>
       <c r="AQ144" t="n">
-        <v>0.21</v>
+        <v>0.27</v>
       </c>
       <c r="AR144" t="n">
         <v>1.68</v>
@@ -32093,7 +32093,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ145" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR145" t="n">
         <v>1.72</v>
@@ -32526,10 +32526,10 @@
         <v>1.11</v>
       </c>
       <c r="AP147" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ147" t="n">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AR147" t="n">
         <v>1.76</v>
@@ -32744,10 +32744,10 @@
         <v>2.56</v>
       </c>
       <c r="AP148" t="n">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="AQ148" t="n">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AR148" t="n">
         <v>1.51</v>
@@ -33398,7 +33398,7 @@
         <v>1.13</v>
       </c>
       <c r="AP151" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AQ151" t="n">
         <v>0.8</v>
@@ -33616,10 +33616,10 @@
         <v>1.13</v>
       </c>
       <c r="AP152" t="n">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AQ152" t="n">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AR152" t="n">
         <v>1.71</v>
@@ -33837,7 +33837,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ153" t="n">
-        <v>0.21</v>
+        <v>0.27</v>
       </c>
       <c r="AR153" t="n">
         <v>1.8</v>
@@ -34055,7 +34055,7 @@
         <v>1.87</v>
       </c>
       <c r="AQ154" t="n">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AR154" t="n">
         <v>1.75</v>
@@ -34273,7 +34273,7 @@
         <v>1.93</v>
       </c>
       <c r="AQ155" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AR155" t="n">
         <v>1.36</v>
@@ -34488,10 +34488,10 @@
         <v>0.6</v>
       </c>
       <c r="AP156" t="n">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AQ156" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR156" t="n">
         <v>1.71</v>
@@ -34709,7 +34709,7 @@
         <v>1.87</v>
       </c>
       <c r="AQ157" t="n">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="AR157" t="n">
         <v>1.62</v>
@@ -34924,7 +34924,7 @@
         <v>0.44</v>
       </c>
       <c r="AP158" t="n">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AQ158" t="n">
         <v>0.8</v>
@@ -35360,7 +35360,7 @@
         <v>1.89</v>
       </c>
       <c r="AP160" t="n">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AQ160" t="n">
         <v>1.6</v>
@@ -35578,7 +35578,7 @@
         <v>0.22</v>
       </c>
       <c r="AP161" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="AQ161" t="n">
         <v>0.13</v>
@@ -36017,7 +36017,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ163" t="n">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AR163" t="n">
         <v>1.55</v>
@@ -36450,7 +36450,7 @@
         <v>1.33</v>
       </c>
       <c r="AP165" t="n">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AQ165" t="n">
         <v>1.53</v>
@@ -36671,7 +36671,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ166" t="n">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="AR166" t="n">
         <v>1.87</v>
@@ -36889,7 +36889,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ167" t="n">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AR167" t="n">
         <v>1.4</v>
@@ -37104,7 +37104,7 @@
         <v>0.2</v>
       </c>
       <c r="AP168" t="n">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="AQ168" t="n">
         <v>0.13</v>
@@ -37322,7 +37322,7 @@
         <v>0.3</v>
       </c>
       <c r="AP169" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="AQ169" t="n">
         <v>0.27</v>
@@ -37543,7 +37543,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ170" t="n">
-        <v>0.21</v>
+        <v>0.27</v>
       </c>
       <c r="AR170" t="n">
         <v>1.32</v>
@@ -37758,7 +37758,7 @@
         <v>1.5</v>
       </c>
       <c r="AP171" t="n">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AQ171" t="n">
         <v>1.53</v>
@@ -37979,7 +37979,7 @@
         <v>1.87</v>
       </c>
       <c r="AQ172" t="n">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AR172" t="n">
         <v>1.75</v>
@@ -38412,7 +38412,7 @@
         <v>1.33</v>
       </c>
       <c r="AP174" t="n">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AQ174" t="n">
         <v>0.8</v>
@@ -38633,7 +38633,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ175" t="n">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AR175" t="n">
         <v>1.19</v>
@@ -38848,7 +38848,7 @@
         <v>0.18</v>
       </c>
       <c r="AP176" t="n">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AQ176" t="n">
         <v>0.13</v>
@@ -39066,10 +39066,10 @@
         <v>1</v>
       </c>
       <c r="AP177" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AQ177" t="n">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AR177" t="n">
         <v>1.79</v>
@@ -39287,7 +39287,7 @@
         <v>1.87</v>
       </c>
       <c r="AQ178" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR178" t="n">
         <v>1.7</v>
@@ -39505,7 +39505,7 @@
         <v>1.93</v>
       </c>
       <c r="AQ179" t="n">
-        <v>0.21</v>
+        <v>0.27</v>
       </c>
       <c r="AR179" t="n">
         <v>1.4</v>
@@ -39720,10 +39720,10 @@
         <v>1.27</v>
       </c>
       <c r="AP180" t="n">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AQ180" t="n">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AR180" t="n">
         <v>1.74</v>
@@ -39938,7 +39938,7 @@
         <v>0.55</v>
       </c>
       <c r="AP181" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AQ181" t="n">
         <v>0.8</v>
@@ -40374,10 +40374,10 @@
         <v>1.45</v>
       </c>
       <c r="AP183" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ183" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AR183" t="n">
         <v>1.76</v>
@@ -40592,10 +40592,10 @@
         <v>0.45</v>
       </c>
       <c r="AP184" t="n">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AQ184" t="n">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="AR184" t="n">
         <v>1.21</v>
@@ -40810,7 +40810,7 @@
         <v>1.2</v>
       </c>
       <c r="AP185" t="n">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AQ185" t="n">
         <v>0.8</v>
@@ -41031,7 +41031,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ186" t="n">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AR186" t="n">
         <v>1.18</v>
@@ -41246,7 +41246,7 @@
         <v>1.09</v>
       </c>
       <c r="AP187" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AQ187" t="n">
         <v>1.33</v>
@@ -41685,7 +41685,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ189" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR189" t="n">
         <v>1.41</v>
@@ -41900,7 +41900,7 @@
         <v>1.36</v>
       </c>
       <c r="AP190" t="n">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="AQ190" t="n">
         <v>1.53</v>
@@ -42336,10 +42336,10 @@
         <v>1.18</v>
       </c>
       <c r="AP192" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="AQ192" t="n">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AR192" t="n">
         <v>1.39</v>
@@ -42993,7 +42993,7 @@
         <v>1.87</v>
       </c>
       <c r="AQ195" t="n">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AR195" t="n">
         <v>1.55</v>
@@ -43208,10 +43208,10 @@
         <v>0.25</v>
       </c>
       <c r="AP196" t="n">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AQ196" t="n">
-        <v>0.21</v>
+        <v>0.27</v>
       </c>
       <c r="AR196" t="n">
         <v>1.75</v>
@@ -44080,7 +44080,7 @@
         <v>1.33</v>
       </c>
       <c r="AP200" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AQ200" t="n">
         <v>1.53</v>
@@ -44516,7 +44516,7 @@
         <v>1</v>
       </c>
       <c r="AP202" t="n">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="AQ202" t="n">
         <v>0.8</v>
@@ -44734,10 +44734,10 @@
         <v>1.33</v>
       </c>
       <c r="AP203" t="n">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AQ203" t="n">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AR203" t="n">
         <v>1.44</v>
@@ -44952,7 +44952,7 @@
         <v>1.25</v>
       </c>
       <c r="AP204" t="n">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AQ204" t="n">
         <v>1.33</v>
@@ -45170,10 +45170,10 @@
         <v>2.42</v>
       </c>
       <c r="AP205" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ205" t="n">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AR205" t="n">
         <v>1.71</v>
@@ -45391,7 +45391,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ206" t="n">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AR206" t="n">
         <v>1.78</v>
@@ -45609,7 +45609,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ207" t="n">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="AR207" t="n">
         <v>1.45</v>
@@ -45824,10 +45824,10 @@
         <v>1.58</v>
       </c>
       <c r="AP208" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AQ208" t="n">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AR208" t="n">
         <v>1.13</v>
@@ -46260,10 +46260,10 @@
         <v>0.54</v>
       </c>
       <c r="AP210" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="AQ210" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR210" t="n">
         <v>1.4</v>
@@ -46478,10 +46478,10 @@
         <v>1.58</v>
       </c>
       <c r="AP211" t="n">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AQ211" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AR211" t="n">
         <v>1.77</v>
@@ -46914,7 +46914,7 @@
         <v>0.92</v>
       </c>
       <c r="AP213" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AQ213" t="n">
         <v>1.07</v>
@@ -47132,10 +47132,10 @@
         <v>2.23</v>
       </c>
       <c r="AP214" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AQ214" t="n">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AR214" t="n">
         <v>1.65</v>
@@ -47571,7 +47571,7 @@
         <v>1.93</v>
       </c>
       <c r="AQ216" t="n">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="AR216" t="n">
         <v>1.38</v>
@@ -47786,10 +47786,10 @@
         <v>0.23</v>
       </c>
       <c r="AP217" t="n">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="AQ217" t="n">
-        <v>0.21</v>
+        <v>0.27</v>
       </c>
       <c r="AR217" t="n">
         <v>1.44</v>
@@ -48007,7 +48007,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ218" t="n">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AR218" t="n">
         <v>1.39</v>
@@ -48222,7 +48222,7 @@
         <v>1.23</v>
       </c>
       <c r="AP219" t="n">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AQ219" t="n">
         <v>1.33</v>
@@ -48440,10 +48440,10 @@
         <v>1.46</v>
       </c>
       <c r="AP220" t="n">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AQ220" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AR220" t="n">
         <v>1.19</v>
@@ -48661,7 +48661,7 @@
         <v>1.87</v>
       </c>
       <c r="AQ221" t="n">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AR221" t="n">
         <v>1.76</v>
@@ -49094,7 +49094,7 @@
         <v>1.54</v>
       </c>
       <c r="AP223" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AQ223" t="n">
         <v>1.6</v>
@@ -49315,7 +49315,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ224" t="n">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AR224" t="n">
         <v>1.51</v>
@@ -49530,7 +49530,7 @@
         <v>0.15</v>
       </c>
       <c r="AP225" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ225" t="n">
         <v>0.13</v>
@@ -51353,6 +51353,1750 @@
       </c>
       <c r="BP233" t="n">
         <v>1.22</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="1" t="n">
+        <v>233</v>
+      </c>
+      <c r="B234" t="n">
+        <v>5845677</v>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>China Chinese Super League</t>
+        </is>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E234" s="2" t="n">
+        <v>45234.1875</v>
+      </c>
+      <c r="F234" t="n">
+        <v>30</v>
+      </c>
+      <c r="G234" t="inlineStr">
+        <is>
+          <t>Shijiazhuang Ever Bright</t>
+        </is>
+      </c>
+      <c r="H234" t="inlineStr">
+        <is>
+          <t>Qingdao Jonoon</t>
+        </is>
+      </c>
+      <c r="I234" t="n">
+        <v>0</v>
+      </c>
+      <c r="J234" t="n">
+        <v>0</v>
+      </c>
+      <c r="K234" t="n">
+        <v>0</v>
+      </c>
+      <c r="L234" t="n">
+        <v>0</v>
+      </c>
+      <c r="M234" t="n">
+        <v>0</v>
+      </c>
+      <c r="N234" t="n">
+        <v>0</v>
+      </c>
+      <c r="O234" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P234" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q234" t="n">
+        <v>3</v>
+      </c>
+      <c r="R234" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="S234" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="T234" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="U234" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="V234" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="W234" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="X234" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="Y234" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="Z234" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="AA234" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="AB234" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AC234" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD234" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE234" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AF234" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="AG234" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AH234" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="AI234" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AJ234" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AK234" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AL234" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AM234" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AN234" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AO234" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="AP234" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AQ234" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="AR234" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AS234" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AT234" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="AU234" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV234" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW234" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX234" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY234" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ234" t="n">
+        <v>9</v>
+      </c>
+      <c r="BA234" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB234" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC234" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD234" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BE234" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF234" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BG234" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BH234" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BI234" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BJ234" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="BK234" t="n">
+        <v>2</v>
+      </c>
+      <c r="BL234" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BM234" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="BN234" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BO234" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="BP234" t="n">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="1" t="n">
+        <v>234</v>
+      </c>
+      <c r="B235" t="n">
+        <v>5845678</v>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>China Chinese Super League</t>
+        </is>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E235" s="2" t="n">
+        <v>45234.1875</v>
+      </c>
+      <c r="F235" t="n">
+        <v>30</v>
+      </c>
+      <c r="G235" t="inlineStr">
+        <is>
+          <t>Changchun Yatai</t>
+        </is>
+      </c>
+      <c r="H235" t="inlineStr">
+        <is>
+          <t>Wuhan Three Towns</t>
+        </is>
+      </c>
+      <c r="I235" t="n">
+        <v>1</v>
+      </c>
+      <c r="J235" t="n">
+        <v>4</v>
+      </c>
+      <c r="K235" t="n">
+        <v>5</v>
+      </c>
+      <c r="L235" t="n">
+        <v>3</v>
+      </c>
+      <c r="M235" t="n">
+        <v>4</v>
+      </c>
+      <c r="N235" t="n">
+        <v>7</v>
+      </c>
+      <c r="O235" t="inlineStr">
+        <is>
+          <t>['7', '64', '75']</t>
+        </is>
+      </c>
+      <c r="P235" t="inlineStr">
+        <is>
+          <t>['17', '26', '34', '40']</t>
+        </is>
+      </c>
+      <c r="Q235" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="R235" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="S235" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="T235" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="U235" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="V235" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="W235" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="X235" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="Y235" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="Z235" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="AA235" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="AB235" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AC235" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD235" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE235" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AF235" t="n">
+        <v>5.15</v>
+      </c>
+      <c r="AG235" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AH235" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AI235" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AJ235" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AK235" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AL235" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM235" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AN235" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AO235" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AP235" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AQ235" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AR235" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AS235" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AT235" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="AU235" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV235" t="n">
+        <v>9</v>
+      </c>
+      <c r="AW235" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX235" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY235" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ235" t="n">
+        <v>16</v>
+      </c>
+      <c r="BA235" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB235" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC235" t="n">
+        <v>5</v>
+      </c>
+      <c r="BD235" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BE235" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BF235" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BG235" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BH235" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="BI235" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BJ235" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BK235" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BL235" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BM235" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BN235" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BO235" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="BP235" t="n">
+        <v>1.14</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="1" t="n">
+        <v>235</v>
+      </c>
+      <c r="B236" t="n">
+        <v>5845676</v>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>China Chinese Super League</t>
+        </is>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E236" s="2" t="n">
+        <v>45234.1875</v>
+      </c>
+      <c r="F236" t="n">
+        <v>30</v>
+      </c>
+      <c r="G236" t="inlineStr">
+        <is>
+          <t>Dalian Yifang</t>
+        </is>
+      </c>
+      <c r="H236" t="inlineStr">
+        <is>
+          <t>Shanghai SIPG</t>
+        </is>
+      </c>
+      <c r="I236" t="n">
+        <v>1</v>
+      </c>
+      <c r="J236" t="n">
+        <v>0</v>
+      </c>
+      <c r="K236" t="n">
+        <v>1</v>
+      </c>
+      <c r="L236" t="n">
+        <v>2</v>
+      </c>
+      <c r="M236" t="n">
+        <v>3</v>
+      </c>
+      <c r="N236" t="n">
+        <v>5</v>
+      </c>
+      <c r="O236" t="inlineStr">
+        <is>
+          <t>['39', '56']</t>
+        </is>
+      </c>
+      <c r="P236" t="inlineStr">
+        <is>
+          <t>['71', '79', '90+4']</t>
+        </is>
+      </c>
+      <c r="Q236" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="R236" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="S236" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="T236" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="U236" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="V236" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="W236" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="X236" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="Y236" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="Z236" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="AA236" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AB236" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AC236" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD236" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE236" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AF236" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="AG236" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AH236" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="AI236" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AJ236" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="AK236" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AL236" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AM236" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AN236" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AO236" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AP236" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AQ236" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AR236" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AS236" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AT236" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="AU236" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV236" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW236" t="n">
+        <v>10</v>
+      </c>
+      <c r="AX236" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY236" t="n">
+        <v>16</v>
+      </c>
+      <c r="AZ236" t="n">
+        <v>9</v>
+      </c>
+      <c r="BA236" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB236" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC236" t="n">
+        <v>13</v>
+      </c>
+      <c r="BD236" t="n">
+        <v>2</v>
+      </c>
+      <c r="BE236" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BF236" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BG236" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BH236" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="BI236" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BJ236" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BK236" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="BL236" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BM236" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="BN236" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BO236" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="BP236" t="n">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="1" t="n">
+        <v>236</v>
+      </c>
+      <c r="B237" t="n">
+        <v>5845679</v>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>China Chinese Super League</t>
+        </is>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E237" s="2" t="n">
+        <v>45234.1875</v>
+      </c>
+      <c r="F237" t="n">
+        <v>30</v>
+      </c>
+      <c r="G237" t="inlineStr">
+        <is>
+          <t>Shenzhen</t>
+        </is>
+      </c>
+      <c r="H237" t="inlineStr">
+        <is>
+          <t>Beijing Guoan</t>
+        </is>
+      </c>
+      <c r="I237" t="n">
+        <v>0</v>
+      </c>
+      <c r="J237" t="n">
+        <v>2</v>
+      </c>
+      <c r="K237" t="n">
+        <v>2</v>
+      </c>
+      <c r="L237" t="n">
+        <v>0</v>
+      </c>
+      <c r="M237" t="n">
+        <v>3</v>
+      </c>
+      <c r="N237" t="n">
+        <v>3</v>
+      </c>
+      <c r="O237" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P237" t="inlineStr">
+        <is>
+          <t>['18', '37', '81']</t>
+        </is>
+      </c>
+      <c r="Q237" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="R237" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="S237" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T237" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="U237" t="n">
+        <v>5</v>
+      </c>
+      <c r="V237" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="W237" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="X237" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="Y237" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="Z237" t="n">
+        <v>37</v>
+      </c>
+      <c r="AA237" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB237" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AC237" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AD237" t="n">
+        <v>42.5</v>
+      </c>
+      <c r="AE237" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AF237" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AG237" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AH237" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AI237" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AJ237" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AK237" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="AL237" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AM237" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AN237" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AO237" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AP237" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AQ237" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AR237" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AS237" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AT237" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="AU237" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV237" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW237" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX237" t="n">
+        <v>8</v>
+      </c>
+      <c r="AY237" t="n">
+        <v>5</v>
+      </c>
+      <c r="AZ237" t="n">
+        <v>14</v>
+      </c>
+      <c r="BA237" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB237" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC237" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD237" t="n">
+        <v>9</v>
+      </c>
+      <c r="BE237" t="n">
+        <v>13</v>
+      </c>
+      <c r="BF237" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="BG237" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BH237" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BI237" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BJ237" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="BK237" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BL237" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BM237" t="n">
+        <v>3</v>
+      </c>
+      <c r="BN237" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BO237" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="BP237" t="n">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="1" t="n">
+        <v>237</v>
+      </c>
+      <c r="B238" t="n">
+        <v>5845674</v>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>China Chinese Super League</t>
+        </is>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E238" s="2" t="n">
+        <v>45234.1875</v>
+      </c>
+      <c r="F238" t="n">
+        <v>30</v>
+      </c>
+      <c r="G238" t="inlineStr">
+        <is>
+          <t>Chengdu Better City FC</t>
+        </is>
+      </c>
+      <c r="H238" t="inlineStr">
+        <is>
+          <t>Meizhou Hakka</t>
+        </is>
+      </c>
+      <c r="I238" t="n">
+        <v>2</v>
+      </c>
+      <c r="J238" t="n">
+        <v>0</v>
+      </c>
+      <c r="K238" t="n">
+        <v>2</v>
+      </c>
+      <c r="L238" t="n">
+        <v>3</v>
+      </c>
+      <c r="M238" t="n">
+        <v>0</v>
+      </c>
+      <c r="N238" t="n">
+        <v>3</v>
+      </c>
+      <c r="O238" t="inlineStr">
+        <is>
+          <t>['17', '42', '50']</t>
+        </is>
+      </c>
+      <c r="P238" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q238" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="R238" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="S238" t="n">
+        <v>6.95</v>
+      </c>
+      <c r="T238" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="U238" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="V238" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="W238" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="X238" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="Y238" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="Z238" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AA238" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AB238" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC238" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD238" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE238" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AF238" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AG238" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AH238" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AI238" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AJ238" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AK238" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AL238" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AM238" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="AN238" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AO238" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AP238" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ238" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AR238" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AS238" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AT238" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="AU238" t="n">
+        <v>12</v>
+      </c>
+      <c r="AV238" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW238" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX238" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY238" t="n">
+        <v>17</v>
+      </c>
+      <c r="AZ238" t="n">
+        <v>6</v>
+      </c>
+      <c r="BA238" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB238" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC238" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD238" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="BE238" t="n">
+        <v>11</v>
+      </c>
+      <c r="BF238" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG238" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BH238" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="BI238" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BJ238" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BK238" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="BL238" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BM238" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BN238" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BO238" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BP238" t="n">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="1" t="n">
+        <v>238</v>
+      </c>
+      <c r="B239" t="n">
+        <v>5845673</v>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>China Chinese Super League</t>
+        </is>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E239" s="2" t="n">
+        <v>45234.1875</v>
+      </c>
+      <c r="F239" t="n">
+        <v>30</v>
+      </c>
+      <c r="G239" t="inlineStr">
+        <is>
+          <t>Shandong Luneng</t>
+        </is>
+      </c>
+      <c r="H239" t="inlineStr">
+        <is>
+          <t>Henan Jianye</t>
+        </is>
+      </c>
+      <c r="I239" t="n">
+        <v>2</v>
+      </c>
+      <c r="J239" t="n">
+        <v>0</v>
+      </c>
+      <c r="K239" t="n">
+        <v>2</v>
+      </c>
+      <c r="L239" t="n">
+        <v>5</v>
+      </c>
+      <c r="M239" t="n">
+        <v>1</v>
+      </c>
+      <c r="N239" t="n">
+        <v>6</v>
+      </c>
+      <c r="O239" t="inlineStr">
+        <is>
+          <t>['11', '45+2', '46', '53', '69']</t>
+        </is>
+      </c>
+      <c r="P239" t="inlineStr">
+        <is>
+          <t>['67']</t>
+        </is>
+      </c>
+      <c r="Q239" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="R239" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="S239" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="T239" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="U239" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="V239" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="W239" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="X239" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="Y239" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="Z239" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AA239" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="AB239" t="n">
+        <v>6.15</v>
+      </c>
+      <c r="AC239" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD239" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE239" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AF239" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="AG239" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AH239" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="AI239" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AJ239" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AK239" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AL239" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AM239" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AN239" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AO239" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="AP239" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="AQ239" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AR239" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AS239" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AT239" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="AU239" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV239" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW239" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX239" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY239" t="n">
+        <v>14</v>
+      </c>
+      <c r="AZ239" t="n">
+        <v>10</v>
+      </c>
+      <c r="BA239" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB239" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC239" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD239" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BE239" t="n">
+        <v>9</v>
+      </c>
+      <c r="BF239" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="BG239" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BH239" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="BI239" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BJ239" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="BK239" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="BL239" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="BM239" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="BN239" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BO239" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="BP239" t="n">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="1" t="n">
+        <v>239</v>
+      </c>
+      <c r="B240" t="n">
+        <v>5845675</v>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>China Chinese Super League</t>
+        </is>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E240" s="2" t="n">
+        <v>45234.1875</v>
+      </c>
+      <c r="F240" t="n">
+        <v>30</v>
+      </c>
+      <c r="G240" t="inlineStr">
+        <is>
+          <t>Shanghai Shenhua</t>
+        </is>
+      </c>
+      <c r="H240" t="inlineStr">
+        <is>
+          <t>Zhejiang FC</t>
+        </is>
+      </c>
+      <c r="I240" t="n">
+        <v>0</v>
+      </c>
+      <c r="J240" t="n">
+        <v>0</v>
+      </c>
+      <c r="K240" t="n">
+        <v>0</v>
+      </c>
+      <c r="L240" t="n">
+        <v>1</v>
+      </c>
+      <c r="M240" t="n">
+        <v>2</v>
+      </c>
+      <c r="N240" t="n">
+        <v>3</v>
+      </c>
+      <c r="O240" t="inlineStr">
+        <is>
+          <t>['78']</t>
+        </is>
+      </c>
+      <c r="P240" t="inlineStr">
+        <is>
+          <t>['82', '86']</t>
+        </is>
+      </c>
+      <c r="Q240" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="R240" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="S240" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="T240" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="U240" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="V240" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="W240" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="X240" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="Y240" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Z240" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="AA240" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="AB240" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="AC240" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AD240" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AE240" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AF240" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="AG240" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AH240" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AI240" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AJ240" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AK240" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AL240" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AM240" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AN240" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO240" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AP240" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AQ240" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AR240" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AS240" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AT240" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AU240" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV240" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW240" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX240" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY240" t="n">
+        <v>14</v>
+      </c>
+      <c r="AZ240" t="n">
+        <v>9</v>
+      </c>
+      <c r="BA240" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB240" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC240" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD240" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BE240" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BF240" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BG240" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BH240" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BI240" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BJ240" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="BK240" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BL240" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BM240" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="BN240" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BO240" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="BP240" t="n">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="1" t="n">
+        <v>240</v>
+      </c>
+      <c r="B241" t="n">
+        <v>5845680</v>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>China Chinese Super League</t>
+        </is>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E241" s="2" t="n">
+        <v>45234.1875</v>
+      </c>
+      <c r="F241" t="n">
+        <v>30</v>
+      </c>
+      <c r="G241" t="inlineStr">
+        <is>
+          <t>Nantong Zhiyun</t>
+        </is>
+      </c>
+      <c r="H241" t="inlineStr">
+        <is>
+          <t>Tianjin Teda</t>
+        </is>
+      </c>
+      <c r="I241" t="n">
+        <v>0</v>
+      </c>
+      <c r="J241" t="n">
+        <v>2</v>
+      </c>
+      <c r="K241" t="n">
+        <v>2</v>
+      </c>
+      <c r="L241" t="n">
+        <v>1</v>
+      </c>
+      <c r="M241" t="n">
+        <v>2</v>
+      </c>
+      <c r="N241" t="n">
+        <v>3</v>
+      </c>
+      <c r="O241" t="inlineStr">
+        <is>
+          <t>['65']</t>
+        </is>
+      </c>
+      <c r="P241" t="inlineStr">
+        <is>
+          <t>['27', '45+6']</t>
+        </is>
+      </c>
+      <c r="Q241" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="R241" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="S241" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="T241" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="U241" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="V241" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="W241" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="X241" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="Y241" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="Z241" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AA241" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="AB241" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="AC241" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD241" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE241" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AF241" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AG241" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AH241" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AI241" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AJ241" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AK241" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AL241" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AM241" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AN241" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AO241" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AP241" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AQ241" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AR241" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AS241" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AT241" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AU241" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV241" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW241" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX241" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY241" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ241" t="n">
+        <v>8</v>
+      </c>
+      <c r="BA241" t="n">
+        <v>8</v>
+      </c>
+      <c r="BB241" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC241" t="n">
+        <v>13</v>
+      </c>
+      <c r="BD241" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BE241" t="n">
+        <v>9</v>
+      </c>
+      <c r="BF241" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BG241" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BH241" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="BI241" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BJ241" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BK241" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BL241" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BM241" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="BN241" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BO241" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BP241" t="n">
+        <v>1.3</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/China Chinese Super League_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/China Chinese Super League_2023.xlsx
@@ -51631,7 +51631,7 @@
       </c>
       <c r="P235" t="inlineStr">
         <is>
-          <t>['17', '26', '34', '40']</t>
+          <t>['16', '26', '34', '40']</t>
         </is>
       </c>
       <c r="Q235" t="n">
@@ -52167,13 +52167,13 @@
         <v>6</v>
       </c>
       <c r="AW237" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AX237" t="n">
         <v>8</v>
       </c>
       <c r="AY237" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AZ237" t="n">
         <v>14</v>
@@ -52597,7 +52597,7 @@
         <v>2.96</v>
       </c>
       <c r="AU239" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AV239" t="n">
         <v>4</v>
@@ -52609,7 +52609,7 @@
         <v>6</v>
       </c>
       <c r="AY239" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AZ239" t="n">
         <v>10</v>
@@ -53033,7 +53033,7 @@
         <v>2.65</v>
       </c>
       <c r="AU241" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AV241" t="n">
         <v>4</v>
@@ -53045,7 +53045,7 @@
         <v>4</v>
       </c>
       <c r="AY241" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AZ241" t="n">
         <v>8</v>

--- a/Bases_de_Dados_(2022-2024)/China Chinese Super League_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/China Chinese Super League_2023.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
